--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6276BE66-1E95-4529-BC9B-C9DA4A97779B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C096BA0-E01B-4F0E-A722-74413E303A35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="810">
   <si>
     <t>$UA</t>
   </si>
@@ -2476,6 +2476,15 @@
   </si>
   <si>
     <t>Inventory/Revenue</t>
+  </si>
+  <si>
+    <t>$UA promote David Baxter to President of Americas &amp; Mehri Sehman as Chief Legal</t>
+  </si>
+  <si>
+    <t>Both are C-Suite roles. The search for a new permanent CEO continues</t>
+  </si>
+  <si>
+    <t>P/S</t>
   </si>
 </sst>
 </file>
@@ -2836,6 +2845,30 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2854,12 +2887,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2870,24 +2897,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3158,7 +3167,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3208,7 +3217,7 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3564,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749350E7-094F-4190-83AB-84EC4A5122F0}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3585,41 +3594,45 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="G5" s="74" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="84"/>
+      <c r="G5" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="76"/>
-      <c r="R5" s="71" t="s">
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
+      <c r="R5" s="79" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="73"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="81"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>6.65</v>
+        <v>6.69</v>
       </c>
       <c r="D6" s="6"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="52">
+        <v>44835</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>807</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -3660,7 +3673,9 @@
         <v>112</v>
       </c>
       <c r="G7" s="63"/>
-      <c r="H7" s="8"/>
+      <c r="H7" s="61" t="s">
+        <v>808</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -3697,7 +3712,7 @@
       </c>
       <c r="C8" s="28">
         <f>C6*C7</f>
-        <v>3048.36</v>
+        <v>3066.6959999999999</v>
       </c>
       <c r="D8" s="30"/>
       <c r="G8" s="63"/>
@@ -3871,7 +3886,7 @@
       </c>
       <c r="C12" s="29">
         <f>C8-C11</f>
-        <v>2671.7809999999999</v>
+        <v>2690.1169999999997</v>
       </c>
       <c r="D12" s="31"/>
       <c r="G12" s="63"/>
@@ -3979,11 +3994,11 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
       <c r="G15" s="63"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4020,10 +4035,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="78"/>
+      <c r="D16" s="76"/>
       <c r="G16" s="52">
         <v>44682</v>
       </c>
@@ -4064,10 +4079,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="76"/>
       <c r="G17" s="63"/>
       <c r="H17" s="61" t="s">
         <v>774</v>
@@ -4106,10 +4121,10 @@
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="76"/>
       <c r="G18" s="63"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4146,10 +4161,10 @@
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4258,11 +4273,11 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
       <c r="G22" s="14" t="s">
         <v>31</v>
       </c>
@@ -4303,10 +4318,10 @@
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="76"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4343,10 +4358,10 @@
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="75">
         <v>1996</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="76"/>
       <c r="G24" s="52">
         <v>44228</v>
       </c>
@@ -4425,10 +4440,10 @@
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="75">
         <v>422</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="76"/>
       <c r="G26" s="64"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4465,11 +4480,11 @@
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="87">
         <f>'Financial Model'!Q52</f>
         <v>954.39400000000001</v>
       </c>
-      <c r="D27" s="82"/>
+      <c r="D27" s="88"/>
       <c r="R27" s="37">
         <v>2020</v>
       </c>
@@ -4524,10 +4539,10 @@
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="75" t="s">
         <v>789</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="76"/>
       <c r="R29" s="37">
         <v>2020</v>
       </c>
@@ -4555,10 +4570,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="78"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4631,11 +4646,11 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -4663,11 +4678,11 @@
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="85">
+      <c r="C34" s="73">
         <f>C12/SUM('Financial Model'!N20:Q20)</f>
-        <v>15.608659075905694</v>
-      </c>
-      <c r="D34" s="86"/>
+        <v>15.715778773521555</v>
+      </c>
+      <c r="D34" s="74"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -4695,11 +4710,11 @@
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="73">
         <f>C6/SUM('Financial Model'!N21:Q21)</f>
-        <v>18.371878693929585</v>
-      </c>
-      <c r="D35" s="86"/>
+        <v>18.4823862349457</v>
+      </c>
+      <c r="D35" s="74"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -4727,8 +4742,8 @@
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -4756,11 +4771,11 @@
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="85">
+      <c r="C37" s="73">
         <f>C6/'Financial Model'!Q77</f>
-        <v>1.7630377451788364</v>
-      </c>
-      <c r="D37" s="86"/>
+        <v>1.7736424834957014</v>
+      </c>
+      <c r="D37" s="74"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -4869,11 +4884,11 @@
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="83">
+      <c r="C41" s="71">
         <f>C6/'Financial Model'!AA21</f>
-        <v>8.5974604232627811</v>
-      </c>
-      <c r="D41" s="84"/>
+        <v>8.6491744709215048</v>
+      </c>
+      <c r="D41" s="72"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5363,16 +5378,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
     <mergeCell ref="R5:W5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B33:D33"/>
@@ -5384,6 +5389,16 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C29:D29"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5532,13 +5547,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
-  <dimension ref="B1:AT92"/>
+  <dimension ref="B1:AT94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="M94" sqref="M94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7639,6 +7654,10 @@
         <f>Q60-Q71</f>
         <v>1729.0950000000003</v>
       </c>
+      <c r="AA76" s="22">
+        <f>AA60-AA71</f>
+        <v>2088.9940000000006</v>
+      </c>
     </row>
     <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
@@ -7652,6 +7671,10 @@
         <f>Q76/Q22</f>
         <v>3.7718988253002195</v>
       </c>
+      <c r="AA77" s="53">
+        <f>AA76/AA22</f>
+        <v>4.4875962397745255</v>
+      </c>
     </row>
     <row r="79" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="58" t="s">
@@ -7812,34 +7835,56 @@
     </row>
     <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="P90" s="70">
+        <f t="shared" ref="P90:Q90" si="25">P86/P77</f>
+        <v>4.3844509454849581</v>
+      </c>
+      <c r="Q90" s="70">
+        <f>Q86/Q77</f>
+        <v>2.0095979110459519</v>
+      </c>
+      <c r="AA90" s="70">
+        <f>AA86/AA77</f>
+        <v>4.0199694972795506</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="70">
-        <f t="shared" ref="Y90:Z90" si="25">Y86/Y21</f>
+      <c r="Y92" s="70">
+        <f t="shared" ref="Y92:Z92" si="26">Y86/Y21</f>
         <v>93.871302120640664</v>
       </c>
-      <c r="Z90" s="70">
-        <f t="shared" si="25"/>
+      <c r="Z92" s="70">
+        <f t="shared" si="26"/>
         <v>-12.303582123796154</v>
       </c>
-      <c r="AA90" s="70">
+      <c r="AA92" s="70">
         <f>AA86/AA21</f>
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B92" s="1" t="s">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="P92" s="25">
-        <f t="shared" ref="P92:Q92" si="26">P52/P9</f>
+      <c r="P94" s="25">
+        <f t="shared" ref="P94" si="27">P52/P9</f>
         <v>0.63373547690332799</v>
       </c>
-      <c r="Q92" s="25">
+      <c r="Q94" s="25">
         <f>Q52/Q9</f>
         <v>0.70745268732158828</v>
       </c>
-      <c r="AA92" s="25">
+      <c r="AA94" s="25">
         <f>AA52/AA9</f>
         <v>0.14276675535667846</v>
       </c>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C096BA0-E01B-4F0E-A722-74413E303A35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEADE0F0-A2FD-C640-8D86-07B98865F0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -34,19 +44,10 @@
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Quarter Transition, Changed FQ system</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="810">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="811">
   <si>
     <t>$UA</t>
   </si>
@@ -2485,6 +2486,9 @@
   </si>
   <si>
     <t>P/S</t>
+  </si>
+  <si>
+    <t>EV/S</t>
   </si>
 </sst>
 </file>
@@ -2711,7 +2715,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2899,11 +2903,18 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -3167,7 +3178,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3217,7 +3228,7 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3573,27 +3584,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749350E7-094F-4190-83AB-84EC4A5122F0}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B5" s="82" t="s">
         <v>2</v>
       </c>
@@ -3619,7 +3630,7 @@
       <c r="V5" s="80"/>
       <c r="W5" s="81"/>
     </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3659,7 +3670,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3706,7 +3717,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3747,7 +3758,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3790,7 +3801,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3833,7 +3844,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -3880,7 +3891,7 @@
         <v>-0.6875</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -3921,7 +3932,7 @@
         <v>-0.61538461538461542</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G13" s="52">
         <v>44743</v>
       </c>
@@ -3958,7 +3969,7 @@
         <v>-0.23076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G14" s="63"/>
       <c r="H14" s="61" t="s">
         <v>784</v>
@@ -3993,7 +4004,7 @@
         <v>-0.46153846153846156</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B15" s="82" t="s">
         <v>10</v>
       </c>
@@ -4031,7 +4042,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
@@ -4075,7 +4086,7 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
@@ -4117,7 +4128,7 @@
         <v>-0.10526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
@@ -4157,7 +4168,7 @@
         <v>0.45454545454545459</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
@@ -4204,7 +4215,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G20" s="63"/>
       <c r="H20" s="61" t="s">
         <v>793</v>
@@ -4239,7 +4250,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G21" s="63"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4272,7 +4283,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B22" s="82" t="s">
         <v>13</v>
       </c>
@@ -4314,7 +4325,7 @@
         <v>-0.26666666666666672</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -4354,7 +4365,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
@@ -4398,7 +4409,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4436,7 +4447,7 @@
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
@@ -4476,7 +4487,7 @@
         <v>0.36842105263157898</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
@@ -4508,7 +4519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4535,7 +4546,7 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
@@ -4566,7 +4577,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
@@ -4597,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R31" s="37">
         <v>2020</v>
       </c>
@@ -4621,7 +4632,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R32" s="37">
         <v>2020</v>
       </c>
@@ -4645,7 +4656,7 @@
         <v>-0.80487804878048785</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B33" s="82" t="s">
         <v>56</v>
       </c>
@@ -4674,7 +4685,7 @@
         <v>-0.82954545454545459</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
@@ -4706,7 +4717,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
@@ -4738,7 +4749,7 @@
         <v>-0.16666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
@@ -4767,7 +4778,7 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
@@ -4799,10 +4810,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B38" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="C38" s="90">
+        <f>C8/SUM('Financial Model'!N9:Q9)</f>
+        <v>0.53569184551470383</v>
+      </c>
+      <c r="D38" s="91"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -4826,10 +4842,15 @@
         <v>1.7142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="9"/>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B39" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="C39" s="90">
+        <f>C12/SUM('Financial Model'!N9:Q9)</f>
+        <v>0.46991085532458332</v>
+      </c>
+      <c r="D39" s="91"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -4853,7 +4874,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -4880,7 +4901,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
@@ -4912,7 +4933,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R42" s="37">
         <v>2019</v>
       </c>
@@ -4936,7 +4957,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R43" s="37">
         <v>2019</v>
       </c>
@@ -4960,7 +4981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R44" s="37">
         <v>2019</v>
       </c>
@@ -4984,7 +5005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R45" s="37">
         <v>2019</v>
       </c>
@@ -5008,7 +5029,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R46" s="37">
         <v>2019</v>
       </c>
@@ -5032,7 +5053,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R47" s="37">
         <v>2019</v>
       </c>
@@ -5056,7 +5077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R48" s="37">
         <v>2019</v>
       </c>
@@ -5079,7 +5100,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R49" s="37">
         <v>2019</v>
       </c>
@@ -5103,7 +5124,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R50" s="37">
         <v>2018</v>
       </c>
@@ -5126,7 +5147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R51" s="37">
         <v>2018</v>
       </c>
@@ -5149,7 +5170,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R52" s="37">
         <v>2018</v>
       </c>
@@ -5172,7 +5193,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R53" s="37">
         <v>2018</v>
       </c>
@@ -5195,7 +5216,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R54" s="37">
         <v>2018</v>
       </c>
@@ -5218,7 +5239,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R55" s="37">
         <v>2018</v>
       </c>
@@ -5241,7 +5262,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R56" s="37">
         <v>2018</v>
       </c>
@@ -5264,7 +5285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R57" s="37">
         <v>2018</v>
       </c>
@@ -5287,7 +5308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R58" s="37">
         <v>2018</v>
       </c>
@@ -5310,7 +5331,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R59" s="37">
         <v>2018</v>
       </c>
@@ -5332,7 +5353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R60" s="37">
         <v>2018</v>
       </c>
@@ -5354,7 +5375,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R61" s="45">
         <v>2018</v>
       </c>
@@ -5377,7 +5398,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="23">
     <mergeCell ref="R5:W5"/>
     <mergeCell ref="G5:O5"/>
     <mergeCell ref="B33:D33"/>
@@ -5399,6 +5420,8 @@
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5541,31 +5564,34 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="C38:C39" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
-  <dimension ref="B1:AT94"/>
+  <dimension ref="B1:AT95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M94" sqref="M94"/>
+      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.1640625" style="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
@@ -5687,7 +5713,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:46" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:46" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="17"/>
       <c r="H2" s="24">
         <v>43921</v>
@@ -5729,7 +5755,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="54" t="s">
         <v>764</v>
       </c>
@@ -5784,7 +5810,7 @@
         <v>3841.2489999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="54" t="s">
         <v>765</v>
       </c>
@@ -5839,7 +5865,7 @@
         <v>1264.127</v>
       </c>
     </row>
-    <row r="5" spans="2:46" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:46" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="54" t="s">
         <v>766</v>
       </c>
@@ -5894,7 +5920,7 @@
         <v>461.89400000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="58" t="s">
         <v>769</v>
       </c>
@@ -5962,7 +5988,7 @@
         <v>5567.27</v>
       </c>
     </row>
-    <row r="7" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="32" t="s">
         <v>768</v>
       </c>
@@ -6017,7 +6043,7 @@
         <v>112.623</v>
       </c>
     </row>
-    <row r="8" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="32" t="s">
         <v>767</v>
       </c>
@@ -6072,7 +6098,7 @@
         <v>3.573</v>
       </c>
     </row>
-    <row r="9" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -6116,7 +6142,7 @@
         <v>5683.4660000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6160,7 +6186,7 @@
         <v>2821.9670000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
@@ -6217,7 +6243,7 @@
         <v>2861.4990000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -6261,7 +6287,7 @@
         <v>2334.6909999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -6305,7 +6331,7 @@
         <v>40.518000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
@@ -6362,7 +6388,7 @@
         <v>486.29000000000042</v>
       </c>
     </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -6406,7 +6432,7 @@
         <v>-44.3</v>
       </c>
     </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:46" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -6450,7 +6476,7 @@
         <v>-51.113</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -6507,7 +6533,7 @@
         <v>390.87700000000041</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -6551,7 +6577,7 @@
         <v>32.072000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -6595,7 +6621,7 @@
         <v>1.2549999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
@@ -6652,7 +6678,7 @@
         <v>360.0600000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
@@ -6709,7 +6735,7 @@
         <v>0.77348422355124846</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -6753,7 +6779,7 @@
         <v>465.50400000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -6793,7 +6819,7 @@
         <v>0.27014278380938728</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -6843,7 +6869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:27" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" s="60" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -6883,7 +6909,7 @@
         <v>0.31583556232993004</v>
       </c>
     </row>
-    <row r="27" spans="2:27" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:27" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
@@ -6933,7 +6959,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
@@ -6990,7 +7016,7 @@
         <v>0.50347780738021486</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
@@ -7047,7 +7073,7 @@
         <v>8.5562225585584642E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -7104,7 +7130,7 @@
         <v>6.3352186852177944E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
@@ -7161,198 +7187,308 @@
         <v>8.2051387009212537E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="69" t="s">
         <v>794</v>
       </c>
+      <c r="K37" s="32">
+        <v>176</v>
+      </c>
       <c r="M37" s="32">
         <v>178</v>
       </c>
+      <c r="O37" s="32">
+        <v>180</v>
+      </c>
       <c r="Q37" s="32">
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="69" t="s">
         <v>795</v>
       </c>
+      <c r="K38" s="32">
+        <v>18</v>
+      </c>
       <c r="M38" s="32">
         <v>17</v>
       </c>
+      <c r="O38" s="32">
+        <v>19</v>
+      </c>
       <c r="Q38" s="32">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="68" t="s">
         <v>796</v>
+      </c>
+      <c r="K39" s="32">
+        <f>K37+K38</f>
+        <v>194</v>
       </c>
       <c r="M39" s="32">
         <f>M37+M38</f>
         <v>195</v>
       </c>
+      <c r="O39" s="32">
+        <f>O37+O38</f>
+        <v>199</v>
+      </c>
       <c r="Q39" s="32">
         <f>Q37+Q38</f>
         <v>197</v>
       </c>
     </row>
-    <row r="40" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="69" t="s">
         <v>797</v>
       </c>
+      <c r="K40" s="32">
+        <v>134</v>
+      </c>
       <c r="M40" s="32">
         <v>137</v>
       </c>
+      <c r="O40" s="32">
+        <v>144</v>
+      </c>
       <c r="Q40" s="32">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="69" t="s">
         <v>798</v>
       </c>
+      <c r="K41" s="32">
+        <v>111</v>
+      </c>
       <c r="M41" s="32">
         <v>95</v>
       </c>
+      <c r="O41" s="32">
+        <v>79</v>
+      </c>
       <c r="Q41" s="32">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="68" t="s">
         <v>799</v>
+      </c>
+      <c r="K42" s="32">
+        <f>K40+K41</f>
+        <v>245</v>
       </c>
       <c r="M42" s="32">
         <f>M40+M41</f>
         <v>232</v>
       </c>
+      <c r="O42" s="32">
+        <f>O40+O41</f>
+        <v>223</v>
+      </c>
       <c r="Q42" s="32">
         <f>Q40+Q41</f>
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B43" s="51" t="s">
         <v>802</v>
+      </c>
+      <c r="K43" s="32">
+        <f>K37+K40</f>
+        <v>310</v>
       </c>
       <c r="M43" s="32">
         <f>M37+M40</f>
         <v>315</v>
       </c>
+      <c r="O43" s="32">
+        <f>O37+O40</f>
+        <v>324</v>
+      </c>
       <c r="Q43" s="32">
         <f>Q37+Q40</f>
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B44" s="51" t="s">
         <v>801</v>
+      </c>
+      <c r="K44" s="1">
+        <f>K38+K41</f>
+        <v>129</v>
       </c>
       <c r="M44" s="1">
         <f>M38+M41</f>
         <v>112</v>
       </c>
+      <c r="O44" s="1">
+        <f>O38+O41</f>
+        <v>98</v>
+      </c>
       <c r="Q44" s="1">
         <f>Q38+Q41</f>
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="1" t="s">
+    <row r="45" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="M45" s="32">
+      <c r="K45" s="58">
+        <f>K43+K44</f>
+        <v>439</v>
+      </c>
+      <c r="M45" s="58">
         <f>M43+M44</f>
         <v>427</v>
       </c>
-      <c r="Q45" s="32">
+      <c r="O45" s="58">
+        <f>O43+O44</f>
+        <v>422</v>
+      </c>
+      <c r="Q45" s="58">
         <f>Q43+Q44</f>
         <v>440</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="Y46" s="1">
+      <c r="Y45" s="2">
         <v>338</v>
       </c>
-      <c r="Z46" s="1">
+      <c r="Z45" s="2">
         <v>439</v>
       </c>
-      <c r="AA46" s="1">
+      <c r="AA45" s="2">
         <v>422</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B47" s="27"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="K50" s="21">
+        <v>1517.3610000000001</v>
+      </c>
+      <c r="O50" s="21">
+        <v>1669.453</v>
+      </c>
       <c r="P50" s="21">
         <v>1009.139</v>
       </c>
       <c r="Q50" s="21">
         <v>1049.413</v>
       </c>
+      <c r="Z50" s="21">
+        <f>K50</f>
+        <v>1517.3610000000001</v>
+      </c>
       <c r="AA50" s="21">
         <v>1669.453</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="K51" s="22">
+        <v>527.34</v>
+      </c>
+      <c r="O51" s="22">
+        <v>569.01400000000001</v>
+      </c>
       <c r="P51" s="22">
         <v>702.197</v>
       </c>
       <c r="Q51" s="22">
         <v>693.63599999999997</v>
       </c>
+      <c r="Z51" s="22">
+        <f>K51</f>
+        <v>527.34</v>
+      </c>
       <c r="AA51" s="22">
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="K52" s="21">
+        <v>895.97400000000005</v>
+      </c>
+      <c r="O52" s="21">
+        <v>811.41</v>
+      </c>
       <c r="P52" s="21">
         <v>824.45500000000004</v>
       </c>
       <c r="Q52" s="21">
         <v>954.39400000000001</v>
       </c>
+      <c r="Z52" s="21">
+        <f>K52</f>
+        <v>895.97400000000005</v>
+      </c>
       <c r="AA52" s="21">
         <v>811.41</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="K53" s="22">
+        <v>282.3</v>
+      </c>
+      <c r="O53" s="22">
+        <v>286.42200000000003</v>
+      </c>
       <c r="P53" s="22">
         <v>297.03399999999999</v>
       </c>
       <c r="Q53" s="22">
         <v>302.66399999999999</v>
       </c>
+      <c r="Z53" s="22">
+        <f>K53</f>
+        <v>282.3</v>
+      </c>
       <c r="AA53" s="22">
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>92</v>
+      </c>
+      <c r="K54" s="22">
+        <f>SUM(K50:K53)</f>
+        <v>3222.9750000000004</v>
+      </c>
+      <c r="O54" s="22">
+        <f>SUM(O50:O53)</f>
+        <v>3336.299</v>
       </c>
       <c r="P54" s="22">
         <f>SUM(P50:P53)</f>
@@ -7362,42 +7498,74 @@
         <f>SUM(Q50:Q53)</f>
         <v>3000.107</v>
       </c>
+      <c r="Z54" s="22">
+        <f>SUM(Z50:Z53)</f>
+        <v>3222.9750000000004</v>
+      </c>
       <c r="AA54" s="22">
         <f>SUM(AA50:AA53)</f>
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="K55" s="22">
+        <v>658.678</v>
+      </c>
+      <c r="O55" s="22">
+        <v>607.226</v>
+      </c>
       <c r="P55" s="22">
         <v>601.36500000000001</v>
       </c>
       <c r="Q55" s="22">
         <v>609.923</v>
       </c>
+      <c r="Z55" s="22">
+        <f t="shared" ref="Z55:Z59" si="20">K55</f>
+        <v>658.678</v>
+      </c>
       <c r="AA55" s="22">
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="K56" s="22">
+        <v>536.66</v>
+      </c>
+      <c r="O56" s="22">
+        <v>448.36399999999998</v>
+      </c>
       <c r="P56" s="22">
         <v>420.39699999999999</v>
       </c>
       <c r="Q56" s="22">
         <v>408.75299999999999</v>
       </c>
+      <c r="Z56" s="22">
+        <f t="shared" si="20"/>
+        <v>536.66</v>
+      </c>
       <c r="AA56" s="22">
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="K57" s="22">
+        <f>502.214+13.295</f>
+        <v>515.50900000000001</v>
+      </c>
+      <c r="O57" s="22">
+        <f>495.215+11.01</f>
+        <v>506.22499999999997</v>
       </c>
       <c r="P57" s="22">
         <f>491.508+10.58</f>
@@ -7407,42 +7575,74 @@
         <f>479.521+9.91</f>
         <v>489.43100000000004</v>
       </c>
+      <c r="Z57" s="22">
+        <f t="shared" si="20"/>
+        <v>515.50900000000001</v>
+      </c>
       <c r="AA57" s="22">
         <f>495.215+11.01</f>
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="K58" s="22">
+        <v>23.93</v>
+      </c>
+      <c r="O58" s="22">
+        <v>17.812000000000001</v>
+      </c>
       <c r="P58" s="22">
         <v>20.140999999999998</v>
       </c>
       <c r="Q58" s="22">
         <v>19.443999999999999</v>
       </c>
+      <c r="Z58" s="22">
+        <f t="shared" si="20"/>
+        <v>23.93</v>
+      </c>
       <c r="AA58" s="22">
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="K59" s="22">
+        <v>72.876000000000005</v>
+      </c>
+      <c r="O59" s="22">
+        <v>75.47</v>
+      </c>
       <c r="P59" s="22">
         <v>76.016000000000005</v>
       </c>
       <c r="Q59" s="22">
         <v>78.162000000000006</v>
       </c>
+      <c r="Z59" s="22">
+        <f t="shared" si="20"/>
+        <v>72.876000000000005</v>
+      </c>
       <c r="AA59" s="22">
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="K60" s="22">
+        <f>K54+K55+K56+K57+K58+K59</f>
+        <v>5030.6280000000006</v>
+      </c>
+      <c r="O60" s="22">
+        <f>O54+O55+O56+O57+O58+O59</f>
+        <v>4991.3960000000006</v>
       </c>
       <c r="P60" s="22">
         <f>P54+P55+P56+P57+P58+P59</f>
@@ -7452,88 +7652,152 @@
         <f>Q54+Q55+Q56+Q57+Q58+Q59</f>
         <v>4605.8200000000006</v>
       </c>
+      <c r="Z60" s="22">
+        <f>Z54+Z55+Z56+Z57+Z58+Z59</f>
+        <v>5030.6280000000006</v>
+      </c>
       <c r="AA60" s="22">
         <f>AA54+AA55+AA56+AA57+AA58+AA59</f>
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="K61" s="22"/>
+      <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="AA61" s="22"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="K62" s="22">
+        <v>575.95399999999995</v>
+      </c>
+      <c r="O62" s="22">
+        <v>613.30700000000002</v>
+      </c>
       <c r="P62" s="22">
         <v>560.33100000000002</v>
       </c>
       <c r="Q62" s="22">
         <v>669.20299999999997</v>
       </c>
+      <c r="Z62" s="22">
+        <f t="shared" ref="Z62:Z70" si="21">K62</f>
+        <v>575.95399999999995</v>
+      </c>
       <c r="AA62" s="22">
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="K63" s="22">
+        <v>378.85899999999998</v>
+      </c>
+      <c r="O63" s="22">
+        <v>460.16500000000002</v>
+      </c>
       <c r="P63" s="22">
         <v>317.96300000000002</v>
       </c>
       <c r="Q63" s="22">
         <v>373.04500000000002</v>
       </c>
+      <c r="Z63" s="22">
+        <f t="shared" si="21"/>
+        <v>378.85899999999998</v>
+      </c>
       <c r="AA63" s="22">
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="K64" s="22">
+        <v>203.399</v>
+      </c>
+      <c r="O64" s="22">
+        <v>164.29400000000001</v>
+      </c>
       <c r="P64" s="22">
         <v>159.62799999999999</v>
       </c>
       <c r="Q64" s="22">
         <v>157.48699999999999</v>
       </c>
+      <c r="Z64" s="22">
+        <f t="shared" si="21"/>
+        <v>203.399</v>
+      </c>
       <c r="AA64" s="22">
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="K65" s="22">
+        <v>162.56100000000001</v>
+      </c>
+      <c r="O65" s="22">
+        <v>138.684</v>
+      </c>
       <c r="P65" s="22">
         <v>134.833</v>
       </c>
       <c r="Q65" s="22">
         <v>131.43799999999999</v>
       </c>
+      <c r="Z65" s="22">
+        <f t="shared" si="21"/>
+        <v>162.56100000000001</v>
+      </c>
       <c r="AA65" s="22">
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="K66" s="22">
+        <v>92.503</v>
+      </c>
+      <c r="O66" s="22">
+        <v>73.745999999999995</v>
+      </c>
       <c r="P66" s="22">
         <v>125.84</v>
       </c>
       <c r="Q66" s="22">
         <v>127.50700000000001</v>
       </c>
+      <c r="Z66" s="22">
+        <f t="shared" si="21"/>
+        <v>92.503</v>
+      </c>
       <c r="AA66" s="22">
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>104</v>
+      </c>
+      <c r="K67" s="22">
+        <f>SUM(K62:K66)</f>
+        <v>1413.2759999999998</v>
+      </c>
+      <c r="O67" s="22">
+        <f>SUM(O62:O66)</f>
+        <v>1450.1960000000001</v>
       </c>
       <c r="P67" s="22">
         <f>SUM(P62:P66)</f>
@@ -7543,56 +7807,98 @@
         <f>SUM(Q62:Q66)</f>
         <v>1458.6800000000003</v>
       </c>
+      <c r="Z67" s="22">
+        <f>SUM(Z62:Z66)</f>
+        <v>1413.2759999999998</v>
+      </c>
       <c r="AA67" s="22">
         <f>SUM(AA62:AA66)</f>
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="K68" s="21">
+        <v>1003.556</v>
+      </c>
+      <c r="O68" s="21">
+        <v>662.53099999999995</v>
+      </c>
       <c r="P68" s="21">
         <v>672.28599999999994</v>
       </c>
       <c r="Q68" s="21">
         <v>672.83399999999995</v>
       </c>
+      <c r="Z68" s="21">
+        <f t="shared" si="21"/>
+        <v>1003.556</v>
+      </c>
       <c r="AA68" s="21">
         <v>662.53099999999995</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="K69" s="22">
+        <v>839.41399999999999</v>
+      </c>
+      <c r="O69" s="22">
+        <v>703.11099999999999</v>
+      </c>
       <c r="P69" s="22">
         <v>668.98299999999995</v>
       </c>
       <c r="Q69" s="22">
         <v>650.83299999999997</v>
       </c>
+      <c r="Z69" s="22">
+        <f t="shared" si="21"/>
+        <v>839.41399999999999</v>
+      </c>
       <c r="AA69" s="22">
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="K70" s="22">
+        <v>98.388999999999996</v>
+      </c>
+      <c r="O70" s="22">
+        <v>86.584000000000003</v>
+      </c>
       <c r="P70" s="22">
         <v>84.013999999999996</v>
       </c>
       <c r="Q70" s="22">
         <v>94.378</v>
       </c>
+      <c r="Z70" s="22">
+        <f t="shared" si="21"/>
+        <v>98.388999999999996</v>
+      </c>
       <c r="AA70" s="22">
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>107</v>
+      </c>
+      <c r="K71" s="22">
+        <f>K67+K68+K69+K70</f>
+        <v>3354.6350000000002</v>
+      </c>
+      <c r="O71" s="22">
+        <f>O67+O68+O69+O70</f>
+        <v>2902.4219999999996</v>
       </c>
       <c r="P71" s="22">
         <f>P67+P68+P69+P70</f>
@@ -7602,32 +7908,55 @@
         <f>Q67+Q68+Q69+Q70</f>
         <v>2876.7250000000004</v>
       </c>
+      <c r="Z71" s="22">
+        <f>Z67+Z68+Z69+Z70</f>
+        <v>3354.6350000000002</v>
+      </c>
       <c r="AA71" s="22">
         <f>AA67+AA68+AA69+AA70</f>
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="AA72" s="22"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="K73" s="22">
+        <v>1675.9929999999999</v>
+      </c>
+      <c r="O73" s="22">
+        <v>2088.9940000000001</v>
+      </c>
       <c r="P73" s="22">
         <v>1728.954</v>
       </c>
       <c r="Q73" s="22">
         <v>1729.075</v>
       </c>
+      <c r="Z73" s="22">
+        <f t="shared" ref="Z73" si="22">K73</f>
+        <v>1675.9929999999999</v>
+      </c>
       <c r="AA73" s="22">
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="K74" s="22">
+        <f>K71+K73</f>
+        <v>5030.6280000000006</v>
+      </c>
+      <c r="O74" s="22">
+        <f>O71+O73</f>
+        <v>4991.4159999999993</v>
       </c>
       <c r="P74" s="22">
         <f>P71+P73</f>
@@ -7637,14 +7966,26 @@
         <f>Q71+Q73</f>
         <v>4605.8</v>
       </c>
+      <c r="Z74" s="22">
+        <f>Z71+Z73</f>
+        <v>5030.6280000000006</v>
+      </c>
       <c r="AA74" s="22">
         <f>AA71+AA73</f>
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>777</v>
+      </c>
+      <c r="K76" s="22">
+        <f t="shared" ref="K76" si="23">K60-K71</f>
+        <v>1675.9930000000004</v>
+      </c>
+      <c r="O76" s="22">
+        <f t="shared" ref="O76:P76" si="24">O60-O71</f>
+        <v>2088.9740000000011</v>
       </c>
       <c r="P76" s="22">
         <f>P60-P71</f>
@@ -7654,14 +7995,26 @@
         <f>Q60-Q71</f>
         <v>1729.0950000000003</v>
       </c>
+      <c r="Z76" s="22">
+        <f t="shared" ref="Z76:Z77" si="25">K76</f>
+        <v>1675.9930000000004</v>
+      </c>
       <c r="AA76" s="22">
         <f>AA60-AA71</f>
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>776</v>
+      </c>
+      <c r="K77" s="53">
+        <f t="shared" ref="K77" si="26">K76/K22</f>
+        <v>3.6850318044198591</v>
+      </c>
+      <c r="O77" s="53">
+        <f t="shared" ref="O77" si="27">O76/O22</f>
+        <v>4.3869603383608675</v>
       </c>
       <c r="P77" s="53">
         <f>P76/P22</f>
@@ -7671,65 +8024,128 @@
         <f>Q76/Q22</f>
         <v>3.7718988253002195</v>
       </c>
+      <c r="Z77" s="22">
+        <f t="shared" si="25"/>
+        <v>3.6850318044198591</v>
+      </c>
       <c r="AA77" s="53">
         <f>AA76/AA22</f>
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="80" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O79" s="89">
+        <f>O52/K52-1</f>
+        <v>-9.4382203054999447E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="32" t="s">
         <v>791</v>
+      </c>
+      <c r="P80" s="66">
+        <f t="shared" ref="P80:Q80" si="28">P52/O52-1</f>
+        <v>1.6076952465461369E-2</v>
       </c>
       <c r="Q80" s="66">
         <f>Q52/P52-1</f>
         <v>0.15760593361675279</v>
       </c>
     </row>
-    <row r="82" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
+      <c r="K82" s="56">
+        <f t="shared" ref="K82" si="29">K50</f>
+        <v>1517.3610000000001</v>
+      </c>
+      <c r="O82" s="56">
+        <f t="shared" ref="O82:P82" si="30">O50</f>
+        <v>1669.453</v>
+      </c>
       <c r="P82" s="56">
-        <f t="shared" ref="P82" si="20">P50</f>
+        <f t="shared" si="30"/>
         <v>1009.139</v>
       </c>
       <c r="Q82" s="56">
         <f>Q50</f>
         <v>1049.413</v>
       </c>
-    </row>
-    <row r="83" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R82" s="56"/>
+      <c r="Z82" s="56">
+        <f t="shared" ref="Z82:AA82" si="31">Z50</f>
+        <v>1517.3610000000001</v>
+      </c>
+      <c r="AA82" s="56">
+        <f t="shared" si="31"/>
+        <v>1669.453</v>
+      </c>
+    </row>
+    <row r="83" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
+      <c r="K83" s="56">
+        <f t="shared" ref="K83" si="32">K68</f>
+        <v>1003.556</v>
+      </c>
+      <c r="O83" s="56">
+        <f t="shared" ref="O83:P83" si="33">O68</f>
+        <v>662.53099999999995</v>
+      </c>
       <c r="P83" s="56">
-        <f t="shared" ref="P83" si="21">P68</f>
+        <f t="shared" si="33"/>
         <v>672.28599999999994</v>
       </c>
       <c r="Q83" s="56">
         <f>Q68</f>
         <v>672.83399999999995</v>
       </c>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="R83" s="56"/>
+      <c r="Z83" s="56">
+        <f t="shared" ref="Z83:AA83" si="34">Z68</f>
+        <v>1003.556</v>
+      </c>
+      <c r="AA83" s="56">
+        <f t="shared" si="34"/>
+        <v>662.53099999999995</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="K84" s="22">
+        <f t="shared" ref="K84" si="35">K82-K83</f>
+        <v>513.80500000000006</v>
+      </c>
+      <c r="O84" s="22">
+        <f t="shared" ref="O84:P84" si="36">O82-O83</f>
+        <v>1006.922</v>
+      </c>
       <c r="P84" s="22">
-        <f t="shared" ref="P84" si="22">P82-P83</f>
+        <f t="shared" si="36"/>
         <v>336.85300000000007</v>
       </c>
       <c r="Q84" s="22">
         <f>Q82-Q83</f>
         <v>376.57900000000006</v>
       </c>
-    </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="R84" s="22"/>
+      <c r="Z84" s="22">
+        <f t="shared" ref="Z84:AA84" si="37">Z82-Z83</f>
+        <v>513.80500000000006</v>
+      </c>
+      <c r="AA84" s="22">
+        <f t="shared" si="37"/>
+        <v>1006.922</v>
+      </c>
+    </row>
+    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -7775,7 +8191,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -7784,87 +8200,187 @@
         <v>3808.6451099999999</v>
       </c>
       <c r="I87" s="56">
-        <f t="shared" ref="I87:Q87" si="23">I86*I22</f>
+        <f t="shared" ref="I87:Q87" si="38">I86*I22</f>
         <v>4014.4296399999998</v>
       </c>
       <c r="J87" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>4493.6721600000001</v>
       </c>
       <c r="K87" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>6767.5876799999996</v>
       </c>
       <c r="L87" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>8418.0184399999998</v>
       </c>
       <c r="M87" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>8534.8462799999998</v>
       </c>
       <c r="N87" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>8234.4350400000003</v>
       </c>
       <c r="O87" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>8590.251119999999</v>
       </c>
       <c r="P87" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>7580.5139999999992</v>
       </c>
       <c r="Q87" s="56">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>3474.7857000000004</v>
       </c>
-    </row>
-    <row r="88" spans="2:27" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z87" s="56">
+        <f t="shared" ref="Z87:AA87" si="39">Z86*Z22</f>
+        <v>6756.8443200000002</v>
+      </c>
+      <c r="AA87" s="56">
+        <f t="shared" si="39"/>
+        <v>8397.6921600000005</v>
+      </c>
+    </row>
+    <row r="88" spans="2:27" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
+      <c r="K88" s="56">
+        <f t="shared" ref="K88" si="40">K87-K84</f>
+        <v>6253.7826799999993</v>
+      </c>
+      <c r="O88" s="56">
+        <f t="shared" ref="O88:P88" si="41">O87-O84</f>
+        <v>7583.3291199999985</v>
+      </c>
       <c r="P88" s="56">
-        <f t="shared" ref="P88" si="24">P87-P84</f>
+        <f t="shared" si="41"/>
         <v>7243.6609999999991</v>
       </c>
       <c r="Q88" s="56">
         <f>Q87-Q84</f>
         <v>3098.2067000000002</v>
       </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z88" s="56">
+        <f t="shared" ref="Z88:AA88" si="42">Z87-Z84</f>
+        <v>6243.0393199999999</v>
+      </c>
+      <c r="AA88" s="56">
+        <f t="shared" si="42"/>
+        <v>7390.77016</v>
+      </c>
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
         <v>778</v>
       </c>
+      <c r="K90" s="70">
+        <f t="shared" ref="K90" si="43">K86/K77</f>
+        <v>4.0379570081736604</v>
+      </c>
+      <c r="O90" s="70">
+        <f t="shared" ref="O90:P90" si="44">O86/O77</f>
+        <v>4.1121867098393734</v>
+      </c>
       <c r="P90" s="70">
-        <f t="shared" ref="P90:Q90" si="25">P86/P77</f>
+        <f t="shared" si="44"/>
         <v>4.3844509454849581</v>
       </c>
       <c r="Q90" s="70">
         <f>Q86/Q77</f>
         <v>2.0095979110459519</v>
       </c>
+      <c r="Z90" s="70">
+        <f t="shared" ref="Z90:AA90" si="45">Z86/Z77</f>
+        <v>4.0379570081736604</v>
+      </c>
       <c r="AA90" s="70">
         <f>AA86/AA77</f>
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="K91" s="70">
+        <f t="shared" ref="K91:P91" si="46">K87/SUM(H6:K6)</f>
+        <v>1.5995330818390172</v>
+      </c>
+      <c r="L91" s="70">
+        <f t="shared" si="46"/>
+        <v>1.8332967691100841</v>
+      </c>
+      <c r="M91" s="70">
+        <f t="shared" si="46"/>
+        <v>1.6247491502037685</v>
+      </c>
+      <c r="N91" s="70">
+        <f t="shared" si="46"/>
+        <v>1.5258758943246864</v>
+      </c>
+      <c r="O91" s="70">
+        <f t="shared" si="46"/>
+        <v>1.5429916494080578</v>
+      </c>
+      <c r="P91" s="70">
+        <f t="shared" si="46"/>
+        <v>1.3534483543594595</v>
+      </c>
+      <c r="Q91" s="70">
+        <f>Q87/SUM(N6:Q6)</f>
+        <v>0.6221570503604078</v>
+      </c>
+      <c r="Z91" s="70">
+        <f t="shared" ref="Z91:AA91" si="47">Z87/Z6</f>
+        <v>1.5969938669011909</v>
+      </c>
+      <c r="AA91" s="70">
+        <f>AA87/AA6</f>
+        <v>1.5084039681926689</v>
+      </c>
+    </row>
+    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="K92" s="70">
+        <f t="shared" ref="K92" si="48">K86/SUM(H21:K21)</f>
+        <v>-12.257039736665067</v>
+      </c>
+      <c r="L92" s="70">
+        <f t="shared" ref="L92" si="49">L86/SUM(I21:L21)</f>
+        <v>71.383779306426774</v>
+      </c>
+      <c r="M92" s="70">
+        <f t="shared" ref="M92" si="50">M86/SUM(J21:M21)</f>
+        <v>18.285031241280244</v>
+      </c>
+      <c r="N92" s="70">
+        <f t="shared" ref="N92" si="51">N86/SUM(K21:N21)</f>
+        <v>14.952988283370482</v>
+      </c>
+      <c r="O92" s="70">
+        <f t="shared" ref="O92:P92" si="52">O86/SUM(L21:O21)</f>
+        <v>18.105251010476522</v>
+      </c>
+      <c r="P92" s="70">
+        <f t="shared" si="52"/>
+        <v>22.989620990664498</v>
+      </c>
+      <c r="Q92" s="70">
+        <f>Q86/SUM(N21:Q21)</f>
+        <v>20.941179022554319</v>
+      </c>
       <c r="Y92" s="70">
-        <f t="shared" ref="Y92:Z92" si="26">Y86/Y21</f>
+        <f t="shared" ref="Y92:Z92" si="53">Y86/Y21</f>
         <v>93.871302120640664</v>
       </c>
       <c r="Z92" s="70">
-        <f t="shared" si="26"/>
+        <f t="shared" si="53"/>
         <v>-12.303582123796154</v>
       </c>
       <c r="AA92" s="70">
@@ -7872,19 +8388,48 @@
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B94" s="1" t="s">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B93" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="Z93" s="70">
+        <f t="shared" ref="Z93:AA93" si="54">Z88/Z6</f>
+        <v>1.4755550124711148</v>
+      </c>
+      <c r="AA93" s="70">
+        <f>AA88/AA6</f>
+        <v>1.327539379264882</v>
+      </c>
+    </row>
+    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="Z94" s="70"/>
+      <c r="AA94" s="70"/>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="B95" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="P94" s="25">
-        <f t="shared" ref="P94" si="27">P52/P9</f>
+      <c r="K95" s="25">
+        <f t="shared" ref="K95" si="55">K52/K9</f>
+        <v>0.63826449707429866</v>
+      </c>
+      <c r="O95" s="25">
+        <f t="shared" ref="N95:P95" si="56">O52/O9</f>
+        <v>0.53060904195317171</v>
+      </c>
+      <c r="P95" s="25">
+        <f t="shared" si="56"/>
         <v>0.63373547690332799</v>
       </c>
-      <c r="Q94" s="25">
+      <c r="Q95" s="25">
         <f>Q52/Q9</f>
         <v>0.70745268732158828</v>
       </c>
-      <c r="AA94" s="25">
+      <c r="Z95" s="25">
+        <f t="shared" ref="Z95:AA95" si="57">Z52/Z9</f>
+        <v>0.20023255361795636</v>
+      </c>
+      <c r="AA95" s="25">
         <f>AA52/AA9</f>
         <v>0.14276675535667846</v>
       </c>
@@ -7904,6 +8449,7 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
   <ignoredErrors>
     <ignoredError sqref="Z6:AA6 L6:Q6 H6:K6" formulaRange="1"/>
+    <ignoredError sqref="Z54:Z71" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId10"/>
   <legacyDrawing r:id="rId11"/>
@@ -7914,20 +8460,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A433044-5707-4FC5-9F0A-EBF5C0B01F63}">
   <dimension ref="A1:F603"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -7944,7 +8488,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7961,7 +8505,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7978,7 +8522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7995,7 +8539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8012,7 +8556,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8029,7 +8573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8046,7 +8590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8063,7 +8607,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8080,7 +8624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8097,7 +8641,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8114,7 +8658,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8131,7 +8675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8148,7 +8692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8165,7 +8709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8182,7 +8726,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8199,7 +8743,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8216,7 +8760,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8233,7 +8777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8250,7 +8794,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8267,7 +8811,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8284,7 +8828,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8301,7 +8845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8318,7 +8862,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8335,7 +8879,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8352,7 +8896,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8369,7 +8913,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8386,7 +8930,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8403,7 +8947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8420,7 +8964,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8437,7 +8981,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8454,7 +8998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8471,7 +9015,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8488,7 +9032,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8505,7 +9049,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8522,7 +9066,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8539,7 +9083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8556,7 +9100,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8573,7 +9117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8590,7 +9134,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -8607,7 +9151,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -8624,7 +9168,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -8641,7 +9185,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -8658,7 +9202,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -8675,7 +9219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -8692,7 +9236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -8709,7 +9253,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -8726,7 +9270,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -8743,7 +9287,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -8760,7 +9304,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -8777,7 +9321,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8794,7 +9338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8811,7 +9355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8828,7 +9372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8845,7 +9389,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8862,7 +9406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8879,7 +9423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8896,7 +9440,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8913,7 +9457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8930,7 +9474,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8947,7 +9491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8964,7 +9508,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8981,7 +9525,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8998,7 +9542,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -9015,7 +9559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -9032,7 +9576,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -9049,7 +9593,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -9066,7 +9610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -9083,7 +9627,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -9100,7 +9644,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -9117,7 +9661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -9134,7 +9678,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -9151,7 +9695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -9168,7 +9712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -9185,7 +9729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -9202,7 +9746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -9219,7 +9763,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9236,7 +9780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9253,7 +9797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9270,7 +9814,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9287,7 +9831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9304,7 +9848,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9321,7 +9865,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9338,7 +9882,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9355,7 +9899,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9372,7 +9916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9389,7 +9933,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9406,7 +9950,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9423,7 +9967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9440,7 +9984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9457,7 +10001,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9474,7 +10018,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9491,7 +10035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9508,7 +10052,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9525,7 +10069,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9542,7 +10086,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9559,7 +10103,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9576,7 +10120,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9593,7 +10137,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9610,7 +10154,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9627,7 +10171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9644,7 +10188,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9661,7 +10205,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9678,7 +10222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9695,7 +10239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9712,7 +10256,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9729,7 +10273,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9746,7 +10290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9763,7 +10307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9780,7 +10324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9797,7 +10341,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9814,7 +10358,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9831,7 +10375,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9848,7 +10392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9865,7 +10409,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9882,7 +10426,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9899,7 +10443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9916,7 +10460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9933,7 +10477,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9950,7 +10494,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9967,7 +10511,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9984,7 +10528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10001,7 +10545,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10018,7 +10562,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10035,7 +10579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10052,7 +10596,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -10069,7 +10613,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -10086,7 +10630,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -10103,7 +10647,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -10120,7 +10664,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -10137,7 +10681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -10154,7 +10698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -10171,7 +10715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -10188,7 +10732,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -10205,7 +10749,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -10222,7 +10766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -10239,7 +10783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -10256,7 +10800,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10273,7 +10817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10290,7 +10834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10307,7 +10851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10324,7 +10868,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10341,7 +10885,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10358,7 +10902,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10375,7 +10919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10392,7 +10936,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10409,7 +10953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10426,7 +10970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10443,7 +10987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -10460,7 +11004,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -10477,7 +11021,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -10494,7 +11038,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -10511,7 +11055,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -10528,7 +11072,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -10545,7 +11089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -10562,7 +11106,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -10579,7 +11123,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -10596,7 +11140,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -10613,7 +11157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -10630,7 +11174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -10647,7 +11191,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -10664,7 +11208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -10681,7 +11225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -10698,7 +11242,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -10715,7 +11259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -10732,7 +11276,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -10749,7 +11293,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -10766,7 +11310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -10783,7 +11327,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -10800,7 +11344,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -10817,7 +11361,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -10834,7 +11378,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -10851,7 +11395,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -10868,7 +11412,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -10885,7 +11429,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -10902,7 +11446,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10919,7 +11463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10936,7 +11480,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10953,7 +11497,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10970,7 +11514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10987,7 +11531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -11004,7 +11548,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -11021,7 +11565,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -11038,7 +11582,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -11055,7 +11599,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -11072,7 +11616,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -11089,7 +11633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -11106,7 +11650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -11123,7 +11667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -11140,7 +11684,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -11157,7 +11701,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -11174,7 +11718,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -11191,7 +11735,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -11208,7 +11752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -11225,7 +11769,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -11242,7 +11786,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11259,7 +11803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11276,7 +11820,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11293,7 +11837,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11310,7 +11854,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11327,7 +11871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11344,7 +11888,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11361,7 +11905,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11378,7 +11922,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11395,7 +11939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11412,7 +11956,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -11429,7 +11973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11446,7 +11990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -11463,7 +12007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -11480,7 +12024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -11497,7 +12041,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -11514,7 +12058,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -11531,7 +12075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -11548,7 +12092,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -11565,7 +12109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -11582,7 +12126,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -11599,7 +12143,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -11616,7 +12160,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -11633,7 +12177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -11650,7 +12194,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -11667,7 +12211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -11684,7 +12228,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -11701,7 +12245,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -11718,7 +12262,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -11735,7 +12279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -11752,7 +12296,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -11769,7 +12313,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -11786,7 +12330,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -11803,7 +12347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -11820,7 +12364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -11837,7 +12381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -11854,7 +12398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -11871,7 +12415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -11888,7 +12432,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -11905,7 +12449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -11922,7 +12466,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -11939,7 +12483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -11956,7 +12500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -11973,7 +12517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -11990,7 +12534,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -12007,7 +12551,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -12024,7 +12568,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -12041,7 +12585,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -12058,7 +12602,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -12075,7 +12619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -12092,7 +12636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -12106,7 +12650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -12123,7 +12667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -12140,7 +12684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -12157,7 +12701,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -12174,7 +12718,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -12191,7 +12735,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -12208,7 +12752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -12225,7 +12769,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -12242,7 +12786,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12259,7 +12803,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12273,7 +12817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12290,7 +12834,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12307,7 +12851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12324,7 +12868,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12341,7 +12885,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12358,7 +12902,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -12375,7 +12919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -12392,7 +12936,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -12409,7 +12953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -12426,7 +12970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -12443,7 +12987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -12460,7 +13004,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -12477,7 +13021,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -12494,7 +13038,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -12511,7 +13055,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -12528,7 +13072,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -12545,7 +13089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -12562,7 +13106,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -12579,7 +13123,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -12596,7 +13140,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -12613,7 +13157,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -12630,7 +13174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -12647,7 +13191,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -12664,7 +13208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -12681,7 +13225,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -12698,7 +13242,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -12715,7 +13259,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -12732,7 +13276,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -12749,7 +13293,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -12766,7 +13310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -12783,7 +13327,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -12800,7 +13344,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -12817,7 +13361,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -12834,7 +13378,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -12851,7 +13395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -12868,7 +13412,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -12885,7 +13429,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -12902,7 +13446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -12919,7 +13463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -12936,7 +13480,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -12953,7 +13497,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -12970,7 +13514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -12987,7 +13531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -13004,7 +13548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -13021,7 +13565,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -13038,7 +13582,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -13055,7 +13599,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -13072,7 +13616,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -13089,7 +13633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -13106,7 +13650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -13123,7 +13667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -13140,7 +13684,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -13157,7 +13701,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -13174,7 +13718,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -13191,7 +13735,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -13208,7 +13752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -13225,7 +13769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -13242,7 +13786,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -13259,7 +13803,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -13276,7 +13820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -13293,7 +13837,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -13310,7 +13854,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -13327,7 +13871,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -13344,7 +13888,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -13361,7 +13905,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -13378,7 +13922,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -13395,7 +13939,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -13412,7 +13956,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -13429,7 +13973,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -13446,7 +13990,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -13463,7 +14007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -13480,7 +14024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -13497,7 +14041,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -13514,7 +14058,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -13531,7 +14075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -13548,7 +14092,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -13565,7 +14109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -13582,7 +14126,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -13599,7 +14143,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -13616,7 +14160,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -13633,7 +14177,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -13650,7 +14194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -13667,7 +14211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -13684,7 +14228,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -13701,7 +14245,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -13718,7 +14262,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -13735,7 +14279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -13752,7 +14296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -13769,7 +14313,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -13786,7 +14330,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -13803,7 +14347,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -13820,7 +14364,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -13837,7 +14381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -13854,7 +14398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -13871,7 +14415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -13888,7 +14432,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -13905,7 +14449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -13922,7 +14466,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -13939,7 +14483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -13956,7 +14500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -13973,7 +14517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -13990,7 +14534,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -14007,7 +14551,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -14024,7 +14568,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -14041,7 +14585,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -14058,7 +14602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -14075,7 +14619,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -14092,7 +14636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -14109,7 +14653,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -14126,7 +14670,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -14143,7 +14687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -14160,7 +14704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -14177,7 +14721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -14194,7 +14738,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -14211,7 +14755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -14228,7 +14772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -14245,7 +14789,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -14262,7 +14806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -14279,7 +14823,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -14296,7 +14840,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -14313,7 +14857,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -14330,7 +14874,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -14347,7 +14891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -14364,7 +14908,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -14381,7 +14925,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -14398,7 +14942,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -14415,7 +14959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -14432,7 +14976,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -14449,7 +14993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -14466,7 +15010,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -14483,7 +15027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -14500,7 +15044,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -14517,7 +15061,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -14534,7 +15078,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -14551,7 +15095,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -14568,7 +15112,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -14585,7 +15129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -14602,7 +15146,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -14619,7 +15163,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -14636,7 +15180,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -14653,7 +15197,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -14670,7 +15214,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -14687,7 +15231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -14704,7 +15248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -14721,7 +15265,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -14738,7 +15282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -14755,7 +15299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -14772,7 +15316,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -14789,7 +15333,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -14806,7 +15350,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -14823,7 +15367,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -14840,7 +15384,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -14857,7 +15401,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -14874,7 +15418,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -14891,7 +15435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -14908,7 +15452,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -14925,7 +15469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -14942,7 +15486,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -14959,7 +15503,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -14976,7 +15520,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -14993,7 +15537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -15010,7 +15554,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -15027,7 +15571,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -15044,7 +15588,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -15061,7 +15605,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -15078,7 +15622,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -15095,7 +15639,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -15112,7 +15656,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -15129,7 +15673,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -15146,7 +15690,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -15163,7 +15707,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -15180,7 +15724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -15197,7 +15741,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -15214,7 +15758,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -15231,7 +15775,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -15248,7 +15792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -15265,7 +15809,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -15282,7 +15826,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -15299,7 +15843,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -15316,7 +15860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -15333,7 +15877,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -15350,7 +15894,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -15367,7 +15911,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -15384,7 +15928,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -15401,7 +15945,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -15418,7 +15962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -15435,7 +15979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -15452,7 +15996,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -15469,7 +16013,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -15486,7 +16030,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -15503,7 +16047,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -15520,7 +16064,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -15537,7 +16081,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -15554,7 +16098,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -15571,7 +16115,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -15588,7 +16132,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -15605,7 +16149,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -15622,7 +16166,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -15639,7 +16183,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -15656,7 +16200,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -15673,7 +16217,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -15690,7 +16234,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -15707,7 +16251,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -15724,7 +16268,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -15741,7 +16285,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -15758,7 +16302,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -15775,7 +16319,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -15792,7 +16336,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -15809,7 +16353,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -15826,7 +16370,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -15843,7 +16387,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -15860,7 +16404,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -15877,7 +16421,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -15894,7 +16438,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -15911,7 +16455,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -15928,7 +16472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -15945,7 +16489,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -15962,7 +16506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -15979,7 +16523,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -15996,7 +16540,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -16013,7 +16557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -16030,7 +16574,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -16047,7 +16591,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -16064,7 +16608,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -16081,7 +16625,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -16098,7 +16642,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -16115,7 +16659,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -16132,7 +16676,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -16149,7 +16693,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -16166,7 +16710,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -16183,7 +16727,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -16200,7 +16744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -16217,7 +16761,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -16234,7 +16778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -16251,7 +16795,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -16268,7 +16812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -16285,7 +16829,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -16302,7 +16846,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -16319,7 +16863,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -16336,7 +16880,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -16353,7 +16897,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -16370,7 +16914,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -16387,7 +16931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -16404,7 +16948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -16421,7 +16965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -16438,7 +16982,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -16455,7 +16999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -16472,7 +17016,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -16489,7 +17033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -16506,7 +17050,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -16523,7 +17067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -16540,7 +17084,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -16557,7 +17101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -16574,7 +17118,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -16591,7 +17135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -16608,7 +17152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -16625,7 +17169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -16642,7 +17186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -16659,7 +17203,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -16676,7 +17220,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -16693,7 +17237,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -16710,7 +17254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -16727,7 +17271,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -16744,7 +17288,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -16761,7 +17305,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -16778,7 +17322,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -16795,7 +17339,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -16812,7 +17356,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -16829,7 +17373,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -16846,7 +17390,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -16863,7 +17407,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -16880,7 +17424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -16897,7 +17441,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -16914,7 +17458,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -16931,7 +17475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -16945,7 +17489,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -16962,7 +17506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -16979,7 +17523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -16996,7 +17540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -17013,7 +17557,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -17030,7 +17574,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -17047,7 +17591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -17064,7 +17608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -17081,7 +17625,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -17098,7 +17642,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -17115,7 +17659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -17132,7 +17676,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -17149,7 +17693,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -17166,7 +17710,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -17183,7 +17727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -17200,7 +17744,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -17217,7 +17761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -17234,7 +17778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -17251,7 +17795,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -17268,7 +17812,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -17285,7 +17829,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -17302,7 +17846,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -17319,7 +17863,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -17336,7 +17880,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -17353,7 +17897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -17370,7 +17914,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -17387,7 +17931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -17404,7 +17948,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -17421,7 +17965,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -17438,7 +17982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -17455,7 +17999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -17472,7 +18016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -17489,7 +18033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -17506,7 +18050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -17523,7 +18067,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -17540,7 +18084,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -17557,7 +18101,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -17574,7 +18118,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -17591,7 +18135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -17608,7 +18152,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -17625,7 +18169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -17642,7 +18186,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -17659,7 +18203,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -17676,7 +18220,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -17693,7 +18237,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -17710,7 +18254,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -17727,7 +18271,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -17744,7 +18288,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -17761,7 +18305,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -17778,7 +18322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -17795,7 +18339,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -17812,7 +18356,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -17829,7 +18373,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -17846,7 +18390,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -17863,7 +18407,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -17880,7 +18424,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -17897,7 +18441,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -17914,7 +18458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -17931,7 +18475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -17948,7 +18492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -17965,7 +18509,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -17982,7 +18526,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -17999,7 +18543,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -18016,7 +18560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -18033,7 +18577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -18050,7 +18594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -18067,7 +18611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -18084,7 +18628,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -18101,7 +18645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -18118,7 +18662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -18135,7 +18679,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -18152,7 +18696,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>601</v>
       </c>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEADE0F0-A2FD-C640-8D86-07B98865F0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C4383-8C71-8543-9E7D-A7AA9EF4B7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
@@ -2849,30 +2849,7 @@
       <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2891,6 +2868,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2903,7 +2886,24 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3605,30 +3605,30 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="84"/>
-      <c r="G5" s="82" t="s">
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="G5" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="84"/>
-      <c r="R5" s="79" t="s">
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+      <c r="R5" s="72" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80"/>
-      <c r="V5" s="80"/>
-      <c r="W5" s="81"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="74"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
@@ -4005,11 +4005,11 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
       <c r="G15" s="63"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4046,10 +4046,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="79"/>
       <c r="G16" s="52">
         <v>44682</v>
       </c>
@@ -4090,10 +4090,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="76"/>
+      <c r="D17" s="79"/>
       <c r="G17" s="63"/>
       <c r="H17" s="61" t="s">
         <v>774</v>
@@ -4132,10 +4132,10 @@
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="79"/>
       <c r="G18" s="63"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4172,10 +4172,10 @@
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="81"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4284,11 +4284,11 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B22" s="82" t="s">
+      <c r="B22" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
       <c r="G22" s="14" t="s">
         <v>31</v>
       </c>
@@ -4329,10 +4329,10 @@
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="75" t="s">
+      <c r="C23" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="79"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4369,10 +4369,10 @@
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="78">
         <v>1996</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="79"/>
       <c r="G24" s="52">
         <v>44228</v>
       </c>
@@ -4451,10 +4451,10 @@
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="78">
         <v>422</v>
       </c>
-      <c r="D26" s="76"/>
+      <c r="D26" s="79"/>
       <c r="G26" s="64"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4491,11 +4491,11 @@
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="87">
+      <c r="C27" s="82">
         <f>'Financial Model'!Q52</f>
         <v>954.39400000000001</v>
       </c>
-      <c r="D27" s="88"/>
+      <c r="D27" s="83"/>
       <c r="R27" s="37">
         <v>2020</v>
       </c>
@@ -4550,10 +4550,10 @@
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="75" t="s">
+      <c r="C29" s="78" t="s">
         <v>789</v>
       </c>
-      <c r="D29" s="76"/>
+      <c r="D29" s="79"/>
       <c r="R29" s="37">
         <v>2020</v>
       </c>
@@ -4581,10 +4581,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="D30" s="89"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4657,11 +4657,11 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="83"/>
-      <c r="D33" s="84"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -4689,11 +4689,11 @@
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="73">
+      <c r="C34" s="86">
         <f>C12/SUM('Financial Model'!N20:Q20)</f>
         <v>15.715778773521555</v>
       </c>
-      <c r="D34" s="74"/>
+      <c r="D34" s="87"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -4721,11 +4721,11 @@
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="73">
+      <c r="C35" s="86">
         <f>C6/SUM('Financial Model'!N21:Q21)</f>
         <v>18.4823862349457</v>
       </c>
-      <c r="D35" s="74"/>
+      <c r="D35" s="87"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -4753,8 +4753,8 @@
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="75"/>
-      <c r="D36" s="76"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -4782,11 +4782,11 @@
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="73">
+      <c r="C37" s="86">
         <f>C6/'Financial Model'!Q77</f>
         <v>1.7736424834957014</v>
       </c>
-      <c r="D37" s="74"/>
+      <c r="D37" s="87"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -4905,11 +4905,11 @@
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="71">
+      <c r="C41" s="84">
         <f>C6/'Financial Model'!AA21</f>
         <v>8.6491744709215048</v>
       </c>
-      <c r="D41" s="72"/>
+      <c r="D41" s="85"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5399,17 +5399,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
@@ -5422,6 +5411,17 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5576,10 +5576,10 @@
   <dimension ref="B1:AT95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomRight" activeCell="AA79" sqref="AA79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7984,7 +7984,7 @@
         <v>1675.9930000000004</v>
       </c>
       <c r="O76" s="22">
-        <f t="shared" ref="O76:P76" si="24">O60-O71</f>
+        <f t="shared" ref="O76" si="24">O60-O71</f>
         <v>2088.9740000000011</v>
       </c>
       <c r="P76" s="22">
@@ -8037,8 +8037,12 @@
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
-      <c r="O79" s="89">
+      <c r="O79" s="71">
         <f>O52/K52-1</f>
+        <v>-9.4382203054999447E-2</v>
+      </c>
+      <c r="AA79" s="71">
+        <f>AA52/Z52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
     </row>
@@ -8047,7 +8051,7 @@
         <v>791</v>
       </c>
       <c r="P80" s="66">
-        <f t="shared" ref="P80:Q80" si="28">P52/O52-1</f>
+        <f t="shared" ref="P80" si="28">P52/O52-1</f>
         <v>1.6076952465461369E-2</v>
       </c>
       <c r="Q80" s="66">
@@ -8294,7 +8298,7 @@
         <v>2.0095979110459519</v>
       </c>
       <c r="Z90" s="70">
-        <f t="shared" ref="Z90:AA90" si="45">Z86/Z77</f>
+        <f t="shared" ref="Z90" si="45">Z86/Z77</f>
         <v>4.0379570081736604</v>
       </c>
       <c r="AA90" s="70">
@@ -8335,7 +8339,7 @@
         <v>0.6221570503604078</v>
       </c>
       <c r="Z91" s="70">
-        <f t="shared" ref="Z91:AA91" si="47">Z87/Z6</f>
+        <f t="shared" ref="Z91" si="47">Z87/Z6</f>
         <v>1.5969938669011909</v>
       </c>
       <c r="AA91" s="70">
@@ -8393,7 +8397,7 @@
         <v>810</v>
       </c>
       <c r="Z93" s="70">
-        <f t="shared" ref="Z93:AA93" si="54">Z88/Z6</f>
+        <f t="shared" ref="Z93" si="54">Z88/Z6</f>
         <v>1.4755550124711148</v>
       </c>
       <c r="AA93" s="70">
@@ -8414,7 +8418,7 @@
         <v>0.63826449707429866</v>
       </c>
       <c r="O95" s="25">
-        <f t="shared" ref="N95:P95" si="56">O52/O9</f>
+        <f t="shared" ref="O95:P95" si="56">O52/O9</f>
         <v>0.53060904195317171</v>
       </c>
       <c r="P95" s="25">
@@ -8426,7 +8430,7 @@
         <v>0.70745268732158828</v>
       </c>
       <c r="Z95" s="25">
-        <f t="shared" ref="Z95:AA95" si="57">Z52/Z9</f>
+        <f t="shared" ref="Z95" si="57">Z52/Z9</f>
         <v>0.20023255361795636</v>
       </c>
       <c r="AA95" s="25">

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C4383-8C71-8543-9E7D-A7AA9EF4B7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671902E7-C6D3-4DBC-9F28-A409C19E138F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -44,10 +34,19 @@
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Quarter Transition, Changed FQ system</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="814">
   <si>
     <t>$UA</t>
   </si>
@@ -2489,6 +2488,15 @@
   </si>
   <si>
     <t>EV/S</t>
+  </si>
+  <si>
+    <t>(Projected)</t>
+  </si>
+  <si>
+    <t>FY16</t>
+  </si>
+  <si>
+    <t>FY15</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2510,7 @@
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0\x"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2594,8 +2602,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2617,6 +2640,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2715,7 +2744,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2839,7 +2868,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2910,11 +2938,30 @@
     <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -3195,7 +3242,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11306175" y="9525"/>
-          <a:ext cx="0" cy="15973425"/>
+          <a:ext cx="0" cy="16459200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3588,49 +3635,49 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B5" s="75" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
-      <c r="G5" s="75" t="s">
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="G5" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
-      <c r="R5" s="72" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="76"/>
+      <c r="R5" s="71" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="74"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="73"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3670,7 +3717,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3717,7 +3764,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3758,7 +3805,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -3801,7 +3848,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -3844,7 +3891,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -3891,7 +3938,7 @@
         <v>-0.6875</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -3932,7 +3979,7 @@
         <v>-0.61538461538461542</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G13" s="52">
         <v>44743</v>
       </c>
@@ -3969,7 +4016,7 @@
         <v>-0.23076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G14" s="63"/>
       <c r="H14" s="61" t="s">
         <v>784</v>
@@ -4004,12 +4051,12 @@
         <v>-0.46153846153846156</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B15" s="75" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
       <c r="G15" s="63"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4042,14 +4089,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="79"/>
+      <c r="D16" s="78"/>
       <c r="G16" s="52">
         <v>44682</v>
       </c>
@@ -4086,14 +4133,14 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="79"/>
+      <c r="D17" s="78"/>
       <c r="G17" s="63"/>
       <c r="H17" s="61" t="s">
         <v>774</v>
@@ -4128,14 +4175,14 @@
         <v>-0.10526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="79"/>
+      <c r="D18" s="78"/>
       <c r="G18" s="63"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4168,14 +4215,14 @@
         <v>0.45454545454545459</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="81"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4215,7 +4262,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G20" s="63"/>
       <c r="H20" s="61" t="s">
         <v>793</v>
@@ -4250,7 +4297,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G21" s="63"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -4283,12 +4330,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B22" s="75" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="77"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
       <c r="G22" s="14" t="s">
         <v>31</v>
       </c>
@@ -4325,14 +4372,14 @@
         <v>-0.26666666666666672</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="78"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4365,14 +4412,14 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="77">
         <v>1996</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="78"/>
       <c r="G24" s="52">
         <v>44228</v>
       </c>
@@ -4409,7 +4456,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4447,14 +4494,14 @@
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="78">
+      <c r="C26" s="77">
         <v>422</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="78"/>
       <c r="G26" s="64"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4487,15 +4534,15 @@
         <v>0.36842105263157898</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="81">
         <f>'Financial Model'!Q52</f>
         <v>954.39400000000001</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="82"/>
       <c r="R27" s="37">
         <v>2020</v>
       </c>
@@ -4519,7 +4566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4546,14 +4593,14 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="77" t="s">
         <v>789</v>
       </c>
-      <c r="D29" s="79"/>
+      <c r="D29" s="78"/>
       <c r="R29" s="37">
         <v>2020</v>
       </c>
@@ -4577,14 +4624,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="89"/>
+      <c r="D30" s="88"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4608,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R31" s="37">
         <v>2020</v>
       </c>
@@ -4632,7 +4679,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R32" s="37">
         <v>2020</v>
       </c>
@@ -4656,12 +4703,12 @@
         <v>-0.80487804878048785</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B33" s="75" t="s">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B33" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -4685,15 +4732,15 @@
         <v>-0.82954545454545459</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="86">
+      <c r="C34" s="85">
         <f>C12/SUM('Financial Model'!N20:Q20)</f>
         <v>15.715778773521555</v>
       </c>
-      <c r="D34" s="87"/>
+      <c r="D34" s="86"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -4717,15 +4764,15 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="86">
+      <c r="C35" s="85">
         <f>C6/SUM('Financial Model'!N21:Q21)</f>
         <v>18.4823862349457</v>
       </c>
-      <c r="D35" s="87"/>
+      <c r="D35" s="86"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -4749,12 +4796,12 @@
         <v>-0.16666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -4778,15 +4825,15 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="86">
+      <c r="C37" s="85">
         <f>C6/'Financial Model'!Q77</f>
         <v>1.7736424834957014</v>
       </c>
-      <c r="D37" s="87"/>
+      <c r="D37" s="86"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -4810,15 +4857,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="90">
+      <c r="C38" s="89">
         <f>C8/SUM('Financial Model'!N9:Q9)</f>
         <v>0.53569184551470383</v>
       </c>
-      <c r="D38" s="91"/>
+      <c r="D38" s="90"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -4842,15 +4889,15 @@
         <v>1.7142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="90">
+      <c r="C39" s="89">
         <f>C12/SUM('Financial Model'!N9:Q9)</f>
         <v>0.46991085532458332</v>
       </c>
-      <c r="D39" s="91"/>
+      <c r="D39" s="90"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -4874,7 +4921,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -4901,15 +4948,15 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="84">
+      <c r="C41" s="83">
         <f>C6/'Financial Model'!AA21</f>
         <v>8.6491744709215048</v>
       </c>
-      <c r="D41" s="85"/>
+      <c r="D41" s="84"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -4933,7 +4980,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R42" s="37">
         <v>2019</v>
       </c>
@@ -4957,7 +5004,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R43" s="37">
         <v>2019</v>
       </c>
@@ -4981,7 +5028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R44" s="37">
         <v>2019</v>
       </c>
@@ -5005,7 +5052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R45" s="37">
         <v>2019</v>
       </c>
@@ -5029,7 +5076,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R46" s="37">
         <v>2019</v>
       </c>
@@ -5053,7 +5100,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R47" s="37">
         <v>2019</v>
       </c>
@@ -5077,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R48" s="37">
         <v>2019</v>
       </c>
@@ -5100,7 +5147,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R49" s="37">
         <v>2019</v>
       </c>
@@ -5124,7 +5171,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R50" s="37">
         <v>2018</v>
       </c>
@@ -5147,7 +5194,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R51" s="37">
         <v>2018</v>
       </c>
@@ -5170,7 +5217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R52" s="37">
         <v>2018</v>
       </c>
@@ -5193,7 +5240,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R53" s="37">
         <v>2018</v>
       </c>
@@ -5216,7 +5263,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R54" s="37">
         <v>2018</v>
       </c>
@@ -5239,7 +5286,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R55" s="37">
         <v>2018</v>
       </c>
@@ -5262,7 +5309,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R56" s="37">
         <v>2018</v>
       </c>
@@ -5285,7 +5332,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R57" s="37">
         <v>2018</v>
       </c>
@@ -5308,7 +5355,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R58" s="37">
         <v>2018</v>
       </c>
@@ -5331,7 +5378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R59" s="37">
         <v>2018</v>
       </c>
@@ -5353,7 +5400,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R60" s="37">
         <v>2018</v>
       </c>
@@ -5375,7 +5422,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R61" s="45">
         <v>2018</v>
       </c>
@@ -5575,23 +5622,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
   <dimension ref="B1:AT95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H43" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA79" sqref="AA79"/>
+      <selection pane="bottomRight" activeCell="Z91" sqref="V91:Z91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.1640625" style="1"/>
-    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="95"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
@@ -5634,16 +5683,22 @@
       <c r="Q1" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="97" t="s">
         <v>32</v>
       </c>
       <c r="S1" s="16" t="s">
         <v>788</v>
       </c>
+      <c r="U1" s="16" t="s">
+        <v>813</v>
+      </c>
+      <c r="V1" s="50" t="s">
+        <v>812</v>
+      </c>
       <c r="W1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="50" t="s">
         <v>110</v>
       </c>
       <c r="Y1" s="16" t="s">
@@ -5713,7 +5768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:46" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:46" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="17"/>
       <c r="H2" s="24">
         <v>43921</v>
@@ -5745,6 +5800,21 @@
       <c r="Q2" s="24">
         <v>44742</v>
       </c>
+      <c r="R2" s="98" t="s">
+        <v>811</v>
+      </c>
+      <c r="U2" s="24">
+        <v>42369</v>
+      </c>
+      <c r="V2" s="24">
+        <v>42735</v>
+      </c>
+      <c r="W2" s="24">
+        <v>43100</v>
+      </c>
+      <c r="X2" s="24">
+        <v>43465</v>
+      </c>
       <c r="Y2" s="18" t="s">
         <v>81</v>
       </c>
@@ -5755,7 +5825,7 @@
         <v>44561</v>
       </c>
     </row>
-    <row r="3" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>764</v>
       </c>
@@ -5793,13 +5863,21 @@
       <c r="Q3" s="56">
         <v>868.428</v>
       </c>
-      <c r="R3" s="65"/>
+      <c r="R3" s="91"/>
       <c r="S3" s="56"/>
       <c r="T3" s="56"/>
-      <c r="U3" s="56"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
+      <c r="U3" s="56">
+        <v>2801.0619999999999</v>
+      </c>
+      <c r="V3" s="56">
+        <v>3229.1419999999998</v>
+      </c>
+      <c r="W3" s="56">
+        <v>3287.1210000000001</v>
+      </c>
+      <c r="X3" s="56">
+        <v>3462.3719999999998</v>
+      </c>
       <c r="Y3" s="56">
         <v>3470.2849999999999</v>
       </c>
@@ -5810,7 +5888,7 @@
         <v>3841.2489999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>765</v>
       </c>
@@ -5848,13 +5926,21 @@
       <c r="Q4" s="56">
         <v>347.25099999999998</v>
       </c>
-      <c r="R4" s="65"/>
+      <c r="R4" s="91"/>
       <c r="S4" s="56"/>
       <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="56"/>
-      <c r="X4" s="56"/>
+      <c r="U4" s="56">
+        <v>677.74400000000003</v>
+      </c>
+      <c r="V4" s="56">
+        <v>1013.544</v>
+      </c>
+      <c r="W4" s="56">
+        <v>1037.8399999999999</v>
+      </c>
+      <c r="X4" s="56">
+        <v>1063.175</v>
+      </c>
       <c r="Y4" s="56">
         <v>1086.5509999999999</v>
       </c>
@@ -5865,7 +5951,7 @@
         <v>1264.127</v>
       </c>
     </row>
-    <row r="5" spans="2:46" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:46" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>766</v>
       </c>
@@ -5903,13 +5989,21 @@
       <c r="Q5" s="56">
         <v>96.831000000000003</v>
       </c>
-      <c r="R5" s="66"/>
+      <c r="R5" s="92"/>
       <c r="S5" s="56"/>
       <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="56"/>
+      <c r="U5" s="56">
+        <v>346.88499999999999</v>
+      </c>
+      <c r="V5" s="56">
+        <v>406.61399999999998</v>
+      </c>
+      <c r="W5" s="56">
+        <v>445.83800000000002</v>
+      </c>
+      <c r="X5" s="56">
+        <v>422.49599999999998</v>
+      </c>
       <c r="Y5" s="56">
         <v>416.35399999999998</v>
       </c>
@@ -5920,7 +6014,7 @@
         <v>461.89400000000001</v>
       </c>
     </row>
-    <row r="6" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="58" t="s">
         <v>769</v>
       </c>
@@ -5968,13 +6062,25 @@
         <f t="shared" si="0"/>
         <v>1312.51</v>
       </c>
-      <c r="R6" s="55"/>
+      <c r="R6" s="93"/>
       <c r="S6" s="55"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
+      <c r="U6" s="55">
+        <f t="shared" ref="U6:X6" si="1">SUM(U3:U5)</f>
+        <v>3825.6909999999998</v>
+      </c>
+      <c r="V6" s="55">
+        <f t="shared" si="1"/>
+        <v>4649.2999999999993</v>
+      </c>
+      <c r="W6" s="55">
+        <f t="shared" si="1"/>
+        <v>4770.799</v>
+      </c>
+      <c r="X6" s="55">
+        <f t="shared" si="1"/>
+        <v>4948.0429999999997</v>
+      </c>
       <c r="Y6" s="55">
         <f>SUM(Y3:Y5)</f>
         <v>4973.1899999999996</v>
@@ -5988,7 +6094,7 @@
         <v>5567.27</v>
       </c>
     </row>
-    <row r="7" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>768</v>
       </c>
@@ -6026,13 +6132,21 @@
       <c r="Q7" s="56">
         <v>28.135000000000002</v>
       </c>
-      <c r="R7" s="56"/>
+      <c r="R7" s="94"/>
       <c r="S7" s="56"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
+      <c r="U7" s="56">
+        <v>84.206999999999994</v>
+      </c>
+      <c r="V7" s="56">
+        <v>99.849000000000004</v>
+      </c>
+      <c r="W7" s="56">
+        <v>116.575</v>
+      </c>
+      <c r="X7" s="56">
+        <v>124.785</v>
+      </c>
       <c r="Y7" s="56">
         <v>138.77500000000001</v>
       </c>
@@ -6043,7 +6157,7 @@
         <v>112.623</v>
       </c>
     </row>
-    <row r="8" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>767</v>
       </c>
@@ -6081,13 +6195,22 @@
       <c r="Q8" s="56">
         <v>8.4120000000000008</v>
       </c>
-      <c r="R8" s="56"/>
+      <c r="R8" s="94"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="56"/>
+      <c r="U8" s="56">
+        <v>53.414999999999999</v>
+      </c>
+      <c r="V8" s="56">
+        <f>80.447-1.41</f>
+        <v>79.037000000000006</v>
+      </c>
+      <c r="W8" s="56">
+        <v>101.87</v>
+      </c>
+      <c r="X8" s="56">
+        <v>120.357</v>
+      </c>
       <c r="Y8" s="56">
         <v>155.167</v>
       </c>
@@ -6098,7 +6221,7 @@
         <v>3.573</v>
       </c>
     </row>
-    <row r="9" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -6132,6 +6255,26 @@
       <c r="Q9" s="21">
         <v>1349.057</v>
       </c>
+      <c r="R9" s="93">
+        <f>Q9*1.065</f>
+        <v>1436.745705</v>
+      </c>
+      <c r="U9" s="21">
+        <f t="shared" ref="U9:V9" si="2">U6+U7+U8</f>
+        <v>3963.3129999999996</v>
+      </c>
+      <c r="V9" s="21">
+        <f t="shared" si="2"/>
+        <v>4828.1859999999997</v>
+      </c>
+      <c r="W9" s="21">
+        <f>W6+W7+W8</f>
+        <v>4989.2439999999997</v>
+      </c>
+      <c r="X9" s="21">
+        <f>X6+X7+X8</f>
+        <v>5193.1849999999995</v>
+      </c>
       <c r="Y9" s="21">
         <v>5267.1319999999996</v>
       </c>
@@ -6142,7 +6285,7 @@
         <v>5683.4660000000003</v>
       </c>
     </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6176,6 +6319,22 @@
       <c r="Q10" s="62">
         <v>718.86</v>
       </c>
+      <c r="R10" s="94">
+        <f>Q10*1.03</f>
+        <v>740.42579999999998</v>
+      </c>
+      <c r="U10" s="22">
+        <v>2057.7660000000001</v>
+      </c>
+      <c r="V10" s="22">
+        <v>2584.7240000000002</v>
+      </c>
+      <c r="W10" s="22">
+        <v>2737.83</v>
+      </c>
+      <c r="X10" s="22">
+        <v>2852.7139999999999</v>
+      </c>
       <c r="Y10" s="22">
         <v>2796.5990000000002</v>
       </c>
@@ -6186,49 +6345,69 @@
         <v>2821.9670000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="21">
-        <f t="shared" ref="H11:Q11" si="1">H9-H10</f>
+        <f t="shared" ref="H11:R11" si="3">H9-H10</f>
         <v>430.98400000000004</v>
       </c>
       <c r="I11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>349.16899999999998</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>686.31999999999994</v>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>693.62200000000007</v>
       </c>
       <c r="L11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>628.64099999999996</v>
       </c>
       <c r="M11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>668.82100000000014</v>
       </c>
       <c r="N11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>788.10399999999993</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>775.93299999999988</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>605.16399999999999</v>
       </c>
       <c r="Q11" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>630.197</v>
+      </c>
+      <c r="R11" s="93">
+        <f t="shared" si="3"/>
+        <v>696.31990500000006</v>
+      </c>
+      <c r="U11" s="21">
+        <f t="shared" ref="U11:X11" si="4">U9-U10</f>
+        <v>1905.5469999999996</v>
+      </c>
+      <c r="V11" s="21">
+        <f t="shared" si="4"/>
+        <v>2243.4619999999995</v>
+      </c>
+      <c r="W11" s="21">
+        <f t="shared" si="4"/>
+        <v>2251.4139999999998</v>
+      </c>
+      <c r="X11" s="21">
+        <f t="shared" si="4"/>
+        <v>2340.4709999999995</v>
       </c>
       <c r="Y11" s="21">
         <f>Y9-Y10</f>
@@ -6243,7 +6422,7 @@
         <v>2861.4990000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -6277,6 +6456,22 @@
       <c r="Q12" s="62">
         <v>595.71400000000006</v>
       </c>
+      <c r="R12" s="94">
+        <f>AVERAGE(N12:Q12)</f>
+        <v>616.30250000000001</v>
+      </c>
+      <c r="U12" s="22">
+        <v>1497</v>
+      </c>
+      <c r="V12" s="22">
+        <v>1823.14</v>
+      </c>
+      <c r="W12" s="22">
+        <v>2099.5219999999999</v>
+      </c>
+      <c r="X12" s="22">
+        <v>2182.3389999999999</v>
+      </c>
       <c r="Y12" s="22">
         <v>2233.7600000000002</v>
       </c>
@@ -6287,7 +6482,7 @@
         <v>2334.6909999999998</v>
       </c>
     </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -6321,6 +6516,21 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
+      <c r="R13" s="95">
+        <v>0</v>
+      </c>
+      <c r="U13" s="22">
+        <v>0</v>
+      </c>
+      <c r="V13" s="22">
+        <v>0</v>
+      </c>
+      <c r="W13" s="22">
+        <v>124.04900000000001</v>
+      </c>
+      <c r="X13" s="22">
+        <v>183.149</v>
+      </c>
       <c r="Y13" s="22">
         <v>0</v>
       </c>
@@ -6331,49 +6541,69 @@
         <v>40.518000000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="21">
-        <f t="shared" ref="H14:Q14" si="2">H11-H12-H13</f>
+        <f t="shared" ref="H14:R14" si="5">H11-H12-H13</f>
         <v>-558.18000000000006</v>
       </c>
       <c r="I14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-169.67400000000004</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>58.569999999999965</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>55.846000000000053</v>
       </c>
       <c r="L14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>106.88999999999993</v>
       </c>
       <c r="M14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>121.2050000000001</v>
       </c>
       <c r="N14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>172.06399999999991</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>86.13099999999983</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-45.956000000000039</v>
       </c>
       <c r="Q14" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>34.482999999999947</v>
+      </c>
+      <c r="R14" s="93">
+        <f t="shared" si="5"/>
+        <v>80.017405000000053</v>
+      </c>
+      <c r="U14" s="21">
+        <f t="shared" ref="U14:X14" si="6">U11-U12-U13</f>
+        <v>408.54699999999957</v>
+      </c>
+      <c r="V14" s="21">
+        <f t="shared" si="6"/>
+        <v>420.32199999999943</v>
+      </c>
+      <c r="W14" s="21">
+        <f t="shared" si="6"/>
+        <v>27.842999999999819</v>
+      </c>
+      <c r="X14" s="21">
+        <f t="shared" si="6"/>
+        <v>-25.017000000000394</v>
       </c>
       <c r="Y14" s="21">
         <f>Y11-Y12-Y13</f>
@@ -6388,7 +6618,7 @@
         <v>486.29000000000042</v>
       </c>
     </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -6422,6 +6652,21 @@
       <c r="Q15" s="62">
         <v>-6.0049999999999999</v>
       </c>
+      <c r="R15" s="95">
+        <v>-5.5</v>
+      </c>
+      <c r="U15" s="22">
+        <v>-14.628</v>
+      </c>
+      <c r="V15" s="22">
+        <v>-26.434000000000001</v>
+      </c>
+      <c r="W15" s="22">
+        <v>-34.537999999999997</v>
+      </c>
+      <c r="X15" s="22">
+        <v>-33.567999999999998</v>
+      </c>
       <c r="Y15" s="22">
         <v>-21.24</v>
       </c>
@@ -6432,7 +6677,7 @@
         <v>-44.3</v>
       </c>
     </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -6466,6 +6711,22 @@
       <c r="Q16" s="62">
         <v>-14.241</v>
       </c>
+      <c r="R16" s="94">
+        <f>AVERAGE(N16:Q16)</f>
+        <v>-4.9327500000000004</v>
+      </c>
+      <c r="U16" s="22">
+        <v>-7.234</v>
+      </c>
+      <c r="V16" s="22">
+        <v>-2.7549999999999999</v>
+      </c>
+      <c r="W16" s="22">
+        <v>-3.6139999999999999</v>
+      </c>
+      <c r="X16" s="22">
+        <v>-9.2029999999999994</v>
+      </c>
       <c r="Y16" s="22">
         <v>-5.6879999999999997</v>
       </c>
@@ -6476,49 +6737,69 @@
         <v>-51.113</v>
       </c>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" ref="H17:Q17" si="3">H14+H15+H16</f>
+        <f t="shared" ref="H17:R17" si="7">H14+H15+H16</f>
         <v>-562.60600000000011</v>
       </c>
       <c r="I17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-185.85300000000004</v>
       </c>
       <c r="J17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.430999999999969</v>
       </c>
       <c r="K17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>219.48400000000004</v>
       </c>
       <c r="L17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>85.572999999999922</v>
       </c>
       <c r="M17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>173.00600000000009</v>
       </c>
       <c r="N17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>133.32699999999991</v>
       </c>
       <c r="O17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>102.57299999999984</v>
       </c>
       <c r="P17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>-52.161000000000044</v>
       </c>
       <c r="Q17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.236999999999949</v>
+      </c>
+      <c r="R17" s="94">
+        <f t="shared" si="7"/>
+        <v>69.584655000000055</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" ref="U17" si="8">U14+U15+U16</f>
+        <v>386.6849999999996</v>
+      </c>
+      <c r="V17" s="22">
+        <f t="shared" ref="V17:X17" si="9">V14+V15+V16</f>
+        <v>391.13299999999941</v>
+      </c>
+      <c r="W17" s="22">
+        <f t="shared" si="9"/>
+        <v>-10.309000000000179</v>
+      </c>
+      <c r="X17" s="22">
+        <f t="shared" si="9"/>
+        <v>-67.788000000000395</v>
       </c>
       <c r="Y17" s="22">
         <f>Y14+Y15+Y16</f>
@@ -6533,7 +6814,7 @@
         <v>390.87700000000041</v>
       </c>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -6567,6 +6848,22 @@
       <c r="Q18" s="62">
         <v>5.657</v>
       </c>
+      <c r="R18" s="94">
+        <f>R17*0.4</f>
+        <v>27.833862000000025</v>
+      </c>
+      <c r="U18" s="22">
+        <v>154.11199999999999</v>
+      </c>
+      <c r="V18" s="22">
+        <v>132.47300000000001</v>
+      </c>
+      <c r="W18" s="22">
+        <v>37.951000000000001</v>
+      </c>
+      <c r="X18" s="22">
+        <v>-20.552</v>
+      </c>
       <c r="Y18" s="22">
         <v>70.024000000000001</v>
       </c>
@@ -6577,7 +6874,7 @@
         <v>32.072000000000003</v>
       </c>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -6611,6 +6908,22 @@
       <c r="Q19" s="62">
         <v>-0.89800000000000002</v>
       </c>
+      <c r="R19" s="94">
+        <f>AVERAGE(N19:Q19)</f>
+        <v>-0.20025000000000001</v>
+      </c>
+      <c r="U19" s="22">
+        <v>0</v>
+      </c>
+      <c r="V19" s="22">
+        <v>0</v>
+      </c>
+      <c r="W19" s="22">
+        <v>0</v>
+      </c>
+      <c r="X19" s="22">
+        <v>0.93400000000000005</v>
+      </c>
       <c r="Y19" s="22">
         <v>-47.679000000000002</v>
       </c>
@@ -6621,49 +6934,69 @@
         <v>1.2549999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H20" s="21">
-        <f t="shared" ref="H20:Q20" si="4">H17-H18+H19</f>
+        <f t="shared" ref="H20:R20" si="10">H17-H18+H19</f>
         <v>-589.68100000000015</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-182.89500000000004</v>
       </c>
       <c r="J20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>38.94599999999997</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>184.45400000000004</v>
       </c>
       <c r="L20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>77.751999999999924</v>
       </c>
       <c r="M20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>162.80900000000011</v>
       </c>
       <c r="N20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>113.4439999999999</v>
       </c>
       <c r="O20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>109.65699999999984</v>
       </c>
       <c r="P20" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-59.610000000000042</v>
       </c>
-      <c r="Q20" s="67">
-        <f t="shared" si="4"/>
+      <c r="Q20" s="66">
+        <f t="shared" si="10"/>
         <v>7.6819999999999489</v>
+      </c>
+      <c r="R20" s="99">
+        <f t="shared" si="10"/>
+        <v>41.550543000000033</v>
+      </c>
+      <c r="U20" s="21">
+        <f t="shared" ref="U20:X20" si="11">U17-U18+U19</f>
+        <v>232.57299999999961</v>
+      </c>
+      <c r="V20" s="21">
+        <f t="shared" si="11"/>
+        <v>258.6599999999994</v>
+      </c>
+      <c r="W20" s="21">
+        <f t="shared" si="11"/>
+        <v>-48.260000000000176</v>
+      </c>
+      <c r="X20" s="21">
+        <f t="shared" si="11"/>
+        <v>-46.302000000000398</v>
       </c>
       <c r="Y20" s="21">
         <f>Y17-Y18+Y19</f>
@@ -6678,49 +7011,69 @@
         <v>360.0600000000004</v>
       </c>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:Q21" si="5">H20/H22</f>
+        <f t="shared" ref="H21:Q21" si="12">H20/H22</f>
         <v>-1.3020948570343436</v>
       </c>
       <c r="I21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-0.40274508335884057</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>8.528184218939544E-2</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.40556187075510497</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.1705035371721042</v>
       </c>
       <c r="M21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.35423756103080067</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.24136918566303953</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.230285733486217</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-0.12644641247282185</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.675774134790517E-2</v>
+      </c>
+      <c r="R21" s="100">
+        <f>R20/R22</f>
+        <v>8.8592963827677812E-2</v>
+      </c>
+      <c r="U21" s="23">
+        <f t="shared" ref="U21" si="13">U20/U22</f>
+        <v>0.5396175370537073</v>
+      </c>
+      <c r="V21" s="23">
+        <f t="shared" ref="V21" si="14">V20/V22</f>
+        <v>0.59280819563174525</v>
+      </c>
+      <c r="W21" s="23">
+        <f t="shared" ref="W21:X21" si="15">W20/W22</f>
+        <v>-0.10950039593491732</v>
+      </c>
+      <c r="X21" s="23">
+        <f t="shared" si="15"/>
+        <v>-0.10385922411762816</v>
       </c>
       <c r="Y21" s="23">
         <f>Y20/Y22</f>
@@ -6735,7 +7088,7 @@
         <v>0.77348422355124846</v>
       </c>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -6769,6 +7122,24 @@
       <c r="Q22" s="62">
         <v>458.41500000000002</v>
       </c>
+      <c r="R22" s="94">
+        <f>AVERAGE(N22:Q22)</f>
+        <v>469.005</v>
+      </c>
+      <c r="U22" s="22">
+        <f>215.498+215.498</f>
+        <v>430.99599999999998</v>
+      </c>
+      <c r="V22" s="22">
+        <f>217.707+218.623</f>
+        <v>436.33</v>
+      </c>
+      <c r="W22" s="62">
+        <v>440.72899999999998</v>
+      </c>
+      <c r="X22" s="62">
+        <v>445.815</v>
+      </c>
       <c r="Y22" s="22">
         <v>450.964</v>
       </c>
@@ -6779,7 +7150,7 @@
         <v>465.50400000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -6804,11 +7175,31 @@
         <v>3.4799692967280249E-2</v>
       </c>
       <c r="Q24" s="26">
-        <f t="shared" ref="Q24" si="6">Q9/M9-1</f>
+        <f t="shared" ref="Q24:R24" si="16">Q9/M9-1</f>
         <v>-1.8327322879040375E-3</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="R24" s="101">
+        <f t="shared" si="16"/>
+        <v>-7.0387604397708969E-2</v>
+      </c>
+      <c r="U24" s="16" t="s">
         <v>87</v>
+      </c>
+      <c r="V24" s="26">
+        <f t="shared" ref="V24:X24" si="17">V9/U9-1</f>
+        <v>0.21821970659395307</v>
+      </c>
+      <c r="W24" s="26">
+        <f t="shared" si="17"/>
+        <v>3.3357869808660956E-2</v>
+      </c>
+      <c r="X24" s="26">
+        <f t="shared" ref="X24:Z24" si="18">X9/W9-1</f>
+        <v>4.0876132736743287E-2</v>
+      </c>
+      <c r="Y24" s="26">
+        <f t="shared" si="18"/>
+        <v>1.4239238540510346E-2</v>
       </c>
       <c r="Z24" s="26">
         <f>Z9/Y9-1</f>
@@ -6819,45 +7210,61 @@
         <v>0.27014278380938728</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I25" s="25">
-        <f t="shared" ref="I25:P25" si="7">I9/H9-1</f>
+        <f t="shared" ref="I25:P25" si="19">I9/H9-1</f>
         <v>-0.23929308565531482</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1.0250706573964163</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>-2.0414913668396983E-2</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>-0.10441270126217628</v>
       </c>
       <c r="M25" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>7.5039273939206064E-2</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.14353911925264162</v>
       </c>
       <c r="O25" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>-1.056399996894275E-2</v>
       </c>
       <c r="P25" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>-0.14926710284101874</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" ref="Q25" si="8">Q9/P9-1</f>
+        <f t="shared" ref="Q25:R25" si="20">Q9/P9-1</f>
         <v>3.6982347447432451E-2</v>
+      </c>
+      <c r="R25" s="92">
+        <f t="shared" si="20"/>
+        <v>6.4999999999999947E-2</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="Y25" s="16" t="s">
         <v>87</v>
@@ -6869,7 +7276,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="2:27" s="60" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:27" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -6894,11 +7301,31 @@
         <v>2.7189191287553927E-2</v>
       </c>
       <c r="Q26" s="59">
-        <f t="shared" ref="Q26" si="9">Q6/M6-1</f>
+        <f t="shared" ref="Q26:R26" si="21">Q6/M6-1</f>
         <v>-1.1914898101912375E-2</v>
       </c>
-      <c r="Y26" s="16" t="s">
+      <c r="R26" s="102">
+        <f t="shared" si="21"/>
+        <v>-1</v>
+      </c>
+      <c r="U26" s="16" t="s">
         <v>87</v>
+      </c>
+      <c r="V26" s="26">
+        <f t="shared" ref="V26:X26" si="22">V6/U6-1</f>
+        <v>0.21528372260070139</v>
+      </c>
+      <c r="W26" s="26">
+        <f t="shared" si="22"/>
+        <v>2.6132751166842549E-2</v>
+      </c>
+      <c r="X26" s="26">
+        <f t="shared" ref="X26:Z26" si="23">X6/W6-1</f>
+        <v>3.7151848149544753E-2</v>
+      </c>
+      <c r="Y26" s="26">
+        <f t="shared" si="23"/>
+        <v>5.0822112904029826E-3</v>
       </c>
       <c r="Z26" s="26">
         <f>Z6/Y6-1</f>
@@ -6909,45 +7336,61 @@
         <v>0.31583556232993004</v>
       </c>
     </row>
-    <row r="27" spans="2:27" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:27" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" ref="I27:P27" si="10">I6/H6-1</f>
+        <f t="shared" ref="I27:P27" si="24">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>1.0549972940599743</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-3.8935998856132414E-2</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-6.1431667318194938E-2</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>7.4285635721933918E-2</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>0.13999233628213337</v>
       </c>
       <c r="O27" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-1.726150932381687E-2</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="24"/>
         <v>-0.14652505955360839</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ref="Q27" si="11">Q6/P6-1</f>
+        <f t="shared" ref="Q27:R27" si="25">Q6/P6-1</f>
         <v>3.3388630685857734E-2</v>
+      </c>
+      <c r="R27" s="92">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="X27" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="Y27" s="16" t="s">
         <v>87</v>
@@ -6959,49 +7402,69 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="25">
-        <f t="shared" ref="H30:P30" si="12">H11/H9</f>
+        <f t="shared" ref="H30:P30" si="26">H11/H9</f>
         <v>0.4633040935672515</v>
       </c>
       <c r="I30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.49342744898535978</v>
       </c>
       <c r="J30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.47893226965969093</v>
       </c>
       <c r="K30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.49411511605210556</v>
       </c>
       <c r="L30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.50003460083757889</v>
       </c>
       <c r="M30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.49486065463391976</v>
       </c>
       <c r="N30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.50992409086321089</v>
       </c>
       <c r="O30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.50740940554078751</v>
       </c>
       <c r="P30" s="25">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.46517262451525621</v>
       </c>
       <c r="Q30" s="25">
-        <f t="shared" ref="Q30" si="13">Q11/Q9</f>
+        <f t="shared" ref="Q30:R30" si="27">Q11/Q9</f>
         <v>0.46713889776340067</v>
+      </c>
+      <c r="R30" s="92">
+        <f t="shared" si="27"/>
+        <v>0.4846507649730542</v>
+      </c>
+      <c r="U30" s="25">
+        <f t="shared" ref="U30:W30" si="28">U11/U9</f>
+        <v>0.48079649525535828</v>
+      </c>
+      <c r="V30" s="25">
+        <f t="shared" si="28"/>
+        <v>0.46465939796022765</v>
+      </c>
+      <c r="W30" s="25">
+        <f t="shared" ref="W30:Y30" si="29">W11/W9</f>
+        <v>0.45125353660795098</v>
+      </c>
+      <c r="X30" s="25">
+        <f t="shared" si="29"/>
+        <v>0.45068122934191635</v>
       </c>
       <c r="Y30" s="25">
         <f>Y11/Y9</f>
@@ -7016,49 +7479,69 @@
         <v>0.50347780738021486</v>
       </c>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" ref="H31:P31" si="14">H14/H9</f>
+        <f t="shared" ref="H31:P31" si="30">H14/H9</f>
         <v>-0.60003869969040258</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>-0.23977446159063937</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>4.0871696925585857E-2</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>3.9782983773648924E-2</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>8.5022609857659262E-2</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>8.9679578908114843E-2</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>0.11132994981663266</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>5.6324037653551901E-2</v>
       </c>
       <c r="P31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="30"/>
         <v>-3.5325090607212478E-2</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31" si="15">Q14/Q9</f>
+        <f t="shared" ref="Q31:R31" si="31">Q14/Q9</f>
         <v>2.5560817667452114E-2</v>
+      </c>
+      <c r="R31" s="92">
+        <f t="shared" si="31"/>
+        <v>5.5693505622833969E-2</v>
+      </c>
+      <c r="U31" s="25">
+        <f t="shared" ref="U31:W31" si="32">U14/U9</f>
+        <v>0.10308219411386373</v>
+      </c>
+      <c r="V31" s="25">
+        <f t="shared" si="32"/>
+        <v>8.7055883928249547E-2</v>
+      </c>
+      <c r="W31" s="25">
+        <f t="shared" ref="W31:Y31" si="33">W14/W9</f>
+        <v>5.5806049974705223E-3</v>
+      </c>
+      <c r="X31" s="25">
+        <f t="shared" si="33"/>
+        <v>-4.8172749478403712E-3</v>
       </c>
       <c r="Y31" s="25">
         <f>Y14/Y9</f>
@@ -7073,49 +7556,69 @@
         <v>8.5562225585584642E-2</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H32" s="25">
-        <f t="shared" ref="H32:P32" si="16">H20/H9</f>
+        <f t="shared" ref="H32:P32" si="34">H20/H9</f>
         <v>-0.63390200378396988</v>
       </c>
       <c r="I32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>-0.258457690351026</v>
       </c>
       <c r="J32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>2.7177550084751007E-2</v>
       </c>
       <c r="K32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0.13139939277628895</v>
       </c>
       <c r="L32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>6.1845616630673783E-2</v>
       </c>
       <c r="M32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>0.12046237830494838</v>
       </c>
       <c r="N32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>7.3401262477903989E-2</v>
       </c>
       <c r="O32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>7.1708502130191726E-2</v>
       </c>
       <c r="P32" s="25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>-4.5820538147269906E-2</v>
       </c>
       <c r="Q32" s="25">
-        <f t="shared" ref="Q32" si="17">Q20/Q9</f>
+        <f t="shared" ref="Q32:R32" si="35">Q20/Q9</f>
         <v>5.6943479778837729E-3</v>
+      </c>
+      <c r="R32" s="92">
+        <f t="shared" si="35"/>
+        <v>2.8919900616650899E-2</v>
+      </c>
+      <c r="U32" s="25">
+        <f t="shared" ref="U32:W32" si="36">U20/U9</f>
+        <v>5.8681461696313067E-2</v>
+      </c>
+      <c r="V32" s="25">
+        <f t="shared" si="36"/>
+        <v>5.3572915376499462E-2</v>
+      </c>
+      <c r="W32" s="25">
+        <f t="shared" ref="W32:Y32" si="37">W20/W9</f>
+        <v>-9.6728081448813046E-3</v>
+      </c>
+      <c r="X32" s="25">
+        <f t="shared" si="37"/>
+        <v>-8.9159157626775096E-3</v>
       </c>
       <c r="Y32" s="25">
         <f>Y20/Y9</f>
@@ -7130,49 +7633,69 @@
         <v>6.3352186852177944E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H33" s="25">
-        <f t="shared" ref="H33:P33" si="18">H18/H17</f>
+        <f t="shared" ref="H33:P33" si="38">H18/H17</f>
         <v>-3.8298560626797436E-2</v>
       </c>
       <c r="I33" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>1.687893119831264E-2</v>
       </c>
       <c r="J33" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>-0.10194614476681955</v>
       </c>
       <c r="K33" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0.15805252319075647</v>
       </c>
       <c r="L33" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0.11546866418145921</v>
       </c>
       <c r="M33" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>5.7957527484595879E-2</v>
       </c>
       <c r="N33" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>0.14222175553338792</v>
       </c>
       <c r="O33" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>-6.6274750665379883E-2</v>
       </c>
       <c r="P33" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>-0.15684131822626085</v>
       </c>
       <c r="Q33" s="25">
-        <f t="shared" ref="Q33" si="19">Q18/Q17</f>
+        <f t="shared" ref="Q33:R33" si="39">Q18/Q17</f>
         <v>0.39734494626677114</v>
+      </c>
+      <c r="R33" s="92">
+        <f t="shared" si="39"/>
+        <v>0.4</v>
+      </c>
+      <c r="U33" s="25">
+        <f t="shared" ref="U33:W33" si="40">U18/U17</f>
+        <v>0.39854662063436685</v>
+      </c>
+      <c r="V33" s="25">
+        <f t="shared" si="40"/>
+        <v>0.33869041988275145</v>
+      </c>
+      <c r="W33" s="25">
+        <f t="shared" ref="W33:Y33" si="41">W18/W17</f>
+        <v>-3.6813463963526378</v>
+      </c>
+      <c r="X33" s="25">
+        <f t="shared" si="41"/>
+        <v>0.30318050392399659</v>
       </c>
       <c r="Y33" s="25">
         <f>Y18/Y17</f>
@@ -7187,13 +7710,13 @@
         <v>8.2051387009212537E-2</v>
       </c>
     </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="69" t="s">
+    <row r="37" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
       <c r="K37" s="32">
@@ -7208,9 +7731,10 @@
       <c r="Q37" s="32">
         <v>179</v>
       </c>
-    </row>
-    <row r="38" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="69" t="s">
+      <c r="R37" s="95"/>
+    </row>
+    <row r="38" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
       <c r="K38" s="32">
@@ -7225,9 +7749,10 @@
       <c r="Q38" s="32">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="68" t="s">
+      <c r="R38" s="95"/>
+    </row>
+    <row r="39" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
       <c r="K39" s="32">
@@ -7246,9 +7771,10 @@
         <f>Q37+Q38</f>
         <v>197</v>
       </c>
-    </row>
-    <row r="40" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="69" t="s">
+      <c r="R39" s="95"/>
+    </row>
+    <row r="40" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
       <c r="K40" s="32">
@@ -7263,9 +7789,10 @@
       <c r="Q40" s="32">
         <v>156</v>
       </c>
-    </row>
-    <row r="41" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="69" t="s">
+      <c r="R40" s="95"/>
+    </row>
+    <row r="41" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
       <c r="K41" s="32">
@@ -7280,9 +7807,10 @@
       <c r="Q41" s="32">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="68" t="s">
+      <c r="R41" s="95"/>
+    </row>
+    <row r="42" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
       <c r="K42" s="32">
@@ -7301,8 +7829,9 @@
         <f>Q40+Q41</f>
         <v>243</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.15">
+      <c r="R42" s="95"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
@@ -7323,7 +7852,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
@@ -7344,7 +7873,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
@@ -7364,6 +7893,7 @@
         <f>Q43+Q44</f>
         <v>440</v>
       </c>
+      <c r="R45" s="96"/>
       <c r="Y45" s="2">
         <v>338</v>
       </c>
@@ -7374,15 +7904,15 @@
         <v>422</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B47" s="27"/>
     </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -7398,6 +7928,7 @@
       <c r="Q50" s="21">
         <v>1049.413</v>
       </c>
+      <c r="R50" s="96"/>
       <c r="Z50" s="21">
         <f>K50</f>
         <v>1517.3610000000001</v>
@@ -7406,7 +7937,7 @@
         <v>1669.453</v>
       </c>
     </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -7430,7 +7961,7 @@
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -7446,6 +7977,7 @@
       <c r="Q52" s="21">
         <v>954.39400000000001</v>
       </c>
+      <c r="R52" s="96"/>
       <c r="Z52" s="21">
         <f>K52</f>
         <v>895.97400000000005</v>
@@ -7454,7 +7986,7 @@
         <v>811.41</v>
       </c>
     </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -7478,13 +8010,37 @@
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="H54" s="22">
+        <f t="shared" ref="H54:N54" si="42">SUM(H50:H53)</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
       <c r="K54" s="22">
-        <f>SUM(K50:K53)</f>
+        <f t="shared" si="42"/>
         <v>3222.9750000000004</v>
+      </c>
+      <c r="L54" s="22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="22">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="22">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O54" s="22">
         <f>SUM(O50:O53)</f>
@@ -7507,7 +8063,7 @@
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -7524,14 +8080,14 @@
         <v>609.923</v>
       </c>
       <c r="Z55" s="22">
-        <f t="shared" ref="Z55:Z59" si="20">K55</f>
+        <f t="shared" ref="Z55:Z59" si="43">K55</f>
         <v>658.678</v>
       </c>
       <c r="AA55" s="22">
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
@@ -7548,14 +8104,14 @@
         <v>408.75299999999999</v>
       </c>
       <c r="Z56" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>536.66</v>
       </c>
       <c r="AA56" s="22">
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
@@ -7576,7 +8132,7 @@
         <v>489.43100000000004</v>
       </c>
       <c r="Z57" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>515.50900000000001</v>
       </c>
       <c r="AA57" s="22">
@@ -7584,7 +8140,7 @@
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
@@ -7601,14 +8157,14 @@
         <v>19.443999999999999</v>
       </c>
       <c r="Z58" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>23.93</v>
       </c>
       <c r="AA58" s="22">
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
@@ -7625,20 +8181,44 @@
         <v>78.162000000000006</v>
       </c>
       <c r="Z59" s="22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="43"/>
         <v>72.876000000000005</v>
       </c>
       <c r="AA59" s="22">
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="H60" s="22">
+        <f t="shared" ref="H60:N60" si="44">H54+H55+H56+H57+H58+H59</f>
+        <v>0</v>
+      </c>
+      <c r="I60" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
       <c r="K60" s="22">
-        <f>K54+K55+K56+K57+K58+K59</f>
+        <f t="shared" si="44"/>
         <v>5030.6280000000006</v>
+      </c>
+      <c r="L60" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="22">
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="O60" s="22">
         <f>O54+O55+O56+O57+O58+O59</f>
@@ -7661,13 +8241,13 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
       <c r="K61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="AA61" s="22"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
@@ -7684,14 +8264,14 @@
         <v>669.20299999999997</v>
       </c>
       <c r="Z62" s="22">
-        <f t="shared" ref="Z62:Z70" si="21">K62</f>
+        <f t="shared" ref="Z62:Z70" si="45">K62</f>
         <v>575.95399999999995</v>
       </c>
       <c r="AA62" s="22">
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
@@ -7708,14 +8288,14 @@
         <v>373.04500000000002</v>
       </c>
       <c r="Z63" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>378.85899999999998</v>
       </c>
       <c r="AA63" s="22">
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
@@ -7732,14 +8312,14 @@
         <v>157.48699999999999</v>
       </c>
       <c r="Z64" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>203.399</v>
       </c>
       <c r="AA64" s="22">
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
@@ -7756,14 +8336,14 @@
         <v>131.43799999999999</v>
       </c>
       <c r="Z65" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>162.56100000000001</v>
       </c>
       <c r="AA65" s="22">
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
@@ -7780,20 +8360,44 @@
         <v>127.50700000000001</v>
       </c>
       <c r="Z66" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>92.503</v>
       </c>
       <c r="AA66" s="22">
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
+      <c r="H67" s="22">
+        <f t="shared" ref="H67:N67" si="46">SUM(H62:H66)</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="22">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="22">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
       <c r="K67" s="22">
-        <f>SUM(K62:K66)</f>
+        <f t="shared" si="46"/>
         <v>1413.2759999999998</v>
+      </c>
+      <c r="L67" s="22">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="22">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="22">
+        <f t="shared" si="46"/>
+        <v>0</v>
       </c>
       <c r="O67" s="22">
         <f>SUM(O62:O66)</f>
@@ -7816,7 +8420,7 @@
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
@@ -7832,15 +8436,16 @@
       <c r="Q68" s="21">
         <v>672.83399999999995</v>
       </c>
+      <c r="R68" s="96"/>
       <c r="Z68" s="21">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>1003.556</v>
       </c>
       <c r="AA68" s="21">
         <v>662.53099999999995</v>
       </c>
     </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
@@ -7857,14 +8462,14 @@
         <v>650.83299999999997</v>
       </c>
       <c r="Z69" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>839.41399999999999</v>
       </c>
       <c r="AA69" s="22">
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
@@ -7881,20 +8486,44 @@
         <v>94.378</v>
       </c>
       <c r="Z70" s="22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>98.388999999999996</v>
       </c>
       <c r="AA70" s="22">
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="H71" s="22">
+        <f t="shared" ref="H71:N71" si="47">H67+H68+H69+H70</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="22">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="22">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
       <c r="K71" s="22">
-        <f>K67+K68+K69+K70</f>
+        <f t="shared" si="47"/>
         <v>3354.6350000000002</v>
+      </c>
+      <c r="L71" s="22">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="22">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="22">
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="O71" s="22">
         <f>O67+O68+O69+O70</f>
@@ -7917,12 +8546,12 @@
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="AA72" s="22"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
@@ -7939,14 +8568,14 @@
         <v>1729.075</v>
       </c>
       <c r="Z73" s="22">
-        <f t="shared" ref="Z73" si="22">K73</f>
+        <f t="shared" ref="Z73" si="48">K73</f>
         <v>1675.9929999999999</v>
       </c>
       <c r="AA73" s="22">
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
@@ -7975,16 +8604,16 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76" si="23">K60-K71</f>
+        <f t="shared" ref="K76" si="49">K60-K71</f>
         <v>1675.9930000000004</v>
       </c>
       <c r="O76" s="22">
-        <f t="shared" ref="O76" si="24">O60-O71</f>
+        <f t="shared" ref="O76" si="50">O60-O71</f>
         <v>2088.9740000000011</v>
       </c>
       <c r="P76" s="22">
@@ -7996,7 +8625,7 @@
         <v>1729.0950000000003</v>
       </c>
       <c r="Z76" s="22">
-        <f t="shared" ref="Z76:Z77" si="25">K76</f>
+        <f t="shared" ref="Z76:Z77" si="51">K76</f>
         <v>1675.9930000000004</v>
       </c>
       <c r="AA76" s="22">
@@ -8004,16 +8633,16 @@
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
       <c r="K77" s="53">
-        <f t="shared" ref="K77" si="26">K76/K22</f>
+        <f t="shared" ref="K77" si="52">K76/K22</f>
         <v>3.6850318044198591</v>
       </c>
       <c r="O77" s="53">
-        <f t="shared" ref="O77" si="27">O76/O22</f>
+        <f t="shared" ref="O77" si="53">O76/O22</f>
         <v>4.3869603383608675</v>
       </c>
       <c r="P77" s="53">
@@ -8025,7 +8654,7 @@
         <v>3.7718988253002195</v>
       </c>
       <c r="Z77" s="22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="51"/>
         <v>3.6850318044198591</v>
       </c>
       <c r="AA77" s="53">
@@ -8033,123 +8662,197 @@
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
-      <c r="O79" s="71">
+      <c r="O79" s="70">
         <f>O52/K52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
-      <c r="AA79" s="71">
+      <c r="R79" s="96"/>
+      <c r="AA79" s="70">
         <f>AA52/Z52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
     </row>
-    <row r="80" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
-      <c r="P80" s="66">
-        <f t="shared" ref="P80" si="28">P52/O52-1</f>
+      <c r="P80" s="65">
+        <f t="shared" ref="P80" si="54">P52/O52-1</f>
         <v>1.6076952465461369E-2</v>
       </c>
-      <c r="Q80" s="66">
+      <c r="Q80" s="65">
         <f>Q52/P52-1</f>
         <v>0.15760593361675279</v>
       </c>
-    </row>
-    <row r="82" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="R80" s="95"/>
+    </row>
+    <row r="82" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
+      <c r="H82" s="56">
+        <f t="shared" ref="H82:O82" si="55">H50</f>
+        <v>0</v>
+      </c>
+      <c r="I82" s="56">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="56">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
       <c r="K82" s="56">
-        <f t="shared" ref="K82" si="29">K50</f>
+        <f t="shared" si="55"/>
         <v>1517.3610000000001</v>
       </c>
+      <c r="L82" s="56">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="56">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="56">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
       <c r="O82" s="56">
-        <f t="shared" ref="O82:P82" si="30">O50</f>
+        <f t="shared" ref="O82:P82" si="56">O50</f>
         <v>1669.453</v>
       </c>
       <c r="P82" s="56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="56"/>
         <v>1009.139</v>
       </c>
       <c r="Q82" s="56">
         <f>Q50</f>
         <v>1049.413</v>
       </c>
-      <c r="R82" s="56"/>
+      <c r="R82" s="94"/>
       <c r="Z82" s="56">
-        <f t="shared" ref="Z82:AA82" si="31">Z50</f>
+        <f t="shared" ref="Z82:AA82" si="57">Z50</f>
         <v>1517.3610000000001</v>
       </c>
       <c r="AA82" s="56">
-        <f t="shared" si="31"/>
+        <f t="shared" si="57"/>
         <v>1669.453</v>
       </c>
     </row>
-    <row r="83" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
+      <c r="H83" s="56">
+        <f t="shared" ref="H83:O83" si="58">H68</f>
+        <v>0</v>
+      </c>
+      <c r="I83" s="56">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="56">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
       <c r="K83" s="56">
-        <f t="shared" ref="K83" si="32">K68</f>
+        <f t="shared" si="58"/>
         <v>1003.556</v>
       </c>
+      <c r="L83" s="56">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="56">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="56">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
       <c r="O83" s="56">
-        <f t="shared" ref="O83:P83" si="33">O68</f>
+        <f t="shared" ref="O83:P83" si="59">O68</f>
         <v>662.53099999999995</v>
       </c>
       <c r="P83" s="56">
-        <f t="shared" si="33"/>
+        <f t="shared" si="59"/>
         <v>672.28599999999994</v>
       </c>
       <c r="Q83" s="56">
         <f>Q68</f>
         <v>672.83399999999995</v>
       </c>
-      <c r="R83" s="56"/>
+      <c r="R83" s="94"/>
       <c r="Z83" s="56">
-        <f t="shared" ref="Z83:AA83" si="34">Z68</f>
+        <f t="shared" ref="Z83:AA83" si="60">Z68</f>
         <v>1003.556</v>
       </c>
       <c r="AA83" s="56">
-        <f t="shared" si="34"/>
+        <f t="shared" si="60"/>
         <v>662.53099999999995</v>
       </c>
     </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H84" s="22">
+        <f t="shared" ref="H84:O84" si="61">H82-H83</f>
+        <v>0</v>
+      </c>
+      <c r="I84" s="22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
       <c r="K84" s="22">
-        <f t="shared" ref="K84" si="35">K82-K83</f>
+        <f t="shared" si="61"/>
         <v>513.80500000000006</v>
       </c>
+      <c r="L84" s="22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="22">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
       <c r="O84" s="22">
-        <f t="shared" ref="O84:P84" si="36">O82-O83</f>
+        <f t="shared" ref="O84:P84" si="62">O82-O83</f>
         <v>1006.922</v>
       </c>
       <c r="P84" s="22">
-        <f t="shared" si="36"/>
+        <f t="shared" si="62"/>
         <v>336.85300000000007</v>
       </c>
       <c r="Q84" s="22">
         <f>Q82-Q83</f>
         <v>376.57900000000006</v>
       </c>
-      <c r="R84" s="22"/>
+      <c r="R84" s="94"/>
       <c r="Z84" s="22">
-        <f t="shared" ref="Z84:AA84" si="37">Z82-Z83</f>
+        <f t="shared" ref="Z84:AA84" si="63">Z82-Z83</f>
         <v>513.80500000000006</v>
       </c>
       <c r="AA84" s="22">
-        <f t="shared" si="37"/>
+        <f t="shared" si="63"/>
         <v>1006.922</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -8182,6 +8885,18 @@
       </c>
       <c r="Q86" s="1">
         <v>7.58</v>
+      </c>
+      <c r="U86" s="103" t="s">
+        <v>87</v>
+      </c>
+      <c r="V86" s="1">
+        <v>25.17</v>
+      </c>
+      <c r="W86" s="1">
+        <v>13.32</v>
+      </c>
+      <c r="X86" s="1">
+        <v>16.170000000000002</v>
       </c>
       <c r="Y86" s="1">
         <v>19.18</v>
@@ -8195,7 +8910,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -8204,225 +8919,271 @@
         <v>3808.6451099999999</v>
       </c>
       <c r="I87" s="56">
-        <f t="shared" ref="I87:Q87" si="38">I86*I22</f>
+        <f t="shared" ref="I87:Q87" si="64">I86*I22</f>
         <v>4014.4296399999998</v>
       </c>
       <c r="J87" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>4493.6721600000001</v>
       </c>
       <c r="K87" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>6767.5876799999996</v>
       </c>
       <c r="L87" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>8418.0184399999998</v>
       </c>
       <c r="M87" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>8534.8462799999998</v>
       </c>
       <c r="N87" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>8234.4350400000003</v>
       </c>
       <c r="O87" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>8590.251119999999</v>
       </c>
       <c r="P87" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>7580.5139999999992</v>
       </c>
       <c r="Q87" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="64"/>
         <v>3474.7857000000004</v>
       </c>
+      <c r="R87" s="95"/>
+      <c r="V87" s="56">
+        <f t="shared" ref="V87:Z87" si="65">V86*V22</f>
+        <v>10982.426100000001</v>
+      </c>
+      <c r="W87" s="56">
+        <f t="shared" si="65"/>
+        <v>5870.5102799999995</v>
+      </c>
+      <c r="X87" s="56">
+        <f t="shared" si="65"/>
+        <v>7208.8285500000011</v>
+      </c>
+      <c r="Y87" s="56">
+        <f t="shared" si="65"/>
+        <v>8649.4895199999992</v>
+      </c>
       <c r="Z87" s="56">
-        <f t="shared" ref="Z87:AA87" si="39">Z86*Z22</f>
+        <f t="shared" ref="Z87:AA87" si="66">Z86*Z22</f>
         <v>6756.8443200000002</v>
       </c>
       <c r="AA87" s="56">
-        <f t="shared" si="39"/>
+        <f t="shared" si="66"/>
         <v>8397.6921600000005</v>
       </c>
     </row>
-    <row r="88" spans="2:27" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:27" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K88" s="56">
-        <f t="shared" ref="K88" si="40">K87-K84</f>
+        <f t="shared" ref="K88" si="67">K87-K84</f>
         <v>6253.7826799999993</v>
       </c>
       <c r="O88" s="56">
-        <f t="shared" ref="O88:P88" si="41">O87-O84</f>
+        <f t="shared" ref="O88:P88" si="68">O87-O84</f>
         <v>7583.3291199999985</v>
       </c>
       <c r="P88" s="56">
-        <f t="shared" si="41"/>
+        <f t="shared" si="68"/>
         <v>7243.6609999999991</v>
       </c>
       <c r="Q88" s="56">
         <f>Q87-Q84</f>
         <v>3098.2067000000002</v>
       </c>
+      <c r="R88" s="94"/>
       <c r="Z88" s="56">
-        <f t="shared" ref="Z88:AA88" si="42">Z87-Z84</f>
+        <f t="shared" ref="Z88:AA88" si="69">Z87-Z84</f>
         <v>6243.0393199999999</v>
       </c>
       <c r="AA88" s="56">
-        <f t="shared" si="42"/>
+        <f t="shared" si="69"/>
         <v>7390.77016</v>
       </c>
     </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="K90" s="70">
-        <f t="shared" ref="K90" si="43">K86/K77</f>
+      <c r="K90" s="69">
+        <f t="shared" ref="K90" si="70">K86/K77</f>
         <v>4.0379570081736604</v>
       </c>
-      <c r="O90" s="70">
-        <f t="shared" ref="O90:P90" si="44">O86/O77</f>
+      <c r="O90" s="69">
+        <f t="shared" ref="O90:P90" si="71">O86/O77</f>
         <v>4.1121867098393734</v>
       </c>
-      <c r="P90" s="70">
-        <f t="shared" si="44"/>
+      <c r="P90" s="69">
+        <f t="shared" si="71"/>
         <v>4.3844509454849581</v>
       </c>
-      <c r="Q90" s="70">
+      <c r="Q90" s="69">
         <f>Q86/Q77</f>
         <v>2.0095979110459519</v>
       </c>
-      <c r="Z90" s="70">
-        <f t="shared" ref="Z90" si="45">Z86/Z77</f>
+      <c r="Z90" s="69">
+        <f t="shared" ref="Z90" si="72">Z86/Z77</f>
         <v>4.0379570081736604</v>
       </c>
-      <c r="AA90" s="70">
+      <c r="AA90" s="69">
         <f>AA86/AA77</f>
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="K91" s="70">
-        <f t="shared" ref="K91:P91" si="46">K87/SUM(H6:K6)</f>
+      <c r="K91" s="69">
+        <f t="shared" ref="K91:P91" si="73">K87/SUM(H6:K6)</f>
         <v>1.5995330818390172</v>
       </c>
-      <c r="L91" s="70">
-        <f t="shared" si="46"/>
+      <c r="L91" s="69">
+        <f t="shared" si="73"/>
         <v>1.8332967691100841</v>
       </c>
-      <c r="M91" s="70">
-        <f t="shared" si="46"/>
+      <c r="M91" s="69">
+        <f t="shared" si="73"/>
         <v>1.6247491502037685</v>
       </c>
-      <c r="N91" s="70">
-        <f t="shared" si="46"/>
+      <c r="N91" s="69">
+        <f t="shared" si="73"/>
         <v>1.5258758943246864</v>
       </c>
-      <c r="O91" s="70">
-        <f t="shared" si="46"/>
+      <c r="O91" s="69">
+        <f t="shared" si="73"/>
         <v>1.5429916494080578</v>
       </c>
-      <c r="P91" s="70">
-        <f t="shared" si="46"/>
+      <c r="P91" s="69">
+        <f t="shared" si="73"/>
         <v>1.3534483543594595</v>
       </c>
-      <c r="Q91" s="70">
+      <c r="Q91" s="69">
         <f>Q87/SUM(N6:Q6)</f>
         <v>0.6221570503604078</v>
       </c>
-      <c r="Z91" s="70">
-        <f t="shared" ref="Z91" si="47">Z87/Z6</f>
+      <c r="V91" s="69">
+        <f t="shared" ref="V91:Z91" si="74">V87/V6</f>
+        <v>2.3621676596476893</v>
+      </c>
+      <c r="W91" s="69">
+        <f t="shared" si="74"/>
+        <v>1.2305088267185433</v>
+      </c>
+      <c r="X91" s="69">
+        <f t="shared" si="74"/>
+        <v>1.456904992539475</v>
+      </c>
+      <c r="Y91" s="69">
+        <f t="shared" si="74"/>
+        <v>1.7392236210561027</v>
+      </c>
+      <c r="Z91" s="69">
+        <f t="shared" ref="Z91" si="75">Z87/Z6</f>
         <v>1.5969938669011909</v>
       </c>
-      <c r="AA91" s="70">
+      <c r="AA91" s="69">
         <f>AA87/AA6</f>
         <v>1.5084039681926689</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K92" s="70">
-        <f t="shared" ref="K92" si="48">K86/SUM(H21:K21)</f>
+      <c r="K92" s="69">
+        <f t="shared" ref="K92" si="76">K86/SUM(H21:K21)</f>
         <v>-12.257039736665067</v>
       </c>
-      <c r="L92" s="70">
-        <f t="shared" ref="L92" si="49">L86/SUM(I21:L21)</f>
+      <c r="L92" s="69">
+        <f t="shared" ref="L92" si="77">L86/SUM(I21:L21)</f>
         <v>71.383779306426774</v>
       </c>
-      <c r="M92" s="70">
-        <f t="shared" ref="M92" si="50">M86/SUM(J21:M21)</f>
+      <c r="M92" s="69">
+        <f t="shared" ref="M92" si="78">M86/SUM(J21:M21)</f>
         <v>18.285031241280244</v>
       </c>
-      <c r="N92" s="70">
-        <f t="shared" ref="N92" si="51">N86/SUM(K21:N21)</f>
+      <c r="N92" s="69">
+        <f t="shared" ref="N92" si="79">N86/SUM(K21:N21)</f>
         <v>14.952988283370482</v>
       </c>
-      <c r="O92" s="70">
-        <f t="shared" ref="O92:P92" si="52">O86/SUM(L21:O21)</f>
+      <c r="O92" s="69">
+        <f t="shared" ref="O92:P92" si="80">O86/SUM(L21:O21)</f>
         <v>18.105251010476522</v>
       </c>
-      <c r="P92" s="70">
-        <f t="shared" si="52"/>
+      <c r="P92" s="69">
+        <f t="shared" si="80"/>
         <v>22.989620990664498</v>
       </c>
-      <c r="Q92" s="70">
+      <c r="Q92" s="69">
         <f>Q86/SUM(N21:Q21)</f>
         <v>20.941179022554319</v>
       </c>
-      <c r="Y92" s="70">
-        <f t="shared" ref="Y92:Z92" si="53">Y86/Y21</f>
+      <c r="V92" s="69">
+        <f t="shared" ref="V92:Y92" si="81">V86/V21</f>
+        <v>42.458927163071316</v>
+      </c>
+      <c r="W92" s="69">
+        <f t="shared" si="81"/>
+        <v>-121.64339577289637</v>
+      </c>
+      <c r="X92" s="69">
+        <f t="shared" si="81"/>
+        <v>-155.69151548529089</v>
+      </c>
+      <c r="Y92" s="69">
+        <f t="shared" ref="Y92:Z92" si="82">Y86/Y21</f>
         <v>93.871302120640664</v>
       </c>
-      <c r="Z92" s="70">
-        <f t="shared" si="53"/>
+      <c r="Z92" s="69">
+        <f t="shared" si="82"/>
         <v>-12.303582123796154</v>
       </c>
-      <c r="AA92" s="70">
+      <c r="AA92" s="69">
         <f>AA86/AA21</f>
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="Z93" s="70">
-        <f t="shared" ref="Z93" si="54">Z88/Z6</f>
+      <c r="Z93" s="69">
+        <f t="shared" ref="Z93" si="83">Z88/Z6</f>
         <v>1.4755550124711148</v>
       </c>
-      <c r="AA93" s="70">
+      <c r="AA93" s="69">
         <f>AA88/AA6</f>
         <v>1.327539379264882</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.15">
-      <c r="Z94" s="70"/>
-      <c r="AA94" s="70"/>
-    </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Z94" s="69"/>
+      <c r="AA94" s="69"/>
+    </row>
+    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>806</v>
       </c>
       <c r="K95" s="25">
-        <f t="shared" ref="K95" si="55">K52/K9</f>
+        <f t="shared" ref="K95" si="84">K52/K9</f>
         <v>0.63826449707429866</v>
       </c>
       <c r="O95" s="25">
-        <f t="shared" ref="O95:P95" si="56">O52/O9</f>
+        <f t="shared" ref="O95:P95" si="85">O52/O9</f>
         <v>0.53060904195317171</v>
       </c>
       <c r="P95" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="85"/>
         <v>0.63373547690332799</v>
       </c>
       <c r="Q95" s="25">
@@ -8430,7 +9191,7 @@
         <v>0.70745268732158828</v>
       </c>
       <c r="Z95" s="25">
-        <f t="shared" ref="Z95" si="57">Z52/Z9</f>
+        <f t="shared" ref="Z95" si="86">Z52/Z9</f>
         <v>0.20023255361795636</v>
       </c>
       <c r="AA95" s="25">
@@ -8448,15 +9209,17 @@
     <hyperlink ref="P1" r:id="rId6" display="Q122" xr:uid="{08E44AAB-CF06-0740-9A0B-F8705B660AC7}"/>
     <hyperlink ref="Z1" r:id="rId7" xr:uid="{F32B72A9-3751-4609-93E8-46C881B94E82}"/>
     <hyperlink ref="Q1" r:id="rId8" xr:uid="{6D845CD6-61C5-D844-8DA9-8B7C95E94C4B}"/>
+    <hyperlink ref="X1" r:id="rId9" xr:uid="{A4185141-14DE-4895-BB64-5FB2BB6B4E23}"/>
+    <hyperlink ref="V1" r:id="rId10" xr:uid="{4B2ECFD3-F5FC-4C83-9A9C-9B6A741AD03E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId9"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
-    <ignoredError sqref="Z6:AA6 L6:Q6 H6:K6" formulaRange="1"/>
+    <ignoredError sqref="Z6:AA6 L6:Q6 H6:K6 R12 R16 R19 R22 W6:X6 U6:V6" formulaRange="1"/>
     <ignoredError sqref="Z54:Z71" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -8466,16 +9229,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="1"/>
-    <col min="5" max="5" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -8492,7 +9255,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -8509,7 +9272,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -8526,7 +9289,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -8543,7 +9306,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8560,7 +9323,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8577,7 +9340,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8594,7 +9357,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8611,7 +9374,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8628,7 +9391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8645,7 +9408,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8662,7 +9425,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8679,7 +9442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8696,7 +9459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8713,7 +9476,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8730,7 +9493,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8747,7 +9510,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8764,7 +9527,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8781,7 +9544,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8798,7 +9561,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8815,7 +9578,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8832,7 +9595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8849,7 +9612,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8866,7 +9629,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8883,7 +9646,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8900,7 +9663,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8917,7 +9680,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8934,7 +9697,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8951,7 +9714,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8968,7 +9731,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8985,7 +9748,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -9002,7 +9765,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -9019,7 +9782,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9036,7 +9799,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9053,7 +9816,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9070,7 +9833,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9087,7 +9850,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9104,7 +9867,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9121,7 +9884,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9138,7 +9901,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9155,7 +9918,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9172,7 +9935,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9189,7 +9952,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9206,7 +9969,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9223,7 +9986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9240,7 +10003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9257,7 +10020,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9274,7 +10037,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9291,7 +10054,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9308,7 +10071,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9325,7 +10088,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9342,7 +10105,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9359,7 +10122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9376,7 +10139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9393,7 +10156,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9410,7 +10173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9427,7 +10190,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9444,7 +10207,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9461,7 +10224,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9478,7 +10241,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9495,7 +10258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -9512,7 +10275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -9529,7 +10292,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -9546,7 +10309,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -9563,7 +10326,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -9580,7 +10343,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -9597,7 +10360,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -9614,7 +10377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -9631,7 +10394,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -9648,7 +10411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -9665,7 +10428,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -9682,7 +10445,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -9699,7 +10462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -9716,7 +10479,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -9733,7 +10496,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -9750,7 +10513,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -9767,7 +10530,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -9784,7 +10547,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -9801,7 +10564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -9818,7 +10581,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -9835,7 +10598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -9852,7 +10615,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -9869,7 +10632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -9886,7 +10649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -9903,7 +10666,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -9920,7 +10683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9937,7 +10700,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9954,7 +10717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9971,7 +10734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9988,7 +10751,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -10005,7 +10768,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -10022,7 +10785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -10039,7 +10802,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -10056,7 +10819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -10073,7 +10836,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -10090,7 +10853,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -10107,7 +10870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -10124,7 +10887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -10141,7 +10904,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -10158,7 +10921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -10175,7 +10938,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -10192,7 +10955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -10209,7 +10972,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -10226,7 +10989,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -10243,7 +11006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -10260,7 +11023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -10277,7 +11040,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -10294,7 +11057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -10311,7 +11074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -10328,7 +11091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -10345,7 +11108,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -10362,7 +11125,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -10379,7 +11142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -10396,7 +11159,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -10413,7 +11176,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -10430,7 +11193,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -10447,7 +11210,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10464,7 +11227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -10481,7 +11244,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -10498,7 +11261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -10515,7 +11278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -10532,7 +11295,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -10549,7 +11312,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -10566,7 +11329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -10583,7 +11346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -10600,7 +11363,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -10617,7 +11380,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -10634,7 +11397,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -10651,7 +11414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -10668,7 +11431,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -10685,7 +11448,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -10702,7 +11465,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -10719,7 +11482,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -10736,7 +11499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -10753,7 +11516,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -10770,7 +11533,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -10787,7 +11550,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -10804,7 +11567,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -10821,7 +11584,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -10838,7 +11601,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -10855,7 +11618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -10872,7 +11635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -10889,7 +11652,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -10906,7 +11669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -10923,7 +11686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -10940,7 +11703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -10957,7 +11720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -10974,7 +11737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -10991,7 +11754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -11008,7 +11771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -11025,7 +11788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -11042,7 +11805,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -11059,7 +11822,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -11076,7 +11839,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -11093,7 +11856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -11110,7 +11873,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -11127,7 +11890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -11144,7 +11907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -11161,7 +11924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -11178,7 +11941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -11195,7 +11958,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -11212,7 +11975,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -11229,7 +11992,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -11246,7 +12009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -11263,7 +12026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -11280,7 +12043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -11297,7 +12060,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -11314,7 +12077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -11331,7 +12094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -11348,7 +12111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -11365,7 +12128,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -11382,7 +12145,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -11399,7 +12162,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -11416,7 +12179,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -11433,7 +12196,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -11450,7 +12213,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -11467,7 +12230,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -11484,7 +12247,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -11501,7 +12264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -11518,7 +12281,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -11535,7 +12298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -11552,7 +12315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -11569,7 +12332,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -11586,7 +12349,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -11603,7 +12366,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -11620,7 +12383,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -11637,7 +12400,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -11654,7 +12417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -11671,7 +12434,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -11688,7 +12451,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -11705,7 +12468,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -11722,7 +12485,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -11739,7 +12502,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -11756,7 +12519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -11773,7 +12536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -11790,7 +12553,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11807,7 +12570,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11824,7 +12587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11841,7 +12604,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11858,7 +12621,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11875,7 +12638,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11892,7 +12655,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -11909,7 +12672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -11926,7 +12689,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -11943,7 +12706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -11960,7 +12723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -11977,7 +12740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -11994,7 +12757,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -12011,7 +12774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -12028,7 +12791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -12045,7 +12808,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -12062,7 +12825,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -12079,7 +12842,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -12096,7 +12859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -12113,7 +12876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -12130,7 +12893,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -12147,7 +12910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -12164,7 +12927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -12181,7 +12944,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -12198,7 +12961,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -12215,7 +12978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -12232,7 +12995,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -12249,7 +13012,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -12266,7 +13029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -12283,7 +13046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -12300,7 +13063,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -12317,7 +13080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -12334,7 +13097,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -12351,7 +13114,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -12368,7 +13131,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -12385,7 +13148,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -12402,7 +13165,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -12419,7 +13182,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -12436,7 +13199,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -12453,7 +13216,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -12470,7 +13233,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -12487,7 +13250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -12504,7 +13267,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -12521,7 +13284,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -12538,7 +13301,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -12555,7 +13318,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -12572,7 +13335,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -12589,7 +13352,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -12606,7 +13369,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -12623,7 +13386,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -12640,7 +13403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -12654,7 +13417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -12671,7 +13434,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -12688,7 +13451,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -12705,7 +13468,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -12722,7 +13485,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -12739,7 +13502,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -12756,7 +13519,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -12773,7 +13536,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -12790,7 +13553,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -12807,7 +13570,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -12821,7 +13584,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -12838,7 +13601,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -12855,7 +13618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -12872,7 +13635,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -12889,7 +13652,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -12906,7 +13669,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -12923,7 +13686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -12940,7 +13703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -12957,7 +13720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -12974,7 +13737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -12991,7 +13754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -13008,7 +13771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -13025,7 +13788,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -13042,7 +13805,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -13059,7 +13822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -13076,7 +13839,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -13093,7 +13856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -13110,7 +13873,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -13127,7 +13890,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -13144,7 +13907,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -13161,7 +13924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -13178,7 +13941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -13195,7 +13958,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -13212,7 +13975,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -13229,7 +13992,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -13246,7 +14009,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -13263,7 +14026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -13280,7 +14043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -13297,7 +14060,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -13314,7 +14077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -13331,7 +14094,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -13348,7 +14111,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -13365,7 +14128,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -13382,7 +14145,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -13399,7 +14162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -13416,7 +14179,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -13433,7 +14196,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -13450,7 +14213,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -13467,7 +14230,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -13484,7 +14247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -13501,7 +14264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -13518,7 +14281,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -13535,7 +14298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -13552,7 +14315,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -13569,7 +14332,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -13586,7 +14349,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -13603,7 +14366,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -13620,7 +14383,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -13637,7 +14400,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -13654,7 +14417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -13671,7 +14434,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -13688,7 +14451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -13705,7 +14468,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -13722,7 +14485,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -13739,7 +14502,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -13756,7 +14519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -13773,7 +14536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -13790,7 +14553,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -13807,7 +14570,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -13824,7 +14587,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -13841,7 +14604,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -13858,7 +14621,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -13875,7 +14638,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -13892,7 +14655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -13909,7 +14672,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -13926,7 +14689,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -13943,7 +14706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -13960,7 +14723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -13977,7 +14740,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -13994,7 +14757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -14011,7 +14774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -14028,7 +14791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -14045,7 +14808,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -14062,7 +14825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -14079,7 +14842,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -14096,7 +14859,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -14113,7 +14876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -14130,7 +14893,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -14147,7 +14910,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -14164,7 +14927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -14181,7 +14944,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -14198,7 +14961,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -14215,7 +14978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -14232,7 +14995,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -14249,7 +15012,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -14266,7 +15029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -14283,7 +15046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -14300,7 +15063,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -14317,7 +15080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -14334,7 +15097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -14351,7 +15114,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -14368,7 +15131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -14385,7 +15148,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -14402,7 +15165,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -14419,7 +15182,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -14436,7 +15199,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -14453,7 +15216,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -14470,7 +15233,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -14487,7 +15250,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -14504,7 +15267,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -14521,7 +15284,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -14538,7 +15301,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -14555,7 +15318,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -14572,7 +15335,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -14589,7 +15352,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -14606,7 +15369,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -14623,7 +15386,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -14640,7 +15403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -14657,7 +15420,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -14674,7 +15437,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -14691,7 +15454,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -14708,7 +15471,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -14725,7 +15488,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -14742,7 +15505,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -14759,7 +15522,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -14776,7 +15539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -14793,7 +15556,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -14810,7 +15573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -14827,7 +15590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -14844,7 +15607,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -14861,7 +15624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -14878,7 +15641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -14895,7 +15658,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -14912,7 +15675,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -14929,7 +15692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -14946,7 +15709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -14963,7 +15726,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -14980,7 +15743,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -14997,7 +15760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -15014,7 +15777,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -15031,7 +15794,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -15048,7 +15811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -15065,7 +15828,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -15082,7 +15845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -15099,7 +15862,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -15116,7 +15879,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -15133,7 +15896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -15150,7 +15913,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -15167,7 +15930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -15184,7 +15947,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -15201,7 +15964,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -15218,7 +15981,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -15235,7 +15998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -15252,7 +16015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -15269,7 +16032,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -15286,7 +16049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -15303,7 +16066,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -15320,7 +16083,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -15337,7 +16100,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -15354,7 +16117,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -15371,7 +16134,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -15388,7 +16151,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -15405,7 +16168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -15422,7 +16185,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -15439,7 +16202,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -15456,7 +16219,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -15473,7 +16236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -15490,7 +16253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -15507,7 +16270,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -15524,7 +16287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -15541,7 +16304,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -15558,7 +16321,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -15575,7 +16338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -15592,7 +16355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -15609,7 +16372,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -15626,7 +16389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -15643,7 +16406,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -15660,7 +16423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -15677,7 +16440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -15694,7 +16457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -15711,7 +16474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -15728,7 +16491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -15745,7 +16508,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -15762,7 +16525,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -15779,7 +16542,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -15796,7 +16559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -15813,7 +16576,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -15830,7 +16593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -15847,7 +16610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -15864,7 +16627,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -15881,7 +16644,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -15898,7 +16661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -15915,7 +16678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -15932,7 +16695,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -15949,7 +16712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -15966,7 +16729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -15983,7 +16746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -16000,7 +16763,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -16017,7 +16780,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -16034,7 +16797,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -16051,7 +16814,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -16068,7 +16831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -16085,7 +16848,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -16102,7 +16865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -16119,7 +16882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -16136,7 +16899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -16153,7 +16916,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -16170,7 +16933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -16187,7 +16950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -16204,7 +16967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -16221,7 +16984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -16238,7 +17001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -16255,7 +17018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -16272,7 +17035,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -16289,7 +17052,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -16306,7 +17069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -16323,7 +17086,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -16340,7 +17103,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -16357,7 +17120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -16374,7 +17137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -16391,7 +17154,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -16408,7 +17171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -16425,7 +17188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -16442,7 +17205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -16459,7 +17222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -16476,7 +17239,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -16493,7 +17256,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -16510,7 +17273,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -16527,7 +17290,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -16544,7 +17307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -16561,7 +17324,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -16578,7 +17341,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -16595,7 +17358,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -16612,7 +17375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -16629,7 +17392,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -16646,7 +17409,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -16663,7 +17426,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -16680,7 +17443,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -16697,7 +17460,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -16714,7 +17477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -16731,7 +17494,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -16748,7 +17511,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -16765,7 +17528,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -16782,7 +17545,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -16799,7 +17562,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -16816,7 +17579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -16833,7 +17596,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -16850,7 +17613,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -16867,7 +17630,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -16884,7 +17647,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -16901,7 +17664,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -16918,7 +17681,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -16935,7 +17698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -16952,7 +17715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -16969,7 +17732,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -16986,7 +17749,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -17003,7 +17766,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -17020,7 +17783,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -17037,7 +17800,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -17054,7 +17817,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -17071,7 +17834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -17088,7 +17851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -17105,7 +17868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -17122,7 +17885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -17139,7 +17902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -17156,7 +17919,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -17173,7 +17936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -17190,7 +17953,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -17207,7 +17970,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -17224,7 +17987,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -17241,7 +18004,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -17258,7 +18021,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -17275,7 +18038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -17292,7 +18055,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -17309,7 +18072,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -17326,7 +18089,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -17343,7 +18106,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -17360,7 +18123,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -17377,7 +18140,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -17394,7 +18157,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -17411,7 +18174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -17428,7 +18191,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -17445,7 +18208,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -17462,7 +18225,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -17479,7 +18242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -17493,7 +18256,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -17510,7 +18273,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -17527,7 +18290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -17544,7 +18307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -17561,7 +18324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -17578,7 +18341,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -17595,7 +18358,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -17612,7 +18375,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -17629,7 +18392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -17646,7 +18409,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -17663,7 +18426,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -17680,7 +18443,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -17697,7 +18460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -17714,7 +18477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -17731,7 +18494,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -17748,7 +18511,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -17765,7 +18528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -17782,7 +18545,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -17799,7 +18562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -17816,7 +18579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -17833,7 +18596,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -17850,7 +18613,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -17867,7 +18630,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -17884,7 +18647,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -17901,7 +18664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -17918,7 +18681,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -17935,7 +18698,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -17952,7 +18715,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -17969,7 +18732,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -17986,7 +18749,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -18003,7 +18766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -18020,7 +18783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -18037,7 +18800,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -18054,7 +18817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -18071,7 +18834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -18088,7 +18851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -18105,7 +18868,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -18122,7 +18885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -18139,7 +18902,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -18156,7 +18919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -18173,7 +18936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -18190,7 +18953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -18207,7 +18970,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -18224,7 +18987,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -18241,7 +19004,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -18258,7 +19021,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -18275,7 +19038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -18292,7 +19055,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -18309,7 +19072,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -18326,7 +19089,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -18343,7 +19106,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -18360,7 +19123,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -18377,7 +19140,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -18394,7 +19157,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -18411,7 +19174,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -18428,7 +19191,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -18445,7 +19208,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -18462,7 +19225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -18479,7 +19242,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -18496,7 +19259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -18513,7 +19276,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -18530,7 +19293,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -18547,7 +19310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -18564,7 +19327,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -18581,7 +19344,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -18598,7 +19361,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -18615,7 +19378,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -18632,7 +19395,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -18649,7 +19412,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -18666,7 +19429,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -18683,7 +19446,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -18700,7 +19463,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671902E7-C6D3-4DBC-9F28-A409C19E138F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81AB4CF-B581-4578-B0A5-F0770A6E3318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="831">
   <si>
     <t>$UA</t>
   </si>
@@ -2497,6 +2497,57 @@
   </si>
   <si>
     <t>FY15</t>
+  </si>
+  <si>
+    <t>Rev per Door</t>
+  </si>
+  <si>
+    <t>Apparel Q/Q</t>
+  </si>
+  <si>
+    <t>Footwear Q/Q</t>
+  </si>
+  <si>
+    <t>Accessories Q/Q</t>
+  </si>
+  <si>
+    <t>Segment Performance</t>
+  </si>
+  <si>
+    <t>Total Retail Revenue Q/Q</t>
+  </si>
+  <si>
+    <t>License Revenue Q/Q</t>
+  </si>
+  <si>
+    <t>Corporate/Other Revenue Q/Q</t>
+  </si>
+  <si>
+    <t>ROIC</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>Terminal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>SG&amp;A/Rev</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Per Share</t>
+  </si>
+  <si>
+    <t>Cur.</t>
+  </si>
+  <si>
+    <t>Upside</t>
   </si>
 </sst>
 </file>
@@ -2650,7 +2701,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2738,13 +2789,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2878,6 +2955,25 @@
     </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2938,25 +3034,29 @@
     <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3225,8 +3325,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3241,8 +3341,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11306175" y="9525"/>
-          <a:ext cx="0" cy="16459200"/>
+          <a:off x="11153775" y="9525"/>
+          <a:ext cx="0" cy="19345275"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3275,8 +3375,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3291,8 +3391,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19958050" y="19050"/>
-          <a:ext cx="0" cy="16284575"/>
+          <a:off x="17268825" y="19050"/>
+          <a:ext cx="0" cy="19135725"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3632,7 +3732,7 @@
   <dimension ref="B2:W61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3652,30 +3752,30 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="G5" s="74" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="G5" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="76"/>
-      <c r="R5" s="71" t="s">
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
+      <c r="R5" s="84" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="73"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="86"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -4052,11 +4152,11 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="89"/>
       <c r="G15" s="63"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4093,10 +4193,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="78"/>
+      <c r="D16" s="91"/>
       <c r="G16" s="52">
         <v>44682</v>
       </c>
@@ -4137,10 +4237,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="91"/>
       <c r="G17" s="63"/>
       <c r="H17" s="61" t="s">
         <v>774</v>
@@ -4179,10 +4279,10 @@
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="77" t="s">
+      <c r="C18" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="91"/>
       <c r="G18" s="63"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4219,10 +4319,10 @@
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4331,11 +4431,11 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="74" t="s">
+      <c r="B22" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
       <c r="G22" s="14" t="s">
         <v>31</v>
       </c>
@@ -4376,10 +4476,10 @@
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="D23" s="91"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4416,10 +4516,10 @@
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="77">
+      <c r="C24" s="90">
         <v>1996</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="91"/>
       <c r="G24" s="52">
         <v>44228</v>
       </c>
@@ -4498,10 +4598,10 @@
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="77">
+      <c r="C26" s="90">
         <v>422</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="91"/>
       <c r="G26" s="64"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4538,11 +4638,11 @@
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="94">
         <f>'Financial Model'!Q52</f>
         <v>954.39400000000001</v>
       </c>
-      <c r="D27" s="82"/>
+      <c r="D27" s="95"/>
       <c r="R27" s="37">
         <v>2020</v>
       </c>
@@ -4597,10 +4697,10 @@
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="90" t="s">
         <v>789</v>
       </c>
-      <c r="D29" s="78"/>
+      <c r="D29" s="91"/>
       <c r="R29" s="37">
         <v>2020</v>
       </c>
@@ -4628,10 +4728,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="87" t="s">
+      <c r="C30" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="101"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4704,11 +4804,11 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="74" t="s">
+      <c r="B33" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -4736,11 +4836,11 @@
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="85">
+      <c r="C34" s="98">
         <f>C12/SUM('Financial Model'!N20:Q20)</f>
         <v>15.715778773521555</v>
       </c>
-      <c r="D34" s="86"/>
+      <c r="D34" s="99"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -4768,11 +4868,11 @@
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="98">
         <f>C6/SUM('Financial Model'!N21:Q21)</f>
         <v>18.4823862349457</v>
       </c>
-      <c r="D35" s="86"/>
+      <c r="D35" s="99"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -4800,8 +4900,8 @@
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="91"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -4829,11 +4929,11 @@
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="85">
+      <c r="C37" s="98">
         <f>C6/'Financial Model'!Q77</f>
         <v>1.7736424834957014</v>
       </c>
-      <c r="D37" s="86"/>
+      <c r="D37" s="99"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -4861,11 +4961,11 @@
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="89">
+      <c r="C38" s="102">
         <f>C8/SUM('Financial Model'!N9:Q9)</f>
         <v>0.53569184551470383</v>
       </c>
-      <c r="D38" s="90"/>
+      <c r="D38" s="103"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -4893,11 +4993,11 @@
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="89">
+      <c r="C39" s="102">
         <f>C12/SUM('Financial Model'!N9:Q9)</f>
         <v>0.46991085532458332</v>
       </c>
-      <c r="D39" s="90"/>
+      <c r="D39" s="103"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -4952,11 +5052,11 @@
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="83">
+      <c r="C41" s="96">
         <f>C6/'Financial Model'!AA21</f>
         <v>8.6491744709215048</v>
       </c>
-      <c r="D41" s="84"/>
+      <c r="D41" s="97"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5620,24 +5720,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
-  <dimension ref="B1:AT95"/>
+  <dimension ref="B1:BR107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z91" sqref="V91:Z91"/>
+      <selection pane="bottomRight" activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
     <col min="14" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="95"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="75"/>
+    <col min="19" max="27" width="9.140625" style="1"/>
+    <col min="28" max="28" width="9.140625" style="75"/>
+    <col min="29" max="46" width="9.140625" style="32"/>
+    <col min="47" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
@@ -5683,7 +5786,7 @@
       <c r="Q1" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="R1" s="97" t="s">
+      <c r="R1" s="77" t="s">
         <v>32</v>
       </c>
       <c r="S1" s="16" t="s">
@@ -5710,61 +5813,61 @@
       <c r="AA1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AB1" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AC1" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AD1" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AE1" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AF1" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AG1" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="16" t="s">
+      <c r="AH1" s="105" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="16" t="s">
+      <c r="AI1" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="16" t="s">
+      <c r="AJ1" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="16" t="s">
+      <c r="AK1" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="16" t="s">
+      <c r="AL1" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="16" t="s">
+      <c r="AM1" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="16" t="s">
+      <c r="AN1" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="16" t="s">
+      <c r="AO1" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" s="16" t="s">
+      <c r="AP1" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="16" t="s">
+      <c r="AQ1" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AR1" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="AS1" s="16" t="s">
+      <c r="AS1" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="AT1" s="16" t="s">
+      <c r="AT1" s="105" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5800,7 +5903,7 @@
       <c r="Q2" s="24">
         <v>44742</v>
       </c>
-      <c r="R2" s="98" t="s">
+      <c r="R2" s="78" t="s">
         <v>811</v>
       </c>
       <c r="U2" s="24">
@@ -5824,6 +5927,27 @@
       <c r="AA2" s="24">
         <v>44561</v>
       </c>
+      <c r="AB2" s="78" t="s">
+        <v>811</v>
+      </c>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
+      <c r="AH2" s="104"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="104"/>
+      <c r="AP2" s="104"/>
+      <c r="AQ2" s="104"/>
+      <c r="AR2" s="104"/>
+      <c r="AS2" s="104"/>
+      <c r="AT2" s="104"/>
     </row>
     <row r="3" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
@@ -5863,7 +5987,7 @@
       <c r="Q3" s="56">
         <v>868.428</v>
       </c>
-      <c r="R3" s="91"/>
+      <c r="R3" s="71"/>
       <c r="S3" s="56"/>
       <c r="T3" s="56"/>
       <c r="U3" s="56">
@@ -5887,6 +6011,16 @@
       <c r="AA3" s="56">
         <v>3841.2489999999998</v>
       </c>
+      <c r="AB3" s="74">
+        <f>AA3*1.18</f>
+        <v>4532.6738199999991</v>
+      </c>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
     </row>
     <row r="4" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
@@ -5926,7 +6060,7 @@
       <c r="Q4" s="56">
         <v>347.25099999999998</v>
       </c>
-      <c r="R4" s="91"/>
+      <c r="R4" s="71"/>
       <c r="S4" s="56"/>
       <c r="T4" s="56"/>
       <c r="U4" s="56">
@@ -5950,6 +6084,16 @@
       <c r="AA4" s="56">
         <v>1264.127</v>
       </c>
+      <c r="AB4" s="74">
+        <f>AA4*1.04</f>
+        <v>1314.69208</v>
+      </c>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
     </row>
     <row r="5" spans="2:46" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
@@ -5989,7 +6133,7 @@
       <c r="Q5" s="56">
         <v>96.831000000000003</v>
       </c>
-      <c r="R5" s="92"/>
+      <c r="R5" s="72"/>
       <c r="S5" s="56"/>
       <c r="T5" s="56"/>
       <c r="U5" s="56">
@@ -6013,6 +6157,16 @@
       <c r="AA5" s="56">
         <v>461.89400000000001</v>
       </c>
+      <c r="AB5" s="74">
+        <f>AA5*1.015</f>
+        <v>468.82240999999993</v>
+      </c>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65"/>
     </row>
     <row r="6" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="58" t="s">
@@ -6062,7 +6216,7 @@
         <f t="shared" si="0"/>
         <v>1312.51</v>
       </c>
-      <c r="R6" s="93"/>
+      <c r="R6" s="73"/>
       <c r="S6" s="55"/>
       <c r="T6" s="55"/>
       <c r="U6" s="55">
@@ -6092,6 +6246,50 @@
       <c r="AA6" s="55">
         <f>SUM(AA3:AA5)</f>
         <v>5567.27</v>
+      </c>
+      <c r="AB6" s="73">
+        <f>SUM(AB3:AB5)</f>
+        <v>6316.1883099999986</v>
+      </c>
+      <c r="AC6" s="55">
+        <f>AB6*1.2</f>
+        <v>7579.4259719999982</v>
+      </c>
+      <c r="AD6" s="55">
+        <f t="shared" ref="AD6:AL6" si="2">AC6*1.2</f>
+        <v>9095.3111663999971</v>
+      </c>
+      <c r="AE6" s="55">
+        <f t="shared" si="2"/>
+        <v>10914.373399679997</v>
+      </c>
+      <c r="AF6" s="55">
+        <f t="shared" si="2"/>
+        <v>13097.248079615996</v>
+      </c>
+      <c r="AG6" s="55">
+        <f t="shared" si="2"/>
+        <v>15716.697695539195</v>
+      </c>
+      <c r="AH6" s="55">
+        <f t="shared" si="2"/>
+        <v>18860.037234647032</v>
+      </c>
+      <c r="AI6" s="55">
+        <f t="shared" si="2"/>
+        <v>22632.044681576437</v>
+      </c>
+      <c r="AJ6" s="55">
+        <f t="shared" si="2"/>
+        <v>27158.453617891722</v>
+      </c>
+      <c r="AK6" s="55">
+        <f t="shared" si="2"/>
+        <v>32590.144341470066</v>
+      </c>
+      <c r="AL6" s="55">
+        <f t="shared" si="2"/>
+        <v>39108.173209764078</v>
       </c>
     </row>
     <row r="7" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -6132,7 +6330,7 @@
       <c r="Q7" s="56">
         <v>28.135000000000002</v>
       </c>
-      <c r="R7" s="94"/>
+      <c r="R7" s="74"/>
       <c r="S7" s="56"/>
       <c r="T7" s="56"/>
       <c r="U7" s="56">
@@ -6155,6 +6353,50 @@
       </c>
       <c r="AA7" s="56">
         <v>112.623</v>
+      </c>
+      <c r="AB7" s="74">
+        <f>AA7*1.06</f>
+        <v>119.38038000000002</v>
+      </c>
+      <c r="AC7" s="56">
+        <f>AB7*1.06</f>
+        <v>126.54320280000002</v>
+      </c>
+      <c r="AD7" s="56">
+        <f t="shared" ref="AD7:AL7" si="3">AC7*1.06</f>
+        <v>134.13579496800003</v>
+      </c>
+      <c r="AE7" s="56">
+        <f t="shared" si="3"/>
+        <v>142.18394266608004</v>
+      </c>
+      <c r="AF7" s="56">
+        <f t="shared" si="3"/>
+        <v>150.71497922604485</v>
+      </c>
+      <c r="AG7" s="56">
+        <f t="shared" si="3"/>
+        <v>159.75787797960754</v>
+      </c>
+      <c r="AH7" s="56">
+        <f>AG7*1.03</f>
+        <v>164.55061431899577</v>
+      </c>
+      <c r="AI7" s="56">
+        <f t="shared" ref="AI7:AL7" si="4">AH7*1.03</f>
+        <v>169.48713274856564</v>
+      </c>
+      <c r="AJ7" s="56">
+        <f t="shared" si="4"/>
+        <v>174.57174673102261</v>
+      </c>
+      <c r="AK7" s="56">
+        <f t="shared" si="4"/>
+        <v>179.80889913295329</v>
+      </c>
+      <c r="AL7" s="56">
+        <f t="shared" si="4"/>
+        <v>185.20316610694189</v>
       </c>
     </row>
     <row r="8" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -6195,7 +6437,7 @@
       <c r="Q8" s="56">
         <v>8.4120000000000008</v>
       </c>
-      <c r="R8" s="94"/>
+      <c r="R8" s="74"/>
       <c r="S8" s="56"/>
       <c r="T8" s="56"/>
       <c r="U8" s="56">
@@ -6220,6 +6462,50 @@
       <c r="AA8" s="56">
         <v>3.573</v>
       </c>
+      <c r="AB8" s="74">
+        <f>AA8*0.65</f>
+        <v>2.3224499999999999</v>
+      </c>
+      <c r="AC8" s="56">
+        <f>AB8*1.5</f>
+        <v>3.4836749999999999</v>
+      </c>
+      <c r="AD8" s="56">
+        <f t="shared" ref="AD8:AL8" si="5">AC8*1.5</f>
+        <v>5.2255124999999998</v>
+      </c>
+      <c r="AE8" s="56">
+        <f t="shared" si="5"/>
+        <v>7.8382687499999992</v>
+      </c>
+      <c r="AF8" s="56">
+        <f t="shared" si="5"/>
+        <v>11.757403125</v>
+      </c>
+      <c r="AG8" s="56">
+        <f t="shared" si="5"/>
+        <v>17.636104687500001</v>
+      </c>
+      <c r="AH8" s="56">
+        <f>AG8*1.025</f>
+        <v>18.077007304687498</v>
+      </c>
+      <c r="AI8" s="56">
+        <f t="shared" ref="AI8:AL8" si="6">AH8*1.025</f>
+        <v>18.528932487304683</v>
+      </c>
+      <c r="AJ8" s="56">
+        <f t="shared" si="6"/>
+        <v>18.9921557994873</v>
+      </c>
+      <c r="AK8" s="56">
+        <f t="shared" si="6"/>
+        <v>19.466959694474479</v>
+      </c>
+      <c r="AL8" s="56">
+        <f t="shared" si="6"/>
+        <v>19.953633686836341</v>
+      </c>
     </row>
     <row r="9" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
@@ -6255,16 +6541,16 @@
       <c r="Q9" s="21">
         <v>1349.057</v>
       </c>
-      <c r="R9" s="93">
+      <c r="R9" s="73">
         <f>Q9*1.065</f>
         <v>1436.745705</v>
       </c>
       <c r="U9" s="21">
-        <f t="shared" ref="U9:V9" si="2">U6+U7+U8</f>
+        <f t="shared" ref="U9:V9" si="7">U6+U7+U8</f>
         <v>3963.3129999999996</v>
       </c>
       <c r="V9" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4828.1859999999997</v>
       </c>
       <c r="W9" s="21">
@@ -6284,6 +6570,58 @@
       <c r="AA9" s="21">
         <v>5683.4660000000003</v>
       </c>
+      <c r="AB9" s="73">
+        <f>AB6+AB7+AB8</f>
+        <v>6437.8911399999979</v>
+      </c>
+      <c r="AC9" s="21">
+        <f t="shared" ref="AC9:AL9" si="8">AC6+AC7+AC8</f>
+        <v>7709.4528497999991</v>
+      </c>
+      <c r="AD9" s="21">
+        <f t="shared" si="8"/>
+        <v>9234.6724738679968</v>
+      </c>
+      <c r="AE9" s="21">
+        <f t="shared" si="8"/>
+        <v>11064.395611096077</v>
+      </c>
+      <c r="AF9" s="21">
+        <f t="shared" si="8"/>
+        <v>13259.720461967041</v>
+      </c>
+      <c r="AG9" s="21">
+        <f t="shared" si="8"/>
+        <v>15894.091678206303</v>
+      </c>
+      <c r="AH9" s="21">
+        <f t="shared" si="8"/>
+        <v>19042.664856270716</v>
+      </c>
+      <c r="AI9" s="21">
+        <f t="shared" si="8"/>
+        <v>22820.060746812309</v>
+      </c>
+      <c r="AJ9" s="21">
+        <f t="shared" si="8"/>
+        <v>27352.017520422232</v>
+      </c>
+      <c r="AK9" s="21">
+        <f t="shared" si="8"/>
+        <v>32789.420200297493</v>
+      </c>
+      <c r="AL9" s="21">
+        <f t="shared" si="8"/>
+        <v>39313.330009557852</v>
+      </c>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="58"/>
+      <c r="AS9" s="58"/>
+      <c r="AT9" s="58"/>
     </row>
     <row r="10" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -6319,7 +6657,7 @@
       <c r="Q10" s="62">
         <v>718.86</v>
       </c>
-      <c r="R10" s="94">
+      <c r="R10" s="74">
         <f>Q10*1.03</f>
         <v>740.42579999999998</v>
       </c>
@@ -6343,6 +6681,50 @@
       </c>
       <c r="AA10" s="22">
         <v>2821.9670000000001</v>
+      </c>
+      <c r="AB10" s="74">
+        <f>AA10*1.19</f>
+        <v>3358.1407300000001</v>
+      </c>
+      <c r="AC10" s="56">
+        <f>AC9*0.5</f>
+        <v>3854.7264248999995</v>
+      </c>
+      <c r="AD10" s="56">
+        <f t="shared" ref="AD10:AL10" si="9">AD9*0.5</f>
+        <v>4617.3362369339984</v>
+      </c>
+      <c r="AE10" s="56">
+        <f t="shared" ref="AE10" si="10">AE9*0.5</f>
+        <v>5532.1978055480386</v>
+      </c>
+      <c r="AF10" s="56">
+        <f>AF9*0.49</f>
+        <v>6497.2630263638503</v>
+      </c>
+      <c r="AG10" s="56">
+        <f>AG9*0.49</f>
+        <v>7788.1049223210885</v>
+      </c>
+      <c r="AH10" s="56">
+        <f>AH9*0.49</f>
+        <v>9330.9057795726512</v>
+      </c>
+      <c r="AI10" s="56">
+        <f>AI9*0.475</f>
+        <v>10839.528854735847</v>
+      </c>
+      <c r="AJ10" s="56">
+        <f t="shared" ref="AJ10:AL10" si="11">AJ9*0.475</f>
+        <v>12992.20832220056</v>
+      </c>
+      <c r="AK10" s="56">
+        <f t="shared" si="11"/>
+        <v>15574.974595141308</v>
+      </c>
+      <c r="AL10" s="56">
+        <f t="shared" si="11"/>
+        <v>18673.83175453998</v>
       </c>
     </row>
     <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6350,63 +6732,63 @@
         <v>70</v>
       </c>
       <c r="H11" s="21">
-        <f t="shared" ref="H11:R11" si="3">H9-H10</f>
+        <f t="shared" ref="H11:R11" si="12">H9-H10</f>
         <v>430.98400000000004</v>
       </c>
       <c r="I11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>349.16899999999998</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>686.31999999999994</v>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>693.62200000000007</v>
       </c>
       <c r="L11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>628.64099999999996</v>
       </c>
       <c r="M11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>668.82100000000014</v>
       </c>
       <c r="N11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>788.10399999999993</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>775.93299999999988</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>605.16399999999999</v>
       </c>
       <c r="Q11" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>630.197</v>
       </c>
-      <c r="R11" s="93">
-        <f t="shared" si="3"/>
+      <c r="R11" s="73">
+        <f t="shared" si="12"/>
         <v>696.31990500000006</v>
       </c>
       <c r="U11" s="21">
-        <f t="shared" ref="U11:X11" si="4">U9-U10</f>
+        <f t="shared" ref="U11:X11" si="13">U9-U10</f>
         <v>1905.5469999999996</v>
       </c>
       <c r="V11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2243.4619999999995</v>
       </c>
       <c r="W11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2251.4139999999998</v>
       </c>
       <c r="X11" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>2340.4709999999995</v>
       </c>
       <c r="Y11" s="21">
@@ -6421,6 +6803,58 @@
         <f>AA9-AA10</f>
         <v>2861.4990000000003</v>
       </c>
+      <c r="AB11" s="73">
+        <f>AB9-AB10</f>
+        <v>3079.7504099999978</v>
+      </c>
+      <c r="AC11" s="55">
+        <f t="shared" ref="AC11:AL11" si="14">AC9-AC10</f>
+        <v>3854.7264248999995</v>
+      </c>
+      <c r="AD11" s="55">
+        <f t="shared" si="14"/>
+        <v>4617.3362369339984</v>
+      </c>
+      <c r="AE11" s="55">
+        <f t="shared" si="14"/>
+        <v>5532.1978055480386</v>
+      </c>
+      <c r="AF11" s="55">
+        <f t="shared" si="14"/>
+        <v>6762.4574356031908</v>
+      </c>
+      <c r="AG11" s="55">
+        <f t="shared" si="14"/>
+        <v>8105.9867558852147</v>
+      </c>
+      <c r="AH11" s="55">
+        <f t="shared" si="14"/>
+        <v>9711.7590766980647</v>
+      </c>
+      <c r="AI11" s="55">
+        <f t="shared" si="14"/>
+        <v>11980.531892076462</v>
+      </c>
+      <c r="AJ11" s="55">
+        <f t="shared" si="14"/>
+        <v>14359.809198221672</v>
+      </c>
+      <c r="AK11" s="55">
+        <f t="shared" si="14"/>
+        <v>17214.445605156187</v>
+      </c>
+      <c r="AL11" s="55">
+        <f t="shared" si="14"/>
+        <v>20639.498255017872</v>
+      </c>
+      <c r="AM11" s="58"/>
+      <c r="AN11" s="58"/>
+      <c r="AO11" s="58"/>
+      <c r="AP11" s="58"/>
+      <c r="AQ11" s="58"/>
+      <c r="AR11" s="58"/>
+      <c r="AS11" s="58"/>
+      <c r="AT11" s="58"/>
     </row>
     <row r="12" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -6456,7 +6890,7 @@
       <c r="Q12" s="62">
         <v>595.71400000000006</v>
       </c>
-      <c r="R12" s="94">
+      <c r="R12" s="74">
         <f>AVERAGE(N12:Q12)</f>
         <v>616.30250000000001</v>
       </c>
@@ -6480,6 +6914,50 @@
       </c>
       <c r="AA12" s="22">
         <v>2334.6909999999998</v>
+      </c>
+      <c r="AB12" s="74">
+        <f>AA12*1.03</f>
+        <v>2404.73173</v>
+      </c>
+      <c r="AC12" s="56">
+        <f>AB12*1.25</f>
+        <v>3005.9146624999998</v>
+      </c>
+      <c r="AD12" s="56">
+        <f>AC12*1.25</f>
+        <v>3757.3933281249997</v>
+      </c>
+      <c r="AE12" s="56">
+        <f>AD12*1.25</f>
+        <v>4696.74166015625</v>
+      </c>
+      <c r="AF12" s="56">
+        <f>AE12*1.25</f>
+        <v>5870.9270751953127</v>
+      </c>
+      <c r="AG12" s="56">
+        <f t="shared" ref="AG12:AL12" si="15">AF12*1.25</f>
+        <v>7338.6588439941406</v>
+      </c>
+      <c r="AH12" s="56">
+        <f t="shared" si="15"/>
+        <v>9173.3235549926758</v>
+      </c>
+      <c r="AI12" s="56">
+        <f>AH12*1.2</f>
+        <v>11007.988265991211</v>
+      </c>
+      <c r="AJ12" s="56">
+        <f t="shared" ref="AJ12:AL12" si="16">AI12*1.2</f>
+        <v>13209.585919189452</v>
+      </c>
+      <c r="AK12" s="56">
+        <f t="shared" si="16"/>
+        <v>15851.503103027342</v>
+      </c>
+      <c r="AL12" s="56">
+        <f t="shared" si="16"/>
+        <v>19021.803723632809</v>
       </c>
     </row>
     <row r="13" spans="2:46" x14ac:dyDescent="0.2">
@@ -6516,7 +6994,7 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="95">
+      <c r="R13" s="75">
         <v>0</v>
       </c>
       <c r="U13" s="22">
@@ -6539,6 +7017,50 @@
       </c>
       <c r="AA13" s="22">
         <v>40.518000000000001</v>
+      </c>
+      <c r="AB13" s="74">
+        <f>AA13*0.79</f>
+        <v>32.009219999999999</v>
+      </c>
+      <c r="AC13" s="56">
+        <f>AB13*1.05</f>
+        <v>33.609681000000002</v>
+      </c>
+      <c r="AD13" s="56">
+        <f t="shared" ref="AD13:AL13" si="17">AC13*1.05</f>
+        <v>35.290165050000006</v>
+      </c>
+      <c r="AE13" s="56">
+        <f t="shared" si="17"/>
+        <v>37.054673302500007</v>
+      </c>
+      <c r="AF13" s="56">
+        <f t="shared" si="17"/>
+        <v>38.907406967625008</v>
+      </c>
+      <c r="AG13" s="56">
+        <f t="shared" si="17"/>
+        <v>40.852777316006261</v>
+      </c>
+      <c r="AH13" s="56">
+        <f>AG13*1.1</f>
+        <v>44.938055047606888</v>
+      </c>
+      <c r="AI13" s="56">
+        <f t="shared" ref="AI13:AL13" si="18">AH13*1.1</f>
+        <v>49.431860552367581</v>
+      </c>
+      <c r="AJ13" s="56">
+        <f t="shared" si="18"/>
+        <v>54.375046607604347</v>
+      </c>
+      <c r="AK13" s="56">
+        <f t="shared" si="18"/>
+        <v>59.812551268364786</v>
+      </c>
+      <c r="AL13" s="56">
+        <f t="shared" si="18"/>
+        <v>65.793806395201273</v>
       </c>
     </row>
     <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -6546,63 +7068,63 @@
         <v>73</v>
       </c>
       <c r="H14" s="21">
-        <f t="shared" ref="H14:R14" si="5">H11-H12-H13</f>
+        <f t="shared" ref="H14:R14" si="19">H11-H12-H13</f>
         <v>-558.18000000000006</v>
       </c>
       <c r="I14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>-169.67400000000004</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>58.569999999999965</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>55.846000000000053</v>
       </c>
       <c r="L14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>106.88999999999993</v>
       </c>
       <c r="M14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>121.2050000000001</v>
       </c>
       <c r="N14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>172.06399999999991</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>86.13099999999983</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>-45.956000000000039</v>
       </c>
       <c r="Q14" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="19"/>
         <v>34.482999999999947</v>
       </c>
-      <c r="R14" s="93">
-        <f t="shared" si="5"/>
+      <c r="R14" s="73">
+        <f t="shared" si="19"/>
         <v>80.017405000000053</v>
       </c>
       <c r="U14" s="21">
-        <f t="shared" ref="U14:X14" si="6">U11-U12-U13</f>
+        <f t="shared" ref="U14:X14" si="20">U11-U12-U13</f>
         <v>408.54699999999957</v>
       </c>
       <c r="V14" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>420.32199999999943</v>
       </c>
       <c r="W14" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>27.842999999999819</v>
       </c>
       <c r="X14" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>-25.017000000000394</v>
       </c>
       <c r="Y14" s="21">
@@ -6617,6 +7139,58 @@
         <f>AA11-AA12-AA13</f>
         <v>486.29000000000042</v>
       </c>
+      <c r="AB14" s="73">
+        <f>AB11-AB12-AB13</f>
+        <v>643.00945999999783</v>
+      </c>
+      <c r="AC14" s="21">
+        <f t="shared" ref="AC14:AL14" si="21">AC11-AC12-AC13</f>
+        <v>815.20208139999966</v>
+      </c>
+      <c r="AD14" s="21">
+        <f t="shared" si="21"/>
+        <v>824.65274375899867</v>
+      </c>
+      <c r="AE14" s="21">
+        <f t="shared" si="21"/>
+        <v>798.40147208928863</v>
+      </c>
+      <c r="AF14" s="21">
+        <f t="shared" si="21"/>
+        <v>852.62295344025313</v>
+      </c>
+      <c r="AG14" s="21">
+        <f t="shared" si="21"/>
+        <v>726.47513457506784</v>
+      </c>
+      <c r="AH14" s="21">
+        <f t="shared" si="21"/>
+        <v>493.49746665778207</v>
+      </c>
+      <c r="AI14" s="21">
+        <f t="shared" si="21"/>
+        <v>923.11176553288362</v>
+      </c>
+      <c r="AJ14" s="21">
+        <f t="shared" si="21"/>
+        <v>1095.8482324246152</v>
+      </c>
+      <c r="AK14" s="21">
+        <f t="shared" si="21"/>
+        <v>1303.1299508604795</v>
+      </c>
+      <c r="AL14" s="21">
+        <f t="shared" si="21"/>
+        <v>1551.9007249898616</v>
+      </c>
+      <c r="AM14" s="58"/>
+      <c r="AN14" s="58"/>
+      <c r="AO14" s="58"/>
+      <c r="AP14" s="58"/>
+      <c r="AQ14" s="58"/>
+      <c r="AR14" s="58"/>
+      <c r="AS14" s="58"/>
+      <c r="AT14" s="58"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -6652,7 +7226,7 @@
       <c r="Q15" s="62">
         <v>-6.0049999999999999</v>
       </c>
-      <c r="R15" s="95">
+      <c r="R15" s="75">
         <v>-5.5</v>
       </c>
       <c r="U15" s="22">
@@ -6675,6 +7249,50 @@
       </c>
       <c r="AA15" s="22">
         <v>-44.3</v>
+      </c>
+      <c r="AB15" s="74">
+        <f>AVERAGE(U15:AA15)</f>
+        <v>-31.709571428571426</v>
+      </c>
+      <c r="AC15" s="56">
+        <f>AB15*1.0125</f>
+        <v>-32.105941071428568</v>
+      </c>
+      <c r="AD15" s="56">
+        <f t="shared" ref="AD15:AL15" si="22">AC15*1.0125</f>
+        <v>-32.507265334821426</v>
+      </c>
+      <c r="AE15" s="56">
+        <f t="shared" si="22"/>
+        <v>-32.913606151506691</v>
+      </c>
+      <c r="AF15" s="56">
+        <f t="shared" si="22"/>
+        <v>-33.325026228400525</v>
+      </c>
+      <c r="AG15" s="56">
+        <f t="shared" si="22"/>
+        <v>-33.741589056255528</v>
+      </c>
+      <c r="AH15" s="56">
+        <f>AG15*1.0352</f>
+        <v>-34.929292991035716</v>
+      </c>
+      <c r="AI15" s="56">
+        <f t="shared" ref="AI15:AL15" si="23">AH15*1.0352</f>
+        <v>-36.158804104320168</v>
+      </c>
+      <c r="AJ15" s="56">
+        <f t="shared" si="23"/>
+        <v>-37.431594008792231</v>
+      </c>
+      <c r="AK15" s="56">
+        <f t="shared" si="23"/>
+        <v>-38.749186117901715</v>
+      </c>
+      <c r="AL15" s="56">
+        <f t="shared" si="23"/>
+        <v>-40.113157469251853</v>
       </c>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.2">
@@ -6711,7 +7329,7 @@
       <c r="Q16" s="62">
         <v>-14.241</v>
       </c>
-      <c r="R16" s="94">
+      <c r="R16" s="74">
         <f>AVERAGE(N16:Q16)</f>
         <v>-4.9327500000000004</v>
       </c>
@@ -6736,69 +7354,113 @@
       <c r="AA16" s="22">
         <v>-51.113</v>
       </c>
-    </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="74">
+        <f>SUM(O16:R16)</f>
+        <v>4.8122500000000006</v>
+      </c>
+      <c r="AC16" s="22">
+        <f>Q84*AO26</f>
+        <v>3.7657900000000009</v>
+      </c>
+      <c r="AD16" s="22">
+        <f t="shared" ref="AD16:AL16" si="24">R84*AP26</f>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" ref="H17:R17" si="7">H14+H15+H16</f>
+        <f t="shared" ref="H17:R17" si="25">H14+H15+H16</f>
         <v>-562.60600000000011</v>
       </c>
       <c r="I17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>-185.85300000000004</v>
       </c>
       <c r="J17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>36.430999999999969</v>
       </c>
       <c r="K17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>219.48400000000004</v>
       </c>
       <c r="L17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>85.572999999999922</v>
       </c>
       <c r="M17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>173.00600000000009</v>
       </c>
       <c r="N17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>133.32699999999991</v>
       </c>
       <c r="O17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>102.57299999999984</v>
       </c>
       <c r="P17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>-52.161000000000044</v>
       </c>
       <c r="Q17" s="22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>14.236999999999949</v>
       </c>
-      <c r="R17" s="94">
-        <f t="shared" si="7"/>
+      <c r="R17" s="74">
+        <f t="shared" si="25"/>
         <v>69.584655000000055</v>
       </c>
       <c r="U17" s="22">
-        <f t="shared" ref="U17" si="8">U14+U15+U16</f>
+        <f t="shared" ref="U17" si="26">U14+U15+U16</f>
         <v>386.6849999999996</v>
       </c>
       <c r="V17" s="22">
-        <f t="shared" ref="V17:X17" si="9">V14+V15+V16</f>
+        <f t="shared" ref="V17:X17" si="27">V14+V15+V16</f>
         <v>391.13299999999941</v>
       </c>
       <c r="W17" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>-10.309000000000179</v>
       </c>
       <c r="X17" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="27"/>
         <v>-67.788000000000395</v>
       </c>
       <c r="Y17" s="22">
@@ -6813,8 +7475,52 @@
         <f>AA14+AA15+AA16</f>
         <v>390.87700000000041</v>
       </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="74">
+        <f>AB14+AB15+AB16</f>
+        <v>616.11213857142639</v>
+      </c>
+      <c r="AC17" s="22">
+        <f t="shared" ref="AC17:AL17" si="28">AC14+AC15+AC16</f>
+        <v>786.86193032857113</v>
+      </c>
+      <c r="AD17" s="22">
+        <f t="shared" si="28"/>
+        <v>792.14547842417721</v>
+      </c>
+      <c r="AE17" s="22">
+        <f t="shared" si="28"/>
+        <v>765.48786593778198</v>
+      </c>
+      <c r="AF17" s="22">
+        <f t="shared" si="28"/>
+        <v>819.29792721185265</v>
+      </c>
+      <c r="AG17" s="22">
+        <f t="shared" si="28"/>
+        <v>692.73354551881232</v>
+      </c>
+      <c r="AH17" s="22">
+        <f t="shared" si="28"/>
+        <v>458.56817366674636</v>
+      </c>
+      <c r="AI17" s="22">
+        <f t="shared" si="28"/>
+        <v>886.95296142856341</v>
+      </c>
+      <c r="AJ17" s="22">
+        <f t="shared" si="28"/>
+        <v>1058.4166384158229</v>
+      </c>
+      <c r="AK17" s="22">
+        <f t="shared" si="28"/>
+        <v>1264.3807647425779</v>
+      </c>
+      <c r="AL17" s="22">
+        <f t="shared" si="28"/>
+        <v>1511.7875675206099</v>
+      </c>
+    </row>
+    <row r="18" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -6848,7 +7554,7 @@
       <c r="Q18" s="62">
         <v>5.657</v>
       </c>
-      <c r="R18" s="94">
+      <c r="R18" s="74">
         <f>R17*0.4</f>
         <v>27.833862000000025</v>
       </c>
@@ -6873,8 +7579,52 @@
       <c r="AA18" s="22">
         <v>32.072000000000003</v>
       </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="74">
+        <f>AB17*0.08</f>
+        <v>49.28897108571411</v>
+      </c>
+      <c r="AC18" s="56">
+        <f>AC17*0.15</f>
+        <v>118.02928954928566</v>
+      </c>
+      <c r="AD18" s="56">
+        <f t="shared" ref="AD18:AL18" si="29">AD17*0.15</f>
+        <v>118.82182176362657</v>
+      </c>
+      <c r="AE18" s="56">
+        <f t="shared" si="29"/>
+        <v>114.82317989066729</v>
+      </c>
+      <c r="AF18" s="56">
+        <f t="shared" si="29"/>
+        <v>122.8946890817779</v>
+      </c>
+      <c r="AG18" s="56">
+        <f t="shared" si="29"/>
+        <v>103.91003182782184</v>
+      </c>
+      <c r="AH18" s="56">
+        <f t="shared" si="29"/>
+        <v>68.785226050011957</v>
+      </c>
+      <c r="AI18" s="56">
+        <f t="shared" si="29"/>
+        <v>133.04294421428452</v>
+      </c>
+      <c r="AJ18" s="56">
+        <f t="shared" si="29"/>
+        <v>158.76249576237345</v>
+      </c>
+      <c r="AK18" s="56">
+        <f t="shared" si="29"/>
+        <v>189.65711471138667</v>
+      </c>
+      <c r="AL18" s="56">
+        <f t="shared" si="29"/>
+        <v>226.76813512809147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -6908,7 +7658,7 @@
       <c r="Q19" s="62">
         <v>-0.89800000000000002</v>
       </c>
-      <c r="R19" s="94">
+      <c r="R19" s="74">
         <f>AVERAGE(N19:Q19)</f>
         <v>-0.20025000000000001</v>
       </c>
@@ -6933,69 +7683,113 @@
       <c r="AA19" s="22">
         <v>1.2549999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB19" s="74">
+        <f>AVERAGE(U19:AA19)</f>
+        <v>-7.5337142857142867</v>
+      </c>
+      <c r="AC19" s="22">
+        <f>AB19*1.01</f>
+        <v>-7.6090514285714299</v>
+      </c>
+      <c r="AD19" s="22">
+        <f t="shared" ref="AD19:AL19" si="30">AC19*1.01</f>
+        <v>-7.6851419428571441</v>
+      </c>
+      <c r="AE19" s="22">
+        <f t="shared" si="30"/>
+        <v>-7.7619933622857156</v>
+      </c>
+      <c r="AF19" s="22">
+        <f t="shared" si="30"/>
+        <v>-7.8396132959085731</v>
+      </c>
+      <c r="AG19" s="22">
+        <f t="shared" si="30"/>
+        <v>-7.9180094288676592</v>
+      </c>
+      <c r="AH19" s="22">
+        <f t="shared" si="30"/>
+        <v>-7.9971895231563357</v>
+      </c>
+      <c r="AI19" s="22">
+        <f t="shared" si="30"/>
+        <v>-8.0771614183878988</v>
+      </c>
+      <c r="AJ19" s="22">
+        <f t="shared" si="30"/>
+        <v>-8.157933032571778</v>
+      </c>
+      <c r="AK19" s="22">
+        <f t="shared" si="30"/>
+        <v>-8.2395123628974964</v>
+      </c>
+      <c r="AL19" s="22">
+        <f t="shared" si="30"/>
+        <v>-8.3219074865264719</v>
+      </c>
+    </row>
+    <row r="20" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H20" s="21">
-        <f t="shared" ref="H20:R20" si="10">H17-H18+H19</f>
+        <f t="shared" ref="H20:R20" si="31">H17-H18+H19</f>
         <v>-589.68100000000015</v>
       </c>
       <c r="I20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>-182.89500000000004</v>
       </c>
       <c r="J20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>38.94599999999997</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>184.45400000000004</v>
       </c>
       <c r="L20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>77.751999999999924</v>
       </c>
       <c r="M20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>162.80900000000011</v>
       </c>
       <c r="N20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>113.4439999999999</v>
       </c>
       <c r="O20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>109.65699999999984</v>
       </c>
       <c r="P20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>-59.610000000000042</v>
       </c>
       <c r="Q20" s="66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="31"/>
         <v>7.6819999999999489</v>
       </c>
-      <c r="R20" s="99">
-        <f t="shared" si="10"/>
+      <c r="R20" s="79">
+        <f t="shared" si="31"/>
         <v>41.550543000000033</v>
       </c>
       <c r="U20" s="21">
-        <f t="shared" ref="U20:X20" si="11">U17-U18+U19</f>
+        <f t="shared" ref="U20:X20" si="32">U17-U18+U19</f>
         <v>232.57299999999961</v>
       </c>
       <c r="V20" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>258.6599999999994</v>
       </c>
       <c r="W20" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>-48.260000000000176</v>
       </c>
       <c r="X20" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>-46.302000000000398</v>
       </c>
       <c r="Y20" s="21">
@@ -7010,69 +7804,241 @@
         <f>AA17-AA18+AA19</f>
         <v>360.0600000000004</v>
       </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="73">
+        <f>AB17-AB18+AB19</f>
+        <v>559.28945319999798</v>
+      </c>
+      <c r="AC20" s="21">
+        <f t="shared" ref="AC20:AL20" si="33">AC17-AC18+AC19</f>
+        <v>661.22358935071406</v>
+      </c>
+      <c r="AD20" s="21">
+        <f t="shared" si="33"/>
+        <v>665.63851471769351</v>
+      </c>
+      <c r="AE20" s="21">
+        <f t="shared" si="33"/>
+        <v>642.90269268482893</v>
+      </c>
+      <c r="AF20" s="21">
+        <f t="shared" si="33"/>
+        <v>688.56362483416626</v>
+      </c>
+      <c r="AG20" s="21">
+        <f t="shared" si="33"/>
+        <v>580.9055042621228</v>
+      </c>
+      <c r="AH20" s="21">
+        <f t="shared" si="33"/>
+        <v>381.78575809357807</v>
+      </c>
+      <c r="AI20" s="21">
+        <f t="shared" si="33"/>
+        <v>745.83285579589108</v>
+      </c>
+      <c r="AJ20" s="21">
+        <f t="shared" si="33"/>
+        <v>891.49620962087772</v>
+      </c>
+      <c r="AK20" s="21">
+        <f t="shared" si="33"/>
+        <v>1066.4841376682937</v>
+      </c>
+      <c r="AL20" s="21">
+        <f t="shared" si="33"/>
+        <v>1276.6975249059919</v>
+      </c>
+      <c r="AM20" s="55">
+        <f>AL20*(1+$AO$24)</f>
+        <v>1289.4645001550518</v>
+      </c>
+      <c r="AN20" s="55">
+        <f t="shared" ref="AN20:BR20" si="34">AM20*(1+$AO$24)</f>
+        <v>1302.3591451566024</v>
+      </c>
+      <c r="AO20" s="55">
+        <f t="shared" si="34"/>
+        <v>1315.3827366081684</v>
+      </c>
+      <c r="AP20" s="55">
+        <f t="shared" si="34"/>
+        <v>1328.5365639742502</v>
+      </c>
+      <c r="AQ20" s="55">
+        <f t="shared" si="34"/>
+        <v>1341.8219296139928</v>
+      </c>
+      <c r="AR20" s="55">
+        <f t="shared" si="34"/>
+        <v>1355.2401489101328</v>
+      </c>
+      <c r="AS20" s="55">
+        <f t="shared" si="34"/>
+        <v>1368.7925503992342</v>
+      </c>
+      <c r="AT20" s="55">
+        <f t="shared" si="34"/>
+        <v>1382.4804759032265</v>
+      </c>
+      <c r="AU20" s="55">
+        <f t="shared" si="34"/>
+        <v>1396.3052806622588</v>
+      </c>
+      <c r="AV20" s="55">
+        <f t="shared" si="34"/>
+        <v>1410.2683334688813</v>
+      </c>
+      <c r="AW20" s="55">
+        <f t="shared" si="34"/>
+        <v>1424.3710168035702</v>
+      </c>
+      <c r="AX20" s="55">
+        <f t="shared" si="34"/>
+        <v>1438.6147269716059</v>
+      </c>
+      <c r="AY20" s="55">
+        <f t="shared" si="34"/>
+        <v>1453.000874241322</v>
+      </c>
+      <c r="AZ20" s="55">
+        <f t="shared" si="34"/>
+        <v>1467.5308829837352</v>
+      </c>
+      <c r="BA20" s="55">
+        <f t="shared" si="34"/>
+        <v>1482.2061918135726</v>
+      </c>
+      <c r="BB20" s="55">
+        <f t="shared" si="34"/>
+        <v>1497.0282537317082</v>
+      </c>
+      <c r="BC20" s="55">
+        <f t="shared" si="34"/>
+        <v>1511.9985362690254</v>
+      </c>
+      <c r="BD20" s="55">
+        <f t="shared" si="34"/>
+        <v>1527.1185216317156</v>
+      </c>
+      <c r="BE20" s="55">
+        <f t="shared" si="34"/>
+        <v>1542.3897068480328</v>
+      </c>
+      <c r="BF20" s="55">
+        <f t="shared" si="34"/>
+        <v>1557.8136039165131</v>
+      </c>
+      <c r="BG20" s="55">
+        <f t="shared" si="34"/>
+        <v>1573.3917399556783</v>
+      </c>
+      <c r="BH20" s="55">
+        <f t="shared" si="34"/>
+        <v>1589.125657355235</v>
+      </c>
+      <c r="BI20" s="55">
+        <f t="shared" si="34"/>
+        <v>1605.0169139287873</v>
+      </c>
+      <c r="BJ20" s="55">
+        <f t="shared" si="34"/>
+        <v>1621.0670830680751</v>
+      </c>
+      <c r="BK20" s="55">
+        <f t="shared" si="34"/>
+        <v>1637.2777538987559</v>
+      </c>
+      <c r="BL20" s="55">
+        <f t="shared" si="34"/>
+        <v>1653.6505314377434</v>
+      </c>
+      <c r="BM20" s="55">
+        <f t="shared" si="34"/>
+        <v>1670.1870367521208</v>
+      </c>
+      <c r="BN20" s="55">
+        <f t="shared" si="34"/>
+        <v>1686.888907119642</v>
+      </c>
+      <c r="BO20" s="55">
+        <f t="shared" si="34"/>
+        <v>1703.7577961908385</v>
+      </c>
+      <c r="BP20" s="55">
+        <f t="shared" si="34"/>
+        <v>1720.7953741527469</v>
+      </c>
+      <c r="BQ20" s="55">
+        <f t="shared" si="34"/>
+        <v>1738.0033278942744</v>
+      </c>
+      <c r="BR20" s="55">
+        <f t="shared" si="34"/>
+        <v>1755.3833611732173</v>
+      </c>
+    </row>
+    <row r="21" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:Q21" si="12">H20/H22</f>
+        <f t="shared" ref="H21:Q21" si="35">H20/H22</f>
         <v>-1.3020948570343436</v>
       </c>
       <c r="I21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>-0.40274508335884057</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>8.528184218939544E-2</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>0.40556187075510497</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>0.1705035371721042</v>
       </c>
       <c r="M21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>0.35423756103080067</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>0.24136918566303953</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>0.230285733486217</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>-0.12644641247282185</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="35"/>
         <v>1.675774134790517E-2</v>
       </c>
-      <c r="R21" s="100">
+      <c r="R21" s="80">
         <f>R20/R22</f>
         <v>8.8592963827677812E-2</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" ref="U21" si="13">U20/U22</f>
+        <f t="shared" ref="U21" si="36">U20/U22</f>
         <v>0.5396175370537073</v>
       </c>
       <c r="V21" s="23">
-        <f t="shared" ref="V21" si="14">V20/V22</f>
+        <f t="shared" ref="V21" si="37">V20/V22</f>
         <v>0.59280819563174525</v>
       </c>
       <c r="W21" s="23">
-        <f t="shared" ref="W21:X21" si="15">W20/W22</f>
+        <f t="shared" ref="W21:X21" si="38">W20/W22</f>
         <v>-0.10950039593491732</v>
       </c>
       <c r="X21" s="23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="38"/>
         <v>-0.10385922411762816</v>
       </c>
       <c r="Y21" s="23">
@@ -7087,8 +8053,52 @@
         <f>AA20/AA22</f>
         <v>0.77348422355124846</v>
       </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="80">
+        <f>AB20/AB22</f>
+        <v>1.2200505070732806</v>
+      </c>
+      <c r="AC21" s="111">
+        <f>AC20/AC22</f>
+        <v>1.4424126377860977</v>
+      </c>
+      <c r="AD21" s="111">
+        <f t="shared" ref="AD21:AL21" si="39">AD20/AD22</f>
+        <v>1.4520434861810663</v>
+      </c>
+      <c r="AE21" s="111">
+        <f t="shared" si="39"/>
+        <v>1.4024468935022389</v>
+      </c>
+      <c r="AF21" s="111">
+        <f t="shared" si="39"/>
+        <v>1.502052997467723</v>
+      </c>
+      <c r="AG21" s="111">
+        <f t="shared" si="39"/>
+        <v>1.2672043983336556</v>
+      </c>
+      <c r="AH21" s="111">
+        <f t="shared" si="39"/>
+        <v>0.83283871185187663</v>
+      </c>
+      <c r="AI21" s="111">
+        <f t="shared" si="39"/>
+        <v>1.6269817867999326</v>
+      </c>
+      <c r="AJ21" s="111">
+        <f t="shared" si="39"/>
+        <v>1.9447361225546234</v>
+      </c>
+      <c r="AK21" s="111">
+        <f t="shared" si="39"/>
+        <v>2.3264599493216704</v>
+      </c>
+      <c r="AL21" s="111">
+        <f t="shared" si="39"/>
+        <v>2.7850256315914441</v>
+      </c>
+    </row>
+    <row r="22" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -7122,7 +8132,7 @@
       <c r="Q22" s="62">
         <v>458.41500000000002</v>
       </c>
-      <c r="R22" s="94">
+      <c r="R22" s="74">
         <f>AVERAGE(N22:Q22)</f>
         <v>469.005</v>
       </c>
@@ -7149,8 +8159,52 @@
       <c r="AA22" s="22">
         <v>465.50400000000002</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB22" s="74">
+        <f>Q22</f>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AC22" s="56">
+        <f>AB22</f>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AD22" s="56">
+        <f t="shared" ref="AD22:AL22" si="40">AC22</f>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AE22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AF22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AG22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AH22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AI22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AJ22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AK22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+      <c r="AL22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -7175,30 +8229,30 @@
         <v>3.4799692967280249E-2</v>
       </c>
       <c r="Q24" s="26">
-        <f t="shared" ref="Q24:R24" si="16">Q9/M9-1</f>
+        <f t="shared" ref="Q24:R24" si="41">Q9/M9-1</f>
         <v>-1.8327322879040375E-3</v>
       </c>
-      <c r="R24" s="101">
-        <f t="shared" si="16"/>
+      <c r="R24" s="81">
+        <f t="shared" si="41"/>
         <v>-7.0387604397708969E-2</v>
       </c>
       <c r="U24" s="16" t="s">
         <v>87</v>
       </c>
       <c r="V24" s="26">
-        <f t="shared" ref="V24:X24" si="17">V9/U9-1</f>
+        <f t="shared" ref="V24:W24" si="42">V9/U9-1</f>
         <v>0.21821970659395307</v>
       </c>
       <c r="W24" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="42"/>
         <v>3.3357869808660956E-2</v>
       </c>
       <c r="X24" s="26">
-        <f t="shared" ref="X24:Z24" si="18">X9/W9-1</f>
+        <f t="shared" ref="X24:Y24" si="43">X9/W9-1</f>
         <v>4.0876132736743287E-2</v>
       </c>
       <c r="Y24" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>1.4239238540510346E-2</v>
       </c>
       <c r="Z24" s="26">
@@ -7209,49 +8263,105 @@
         <f>AA9/Z9-1</f>
         <v>0.27014278380938728</v>
       </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="81">
+        <f t="shared" ref="AB24" si="44">AB9/AA9-1</f>
+        <v>0.13274032782108613</v>
+      </c>
+      <c r="AC24" s="70">
+        <f>AC9/AB9-1</f>
+        <v>0.19751214833371677</v>
+      </c>
+      <c r="AD24" s="70">
+        <f t="shared" ref="AD24:AL24" si="45">AD9/AC9-1</f>
+        <v>0.19783759675079482</v>
+      </c>
+      <c r="AE24" s="70">
+        <f t="shared" si="45"/>
+        <v>0.19813622436591838</v>
+      </c>
+      <c r="AF24" s="70">
+        <f t="shared" si="45"/>
+        <v>0.19841344507506165</v>
+      </c>
+      <c r="AG24" s="70">
+        <f t="shared" si="45"/>
+        <v>0.19867471744939502</v>
+      </c>
+      <c r="AH24" s="70">
+        <f t="shared" si="45"/>
+        <v>0.19809708172135942</v>
+      </c>
+      <c r="AI24" s="70">
+        <f t="shared" si="45"/>
+        <v>0.19836487797545321</v>
+      </c>
+      <c r="AJ24" s="70">
+        <f t="shared" si="45"/>
+        <v>0.1985952984039705</v>
+      </c>
+      <c r="AK24" s="70">
+        <f t="shared" si="45"/>
+        <v>0.19879347751278131</v>
+      </c>
+      <c r="AL24" s="70">
+        <f t="shared" si="45"/>
+        <v>0.19896386607047023</v>
+      </c>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="107" t="s">
+        <v>824</v>
+      </c>
+      <c r="AO24" s="108">
+        <v>0.01</v>
+      </c>
+      <c r="AP24" s="58"/>
+      <c r="AQ24" s="58"/>
+      <c r="AR24" s="58"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="58"/>
+    </row>
+    <row r="25" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I25" s="25">
-        <f t="shared" ref="I25:P25" si="19">I9/H9-1</f>
+        <f t="shared" ref="I25:P25" si="46">I9/H9-1</f>
         <v>-0.23929308565531482</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>1.0250706573964163</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>-2.0414913668396983E-2</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>-0.10441270126217628</v>
       </c>
       <c r="M25" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>7.5039273939206064E-2</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>0.14353911925264162</v>
       </c>
       <c r="O25" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>-1.056399996894275E-2</v>
       </c>
       <c r="P25" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="46"/>
         <v>-0.14926710284101874</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" ref="Q25:R25" si="20">Q9/P9-1</f>
+        <f t="shared" ref="Q25:R25" si="47">Q9/P9-1</f>
         <v>3.6982347447432451E-2</v>
       </c>
-      <c r="R25" s="92">
-        <f t="shared" si="20"/>
+      <c r="R25" s="72">
+        <f t="shared" si="47"/>
         <v>6.4999999999999947E-2</v>
       </c>
       <c r="U25" s="16" t="s">
@@ -7275,8 +8385,47 @@
       <c r="AA25" s="16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="2:27" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB25" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL25" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN25" s="109" t="s">
+        <v>825</v>
+      </c>
+      <c r="AO25" s="110">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="26" spans="2:70" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -7301,30 +8450,30 @@
         <v>2.7189191287553927E-2</v>
       </c>
       <c r="Q26" s="59">
-        <f t="shared" ref="Q26:R26" si="21">Q6/M6-1</f>
+        <f t="shared" ref="Q26:R26" si="48">Q6/M6-1</f>
         <v>-1.1914898101912375E-2</v>
       </c>
-      <c r="R26" s="102">
-        <f t="shared" si="21"/>
+      <c r="R26" s="82">
+        <f t="shared" si="48"/>
         <v>-1</v>
       </c>
       <c r="U26" s="16" t="s">
         <v>87</v>
       </c>
       <c r="V26" s="26">
-        <f t="shared" ref="V26:X26" si="22">V6/U6-1</f>
+        <f t="shared" ref="V26:W26" si="49">V6/U6-1</f>
         <v>0.21528372260070139</v>
       </c>
       <c r="W26" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="49"/>
         <v>2.6132751166842549E-2</v>
       </c>
       <c r="X26" s="26">
-        <f t="shared" ref="X26:Z26" si="23">X6/W6-1</f>
+        <f t="shared" ref="X26:Y26" si="50">X6/W6-1</f>
         <v>3.7151848149544753E-2</v>
       </c>
       <c r="Y26" s="26">
-        <f t="shared" si="23"/>
+        <f t="shared" si="50"/>
         <v>5.0822112904029826E-3</v>
       </c>
       <c r="Z26" s="26">
@@ -7335,49 +8484,105 @@
         <f>AA6/Z6-1</f>
         <v>0.31583556232993004</v>
       </c>
-    </row>
-    <row r="27" spans="2:27" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB26" s="81">
+        <f t="shared" ref="AB26" si="51">AB6/AA6-1</f>
+        <v>0.13452164346259443</v>
+      </c>
+      <c r="AC26" s="70">
+        <f>AC6/AB6-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AD26" s="70">
+        <f t="shared" ref="AD26:AL26" si="52">AD6/AC6-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AE26" s="70">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AF26" s="70">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AG26" s="70">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AH26" s="70">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AI26" s="70">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AJ26" s="70">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AK26" s="70">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AL26" s="70">
+        <f t="shared" si="52"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AM26" s="106"/>
+      <c r="AN26" s="109" t="s">
+        <v>822</v>
+      </c>
+      <c r="AO26" s="110">
+        <v>0.01</v>
+      </c>
+      <c r="AP26" s="106"/>
+      <c r="AQ26" s="106"/>
+      <c r="AR26" s="106"/>
+      <c r="AS26" s="106"/>
+      <c r="AT26" s="106"/>
+    </row>
+    <row r="27" spans="2:70" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" ref="I27:P27" si="24">I6/H6-1</f>
+        <f t="shared" ref="I27:P27" si="53">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="53"/>
         <v>1.0549972940599743</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="53"/>
         <v>-3.8935998856132414E-2</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="53"/>
         <v>-6.1431667318194938E-2</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="53"/>
         <v>7.4285635721933918E-2</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="53"/>
         <v>0.13999233628213337</v>
       </c>
       <c r="O27" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="53"/>
         <v>-1.726150932381687E-2</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="53"/>
         <v>-0.14652505955360839</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ref="Q27:R27" si="25">Q6/P6-1</f>
+        <f t="shared" ref="Q27:R27" si="54">Q6/P6-1</f>
         <v>3.3388630685857734E-2</v>
       </c>
-      <c r="R27" s="92">
-        <f t="shared" si="25"/>
+      <c r="R27" s="72">
+        <f t="shared" si="54"/>
         <v>-1</v>
       </c>
       <c r="U27" s="16" t="s">
@@ -7401,69 +8606,133 @@
       <c r="AA27" s="16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL27" s="105" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM27" s="54"/>
+      <c r="AN27" s="109" t="s">
+        <v>823</v>
+      </c>
+      <c r="AO27" s="112">
+        <f>NPV(AO25,AB20:BR20)</f>
+        <v>12008.558929838589</v>
+      </c>
+      <c r="AP27" s="54"/>
+      <c r="AQ27" s="54"/>
+      <c r="AR27" s="54"/>
+      <c r="AS27" s="54"/>
+      <c r="AT27" s="54"/>
+    </row>
+    <row r="28" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="AN28" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO28" s="120">
+        <f>Main!C11</f>
+        <v>376.57900000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="AN29" s="109" t="s">
+        <v>827</v>
+      </c>
+      <c r="AO29" s="113">
+        <f>AO27+AO28</f>
+        <v>12385.137929838589</v>
+      </c>
+    </row>
+    <row r="30" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="25">
-        <f t="shared" ref="H30:P30" si="26">H11/H9</f>
+        <f t="shared" ref="H30:P30" si="55">H11/H9</f>
         <v>0.4633040935672515</v>
       </c>
       <c r="I30" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>0.49342744898535978</v>
       </c>
       <c r="J30" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>0.47893226965969093</v>
       </c>
       <c r="K30" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>0.49411511605210556</v>
       </c>
       <c r="L30" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>0.50003460083757889</v>
       </c>
       <c r="M30" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>0.49486065463391976</v>
       </c>
       <c r="N30" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>0.50992409086321089</v>
       </c>
       <c r="O30" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>0.50740940554078751</v>
       </c>
       <c r="P30" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="55"/>
         <v>0.46517262451525621</v>
       </c>
       <c r="Q30" s="25">
-        <f t="shared" ref="Q30:R30" si="27">Q11/Q9</f>
+        <f t="shared" ref="Q30:R30" si="56">Q11/Q9</f>
         <v>0.46713889776340067</v>
       </c>
-      <c r="R30" s="92">
-        <f t="shared" si="27"/>
+      <c r="R30" s="72">
+        <f t="shared" si="56"/>
         <v>0.4846507649730542</v>
       </c>
       <c r="U30" s="25">
-        <f t="shared" ref="U30:W30" si="28">U11/U9</f>
+        <f t="shared" ref="U30:V30" si="57">U11/U9</f>
         <v>0.48079649525535828</v>
       </c>
       <c r="V30" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="57"/>
         <v>0.46465939796022765</v>
       </c>
       <c r="W30" s="25">
-        <f t="shared" ref="W30:Y30" si="29">W11/W9</f>
+        <f t="shared" ref="W30:X30" si="58">W11/W9</f>
         <v>0.45125353660795098</v>
       </c>
       <c r="X30" s="25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="58"/>
         <v>0.45068122934191635</v>
       </c>
       <c r="Y30" s="25">
@@ -7478,69 +8747,120 @@
         <f>AA11/AA9</f>
         <v>0.50347780738021486</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="72">
+        <f t="shared" ref="AB30:AL30" si="59">AB11/AB9</f>
+        <v>0.47837876457165424</v>
+      </c>
+      <c r="AC30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.51</v>
+      </c>
+      <c r="AG30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.51</v>
+      </c>
+      <c r="AH30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.51</v>
+      </c>
+      <c r="AI30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AJ30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AK30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.52500000000000013</v>
+      </c>
+      <c r="AL30" s="65">
+        <f t="shared" si="59"/>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AN30" s="114" t="s">
+        <v>828</v>
+      </c>
+      <c r="AO30" s="115">
+        <f>AO29/Main!C7</f>
+        <v>27.018189201218565</v>
+      </c>
+    </row>
+    <row r="31" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" ref="H31:P31" si="30">H14/H9</f>
+        <f t="shared" ref="H31:P31" si="60">H14/H9</f>
         <v>-0.60003869969040258</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>-0.23977446159063937</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>4.0871696925585857E-2</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>3.9782983773648924E-2</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>8.5022609857659262E-2</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>8.9679578908114843E-2</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>0.11132994981663266</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>5.6324037653551901E-2</v>
       </c>
       <c r="P31" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="60"/>
         <v>-3.5325090607212478E-2</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31:R31" si="31">Q14/Q9</f>
+        <f t="shared" ref="Q31:R31" si="61">Q14/Q9</f>
         <v>2.5560817667452114E-2</v>
       </c>
-      <c r="R31" s="92">
-        <f t="shared" si="31"/>
+      <c r="R31" s="72">
+        <f t="shared" si="61"/>
         <v>5.5693505622833969E-2</v>
       </c>
       <c r="U31" s="25">
-        <f t="shared" ref="U31:W31" si="32">U14/U9</f>
+        <f t="shared" ref="U31:V31" si="62">U14/U9</f>
         <v>0.10308219411386373</v>
       </c>
       <c r="V31" s="25">
-        <f t="shared" si="32"/>
+        <f t="shared" si="62"/>
         <v>8.7055883928249547E-2</v>
       </c>
       <c r="W31" s="25">
-        <f t="shared" ref="W31:Y31" si="33">W14/W9</f>
+        <f t="shared" ref="W31:X31" si="63">W14/W9</f>
         <v>5.5806049974705223E-3</v>
       </c>
       <c r="X31" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="63"/>
         <v>-4.8172749478403712E-3</v>
       </c>
       <c r="Y31" s="25">
@@ -7555,69 +8875,120 @@
         <f>AA14/AA9</f>
         <v>8.5562225585584642E-2</v>
       </c>
-    </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="72">
+        <f t="shared" ref="AB31:AL31" si="64">AB14/AB9</f>
+        <v>9.9878896057257346E-2</v>
+      </c>
+      <c r="AC31" s="25">
+        <f t="shared" si="64"/>
+        <v>0.10574058850637473</v>
+      </c>
+      <c r="AD31" s="25">
+        <f t="shared" si="64"/>
+        <v>8.929962011025043E-2</v>
+      </c>
+      <c r="AE31" s="25">
+        <f t="shared" si="64"/>
+        <v>7.2159519611590991E-2</v>
+      </c>
+      <c r="AF31" s="25">
+        <f t="shared" si="64"/>
+        <v>6.4301729126631152E-2</v>
+      </c>
+      <c r="AG31" s="25">
+        <f t="shared" si="64"/>
+        <v>4.5707244508423069E-2</v>
+      </c>
+      <c r="AH31" s="25">
+        <f t="shared" si="64"/>
+        <v>2.5915357455617575E-2</v>
+      </c>
+      <c r="AI31" s="25">
+        <f t="shared" si="64"/>
+        <v>4.0451766354821443E-2</v>
+      </c>
+      <c r="AJ31" s="25">
+        <f t="shared" si="64"/>
+        <v>4.0064621617268495E-2</v>
+      </c>
+      <c r="AK31" s="25">
+        <f t="shared" si="64"/>
+        <v>3.9742390774224687E-2</v>
+      </c>
+      <c r="AL31" s="25">
+        <f t="shared" si="64"/>
+        <v>3.9475178638201436E-2</v>
+      </c>
+      <c r="AN31" s="116" t="s">
+        <v>829</v>
+      </c>
+      <c r="AO31" s="117">
+        <f>Main!C6</f>
+        <v>6.69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:70" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H32" s="25">
-        <f t="shared" ref="H32:P32" si="34">H20/H9</f>
+        <f t="shared" ref="H32:P32" si="65">H20/H9</f>
         <v>-0.63390200378396988</v>
       </c>
       <c r="I32" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="65"/>
         <v>-0.258457690351026</v>
       </c>
       <c r="J32" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="65"/>
         <v>2.7177550084751007E-2</v>
       </c>
       <c r="K32" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="65"/>
         <v>0.13139939277628895</v>
       </c>
       <c r="L32" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="65"/>
         <v>6.1845616630673783E-2</v>
       </c>
       <c r="M32" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="65"/>
         <v>0.12046237830494838</v>
       </c>
       <c r="N32" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="65"/>
         <v>7.3401262477903989E-2</v>
       </c>
       <c r="O32" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="65"/>
         <v>7.1708502130191726E-2</v>
       </c>
       <c r="P32" s="25">
-        <f t="shared" si="34"/>
+        <f t="shared" si="65"/>
         <v>-4.5820538147269906E-2</v>
       </c>
       <c r="Q32" s="25">
-        <f t="shared" ref="Q32:R32" si="35">Q20/Q9</f>
+        <f t="shared" ref="Q32:R32" si="66">Q20/Q9</f>
         <v>5.6943479778837729E-3</v>
       </c>
-      <c r="R32" s="92">
-        <f t="shared" si="35"/>
+      <c r="R32" s="72">
+        <f t="shared" si="66"/>
         <v>2.8919900616650899E-2</v>
       </c>
       <c r="U32" s="25">
-        <f t="shared" ref="U32:W32" si="36">U20/U9</f>
+        <f t="shared" ref="U32:V32" si="67">U20/U9</f>
         <v>5.8681461696313067E-2</v>
       </c>
       <c r="V32" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="67"/>
         <v>5.3572915376499462E-2</v>
       </c>
       <c r="W32" s="25">
-        <f t="shared" ref="W32:Y32" si="37">W20/W9</f>
+        <f t="shared" ref="W32:X32" si="68">W20/W9</f>
         <v>-9.6728081448813046E-3</v>
       </c>
       <c r="X32" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="68"/>
         <v>-8.9159157626775096E-3</v>
       </c>
       <c r="Y32" s="25">
@@ -7632,69 +9003,120 @@
         <f>AA20/AA9</f>
         <v>6.3352186852177944E-2</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="72">
+        <f t="shared" ref="AB32:AL32" si="69">AB20/AB9</f>
+        <v>8.6874636591012341E-2</v>
+      </c>
+      <c r="AC32" s="25">
+        <f t="shared" si="69"/>
+        <v>8.5767901073273672E-2</v>
+      </c>
+      <c r="AD32" s="25">
+        <f t="shared" si="69"/>
+        <v>7.2080359817990047E-2</v>
+      </c>
+      <c r="AE32" s="25">
+        <f t="shared" si="69"/>
+        <v>5.8105540987714269E-2</v>
+      </c>
+      <c r="AF32" s="25">
+        <f t="shared" si="69"/>
+        <v>5.192896990620418E-2</v>
+      </c>
+      <c r="AG32" s="25">
+        <f t="shared" si="69"/>
+        <v>3.654851853274825E-2</v>
+      </c>
+      <c r="AH32" s="25">
+        <f t="shared" si="69"/>
+        <v>2.0048966936886289E-2</v>
+      </c>
+      <c r="AI32" s="25">
+        <f t="shared" si="69"/>
+        <v>3.2683210797327743E-2</v>
+      </c>
+      <c r="AJ32" s="25">
+        <f t="shared" si="69"/>
+        <v>3.2593435162698581E-2</v>
+      </c>
+      <c r="AK32" s="25">
+        <f t="shared" si="69"/>
+        <v>3.2525251472992428E-2</v>
+      </c>
+      <c r="AL32" s="25">
+        <f t="shared" si="69"/>
+        <v>3.247492706915444E-2</v>
+      </c>
+      <c r="AN32" s="118" t="s">
+        <v>830</v>
+      </c>
+      <c r="AO32" s="119">
+        <f>AO30/AO31-1</f>
+        <v>3.0385933036201145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H33" s="25">
-        <f t="shared" ref="H33:P33" si="38">H18/H17</f>
+        <f t="shared" ref="H33:P33" si="70">H18/H17</f>
         <v>-3.8298560626797436E-2</v>
       </c>
       <c r="I33" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>1.687893119831264E-2</v>
       </c>
       <c r="J33" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>-0.10194614476681955</v>
       </c>
       <c r="K33" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>0.15805252319075647</v>
       </c>
       <c r="L33" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>0.11546866418145921</v>
       </c>
       <c r="M33" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>5.7957527484595879E-2</v>
       </c>
       <c r="N33" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>0.14222175553338792</v>
       </c>
       <c r="O33" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>-6.6274750665379883E-2</v>
       </c>
       <c r="P33" s="25">
-        <f t="shared" si="38"/>
+        <f t="shared" si="70"/>
         <v>-0.15684131822626085</v>
       </c>
       <c r="Q33" s="25">
-        <f t="shared" ref="Q33:R33" si="39">Q18/Q17</f>
+        <f t="shared" ref="Q33:R33" si="71">Q18/Q17</f>
         <v>0.39734494626677114</v>
       </c>
-      <c r="R33" s="92">
-        <f t="shared" si="39"/>
+      <c r="R33" s="72">
+        <f t="shared" si="71"/>
         <v>0.4</v>
       </c>
       <c r="U33" s="25">
-        <f t="shared" ref="U33:W33" si="40">U18/U17</f>
+        <f t="shared" ref="U33:V33" si="72">U18/U17</f>
         <v>0.39854662063436685</v>
       </c>
       <c r="V33" s="25">
-        <f t="shared" si="40"/>
+        <f t="shared" si="72"/>
         <v>0.33869041988275145</v>
       </c>
       <c r="W33" s="25">
-        <f t="shared" ref="W33:Y33" si="41">W18/W17</f>
+        <f t="shared" ref="W33:X33" si="73">W18/W17</f>
         <v>-3.6813463963526378</v>
       </c>
       <c r="X33" s="25">
-        <f t="shared" si="41"/>
+        <f t="shared" si="73"/>
         <v>0.30318050392399659</v>
       </c>
       <c r="Y33" s="25">
@@ -7709,13 +9131,58 @@
         <f>AA18/AA17</f>
         <v>8.2051387009212537E-2</v>
       </c>
-    </row>
-    <row r="36" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="72">
+        <f t="shared" ref="AB33" si="74">AB18/AB17</f>
+        <v>0.08</v>
+      </c>
+      <c r="AC33" s="65">
+        <f>AC18/AC17</f>
+        <v>0.15</v>
+      </c>
+      <c r="AD33" s="65">
+        <f t="shared" ref="AD33:AL33" si="75">AD18/AD17</f>
+        <v>0.15</v>
+      </c>
+      <c r="AE33" s="65">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="AF33" s="65">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="AG33" s="65">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="AH33" s="65">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="AI33" s="65">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="AJ33" s="65">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="AK33" s="65">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="AL33" s="65">
+        <f t="shared" si="75"/>
+        <v>0.15</v>
+      </c>
+      <c r="AO33" s="111"/>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
@@ -7731,9 +9198,10 @@
       <c r="Q37" s="32">
         <v>179</v>
       </c>
-      <c r="R37" s="95"/>
-    </row>
-    <row r="38" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R37" s="75"/>
+      <c r="AB37" s="75"/>
+    </row>
+    <row r="38" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
@@ -7749,9 +9217,10 @@
       <c r="Q38" s="32">
         <v>18</v>
       </c>
-      <c r="R38" s="95"/>
-    </row>
-    <row r="39" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R38" s="75"/>
+      <c r="AB38" s="75"/>
+    </row>
+    <row r="39" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
@@ -7771,9 +9240,10 @@
         <f>Q37+Q38</f>
         <v>197</v>
       </c>
-      <c r="R39" s="95"/>
-    </row>
-    <row r="40" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R39" s="75"/>
+      <c r="AB39" s="75"/>
+    </row>
+    <row r="40" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
@@ -7789,9 +9259,10 @@
       <c r="Q40" s="32">
         <v>156</v>
       </c>
-      <c r="R40" s="95"/>
-    </row>
-    <row r="41" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R40" s="75"/>
+      <c r="AB40" s="75"/>
+    </row>
+    <row r="41" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
@@ -7807,9 +9278,10 @@
       <c r="Q41" s="32">
         <v>87</v>
       </c>
-      <c r="R41" s="95"/>
-    </row>
-    <row r="42" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R41" s="75"/>
+      <c r="AB41" s="75"/>
+    </row>
+    <row r="42" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
@@ -7829,9 +9301,10 @@
         <f>Q40+Q41</f>
         <v>243</v>
       </c>
-      <c r="R42" s="95"/>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="R42" s="75"/>
+      <c r="AB42" s="75"/>
+    </row>
+    <row r="43" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
@@ -7852,7 +9325,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
@@ -7873,7 +9346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="45" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:41" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
@@ -7893,7 +9366,7 @@
         <f>Q43+Q44</f>
         <v>440</v>
       </c>
-      <c r="R45" s="96"/>
+      <c r="R45" s="76"/>
       <c r="Y45" s="2">
         <v>338</v>
       </c>
@@ -7903,16 +9376,50 @@
       <c r="AA45" s="2">
         <v>422</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="27"/>
-    </row>
-    <row r="49" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="76"/>
+    </row>
+    <row r="47" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="K47" s="53">
+        <f>K6/K45</f>
+        <v>3.0009453302961275</v>
+      </c>
+      <c r="L47" s="53"/>
+      <c r="M47" s="53">
+        <f>M6/M45</f>
+        <v>3.1108594847775177</v>
+      </c>
+      <c r="N47" s="53"/>
+      <c r="O47" s="53">
+        <f>O6/O45</f>
+        <v>3.5264336492891002</v>
+      </c>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53">
+        <f>Q6/Q45</f>
+        <v>2.9829772727272728</v>
+      </c>
+      <c r="Y47" s="53">
+        <f t="shared" ref="Y47:AA47" si="76">Y6/Y45</f>
+        <v>14.713579881656804</v>
+      </c>
+      <c r="Z47" s="53">
+        <f t="shared" si="76"/>
+        <v>9.6377608200455569</v>
+      </c>
+      <c r="AA47" s="53">
+        <f t="shared" si="76"/>
+        <v>13.192582938388627</v>
+      </c>
+    </row>
+    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -7928,7 +9435,7 @@
       <c r="Q50" s="21">
         <v>1049.413</v>
       </c>
-      <c r="R50" s="96"/>
+      <c r="R50" s="76"/>
       <c r="Z50" s="21">
         <f>K50</f>
         <v>1517.3610000000001</v>
@@ -7936,8 +9443,27 @@
       <c r="AA50" s="21">
         <v>1669.453</v>
       </c>
-    </row>
-    <row r="51" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="76"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="58"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="58"/>
+      <c r="AN50" s="58"/>
+      <c r="AO50" s="58"/>
+      <c r="AP50" s="58"/>
+      <c r="AQ50" s="58"/>
+      <c r="AR50" s="58"/>
+      <c r="AS50" s="58"/>
+      <c r="AT50" s="58"/>
+    </row>
+    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -7961,7 +9487,7 @@
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -7977,7 +9503,7 @@
       <c r="Q52" s="21">
         <v>954.39400000000001</v>
       </c>
-      <c r="R52" s="96"/>
+      <c r="R52" s="76"/>
       <c r="Z52" s="21">
         <f>K52</f>
         <v>895.97400000000005</v>
@@ -7985,8 +9511,27 @@
       <c r="AA52" s="21">
         <v>811.41</v>
       </c>
-    </row>
-    <row r="53" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="58"/>
+      <c r="AD52" s="58"/>
+      <c r="AE52" s="58"/>
+      <c r="AF52" s="58"/>
+      <c r="AG52" s="58"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="58"/>
+      <c r="AJ52" s="58"/>
+      <c r="AK52" s="58"/>
+      <c r="AL52" s="58"/>
+      <c r="AM52" s="58"/>
+      <c r="AN52" s="58"/>
+      <c r="AO52" s="58"/>
+      <c r="AP52" s="58"/>
+      <c r="AQ52" s="58"/>
+      <c r="AR52" s="58"/>
+      <c r="AS52" s="58"/>
+      <c r="AT52" s="58"/>
+    </row>
+    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -8010,36 +9555,36 @@
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H54" s="22">
-        <f t="shared" ref="H54:N54" si="42">SUM(H50:H53)</f>
+        <f t="shared" ref="H54:N54" si="77">SUM(H50:H53)</f>
         <v>0</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="J54" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="K54" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="77"/>
         <v>3222.9750000000004</v>
       </c>
       <c r="L54" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="M54" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="N54" s="22">
-        <f t="shared" si="42"/>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="O54" s="22">
@@ -8063,7 +9608,7 @@
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -8080,14 +9625,14 @@
         <v>609.923</v>
       </c>
       <c r="Z55" s="22">
-        <f t="shared" ref="Z55:Z59" si="43">K55</f>
+        <f t="shared" ref="Z55:Z59" si="78">K55</f>
         <v>658.678</v>
       </c>
       <c r="AA55" s="22">
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
@@ -8104,14 +9649,14 @@
         <v>408.75299999999999</v>
       </c>
       <c r="Z56" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>536.66</v>
       </c>
       <c r="AA56" s="22">
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
@@ -8132,7 +9677,7 @@
         <v>489.43100000000004</v>
       </c>
       <c r="Z57" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>515.50900000000001</v>
       </c>
       <c r="AA57" s="22">
@@ -8140,7 +9685,7 @@
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
@@ -8157,14 +9702,14 @@
         <v>19.443999999999999</v>
       </c>
       <c r="Z58" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>23.93</v>
       </c>
       <c r="AA58" s="22">
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
@@ -8181,43 +9726,43 @@
         <v>78.162000000000006</v>
       </c>
       <c r="Z59" s="22">
-        <f t="shared" si="43"/>
+        <f t="shared" si="78"/>
         <v>72.876000000000005</v>
       </c>
       <c r="AA59" s="22">
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H60" s="22">
-        <f t="shared" ref="H60:N60" si="44">H54+H55+H56+H57+H58+H59</f>
+        <f t="shared" ref="H60:N60" si="79">H54+H55+H56+H57+H58+H59</f>
         <v>0</v>
       </c>
       <c r="I60" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="J60" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="K60" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>5030.6280000000006</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="M60" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="N60" s="22">
-        <f t="shared" si="44"/>
+        <f t="shared" si="79"/>
         <v>0</v>
       </c>
       <c r="O60" s="22">
@@ -8241,13 +9786,13 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:46" x14ac:dyDescent="0.2">
       <c r="K61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="AA61" s="22"/>
     </row>
-    <row r="62" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
@@ -8264,14 +9809,14 @@
         <v>669.20299999999997</v>
       </c>
       <c r="Z62" s="22">
-        <f t="shared" ref="Z62:Z70" si="45">K62</f>
+        <f t="shared" ref="Z62:Z70" si="80">K62</f>
         <v>575.95399999999995</v>
       </c>
       <c r="AA62" s="22">
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
@@ -8288,14 +9833,14 @@
         <v>373.04500000000002</v>
       </c>
       <c r="Z63" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="80"/>
         <v>378.85899999999998</v>
       </c>
       <c r="AA63" s="22">
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
@@ -8312,14 +9857,14 @@
         <v>157.48699999999999</v>
       </c>
       <c r="Z64" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="80"/>
         <v>203.399</v>
       </c>
       <c r="AA64" s="22">
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
@@ -8336,14 +9881,14 @@
         <v>131.43799999999999</v>
       </c>
       <c r="Z65" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="80"/>
         <v>162.56100000000001</v>
       </c>
       <c r="AA65" s="22">
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
@@ -8360,43 +9905,43 @@
         <v>127.50700000000001</v>
       </c>
       <c r="Z66" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="80"/>
         <v>92.503</v>
       </c>
       <c r="AA66" s="22">
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H67" s="22">
-        <f t="shared" ref="H67:N67" si="46">SUM(H62:H66)</f>
+        <f t="shared" ref="H67:N67" si="81">SUM(H62:H66)</f>
         <v>0</v>
       </c>
       <c r="I67" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="J67" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="K67" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="81"/>
         <v>1413.2759999999998</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="M67" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="N67" s="22">
-        <f t="shared" si="46"/>
+        <f t="shared" si="81"/>
         <v>0</v>
       </c>
       <c r="O67" s="22">
@@ -8420,7 +9965,7 @@
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
@@ -8436,16 +9981,35 @@
       <c r="Q68" s="21">
         <v>672.83399999999995</v>
       </c>
-      <c r="R68" s="96"/>
+      <c r="R68" s="76"/>
       <c r="Z68" s="21">
-        <f t="shared" si="45"/>
+        <f t="shared" si="80"/>
         <v>1003.556</v>
       </c>
       <c r="AA68" s="21">
         <v>662.53099999999995</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="76"/>
+      <c r="AC68" s="58"/>
+      <c r="AD68" s="58"/>
+      <c r="AE68" s="58"/>
+      <c r="AF68" s="58"/>
+      <c r="AG68" s="58"/>
+      <c r="AH68" s="58"/>
+      <c r="AI68" s="58"/>
+      <c r="AJ68" s="58"/>
+      <c r="AK68" s="58"/>
+      <c r="AL68" s="58"/>
+      <c r="AM68" s="58"/>
+      <c r="AN68" s="58"/>
+      <c r="AO68" s="58"/>
+      <c r="AP68" s="58"/>
+      <c r="AQ68" s="58"/>
+      <c r="AR68" s="58"/>
+      <c r="AS68" s="58"/>
+      <c r="AT68" s="58"/>
+    </row>
+    <row r="69" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
@@ -8462,14 +10026,14 @@
         <v>650.83299999999997</v>
       </c>
       <c r="Z69" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="80"/>
         <v>839.41399999999999</v>
       </c>
       <c r="AA69" s="22">
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
@@ -8486,43 +10050,43 @@
         <v>94.378</v>
       </c>
       <c r="Z70" s="22">
-        <f t="shared" si="45"/>
+        <f t="shared" si="80"/>
         <v>98.388999999999996</v>
       </c>
       <c r="AA70" s="22">
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H71" s="22">
-        <f t="shared" ref="H71:N71" si="47">H67+H68+H69+H70</f>
+        <f t="shared" ref="H71:N71" si="82">H67+H68+H69+H70</f>
         <v>0</v>
       </c>
       <c r="I71" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="J71" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="82"/>
         <v>3354.6350000000002</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="N71" s="22">
-        <f t="shared" si="47"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="O71" s="22">
@@ -8546,12 +10110,12 @@
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:46" x14ac:dyDescent="0.2">
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="AA72" s="22"/>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
@@ -8568,14 +10132,14 @@
         <v>1729.075</v>
       </c>
       <c r="Z73" s="22">
-        <f t="shared" ref="Z73" si="48">K73</f>
+        <f t="shared" ref="Z73" si="83">K73</f>
         <v>1675.9929999999999</v>
       </c>
       <c r="AA73" s="22">
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
@@ -8604,16 +10168,16 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76" si="49">K60-K71</f>
+        <f t="shared" ref="K76" si="84">K60-K71</f>
         <v>1675.9930000000004</v>
       </c>
       <c r="O76" s="22">
-        <f t="shared" ref="O76" si="50">O60-O71</f>
+        <f t="shared" ref="O76" si="85">O60-O71</f>
         <v>2088.9740000000011</v>
       </c>
       <c r="P76" s="22">
@@ -8625,7 +10189,7 @@
         <v>1729.0950000000003</v>
       </c>
       <c r="Z76" s="22">
-        <f t="shared" ref="Z76:Z77" si="51">K76</f>
+        <f t="shared" ref="Z76:Z77" si="86">K76</f>
         <v>1675.9930000000004</v>
       </c>
       <c r="AA76" s="22">
@@ -8633,16 +10197,16 @@
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:46" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
       <c r="K77" s="53">
-        <f t="shared" ref="K77" si="52">K76/K22</f>
+        <f t="shared" ref="K77" si="87">K76/K22</f>
         <v>3.6850318044198591</v>
       </c>
       <c r="O77" s="53">
-        <f t="shared" ref="O77" si="53">O76/O22</f>
+        <f t="shared" ref="O77" si="88">O76/O22</f>
         <v>4.3869603383608675</v>
       </c>
       <c r="P77" s="53">
@@ -8654,7 +10218,7 @@
         <v>3.7718988253002195</v>
       </c>
       <c r="Z77" s="22">
-        <f t="shared" si="51"/>
+        <f t="shared" si="86"/>
         <v>3.6850318044198591</v>
       </c>
       <c r="AA77" s="53">
@@ -8662,7 +10226,7 @@
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:27" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
@@ -8670,189 +10234,193 @@
         <f>O52/K52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
-      <c r="R79" s="96"/>
+      <c r="R79" s="76"/>
       <c r="AA79" s="70">
         <f>AA52/Z52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
-    </row>
-    <row r="80" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB79" s="76"/>
+    </row>
+    <row r="80" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
       <c r="P80" s="65">
-        <f t="shared" ref="P80" si="54">P52/O52-1</f>
+        <f t="shared" ref="P80" si="89">P52/O52-1</f>
         <v>1.6076952465461369E-2</v>
       </c>
       <c r="Q80" s="65">
         <f>Q52/P52-1</f>
         <v>0.15760593361675279</v>
       </c>
-      <c r="R80" s="95"/>
-    </row>
-    <row r="82" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R80" s="75"/>
+      <c r="AB80" s="75"/>
+    </row>
+    <row r="82" spans="2:28" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="56">
-        <f t="shared" ref="H82:O82" si="55">H50</f>
+        <f t="shared" ref="H82:N82" si="90">H50</f>
         <v>0</v>
       </c>
       <c r="I82" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="J82" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="K82" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="90"/>
         <v>1517.3610000000001</v>
       </c>
       <c r="L82" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="M82" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="N82" s="56">
-        <f t="shared" si="55"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="O82" s="56">
-        <f t="shared" ref="O82:P82" si="56">O50</f>
+        <f t="shared" ref="O82:P82" si="91">O50</f>
         <v>1669.453</v>
       </c>
       <c r="P82" s="56">
-        <f t="shared" si="56"/>
+        <f t="shared" si="91"/>
         <v>1009.139</v>
       </c>
       <c r="Q82" s="56">
         <f>Q50</f>
         <v>1049.413</v>
       </c>
-      <c r="R82" s="94"/>
+      <c r="R82" s="74"/>
       <c r="Z82" s="56">
-        <f t="shared" ref="Z82:AA82" si="57">Z50</f>
+        <f t="shared" ref="Z82:AA82" si="92">Z50</f>
         <v>1517.3610000000001</v>
       </c>
       <c r="AA82" s="56">
-        <f t="shared" si="57"/>
+        <f t="shared" si="92"/>
         <v>1669.453</v>
       </c>
-    </row>
-    <row r="83" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB82" s="75"/>
+    </row>
+    <row r="83" spans="2:28" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
       <c r="H83" s="56">
-        <f t="shared" ref="H83:O83" si="58">H68</f>
+        <f t="shared" ref="H83:N83" si="93">H68</f>
         <v>0</v>
       </c>
       <c r="I83" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="J83" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="K83" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="93"/>
         <v>1003.556</v>
       </c>
       <c r="L83" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="M83" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N83" s="56">
-        <f t="shared" si="58"/>
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="O83" s="56">
-        <f t="shared" ref="O83:P83" si="59">O68</f>
+        <f t="shared" ref="O83:P83" si="94">O68</f>
         <v>662.53099999999995</v>
       </c>
       <c r="P83" s="56">
-        <f t="shared" si="59"/>
+        <f t="shared" si="94"/>
         <v>672.28599999999994</v>
       </c>
       <c r="Q83" s="56">
         <f>Q68</f>
         <v>672.83399999999995</v>
       </c>
-      <c r="R83" s="94"/>
+      <c r="R83" s="74"/>
       <c r="Z83" s="56">
-        <f t="shared" ref="Z83:AA83" si="60">Z68</f>
+        <f t="shared" ref="Z83:AA83" si="95">Z68</f>
         <v>1003.556</v>
       </c>
       <c r="AA83" s="56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="95"/>
         <v>662.53099999999995</v>
       </c>
-    </row>
-    <row r="84" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="75"/>
+    </row>
+    <row r="84" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H84" s="22">
-        <f t="shared" ref="H84:O84" si="61">H82-H83</f>
+        <f t="shared" ref="H84:N84" si="96">H82-H83</f>
         <v>0</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="J84" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="96"/>
         <v>513.80500000000006</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="M84" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="N84" s="22">
-        <f t="shared" si="61"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="O84" s="22">
-        <f t="shared" ref="O84:P84" si="62">O82-O83</f>
+        <f t="shared" ref="O84:P84" si="97">O82-O83</f>
         <v>1006.922</v>
       </c>
       <c r="P84" s="22">
-        <f t="shared" si="62"/>
+        <f t="shared" si="97"/>
         <v>336.85300000000007</v>
       </c>
       <c r="Q84" s="22">
         <f>Q82-Q83</f>
         <v>376.57900000000006</v>
       </c>
-      <c r="R84" s="94"/>
+      <c r="R84" s="74"/>
       <c r="Z84" s="22">
-        <f t="shared" ref="Z84:AA84" si="63">Z82-Z83</f>
+        <f t="shared" ref="Z84:AA84" si="98">Z82-Z83</f>
         <v>513.80500000000006</v>
       </c>
       <c r="AA84" s="22">
-        <f t="shared" si="63"/>
+        <f t="shared" si="98"/>
         <v>1006.922</v>
       </c>
     </row>
-    <row r="86" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -8886,7 +10454,7 @@
       <c r="Q86" s="1">
         <v>7.58</v>
       </c>
-      <c r="U86" s="103" t="s">
+      <c r="U86" s="83" t="s">
         <v>87</v>
       </c>
       <c r="V86" s="1">
@@ -8910,7 +10478,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="2:27" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:28" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -8919,111 +10487,113 @@
         <v>3808.6451099999999</v>
       </c>
       <c r="I87" s="56">
-        <f t="shared" ref="I87:Q87" si="64">I86*I22</f>
+        <f t="shared" ref="I87:Q87" si="99">I86*I22</f>
         <v>4014.4296399999998</v>
       </c>
       <c r="J87" s="56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>4493.6721600000001</v>
       </c>
       <c r="K87" s="56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>6767.5876799999996</v>
       </c>
       <c r="L87" s="56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>8418.0184399999998</v>
       </c>
       <c r="M87" s="56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>8534.8462799999998</v>
       </c>
       <c r="N87" s="56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>8234.4350400000003</v>
       </c>
       <c r="O87" s="56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>8590.251119999999</v>
       </c>
       <c r="P87" s="56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>7580.5139999999992</v>
       </c>
       <c r="Q87" s="56">
-        <f t="shared" si="64"/>
+        <f t="shared" si="99"/>
         <v>3474.7857000000004</v>
       </c>
-      <c r="R87" s="95"/>
+      <c r="R87" s="75"/>
       <c r="V87" s="56">
-        <f t="shared" ref="V87:Z87" si="65">V86*V22</f>
+        <f t="shared" ref="V87:Y87" si="100">V86*V22</f>
         <v>10982.426100000001</v>
       </c>
       <c r="W87" s="56">
-        <f t="shared" si="65"/>
+        <f t="shared" si="100"/>
         <v>5870.5102799999995</v>
       </c>
       <c r="X87" s="56">
-        <f t="shared" si="65"/>
+        <f t="shared" si="100"/>
         <v>7208.8285500000011</v>
       </c>
       <c r="Y87" s="56">
-        <f t="shared" si="65"/>
+        <f t="shared" si="100"/>
         <v>8649.4895199999992</v>
       </c>
       <c r="Z87" s="56">
-        <f t="shared" ref="Z87:AA87" si="66">Z86*Z22</f>
+        <f t="shared" ref="Z87:AA87" si="101">Z86*Z22</f>
         <v>6756.8443200000002</v>
       </c>
       <c r="AA87" s="56">
-        <f t="shared" si="66"/>
+        <f t="shared" si="101"/>
         <v>8397.6921600000005</v>
       </c>
-    </row>
-    <row r="88" spans="2:27" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AB87" s="75"/>
+    </row>
+    <row r="88" spans="2:28" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
       <c r="K88" s="56">
-        <f t="shared" ref="K88" si="67">K87-K84</f>
+        <f t="shared" ref="K88" si="102">K87-K84</f>
         <v>6253.7826799999993</v>
       </c>
       <c r="O88" s="56">
-        <f t="shared" ref="O88:P88" si="68">O87-O84</f>
+        <f t="shared" ref="O88:P88" si="103">O87-O84</f>
         <v>7583.3291199999985</v>
       </c>
       <c r="P88" s="56">
-        <f t="shared" si="68"/>
+        <f t="shared" si="103"/>
         <v>7243.6609999999991</v>
       </c>
       <c r="Q88" s="56">
         <f>Q87-Q84</f>
         <v>3098.2067000000002</v>
       </c>
-      <c r="R88" s="94"/>
+      <c r="R88" s="74"/>
       <c r="Z88" s="56">
-        <f t="shared" ref="Z88:AA88" si="69">Z87-Z84</f>
+        <f t="shared" ref="Z88:AA88" si="104">Z87-Z84</f>
         <v>6243.0393199999999</v>
       </c>
       <c r="AA88" s="56">
-        <f t="shared" si="69"/>
+        <f t="shared" si="104"/>
         <v>7390.77016</v>
       </c>
-    </row>
-    <row r="90" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="74"/>
+    </row>
+    <row r="90" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>778</v>
       </c>
       <c r="K90" s="69">
-        <f t="shared" ref="K90" si="70">K86/K77</f>
+        <f t="shared" ref="K90" si="105">K86/K77</f>
         <v>4.0379570081736604</v>
       </c>
       <c r="O90" s="69">
-        <f t="shared" ref="O90:P90" si="71">O86/O77</f>
+        <f t="shared" ref="O90:P90" si="106">O86/O77</f>
         <v>4.1121867098393734</v>
       </c>
       <c r="P90" s="69">
-        <f t="shared" si="71"/>
+        <f t="shared" si="106"/>
         <v>4.3844509454849581</v>
       </c>
       <c r="Q90" s="69">
@@ -9031,7 +10601,7 @@
         <v>2.0095979110459519</v>
       </c>
       <c r="Z90" s="69">
-        <f t="shared" ref="Z90" si="72">Z86/Z77</f>
+        <f t="shared" ref="Z90" si="107">Z86/Z77</f>
         <v>4.0379570081736604</v>
       </c>
       <c r="AA90" s="69">
@@ -9039,32 +10609,32 @@
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>809</v>
       </c>
       <c r="K91" s="69">
-        <f t="shared" ref="K91:P91" si="73">K87/SUM(H6:K6)</f>
+        <f t="shared" ref="K91:P91" si="108">K87/SUM(H6:K6)</f>
         <v>1.5995330818390172</v>
       </c>
       <c r="L91" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="108"/>
         <v>1.8332967691100841</v>
       </c>
       <c r="M91" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="108"/>
         <v>1.6247491502037685</v>
       </c>
       <c r="N91" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="108"/>
         <v>1.5258758943246864</v>
       </c>
       <c r="O91" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="108"/>
         <v>1.5429916494080578</v>
       </c>
       <c r="P91" s="69">
-        <f t="shared" si="73"/>
+        <f t="shared" si="108"/>
         <v>1.3534483543594595</v>
       </c>
       <c r="Q91" s="69">
@@ -9072,23 +10642,23 @@
         <v>0.6221570503604078</v>
       </c>
       <c r="V91" s="69">
-        <f t="shared" ref="V91:Z91" si="74">V87/V6</f>
+        <f t="shared" ref="V91:Y91" si="109">V87/V6</f>
         <v>2.3621676596476893</v>
       </c>
       <c r="W91" s="69">
-        <f t="shared" si="74"/>
+        <f t="shared" si="109"/>
         <v>1.2305088267185433</v>
       </c>
       <c r="X91" s="69">
-        <f t="shared" si="74"/>
+        <f t="shared" si="109"/>
         <v>1.456904992539475</v>
       </c>
       <c r="Y91" s="69">
-        <f t="shared" si="74"/>
+        <f t="shared" si="109"/>
         <v>1.7392236210561027</v>
       </c>
       <c r="Z91" s="69">
-        <f t="shared" ref="Z91" si="75">Z87/Z6</f>
+        <f t="shared" ref="Z91" si="110">Z87/Z6</f>
         <v>1.5969938669011909</v>
       </c>
       <c r="AA91" s="69">
@@ -9096,32 +10666,32 @@
         <v>1.5084039681926689</v>
       </c>
     </row>
-    <row r="92" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K92" s="69">
-        <f t="shared" ref="K92" si="76">K86/SUM(H21:K21)</f>
+        <f t="shared" ref="K92" si="111">K86/SUM(H21:K21)</f>
         <v>-12.257039736665067</v>
       </c>
       <c r="L92" s="69">
-        <f t="shared" ref="L92" si="77">L86/SUM(I21:L21)</f>
+        <f t="shared" ref="L92" si="112">L86/SUM(I21:L21)</f>
         <v>71.383779306426774</v>
       </c>
       <c r="M92" s="69">
-        <f t="shared" ref="M92" si="78">M86/SUM(J21:M21)</f>
+        <f t="shared" ref="M92" si="113">M86/SUM(J21:M21)</f>
         <v>18.285031241280244</v>
       </c>
       <c r="N92" s="69">
-        <f t="shared" ref="N92" si="79">N86/SUM(K21:N21)</f>
+        <f t="shared" ref="N92" si="114">N86/SUM(K21:N21)</f>
         <v>14.952988283370482</v>
       </c>
       <c r="O92" s="69">
-        <f t="shared" ref="O92:P92" si="80">O86/SUM(L21:O21)</f>
+        <f t="shared" ref="O92:P92" si="115">O86/SUM(L21:O21)</f>
         <v>18.105251010476522</v>
       </c>
       <c r="P92" s="69">
-        <f t="shared" si="80"/>
+        <f t="shared" si="115"/>
         <v>22.989620990664498</v>
       </c>
       <c r="Q92" s="69">
@@ -9129,23 +10699,23 @@
         <v>20.941179022554319</v>
       </c>
       <c r="V92" s="69">
-        <f t="shared" ref="V92:Y92" si="81">V86/V21</f>
+        <f t="shared" ref="V92:X92" si="116">V86/V21</f>
         <v>42.458927163071316</v>
       </c>
       <c r="W92" s="69">
-        <f t="shared" si="81"/>
+        <f t="shared" si="116"/>
         <v>-121.64339577289637</v>
       </c>
       <c r="X92" s="69">
-        <f t="shared" si="81"/>
+        <f t="shared" si="116"/>
         <v>-155.69151548529089</v>
       </c>
       <c r="Y92" s="69">
-        <f t="shared" ref="Y92:Z92" si="82">Y86/Y21</f>
+        <f t="shared" ref="Y92:Z92" si="117">Y86/Y21</f>
         <v>93.871302120640664</v>
       </c>
       <c r="Z92" s="69">
-        <f t="shared" si="82"/>
+        <f t="shared" si="117"/>
         <v>-12.303582123796154</v>
       </c>
       <c r="AA92" s="69">
@@ -9153,12 +10723,12 @@
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="93" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>810</v>
       </c>
       <c r="Z93" s="69">
-        <f t="shared" ref="Z93" si="83">Z88/Z6</f>
+        <f t="shared" ref="Z93" si="118">Z88/Z6</f>
         <v>1.4755550124711148</v>
       </c>
       <c r="AA93" s="69">
@@ -9166,24 +10736,24 @@
         <v>1.327539379264882</v>
       </c>
     </row>
-    <row r="94" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
       <c r="Z94" s="69"/>
       <c r="AA94" s="69"/>
     </row>
-    <row r="95" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>806</v>
       </c>
       <c r="K95" s="25">
-        <f t="shared" ref="K95" si="84">K52/K9</f>
+        <f t="shared" ref="K95" si="119">K52/K9</f>
         <v>0.63826449707429866</v>
       </c>
       <c r="O95" s="25">
-        <f t="shared" ref="O95:P95" si="85">O52/O9</f>
+        <f t="shared" ref="O95:P95" si="120">O52/O9</f>
         <v>0.53060904195317171</v>
       </c>
       <c r="P95" s="25">
-        <f t="shared" si="85"/>
+        <f t="shared" si="120"/>
         <v>0.63373547690332799</v>
       </c>
       <c r="Q95" s="25">
@@ -9191,12 +10761,426 @@
         <v>0.70745268732158828</v>
       </c>
       <c r="Z95" s="25">
-        <f t="shared" ref="Z95" si="86">Z52/Z9</f>
+        <f t="shared" ref="Z95" si="121">Z52/Z9</f>
         <v>0.20023255361795636</v>
       </c>
       <c r="AA95" s="25">
         <f>AA52/AA9</f>
         <v>0.14276675535667846</v>
+      </c>
+    </row>
+    <row r="96" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="K96" s="25"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="25"/>
+      <c r="Z96" s="25"/>
+      <c r="AA96" s="25"/>
+    </row>
+    <row r="97" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="K97" s="25"/>
+      <c r="O97" s="25"/>
+      <c r="P97" s="25"/>
+      <c r="Q97" s="25"/>
+      <c r="Z97" s="25"/>
+      <c r="AA97" s="25"/>
+    </row>
+    <row r="99" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B99" s="27" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="100" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="54" t="s">
+        <v>815</v>
+      </c>
+      <c r="I100" s="65">
+        <f t="shared" ref="I100:Q100" si="122">I3/H3-1</f>
+        <v>-0.28820449048700714</v>
+      </c>
+      <c r="J100" s="65">
+        <f t="shared" si="122"/>
+        <v>1.1768782082290343</v>
+      </c>
+      <c r="K100" s="65">
+        <f t="shared" si="122"/>
+        <v>4.6761685836980149E-3</v>
+      </c>
+      <c r="L100" s="65">
+        <f t="shared" si="122"/>
+        <v>-0.13027499098108597</v>
+      </c>
+      <c r="M100" s="65">
+        <f t="shared" si="122"/>
+        <v>7.9195991314019887E-2</v>
+      </c>
+      <c r="N100" s="65">
+        <f t="shared" si="122"/>
+        <v>0.21052330549432452</v>
+      </c>
+      <c r="O100" s="65">
+        <f t="shared" si="122"/>
+        <v>3.8321500693137889E-2</v>
+      </c>
+      <c r="P100" s="65">
+        <f t="shared" si="122"/>
+        <v>-0.2022053470017765</v>
+      </c>
+      <c r="Q100" s="65">
+        <f>Q3/P3-1</f>
+        <v>-9.3269024553847002E-3</v>
+      </c>
+      <c r="R100" s="75"/>
+      <c r="AB100" s="75"/>
+    </row>
+    <row r="101" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="54" t="s">
+        <v>816</v>
+      </c>
+      <c r="I101" s="65">
+        <f t="shared" ref="I101:Q101" si="123">I4/H4-1</f>
+        <v>-0.11731238792873222</v>
+      </c>
+      <c r="J101" s="65">
+        <f t="shared" si="123"/>
+        <v>0.61374798070117631</v>
+      </c>
+      <c r="K101" s="65">
+        <f t="shared" si="123"/>
+        <v>-0.19357387499288559</v>
+      </c>
+      <c r="L101" s="65">
+        <f t="shared" si="123"/>
+        <v>0.28305012268079333</v>
+      </c>
+      <c r="M101" s="65">
+        <f t="shared" si="123"/>
+        <v>0.10870191265406226</v>
+      </c>
+      <c r="N101" s="65">
+        <f t="shared" si="123"/>
+        <v>-3.7715860040100302E-2</v>
+      </c>
+      <c r="O101" s="65">
+        <f t="shared" si="123"/>
+        <v>-0.14253695582285475</v>
+      </c>
+      <c r="P101" s="65">
+        <f t="shared" si="123"/>
+        <v>4.9430357136541092E-2</v>
+      </c>
+      <c r="Q101" s="65">
+        <f t="shared" si="123"/>
+        <v>0.17039326448620784</v>
+      </c>
+      <c r="R101" s="75"/>
+      <c r="AB101" s="75"/>
+    </row>
+    <row r="102" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="54" t="s">
+        <v>817</v>
+      </c>
+      <c r="I102" s="65">
+        <f t="shared" ref="I102:Q102" si="124">I5/H5-1</f>
+        <v>-0.1718722323906241</v>
+      </c>
+      <c r="J102" s="65">
+        <f t="shared" si="124"/>
+        <v>1.5855553971196352</v>
+      </c>
+      <c r="K102" s="65">
+        <f t="shared" si="124"/>
+        <v>7.5830690748635021E-4</v>
+      </c>
+      <c r="L102" s="65">
+        <f t="shared" si="124"/>
+        <v>-0.19132052076875383</v>
+      </c>
+      <c r="M102" s="65">
+        <f t="shared" si="124"/>
+        <v>-5.019762172476061E-2</v>
+      </c>
+      <c r="N102" s="65">
+        <f t="shared" si="124"/>
+        <v>0.13310852622799385</v>
+      </c>
+      <c r="O102" s="65">
+        <f t="shared" si="124"/>
+        <v>-0.15588270212513355</v>
+      </c>
+      <c r="P102" s="65">
+        <f t="shared" si="124"/>
+        <v>-9.2330051570557958E-2</v>
+      </c>
+      <c r="Q102" s="65">
+        <f t="shared" si="124"/>
+        <v>2.8924723407341979E-4</v>
+      </c>
+      <c r="R102" s="75"/>
+      <c r="AB102" s="75"/>
+    </row>
+    <row r="103" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="58" t="s">
+        <v>819</v>
+      </c>
+      <c r="I103" s="70">
+        <f t="shared" ref="I103:Q103" si="125">I6/H6-1</f>
+        <v>-0.23828539389738534</v>
+      </c>
+      <c r="J103" s="70">
+        <f t="shared" si="125"/>
+        <v>1.0549972940599743</v>
+      </c>
+      <c r="K103" s="70">
+        <f t="shared" si="125"/>
+        <v>-3.8935998856132414E-2</v>
+      </c>
+      <c r="L103" s="70">
+        <f t="shared" si="125"/>
+        <v>-6.1431667318194938E-2</v>
+      </c>
+      <c r="M103" s="70">
+        <f t="shared" si="125"/>
+        <v>7.4285635721933918E-2</v>
+      </c>
+      <c r="N103" s="70">
+        <f t="shared" si="125"/>
+        <v>0.13999233628213337</v>
+      </c>
+      <c r="O103" s="70">
+        <f t="shared" si="125"/>
+        <v>-1.726150932381687E-2</v>
+      </c>
+      <c r="P103" s="70">
+        <f t="shared" si="125"/>
+        <v>-0.14652505955360839</v>
+      </c>
+      <c r="Q103" s="70">
+        <f t="shared" si="125"/>
+        <v>3.3388630685857734E-2</v>
+      </c>
+      <c r="R103" s="76"/>
+      <c r="AB103" s="76"/>
+      <c r="AC103" s="58"/>
+      <c r="AD103" s="58"/>
+      <c r="AE103" s="58"/>
+      <c r="AF103" s="58"/>
+      <c r="AG103" s="58"/>
+      <c r="AH103" s="58"/>
+      <c r="AI103" s="58"/>
+      <c r="AJ103" s="58"/>
+      <c r="AK103" s="58"/>
+      <c r="AL103" s="58"/>
+      <c r="AM103" s="58"/>
+      <c r="AN103" s="58"/>
+      <c r="AO103" s="58"/>
+      <c r="AP103" s="58"/>
+      <c r="AQ103" s="58"/>
+      <c r="AR103" s="58"/>
+      <c r="AS103" s="58"/>
+      <c r="AT103" s="58"/>
+    </row>
+    <row r="104" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B104" s="32" t="s">
+        <v>820</v>
+      </c>
+      <c r="I104" s="65">
+        <f t="shared" ref="I104:Q104" si="126">I7/H7-1</f>
+        <v>-0.68959117130674685</v>
+      </c>
+      <c r="J104" s="65">
+        <f t="shared" si="126"/>
+        <v>3.0596315449256624</v>
+      </c>
+      <c r="K104" s="65">
+        <f t="shared" si="126"/>
+        <v>1.170892878468214</v>
+      </c>
+      <c r="L104" s="65">
+        <f t="shared" si="126"/>
+        <v>-0.60287888511964793</v>
+      </c>
+      <c r="M104" s="65">
+        <f t="shared" si="126"/>
+        <v>7.4063813085838204E-2</v>
+      </c>
+      <c r="N104" s="65">
+        <f t="shared" si="126"/>
+        <v>0.33695885817462701</v>
+      </c>
+      <c r="O104" s="65">
+        <f t="shared" si="126"/>
+        <v>0.17707964886330751</v>
+      </c>
+      <c r="P104" s="65">
+        <f t="shared" si="126"/>
+        <v>-0.27328853193465552</v>
+      </c>
+      <c r="Q104" s="65">
+        <f t="shared" si="126"/>
+        <v>5.7627246071723981E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B105" s="32" t="s">
+        <v>821</v>
+      </c>
+      <c r="I105" s="65">
+        <f t="shared" ref="I105:Q105" si="127">I8/H8-1</f>
+        <v>-5.2339367300907602E-3</v>
+      </c>
+      <c r="J105" s="65">
+        <f t="shared" si="127"/>
+        <v>7.8805848667189871E-2</v>
+      </c>
+      <c r="K105" s="65">
+        <f t="shared" si="127"/>
+        <v>-0.14270316878637646</v>
+      </c>
+      <c r="L105" s="65">
+        <f t="shared" si="127"/>
+        <v>-1.0297334674377672</v>
+      </c>
+      <c r="M105" s="65">
+        <f t="shared" si="127"/>
+        <v>-0.93234672304439747</v>
+      </c>
+      <c r="N105" s="65">
+        <f t="shared" si="127"/>
+        <v>-3.171875</v>
+      </c>
+      <c r="O105" s="65">
+        <f t="shared" si="127"/>
+        <v>30.97122302158273</v>
+      </c>
+      <c r="P105" s="65">
+        <f t="shared" si="127"/>
+        <v>-4.5904590459045824E-2</v>
+      </c>
+      <c r="Q105" s="65">
+        <f t="shared" si="127"/>
+        <v>0.98396226415094357</v>
+      </c>
+    </row>
+    <row r="107" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="H107" s="25">
+        <f>H12/H9</f>
+        <v>0.59414882180942552</v>
+      </c>
+      <c r="I107" s="25">
+        <f t="shared" ref="I107:R107" si="128">I12/I9</f>
+        <v>0.67817816969080325</v>
+      </c>
+      <c r="J107" s="25">
+        <f t="shared" si="128"/>
+        <v>0.38628115010177799</v>
+      </c>
+      <c r="K107" s="25">
+        <f t="shared" si="128"/>
+        <v>0.41729034611181637</v>
+      </c>
+      <c r="L107" s="25">
+        <f t="shared" si="128"/>
+        <v>0.40935415746960502</v>
+      </c>
+      <c r="M107" s="25">
+        <f t="shared" si="128"/>
+        <v>0.40324771703856505</v>
+      </c>
+      <c r="N107" s="25">
+        <f t="shared" si="128"/>
+        <v>0.38781726939332217</v>
+      </c>
+      <c r="O107" s="25">
+        <f t="shared" si="128"/>
+        <v>0.44184134893621202</v>
+      </c>
+      <c r="P107" s="25">
+        <f t="shared" si="128"/>
+        <v>0.45693399797839268</v>
+      </c>
+      <c r="Q107" s="25">
+        <f t="shared" si="128"/>
+        <v>0.44157808009594857</v>
+      </c>
+      <c r="R107" s="72">
+        <f t="shared" si="128"/>
+        <v>0.42895725935022022</v>
+      </c>
+      <c r="U107" s="25">
+        <f t="shared" ref="U107:AL107" si="129">U12/U9</f>
+        <v>0.37771430114149451</v>
+      </c>
+      <c r="V107" s="25">
+        <f t="shared" si="129"/>
+        <v>0.37760351403197812</v>
+      </c>
+      <c r="W107" s="25">
+        <f t="shared" si="129"/>
+        <v>0.42080964570985102</v>
+      </c>
+      <c r="X107" s="25">
+        <f t="shared" si="129"/>
+        <v>0.42023132239656397</v>
+      </c>
+      <c r="Y107" s="25">
+        <f t="shared" si="129"/>
+        <v>0.42409417497036345</v>
+      </c>
+      <c r="Z107" s="25">
+        <f t="shared" si="129"/>
+        <v>0.48538449900294256</v>
+      </c>
+      <c r="AA107" s="25">
+        <f t="shared" si="129"/>
+        <v>0.41078648134782536</v>
+      </c>
+      <c r="AB107" s="72">
+        <f t="shared" si="129"/>
+        <v>0.37352786459200688</v>
+      </c>
+      <c r="AC107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.3898998698173477</v>
+      </c>
+      <c r="AD107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.40687889459616033</v>
+      </c>
+      <c r="AE107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.42449147926761222</v>
+      </c>
+      <c r="AF107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.44276401542814858</v>
+      </c>
+      <c r="AG107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.46172244331878237</v>
+      </c>
+      <c r="AH107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.48172478086605175</v>
+      </c>
+      <c r="AI107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.48238207549596013</v>
+      </c>
+      <c r="AJ107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.48294740632301031</v>
+      </c>
+      <c r="AK107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.48343346744763499</v>
+      </c>
+      <c r="AL107" s="65">
+        <f t="shared" si="129"/>
+        <v>0.4838512463586328</v>
       </c>
     </row>
   </sheetData>
@@ -9216,7 +11200,7 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
   <ignoredErrors>
     <ignoredError sqref="Z6:AA6 L6:Q6 H6:K6 R12 R16 R19 R22 W6:X6 U6:V6" formulaRange="1"/>
-    <ignoredError sqref="Z54:Z71" formula="1"/>
+    <ignoredError sqref="Z54:Z71 AB11 AB14" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId12"/>
   <legacyDrawing r:id="rId13"/>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81AB4CF-B581-4578-B0A5-F0770A6E3318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A6228-E65D-4ACE-97AB-76ADEF5E8911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
@@ -2554,12 +2554,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.#\x"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="0.0\x"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -2821,7 +2822,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2974,66 +2975,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3057,6 +2998,67 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3752,30 +3754,30 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="G5" s="87" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="116"/>
+      <c r="G5" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
-      <c r="R5" s="84" t="s">
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
+      <c r="O5" s="116"/>
+      <c r="R5" s="111" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
-      <c r="W5" s="86"/>
+      <c r="S5" s="112"/>
+      <c r="T5" s="112"/>
+      <c r="U5" s="112"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="113"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
@@ -4152,11 +4154,11 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="87" t="s">
+      <c r="B15" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="88"/>
-      <c r="D15" s="89"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
       <c r="G15" s="63"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4193,10 +4195,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="105" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="91"/>
+      <c r="D16" s="106"/>
       <c r="G16" s="52">
         <v>44682</v>
       </c>
@@ -4237,10 +4239,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="106"/>
       <c r="G17" s="63"/>
       <c r="H17" s="61" t="s">
         <v>774</v>
@@ -4279,10 +4281,10 @@
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="106"/>
       <c r="G18" s="63"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4319,10 +4321,10 @@
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="92" t="s">
+      <c r="C19" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="93"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4431,11 +4433,11 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="116"/>
       <c r="G22" s="14" t="s">
         <v>31</v>
       </c>
@@ -4476,10 +4478,10 @@
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="106"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4516,10 +4518,10 @@
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="90">
+      <c r="C24" s="105">
         <v>1996</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="106"/>
       <c r="G24" s="52">
         <v>44228</v>
       </c>
@@ -4598,10 +4600,10 @@
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="90">
+      <c r="C26" s="105">
         <v>422</v>
       </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="106"/>
       <c r="G26" s="64"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4638,11 +4640,11 @@
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="94">
+      <c r="C27" s="119">
         <f>'Financial Model'!Q52</f>
         <v>954.39400000000001</v>
       </c>
-      <c r="D27" s="95"/>
+      <c r="D27" s="120"/>
       <c r="R27" s="37">
         <v>2020</v>
       </c>
@@ -4697,10 +4699,10 @@
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="105" t="s">
         <v>789</v>
       </c>
-      <c r="D29" s="91"/>
+      <c r="D29" s="106"/>
       <c r="R29" s="37">
         <v>2020</v>
       </c>
@@ -4728,10 +4730,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="100" t="s">
+      <c r="C30" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="101"/>
+      <c r="D30" s="108"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4804,11 +4806,11 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="89"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="116"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -4836,11 +4838,11 @@
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="98">
+      <c r="C34" s="103">
         <f>C12/SUM('Financial Model'!N20:Q20)</f>
         <v>15.715778773521555</v>
       </c>
-      <c r="D34" s="99"/>
+      <c r="D34" s="104"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -4868,11 +4870,11 @@
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="98">
+      <c r="C35" s="103">
         <f>C6/SUM('Financial Model'!N21:Q21)</f>
         <v>18.4823862349457</v>
       </c>
-      <c r="D35" s="99"/>
+      <c r="D35" s="104"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -4900,8 +4902,8 @@
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="91"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="106"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -4929,11 +4931,11 @@
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="98">
+      <c r="C37" s="103">
         <f>C6/'Financial Model'!Q77</f>
         <v>1.7736424834957014</v>
       </c>
-      <c r="D37" s="99"/>
+      <c r="D37" s="104"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -4961,11 +4963,11 @@
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="102">
+      <c r="C38" s="109">
         <f>C8/SUM('Financial Model'!N9:Q9)</f>
         <v>0.53569184551470383</v>
       </c>
-      <c r="D38" s="103"/>
+      <c r="D38" s="110"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -4993,11 +4995,11 @@
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="102">
+      <c r="C39" s="109">
         <f>C12/SUM('Financial Model'!N9:Q9)</f>
         <v>0.46991085532458332</v>
       </c>
-      <c r="D39" s="103"/>
+      <c r="D39" s="110"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5052,11 +5054,11 @@
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="96">
+      <c r="C41" s="101">
         <f>C6/'Financial Model'!AA21</f>
         <v>8.6491744709215048</v>
       </c>
-      <c r="D41" s="97"/>
+      <c r="D41" s="102"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5546,6 +5548,17 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="G5:O5"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
@@ -5558,17 +5571,6 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="G5:O5"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5723,10 +5725,10 @@
   <dimension ref="B1:BR107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK21" sqref="AK21"/>
+      <selection pane="bottomRight" activeCell="I31" sqref="I29:P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5816,58 +5818,58 @@
       <c r="AB1" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="105" t="s">
+      <c r="AC1" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="105" t="s">
+      <c r="AD1" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="105" t="s">
+      <c r="AE1" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="105" t="s">
+      <c r="AF1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="105" t="s">
+      <c r="AG1" s="85" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="105" t="s">
+      <c r="AH1" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="105" t="s">
+      <c r="AI1" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="105" t="s">
+      <c r="AJ1" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="105" t="s">
+      <c r="AK1" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="105" t="s">
+      <c r="AL1" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="105" t="s">
+      <c r="AM1" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="105" t="s">
+      <c r="AN1" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="105" t="s">
+      <c r="AO1" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" s="105" t="s">
+      <c r="AP1" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="105" t="s">
+      <c r="AQ1" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" s="105" t="s">
+      <c r="AR1" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="AS1" s="105" t="s">
+      <c r="AS1" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="AT1" s="105" t="s">
+      <c r="AT1" s="85" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5930,24 +5932,24 @@
       <c r="AB2" s="78" t="s">
         <v>811</v>
       </c>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="84"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="84"/>
+      <c r="AL2" s="84"/>
+      <c r="AM2" s="84"/>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="84"/>
+      <c r="AS2" s="84"/>
+      <c r="AT2" s="84"/>
     </row>
     <row r="3" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
@@ -6363,7 +6365,7 @@
         <v>126.54320280000002</v>
       </c>
       <c r="AD7" s="56">
-        <f t="shared" ref="AD7:AL7" si="3">AC7*1.06</f>
+        <f t="shared" ref="AD7:AG7" si="3">AC7*1.06</f>
         <v>134.13579496800003</v>
       </c>
       <c r="AE7" s="56">
@@ -6471,7 +6473,7 @@
         <v>3.4836749999999999</v>
       </c>
       <c r="AD8" s="56">
-        <f t="shared" ref="AD8:AL8" si="5">AC8*1.5</f>
+        <f t="shared" ref="AD8:AG8" si="5">AC8*1.5</f>
         <v>5.2255124999999998</v>
       </c>
       <c r="AE8" s="56">
@@ -6691,7 +6693,7 @@
         <v>3854.7264248999995</v>
       </c>
       <c r="AD10" s="56">
-        <f t="shared" ref="AD10:AL10" si="9">AD9*0.5</f>
+        <f t="shared" ref="AD10" si="9">AD9*0.5</f>
         <v>4617.3362369339984</v>
       </c>
       <c r="AE10" s="56">
@@ -6936,7 +6938,7 @@
         <v>5870.9270751953127</v>
       </c>
       <c r="AG12" s="56">
-        <f t="shared" ref="AG12:AL12" si="15">AF12*1.25</f>
+        <f t="shared" ref="AG12:AH12" si="15">AF12*1.25</f>
         <v>7338.6588439941406</v>
       </c>
       <c r="AH12" s="56">
@@ -7027,7 +7029,7 @@
         <v>33.609681000000002</v>
       </c>
       <c r="AD13" s="56">
-        <f t="shared" ref="AD13:AL13" si="17">AC13*1.05</f>
+        <f t="shared" ref="AD13:AG13" si="17">AC13*1.05</f>
         <v>35.290165050000006</v>
       </c>
       <c r="AE13" s="56">
@@ -7259,7 +7261,7 @@
         <v>-32.105941071428568</v>
       </c>
       <c r="AD15" s="56">
-        <f t="shared" ref="AD15:AL15" si="22">AC15*1.0125</f>
+        <f t="shared" ref="AD15:AG15" si="22">AC15*1.0125</f>
         <v>-32.507265334821426</v>
       </c>
       <c r="AE15" s="56">
@@ -8057,43 +8059,43 @@
         <f>AB20/AB22</f>
         <v>1.2200505070732806</v>
       </c>
-      <c r="AC21" s="111">
+      <c r="AC21" s="91">
         <f>AC20/AC22</f>
         <v>1.4424126377860977</v>
       </c>
-      <c r="AD21" s="111">
+      <c r="AD21" s="91">
         <f t="shared" ref="AD21:AL21" si="39">AD20/AD22</f>
         <v>1.4520434861810663</v>
       </c>
-      <c r="AE21" s="111">
+      <c r="AE21" s="91">
         <f t="shared" si="39"/>
         <v>1.4024468935022389</v>
       </c>
-      <c r="AF21" s="111">
+      <c r="AF21" s="91">
         <f t="shared" si="39"/>
         <v>1.502052997467723</v>
       </c>
-      <c r="AG21" s="111">
+      <c r="AG21" s="91">
         <f t="shared" si="39"/>
         <v>1.2672043983336556</v>
       </c>
-      <c r="AH21" s="111">
+      <c r="AH21" s="91">
         <f t="shared" si="39"/>
         <v>0.83283871185187663</v>
       </c>
-      <c r="AI21" s="111">
+      <c r="AI21" s="91">
         <f t="shared" si="39"/>
         <v>1.6269817867999326</v>
       </c>
-      <c r="AJ21" s="111">
+      <c r="AJ21" s="91">
         <f t="shared" si="39"/>
         <v>1.9447361225546234</v>
       </c>
-      <c r="AK21" s="111">
+      <c r="AK21" s="91">
         <f t="shared" si="39"/>
         <v>2.3264599493216704</v>
       </c>
-      <c r="AL21" s="111">
+      <c r="AL21" s="91">
         <f t="shared" si="39"/>
         <v>2.7850256315914441</v>
       </c>
@@ -8308,10 +8310,10 @@
         <v>0.19896386607047023</v>
       </c>
       <c r="AM24" s="58"/>
-      <c r="AN24" s="107" t="s">
+      <c r="AN24" s="87" t="s">
         <v>824</v>
       </c>
-      <c r="AO24" s="108">
+      <c r="AO24" s="88">
         <v>0.01</v>
       </c>
       <c r="AP24" s="58"/>
@@ -8388,40 +8390,40 @@
       <c r="AB25" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="AC25" s="105" t="s">
+      <c r="AC25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AD25" s="105" t="s">
+      <c r="AD25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AE25" s="105" t="s">
+      <c r="AE25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AF25" s="105" t="s">
+      <c r="AF25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AG25" s="105" t="s">
+      <c r="AG25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AH25" s="105" t="s">
+      <c r="AH25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AI25" s="105" t="s">
+      <c r="AI25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AJ25" s="105" t="s">
+      <c r="AJ25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AK25" s="105" t="s">
+      <c r="AK25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AL25" s="105" t="s">
+      <c r="AL25" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AN25" s="109" t="s">
+      <c r="AN25" s="89" t="s">
         <v>825</v>
       </c>
-      <c r="AO25" s="110">
+      <c r="AO25" s="90">
         <v>0.08</v>
       </c>
     </row>
@@ -8528,18 +8530,18 @@
         <f t="shared" si="52"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AM26" s="106"/>
-      <c r="AN26" s="109" t="s">
+      <c r="AM26" s="86"/>
+      <c r="AN26" s="89" t="s">
         <v>822</v>
       </c>
-      <c r="AO26" s="110">
+      <c r="AO26" s="90">
         <v>0.01</v>
       </c>
-      <c r="AP26" s="106"/>
-      <c r="AQ26" s="106"/>
-      <c r="AR26" s="106"/>
-      <c r="AS26" s="106"/>
-      <c r="AT26" s="106"/>
+      <c r="AP26" s="86"/>
+      <c r="AQ26" s="86"/>
+      <c r="AR26" s="86"/>
+      <c r="AS26" s="86"/>
+      <c r="AT26" s="86"/>
     </row>
     <row r="27" spans="2:70" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
@@ -8609,41 +8611,41 @@
       <c r="AB27" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="AC27" s="105" t="s">
+      <c r="AC27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AD27" s="105" t="s">
+      <c r="AD27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AE27" s="105" t="s">
+      <c r="AE27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AF27" s="105" t="s">
+      <c r="AF27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AG27" s="105" t="s">
+      <c r="AG27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AH27" s="105" t="s">
+      <c r="AH27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AI27" s="105" t="s">
+      <c r="AI27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AJ27" s="105" t="s">
+      <c r="AJ27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AK27" s="105" t="s">
+      <c r="AK27" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="AL27" s="105" t="s">
+      <c r="AL27" s="85" t="s">
         <v>87</v>
       </c>
       <c r="AM27" s="54"/>
-      <c r="AN27" s="109" t="s">
+      <c r="AN27" s="89" t="s">
         <v>823</v>
       </c>
-      <c r="AO27" s="112">
+      <c r="AO27" s="92">
         <f>NPV(AO25,AB20:BR20)</f>
         <v>12008.558929838589</v>
       </c>
@@ -8654,19 +8656,19 @@
       <c r="AT27" s="54"/>
     </row>
     <row r="28" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="AN28" s="109" t="s">
+      <c r="AN28" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AO28" s="120">
+      <c r="AO28" s="100">
         <f>Main!C11</f>
         <v>376.57900000000006</v>
       </c>
     </row>
     <row r="29" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="AN29" s="109" t="s">
+      <c r="AN29" s="89" t="s">
         <v>827</v>
       </c>
-      <c r="AO29" s="113">
+      <c r="AO29" s="93">
         <f>AO27+AO28</f>
         <v>12385.137929838589</v>
       </c>
@@ -8791,10 +8793,10 @@
         <f t="shared" si="59"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="AN30" s="114" t="s">
+      <c r="AN30" s="94" t="s">
         <v>828</v>
       </c>
-      <c r="AO30" s="115">
+      <c r="AO30" s="95">
         <f>AO29/Main!C7</f>
         <v>27.018189201218565</v>
       </c>
@@ -8919,10 +8921,10 @@
         <f t="shared" si="64"/>
         <v>3.9475178638201436E-2</v>
       </c>
-      <c r="AN31" s="116" t="s">
+      <c r="AN31" s="96" t="s">
         <v>829</v>
       </c>
-      <c r="AO31" s="117">
+      <c r="AO31" s="97">
         <f>Main!C6</f>
         <v>6.69</v>
       </c>
@@ -9047,10 +9049,10 @@
         <f t="shared" si="69"/>
         <v>3.247492706915444E-2</v>
       </c>
-      <c r="AN32" s="118" t="s">
+      <c r="AN32" s="98" t="s">
         <v>830</v>
       </c>
-      <c r="AO32" s="119">
+      <c r="AO32" s="99">
         <f>AO30/AO31-1</f>
         <v>3.0385933036201145</v>
       </c>
@@ -9175,7 +9177,7 @@
         <f t="shared" si="75"/>
         <v>0.15</v>
       </c>
-      <c r="AO33" s="111"/>
+      <c r="AO33" s="91"/>
     </row>
     <row r="36" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
@@ -9200,6 +9202,7 @@
       </c>
       <c r="R37" s="75"/>
       <c r="AB37" s="75"/>
+      <c r="AK37" s="121"/>
     </row>
     <row r="38" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
@@ -9219,6 +9222,7 @@
       </c>
       <c r="R38" s="75"/>
       <c r="AB38" s="75"/>
+      <c r="AK38" s="56"/>
     </row>
     <row r="39" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="67" t="s">
@@ -10795,7 +10799,7 @@
         <v>815</v>
       </c>
       <c r="I100" s="65">
-        <f t="shared" ref="I100:Q100" si="122">I3/H3-1</f>
+        <f t="shared" ref="I100:P100" si="122">I3/H3-1</f>
         <v>-0.28820449048700714</v>
       </c>
       <c r="J100" s="65">

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A6228-E65D-4ACE-97AB-76ADEF5E8911}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065FAFC-8C88-4D00-87A6-74436F4D858F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2998,6 +2998,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3058,7 +3059,6 @@
     <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3733,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749350E7-094F-4190-83AB-84EC4A5122F0}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3754,37 +3754,37 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="G5" s="114" t="s">
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="G5" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
-      <c r="O5" s="116"/>
-      <c r="R5" s="111" t="s">
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="117"/>
+      <c r="R5" s="112" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="112"/>
-      <c r="T5" s="112"/>
-      <c r="U5" s="112"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="113"/>
+      <c r="S5" s="113"/>
+      <c r="T5" s="113"/>
+      <c r="U5" s="113"/>
+      <c r="V5" s="113"/>
+      <c r="W5" s="114"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>6.69</v>
+        <v>6.48</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="52">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="C8" s="28">
         <f>C6*C7</f>
-        <v>3066.6959999999999</v>
+        <v>2970.4320000000002</v>
       </c>
       <c r="D8" s="30"/>
       <c r="G8" s="63"/>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C12" s="29">
         <f>C8-C11</f>
-        <v>2690.1169999999997</v>
+        <v>2593.8530000000001</v>
       </c>
       <c r="D12" s="31"/>
       <c r="G12" s="63"/>
@@ -4154,11 +4154,11 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="114" t="s">
+      <c r="B15" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="115"/>
-      <c r="D15" s="116"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="117"/>
       <c r="G15" s="63"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -4195,10 +4195,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="107"/>
       <c r="G16" s="52">
         <v>44682</v>
       </c>
@@ -4239,10 +4239,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="106"/>
+      <c r="D17" s="107"/>
       <c r="G17" s="63"/>
       <c r="H17" s="61" t="s">
         <v>774</v>
@@ -4281,10 +4281,10 @@
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="107"/>
       <c r="G18" s="63"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -4321,10 +4321,10 @@
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="117" t="s">
+      <c r="C19" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="118"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4433,11 +4433,11 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="114" t="s">
+      <c r="B22" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="116"/>
+      <c r="C22" s="116"/>
+      <c r="D22" s="117"/>
       <c r="G22" s="14" t="s">
         <v>31</v>
       </c>
@@ -4478,10 +4478,10 @@
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="105" t="s">
+      <c r="C23" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="106"/>
+      <c r="D23" s="107"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4518,10 +4518,10 @@
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="105">
+      <c r="C24" s="106">
         <v>1996</v>
       </c>
-      <c r="D24" s="106"/>
+      <c r="D24" s="107"/>
       <c r="G24" s="52">
         <v>44228</v>
       </c>
@@ -4600,10 +4600,10 @@
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="105">
+      <c r="C26" s="106">
         <v>422</v>
       </c>
-      <c r="D26" s="106"/>
+      <c r="D26" s="107"/>
       <c r="G26" s="64"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -4640,11 +4640,11 @@
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="120">
         <f>'Financial Model'!Q52</f>
         <v>954.39400000000001</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="121"/>
       <c r="R27" s="37">
         <v>2020</v>
       </c>
@@ -4699,10 +4699,10 @@
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="105" t="s">
+      <c r="C29" s="106" t="s">
         <v>789</v>
       </c>
-      <c r="D29" s="106"/>
+      <c r="D29" s="107"/>
       <c r="R29" s="37">
         <v>2020</v>
       </c>
@@ -4730,10 +4730,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="107" t="s">
+      <c r="C30" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="108"/>
+      <c r="D30" s="109"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4806,11 +4806,11 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="117"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -4838,11 +4838,11 @@
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="103">
+      <c r="C34" s="104">
         <f>C12/SUM('Financial Model'!N20:Q20)</f>
-        <v>15.715778773521555</v>
-      </c>
-      <c r="D34" s="104"/>
+        <v>15.153400361038278</v>
+      </c>
+      <c r="D34" s="105"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -4870,11 +4870,11 @@
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="103">
+      <c r="C35" s="104">
         <f>C6/SUM('Financial Model'!N21:Q21)</f>
-        <v>18.4823862349457</v>
-      </c>
-      <c r="D35" s="104"/>
+        <v>17.902221644611082</v>
+      </c>
+      <c r="D35" s="105"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -4902,8 +4902,8 @@
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="106"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="107"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -4931,11 +4931,11 @@
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="103">
+      <c r="C37" s="104">
         <f>C6/'Financial Model'!Q77</f>
-        <v>1.7736424834957014</v>
-      </c>
-      <c r="D37" s="104"/>
+        <v>1.7179676073321593</v>
+      </c>
+      <c r="D37" s="105"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -4963,11 +4963,11 @@
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="109">
+      <c r="C38" s="110">
         <f>C8/SUM('Financial Model'!N9:Q9)</f>
-        <v>0.53569184551470383</v>
-      </c>
-      <c r="D38" s="110"/>
+        <v>0.51887640641782984</v>
+      </c>
+      <c r="D38" s="111"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -4995,11 +4995,11 @@
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="109">
+      <c r="C39" s="110">
         <f>C12/SUM('Financial Model'!N9:Q9)</f>
-        <v>0.46991085532458332</v>
-      </c>
-      <c r="D39" s="110"/>
+        <v>0.45309541622770927</v>
+      </c>
+      <c r="D39" s="111"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5054,11 +5054,11 @@
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="101">
+      <c r="C41" s="102">
         <f>C6/'Financial Model'!AA21</f>
-        <v>8.6491744709215048</v>
-      </c>
-      <c r="D41" s="102"/>
+        <v>8.3776757207132064</v>
+      </c>
+      <c r="D41" s="103"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5724,11 +5724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
   <dimension ref="B1:BR107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I29:P31"/>
+      <selection pane="bottomRight" activeCell="L92" sqref="L92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7852,131 +7852,131 @@
       </c>
       <c r="AM20" s="55">
         <f>AL20*(1+$AO$24)</f>
-        <v>1289.4645001550518</v>
+        <v>1263.930549656932</v>
       </c>
       <c r="AN20" s="55">
         <f t="shared" ref="AN20:BR20" si="34">AM20*(1+$AO$24)</f>
-        <v>1302.3591451566024</v>
+        <v>1251.2912441603628</v>
       </c>
       <c r="AO20" s="55">
         <f t="shared" si="34"/>
-        <v>1315.3827366081684</v>
+        <v>1238.7783317187591</v>
       </c>
       <c r="AP20" s="55">
         <f t="shared" si="34"/>
-        <v>1328.5365639742502</v>
+        <v>1226.3905484015716</v>
       </c>
       <c r="AQ20" s="55">
         <f t="shared" si="34"/>
-        <v>1341.8219296139928</v>
+        <v>1214.1266429175557</v>
       </c>
       <c r="AR20" s="55">
         <f t="shared" si="34"/>
-        <v>1355.2401489101328</v>
+        <v>1201.9853764883801</v>
       </c>
       <c r="AS20" s="55">
         <f t="shared" si="34"/>
-        <v>1368.7925503992342</v>
+        <v>1189.9655227234962</v>
       </c>
       <c r="AT20" s="55">
         <f t="shared" si="34"/>
-        <v>1382.4804759032265</v>
+        <v>1178.0658674962613</v>
       </c>
       <c r="AU20" s="55">
         <f t="shared" si="34"/>
-        <v>1396.3052806622588</v>
+        <v>1166.2852088212987</v>
       </c>
       <c r="AV20" s="55">
         <f t="shared" si="34"/>
-        <v>1410.2683334688813</v>
+        <v>1154.6223567330858</v>
       </c>
       <c r="AW20" s="55">
         <f t="shared" si="34"/>
-        <v>1424.3710168035702</v>
+        <v>1143.076133165755</v>
       </c>
       <c r="AX20" s="55">
         <f t="shared" si="34"/>
-        <v>1438.6147269716059</v>
+        <v>1131.6453718340974</v>
       </c>
       <c r="AY20" s="55">
         <f t="shared" si="34"/>
-        <v>1453.000874241322</v>
+        <v>1120.3289181157566</v>
       </c>
       <c r="AZ20" s="55">
         <f t="shared" si="34"/>
-        <v>1467.5308829837352</v>
+        <v>1109.125628934599</v>
       </c>
       <c r="BA20" s="55">
         <f t="shared" si="34"/>
-        <v>1482.2061918135726</v>
+        <v>1098.0343726452531</v>
       </c>
       <c r="BB20" s="55">
         <f t="shared" si="34"/>
-        <v>1497.0282537317082</v>
+        <v>1087.0540289188007</v>
       </c>
       <c r="BC20" s="55">
         <f t="shared" si="34"/>
-        <v>1511.9985362690254</v>
+        <v>1076.1834886296126</v>
       </c>
       <c r="BD20" s="55">
         <f t="shared" si="34"/>
-        <v>1527.1185216317156</v>
+        <v>1065.4216537433165</v>
       </c>
       <c r="BE20" s="55">
         <f t="shared" si="34"/>
-        <v>1542.3897068480328</v>
+        <v>1054.7674372058832</v>
       </c>
       <c r="BF20" s="55">
         <f t="shared" si="34"/>
-        <v>1557.8136039165131</v>
+        <v>1044.2197628338245</v>
       </c>
       <c r="BG20" s="55">
         <f t="shared" si="34"/>
-        <v>1573.3917399556783</v>
+        <v>1033.7775652054861</v>
       </c>
       <c r="BH20" s="55">
         <f t="shared" si="34"/>
-        <v>1589.125657355235</v>
+        <v>1023.4397895534312</v>
       </c>
       <c r="BI20" s="55">
         <f t="shared" si="34"/>
-        <v>1605.0169139287873</v>
+        <v>1013.2053916578968</v>
       </c>
       <c r="BJ20" s="55">
         <f t="shared" si="34"/>
-        <v>1621.0670830680751</v>
+        <v>1003.0733377413178</v>
       </c>
       <c r="BK20" s="55">
         <f t="shared" si="34"/>
-        <v>1637.2777538987559</v>
+        <v>993.04260436390462</v>
       </c>
       <c r="BL20" s="55">
         <f t="shared" si="34"/>
-        <v>1653.6505314377434</v>
+        <v>983.11217832026557</v>
       </c>
       <c r="BM20" s="55">
         <f t="shared" si="34"/>
-        <v>1670.1870367521208</v>
+        <v>973.28105653706291</v>
       </c>
       <c r="BN20" s="55">
         <f t="shared" si="34"/>
-        <v>1686.888907119642</v>
+        <v>963.54824597169227</v>
       </c>
       <c r="BO20" s="55">
         <f t="shared" si="34"/>
-        <v>1703.7577961908385</v>
+        <v>953.9127635119753</v>
       </c>
       <c r="BP20" s="55">
         <f t="shared" si="34"/>
-        <v>1720.7953741527469</v>
+        <v>944.37363587685559</v>
       </c>
       <c r="BQ20" s="55">
         <f t="shared" si="34"/>
-        <v>1738.0033278942744</v>
+        <v>934.92989951808704</v>
       </c>
       <c r="BR20" s="55">
         <f t="shared" si="34"/>
-        <v>1755.3833611732173</v>
+        <v>925.58060052290614</v>
       </c>
     </row>
     <row r="21" spans="2:70" x14ac:dyDescent="0.2">
@@ -8314,7 +8314,7 @@
         <v>824</v>
       </c>
       <c r="AO24" s="88">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="AP24" s="58"/>
       <c r="AQ24" s="58"/>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="AO27" s="92">
         <f>NPV(AO25,AB20:BR20)</f>
-        <v>12008.558929838589</v>
+        <v>10684.690065769553</v>
       </c>
       <c r="AP27" s="54"/>
       <c r="AQ27" s="54"/>
@@ -8670,7 +8670,7 @@
       </c>
       <c r="AO29" s="93">
         <f>AO27+AO28</f>
-        <v>12385.137929838589</v>
+        <v>11061.269065769553</v>
       </c>
     </row>
     <row r="30" spans="2:70" x14ac:dyDescent="0.2">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="AO30" s="95">
         <f>AO29/Main!C7</f>
-        <v>27.018189201218565</v>
+        <v>24.130168119043528</v>
       </c>
     </row>
     <row r="31" spans="2:70" x14ac:dyDescent="0.2">
@@ -8926,7 +8926,7 @@
       </c>
       <c r="AO31" s="97">
         <f>Main!C6</f>
-        <v>6.69</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="32" spans="2:70" x14ac:dyDescent="0.2">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="AO32" s="99">
         <f>AO30/AO31-1</f>
-        <v>3.0385933036201145</v>
+        <v>2.7237913763956061</v>
       </c>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.2">
@@ -9188,12 +9188,18 @@
       <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
+      <c r="J37" s="32">
+        <v>172</v>
+      </c>
       <c r="K37" s="32">
         <v>176</v>
       </c>
       <c r="M37" s="32">
         <v>178</v>
       </c>
+      <c r="N37" s="32">
+        <v>179</v>
+      </c>
       <c r="O37" s="32">
         <v>180</v>
       </c>
@@ -9202,17 +9208,23 @@
       </c>
       <c r="R37" s="75"/>
       <c r="AB37" s="75"/>
-      <c r="AK37" s="121"/>
+      <c r="AK37" s="101"/>
     </row>
     <row r="38" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
+      <c r="J38" s="32">
+        <v>18</v>
+      </c>
       <c r="K38" s="32">
         <v>18</v>
       </c>
       <c r="M38" s="32">
         <v>17</v>
+      </c>
+      <c r="N38" s="32">
+        <v>18</v>
       </c>
       <c r="O38" s="32">
         <v>19</v>
@@ -9228,6 +9240,10 @@
       <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
+      <c r="J39" s="32">
+        <f>J37+J38</f>
+        <v>190</v>
+      </c>
       <c r="K39" s="32">
         <f>K37+K38</f>
         <v>194</v>
@@ -9236,6 +9252,10 @@
         <f>M37+M38</f>
         <v>195</v>
       </c>
+      <c r="N39" s="32">
+        <f>N37+N38</f>
+        <v>197</v>
+      </c>
       <c r="O39" s="32">
         <f>O37+O38</f>
         <v>199</v>
@@ -9251,11 +9271,17 @@
       <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
+      <c r="J40" s="32">
+        <v>122</v>
+      </c>
       <c r="K40" s="32">
         <v>134</v>
       </c>
       <c r="M40" s="32">
         <v>137</v>
+      </c>
+      <c r="N40" s="32">
+        <v>144</v>
       </c>
       <c r="O40" s="32">
         <v>144</v>
@@ -9270,10 +9296,16 @@
       <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
+      <c r="J41" s="32">
+        <v>116</v>
+      </c>
       <c r="K41" s="32">
         <v>111</v>
       </c>
       <c r="M41" s="32">
+        <v>95</v>
+      </c>
+      <c r="N41" s="32">
         <v>95</v>
       </c>
       <c r="O41" s="32">
@@ -9289,6 +9321,10 @@
       <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
+      <c r="J42" s="32">
+        <f>J40+J41</f>
+        <v>238</v>
+      </c>
       <c r="K42" s="32">
         <f>K40+K41</f>
         <v>245</v>
@@ -9297,6 +9333,10 @@
         <f>M40+M41</f>
         <v>232</v>
       </c>
+      <c r="N42" s="32">
+        <f>N40+N41</f>
+        <v>239</v>
+      </c>
       <c r="O42" s="32">
         <f>O40+O41</f>
         <v>223</v>
@@ -9312,6 +9352,9 @@
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
+      <c r="J43" s="1">
+        <v>294</v>
+      </c>
       <c r="K43" s="32">
         <f>K37+K40</f>
         <v>310</v>
@@ -9320,6 +9363,9 @@
         <f>M37+M40</f>
         <v>315</v>
       </c>
+      <c r="N43" s="1">
+        <v>323</v>
+      </c>
       <c r="O43" s="32">
         <f>O37+O40</f>
         <v>324</v>
@@ -9333,6 +9379,9 @@
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
+      <c r="J44" s="1">
+        <v>134</v>
+      </c>
       <c r="K44" s="1">
         <f>K38+K41</f>
         <v>129</v>
@@ -9341,6 +9390,9 @@
         <f>M38+M41</f>
         <v>112</v>
       </c>
+      <c r="N44" s="1">
+        <v>113</v>
+      </c>
       <c r="O44" s="1">
         <f>O38+O41</f>
         <v>98</v>
@@ -9354,6 +9406,10 @@
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
+      <c r="J45" s="58">
+        <f>J43+J44</f>
+        <v>428</v>
+      </c>
       <c r="K45" s="58">
         <f>K43+K44</f>
         <v>439</v>
@@ -9362,6 +9418,10 @@
         <f>M43+M44</f>
         <v>427</v>
       </c>
+      <c r="N45" s="58">
+        <f>N43+N44</f>
+        <v>436</v>
+      </c>
       <c r="O45" s="58">
         <f>O43+O44</f>
         <v>422</v>
@@ -9385,6 +9445,10 @@
     <row r="47" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>814</v>
+      </c>
+      <c r="J47" s="53">
+        <f>J6/J45</f>
+        <v>3.2027757009345796</v>
       </c>
       <c r="K47" s="53">
         <f>K6/K45</f>
@@ -9395,7 +9459,10 @@
         <f>M6/M45</f>
         <v>3.1108594847775177</v>
       </c>
-      <c r="N47" s="53"/>
+      <c r="N47" s="53">
+        <f>N6/N45</f>
+        <v>3.4731513761467894</v>
+      </c>
       <c r="O47" s="53">
         <f>O6/O45</f>
         <v>3.5264336492891002</v>
@@ -9427,8 +9494,14 @@
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="J50" s="21">
+        <v>865.60900000000004</v>
+      </c>
       <c r="K50" s="21">
         <v>1517.3610000000001</v>
+      </c>
+      <c r="N50" s="21">
+        <v>1253.7059999999999</v>
       </c>
       <c r="O50" s="21">
         <v>1669.453</v>
@@ -9471,8 +9544,14 @@
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="J51" s="22">
+        <v>806.91600000000005</v>
+      </c>
       <c r="K51" s="22">
         <v>527.34</v>
+      </c>
+      <c r="N51" s="22">
+        <v>735.779</v>
       </c>
       <c r="O51" s="22">
         <v>569.01400000000001</v>
@@ -9495,8 +9574,14 @@
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="J52" s="21">
+        <v>1056.845</v>
+      </c>
       <c r="K52" s="21">
         <v>895.97400000000005</v>
+      </c>
+      <c r="N52" s="21">
+        <v>837.74</v>
       </c>
       <c r="O52" s="21">
         <v>811.41</v>
@@ -9539,8 +9624,14 @@
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="J53" s="22">
+        <v>243.971</v>
+      </c>
       <c r="K53" s="22">
         <v>282.3</v>
+      </c>
+      <c r="N53" s="22">
+        <v>300.71899999999999</v>
       </c>
       <c r="O53" s="22">
         <v>286.42200000000003</v>
@@ -9572,8 +9663,8 @@
         <v>0</v>
       </c>
       <c r="J54" s="22">
-        <f t="shared" si="77"/>
-        <v>0</v>
+        <f>SUM(J50:J53)</f>
+        <v>2973.3409999999999</v>
       </c>
       <c r="K54" s="22">
         <f t="shared" si="77"/>
@@ -9589,7 +9680,7 @@
       </c>
       <c r="N54" s="22">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>3127.944</v>
       </c>
       <c r="O54" s="22">
         <f>SUM(O50:O53)</f>
@@ -9616,8 +9707,14 @@
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="J55" s="22">
+        <v>680.87099999999998</v>
+      </c>
       <c r="K55" s="22">
         <v>658.678</v>
+      </c>
+      <c r="N55" s="22">
+        <v>601.70000000000005</v>
       </c>
       <c r="O55" s="22">
         <v>607.226</v>
@@ -9640,8 +9737,14 @@
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="J56" s="22">
+        <v>560.14599999999996</v>
+      </c>
       <c r="K56" s="22">
         <v>536.66</v>
+      </c>
+      <c r="N56" s="22">
+        <v>469.63799999999998</v>
       </c>
       <c r="O56" s="22">
         <v>448.36399999999998</v>
@@ -9664,10 +9767,18 @@
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="J57" s="22">
+        <f>493.631+37.274</f>
+        <v>530.90499999999997</v>
+      </c>
       <c r="K57" s="22">
         <f>502.214+13.295</f>
         <v>515.50900000000001</v>
       </c>
+      <c r="N57" s="22">
+        <f>498.166+11.474</f>
+        <v>509.64</v>
+      </c>
       <c r="O57" s="22">
         <f>495.215+11.01</f>
         <v>506.22499999999997</v>
@@ -9693,8 +9804,14 @@
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="J58" s="22">
+        <v>45.994999999999997</v>
+      </c>
       <c r="K58" s="22">
         <v>23.93</v>
+      </c>
+      <c r="N58" s="22">
+        <v>34.542999999999999</v>
       </c>
       <c r="O58" s="22">
         <v>17.812000000000001</v>
@@ -9717,8 +9834,14 @@
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="J59" s="22">
+        <v>72.293000000000006</v>
+      </c>
       <c r="K59" s="22">
         <v>72.876000000000005</v>
+      </c>
+      <c r="N59" s="22">
+        <v>78.835999999999999</v>
       </c>
       <c r="O59" s="22">
         <v>75.47</v>
@@ -9751,7 +9874,7 @@
       </c>
       <c r="J60" s="22">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>4863.5509999999995</v>
       </c>
       <c r="K60" s="22">
         <f t="shared" si="79"/>
@@ -9767,7 +9890,7 @@
       </c>
       <c r="N60" s="22">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>4822.3010000000004</v>
       </c>
       <c r="O60" s="22">
         <f>O54+O55+O56+O57+O58+O59</f>
@@ -9800,8 +9923,14 @@
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="J62" s="22">
+        <v>643.31500000000005</v>
+      </c>
       <c r="K62" s="22">
         <v>575.95399999999995</v>
+      </c>
+      <c r="N62" s="22">
+        <v>532.91899999999998</v>
       </c>
       <c r="O62" s="22">
         <v>613.30700000000002</v>
@@ -9824,8 +9953,14 @@
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="J63" s="22">
+        <v>309.096</v>
+      </c>
       <c r="K63" s="22">
         <v>378.85899999999998</v>
+      </c>
+      <c r="N63" s="22">
+        <v>388.27499999999998</v>
       </c>
       <c r="O63" s="22">
         <v>460.16500000000002</v>
@@ -9848,8 +9983,14 @@
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="J64" s="22">
+        <v>197.49600000000001</v>
+      </c>
       <c r="K64" s="22">
         <v>203.399</v>
+      </c>
+      <c r="N64" s="22">
+        <v>174.274</v>
       </c>
       <c r="O64" s="22">
         <v>164.29400000000001</v>
@@ -9872,8 +10013,14 @@
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="J65" s="22">
+        <v>156.88499999999999</v>
+      </c>
       <c r="K65" s="22">
         <v>162.56100000000001</v>
+      </c>
+      <c r="N65" s="22">
+        <v>142.566</v>
       </c>
       <c r="O65" s="22">
         <v>138.684</v>
@@ -9896,8 +10043,14 @@
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="J66" s="22">
+        <v>141.607</v>
+      </c>
       <c r="K66" s="22">
         <v>92.503</v>
+      </c>
+      <c r="N66" s="22">
+        <v>116.504</v>
       </c>
       <c r="O66" s="22">
         <v>73.745999999999995</v>
@@ -9930,7 +10083,7 @@
       </c>
       <c r="J67" s="22">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1448.3990000000001</v>
       </c>
       <c r="K67" s="22">
         <f t="shared" si="81"/>
@@ -9946,7 +10099,7 @@
       </c>
       <c r="N67" s="22">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1354.5379999999998</v>
       </c>
       <c r="O67" s="22">
         <f>SUM(O62:O66)</f>
@@ -9973,8 +10126,14 @@
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="J68" s="21">
+        <v>997.34699999999998</v>
+      </c>
       <c r="K68" s="21">
         <v>1003.556</v>
+      </c>
+      <c r="N68" s="21">
+        <v>662.90300000000002</v>
       </c>
       <c r="O68" s="21">
         <v>662.53099999999995</v>
@@ -10017,8 +10176,14 @@
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="J69" s="22">
+        <v>872.79100000000005</v>
+      </c>
       <c r="K69" s="22">
         <v>839.41399999999999</v>
+      </c>
+      <c r="N69" s="22">
+        <v>728.077</v>
       </c>
       <c r="O69" s="22">
         <v>703.11099999999999</v>
@@ -10041,8 +10206,14 @@
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="J70" s="22">
+        <v>74.668000000000006</v>
+      </c>
       <c r="K70" s="22">
         <v>98.388999999999996</v>
+      </c>
+      <c r="N70" s="22">
+        <v>99.034000000000006</v>
       </c>
       <c r="O70" s="22">
         <v>86.584000000000003</v>
@@ -10075,7 +10246,7 @@
       </c>
       <c r="J71" s="22">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>3393.2050000000004</v>
       </c>
       <c r="K71" s="22">
         <f t="shared" si="82"/>
@@ -10091,7 +10262,7 @@
       </c>
       <c r="N71" s="22">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2844.5520000000001</v>
       </c>
       <c r="O71" s="22">
         <f>O67+O68+O69+O70</f>
@@ -10123,8 +10294,14 @@
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="J73" s="22">
+        <v>1470.346</v>
+      </c>
       <c r="K73" s="22">
         <v>1675.9929999999999</v>
+      </c>
+      <c r="N73" s="22">
+        <v>1977.749</v>
       </c>
       <c r="O73" s="22">
         <v>2088.9940000000001</v>
@@ -10147,10 +10324,18 @@
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="J74" s="22">
+        <f>J71+J73</f>
+        <v>4863.5510000000004</v>
+      </c>
       <c r="K74" s="22">
         <f>K71+K73</f>
         <v>5030.6280000000006</v>
       </c>
+      <c r="N74" s="22">
+        <f>N71+N73</f>
+        <v>4822.3010000000004</v>
+      </c>
       <c r="O74" s="22">
         <f>O71+O73</f>
         <v>4991.4159999999993</v>
@@ -10176,12 +10361,20 @@
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
+      <c r="J76" s="22">
+        <f t="shared" ref="J76:K76" si="84">J60-J71</f>
+        <v>1470.3459999999991</v>
+      </c>
       <c r="K76" s="22">
-        <f t="shared" ref="K76" si="84">K60-K71</f>
+        <f t="shared" si="84"/>
         <v>1675.9930000000004</v>
       </c>
+      <c r="N76" s="22">
+        <f t="shared" ref="N76:O76" si="85">N60-N71</f>
+        <v>1977.7490000000003</v>
+      </c>
       <c r="O76" s="22">
-        <f t="shared" ref="O76" si="85">O60-O71</f>
+        <f t="shared" si="85"/>
         <v>2088.9740000000011</v>
       </c>
       <c r="P76" s="22">
@@ -10205,12 +10398,20 @@
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
+      <c r="J77" s="53">
+        <f t="shared" ref="J77:K77" si="87">J76/J22</f>
+        <v>3.2196840634675921</v>
+      </c>
       <c r="K77" s="53">
-        <f t="shared" ref="K77" si="87">K76/K22</f>
+        <f t="shared" si="87"/>
         <v>3.6850318044198591</v>
       </c>
+      <c r="N77" s="53">
+        <f t="shared" ref="N77:O77" si="88">N76/N22</f>
+        <v>4.2079586895374916</v>
+      </c>
       <c r="O77" s="53">
-        <f t="shared" ref="O77" si="88">O76/O22</f>
+        <f t="shared" si="88"/>
         <v>4.3869603383608675</v>
       </c>
       <c r="P77" s="53">
@@ -10233,6 +10434,10 @@
     <row r="79" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="58" t="s">
         <v>790</v>
+      </c>
+      <c r="N79" s="70">
+        <f>N52/J52-1</f>
+        <v>-0.20731990026919744</v>
       </c>
       <c r="O79" s="70">
         <f>O52/K52-1</f>
@@ -10249,8 +10454,16 @@
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
+      <c r="K80" s="65">
+        <f t="shared" ref="K80" si="89">K52/J52-1</f>
+        <v>-0.15221815876500333</v>
+      </c>
+      <c r="O80" s="65">
+        <f t="shared" ref="O80" si="90">O52/N52-1</f>
+        <v>-3.1429799221715626E-2</v>
+      </c>
       <c r="P80" s="65">
-        <f t="shared" ref="P80" si="89">P52/O52-1</f>
+        <f t="shared" ref="P80" si="91">P52/O52-1</f>
         <v>1.6076952465461369E-2</v>
       </c>
       <c r="Q80" s="65">
@@ -10265,39 +10478,39 @@
         <v>6</v>
       </c>
       <c r="H82" s="56">
-        <f t="shared" ref="H82:N82" si="90">H50</f>
+        <f t="shared" ref="H82:N82" si="92">H50</f>
         <v>0</v>
       </c>
       <c r="I82" s="56">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
       <c r="J82" s="56">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="J82:K82" si="93">J50</f>
+        <v>865.60900000000004</v>
+      </c>
+      <c r="K82" s="56">
+        <f t="shared" si="92"/>
+        <v>1517.3610000000001</v>
+      </c>
+      <c r="L82" s="56">
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="K82" s="56">
-        <f t="shared" si="90"/>
-        <v>1517.3610000000001</v>
-      </c>
-      <c r="L82" s="56">
-        <f t="shared" si="90"/>
+      <c r="M82" s="56">
+        <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="M82" s="56">
-        <f t="shared" si="90"/>
-        <v>0</v>
-      </c>
       <c r="N82" s="56">
-        <f t="shared" si="90"/>
-        <v>0</v>
+        <f t="shared" si="92"/>
+        <v>1253.7059999999999</v>
       </c>
       <c r="O82" s="56">
-        <f t="shared" ref="O82:P82" si="91">O50</f>
+        <f t="shared" ref="O82:P82" si="94">O50</f>
         <v>1669.453</v>
       </c>
       <c r="P82" s="56">
-        <f t="shared" si="91"/>
+        <f t="shared" si="94"/>
         <v>1009.139</v>
       </c>
       <c r="Q82" s="56">
@@ -10306,11 +10519,11 @@
       </c>
       <c r="R82" s="74"/>
       <c r="Z82" s="56">
-        <f t="shared" ref="Z82:AA82" si="92">Z50</f>
+        <f t="shared" ref="Z82:AA82" si="95">Z50</f>
         <v>1517.3610000000001</v>
       </c>
       <c r="AA82" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>1669.453</v>
       </c>
       <c r="AB82" s="75"/>
@@ -10320,39 +10533,39 @@
         <v>7</v>
       </c>
       <c r="H83" s="56">
-        <f t="shared" ref="H83:N83" si="93">H68</f>
+        <f t="shared" ref="H83:N83" si="96">H68</f>
         <v>0</v>
       </c>
       <c r="I83" s="56">
-        <f t="shared" si="93"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="J83" s="56">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="J83:K83" si="97">J68</f>
+        <v>997.34699999999998</v>
+      </c>
+      <c r="K83" s="56">
+        <f t="shared" si="96"/>
+        <v>1003.556</v>
+      </c>
+      <c r="L83" s="56">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="K83" s="56">
-        <f t="shared" si="93"/>
-        <v>1003.556</v>
-      </c>
-      <c r="L83" s="56">
-        <f t="shared" si="93"/>
+      <c r="M83" s="56">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="M83" s="56">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
       <c r="N83" s="56">
-        <f t="shared" si="93"/>
-        <v>0</v>
+        <f t="shared" si="96"/>
+        <v>662.90300000000002</v>
       </c>
       <c r="O83" s="56">
-        <f t="shared" ref="O83:P83" si="94">O68</f>
+        <f t="shared" ref="O83:P83" si="98">O68</f>
         <v>662.53099999999995</v>
       </c>
       <c r="P83" s="56">
-        <f t="shared" si="94"/>
+        <f t="shared" si="98"/>
         <v>672.28599999999994</v>
       </c>
       <c r="Q83" s="56">
@@ -10361,11 +10574,11 @@
       </c>
       <c r="R83" s="74"/>
       <c r="Z83" s="56">
-        <f t="shared" ref="Z83:AA83" si="95">Z68</f>
+        <f t="shared" ref="Z83:AA83" si="99">Z68</f>
         <v>1003.556</v>
       </c>
       <c r="AA83" s="56">
-        <f t="shared" si="95"/>
+        <f t="shared" si="99"/>
         <v>662.53099999999995</v>
       </c>
       <c r="AB83" s="75"/>
@@ -10375,39 +10588,39 @@
         <v>8</v>
       </c>
       <c r="H84" s="22">
-        <f t="shared" ref="H84:N84" si="96">H82-H83</f>
+        <f t="shared" ref="H84:N84" si="100">H82-H83</f>
         <v>0</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="96"/>
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="J84" s="22">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="J84:K84" si="101">J82-J83</f>
+        <v>-131.73799999999994</v>
+      </c>
+      <c r="K84" s="22">
+        <f t="shared" si="100"/>
+        <v>513.80500000000006</v>
+      </c>
+      <c r="L84" s="22">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="K84" s="22">
-        <f t="shared" si="96"/>
-        <v>513.80500000000006</v>
-      </c>
-      <c r="L84" s="22">
-        <f t="shared" si="96"/>
+      <c r="M84" s="22">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="M84" s="22">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
       <c r="N84" s="22">
-        <f t="shared" si="96"/>
-        <v>0</v>
+        <f t="shared" si="100"/>
+        <v>590.80299999999988</v>
       </c>
       <c r="O84" s="22">
-        <f t="shared" ref="O84:P84" si="97">O82-O83</f>
+        <f t="shared" ref="O84:P84" si="102">O82-O83</f>
         <v>1006.922</v>
       </c>
       <c r="P84" s="22">
-        <f t="shared" si="97"/>
+        <f t="shared" si="102"/>
         <v>336.85300000000007</v>
       </c>
       <c r="Q84" s="22">
@@ -10416,11 +10629,11 @@
       </c>
       <c r="R84" s="74"/>
       <c r="Z84" s="22">
-        <f t="shared" ref="Z84:AA84" si="98">Z82-Z83</f>
+        <f t="shared" ref="Z84:AA84" si="103">Z82-Z83</f>
         <v>513.80500000000006</v>
       </c>
       <c r="AA84" s="22">
-        <f t="shared" si="98"/>
+        <f t="shared" si="103"/>
         <v>1006.922</v>
       </c>
     </row>
@@ -10491,64 +10704,64 @@
         <v>3808.6451099999999</v>
       </c>
       <c r="I87" s="56">
-        <f t="shared" ref="I87:Q87" si="99">I86*I22</f>
+        <f t="shared" ref="I87:Q87" si="104">I86*I22</f>
         <v>4014.4296399999998</v>
       </c>
       <c r="J87" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>4493.6721600000001</v>
       </c>
       <c r="K87" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>6767.5876799999996</v>
       </c>
       <c r="L87" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>8418.0184399999998</v>
       </c>
       <c r="M87" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>8534.8462799999998</v>
       </c>
       <c r="N87" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>8234.4350400000003</v>
       </c>
       <c r="O87" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>8590.251119999999</v>
       </c>
       <c r="P87" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>7580.5139999999992</v>
       </c>
       <c r="Q87" s="56">
-        <f t="shared" si="99"/>
+        <f t="shared" si="104"/>
         <v>3474.7857000000004</v>
       </c>
       <c r="R87" s="75"/>
       <c r="V87" s="56">
-        <f t="shared" ref="V87:Y87" si="100">V86*V22</f>
+        <f t="shared" ref="V87:Y87" si="105">V86*V22</f>
         <v>10982.426100000001</v>
       </c>
       <c r="W87" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>5870.5102799999995</v>
       </c>
       <c r="X87" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>7208.8285500000011</v>
       </c>
       <c r="Y87" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="105"/>
         <v>8649.4895199999992</v>
       </c>
       <c r="Z87" s="56">
-        <f t="shared" ref="Z87:AA87" si="101">Z86*Z22</f>
+        <f t="shared" ref="Z87:AA87" si="106">Z86*Z22</f>
         <v>6756.8443200000002</v>
       </c>
       <c r="AA87" s="56">
-        <f t="shared" si="101"/>
+        <f t="shared" si="106"/>
         <v>8397.6921600000005</v>
       </c>
       <c r="AB87" s="75"/>
@@ -10557,16 +10770,24 @@
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
+      <c r="J88" s="56">
+        <f t="shared" ref="J88:N88" si="107">J87-J84</f>
+        <v>4625.4101600000004</v>
+      </c>
       <c r="K88" s="56">
-        <f t="shared" ref="K88" si="102">K87-K84</f>
+        <f t="shared" si="107"/>
         <v>6253.7826799999993</v>
       </c>
+      <c r="N88" s="56">
+        <f t="shared" si="107"/>
+        <v>7643.6320400000004</v>
+      </c>
       <c r="O88" s="56">
-        <f t="shared" ref="O88:P88" si="103">O87-O84</f>
+        <f t="shared" ref="O88:P88" si="108">O87-O84</f>
         <v>7583.3291199999985</v>
       </c>
       <c r="P88" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="108"/>
         <v>7243.6609999999991</v>
       </c>
       <c r="Q88" s="56">
@@ -10575,11 +10796,11 @@
       </c>
       <c r="R88" s="74"/>
       <c r="Z88" s="56">
-        <f t="shared" ref="Z88:AA88" si="104">Z87-Z84</f>
+        <f t="shared" ref="Z88:AA88" si="109">Z87-Z84</f>
         <v>6243.0393199999999</v>
       </c>
       <c r="AA88" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="109"/>
         <v>7390.77016</v>
       </c>
       <c r="AB88" s="74"/>
@@ -10588,16 +10809,24 @@
       <c r="B90" s="1" t="s">
         <v>778</v>
       </c>
+      <c r="J90" s="69">
+        <f t="shared" ref="J90:K90" si="110">J86/J77</f>
+        <v>3.0562004861440792</v>
+      </c>
       <c r="K90" s="69">
-        <f t="shared" ref="K90" si="105">K86/K77</f>
+        <f t="shared" si="110"/>
         <v>4.0379570081736604</v>
       </c>
+      <c r="N90" s="69">
+        <f t="shared" ref="N90:P90" si="111">N86/N77</f>
+        <v>4.1635389728423569</v>
+      </c>
       <c r="O90" s="69">
-        <f t="shared" ref="O90:P90" si="106">O86/O77</f>
+        <f t="shared" si="111"/>
         <v>4.1121867098393734</v>
       </c>
       <c r="P90" s="69">
-        <f t="shared" si="106"/>
+        <f t="shared" si="111"/>
         <v>4.3844509454849581</v>
       </c>
       <c r="Q90" s="69">
@@ -10605,7 +10834,7 @@
         <v>2.0095979110459519</v>
       </c>
       <c r="Z90" s="69">
-        <f t="shared" ref="Z90" si="107">Z86/Z77</f>
+        <f t="shared" ref="Z90" si="112">Z86/Z77</f>
         <v>4.0379570081736604</v>
       </c>
       <c r="AA90" s="69">
@@ -10617,28 +10846,32 @@
       <c r="B91" s="1" t="s">
         <v>809</v>
       </c>
+      <c r="J91" s="69">
+        <f t="shared" ref="J91" si="113">J87/SUM(G6:J6)</f>
+        <v>1.5423293411981622</v>
+      </c>
       <c r="K91" s="69">
-        <f t="shared" ref="K91:P91" si="108">K87/SUM(H6:K6)</f>
+        <f t="shared" ref="K91:P91" si="114">K87/SUM(H6:K6)</f>
         <v>1.5995330818390172</v>
       </c>
       <c r="L91" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>1.8332967691100841</v>
       </c>
       <c r="M91" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>1.6247491502037685</v>
       </c>
       <c r="N91" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>1.5258758943246864</v>
       </c>
       <c r="O91" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>1.5429916494080578</v>
       </c>
       <c r="P91" s="69">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>1.3534483543594595</v>
       </c>
       <c r="Q91" s="69">
@@ -10646,23 +10879,23 @@
         <v>0.6221570503604078</v>
       </c>
       <c r="V91" s="69">
-        <f t="shared" ref="V91:Y91" si="109">V87/V6</f>
+        <f t="shared" ref="V91:Y91" si="115">V87/V6</f>
         <v>2.3621676596476893</v>
       </c>
       <c r="W91" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>1.2305088267185433</v>
       </c>
       <c r="X91" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>1.456904992539475</v>
       </c>
       <c r="Y91" s="69">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>1.7392236210561027</v>
       </c>
       <c r="Z91" s="69">
-        <f t="shared" ref="Z91" si="110">Z87/Z6</f>
+        <f t="shared" ref="Z91" si="116">Z87/Z6</f>
         <v>1.5969938669011909</v>
       </c>
       <c r="AA91" s="69">
@@ -10674,28 +10907,32 @@
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="J92" s="69">
+        <f t="shared" ref="J92" si="117">J86/SUM(G21:J21)</f>
+        <v>-6.0757314053217959</v>
+      </c>
       <c r="K92" s="69">
-        <f t="shared" ref="K92" si="111">K86/SUM(H21:K21)</f>
+        <f t="shared" ref="K92" si="118">K86/SUM(H21:K21)</f>
         <v>-12.257039736665067</v>
       </c>
       <c r="L92" s="69">
-        <f t="shared" ref="L92" si="112">L86/SUM(I21:L21)</f>
+        <f t="shared" ref="L92" si="119">L86/SUM(I21:L21)</f>
         <v>71.383779306426774</v>
       </c>
       <c r="M92" s="69">
-        <f t="shared" ref="M92" si="113">M86/SUM(J21:M21)</f>
+        <f t="shared" ref="M92" si="120">M86/SUM(J21:M21)</f>
         <v>18.285031241280244</v>
       </c>
       <c r="N92" s="69">
-        <f t="shared" ref="N92" si="114">N86/SUM(K21:N21)</f>
+        <f t="shared" ref="N92" si="121">N86/SUM(K21:N21)</f>
         <v>14.952988283370482</v>
       </c>
       <c r="O92" s="69">
-        <f t="shared" ref="O92:P92" si="115">O86/SUM(L21:O21)</f>
+        <f t="shared" ref="O92:P92" si="122">O86/SUM(L21:O21)</f>
         <v>18.105251010476522</v>
       </c>
       <c r="P92" s="69">
-        <f t="shared" si="115"/>
+        <f t="shared" si="122"/>
         <v>22.989620990664498</v>
       </c>
       <c r="Q92" s="69">
@@ -10703,23 +10940,23 @@
         <v>20.941179022554319</v>
       </c>
       <c r="V92" s="69">
-        <f t="shared" ref="V92:X92" si="116">V86/V21</f>
+        <f t="shared" ref="V92:X92" si="123">V86/V21</f>
         <v>42.458927163071316</v>
       </c>
       <c r="W92" s="69">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>-121.64339577289637</v>
       </c>
       <c r="X92" s="69">
-        <f t="shared" si="116"/>
+        <f t="shared" si="123"/>
         <v>-155.69151548529089</v>
       </c>
       <c r="Y92" s="69">
-        <f t="shared" ref="Y92:Z92" si="117">Y86/Y21</f>
+        <f t="shared" ref="Y92:Z92" si="124">Y86/Y21</f>
         <v>93.871302120640664</v>
       </c>
       <c r="Z92" s="69">
-        <f t="shared" si="117"/>
+        <f t="shared" si="124"/>
         <v>-12.303582123796154</v>
       </c>
       <c r="AA92" s="69">
@@ -10732,7 +10969,7 @@
         <v>810</v>
       </c>
       <c r="Z93" s="69">
-        <f t="shared" ref="Z93" si="118">Z88/Z6</f>
+        <f t="shared" ref="Z93" si="125">Z88/Z6</f>
         <v>1.4755550124711148</v>
       </c>
       <c r="AA93" s="69">
@@ -10748,16 +10985,24 @@
       <c r="B95" s="1" t="s">
         <v>806</v>
       </c>
+      <c r="J95" s="25">
+        <f t="shared" ref="J95:K95" si="126">J52/J9</f>
+        <v>0.73749442611099214</v>
+      </c>
       <c r="K95" s="25">
-        <f t="shared" ref="K95" si="119">K52/K9</f>
+        <f t="shared" si="126"/>
         <v>0.63826449707429866</v>
       </c>
+      <c r="N95" s="25">
+        <f t="shared" ref="N95:P95" si="127">N52/N9</f>
+        <v>0.54203989305947731</v>
+      </c>
       <c r="O95" s="25">
-        <f t="shared" ref="O95:P95" si="120">O52/O9</f>
+        <f t="shared" si="127"/>
         <v>0.53060904195317171</v>
       </c>
       <c r="P95" s="25">
-        <f t="shared" si="120"/>
+        <f t="shared" si="127"/>
         <v>0.63373547690332799</v>
       </c>
       <c r="Q95" s="25">
@@ -10765,7 +11010,7 @@
         <v>0.70745268732158828</v>
       </c>
       <c r="Z95" s="25">
-        <f t="shared" ref="Z95" si="121">Z52/Z9</f>
+        <f t="shared" ref="Z95" si="128">Z52/Z9</f>
         <v>0.20023255361795636</v>
       </c>
       <c r="AA95" s="25">
@@ -10799,35 +11044,35 @@
         <v>815</v>
       </c>
       <c r="I100" s="65">
-        <f t="shared" ref="I100:P100" si="122">I3/H3-1</f>
+        <f t="shared" ref="I100:P100" si="129">I3/H3-1</f>
         <v>-0.28820449048700714</v>
       </c>
       <c r="J100" s="65">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>1.1768782082290343</v>
       </c>
       <c r="K100" s="65">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>4.6761685836980149E-3</v>
       </c>
       <c r="L100" s="65">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>-0.13027499098108597</v>
       </c>
       <c r="M100" s="65">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>7.9195991314019887E-2</v>
       </c>
       <c r="N100" s="65">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>0.21052330549432452</v>
       </c>
       <c r="O100" s="65">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>3.8321500693137889E-2</v>
       </c>
       <c r="P100" s="65">
-        <f t="shared" si="122"/>
+        <f t="shared" si="129"/>
         <v>-0.2022053470017765</v>
       </c>
       <c r="Q100" s="65">
@@ -10842,39 +11087,39 @@
         <v>816</v>
       </c>
       <c r="I101" s="65">
-        <f t="shared" ref="I101:Q101" si="123">I4/H4-1</f>
+        <f t="shared" ref="I101:Q101" si="130">I4/H4-1</f>
         <v>-0.11731238792873222</v>
       </c>
       <c r="J101" s="65">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>0.61374798070117631</v>
       </c>
       <c r="K101" s="65">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>-0.19357387499288559</v>
       </c>
       <c r="L101" s="65">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>0.28305012268079333</v>
       </c>
       <c r="M101" s="65">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>0.10870191265406226</v>
       </c>
       <c r="N101" s="65">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>-3.7715860040100302E-2</v>
       </c>
       <c r="O101" s="65">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>-0.14253695582285475</v>
       </c>
       <c r="P101" s="65">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>4.9430357136541092E-2</v>
       </c>
       <c r="Q101" s="65">
-        <f t="shared" si="123"/>
+        <f t="shared" si="130"/>
         <v>0.17039326448620784</v>
       </c>
       <c r="R101" s="75"/>
@@ -10885,39 +11130,39 @@
         <v>817</v>
       </c>
       <c r="I102" s="65">
-        <f t="shared" ref="I102:Q102" si="124">I5/H5-1</f>
+        <f t="shared" ref="I102:Q102" si="131">I5/H5-1</f>
         <v>-0.1718722323906241</v>
       </c>
       <c r="J102" s="65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>1.5855553971196352</v>
       </c>
       <c r="K102" s="65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>7.5830690748635021E-4</v>
       </c>
       <c r="L102" s="65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>-0.19132052076875383</v>
       </c>
       <c r="M102" s="65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>-5.019762172476061E-2</v>
       </c>
       <c r="N102" s="65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>0.13310852622799385</v>
       </c>
       <c r="O102" s="65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>-0.15588270212513355</v>
       </c>
       <c r="P102" s="65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>-9.2330051570557958E-2</v>
       </c>
       <c r="Q102" s="65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="131"/>
         <v>2.8924723407341979E-4</v>
       </c>
       <c r="R102" s="75"/>
@@ -10928,39 +11173,39 @@
         <v>819</v>
       </c>
       <c r="I103" s="70">
-        <f t="shared" ref="I103:Q103" si="125">I6/H6-1</f>
+        <f t="shared" ref="I103:Q103" si="132">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
       <c r="J103" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>1.0549972940599743</v>
       </c>
       <c r="K103" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>-3.8935998856132414E-2</v>
       </c>
       <c r="L103" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>-6.1431667318194938E-2</v>
       </c>
       <c r="M103" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>7.4285635721933918E-2</v>
       </c>
       <c r="N103" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>0.13999233628213337</v>
       </c>
       <c r="O103" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>-1.726150932381687E-2</v>
       </c>
       <c r="P103" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>-0.14652505955360839</v>
       </c>
       <c r="Q103" s="70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="132"/>
         <v>3.3388630685857734E-2</v>
       </c>
       <c r="R103" s="76"/>
@@ -10989,39 +11234,39 @@
         <v>820</v>
       </c>
       <c r="I104" s="65">
-        <f t="shared" ref="I104:Q104" si="126">I7/H7-1</f>
+        <f t="shared" ref="I104:Q104" si="133">I7/H7-1</f>
         <v>-0.68959117130674685</v>
       </c>
       <c r="J104" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>3.0596315449256624</v>
       </c>
       <c r="K104" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>1.170892878468214</v>
       </c>
       <c r="L104" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>-0.60287888511964793</v>
       </c>
       <c r="M104" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>7.4063813085838204E-2</v>
       </c>
       <c r="N104" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.33695885817462701</v>
       </c>
       <c r="O104" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>0.17707964886330751</v>
       </c>
       <c r="P104" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>-0.27328853193465552</v>
       </c>
       <c r="Q104" s="65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="133"/>
         <v>5.7627246071723981E-2</v>
       </c>
     </row>
@@ -11030,39 +11275,39 @@
         <v>821</v>
       </c>
       <c r="I105" s="65">
-        <f t="shared" ref="I105:Q105" si="127">I8/H8-1</f>
+        <f t="shared" ref="I105:Q105" si="134">I8/H8-1</f>
         <v>-5.2339367300907602E-3</v>
       </c>
       <c r="J105" s="65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>7.8805848667189871E-2</v>
       </c>
       <c r="K105" s="65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-0.14270316878637646</v>
       </c>
       <c r="L105" s="65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-1.0297334674377672</v>
       </c>
       <c r="M105" s="65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-0.93234672304439747</v>
       </c>
       <c r="N105" s="65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-3.171875</v>
       </c>
       <c r="O105" s="65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>30.97122302158273</v>
       </c>
       <c r="P105" s="65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>-4.5904590459045824E-2</v>
       </c>
       <c r="Q105" s="65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="134"/>
         <v>0.98396226415094357</v>
       </c>
     </row>
@@ -11075,115 +11320,115 @@
         <v>0.59414882180942552</v>
       </c>
       <c r="I107" s="25">
-        <f t="shared" ref="I107:R107" si="128">I12/I9</f>
+        <f t="shared" ref="I107:R107" si="135">I12/I9</f>
         <v>0.67817816969080325</v>
       </c>
       <c r="J107" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.38628115010177799</v>
       </c>
       <c r="K107" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.41729034611181637</v>
       </c>
       <c r="L107" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.40935415746960502</v>
       </c>
       <c r="M107" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.40324771703856505</v>
       </c>
       <c r="N107" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.38781726939332217</v>
       </c>
       <c r="O107" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.44184134893621202</v>
       </c>
       <c r="P107" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.45693399797839268</v>
       </c>
       <c r="Q107" s="25">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.44157808009594857</v>
       </c>
       <c r="R107" s="72">
-        <f t="shared" si="128"/>
+        <f t="shared" si="135"/>
         <v>0.42895725935022022</v>
       </c>
       <c r="U107" s="25">
-        <f t="shared" ref="U107:AL107" si="129">U12/U9</f>
+        <f t="shared" ref="U107:AL107" si="136">U12/U9</f>
         <v>0.37771430114149451</v>
       </c>
       <c r="V107" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.37760351403197812</v>
       </c>
       <c r="W107" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.42080964570985102</v>
       </c>
       <c r="X107" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.42023132239656397</v>
       </c>
       <c r="Y107" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.42409417497036345</v>
       </c>
       <c r="Z107" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.48538449900294256</v>
       </c>
       <c r="AA107" s="25">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.41078648134782536</v>
       </c>
       <c r="AB107" s="72">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.37352786459200688</v>
       </c>
       <c r="AC107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.3898998698173477</v>
       </c>
       <c r="AD107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.40687889459616033</v>
       </c>
       <c r="AE107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.42449147926761222</v>
       </c>
       <c r="AF107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.44276401542814858</v>
       </c>
       <c r="AG107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.46172244331878237</v>
       </c>
       <c r="AH107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.48172478086605175</v>
       </c>
       <c r="AI107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.48238207549596013</v>
       </c>
       <c r="AJ107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.48294740632301031</v>
       </c>
       <c r="AK107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.48343346744763499</v>
       </c>
       <c r="AL107" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="136"/>
         <v>0.4838512463586328</v>
       </c>
     </row>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9065FAFC-8C88-4D00-87A6-74436F4D858F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4664D7-E132-4785-A503-AE6095EF0395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
@@ -30,6 +30,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}</author>
+    <author>me</author>
   </authors>
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}">
@@ -49,12 +50,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="R1" authorId="1" shapeId="0" xr:uid="{D0F8F999-EE4D-45ED-AFC6-0DE77E9F385C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>me:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Published 03/11/2022</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="833">
   <si>
     <t>$UA</t>
   </si>
@@ -2548,6 +2573,12 @@
   </si>
   <si>
     <t>Upside</t>
+  </si>
+  <si>
+    <t>FQ223</t>
+  </si>
+  <si>
+    <t>Under Armour announce new "game changing" SlipSpeed w/ collapsible heel training shoe</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2593,7 @@
     <numFmt numFmtId="168" formatCode="0.0\x"/>
     <numFmt numFmtId="169" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2669,8 +2700,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2698,6 +2742,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2822,7 +2872,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2956,7 +3006,6 @@
     </xf>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2968,10 +3017,8 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2999,34 +3046,7 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3047,16 +3067,65 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3319,13 +3388,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>119</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -3369,13 +3438,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>118</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -3734,7 +3803,7 @@
   <dimension ref="B2:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="C35" sqref="C35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3754,44 +3823,45 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
-      <c r="G5" s="115" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="105"/>
+      <c r="G5" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="116"/>
-      <c r="N5" s="116"/>
-      <c r="O5" s="117"/>
-      <c r="R5" s="112" t="s">
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="105"/>
+      <c r="R5" s="100" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="113"/>
-      <c r="T5" s="113"/>
-      <c r="U5" s="113"/>
-      <c r="V5" s="113"/>
-      <c r="W5" s="114"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="102"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>6.48</v>
+        <v>7.12</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="52">
         <v>44835</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -3799,7 +3869,8 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
       <c r="R6" s="14" t="s">
         <v>745</v>
       </c>
@@ -3824,7 +3895,8 @@
         <v>4</v>
       </c>
       <c r="C7" s="28">
-        <v>458.4</v>
+        <f>'Financial Model'!R22</f>
+        <v>454.322</v>
       </c>
       <c r="D7" s="30" t="s">
         <v>789</v>
@@ -3833,16 +3905,15 @@
         <v>112</v>
       </c>
       <c r="G7" s="63"/>
-      <c r="H7" s="61" t="s">
-        <v>808</v>
-      </c>
+      <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="9"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
       <c r="R7" s="37">
         <v>2022</v>
       </c>
@@ -3872,18 +3943,23 @@
       </c>
       <c r="C8" s="28">
         <f>C6*C7</f>
-        <v>2970.4320000000002</v>
+        <v>3234.7726400000001</v>
       </c>
       <c r="D8" s="30"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="52">
+        <v>44835</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>807</v>
+      </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
       <c r="R8" s="37">
         <v>2022</v>
       </c>
@@ -3912,21 +3988,24 @@
         <v>6</v>
       </c>
       <c r="C9" s="28">
-        <f>'Financial Model'!Q50</f>
-        <v>1049.413</v>
+        <f>'Financial Model'!R50</f>
+        <v>853.65200000000004</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>789</v>
       </c>
       <c r="G9" s="63"/>
-      <c r="H9" s="8"/>
+      <c r="H9" s="61" t="s">
+        <v>808</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
       <c r="R9" s="37">
         <v>2022</v>
       </c>
@@ -3955,8 +4034,8 @@
         <v>7</v>
       </c>
       <c r="C10" s="28">
-        <f>'Financial Model'!Q68</f>
-        <v>672.83399999999995</v>
+        <f>'Financial Model'!R68</f>
+        <v>673.38199999999995</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>789</v>
@@ -3969,7 +4048,8 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
       <c r="R10" s="37">
         <v>2022</v>
       </c>
@@ -3999,24 +4079,21 @@
       </c>
       <c r="C11" s="28">
         <f>C9-C10</f>
-        <v>376.57900000000006</v>
+        <v>180.2700000000001</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>789</v>
       </c>
-      <c r="G11" s="52">
-        <v>44774</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>805</v>
-      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="9"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9"/>
       <c r="R11" s="37">
         <v>2022</v>
       </c>
@@ -4046,7 +4123,7 @@
       </c>
       <c r="C12" s="29">
         <f>C8-C11</f>
-        <v>2593.8530000000001</v>
+        <v>3054.5026400000002</v>
       </c>
       <c r="D12" s="31"/>
       <c r="G12" s="63"/>
@@ -4057,7 +4134,8 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
       <c r="R12" s="37">
         <v>2022</v>
       </c>
@@ -4083,10 +4161,10 @@
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G13" s="52">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>783</v>
+        <v>805</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -4094,7 +4172,8 @@
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
       <c r="R13" s="37">
         <v>2022</v>
       </c>
@@ -4120,16 +4199,15 @@
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G14" s="63"/>
-      <c r="H14" s="61" t="s">
-        <v>784</v>
-      </c>
+      <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
       <c r="R14" s="37">
         <v>2021</v>
       </c>
@@ -4154,20 +4232,25 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="8"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="105"/>
+      <c r="G15" s="52">
+        <v>44743</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>783</v>
+      </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="9"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="9"/>
       <c r="R15" s="37">
         <v>2021</v>
       </c>
@@ -4199,11 +4282,9 @@
         <v>63</v>
       </c>
       <c r="D16" s="107"/>
-      <c r="G16" s="52">
-        <v>44682</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>772</v>
+      <c r="G16" s="63"/>
+      <c r="H16" s="61" t="s">
+        <v>784</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -4211,7 +4292,8 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
       <c r="R16" s="37">
         <v>2021</v>
       </c>
@@ -4244,16 +4326,15 @@
       </c>
       <c r="D17" s="107"/>
       <c r="G17" s="63"/>
-      <c r="H17" s="61" t="s">
-        <v>774</v>
-      </c>
+      <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
       <c r="R17" s="37">
         <v>2021</v>
       </c>
@@ -4285,15 +4366,20 @@
         <v>65</v>
       </c>
       <c r="D18" s="107"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="52">
+        <v>44682</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>772</v>
+      </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
       <c r="R18" s="37">
         <v>2021</v>
       </c>
@@ -4321,18 +4407,16 @@
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="118" t="s">
+      <c r="C19" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="119"/>
+      <c r="D19" s="109"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="G19" s="52">
-        <v>44593</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>792</v>
+      <c r="G19" s="63"/>
+      <c r="H19" s="61" t="s">
+        <v>774</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -4340,7 +4424,8 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="9"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
       <c r="R19" s="37">
         <v>2021</v>
       </c>
@@ -4366,16 +4451,15 @@
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G20" s="63"/>
-      <c r="H20" s="61" t="s">
-        <v>793</v>
-      </c>
+      <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
       <c r="R20" s="37">
         <v>2021</v>
       </c>
@@ -4400,15 +4484,20 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="G21" s="63"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="52">
+        <v>44593</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>792</v>
+      </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9"/>
       <c r="R21" s="37">
         <v>2021</v>
       </c>
@@ -4433,16 +4522,14 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
-      <c r="G22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>785</v>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="61" t="s">
+        <v>793</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -4450,7 +4537,8 @@
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
       <c r="R22" s="37">
         <v>2021</v>
       </c>
@@ -4490,7 +4578,8 @@
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="9"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="9"/>
       <c r="R23" s="37">
         <v>2021</v>
       </c>
@@ -4522,11 +4611,11 @@
         <v>1996</v>
       </c>
       <c r="D24" s="107"/>
-      <c r="G24" s="52">
-        <v>44228</v>
+      <c r="G24" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -4534,7 +4623,8 @@
       <c r="L24" s="8"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="9"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="9"/>
       <c r="R24" s="37">
         <v>2021</v>
       </c>
@@ -4563,16 +4653,15 @@
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
       <c r="G25" s="63"/>
-      <c r="H25" s="61" t="s">
-        <v>781</v>
-      </c>
+      <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9"/>
       <c r="R25" s="37">
         <v>2021</v>
       </c>
@@ -4601,18 +4690,24 @@
         <v>60</v>
       </c>
       <c r="C26" s="106">
-        <v>422</v>
+        <f>'Financial Model'!R45</f>
+        <v>437</v>
       </c>
       <c r="D26" s="107"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="11"/>
+      <c r="G26" s="52">
+        <v>44228</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
       <c r="R26" s="37">
         <v>2020</v>
       </c>
@@ -4640,11 +4735,23 @@
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="120">
-        <f>'Financial Model'!Q52</f>
-        <v>954.39400000000001</v>
-      </c>
-      <c r="D27" s="121"/>
+      <c r="C27" s="131">
+        <f>'Financial Model'!R52</f>
+        <v>1080.42</v>
+      </c>
+      <c r="D27" s="132"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="61" t="s">
+        <v>781</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
       <c r="R27" s="37">
         <v>2020</v>
       </c>
@@ -4672,6 +4779,16 @@
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="11"/>
       <c r="R28" s="37">
         <v>2020</v>
       </c>
@@ -4699,10 +4816,12 @@
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="106" t="s">
-        <v>789</v>
-      </c>
-      <c r="D29" s="107"/>
+      <c r="C29" s="99" t="s">
+        <v>831</v>
+      </c>
+      <c r="D29" s="130">
+        <v>44868</v>
+      </c>
       <c r="R29" s="37">
         <v>2020</v>
       </c>
@@ -4730,10 +4849,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="114" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="109"/>
+      <c r="D30" s="115"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4806,11 +4925,11 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="105"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -4838,11 +4957,11 @@
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="104">
-        <f>C12/SUM('Financial Model'!N20:Q20)</f>
-        <v>15.153400361038278</v>
-      </c>
-      <c r="D34" s="105"/>
+      <c r="C34" s="112">
+        <f>C12/SUM('Financial Model'!O20:R20)</f>
+        <v>21.115922407952812</v>
+      </c>
+      <c r="D34" s="113"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -4870,11 +4989,11 @@
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="104">
-        <f>C6/SUM('Financial Model'!N21:Q21)</f>
-        <v>17.902221644611082</v>
-      </c>
-      <c r="D35" s="105"/>
+      <c r="C35" s="112">
+        <f>C6/SUM('Financial Model'!O21:R21)</f>
+        <v>22.825917900868863</v>
+      </c>
+      <c r="D35" s="113"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -4931,11 +5050,11 @@
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="104">
+      <c r="C37" s="112">
         <f>C6/'Financial Model'!Q77</f>
-        <v>1.7179676073321593</v>
-      </c>
-      <c r="D37" s="105"/>
+        <v>1.8876434204020021</v>
+      </c>
+      <c r="D37" s="113"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -4963,11 +5082,11 @@
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="110">
-        <f>C8/SUM('Financial Model'!N9:Q9)</f>
-        <v>0.51887640641782984</v>
-      </c>
-      <c r="D38" s="111"/>
+      <c r="C38" s="116">
+        <f>C8/SUM('Financial Model'!O9:R9)</f>
+        <v>0.56226680192147116</v>
+      </c>
+      <c r="D38" s="117"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -4995,11 +5114,11 @@
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="110">
-        <f>C12/SUM('Financial Model'!N9:Q9)</f>
-        <v>0.45309541622770927</v>
-      </c>
-      <c r="D39" s="111"/>
+      <c r="C39" s="116">
+        <f>C12/SUM('Financial Model'!O9:R9)</f>
+        <v>0.53093234733600647</v>
+      </c>
+      <c r="D39" s="117"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5054,11 +5173,11 @@
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="102">
-        <f>C6/'Financial Model'!AA21</f>
-        <v>8.3776757207132064</v>
-      </c>
-      <c r="D41" s="103"/>
+      <c r="C41" s="110">
+        <f>C6/'Financial Model'!AB21</f>
+        <v>9.2051004832527816</v>
+      </c>
+      <c r="D41" s="111"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5547,9 +5666,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="22">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="R5:W5"/>
-    <mergeCell ref="G5:O5"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B15:D15"/>
@@ -5559,18 +5688,7 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="G5:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5713,22 +5831,19 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
-  <ignoredErrors>
-    <ignoredError sqref="C38:C39" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
-  <dimension ref="B1:BR107"/>
+  <dimension ref="B1:BS107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L92" sqref="L92"/>
+      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5737,15 +5852,15 @@
     <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="75"/>
-    <col min="19" max="27" width="9.140625" style="1"/>
-    <col min="28" max="28" width="9.140625" style="75"/>
-    <col min="29" max="46" width="9.140625" style="32"/>
-    <col min="47" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="124"/>
+    <col min="20" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.140625" style="74"/>
+    <col min="30" max="47" width="9.140625" style="32"/>
+    <col min="48" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:46" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
@@ -5788,92 +5903,95 @@
       <c r="Q1" s="50" t="s">
         <v>787</v>
       </c>
-      <c r="R1" s="77" t="s">
+      <c r="R1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="118" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="16" t="s">
         <v>788</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>813</v>
       </c>
-      <c r="V1" s="50" t="s">
+      <c r="W1" s="50" t="s">
         <v>812</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="X1" s="50" t="s">
+      <c r="Y1" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="50" t="s">
+      <c r="AA1" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="50" t="s">
+      <c r="AB1" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="77" t="s">
+      <c r="AC1" s="76" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="85" t="s">
+      <c r="AD1" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="85" t="s">
+      <c r="AE1" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="85" t="s">
+      <c r="AF1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="85" t="s">
+      <c r="AG1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="85" t="s">
+      <c r="AH1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="85" t="s">
+      <c r="AI1" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="85" t="s">
+      <c r="AJ1" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="85" t="s">
+      <c r="AK1" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="85" t="s">
+      <c r="AL1" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="85" t="s">
+      <c r="AM1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AM1" s="85" t="s">
+      <c r="AN1" s="82" t="s">
         <v>47</v>
       </c>
-      <c r="AN1" s="85" t="s">
+      <c r="AO1" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="AO1" s="85" t="s">
+      <c r="AP1" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" s="85" t="s">
+      <c r="AQ1" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="85" t="s">
+      <c r="AR1" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="AR1" s="85" t="s">
+      <c r="AS1" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="AS1" s="85" t="s">
+      <c r="AT1" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AT1" s="85" t="s">
+      <c r="AU1" s="82" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:46" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="17"/>
       <c r="H2" s="24">
         <v>43921</v>
@@ -5905,53 +6023,56 @@
       <c r="Q2" s="24">
         <v>44742</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="24">
+        <v>44834</v>
+      </c>
+      <c r="S2" s="119" t="s">
         <v>811</v>
       </c>
-      <c r="U2" s="24">
+      <c r="V2" s="24">
         <v>42369</v>
       </c>
-      <c r="V2" s="24">
+      <c r="W2" s="24">
         <v>42735</v>
       </c>
-      <c r="W2" s="24">
+      <c r="X2" s="24">
         <v>43100</v>
       </c>
-      <c r="X2" s="24">
+      <c r="Y2" s="24">
         <v>43465</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Z2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="AA2" s="24">
         <v>44196</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AB2" s="24">
         <v>44561</v>
       </c>
-      <c r="AB2" s="78" t="s">
+      <c r="AC2" s="77" t="s">
         <v>811</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="84"/>
-      <c r="AL2" s="84"/>
-      <c r="AM2" s="84"/>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="84"/>
-      <c r="AS2" s="84"/>
-      <c r="AT2" s="84"/>
-    </row>
-    <row r="3" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+    </row>
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>764</v>
       </c>
@@ -5989,42 +6110,45 @@
       <c r="Q3" s="56">
         <v>868.428</v>
       </c>
-      <c r="R3" s="71"/>
-      <c r="S3" s="56"/>
+      <c r="R3" s="56">
+        <v>1038.268</v>
+      </c>
+      <c r="S3" s="120"/>
       <c r="T3" s="56"/>
-      <c r="U3" s="56">
+      <c r="U3" s="56"/>
+      <c r="V3" s="56">
         <v>2801.0619999999999</v>
       </c>
-      <c r="V3" s="56">
+      <c r="W3" s="56">
         <v>3229.1419999999998</v>
       </c>
-      <c r="W3" s="56">
+      <c r="X3" s="56">
         <v>3287.1210000000001</v>
       </c>
-      <c r="X3" s="56">
+      <c r="Y3" s="56">
         <v>3462.3719999999998</v>
       </c>
-      <c r="Y3" s="56">
+      <c r="Z3" s="56">
         <v>3470.2849999999999</v>
       </c>
-      <c r="Z3" s="56">
+      <c r="AA3" s="56">
         <v>2882.5619999999999</v>
       </c>
-      <c r="AA3" s="56">
+      <c r="AB3" s="56">
         <v>3841.2489999999998</v>
       </c>
-      <c r="AB3" s="74">
-        <f>AA3*1.18</f>
+      <c r="AC3" s="73">
+        <f>AB3*1.18</f>
         <v>4532.6738199999991</v>
       </c>
-      <c r="AD3" s="65"/>
       <c r="AE3" s="65"/>
       <c r="AF3" s="65"/>
       <c r="AG3" s="65"/>
       <c r="AH3" s="65"/>
       <c r="AI3" s="65"/>
-    </row>
-    <row r="4" spans="2:46" s="54" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="65"/>
+    </row>
+    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>765</v>
       </c>
@@ -6062,42 +6186,45 @@
       <c r="Q4" s="56">
         <v>347.25099999999998</v>
       </c>
-      <c r="R4" s="71"/>
-      <c r="S4" s="56"/>
+      <c r="R4" s="56">
+        <v>375.88499999999999</v>
+      </c>
+      <c r="S4" s="120"/>
       <c r="T4" s="56"/>
-      <c r="U4" s="56">
+      <c r="U4" s="56"/>
+      <c r="V4" s="56">
         <v>677.74400000000003</v>
       </c>
-      <c r="V4" s="56">
+      <c r="W4" s="56">
         <v>1013.544</v>
       </c>
-      <c r="W4" s="56">
+      <c r="X4" s="56">
         <v>1037.8399999999999</v>
       </c>
-      <c r="X4" s="56">
+      <c r="Y4" s="56">
         <v>1063.175</v>
       </c>
-      <c r="Y4" s="56">
+      <c r="Z4" s="56">
         <v>1086.5509999999999</v>
       </c>
-      <c r="Z4" s="56">
+      <c r="AA4" s="56">
         <v>934.33299999999997</v>
       </c>
-      <c r="AA4" s="56">
+      <c r="AB4" s="56">
         <v>1264.127</v>
       </c>
-      <c r="AB4" s="74">
-        <f>AA4*1.04</f>
+      <c r="AC4" s="73">
+        <f>AB4*1.04</f>
         <v>1314.69208</v>
       </c>
-      <c r="AD4" s="65"/>
       <c r="AE4" s="65"/>
       <c r="AF4" s="65"/>
       <c r="AG4" s="65"/>
       <c r="AH4" s="65"/>
       <c r="AI4" s="65"/>
-    </row>
-    <row r="5" spans="2:46" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="65"/>
+    </row>
+    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>766</v>
       </c>
@@ -6135,42 +6262,45 @@
       <c r="Q5" s="56">
         <v>96.831000000000003</v>
       </c>
-      <c r="R5" s="72"/>
-      <c r="S5" s="56"/>
+      <c r="R5" s="56">
+        <v>111.117</v>
+      </c>
+      <c r="S5" s="121"/>
       <c r="T5" s="56"/>
-      <c r="U5" s="56">
+      <c r="U5" s="56"/>
+      <c r="V5" s="56">
         <v>346.88499999999999</v>
       </c>
-      <c r="V5" s="56">
+      <c r="W5" s="56">
         <v>406.61399999999998</v>
       </c>
-      <c r="W5" s="56">
+      <c r="X5" s="56">
         <v>445.83800000000002</v>
       </c>
-      <c r="X5" s="56">
+      <c r="Y5" s="56">
         <v>422.49599999999998</v>
       </c>
-      <c r="Y5" s="56">
+      <c r="Z5" s="56">
         <v>416.35399999999998</v>
       </c>
-      <c r="Z5" s="56">
+      <c r="AA5" s="56">
         <v>414.08199999999999</v>
       </c>
-      <c r="AA5" s="56">
+      <c r="AB5" s="56">
         <v>461.89400000000001</v>
       </c>
-      <c r="AB5" s="74">
-        <f>AA5*1.015</f>
+      <c r="AC5" s="73">
+        <f>AB5*1.015</f>
         <v>468.82240999999993</v>
       </c>
-      <c r="AD5" s="65"/>
       <c r="AE5" s="65"/>
       <c r="AF5" s="65"/>
       <c r="AG5" s="65"/>
       <c r="AH5" s="65"/>
       <c r="AI5" s="65"/>
-    </row>
-    <row r="6" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="65"/>
+    </row>
+    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="58" t="s">
         <v>769</v>
       </c>
@@ -6179,7 +6309,7 @@
       <c r="F6" s="55"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55">
-        <f t="shared" ref="H6:Q6" si="0">SUM(H3:H5)</f>
+        <f t="shared" ref="H6:R6" si="0">SUM(H3:H5)</f>
         <v>875.72300000000007</v>
       </c>
       <c r="I6" s="55">
@@ -6218,83 +6348,87 @@
         <f t="shared" si="0"/>
         <v>1312.51</v>
       </c>
-      <c r="R6" s="73"/>
-      <c r="S6" s="55"/>
+      <c r="R6" s="55">
+        <f t="shared" si="0"/>
+        <v>1525.27</v>
+      </c>
+      <c r="S6" s="122"/>
       <c r="T6" s="55"/>
-      <c r="U6" s="55">
-        <f t="shared" ref="U6:X6" si="1">SUM(U3:U5)</f>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55">
+        <f t="shared" ref="V6:Y6" si="1">SUM(V3:V5)</f>
         <v>3825.6909999999998</v>
       </c>
-      <c r="V6" s="55">
+      <c r="W6" s="55">
         <f t="shared" si="1"/>
         <v>4649.2999999999993</v>
       </c>
-      <c r="W6" s="55">
+      <c r="X6" s="55">
         <f t="shared" si="1"/>
         <v>4770.799</v>
       </c>
-      <c r="X6" s="55">
+      <c r="Y6" s="55">
         <f t="shared" si="1"/>
         <v>4948.0429999999997</v>
       </c>
-      <c r="Y6" s="55">
-        <f>SUM(Y3:Y5)</f>
-        <v>4973.1899999999996</v>
-      </c>
       <c r="Z6" s="55">
         <f>SUM(Z3:Z5)</f>
-        <v>4230.9769999999999</v>
+        <v>4973.1899999999996</v>
       </c>
       <c r="AA6" s="55">
         <f>SUM(AA3:AA5)</f>
+        <v>4230.9769999999999</v>
+      </c>
+      <c r="AB6" s="55">
+        <f>SUM(AB3:AB5)</f>
         <v>5567.27</v>
       </c>
-      <c r="AB6" s="73">
-        <f>SUM(AB3:AB5)</f>
+      <c r="AC6" s="72">
+        <f>SUM(AC3:AC5)</f>
         <v>6316.1883099999986</v>
       </c>
-      <c r="AC6" s="55">
-        <f>AB6*1.2</f>
+      <c r="AD6" s="55">
+        <f>AC6*1.2</f>
         <v>7579.4259719999982</v>
       </c>
-      <c r="AD6" s="55">
-        <f t="shared" ref="AD6:AL6" si="2">AC6*1.2</f>
+      <c r="AE6" s="55">
+        <f t="shared" ref="AE6:AM6" si="2">AD6*1.2</f>
         <v>9095.3111663999971</v>
       </c>
-      <c r="AE6" s="55">
+      <c r="AF6" s="55">
         <f t="shared" si="2"/>
         <v>10914.373399679997</v>
       </c>
-      <c r="AF6" s="55">
+      <c r="AG6" s="55">
         <f t="shared" si="2"/>
         <v>13097.248079615996</v>
       </c>
-      <c r="AG6" s="55">
+      <c r="AH6" s="55">
         <f t="shared" si="2"/>
         <v>15716.697695539195</v>
       </c>
-      <c r="AH6" s="55">
+      <c r="AI6" s="55">
         <f t="shared" si="2"/>
         <v>18860.037234647032</v>
       </c>
-      <c r="AI6" s="55">
+      <c r="AJ6" s="55">
         <f t="shared" si="2"/>
         <v>22632.044681576437</v>
       </c>
-      <c r="AJ6" s="55">
+      <c r="AK6" s="55">
         <f t="shared" si="2"/>
         <v>27158.453617891722</v>
       </c>
-      <c r="AK6" s="55">
+      <c r="AL6" s="55">
         <f t="shared" si="2"/>
         <v>32590.144341470066</v>
       </c>
-      <c r="AL6" s="55">
+      <c r="AM6" s="55">
         <f t="shared" si="2"/>
         <v>39108.173209764078</v>
       </c>
     </row>
-    <row r="7" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>768</v>
       </c>
@@ -6332,76 +6466,79 @@
       <c r="Q7" s="56">
         <v>28.135000000000002</v>
       </c>
-      <c r="R7" s="74"/>
-      <c r="S7" s="56"/>
+      <c r="R7" s="56">
+        <v>33.122999999999998</v>
+      </c>
+      <c r="S7" s="123"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="56">
+      <c r="U7" s="56"/>
+      <c r="V7" s="56">
         <v>84.206999999999994</v>
       </c>
-      <c r="V7" s="56">
+      <c r="W7" s="56">
         <v>99.849000000000004</v>
       </c>
-      <c r="W7" s="56">
+      <c r="X7" s="56">
         <v>116.575</v>
       </c>
-      <c r="X7" s="56">
+      <c r="Y7" s="56">
         <v>124.785</v>
       </c>
-      <c r="Y7" s="56">
+      <c r="Z7" s="56">
         <v>138.77500000000001</v>
       </c>
-      <c r="Z7" s="56">
+      <c r="AA7" s="56">
         <v>105.779</v>
       </c>
-      <c r="AA7" s="56">
+      <c r="AB7" s="56">
         <v>112.623</v>
       </c>
-      <c r="AB7" s="74">
-        <f>AA7*1.06</f>
+      <c r="AC7" s="73">
+        <f>AB7*1.06</f>
         <v>119.38038000000002</v>
       </c>
-      <c r="AC7" s="56">
-        <f>AB7*1.06</f>
+      <c r="AD7" s="56">
+        <f>AC7*1.06</f>
         <v>126.54320280000002</v>
       </c>
-      <c r="AD7" s="56">
-        <f t="shared" ref="AD7:AG7" si="3">AC7*1.06</f>
+      <c r="AE7" s="56">
+        <f t="shared" ref="AE7:AH7" si="3">AD7*1.06</f>
         <v>134.13579496800003</v>
       </c>
-      <c r="AE7" s="56">
+      <c r="AF7" s="56">
         <f t="shared" si="3"/>
         <v>142.18394266608004</v>
       </c>
-      <c r="AF7" s="56">
+      <c r="AG7" s="56">
         <f t="shared" si="3"/>
         <v>150.71497922604485</v>
       </c>
-      <c r="AG7" s="56">
+      <c r="AH7" s="56">
         <f t="shared" si="3"/>
         <v>159.75787797960754</v>
       </c>
-      <c r="AH7" s="56">
-        <f>AG7*1.03</f>
+      <c r="AI7" s="56">
+        <f>AH7*1.03</f>
         <v>164.55061431899577</v>
       </c>
-      <c r="AI7" s="56">
-        <f t="shared" ref="AI7:AL7" si="4">AH7*1.03</f>
+      <c r="AJ7" s="56">
+        <f t="shared" ref="AJ7:AM7" si="4">AI7*1.03</f>
         <v>169.48713274856564</v>
       </c>
-      <c r="AJ7" s="56">
+      <c r="AK7" s="56">
         <f t="shared" si="4"/>
         <v>174.57174673102261</v>
       </c>
-      <c r="AK7" s="56">
+      <c r="AL7" s="56">
         <f t="shared" si="4"/>
         <v>179.80889913295329</v>
       </c>
-      <c r="AL7" s="56">
+      <c r="AM7" s="56">
         <f t="shared" si="4"/>
         <v>185.20316610694189</v>
       </c>
     </row>
-    <row r="8" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>767</v>
       </c>
@@ -6439,77 +6576,80 @@
       <c r="Q8" s="56">
         <v>8.4120000000000008</v>
       </c>
-      <c r="R8" s="74"/>
-      <c r="S8" s="56"/>
+      <c r="R8" s="56">
+        <v>15.492000000000001</v>
+      </c>
+      <c r="S8" s="123"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="56">
+      <c r="U8" s="56"/>
+      <c r="V8" s="56">
         <v>53.414999999999999</v>
       </c>
-      <c r="V8" s="56">
+      <c r="W8" s="56">
         <f>80.447-1.41</f>
         <v>79.037000000000006</v>
       </c>
-      <c r="W8" s="56">
+      <c r="X8" s="56">
         <v>101.87</v>
       </c>
-      <c r="X8" s="56">
+      <c r="Y8" s="56">
         <v>120.357</v>
       </c>
-      <c r="Y8" s="56">
+      <c r="Z8" s="56">
         <v>155.167</v>
       </c>
-      <c r="Z8" s="56">
+      <c r="AA8" s="56">
         <v>137.911</v>
       </c>
-      <c r="AA8" s="56">
+      <c r="AB8" s="56">
         <v>3.573</v>
       </c>
-      <c r="AB8" s="74">
-        <f>AA8*0.65</f>
+      <c r="AC8" s="73">
+        <f>AB8*0.65</f>
         <v>2.3224499999999999</v>
       </c>
-      <c r="AC8" s="56">
-        <f>AB8*1.5</f>
+      <c r="AD8" s="56">
+        <f>AC8*1.5</f>
         <v>3.4836749999999999</v>
       </c>
-      <c r="AD8" s="56">
-        <f t="shared" ref="AD8:AG8" si="5">AC8*1.5</f>
+      <c r="AE8" s="56">
+        <f t="shared" ref="AE8:AH8" si="5">AD8*1.5</f>
         <v>5.2255124999999998</v>
       </c>
-      <c r="AE8" s="56">
+      <c r="AF8" s="56">
         <f t="shared" si="5"/>
         <v>7.8382687499999992</v>
       </c>
-      <c r="AF8" s="56">
+      <c r="AG8" s="56">
         <f t="shared" si="5"/>
         <v>11.757403125</v>
       </c>
-      <c r="AG8" s="56">
+      <c r="AH8" s="56">
         <f t="shared" si="5"/>
         <v>17.636104687500001</v>
       </c>
-      <c r="AH8" s="56">
-        <f>AG8*1.025</f>
+      <c r="AI8" s="56">
+        <f>AH8*1.025</f>
         <v>18.077007304687498</v>
       </c>
-      <c r="AI8" s="56">
-        <f t="shared" ref="AI8:AL8" si="6">AH8*1.025</f>
+      <c r="AJ8" s="56">
+        <f t="shared" ref="AJ8:AM8" si="6">AI8*1.025</f>
         <v>18.528932487304683</v>
       </c>
-      <c r="AJ8" s="56">
+      <c r="AK8" s="56">
         <f t="shared" si="6"/>
         <v>18.9921557994873</v>
       </c>
-      <c r="AK8" s="56">
+      <c r="AL8" s="56">
         <f t="shared" si="6"/>
         <v>19.466959694474479</v>
       </c>
-      <c r="AL8" s="56">
+      <c r="AM8" s="56">
         <f t="shared" si="6"/>
         <v>19.953633686836341</v>
       </c>
     </row>
-    <row r="9" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -6543,80 +6683,82 @@
       <c r="Q9" s="21">
         <v>1349.057</v>
       </c>
-      <c r="R9" s="73">
+      <c r="R9" s="21">
+        <v>1573.885</v>
+      </c>
+      <c r="S9" s="122">
         <f>Q9*1.065</f>
         <v>1436.745705</v>
       </c>
-      <c r="U9" s="21">
-        <f t="shared" ref="U9:V9" si="7">U6+U7+U8</f>
+      <c r="V9" s="21">
+        <f t="shared" ref="V9:W9" si="7">V6+V7+V8</f>
         <v>3963.3129999999996</v>
       </c>
-      <c r="V9" s="21">
+      <c r="W9" s="21">
         <f t="shared" si="7"/>
         <v>4828.1859999999997</v>
       </c>
-      <c r="W9" s="21">
-        <f>W6+W7+W8</f>
-        <v>4989.2439999999997</v>
-      </c>
       <c r="X9" s="21">
         <f>X6+X7+X8</f>
+        <v>4989.2439999999997</v>
+      </c>
+      <c r="Y9" s="21">
+        <f>Y6+Y7+Y8</f>
         <v>5193.1849999999995</v>
       </c>
-      <c r="Y9" s="21">
+      <c r="Z9" s="21">
         <v>5267.1319999999996</v>
       </c>
-      <c r="Z9" s="21">
+      <c r="AA9" s="21">
         <v>4474.6670000000004</v>
       </c>
-      <c r="AA9" s="21">
+      <c r="AB9" s="21">
         <v>5683.4660000000003</v>
       </c>
-      <c r="AB9" s="73">
-        <f>AB6+AB7+AB8</f>
+      <c r="AC9" s="72">
+        <f>AC6+AC7+AC8</f>
         <v>6437.8911399999979</v>
       </c>
-      <c r="AC9" s="21">
-        <f t="shared" ref="AC9:AL9" si="8">AC6+AC7+AC8</f>
+      <c r="AD9" s="21">
+        <f t="shared" ref="AD9:AM9" si="8">AD6+AD7+AD8</f>
         <v>7709.4528497999991</v>
       </c>
-      <c r="AD9" s="21">
+      <c r="AE9" s="21">
         <f t="shared" si="8"/>
         <v>9234.6724738679968</v>
       </c>
-      <c r="AE9" s="21">
+      <c r="AF9" s="21">
         <f t="shared" si="8"/>
         <v>11064.395611096077</v>
       </c>
-      <c r="AF9" s="21">
+      <c r="AG9" s="21">
         <f t="shared" si="8"/>
         <v>13259.720461967041</v>
       </c>
-      <c r="AG9" s="21">
+      <c r="AH9" s="21">
         <f t="shared" si="8"/>
         <v>15894.091678206303</v>
       </c>
-      <c r="AH9" s="21">
+      <c r="AI9" s="21">
         <f t="shared" si="8"/>
         <v>19042.664856270716</v>
       </c>
-      <c r="AI9" s="21">
+      <c r="AJ9" s="21">
         <f t="shared" si="8"/>
         <v>22820.060746812309</v>
       </c>
-      <c r="AJ9" s="21">
+      <c r="AK9" s="21">
         <f t="shared" si="8"/>
         <v>27352.017520422232</v>
       </c>
-      <c r="AK9" s="21">
+      <c r="AL9" s="21">
         <f t="shared" si="8"/>
         <v>32789.420200297493</v>
       </c>
-      <c r="AL9" s="21">
+      <c r="AM9" s="21">
         <f t="shared" si="8"/>
         <v>39313.330009557852</v>
       </c>
-      <c r="AM9" s="58"/>
       <c r="AN9" s="58"/>
       <c r="AO9" s="58"/>
       <c r="AP9" s="58"/>
@@ -6624,8 +6766,9 @@
       <c r="AR9" s="58"/>
       <c r="AS9" s="58"/>
       <c r="AT9" s="58"/>
-    </row>
-    <row r="10" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU9" s="58"/>
+    </row>
+    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6659,82 +6802,85 @@
       <c r="Q10" s="62">
         <v>718.86</v>
       </c>
-      <c r="R10" s="74">
+      <c r="R10" s="62">
+        <v>860.05100000000004</v>
+      </c>
+      <c r="S10" s="123">
         <f>Q10*1.03</f>
         <v>740.42579999999998</v>
       </c>
-      <c r="U10" s="22">
+      <c r="V10" s="22">
         <v>2057.7660000000001</v>
       </c>
-      <c r="V10" s="22">
+      <c r="W10" s="22">
         <v>2584.7240000000002</v>
       </c>
-      <c r="W10" s="22">
+      <c r="X10" s="22">
         <v>2737.83</v>
       </c>
-      <c r="X10" s="22">
+      <c r="Y10" s="22">
         <v>2852.7139999999999</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Z10" s="22">
         <v>2796.5990000000002</v>
       </c>
-      <c r="Z10" s="22">
+      <c r="AA10" s="22">
         <v>2314.5720000000001</v>
       </c>
-      <c r="AA10" s="22">
+      <c r="AB10" s="22">
         <v>2821.9670000000001</v>
       </c>
-      <c r="AB10" s="74">
-        <f>AA10*1.19</f>
+      <c r="AC10" s="73">
+        <f>AB10*1.19</f>
         <v>3358.1407300000001</v>
       </c>
-      <c r="AC10" s="56">
-        <f>AC9*0.5</f>
+      <c r="AD10" s="56">
+        <f>AD9*0.5</f>
         <v>3854.7264248999995</v>
       </c>
-      <c r="AD10" s="56">
-        <f t="shared" ref="AD10" si="9">AD9*0.5</f>
+      <c r="AE10" s="56">
+        <f t="shared" ref="AE10" si="9">AE9*0.5</f>
         <v>4617.3362369339984</v>
       </c>
-      <c r="AE10" s="56">
-        <f t="shared" ref="AE10" si="10">AE9*0.5</f>
+      <c r="AF10" s="56">
+        <f t="shared" ref="AF10" si="10">AF9*0.5</f>
         <v>5532.1978055480386</v>
-      </c>
-      <c r="AF10" s="56">
-        <f>AF9*0.49</f>
-        <v>6497.2630263638503</v>
       </c>
       <c r="AG10" s="56">
         <f>AG9*0.49</f>
-        <v>7788.1049223210885</v>
+        <v>6497.2630263638503</v>
       </c>
       <c r="AH10" s="56">
         <f>AH9*0.49</f>
+        <v>7788.1049223210885</v>
+      </c>
+      <c r="AI10" s="56">
+        <f>AI9*0.49</f>
         <v>9330.9057795726512</v>
       </c>
-      <c r="AI10" s="56">
-        <f>AI9*0.475</f>
+      <c r="AJ10" s="56">
+        <f>AJ9*0.475</f>
         <v>10839.528854735847</v>
       </c>
-      <c r="AJ10" s="56">
-        <f t="shared" ref="AJ10:AL10" si="11">AJ9*0.475</f>
+      <c r="AK10" s="56">
+        <f t="shared" ref="AK10:AM10" si="11">AK9*0.475</f>
         <v>12992.20832220056</v>
       </c>
-      <c r="AK10" s="56">
+      <c r="AL10" s="56">
         <f t="shared" si="11"/>
         <v>15574.974595141308</v>
       </c>
-      <c r="AL10" s="56">
+      <c r="AM10" s="56">
         <f t="shared" si="11"/>
         <v>18673.83175453998</v>
       </c>
     </row>
-    <row r="11" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H11" s="21">
-        <f t="shared" ref="H11:R11" si="12">H9-H10</f>
+        <f t="shared" ref="H11:S11" si="12">H9-H10</f>
         <v>430.98400000000004</v>
       </c>
       <c r="I11" s="21">
@@ -6773,83 +6919,86 @@
         <f t="shared" si="12"/>
         <v>630.197</v>
       </c>
-      <c r="R11" s="73">
+      <c r="R11" s="21">
+        <f t="shared" si="12"/>
+        <v>713.83399999999995</v>
+      </c>
+      <c r="S11" s="122">
         <f t="shared" si="12"/>
         <v>696.31990500000006</v>
       </c>
-      <c r="U11" s="21">
-        <f t="shared" ref="U11:X11" si="13">U9-U10</f>
+      <c r="V11" s="21">
+        <f t="shared" ref="V11:Y11" si="13">V9-V10</f>
         <v>1905.5469999999996</v>
       </c>
-      <c r="V11" s="21">
+      <c r="W11" s="21">
         <f t="shared" si="13"/>
         <v>2243.4619999999995</v>
       </c>
-      <c r="W11" s="21">
+      <c r="X11" s="21">
         <f t="shared" si="13"/>
         <v>2251.4139999999998</v>
       </c>
-      <c r="X11" s="21">
+      <c r="Y11" s="21">
         <f t="shared" si="13"/>
         <v>2340.4709999999995</v>
       </c>
-      <c r="Y11" s="21">
-        <f>Y9-Y10</f>
-        <v>2470.5329999999994</v>
-      </c>
       <c r="Z11" s="21">
         <f>Z9-Z10</f>
-        <v>2160.0950000000003</v>
+        <v>2470.5329999999994</v>
       </c>
       <c r="AA11" s="21">
         <f>AA9-AA10</f>
+        <v>2160.0950000000003</v>
+      </c>
+      <c r="AB11" s="21">
+        <f>AB9-AB10</f>
         <v>2861.4990000000003</v>
       </c>
-      <c r="AB11" s="73">
-        <f>AB9-AB10</f>
+      <c r="AC11" s="72">
+        <f>AC9-AC10</f>
         <v>3079.7504099999978</v>
       </c>
-      <c r="AC11" s="55">
-        <f t="shared" ref="AC11:AL11" si="14">AC9-AC10</f>
+      <c r="AD11" s="55">
+        <f t="shared" ref="AD11:AM11" si="14">AD9-AD10</f>
         <v>3854.7264248999995</v>
       </c>
-      <c r="AD11" s="55">
+      <c r="AE11" s="55">
         <f t="shared" si="14"/>
         <v>4617.3362369339984</v>
       </c>
-      <c r="AE11" s="55">
+      <c r="AF11" s="55">
         <f t="shared" si="14"/>
         <v>5532.1978055480386</v>
       </c>
-      <c r="AF11" s="55">
+      <c r="AG11" s="55">
         <f t="shared" si="14"/>
         <v>6762.4574356031908</v>
       </c>
-      <c r="AG11" s="55">
+      <c r="AH11" s="55">
         <f t="shared" si="14"/>
         <v>8105.9867558852147</v>
       </c>
-      <c r="AH11" s="55">
+      <c r="AI11" s="55">
         <f t="shared" si="14"/>
         <v>9711.7590766980647</v>
       </c>
-      <c r="AI11" s="55">
+      <c r="AJ11" s="55">
         <f t="shared" si="14"/>
         <v>11980.531892076462</v>
       </c>
-      <c r="AJ11" s="55">
+      <c r="AK11" s="55">
         <f t="shared" si="14"/>
         <v>14359.809198221672</v>
       </c>
-      <c r="AK11" s="55">
+      <c r="AL11" s="55">
         <f t="shared" si="14"/>
         <v>17214.445605156187</v>
       </c>
-      <c r="AL11" s="55">
+      <c r="AM11" s="55">
         <f t="shared" si="14"/>
         <v>20639.498255017872</v>
       </c>
-      <c r="AM11" s="58"/>
       <c r="AN11" s="58"/>
       <c r="AO11" s="58"/>
       <c r="AP11" s="58"/>
@@ -6857,8 +7006,9 @@
       <c r="AR11" s="58"/>
       <c r="AS11" s="58"/>
       <c r="AT11" s="58"/>
-    </row>
-    <row r="12" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU11" s="58"/>
+    </row>
+    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -6892,77 +7042,80 @@
       <c r="Q12" s="62">
         <v>595.71400000000006</v>
       </c>
-      <c r="R12" s="74">
+      <c r="R12" s="62">
+        <v>594.42399999999998</v>
+      </c>
+      <c r="S12" s="123">
         <f>AVERAGE(N12:Q12)</f>
         <v>616.30250000000001</v>
       </c>
-      <c r="U12" s="22">
+      <c r="V12" s="22">
         <v>1497</v>
       </c>
-      <c r="V12" s="22">
+      <c r="W12" s="22">
         <v>1823.14</v>
       </c>
-      <c r="W12" s="22">
+      <c r="X12" s="22">
         <v>2099.5219999999999</v>
       </c>
-      <c r="X12" s="22">
+      <c r="Y12" s="22">
         <v>2182.3389999999999</v>
       </c>
-      <c r="Y12" s="22">
+      <c r="Z12" s="22">
         <v>2233.7600000000002</v>
       </c>
-      <c r="Z12" s="22">
+      <c r="AA12" s="22">
         <v>2171.9340000000002</v>
       </c>
-      <c r="AA12" s="22">
+      <c r="AB12" s="22">
         <v>2334.6909999999998</v>
       </c>
-      <c r="AB12" s="74">
-        <f>AA12*1.03</f>
+      <c r="AC12" s="73">
+        <f>AB12*1.03</f>
         <v>2404.73173</v>
-      </c>
-      <c r="AC12" s="56">
-        <f>AB12*1.25</f>
-        <v>3005.9146624999998</v>
       </c>
       <c r="AD12" s="56">
         <f>AC12*1.25</f>
-        <v>3757.3933281249997</v>
+        <v>3005.9146624999998</v>
       </c>
       <c r="AE12" s="56">
         <f>AD12*1.25</f>
-        <v>4696.74166015625</v>
+        <v>3757.3933281249997</v>
       </c>
       <c r="AF12" s="56">
         <f>AE12*1.25</f>
+        <v>4696.74166015625</v>
+      </c>
+      <c r="AG12" s="56">
+        <f>AF12*1.25</f>
         <v>5870.9270751953127</v>
       </c>
-      <c r="AG12" s="56">
-        <f t="shared" ref="AG12:AH12" si="15">AF12*1.25</f>
+      <c r="AH12" s="56">
+        <f t="shared" ref="AH12:AI12" si="15">AG12*1.25</f>
         <v>7338.6588439941406</v>
       </c>
-      <c r="AH12" s="56">
+      <c r="AI12" s="56">
         <f t="shared" si="15"/>
         <v>9173.3235549926758</v>
       </c>
-      <c r="AI12" s="56">
-        <f>AH12*1.2</f>
+      <c r="AJ12" s="56">
+        <f>AI12*1.2</f>
         <v>11007.988265991211</v>
       </c>
-      <c r="AJ12" s="56">
-        <f t="shared" ref="AJ12:AL12" si="16">AI12*1.2</f>
+      <c r="AK12" s="56">
+        <f t="shared" ref="AK12:AM12" si="16">AJ12*1.2</f>
         <v>13209.585919189452</v>
       </c>
-      <c r="AK12" s="56">
+      <c r="AL12" s="56">
         <f t="shared" si="16"/>
         <v>15851.503103027342</v>
       </c>
-      <c r="AL12" s="56">
+      <c r="AM12" s="56">
         <f t="shared" si="16"/>
         <v>19021.803723632809</v>
       </c>
     </row>
-    <row r="13" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -6996,81 +7149,84 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="75">
+      <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="U13" s="22">
+      <c r="S13" s="124">
         <v>0</v>
       </c>
       <c r="V13" s="22">
         <v>0</v>
       </c>
       <c r="W13" s="22">
+        <v>0</v>
+      </c>
+      <c r="X13" s="22">
         <v>124.04900000000001</v>
       </c>
-      <c r="X13" s="22">
+      <c r="Y13" s="22">
         <v>183.149</v>
       </c>
-      <c r="Y13" s="22">
+      <c r="Z13" s="22">
         <v>0</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="AA13" s="22">
         <v>601.59900000000005</v>
       </c>
-      <c r="AA13" s="22">
+      <c r="AB13" s="22">
         <v>40.518000000000001</v>
       </c>
-      <c r="AB13" s="74">
-        <f>AA13*0.79</f>
+      <c r="AC13" s="73">
+        <f>AB13*0.79</f>
         <v>32.009219999999999</v>
       </c>
-      <c r="AC13" s="56">
-        <f>AB13*1.05</f>
+      <c r="AD13" s="56">
+        <f>AC13*1.05</f>
         <v>33.609681000000002</v>
       </c>
-      <c r="AD13" s="56">
-        <f t="shared" ref="AD13:AG13" si="17">AC13*1.05</f>
+      <c r="AE13" s="56">
+        <f t="shared" ref="AE13:AH13" si="17">AD13*1.05</f>
         <v>35.290165050000006</v>
       </c>
-      <c r="AE13" s="56">
+      <c r="AF13" s="56">
         <f t="shared" si="17"/>
         <v>37.054673302500007</v>
       </c>
-      <c r="AF13" s="56">
+      <c r="AG13" s="56">
         <f t="shared" si="17"/>
         <v>38.907406967625008</v>
       </c>
-      <c r="AG13" s="56">
+      <c r="AH13" s="56">
         <f t="shared" si="17"/>
         <v>40.852777316006261</v>
       </c>
-      <c r="AH13" s="56">
-        <f>AG13*1.1</f>
+      <c r="AI13" s="56">
+        <f>AH13*1.1</f>
         <v>44.938055047606888</v>
       </c>
-      <c r="AI13" s="56">
-        <f t="shared" ref="AI13:AL13" si="18">AH13*1.1</f>
+      <c r="AJ13" s="56">
+        <f t="shared" ref="AJ13:AM13" si="18">AI13*1.1</f>
         <v>49.431860552367581</v>
       </c>
-      <c r="AJ13" s="56">
+      <c r="AK13" s="56">
         <f t="shared" si="18"/>
         <v>54.375046607604347</v>
       </c>
-      <c r="AK13" s="56">
+      <c r="AL13" s="56">
         <f t="shared" si="18"/>
         <v>59.812551268364786</v>
       </c>
-      <c r="AL13" s="56">
+      <c r="AM13" s="56">
         <f t="shared" si="18"/>
         <v>65.793806395201273</v>
       </c>
     </row>
-    <row r="14" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
       <c r="H14" s="21">
-        <f t="shared" ref="H14:R14" si="19">H11-H12-H13</f>
+        <f t="shared" ref="H14:S14" si="19">H11-H12-H13</f>
         <v>-558.18000000000006</v>
       </c>
       <c r="I14" s="21">
@@ -7109,83 +7265,86 @@
         <f t="shared" si="19"/>
         <v>34.482999999999947</v>
       </c>
-      <c r="R14" s="73">
+      <c r="R14" s="21">
+        <f t="shared" si="19"/>
+        <v>119.40999999999997</v>
+      </c>
+      <c r="S14" s="122">
         <f t="shared" si="19"/>
         <v>80.017405000000053</v>
       </c>
-      <c r="U14" s="21">
-        <f t="shared" ref="U14:X14" si="20">U11-U12-U13</f>
+      <c r="V14" s="21">
+        <f t="shared" ref="V14:Y14" si="20">V11-V12-V13</f>
         <v>408.54699999999957</v>
       </c>
-      <c r="V14" s="21">
+      <c r="W14" s="21">
         <f t="shared" si="20"/>
         <v>420.32199999999943</v>
       </c>
-      <c r="W14" s="21">
+      <c r="X14" s="21">
         <f t="shared" si="20"/>
         <v>27.842999999999819</v>
       </c>
-      <c r="X14" s="21">
+      <c r="Y14" s="21">
         <f t="shared" si="20"/>
         <v>-25.017000000000394</v>
       </c>
-      <c r="Y14" s="21">
-        <f>Y11-Y12-Y13</f>
-        <v>236.77299999999923</v>
-      </c>
       <c r="Z14" s="21">
         <f>Z11-Z12-Z13</f>
-        <v>-613.43799999999999</v>
+        <v>236.77299999999923</v>
       </c>
       <c r="AA14" s="21">
         <f>AA11-AA12-AA13</f>
+        <v>-613.43799999999999</v>
+      </c>
+      <c r="AB14" s="21">
+        <f>AB11-AB12-AB13</f>
         <v>486.29000000000042</v>
       </c>
-      <c r="AB14" s="73">
-        <f>AB11-AB12-AB13</f>
+      <c r="AC14" s="72">
+        <f>AC11-AC12-AC13</f>
         <v>643.00945999999783</v>
       </c>
-      <c r="AC14" s="21">
-        <f t="shared" ref="AC14:AL14" si="21">AC11-AC12-AC13</f>
+      <c r="AD14" s="21">
+        <f t="shared" ref="AD14:AM14" si="21">AD11-AD12-AD13</f>
         <v>815.20208139999966</v>
       </c>
-      <c r="AD14" s="21">
+      <c r="AE14" s="21">
         <f t="shared" si="21"/>
         <v>824.65274375899867</v>
       </c>
-      <c r="AE14" s="21">
+      <c r="AF14" s="21">
         <f t="shared" si="21"/>
         <v>798.40147208928863</v>
       </c>
-      <c r="AF14" s="21">
+      <c r="AG14" s="21">
         <f t="shared" si="21"/>
         <v>852.62295344025313</v>
       </c>
-      <c r="AG14" s="21">
+      <c r="AH14" s="21">
         <f t="shared" si="21"/>
         <v>726.47513457506784</v>
       </c>
-      <c r="AH14" s="21">
+      <c r="AI14" s="21">
         <f t="shared" si="21"/>
         <v>493.49746665778207</v>
       </c>
-      <c r="AI14" s="21">
+      <c r="AJ14" s="21">
         <f t="shared" si="21"/>
         <v>923.11176553288362</v>
       </c>
-      <c r="AJ14" s="21">
+      <c r="AK14" s="21">
         <f t="shared" si="21"/>
         <v>1095.8482324246152</v>
       </c>
-      <c r="AK14" s="21">
+      <c r="AL14" s="21">
         <f t="shared" si="21"/>
         <v>1303.1299508604795</v>
       </c>
-      <c r="AL14" s="21">
+      <c r="AM14" s="21">
         <f t="shared" si="21"/>
         <v>1551.9007249898616</v>
       </c>
-      <c r="AM14" s="58"/>
       <c r="AN14" s="58"/>
       <c r="AO14" s="58"/>
       <c r="AP14" s="58"/>
@@ -7193,8 +7352,9 @@
       <c r="AR14" s="58"/>
       <c r="AS14" s="58"/>
       <c r="AT14" s="58"/>
-    </row>
-    <row r="15" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU14" s="58"/>
+    </row>
+    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -7228,76 +7388,79 @@
       <c r="Q15" s="62">
         <v>-6.0049999999999999</v>
       </c>
-      <c r="R15" s="75">
+      <c r="R15" s="62">
+        <v>-3.5550000000000002</v>
+      </c>
+      <c r="S15" s="124">
         <v>-5.5</v>
       </c>
-      <c r="U15" s="22">
+      <c r="V15" s="22">
         <v>-14.628</v>
       </c>
-      <c r="V15" s="22">
+      <c r="W15" s="22">
         <v>-26.434000000000001</v>
       </c>
-      <c r="W15" s="22">
+      <c r="X15" s="22">
         <v>-34.537999999999997</v>
       </c>
-      <c r="X15" s="22">
+      <c r="Y15" s="22">
         <v>-33.567999999999998</v>
       </c>
-      <c r="Y15" s="22">
+      <c r="Z15" s="22">
         <v>-21.24</v>
       </c>
-      <c r="Z15" s="22">
+      <c r="AA15" s="22">
         <v>-47.259</v>
       </c>
-      <c r="AA15" s="22">
+      <c r="AB15" s="22">
         <v>-44.3</v>
       </c>
-      <c r="AB15" s="74">
-        <f>AVERAGE(U15:AA15)</f>
+      <c r="AC15" s="73">
+        <f>AVERAGE(V15:AB15)</f>
         <v>-31.709571428571426</v>
       </c>
-      <c r="AC15" s="56">
-        <f>AB15*1.0125</f>
+      <c r="AD15" s="56">
+        <f>AC15*1.0125</f>
         <v>-32.105941071428568</v>
       </c>
-      <c r="AD15" s="56">
-        <f t="shared" ref="AD15:AG15" si="22">AC15*1.0125</f>
+      <c r="AE15" s="56">
+        <f t="shared" ref="AE15:AH15" si="22">AD15*1.0125</f>
         <v>-32.507265334821426</v>
       </c>
-      <c r="AE15" s="56">
+      <c r="AF15" s="56">
         <f t="shared" si="22"/>
         <v>-32.913606151506691</v>
       </c>
-      <c r="AF15" s="56">
+      <c r="AG15" s="56">
         <f t="shared" si="22"/>
         <v>-33.325026228400525</v>
       </c>
-      <c r="AG15" s="56">
+      <c r="AH15" s="56">
         <f t="shared" si="22"/>
         <v>-33.741589056255528</v>
       </c>
-      <c r="AH15" s="56">
-        <f>AG15*1.0352</f>
+      <c r="AI15" s="56">
+        <f>AH15*1.0352</f>
         <v>-34.929292991035716</v>
       </c>
-      <c r="AI15" s="56">
-        <f t="shared" ref="AI15:AL15" si="23">AH15*1.0352</f>
+      <c r="AJ15" s="56">
+        <f t="shared" ref="AJ15:AM15" si="23">AI15*1.0352</f>
         <v>-36.158804104320168</v>
       </c>
-      <c r="AJ15" s="56">
+      <c r="AK15" s="56">
         <f t="shared" si="23"/>
         <v>-37.431594008792231</v>
       </c>
-      <c r="AK15" s="56">
+      <c r="AL15" s="56">
         <f t="shared" si="23"/>
         <v>-38.749186117901715</v>
       </c>
-      <c r="AL15" s="56">
+      <c r="AM15" s="56">
         <f t="shared" si="23"/>
         <v>-40.113157469251853</v>
       </c>
     </row>
-    <row r="16" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -7331,45 +7494,44 @@
       <c r="Q16" s="62">
         <v>-14.241</v>
       </c>
-      <c r="R16" s="74">
+      <c r="R16" s="62">
+        <v>-5.7709999999999999</v>
+      </c>
+      <c r="S16" s="123">
         <f>AVERAGE(N16:Q16)</f>
         <v>-4.9327500000000004</v>
       </c>
-      <c r="U16" s="22">
+      <c r="V16" s="22">
         <v>-7.234</v>
       </c>
-      <c r="V16" s="22">
+      <c r="W16" s="22">
         <v>-2.7549999999999999</v>
       </c>
-      <c r="W16" s="22">
+      <c r="X16" s="22">
         <v>-3.6139999999999999</v>
       </c>
-      <c r="X16" s="22">
+      <c r="Y16" s="22">
         <v>-9.2029999999999994</v>
       </c>
-      <c r="Y16" s="22">
+      <c r="Z16" s="22">
         <v>-5.6879999999999997</v>
       </c>
-      <c r="Z16" s="22">
+      <c r="AA16" s="22">
         <v>168.15299999999999</v>
       </c>
-      <c r="AA16" s="22">
+      <c r="AB16" s="22">
         <v>-51.113</v>
       </c>
-      <c r="AB16" s="74">
-        <f>SUM(O16:R16)</f>
-        <v>4.8122500000000006</v>
-      </c>
-      <c r="AC16" s="22">
-        <f>Q84*AO26</f>
+      <c r="AC16" s="73">
+        <f>SUM(O16:S16)</f>
+        <v>-0.95874999999999932</v>
+      </c>
+      <c r="AD16" s="22">
+        <f>Q84*AP26</f>
         <v>3.7657900000000009</v>
       </c>
-      <c r="AD16" s="22">
-        <f t="shared" ref="AD16:AL16" si="24">R84*AP26</f>
-        <v>0</v>
-      </c>
       <c r="AE16" s="22">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="AE16:AM16" si="24">S84*AQ26</f>
         <v>0</v>
       </c>
       <c r="AF16" s="22">
@@ -7400,13 +7562,17 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="AM16" s="22">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" ref="H17:R17" si="25">H14+H15+H16</f>
+        <f t="shared" ref="H17:S17" si="25">H14+H15+H16</f>
         <v>-562.60600000000011</v>
       </c>
       <c r="I17" s="22">
@@ -7445,84 +7611,88 @@
         <f t="shared" si="25"/>
         <v>14.236999999999949</v>
       </c>
-      <c r="R17" s="74">
+      <c r="R17" s="22">
+        <f t="shared" si="25"/>
+        <v>110.08399999999996</v>
+      </c>
+      <c r="S17" s="123">
         <f t="shared" si="25"/>
         <v>69.584655000000055</v>
       </c>
-      <c r="U17" s="22">
-        <f t="shared" ref="U17" si="26">U14+U15+U16</f>
+      <c r="V17" s="22">
+        <f t="shared" ref="V17" si="26">V14+V15+V16</f>
         <v>386.6849999999996</v>
       </c>
-      <c r="V17" s="22">
-        <f t="shared" ref="V17:X17" si="27">V14+V15+V16</f>
+      <c r="W17" s="22">
+        <f t="shared" ref="W17:Y17" si="27">W14+W15+W16</f>
         <v>391.13299999999941</v>
       </c>
-      <c r="W17" s="22">
+      <c r="X17" s="22">
         <f t="shared" si="27"/>
         <v>-10.309000000000179</v>
       </c>
-      <c r="X17" s="22">
+      <c r="Y17" s="22">
         <f t="shared" si="27"/>
         <v>-67.788000000000395</v>
       </c>
-      <c r="Y17" s="22">
-        <f>Y14+Y15+Y16</f>
-        <v>209.84499999999923</v>
-      </c>
       <c r="Z17" s="22">
         <f>Z14+Z15+Z16</f>
-        <v>-492.54399999999998</v>
+        <v>209.84499999999923</v>
       </c>
       <c r="AA17" s="22">
         <f>AA14+AA15+AA16</f>
+        <v>-492.54399999999998</v>
+      </c>
+      <c r="AB17" s="22">
+        <f>AB14+AB15+AB16</f>
         <v>390.87700000000041</v>
       </c>
-      <c r="AB17" s="74">
-        <f>AB14+AB15+AB16</f>
-        <v>616.11213857142639</v>
-      </c>
-      <c r="AC17" s="22">
-        <f t="shared" ref="AC17:AL17" si="28">AC14+AC15+AC16</f>
+      <c r="AC17" s="73">
+        <f>AC14+AC15+AC16</f>
+        <v>610.34113857142643</v>
+      </c>
+      <c r="AD17" s="22">
+        <f t="shared" ref="AD17:AM17" si="28">AD14+AD15+AD16</f>
         <v>786.86193032857113</v>
       </c>
-      <c r="AD17" s="22">
+      <c r="AE17" s="22">
         <f t="shared" si="28"/>
         <v>792.14547842417721</v>
       </c>
-      <c r="AE17" s="22">
+      <c r="AF17" s="22">
         <f t="shared" si="28"/>
         <v>765.48786593778198</v>
       </c>
-      <c r="AF17" s="22">
+      <c r="AG17" s="22">
         <f t="shared" si="28"/>
         <v>819.29792721185265</v>
       </c>
-      <c r="AG17" s="22">
+      <c r="AH17" s="22">
         <f t="shared" si="28"/>
         <v>692.73354551881232</v>
       </c>
-      <c r="AH17" s="22">
+      <c r="AI17" s="22">
         <f t="shared" si="28"/>
         <v>458.56817366674636</v>
       </c>
-      <c r="AI17" s="22">
+      <c r="AJ17" s="22">
         <f t="shared" si="28"/>
         <v>886.95296142856341</v>
       </c>
-      <c r="AJ17" s="22">
+      <c r="AK17" s="22">
         <f t="shared" si="28"/>
         <v>1058.4166384158229</v>
       </c>
-      <c r="AK17" s="22">
+      <c r="AL17" s="22">
         <f t="shared" si="28"/>
         <v>1264.3807647425779</v>
       </c>
-      <c r="AL17" s="22">
+      <c r="AM17" s="22">
         <f t="shared" si="28"/>
         <v>1511.7875675206099</v>
       </c>
     </row>
-    <row r="18" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -7556,77 +7726,80 @@
       <c r="Q18" s="62">
         <v>5.657</v>
       </c>
-      <c r="R18" s="74">
-        <f>R17*0.4</f>
+      <c r="R18" s="62">
+        <v>22.251000000000001</v>
+      </c>
+      <c r="S18" s="123">
+        <f>S17*0.4</f>
         <v>27.833862000000025</v>
       </c>
-      <c r="U18" s="22">
+      <c r="V18" s="22">
         <v>154.11199999999999</v>
       </c>
-      <c r="V18" s="22">
+      <c r="W18" s="22">
         <v>132.47300000000001</v>
       </c>
-      <c r="W18" s="22">
+      <c r="X18" s="22">
         <v>37.951000000000001</v>
       </c>
-      <c r="X18" s="22">
+      <c r="Y18" s="22">
         <v>-20.552</v>
       </c>
-      <c r="Y18" s="22">
+      <c r="Z18" s="22">
         <v>70.024000000000001</v>
       </c>
-      <c r="Z18" s="22">
+      <c r="AA18" s="22">
         <v>49.387</v>
       </c>
-      <c r="AA18" s="22">
+      <c r="AB18" s="22">
         <v>32.072000000000003</v>
       </c>
-      <c r="AB18" s="74">
-        <f>AB17*0.08</f>
-        <v>49.28897108571411</v>
-      </c>
-      <c r="AC18" s="56">
-        <f>AC17*0.15</f>
+      <c r="AC18" s="73">
+        <f>AC17*0.08</f>
+        <v>48.827291085714116</v>
+      </c>
+      <c r="AD18" s="56">
+        <f>AD17*0.15</f>
         <v>118.02928954928566</v>
       </c>
-      <c r="AD18" s="56">
-        <f t="shared" ref="AD18:AL18" si="29">AD17*0.15</f>
+      <c r="AE18" s="56">
+        <f t="shared" ref="AE18:AM18" si="29">AE17*0.15</f>
         <v>118.82182176362657</v>
       </c>
-      <c r="AE18" s="56">
+      <c r="AF18" s="56">
         <f t="shared" si="29"/>
         <v>114.82317989066729</v>
       </c>
-      <c r="AF18" s="56">
+      <c r="AG18" s="56">
         <f t="shared" si="29"/>
         <v>122.8946890817779</v>
       </c>
-      <c r="AG18" s="56">
+      <c r="AH18" s="56">
         <f t="shared" si="29"/>
         <v>103.91003182782184</v>
       </c>
-      <c r="AH18" s="56">
+      <c r="AI18" s="56">
         <f t="shared" si="29"/>
         <v>68.785226050011957</v>
       </c>
-      <c r="AI18" s="56">
+      <c r="AJ18" s="56">
         <f t="shared" si="29"/>
         <v>133.04294421428452</v>
       </c>
-      <c r="AJ18" s="56">
+      <c r="AK18" s="56">
         <f t="shared" si="29"/>
         <v>158.76249576237345</v>
       </c>
-      <c r="AK18" s="56">
+      <c r="AL18" s="56">
         <f t="shared" si="29"/>
         <v>189.65711471138667</v>
       </c>
-      <c r="AL18" s="56">
+      <c r="AM18" s="56">
         <f t="shared" si="29"/>
         <v>226.76813512809147</v>
       </c>
     </row>
-    <row r="19" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -7660,13 +7833,13 @@
       <c r="Q19" s="62">
         <v>-0.89800000000000002</v>
       </c>
-      <c r="R19" s="74">
+      <c r="R19" s="62">
+        <v>-0.90800000000000003</v>
+      </c>
+      <c r="S19" s="123">
         <f>AVERAGE(N19:Q19)</f>
         <v>-0.20025000000000001</v>
       </c>
-      <c r="U19" s="22">
-        <v>0</v>
-      </c>
       <c r="V19" s="22">
         <v>0</v>
       </c>
@@ -7674,68 +7847,71 @@
         <v>0</v>
       </c>
       <c r="X19" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="22">
         <v>0.93400000000000005</v>
       </c>
-      <c r="Y19" s="22">
+      <c r="Z19" s="22">
         <v>-47.679000000000002</v>
       </c>
-      <c r="Z19" s="22">
+      <c r="AA19" s="22">
         <v>-7.2460000000000004</v>
       </c>
-      <c r="AA19" s="22">
+      <c r="AB19" s="22">
         <v>1.2549999999999999</v>
       </c>
-      <c r="AB19" s="74">
-        <f>AVERAGE(U19:AA19)</f>
+      <c r="AC19" s="73">
+        <f>AVERAGE(V19:AB19)</f>
         <v>-7.5337142857142867</v>
       </c>
-      <c r="AC19" s="22">
-        <f>AB19*1.01</f>
+      <c r="AD19" s="22">
+        <f>AC19*1.01</f>
         <v>-7.6090514285714299</v>
       </c>
-      <c r="AD19" s="22">
-        <f t="shared" ref="AD19:AL19" si="30">AC19*1.01</f>
+      <c r="AE19" s="22">
+        <f t="shared" ref="AE19:AM19" si="30">AD19*1.01</f>
         <v>-7.6851419428571441</v>
       </c>
-      <c r="AE19" s="22">
+      <c r="AF19" s="22">
         <f t="shared" si="30"/>
         <v>-7.7619933622857156</v>
       </c>
-      <c r="AF19" s="22">
+      <c r="AG19" s="22">
         <f t="shared" si="30"/>
         <v>-7.8396132959085731</v>
       </c>
-      <c r="AG19" s="22">
+      <c r="AH19" s="22">
         <f t="shared" si="30"/>
         <v>-7.9180094288676592</v>
       </c>
-      <c r="AH19" s="22">
+      <c r="AI19" s="22">
         <f t="shared" si="30"/>
         <v>-7.9971895231563357</v>
       </c>
-      <c r="AI19" s="22">
+      <c r="AJ19" s="22">
         <f t="shared" si="30"/>
         <v>-8.0771614183878988</v>
       </c>
-      <c r="AJ19" s="22">
+      <c r="AK19" s="22">
         <f t="shared" si="30"/>
         <v>-8.157933032571778</v>
       </c>
-      <c r="AK19" s="22">
+      <c r="AL19" s="22">
         <f t="shared" si="30"/>
         <v>-8.2395123628974964</v>
       </c>
-      <c r="AL19" s="22">
+      <c r="AM19" s="22">
         <f t="shared" si="30"/>
         <v>-8.3219074865264719</v>
       </c>
     </row>
-    <row r="20" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
       <c r="H20" s="21">
-        <f t="shared" ref="H20:R20" si="31">H17-H18+H19</f>
+        <f t="shared" ref="H20:S20" si="31">H17-H18+H19</f>
         <v>-589.68100000000015</v>
       </c>
       <c r="I20" s="21">
@@ -7774,217 +7950,221 @@
         <f t="shared" si="31"/>
         <v>7.6819999999999489</v>
       </c>
-      <c r="R20" s="79">
+      <c r="R20" s="66">
+        <f t="shared" si="31"/>
+        <v>86.924999999999955</v>
+      </c>
+      <c r="S20" s="125">
         <f t="shared" si="31"/>
         <v>41.550543000000033</v>
       </c>
-      <c r="U20" s="21">
-        <f t="shared" ref="U20:X20" si="32">U17-U18+U19</f>
+      <c r="V20" s="21">
+        <f t="shared" ref="V20:Y20" si="32">V17-V18+V19</f>
         <v>232.57299999999961</v>
       </c>
-      <c r="V20" s="21">
+      <c r="W20" s="21">
         <f t="shared" si="32"/>
         <v>258.6599999999994</v>
       </c>
-      <c r="W20" s="21">
+      <c r="X20" s="21">
         <f t="shared" si="32"/>
         <v>-48.260000000000176</v>
       </c>
-      <c r="X20" s="21">
+      <c r="Y20" s="21">
         <f t="shared" si="32"/>
         <v>-46.302000000000398</v>
       </c>
-      <c r="Y20" s="21">
-        <f>Y17-Y18+Y19</f>
-        <v>92.141999999999229</v>
-      </c>
       <c r="Z20" s="21">
         <f>Z17-Z18+Z19</f>
-        <v>-549.17700000000002</v>
+        <v>92.141999999999229</v>
       </c>
       <c r="AA20" s="21">
         <f>AA17-AA18+AA19</f>
+        <v>-549.17700000000002</v>
+      </c>
+      <c r="AB20" s="21">
+        <f>AB17-AB18+AB19</f>
         <v>360.0600000000004</v>
       </c>
-      <c r="AB20" s="73">
-        <f>AB17-AB18+AB19</f>
-        <v>559.28945319999798</v>
-      </c>
-      <c r="AC20" s="21">
-        <f t="shared" ref="AC20:AL20" si="33">AC17-AC18+AC19</f>
+      <c r="AC20" s="72">
+        <f>AC17-AC18+AC19</f>
+        <v>553.98013319999802</v>
+      </c>
+      <c r="AD20" s="21">
+        <f t="shared" ref="AD20:AM20" si="33">AD17-AD18+AD19</f>
         <v>661.22358935071406</v>
       </c>
-      <c r="AD20" s="21">
+      <c r="AE20" s="21">
         <f t="shared" si="33"/>
         <v>665.63851471769351</v>
       </c>
-      <c r="AE20" s="21">
+      <c r="AF20" s="21">
         <f t="shared" si="33"/>
         <v>642.90269268482893</v>
       </c>
-      <c r="AF20" s="21">
+      <c r="AG20" s="21">
         <f t="shared" si="33"/>
         <v>688.56362483416626</v>
       </c>
-      <c r="AG20" s="21">
+      <c r="AH20" s="21">
         <f t="shared" si="33"/>
         <v>580.9055042621228</v>
       </c>
-      <c r="AH20" s="21">
+      <c r="AI20" s="21">
         <f t="shared" si="33"/>
         <v>381.78575809357807</v>
       </c>
-      <c r="AI20" s="21">
+      <c r="AJ20" s="21">
         <f t="shared" si="33"/>
         <v>745.83285579589108</v>
       </c>
-      <c r="AJ20" s="21">
+      <c r="AK20" s="21">
         <f t="shared" si="33"/>
         <v>891.49620962087772</v>
       </c>
-      <c r="AK20" s="21">
+      <c r="AL20" s="21">
         <f t="shared" si="33"/>
         <v>1066.4841376682937</v>
       </c>
-      <c r="AL20" s="21">
+      <c r="AM20" s="21">
         <f t="shared" si="33"/>
         <v>1276.6975249059919</v>
       </c>
-      <c r="AM20" s="55">
-        <f>AL20*(1+$AO$24)</f>
+      <c r="AN20" s="55">
+        <f>AM20*(1+$AP$24)</f>
         <v>1263.930549656932</v>
       </c>
-      <c r="AN20" s="55">
-        <f t="shared" ref="AN20:BR20" si="34">AM20*(1+$AO$24)</f>
+      <c r="AO20" s="55">
+        <f t="shared" ref="AO20:BS20" si="34">AN20*(1+$AP$24)</f>
         <v>1251.2912441603628</v>
       </c>
-      <c r="AO20" s="55">
+      <c r="AP20" s="55">
         <f t="shared" si="34"/>
         <v>1238.7783317187591</v>
       </c>
-      <c r="AP20" s="55">
+      <c r="AQ20" s="55">
         <f t="shared" si="34"/>
         <v>1226.3905484015716</v>
       </c>
-      <c r="AQ20" s="55">
+      <c r="AR20" s="55">
         <f t="shared" si="34"/>
         <v>1214.1266429175557</v>
       </c>
-      <c r="AR20" s="55">
+      <c r="AS20" s="55">
         <f t="shared" si="34"/>
         <v>1201.9853764883801</v>
       </c>
-      <c r="AS20" s="55">
+      <c r="AT20" s="55">
         <f t="shared" si="34"/>
         <v>1189.9655227234962</v>
       </c>
-      <c r="AT20" s="55">
+      <c r="AU20" s="55">
         <f t="shared" si="34"/>
         <v>1178.0658674962613</v>
       </c>
-      <c r="AU20" s="55">
+      <c r="AV20" s="55">
         <f t="shared" si="34"/>
         <v>1166.2852088212987</v>
       </c>
-      <c r="AV20" s="55">
+      <c r="AW20" s="55">
         <f t="shared" si="34"/>
         <v>1154.6223567330858</v>
       </c>
-      <c r="AW20" s="55">
+      <c r="AX20" s="55">
         <f t="shared" si="34"/>
         <v>1143.076133165755</v>
       </c>
-      <c r="AX20" s="55">
+      <c r="AY20" s="55">
         <f t="shared" si="34"/>
         <v>1131.6453718340974</v>
       </c>
-      <c r="AY20" s="55">
+      <c r="AZ20" s="55">
         <f t="shared" si="34"/>
         <v>1120.3289181157566</v>
       </c>
-      <c r="AZ20" s="55">
+      <c r="BA20" s="55">
         <f t="shared" si="34"/>
         <v>1109.125628934599</v>
       </c>
-      <c r="BA20" s="55">
+      <c r="BB20" s="55">
         <f t="shared" si="34"/>
         <v>1098.0343726452531</v>
       </c>
-      <c r="BB20" s="55">
+      <c r="BC20" s="55">
         <f t="shared" si="34"/>
         <v>1087.0540289188007</v>
       </c>
-      <c r="BC20" s="55">
+      <c r="BD20" s="55">
         <f t="shared" si="34"/>
         <v>1076.1834886296126</v>
       </c>
-      <c r="BD20" s="55">
+      <c r="BE20" s="55">
         <f t="shared" si="34"/>
         <v>1065.4216537433165</v>
       </c>
-      <c r="BE20" s="55">
+      <c r="BF20" s="55">
         <f t="shared" si="34"/>
         <v>1054.7674372058832</v>
       </c>
-      <c r="BF20" s="55">
+      <c r="BG20" s="55">
         <f t="shared" si="34"/>
         <v>1044.2197628338245</v>
       </c>
-      <c r="BG20" s="55">
+      <c r="BH20" s="55">
         <f t="shared" si="34"/>
         <v>1033.7775652054861</v>
       </c>
-      <c r="BH20" s="55">
+      <c r="BI20" s="55">
         <f t="shared" si="34"/>
         <v>1023.4397895534312</v>
       </c>
-      <c r="BI20" s="55">
+      <c r="BJ20" s="55">
         <f t="shared" si="34"/>
         <v>1013.2053916578968</v>
       </c>
-      <c r="BJ20" s="55">
+      <c r="BK20" s="55">
         <f t="shared" si="34"/>
         <v>1003.0733377413178</v>
       </c>
-      <c r="BK20" s="55">
+      <c r="BL20" s="55">
         <f t="shared" si="34"/>
         <v>993.04260436390462</v>
       </c>
-      <c r="BL20" s="55">
+      <c r="BM20" s="55">
         <f t="shared" si="34"/>
         <v>983.11217832026557</v>
       </c>
-      <c r="BM20" s="55">
+      <c r="BN20" s="55">
         <f t="shared" si="34"/>
         <v>973.28105653706291</v>
       </c>
-      <c r="BN20" s="55">
+      <c r="BO20" s="55">
         <f t="shared" si="34"/>
         <v>963.54824597169227</v>
       </c>
-      <c r="BO20" s="55">
+      <c r="BP20" s="55">
         <f t="shared" si="34"/>
         <v>953.9127635119753</v>
       </c>
-      <c r="BP20" s="55">
+      <c r="BQ20" s="55">
         <f t="shared" si="34"/>
         <v>944.37363587685559</v>
       </c>
-      <c r="BQ20" s="55">
+      <c r="BR20" s="55">
         <f t="shared" si="34"/>
         <v>934.92989951808704</v>
       </c>
-      <c r="BR20" s="55">
+      <c r="BS20" s="55">
         <f t="shared" si="34"/>
         <v>925.58060052290614</v>
       </c>
     </row>
-    <row r="21" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" ref="H21:Q21" si="35">H20/H22</f>
+        <f t="shared" ref="H21:R21" si="35">H20/H22</f>
         <v>-1.3020948570343436</v>
       </c>
       <c r="I21" s="23">
@@ -8023,84 +8203,88 @@
         <f t="shared" si="35"/>
         <v>1.675774134790517E-2</v>
       </c>
-      <c r="R21" s="80">
-        <f>R20/R22</f>
+      <c r="R21" s="23">
+        <f t="shared" si="35"/>
+        <v>0.19132905736460035</v>
+      </c>
+      <c r="S21" s="126">
+        <f>S20/S22</f>
         <v>8.8592963827677812E-2</v>
       </c>
-      <c r="U21" s="23">
-        <f t="shared" ref="U21" si="36">U20/U22</f>
+      <c r="V21" s="23">
+        <f t="shared" ref="V21" si="36">V20/V22</f>
         <v>0.5396175370537073</v>
       </c>
-      <c r="V21" s="23">
-        <f t="shared" ref="V21" si="37">V20/V22</f>
+      <c r="W21" s="23">
+        <f t="shared" ref="W21" si="37">W20/W22</f>
         <v>0.59280819563174525</v>
       </c>
-      <c r="W21" s="23">
-        <f t="shared" ref="W21:X21" si="38">W20/W22</f>
+      <c r="X21" s="23">
+        <f t="shared" ref="X21:Y21" si="38">X20/X22</f>
         <v>-0.10950039593491732</v>
       </c>
-      <c r="X21" s="23">
+      <c r="Y21" s="23">
         <f t="shared" si="38"/>
         <v>-0.10385922411762816</v>
       </c>
-      <c r="Y21" s="23">
-        <f>Y20/Y22</f>
-        <v>0.20432229623650497</v>
-      </c>
       <c r="Z21" s="23">
         <f>Z20/Z22</f>
-        <v>-1.2094038833796898</v>
+        <v>0.20432229623650497</v>
       </c>
       <c r="AA21" s="23">
         <f>AA20/AA22</f>
+        <v>-1.2094038833796898</v>
+      </c>
+      <c r="AB21" s="23">
+        <f>AB20/AB22</f>
         <v>0.77348422355124846</v>
       </c>
-      <c r="AB21" s="80">
-        <f>AB20/AB22</f>
-        <v>1.2200505070732806</v>
-      </c>
-      <c r="AC21" s="91">
+      <c r="AC21" s="78">
         <f>AC20/AC22</f>
+        <v>1.2084685998494771</v>
+      </c>
+      <c r="AD21" s="88">
+        <f>AD20/AD22</f>
         <v>1.4424126377860977</v>
       </c>
-      <c r="AD21" s="91">
-        <f t="shared" ref="AD21:AL21" si="39">AD20/AD22</f>
+      <c r="AE21" s="88">
+        <f t="shared" ref="AE21:AM21" si="39">AE20/AE22</f>
         <v>1.4520434861810663</v>
       </c>
-      <c r="AE21" s="91">
+      <c r="AF21" s="88">
         <f t="shared" si="39"/>
         <v>1.4024468935022389</v>
       </c>
-      <c r="AF21" s="91">
+      <c r="AG21" s="88">
         <f t="shared" si="39"/>
         <v>1.502052997467723</v>
       </c>
-      <c r="AG21" s="91">
+      <c r="AH21" s="88">
         <f t="shared" si="39"/>
         <v>1.2672043983336556</v>
       </c>
-      <c r="AH21" s="91">
+      <c r="AI21" s="88">
         <f t="shared" si="39"/>
         <v>0.83283871185187663</v>
       </c>
-      <c r="AI21" s="91">
+      <c r="AJ21" s="88">
         <f t="shared" si="39"/>
         <v>1.6269817867999326</v>
       </c>
-      <c r="AJ21" s="91">
+      <c r="AK21" s="88">
         <f t="shared" si="39"/>
         <v>1.9447361225546234</v>
       </c>
-      <c r="AK21" s="91">
+      <c r="AL21" s="88">
         <f t="shared" si="39"/>
         <v>2.3264599493216704</v>
       </c>
-      <c r="AL21" s="91">
+      <c r="AM21" s="88">
         <f t="shared" si="39"/>
         <v>2.7850256315914441</v>
       </c>
     </row>
-    <row r="22" spans="2:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -8134,47 +8318,46 @@
       <c r="Q22" s="62">
         <v>458.41500000000002</v>
       </c>
-      <c r="R22" s="74">
+      <c r="R22" s="62">
+        <v>454.322</v>
+      </c>
+      <c r="S22" s="123">
         <f>AVERAGE(N22:Q22)</f>
         <v>469.005</v>
       </c>
-      <c r="U22" s="22">
+      <c r="V22" s="22">
         <f>215.498+215.498</f>
         <v>430.99599999999998</v>
       </c>
-      <c r="V22" s="22">
+      <c r="W22" s="22">
         <f>217.707+218.623</f>
         <v>436.33</v>
       </c>
-      <c r="W22" s="62">
+      <c r="X22" s="62">
         <v>440.72899999999998</v>
       </c>
-      <c r="X22" s="62">
+      <c r="Y22" s="62">
         <v>445.815</v>
       </c>
-      <c r="Y22" s="22">
+      <c r="Z22" s="22">
         <v>450.964</v>
       </c>
-      <c r="Z22" s="22">
+      <c r="AA22" s="22">
         <v>454.089</v>
       </c>
-      <c r="AA22" s="22">
+      <c r="AB22" s="22">
         <v>465.50400000000002</v>
       </c>
-      <c r="AB22" s="74">
+      <c r="AC22" s="73">
         <f>Q22</f>
         <v>458.41500000000002</v>
       </c>
-      <c r="AC22" s="56">
-        <f>AB22</f>
+      <c r="AD22" s="56">
+        <f>AC22</f>
         <v>458.41500000000002</v>
       </c>
-      <c r="AD22" s="56">
-        <f t="shared" ref="AD22:AL22" si="40">AC22</f>
-        <v>458.41500000000002</v>
-      </c>
       <c r="AE22" s="56">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AE22:AM22" si="40">AD22</f>
         <v>458.41500000000002</v>
       </c>
       <c r="AF22" s="56">
@@ -8205,8 +8388,12 @@
         <f t="shared" si="40"/>
         <v>458.41500000000002</v>
       </c>
-    </row>
-    <row r="24" spans="2:70" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AM22" s="56">
+        <f t="shared" si="40"/>
+        <v>458.41500000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -8231,143 +8418,148 @@
         <v>3.4799692967280249E-2</v>
       </c>
       <c r="Q24" s="26">
-        <f t="shared" ref="Q24:R24" si="41">Q9/M9-1</f>
+        <f t="shared" ref="Q24" si="41">Q9/M9-1</f>
         <v>-1.8327322879040375E-3</v>
       </c>
-      <c r="R24" s="81">
-        <f t="shared" si="41"/>
+      <c r="R24" s="26">
+        <f t="shared" ref="R24" si="42">R9/N9-1</f>
+        <v>1.8345139408307398E-2</v>
+      </c>
+      <c r="S24" s="127">
+        <f>S9/N9-1</f>
         <v>-7.0387604397708969E-2</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="V24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="V24" s="26">
-        <f t="shared" ref="V24:W24" si="42">V9/U9-1</f>
+      <c r="W24" s="26">
+        <f t="shared" ref="W24:X24" si="43">W9/V9-1</f>
         <v>0.21821970659395307</v>
       </c>
-      <c r="W24" s="26">
-        <f t="shared" si="42"/>
+      <c r="X24" s="26">
+        <f t="shared" si="43"/>
         <v>3.3357869808660956E-2</v>
       </c>
-      <c r="X24" s="26">
-        <f t="shared" ref="X24:Y24" si="43">X9/W9-1</f>
+      <c r="Y24" s="26">
+        <f t="shared" ref="Y24:Z24" si="44">Y9/X9-1</f>
         <v>4.0876132736743287E-2</v>
       </c>
-      <c r="Y24" s="26">
-        <f t="shared" si="43"/>
+      <c r="Z24" s="26">
+        <f t="shared" si="44"/>
         <v>1.4239238540510346E-2</v>
-      </c>
-      <c r="Z24" s="26">
-        <f>Z9/Y9-1</f>
-        <v>-0.15045474463142361</v>
       </c>
       <c r="AA24" s="26">
         <f>AA9/Z9-1</f>
+        <v>-0.15045474463142361</v>
+      </c>
+      <c r="AB24" s="26">
+        <f>AB9/AA9-1</f>
         <v>0.27014278380938728</v>
       </c>
-      <c r="AB24" s="81">
-        <f t="shared" ref="AB24" si="44">AB9/AA9-1</f>
+      <c r="AC24" s="79">
+        <f t="shared" ref="AC24" si="45">AC9/AB9-1</f>
         <v>0.13274032782108613</v>
       </c>
-      <c r="AC24" s="70">
-        <f>AC9/AB9-1</f>
+      <c r="AD24" s="70">
+        <f>AD9/AC9-1</f>
         <v>0.19751214833371677</v>
       </c>
-      <c r="AD24" s="70">
-        <f t="shared" ref="AD24:AL24" si="45">AD9/AC9-1</f>
+      <c r="AE24" s="70">
+        <f t="shared" ref="AE24:AM24" si="46">AE9/AD9-1</f>
         <v>0.19783759675079482</v>
       </c>
-      <c r="AE24" s="70">
-        <f t="shared" si="45"/>
+      <c r="AF24" s="70">
+        <f t="shared" si="46"/>
         <v>0.19813622436591838</v>
       </c>
-      <c r="AF24" s="70">
-        <f t="shared" si="45"/>
+      <c r="AG24" s="70">
+        <f t="shared" si="46"/>
         <v>0.19841344507506165</v>
       </c>
-      <c r="AG24" s="70">
-        <f t="shared" si="45"/>
+      <c r="AH24" s="70">
+        <f t="shared" si="46"/>
         <v>0.19867471744939502</v>
       </c>
-      <c r="AH24" s="70">
-        <f t="shared" si="45"/>
+      <c r="AI24" s="70">
+        <f t="shared" si="46"/>
         <v>0.19809708172135942</v>
       </c>
-      <c r="AI24" s="70">
-        <f t="shared" si="45"/>
+      <c r="AJ24" s="70">
+        <f t="shared" si="46"/>
         <v>0.19836487797545321</v>
       </c>
-      <c r="AJ24" s="70">
-        <f t="shared" si="45"/>
+      <c r="AK24" s="70">
+        <f t="shared" si="46"/>
         <v>0.1985952984039705</v>
       </c>
-      <c r="AK24" s="70">
-        <f t="shared" si="45"/>
+      <c r="AL24" s="70">
+        <f t="shared" si="46"/>
         <v>0.19879347751278131</v>
       </c>
-      <c r="AL24" s="70">
-        <f t="shared" si="45"/>
+      <c r="AM24" s="70">
+        <f t="shared" si="46"/>
         <v>0.19896386607047023</v>
       </c>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="87" t="s">
+      <c r="AN24" s="58"/>
+      <c r="AO24" s="84" t="s">
         <v>824</v>
       </c>
-      <c r="AO24" s="88">
+      <c r="AP24" s="85">
         <v>-0.01</v>
       </c>
-      <c r="AP24" s="58"/>
       <c r="AQ24" s="58"/>
       <c r="AR24" s="58"/>
       <c r="AS24" s="58"/>
       <c r="AT24" s="58"/>
-    </row>
-    <row r="25" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="AU24" s="58"/>
+    </row>
+    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
       <c r="I25" s="25">
-        <f t="shared" ref="I25:P25" si="46">I9/H9-1</f>
+        <f t="shared" ref="I25:P25" si="47">I9/H9-1</f>
         <v>-0.23929308565531482</v>
       </c>
       <c r="J25" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.0250706573964163</v>
       </c>
       <c r="K25" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-2.0414913668396983E-2</v>
       </c>
       <c r="L25" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-0.10441270126217628</v>
       </c>
       <c r="M25" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>7.5039273939206064E-2</v>
       </c>
       <c r="N25" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0.14353911925264162</v>
       </c>
       <c r="O25" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-1.056399996894275E-2</v>
       </c>
       <c r="P25" s="25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>-0.14926710284101874</v>
       </c>
       <c r="Q25" s="25">
-        <f t="shared" ref="Q25:R25" si="47">Q9/P9-1</f>
+        <f t="shared" ref="Q25" si="48">Q9/P9-1</f>
         <v>3.6982347447432451E-2</v>
       </c>
-      <c r="R25" s="72">
-        <f t="shared" si="47"/>
+      <c r="R25" s="25">
+        <f t="shared" ref="R25" si="49">R9/Q9-1</f>
+        <v>0.16665567133190073</v>
+      </c>
+      <c r="S25" s="121">
+        <f>S9/Q9-1</f>
         <v>6.4999999999999947E-2</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="V25" s="16" t="s">
         <v>87</v>
@@ -8387,47 +8579,50 @@
       <c r="AA25" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB25" s="77" t="s">
+      <c r="AB25" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AC25" s="85" t="s">
+      <c r="AC25" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="AD25" s="85" t="s">
+      <c r="AD25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AE25" s="85" t="s">
+      <c r="AE25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AF25" s="85" t="s">
+      <c r="AF25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AG25" s="85" t="s">
+      <c r="AG25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AH25" s="85" t="s">
+      <c r="AH25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AI25" s="85" t="s">
+      <c r="AI25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AJ25" s="85" t="s">
+      <c r="AJ25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AK25" s="85" t="s">
+      <c r="AK25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AL25" s="85" t="s">
+      <c r="AL25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AN25" s="89" t="s">
+      <c r="AM25" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO25" s="86" t="s">
         <v>825</v>
       </c>
-      <c r="AO25" s="90">
+      <c r="AP25" s="87">
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="2:70" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -8452,143 +8647,148 @@
         <v>2.7189191287553927E-2</v>
       </c>
       <c r="Q26" s="59">
-        <f t="shared" ref="Q26:R26" si="48">Q6/M6-1</f>
+        <f t="shared" ref="Q26" si="50">Q6/M6-1</f>
         <v>-1.1914898101912375E-2</v>
       </c>
-      <c r="R26" s="82">
-        <f t="shared" si="48"/>
+      <c r="R26" s="59">
+        <f t="shared" ref="R26" si="51">R6/N6-1</f>
+        <v>7.2482622264895546E-3</v>
+      </c>
+      <c r="S26" s="128">
+        <f>S6/N6-1</f>
         <v>-1</v>
       </c>
-      <c r="U26" s="16" t="s">
+      <c r="V26" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="V26" s="26">
-        <f t="shared" ref="V26:W26" si="49">V6/U6-1</f>
+      <c r="W26" s="26">
+        <f t="shared" ref="W26:X26" si="52">W6/V6-1</f>
         <v>0.21528372260070139</v>
       </c>
-      <c r="W26" s="26">
-        <f t="shared" si="49"/>
+      <c r="X26" s="26">
+        <f t="shared" si="52"/>
         <v>2.6132751166842549E-2</v>
       </c>
-      <c r="X26" s="26">
-        <f t="shared" ref="X26:Y26" si="50">X6/W6-1</f>
+      <c r="Y26" s="26">
+        <f t="shared" ref="Y26:Z26" si="53">Y6/X6-1</f>
         <v>3.7151848149544753E-2</v>
       </c>
-      <c r="Y26" s="26">
-        <f t="shared" si="50"/>
+      <c r="Z26" s="26">
+        <f t="shared" si="53"/>
         <v>5.0822112904029826E-3</v>
-      </c>
-      <c r="Z26" s="26">
-        <f>Z6/Y6-1</f>
-        <v>-0.14924284010866262</v>
       </c>
       <c r="AA26" s="26">
         <f>AA6/Z6-1</f>
+        <v>-0.14924284010866262</v>
+      </c>
+      <c r="AB26" s="26">
+        <f>AB6/AA6-1</f>
         <v>0.31583556232993004</v>
       </c>
-      <c r="AB26" s="81">
-        <f t="shared" ref="AB26" si="51">AB6/AA6-1</f>
+      <c r="AC26" s="79">
+        <f t="shared" ref="AC26" si="54">AC6/AB6-1</f>
         <v>0.13452164346259443</v>
       </c>
-      <c r="AC26" s="70">
-        <f>AC6/AB6-1</f>
+      <c r="AD26" s="70">
+        <f>AD6/AC6-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AD26" s="70">
-        <f t="shared" ref="AD26:AL26" si="52">AD6/AC6-1</f>
+      <c r="AE26" s="70">
+        <f t="shared" ref="AE26:AM26" si="55">AE6/AD6-1</f>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AE26" s="70">
-        <f t="shared" si="52"/>
+      <c r="AF26" s="70">
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AF26" s="70">
-        <f t="shared" si="52"/>
+      <c r="AG26" s="70">
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AG26" s="70">
-        <f t="shared" si="52"/>
+      <c r="AH26" s="70">
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AH26" s="70">
-        <f t="shared" si="52"/>
+      <c r="AI26" s="70">
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AI26" s="70">
-        <f t="shared" si="52"/>
+      <c r="AJ26" s="70">
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AJ26" s="70">
-        <f t="shared" si="52"/>
+      <c r="AK26" s="70">
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AK26" s="70">
-        <f t="shared" si="52"/>
+      <c r="AL26" s="70">
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AL26" s="70">
-        <f t="shared" si="52"/>
+      <c r="AM26" s="70">
+        <f t="shared" si="55"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="AM26" s="86"/>
-      <c r="AN26" s="89" t="s">
+      <c r="AN26" s="83"/>
+      <c r="AO26" s="86" t="s">
         <v>822</v>
       </c>
-      <c r="AO26" s="90">
+      <c r="AP26" s="87">
         <v>0.01</v>
       </c>
-      <c r="AP26" s="86"/>
-      <c r="AQ26" s="86"/>
-      <c r="AR26" s="86"/>
-      <c r="AS26" s="86"/>
-      <c r="AT26" s="86"/>
-    </row>
-    <row r="27" spans="2:70" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AQ26" s="83"/>
+      <c r="AR26" s="83"/>
+      <c r="AS26" s="83"/>
+      <c r="AT26" s="83"/>
+      <c r="AU26" s="83"/>
+    </row>
+    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
       <c r="I27" s="25">
-        <f t="shared" ref="I27:P27" si="53">I6/H6-1</f>
+        <f t="shared" ref="I27:P27" si="56">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
       <c r="J27" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>1.0549972940599743</v>
       </c>
       <c r="K27" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-3.8935998856132414E-2</v>
       </c>
       <c r="L27" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-6.1431667318194938E-2</v>
       </c>
       <c r="M27" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>7.4285635721933918E-2</v>
       </c>
       <c r="N27" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.13999233628213337</v>
       </c>
       <c r="O27" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-1.726150932381687E-2</v>
       </c>
       <c r="P27" s="25">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>-0.14652505955360839</v>
       </c>
       <c r="Q27" s="25">
-        <f t="shared" ref="Q27:R27" si="54">Q6/P6-1</f>
+        <f t="shared" ref="Q27" si="57">Q6/P6-1</f>
         <v>3.3388630685857734E-2</v>
       </c>
-      <c r="R27" s="72">
-        <f t="shared" si="54"/>
+      <c r="R27" s="25">
+        <f t="shared" ref="R27" si="58">R6/Q6-1</f>
+        <v>0.16210162208287926</v>
+      </c>
+      <c r="S27" s="121">
+        <f>S6/Q6-1</f>
         <v>-1</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>87</v>
       </c>
       <c r="V27" s="16" t="s">
         <v>87</v>
@@ -8608,583 +8808,602 @@
       <c r="AA27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AB27" s="77" t="s">
+      <c r="AB27" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AC27" s="85" t="s">
+      <c r="AC27" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="AD27" s="85" t="s">
+      <c r="AD27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AE27" s="85" t="s">
+      <c r="AE27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AF27" s="85" t="s">
+      <c r="AF27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AG27" s="85" t="s">
+      <c r="AG27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AH27" s="85" t="s">
+      <c r="AH27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AI27" s="85" t="s">
+      <c r="AI27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AJ27" s="85" t="s">
+      <c r="AJ27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AK27" s="85" t="s">
+      <c r="AK27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AL27" s="85" t="s">
+      <c r="AL27" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AM27" s="54"/>
-      <c r="AN27" s="89" t="s">
+      <c r="AM27" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN27" s="54"/>
+      <c r="AO27" s="86" t="s">
         <v>823</v>
       </c>
-      <c r="AO27" s="92">
-        <f>NPV(AO25,AB20:BR20)</f>
-        <v>10684.690065769553</v>
-      </c>
-      <c r="AP27" s="54"/>
+      <c r="AP27" s="89">
+        <f>NPV(AP25,AC20:BS20)</f>
+        <v>10679.774028732516</v>
+      </c>
       <c r="AQ27" s="54"/>
       <c r="AR27" s="54"/>
       <c r="AS27" s="54"/>
       <c r="AT27" s="54"/>
-    </row>
-    <row r="28" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="AN28" s="89" t="s">
+      <c r="AU27" s="54"/>
+    </row>
+    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="AO28" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="AO28" s="100">
+      <c r="AP28" s="97">
         <f>Main!C11</f>
-        <v>376.57900000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="2:70" x14ac:dyDescent="0.2">
-      <c r="AN29" s="89" t="s">
+        <v>180.2700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
+      <c r="AO29" s="86" t="s">
         <v>827</v>
       </c>
-      <c r="AO29" s="93">
-        <f>AO27+AO28</f>
-        <v>11061.269065769553</v>
-      </c>
-    </row>
-    <row r="30" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="AP29" s="90">
+        <f>AP27+AP28</f>
+        <v>10860.044028732516</v>
+      </c>
+    </row>
+    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
       <c r="H30" s="25">
-        <f t="shared" ref="H30:P30" si="55">H11/H9</f>
+        <f t="shared" ref="H30:P30" si="59">H11/H9</f>
         <v>0.4633040935672515</v>
       </c>
       <c r="I30" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.49342744898535978</v>
       </c>
       <c r="J30" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.47893226965969093</v>
       </c>
       <c r="K30" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.49411511605210556</v>
       </c>
       <c r="L30" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.50003460083757889</v>
       </c>
       <c r="M30" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.49486065463391976</v>
       </c>
       <c r="N30" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.50992409086321089</v>
       </c>
       <c r="O30" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.50740940554078751</v>
       </c>
       <c r="P30" s="25">
-        <f t="shared" si="55"/>
+        <f t="shared" si="59"/>
         <v>0.46517262451525621</v>
       </c>
       <c r="Q30" s="25">
-        <f t="shared" ref="Q30:R30" si="56">Q11/Q9</f>
+        <f t="shared" ref="Q30:S30" si="60">Q11/Q9</f>
         <v>0.46713889776340067</v>
       </c>
-      <c r="R30" s="72">
-        <f t="shared" si="56"/>
+      <c r="R30" s="25">
+        <f t="shared" ref="R30" si="61">R11/R9</f>
+        <v>0.45354902041762896</v>
+      </c>
+      <c r="S30" s="121">
+        <f t="shared" si="60"/>
         <v>0.4846507649730542</v>
       </c>
-      <c r="U30" s="25">
-        <f t="shared" ref="U30:V30" si="57">U11/U9</f>
+      <c r="V30" s="25">
+        <f t="shared" ref="V30:W30" si="62">V11/V9</f>
         <v>0.48079649525535828</v>
       </c>
-      <c r="V30" s="25">
-        <f t="shared" si="57"/>
+      <c r="W30" s="25">
+        <f t="shared" si="62"/>
         <v>0.46465939796022765</v>
       </c>
-      <c r="W30" s="25">
-        <f t="shared" ref="W30:X30" si="58">W11/W9</f>
+      <c r="X30" s="25">
+        <f t="shared" ref="X30:Y30" si="63">X11/X9</f>
         <v>0.45125353660795098</v>
       </c>
-      <c r="X30" s="25">
-        <f t="shared" si="58"/>
+      <c r="Y30" s="25">
+        <f t="shared" si="63"/>
         <v>0.45068122934191635</v>
-      </c>
-      <c r="Y30" s="25">
-        <f>Y11/Y9</f>
-        <v>0.4690471019142865</v>
       </c>
       <c r="Z30" s="25">
         <f>Z11/Z9</f>
-        <v>0.48273871552899916</v>
+        <v>0.4690471019142865</v>
       </c>
       <c r="AA30" s="25">
         <f>AA11/AA9</f>
+        <v>0.48273871552899916</v>
+      </c>
+      <c r="AB30" s="25">
+        <f>AB11/AB9</f>
         <v>0.50347780738021486</v>
       </c>
-      <c r="AB30" s="72">
-        <f t="shared" ref="AB30:AL30" si="59">AB11/AB9</f>
+      <c r="AC30" s="71">
+        <f t="shared" ref="AC30:AM30" si="64">AC11/AC9</f>
         <v>0.47837876457165424</v>
       </c>
-      <c r="AC30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AD30" s="65">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
-      <c r="AD30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AE30" s="65">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
-      <c r="AE30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AF30" s="65">
+        <f t="shared" si="64"/>
         <v>0.5</v>
       </c>
-      <c r="AF30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AG30" s="65">
+        <f t="shared" si="64"/>
         <v>0.51</v>
       </c>
-      <c r="AG30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AH30" s="65">
+        <f t="shared" si="64"/>
         <v>0.51</v>
       </c>
-      <c r="AH30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AI30" s="65">
+        <f t="shared" si="64"/>
         <v>0.51</v>
       </c>
-      <c r="AI30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AJ30" s="65">
+        <f t="shared" si="64"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="AJ30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AK30" s="65">
+        <f t="shared" si="64"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="AK30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AL30" s="65">
+        <f t="shared" si="64"/>
         <v>0.52500000000000013</v>
       </c>
-      <c r="AL30" s="65">
-        <f t="shared" si="59"/>
+      <c r="AM30" s="65">
+        <f t="shared" si="64"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="AN30" s="94" t="s">
+      <c r="AO30" s="91" t="s">
         <v>828</v>
       </c>
-      <c r="AO30" s="95">
-        <f>AO29/Main!C7</f>
-        <v>24.130168119043528</v>
-      </c>
-    </row>
-    <row r="31" spans="2:70" x14ac:dyDescent="0.2">
+      <c r="AP30" s="92">
+        <f>AP29/Main!C7</f>
+        <v>23.903847994885822</v>
+      </c>
+    </row>
+    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H31" s="25">
-        <f t="shared" ref="H31:P31" si="60">H14/H9</f>
+        <f t="shared" ref="H31:P31" si="65">H14/H9</f>
         <v>-0.60003869969040258</v>
       </c>
       <c r="I31" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-0.23977446159063937</v>
       </c>
       <c r="J31" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>4.0871696925585857E-2</v>
       </c>
       <c r="K31" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>3.9782983773648924E-2</v>
       </c>
       <c r="L31" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>8.5022609857659262E-2</v>
       </c>
       <c r="M31" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>8.9679578908114843E-2</v>
       </c>
       <c r="N31" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>0.11132994981663266</v>
       </c>
       <c r="O31" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>5.6324037653551901E-2</v>
       </c>
       <c r="P31" s="25">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-3.5325090607212478E-2</v>
       </c>
       <c r="Q31" s="25">
-        <f t="shared" ref="Q31:R31" si="61">Q14/Q9</f>
+        <f t="shared" ref="Q31:S31" si="66">Q14/Q9</f>
         <v>2.5560817667452114E-2</v>
       </c>
-      <c r="R31" s="72">
-        <f t="shared" si="61"/>
+      <c r="R31" s="25">
+        <f t="shared" ref="R31" si="67">R14/R9</f>
+        <v>7.5869583864132367E-2</v>
+      </c>
+      <c r="S31" s="121">
+        <f t="shared" si="66"/>
         <v>5.5693505622833969E-2</v>
       </c>
-      <c r="U31" s="25">
-        <f t="shared" ref="U31:V31" si="62">U14/U9</f>
+      <c r="V31" s="25">
+        <f t="shared" ref="V31:W31" si="68">V14/V9</f>
         <v>0.10308219411386373</v>
       </c>
-      <c r="V31" s="25">
-        <f t="shared" si="62"/>
+      <c r="W31" s="25">
+        <f t="shared" si="68"/>
         <v>8.7055883928249547E-2</v>
       </c>
-      <c r="W31" s="25">
-        <f t="shared" ref="W31:X31" si="63">W14/W9</f>
+      <c r="X31" s="25">
+        <f t="shared" ref="X31:Y31" si="69">X14/X9</f>
         <v>5.5806049974705223E-3</v>
       </c>
-      <c r="X31" s="25">
-        <f t="shared" si="63"/>
+      <c r="Y31" s="25">
+        <f t="shared" si="69"/>
         <v>-4.8172749478403712E-3</v>
-      </c>
-      <c r="Y31" s="25">
-        <f>Y14/Y9</f>
-        <v>4.4952926943923041E-2</v>
       </c>
       <c r="Z31" s="25">
         <f>Z14/Z9</f>
-        <v>-0.13709131875064667</v>
+        <v>4.4952926943923041E-2</v>
       </c>
       <c r="AA31" s="25">
         <f>AA14/AA9</f>
+        <v>-0.13709131875064667</v>
+      </c>
+      <c r="AB31" s="25">
+        <f>AB14/AB9</f>
         <v>8.5562225585584642E-2</v>
       </c>
-      <c r="AB31" s="72">
-        <f t="shared" ref="AB31:AL31" si="64">AB14/AB9</f>
+      <c r="AC31" s="71">
+        <f t="shared" ref="AC31:AM31" si="70">AC14/AC9</f>
         <v>9.9878896057257346E-2</v>
       </c>
-      <c r="AC31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AD31" s="25">
+        <f t="shared" si="70"/>
         <v>0.10574058850637473</v>
       </c>
-      <c r="AD31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AE31" s="25">
+        <f t="shared" si="70"/>
         <v>8.929962011025043E-2</v>
       </c>
-      <c r="AE31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AF31" s="25">
+        <f t="shared" si="70"/>
         <v>7.2159519611590991E-2</v>
       </c>
-      <c r="AF31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AG31" s="25">
+        <f t="shared" si="70"/>
         <v>6.4301729126631152E-2</v>
       </c>
-      <c r="AG31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AH31" s="25">
+        <f t="shared" si="70"/>
         <v>4.5707244508423069E-2</v>
       </c>
-      <c r="AH31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AI31" s="25">
+        <f t="shared" si="70"/>
         <v>2.5915357455617575E-2</v>
       </c>
-      <c r="AI31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AJ31" s="25">
+        <f t="shared" si="70"/>
         <v>4.0451766354821443E-2</v>
       </c>
-      <c r="AJ31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AK31" s="25">
+        <f t="shared" si="70"/>
         <v>4.0064621617268495E-2</v>
       </c>
-      <c r="AK31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AL31" s="25">
+        <f t="shared" si="70"/>
         <v>3.9742390774224687E-2</v>
       </c>
-      <c r="AL31" s="25">
-        <f t="shared" si="64"/>
+      <c r="AM31" s="25">
+        <f t="shared" si="70"/>
         <v>3.9475178638201436E-2</v>
       </c>
-      <c r="AN31" s="96" t="s">
+      <c r="AO31" s="93" t="s">
         <v>829</v>
       </c>
-      <c r="AO31" s="97">
+      <c r="AP31" s="94">
         <f>Main!C6</f>
-        <v>6.48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:70" x14ac:dyDescent="0.2">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
       <c r="H32" s="25">
-        <f t="shared" ref="H32:P32" si="65">H20/H9</f>
+        <f t="shared" ref="H32:P32" si="71">H20/H9</f>
         <v>-0.63390200378396988</v>
       </c>
       <c r="I32" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-0.258457690351026</v>
       </c>
       <c r="J32" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>2.7177550084751007E-2</v>
       </c>
       <c r="K32" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.13139939277628895</v>
       </c>
       <c r="L32" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>6.1845616630673783E-2</v>
       </c>
       <c r="M32" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>0.12046237830494838</v>
       </c>
       <c r="N32" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>7.3401262477903989E-2</v>
       </c>
       <c r="O32" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>7.1708502130191726E-2</v>
       </c>
       <c r="P32" s="25">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>-4.5820538147269906E-2</v>
       </c>
       <c r="Q32" s="25">
-        <f t="shared" ref="Q32:R32" si="66">Q20/Q9</f>
+        <f t="shared" ref="Q32:S32" si="72">Q20/Q9</f>
         <v>5.6943479778837729E-3</v>
       </c>
-      <c r="R32" s="72">
-        <f t="shared" si="66"/>
+      <c r="R32" s="25">
+        <f t="shared" ref="R32" si="73">R20/R9</f>
+        <v>5.5229575223094414E-2</v>
+      </c>
+      <c r="S32" s="121">
+        <f t="shared" si="72"/>
         <v>2.8919900616650899E-2</v>
       </c>
-      <c r="U32" s="25">
-        <f t="shared" ref="U32:V32" si="67">U20/U9</f>
+      <c r="V32" s="25">
+        <f t="shared" ref="V32:W32" si="74">V20/V9</f>
         <v>5.8681461696313067E-2</v>
       </c>
-      <c r="V32" s="25">
-        <f t="shared" si="67"/>
+      <c r="W32" s="25">
+        <f t="shared" si="74"/>
         <v>5.3572915376499462E-2</v>
       </c>
-      <c r="W32" s="25">
-        <f t="shared" ref="W32:X32" si="68">W20/W9</f>
+      <c r="X32" s="25">
+        <f t="shared" ref="X32:Y32" si="75">X20/X9</f>
         <v>-9.6728081448813046E-3</v>
       </c>
-      <c r="X32" s="25">
-        <f t="shared" si="68"/>
+      <c r="Y32" s="25">
+        <f t="shared" si="75"/>
         <v>-8.9159157626775096E-3</v>
-      </c>
-      <c r="Y32" s="25">
-        <f>Y20/Y9</f>
-        <v>1.7493770803541517E-2</v>
       </c>
       <c r="Z32" s="25">
         <f>Z20/Z9</f>
-        <v>-0.12273025009458804</v>
+        <v>1.7493770803541517E-2</v>
       </c>
       <c r="AA32" s="25">
         <f>AA20/AA9</f>
+        <v>-0.12273025009458804</v>
+      </c>
+      <c r="AB32" s="25">
+        <f>AB20/AB9</f>
         <v>6.3352186852177944E-2</v>
       </c>
-      <c r="AB32" s="72">
-        <f t="shared" ref="AB32:AL32" si="69">AB20/AB9</f>
-        <v>8.6874636591012341E-2</v>
-      </c>
-      <c r="AC32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AC32" s="71">
+        <f t="shared" ref="AC32:AM32" si="76">AC20/AC9</f>
+        <v>8.6049937961516734E-2</v>
+      </c>
+      <c r="AD32" s="25">
+        <f t="shared" si="76"/>
         <v>8.5767901073273672E-2</v>
       </c>
-      <c r="AD32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AE32" s="25">
+        <f t="shared" si="76"/>
         <v>7.2080359817990047E-2</v>
       </c>
-      <c r="AE32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AF32" s="25">
+        <f t="shared" si="76"/>
         <v>5.8105540987714269E-2</v>
       </c>
-      <c r="AF32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AG32" s="25">
+        <f t="shared" si="76"/>
         <v>5.192896990620418E-2</v>
       </c>
-      <c r="AG32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AH32" s="25">
+        <f t="shared" si="76"/>
         <v>3.654851853274825E-2</v>
       </c>
-      <c r="AH32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AI32" s="25">
+        <f t="shared" si="76"/>
         <v>2.0048966936886289E-2</v>
       </c>
-      <c r="AI32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AJ32" s="25">
+        <f t="shared" si="76"/>
         <v>3.2683210797327743E-2</v>
       </c>
-      <c r="AJ32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AK32" s="25">
+        <f t="shared" si="76"/>
         <v>3.2593435162698581E-2</v>
       </c>
-      <c r="AK32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AL32" s="25">
+        <f t="shared" si="76"/>
         <v>3.2525251472992428E-2</v>
       </c>
-      <c r="AL32" s="25">
-        <f t="shared" si="69"/>
+      <c r="AM32" s="25">
+        <f t="shared" si="76"/>
         <v>3.247492706915444E-2</v>
       </c>
-      <c r="AN32" s="98" t="s">
+      <c r="AO32" s="95" t="s">
         <v>830</v>
       </c>
-      <c r="AO32" s="99">
-        <f>AO30/AO31-1</f>
-        <v>2.7237913763956061</v>
-      </c>
-    </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP32" s="96">
+        <f>AP30/AP31-1</f>
+        <v>2.3572820217536266</v>
+      </c>
+    </row>
+    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H33" s="25">
-        <f t="shared" ref="H33:P33" si="70">H18/H17</f>
+        <f t="shared" ref="H33:P33" si="77">H18/H17</f>
         <v>-3.8298560626797436E-2</v>
       </c>
       <c r="I33" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>1.687893119831264E-2</v>
       </c>
       <c r="J33" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>-0.10194614476681955</v>
       </c>
       <c r="K33" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.15805252319075647</v>
       </c>
       <c r="L33" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.11546866418145921</v>
       </c>
       <c r="M33" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>5.7957527484595879E-2</v>
       </c>
       <c r="N33" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>0.14222175553338792</v>
       </c>
       <c r="O33" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>-6.6274750665379883E-2</v>
       </c>
       <c r="P33" s="25">
-        <f t="shared" si="70"/>
+        <f t="shared" si="77"/>
         <v>-0.15684131822626085</v>
       </c>
       <c r="Q33" s="25">
-        <f t="shared" ref="Q33:R33" si="71">Q18/Q17</f>
+        <f t="shared" ref="Q33:S33" si="78">Q18/Q17</f>
         <v>0.39734494626677114</v>
       </c>
-      <c r="R33" s="72">
-        <f t="shared" si="71"/>
+      <c r="R33" s="25">
+        <f t="shared" ref="R33" si="79">R18/R17</f>
+        <v>0.20212746629846307</v>
+      </c>
+      <c r="S33" s="121">
+        <f t="shared" si="78"/>
         <v>0.4</v>
       </c>
-      <c r="U33" s="25">
-        <f t="shared" ref="U33:V33" si="72">U18/U17</f>
+      <c r="V33" s="25">
+        <f t="shared" ref="V33:W33" si="80">V18/V17</f>
         <v>0.39854662063436685</v>
       </c>
-      <c r="V33" s="25">
-        <f t="shared" si="72"/>
+      <c r="W33" s="25">
+        <f t="shared" si="80"/>
         <v>0.33869041988275145</v>
       </c>
-      <c r="W33" s="25">
-        <f t="shared" ref="W33:X33" si="73">W18/W17</f>
+      <c r="X33" s="25">
+        <f t="shared" ref="X33:Y33" si="81">X18/X17</f>
         <v>-3.6813463963526378</v>
       </c>
-      <c r="X33" s="25">
-        <f t="shared" si="73"/>
+      <c r="Y33" s="25">
+        <f t="shared" si="81"/>
         <v>0.30318050392399659</v>
-      </c>
-      <c r="Y33" s="25">
-        <f>Y18/Y17</f>
-        <v>0.33369391693869405</v>
       </c>
       <c r="Z33" s="25">
         <f>Z18/Z17</f>
-        <v>-0.10026921452702703</v>
+        <v>0.33369391693869405</v>
       </c>
       <c r="AA33" s="25">
         <f>AA18/AA17</f>
+        <v>-0.10026921452702703</v>
+      </c>
+      <c r="AB33" s="25">
+        <f>AB18/AB17</f>
         <v>8.2051387009212537E-2</v>
       </c>
-      <c r="AB33" s="72">
-        <f t="shared" ref="AB33" si="74">AB18/AB17</f>
+      <c r="AC33" s="71">
+        <f t="shared" ref="AC33" si="82">AC18/AC17</f>
         <v>0.08</v>
       </c>
-      <c r="AC33" s="65">
-        <f>AC18/AC17</f>
+      <c r="AD33" s="65">
+        <f>AD18/AD17</f>
         <v>0.15</v>
       </c>
-      <c r="AD33" s="65">
-        <f t="shared" ref="AD33:AL33" si="75">AD18/AD17</f>
+      <c r="AE33" s="65">
+        <f t="shared" ref="AE33:AM33" si="83">AE18/AE17</f>
         <v>0.15</v>
       </c>
-      <c r="AE33" s="65">
-        <f t="shared" si="75"/>
+      <c r="AF33" s="65">
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AF33" s="65">
-        <f t="shared" si="75"/>
+      <c r="AG33" s="65">
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AG33" s="65">
-        <f t="shared" si="75"/>
+      <c r="AH33" s="65">
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AH33" s="65">
-        <f t="shared" si="75"/>
+      <c r="AI33" s="65">
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AI33" s="65">
-        <f t="shared" si="75"/>
+      <c r="AJ33" s="65">
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AJ33" s="65">
-        <f t="shared" si="75"/>
+      <c r="AK33" s="65">
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AK33" s="65">
-        <f t="shared" si="75"/>
+      <c r="AL33" s="65">
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AL33" s="65">
-        <f t="shared" si="75"/>
+      <c r="AM33" s="65">
+        <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AO33" s="91"/>
-    </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AP33" s="88"/>
+    </row>
+    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
@@ -9206,11 +9425,14 @@
       <c r="Q37" s="32">
         <v>179</v>
       </c>
-      <c r="R37" s="75"/>
-      <c r="AB37" s="75"/>
-      <c r="AK37" s="101"/>
-    </row>
-    <row r="38" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R37" s="32">
+        <v>178</v>
+      </c>
+      <c r="S37" s="124"/>
+      <c r="AC37" s="74"/>
+      <c r="AL37" s="98"/>
+    </row>
+    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
@@ -9232,11 +9454,14 @@
       <c r="Q38" s="32">
         <v>18</v>
       </c>
-      <c r="R38" s="75"/>
-      <c r="AB38" s="75"/>
-      <c r="AK38" s="56"/>
-    </row>
-    <row r="39" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R38" s="32">
+        <v>18</v>
+      </c>
+      <c r="S38" s="124"/>
+      <c r="AC38" s="74"/>
+      <c r="AL38" s="56"/>
+    </row>
+    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
@@ -9264,10 +9489,14 @@
         <f>Q37+Q38</f>
         <v>197</v>
       </c>
-      <c r="R39" s="75"/>
-      <c r="AB39" s="75"/>
-    </row>
-    <row r="40" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R39" s="32">
+        <f>R37+R38</f>
+        <v>196</v>
+      </c>
+      <c r="S39" s="124"/>
+      <c r="AC39" s="74"/>
+    </row>
+    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
@@ -9289,10 +9518,13 @@
       <c r="Q40" s="32">
         <v>156</v>
       </c>
-      <c r="R40" s="75"/>
-      <c r="AB40" s="75"/>
-    </row>
-    <row r="41" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R40" s="32">
+        <v>162</v>
+      </c>
+      <c r="S40" s="124"/>
+      <c r="AC40" s="74"/>
+    </row>
+    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
@@ -9314,10 +9546,13 @@
       <c r="Q41" s="32">
         <v>87</v>
       </c>
-      <c r="R41" s="75"/>
-      <c r="AB41" s="75"/>
-    </row>
-    <row r="42" spans="2:41" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R41" s="32">
+        <v>79</v>
+      </c>
+      <c r="S41" s="124"/>
+      <c r="AC41" s="74"/>
+    </row>
+    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
@@ -9345,10 +9580,14 @@
         <f>Q40+Q41</f>
         <v>243</v>
       </c>
-      <c r="R42" s="75"/>
-      <c r="AB42" s="75"/>
-    </row>
-    <row r="43" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="R42" s="32">
+        <f>R40+R41</f>
+        <v>241</v>
+      </c>
+      <c r="S42" s="124"/>
+      <c r="AC42" s="74"/>
+    </row>
+    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
@@ -9374,8 +9613,11 @@
         <f>Q37+Q40</f>
         <v>335</v>
       </c>
-    </row>
-    <row r="44" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="R43" s="32">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
@@ -9401,8 +9643,11 @@
         <f>Q38+Q41</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="2:41" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R44" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
@@ -9430,19 +9675,23 @@
         <f>Q43+Q44</f>
         <v>440</v>
       </c>
-      <c r="R45" s="76"/>
-      <c r="Y45" s="2">
+      <c r="R45" s="58">
+        <f>R43+R44</f>
+        <v>437</v>
+      </c>
+      <c r="S45" s="129"/>
+      <c r="Z45" s="2">
         <v>338</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="AA45" s="2">
         <v>439</v>
       </c>
-      <c r="AA45" s="2">
+      <c r="AB45" s="2">
         <v>422</v>
       </c>
-      <c r="AB45" s="76"/>
-    </row>
-    <row r="47" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AC45" s="75"/>
+    </row>
+    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>814</v>
       </c>
@@ -9472,25 +9721,29 @@
         <f>Q6/Q45</f>
         <v>2.9829772727272728</v>
       </c>
-      <c r="Y47" s="53">
-        <f t="shared" ref="Y47:AA47" si="76">Y6/Y45</f>
+      <c r="R47" s="53">
+        <f>R6/R45</f>
+        <v>3.4903203661327229</v>
+      </c>
+      <c r="Z47" s="53">
+        <f t="shared" ref="Z47:AB47" si="84">Z6/Z45</f>
         <v>14.713579881656804</v>
       </c>
-      <c r="Z47" s="53">
-        <f t="shared" si="76"/>
+      <c r="AA47" s="53">
+        <f t="shared" si="84"/>
         <v>9.6377608200455569</v>
       </c>
-      <c r="AA47" s="53">
-        <f t="shared" si="76"/>
+      <c r="AB47" s="53">
+        <f t="shared" si="84"/>
         <v>13.192582938388627</v>
       </c>
     </row>
-    <row r="49" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9512,16 +9765,18 @@
       <c r="Q50" s="21">
         <v>1049.413</v>
       </c>
-      <c r="R50" s="76"/>
-      <c r="Z50" s="21">
+      <c r="R50" s="21">
+        <v>853.65200000000004</v>
+      </c>
+      <c r="S50" s="129"/>
+      <c r="AA50" s="21">
         <f>K50</f>
         <v>1517.3610000000001</v>
       </c>
-      <c r="AA50" s="21">
+      <c r="AB50" s="21">
         <v>1669.453</v>
       </c>
-      <c r="AB50" s="76"/>
-      <c r="AC50" s="58"/>
+      <c r="AC50" s="75"/>
       <c r="AD50" s="58"/>
       <c r="AE50" s="58"/>
       <c r="AF50" s="58"/>
@@ -9539,8 +9794,9 @@
       <c r="AR50" s="58"/>
       <c r="AS50" s="58"/>
       <c r="AT50" s="58"/>
-    </row>
-    <row r="51" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU50" s="58"/>
+    </row>
+    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -9562,15 +9818,18 @@
       <c r="Q51" s="22">
         <v>693.63599999999997</v>
       </c>
-      <c r="Z51" s="22">
+      <c r="R51" s="22">
+        <v>789.08699999999999</v>
+      </c>
+      <c r="AA51" s="22">
         <f>K51</f>
         <v>527.34</v>
       </c>
-      <c r="AA51" s="22">
+      <c r="AB51" s="22">
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -9592,16 +9851,18 @@
       <c r="Q52" s="21">
         <v>954.39400000000001</v>
       </c>
-      <c r="R52" s="76"/>
-      <c r="Z52" s="21">
+      <c r="R52" s="21">
+        <v>1080.42</v>
+      </c>
+      <c r="S52" s="129"/>
+      <c r="AA52" s="21">
         <f>K52</f>
         <v>895.97400000000005</v>
       </c>
-      <c r="AA52" s="21">
+      <c r="AB52" s="21">
         <v>811.41</v>
       </c>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="58"/>
+      <c r="AC52" s="75"/>
       <c r="AD52" s="58"/>
       <c r="AE52" s="58"/>
       <c r="AF52" s="58"/>
@@ -9619,8 +9880,9 @@
       <c r="AR52" s="58"/>
       <c r="AS52" s="58"/>
       <c r="AT52" s="58"/>
-    </row>
-    <row r="53" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU52" s="58"/>
+    </row>
+    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -9642,24 +9904,27 @@
       <c r="Q53" s="22">
         <v>302.66399999999999</v>
       </c>
-      <c r="Z53" s="22">
+      <c r="R53" s="22">
+        <v>356.24400000000003</v>
+      </c>
+      <c r="AA53" s="22">
         <f>K53</f>
         <v>282.3</v>
       </c>
-      <c r="AA53" s="22">
+      <c r="AB53" s="22">
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
       <c r="H54" s="22">
-        <f t="shared" ref="H54:N54" si="77">SUM(H50:H53)</f>
+        <f t="shared" ref="H54:N54" si="85">SUM(H50:H53)</f>
         <v>0</v>
       </c>
       <c r="I54" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="J54" s="22">
@@ -9667,19 +9932,19 @@
         <v>2973.3409999999999</v>
       </c>
       <c r="K54" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>3222.9750000000004</v>
       </c>
       <c r="L54" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="M54" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="N54" s="22">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>3127.944</v>
       </c>
       <c r="O54" s="22">
@@ -9694,16 +9959,20 @@
         <f>SUM(Q50:Q53)</f>
         <v>3000.107</v>
       </c>
-      <c r="Z54" s="22">
-        <f>SUM(Z50:Z53)</f>
-        <v>3222.9750000000004</v>
+      <c r="R54" s="22">
+        <f>SUM(R50:R53)</f>
+        <v>3079.4030000000002</v>
       </c>
       <c r="AA54" s="22">
         <f>SUM(AA50:AA53)</f>
+        <v>3222.9750000000004</v>
+      </c>
+      <c r="AB54" s="22">
+        <f>SUM(AB50:AB53)</f>
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -9725,15 +9994,18 @@
       <c r="Q55" s="22">
         <v>609.923</v>
       </c>
-      <c r="Z55" s="22">
-        <f t="shared" ref="Z55:Z59" si="78">K55</f>
+      <c r="R55" s="22">
+        <v>636.74599999999998</v>
+      </c>
+      <c r="AA55" s="22">
+        <f>K55</f>
         <v>658.678</v>
       </c>
-      <c r="AA55" s="22">
+      <c r="AB55" s="22">
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
@@ -9755,15 +10027,18 @@
       <c r="Q56" s="22">
         <v>408.75299999999999</v>
       </c>
-      <c r="Z56" s="22">
-        <f t="shared" si="78"/>
+      <c r="R56" s="22">
+        <v>471.89400000000001</v>
+      </c>
+      <c r="AA56" s="22">
+        <f>K56</f>
         <v>536.66</v>
       </c>
-      <c r="AA56" s="22">
+      <c r="AB56" s="22">
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
@@ -9791,16 +10066,20 @@
         <f>479.521+9.91</f>
         <v>489.43100000000004</v>
       </c>
-      <c r="Z57" s="22">
-        <f t="shared" si="78"/>
+      <c r="R57" s="22">
+        <f>468.332+9.291</f>
+        <v>477.62299999999999</v>
+      </c>
+      <c r="AA57" s="22">
+        <f>K57</f>
         <v>515.50900000000001</v>
       </c>
-      <c r="AA57" s="22">
+      <c r="AB57" s="22">
         <f>495.215+11.01</f>
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
@@ -9822,15 +10101,18 @@
       <c r="Q58" s="22">
         <v>19.443999999999999</v>
       </c>
-      <c r="Z58" s="22">
-        <f t="shared" si="78"/>
+      <c r="R58" s="22">
+        <v>18.527999999999999</v>
+      </c>
+      <c r="AA58" s="22">
+        <f>K58</f>
         <v>23.93</v>
       </c>
-      <c r="AA58" s="22">
+      <c r="AB58" s="22">
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
@@ -9852,44 +10134,47 @@
       <c r="Q59" s="22">
         <v>78.162000000000006</v>
       </c>
-      <c r="Z59" s="22">
-        <f t="shared" si="78"/>
+      <c r="R59" s="22">
+        <v>85.876999999999995</v>
+      </c>
+      <c r="AA59" s="22">
+        <f>K59</f>
         <v>72.876000000000005</v>
       </c>
-      <c r="AA59" s="22">
+      <c r="AB59" s="22">
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
       <c r="H60" s="22">
-        <f t="shared" ref="H60:N60" si="79">H54+H55+H56+H57+H58+H59</f>
+        <f t="shared" ref="H60:N60" si="86">H54+H55+H56+H57+H58+H59</f>
         <v>0</v>
       </c>
       <c r="I60" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="J60" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>4863.5509999999995</v>
       </c>
       <c r="K60" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>5030.6280000000006</v>
       </c>
       <c r="L60" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="M60" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>0</v>
       </c>
       <c r="N60" s="22">
-        <f t="shared" si="79"/>
+        <f t="shared" si="86"/>
         <v>4822.3010000000004</v>
       </c>
       <c r="O60" s="22">
@@ -9904,22 +10189,26 @@
         <f>Q54+Q55+Q56+Q57+Q58+Q59</f>
         <v>4605.8200000000006</v>
       </c>
-      <c r="Z60" s="22">
-        <f>Z54+Z55+Z56+Z57+Z58+Z59</f>
-        <v>5030.6280000000006</v>
+      <c r="R60" s="22">
+        <f>R54+R55+R56+R57+R58+R59</f>
+        <v>4770.0710000000008</v>
       </c>
       <c r="AA60" s="22">
         <f>AA54+AA55+AA56+AA57+AA58+AA59</f>
+        <v>5030.6280000000006</v>
+      </c>
+      <c r="AB60" s="22">
+        <f>AB54+AB55+AB56+AB57+AB58+AB59</f>
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
       <c r="K61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
-      <c r="AA61" s="22"/>
-    </row>
-    <row r="62" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AB61" s="22"/>
+    </row>
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
@@ -9941,15 +10230,18 @@
       <c r="Q62" s="22">
         <v>669.20299999999997</v>
       </c>
-      <c r="Z62" s="22">
-        <f t="shared" ref="Z62:Z70" si="80">K62</f>
+      <c r="R62" s="22">
+        <v>747.33</v>
+      </c>
+      <c r="AA62" s="22">
+        <f>K62</f>
         <v>575.95399999999995</v>
       </c>
-      <c r="AA62" s="22">
+      <c r="AB62" s="22">
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
@@ -9971,15 +10263,18 @@
       <c r="Q63" s="22">
         <v>373.04500000000002</v>
       </c>
-      <c r="Z63" s="22">
-        <f t="shared" si="80"/>
+      <c r="R63" s="22">
+        <v>353.435</v>
+      </c>
+      <c r="AA63" s="22">
+        <f>K63</f>
         <v>378.85899999999998</v>
       </c>
-      <c r="AA63" s="22">
+      <c r="AB63" s="22">
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
@@ -10001,15 +10296,18 @@
       <c r="Q64" s="22">
         <v>157.48699999999999</v>
       </c>
-      <c r="Z64" s="22">
-        <f t="shared" si="80"/>
+      <c r="R64" s="22">
+        <v>155.02099999999999</v>
+      </c>
+      <c r="AA64" s="22">
+        <f>K64</f>
         <v>203.399</v>
       </c>
-      <c r="AA64" s="22">
+      <c r="AB64" s="22">
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
@@ -10031,15 +10329,18 @@
       <c r="Q65" s="22">
         <v>131.43799999999999</v>
       </c>
-      <c r="Z65" s="22">
-        <f t="shared" si="80"/>
+      <c r="R65" s="22">
+        <v>132.184</v>
+      </c>
+      <c r="AA65" s="22">
+        <f>K65</f>
         <v>162.56100000000001</v>
       </c>
-      <c r="AA65" s="22">
+      <c r="AB65" s="22">
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
@@ -10061,44 +10362,47 @@
       <c r="Q66" s="22">
         <v>127.50700000000001</v>
       </c>
-      <c r="Z66" s="22">
-        <f t="shared" si="80"/>
+      <c r="R66" s="22">
+        <v>85.293999999999997</v>
+      </c>
+      <c r="AA66" s="22">
+        <f>K66</f>
         <v>92.503</v>
       </c>
-      <c r="AA66" s="22">
+      <c r="AB66" s="22">
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
       <c r="H67" s="22">
-        <f t="shared" ref="H67:N67" si="81">SUM(H62:H66)</f>
+        <f t="shared" ref="H67:N67" si="87">SUM(H62:H66)</f>
         <v>0</v>
       </c>
       <c r="I67" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="J67" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1448.3990000000001</v>
       </c>
       <c r="K67" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1413.2759999999998</v>
       </c>
       <c r="L67" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="M67" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="N67" s="22">
-        <f t="shared" si="81"/>
+        <f t="shared" si="87"/>
         <v>1354.5379999999998</v>
       </c>
       <c r="O67" s="22">
@@ -10113,16 +10417,20 @@
         <f>SUM(Q62:Q66)</f>
         <v>1458.6800000000003</v>
       </c>
-      <c r="Z67" s="22">
-        <f>SUM(Z62:Z66)</f>
-        <v>1413.2759999999998</v>
+      <c r="R67" s="22">
+        <f>SUM(R62:R66)</f>
+        <v>1473.2640000000001</v>
       </c>
       <c r="AA67" s="22">
         <f>SUM(AA62:AA66)</f>
+        <v>1413.2759999999998</v>
+      </c>
+      <c r="AB67" s="22">
+        <f>SUM(AB62:AB66)</f>
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
@@ -10144,16 +10452,18 @@
       <c r="Q68" s="21">
         <v>672.83399999999995</v>
       </c>
-      <c r="R68" s="76"/>
-      <c r="Z68" s="21">
-        <f t="shared" si="80"/>
+      <c r="R68" s="21">
+        <v>673.38199999999995</v>
+      </c>
+      <c r="S68" s="129"/>
+      <c r="AA68" s="21">
+        <f>K68</f>
         <v>1003.556</v>
       </c>
-      <c r="AA68" s="21">
+      <c r="AB68" s="21">
         <v>662.53099999999995</v>
       </c>
-      <c r="AB68" s="76"/>
-      <c r="AC68" s="58"/>
+      <c r="AC68" s="75"/>
       <c r="AD68" s="58"/>
       <c r="AE68" s="58"/>
       <c r="AF68" s="58"/>
@@ -10171,8 +10481,9 @@
       <c r="AR68" s="58"/>
       <c r="AS68" s="58"/>
       <c r="AT68" s="58"/>
-    </row>
-    <row r="69" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU68" s="58"/>
+    </row>
+    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
@@ -10194,15 +10505,18 @@
       <c r="Q69" s="22">
         <v>650.83299999999997</v>
       </c>
-      <c r="Z69" s="22">
-        <f t="shared" si="80"/>
+      <c r="R69" s="22">
+        <v>705.02700000000004</v>
+      </c>
+      <c r="AA69" s="22">
+        <f>K69</f>
         <v>839.41399999999999</v>
       </c>
-      <c r="AA69" s="22">
+      <c r="AB69" s="22">
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
@@ -10224,44 +10538,47 @@
       <c r="Q70" s="22">
         <v>94.378</v>
       </c>
-      <c r="Z70" s="22">
-        <f t="shared" si="80"/>
+      <c r="R70" s="22">
+        <v>102.065</v>
+      </c>
+      <c r="AA70" s="22">
+        <f>K70</f>
         <v>98.388999999999996</v>
       </c>
-      <c r="AA70" s="22">
+      <c r="AB70" s="22">
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H71" s="22">
-        <f t="shared" ref="H71:N71" si="82">H67+H68+H69+H70</f>
+        <f t="shared" ref="H71:N71" si="88">H67+H68+H69+H70</f>
         <v>0</v>
       </c>
       <c r="I71" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="J71" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3393.2050000000004</v>
       </c>
       <c r="K71" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>3354.6350000000002</v>
       </c>
       <c r="L71" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="M71" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="N71" s="22">
-        <f t="shared" si="82"/>
+        <f t="shared" si="88"/>
         <v>2844.5520000000001</v>
       </c>
       <c r="O71" s="22">
@@ -10276,21 +10593,25 @@
         <f>Q67+Q68+Q69+Q70</f>
         <v>2876.7250000000004</v>
       </c>
-      <c r="Z71" s="22">
-        <f>Z67+Z68+Z69+Z70</f>
-        <v>3354.6350000000002</v>
+      <c r="R71" s="22">
+        <f>R67+R68+R69+R70</f>
+        <v>2953.7380000000003</v>
       </c>
       <c r="AA71" s="22">
         <f>AA67+AA68+AA69+AA70</f>
+        <v>3354.6350000000002</v>
+      </c>
+      <c r="AB71" s="22">
+        <f>AB67+AB68+AB69+AB70</f>
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
-      <c r="AA72" s="22"/>
-    </row>
-    <row r="73" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AB72" s="22"/>
+    </row>
+    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
@@ -10312,15 +10633,18 @@
       <c r="Q73" s="22">
         <v>1729.075</v>
       </c>
-      <c r="Z73" s="22">
-        <f t="shared" ref="Z73" si="83">K73</f>
+      <c r="R73" s="22">
+        <v>1816.3330000000001</v>
+      </c>
+      <c r="AA73" s="22">
+        <f>K73</f>
         <v>1675.9929999999999</v>
       </c>
-      <c r="AA73" s="22">
+      <c r="AB73" s="22">
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
@@ -10348,33 +10672,37 @@
         <f>Q71+Q73</f>
         <v>4605.8</v>
       </c>
-      <c r="Z74" s="22">
-        <f>Z71+Z73</f>
-        <v>5030.6280000000006</v>
+      <c r="R74" s="22">
+        <f>R71+R73</f>
+        <v>4770.0709999999999</v>
       </c>
       <c r="AA74" s="22">
         <f>AA71+AA73</f>
+        <v>5030.6280000000006</v>
+      </c>
+      <c r="AB74" s="22">
+        <f>AB71+AB73</f>
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
       <c r="J76" s="22">
-        <f t="shared" ref="J76:K76" si="84">J60-J71</f>
+        <f t="shared" ref="J76:K76" si="89">J60-J71</f>
         <v>1470.3459999999991</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="84"/>
+        <f t="shared" si="89"/>
         <v>1675.9930000000004</v>
       </c>
       <c r="N76" s="22">
-        <f t="shared" ref="N76:O76" si="85">N60-N71</f>
+        <f t="shared" ref="N76:O76" si="90">N60-N71</f>
         <v>1977.7490000000003</v>
       </c>
       <c r="O76" s="22">
-        <f t="shared" si="85"/>
+        <f t="shared" si="90"/>
         <v>2088.9740000000011</v>
       </c>
       <c r="P76" s="22">
@@ -10385,33 +10713,37 @@
         <f>Q60-Q71</f>
         <v>1729.0950000000003</v>
       </c>
-      <c r="Z76" s="22">
-        <f t="shared" ref="Z76:Z77" si="86">K76</f>
+      <c r="R76" s="22">
+        <f t="shared" ref="R76" si="91">R60-R71</f>
+        <v>1816.3330000000005</v>
+      </c>
+      <c r="AA76" s="22">
+        <f>K76</f>
         <v>1675.9930000000004</v>
       </c>
-      <c r="AA76" s="22">
-        <f>AA60-AA71</f>
+      <c r="AB76" s="22">
+        <f>AB60-AB71</f>
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:46" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
       <c r="J77" s="53">
-        <f t="shared" ref="J77:K77" si="87">J76/J22</f>
+        <f t="shared" ref="J77:K77" si="92">J76/J22</f>
         <v>3.2196840634675921</v>
       </c>
       <c r="K77" s="53">
-        <f t="shared" si="87"/>
+        <f t="shared" si="92"/>
         <v>3.6850318044198591</v>
       </c>
       <c r="N77" s="53">
-        <f t="shared" ref="N77:O77" si="88">N76/N22</f>
+        <f t="shared" ref="N77:O77" si="93">N76/N22</f>
         <v>4.2079586895374916</v>
       </c>
       <c r="O77" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="93"/>
         <v>4.3869603383608675</v>
       </c>
       <c r="P77" s="53">
@@ -10422,16 +10754,20 @@
         <f>Q76/Q22</f>
         <v>3.7718988253002195</v>
       </c>
-      <c r="Z77" s="22">
-        <f t="shared" si="86"/>
+      <c r="R77" s="53">
+        <f t="shared" ref="R77" si="94">R76/R22</f>
+        <v>3.9978979666404015</v>
+      </c>
+      <c r="AA77" s="22">
+        <f>K77</f>
         <v>3.6850318044198591</v>
       </c>
-      <c r="AA77" s="53">
-        <f>AA76/AA22</f>
+      <c r="AB77" s="53">
+        <f>AB76/AB22</f>
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:46" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
@@ -10443,201 +10779,217 @@
         <f>O52/K52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
-      <c r="R79" s="76"/>
-      <c r="AA79" s="70">
-        <f>AA52/Z52-1</f>
+      <c r="S79" s="129"/>
+      <c r="AB79" s="70">
+        <f>AB52/AA52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
-      <c r="AB79" s="76"/>
-    </row>
-    <row r="80" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC79" s="75"/>
+    </row>
+    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
       <c r="K80" s="65">
-        <f t="shared" ref="K80" si="89">K52/J52-1</f>
+        <f t="shared" ref="K80" si="95">K52/J52-1</f>
         <v>-0.15221815876500333</v>
       </c>
       <c r="O80" s="65">
-        <f t="shared" ref="O80" si="90">O52/N52-1</f>
+        <f t="shared" ref="O80" si="96">O52/N52-1</f>
         <v>-3.1429799221715626E-2</v>
       </c>
       <c r="P80" s="65">
-        <f t="shared" ref="P80" si="91">P52/O52-1</f>
+        <f t="shared" ref="P80" si="97">P52/O52-1</f>
         <v>1.6076952465461369E-2</v>
       </c>
       <c r="Q80" s="65">
         <f>Q52/P52-1</f>
         <v>0.15760593361675279</v>
       </c>
-      <c r="R80" s="75"/>
-      <c r="AB80" s="75"/>
-    </row>
-    <row r="82" spans="2:28" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R80" s="65">
+        <f>R52/Q52-1</f>
+        <v>0.13204818974134369</v>
+      </c>
+      <c r="S80" s="124"/>
+      <c r="AC80" s="74"/>
+    </row>
+    <row r="82" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="56">
-        <f t="shared" ref="H82:N82" si="92">H50</f>
+        <f t="shared" ref="H82:N82" si="98">H50</f>
         <v>0</v>
       </c>
       <c r="I82" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="J82" s="56">
-        <f t="shared" ref="J82:K82" si="93">J50</f>
+        <f t="shared" ref="J82" si="99">J50</f>
         <v>865.60900000000004</v>
       </c>
       <c r="K82" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>1517.3610000000001</v>
       </c>
       <c r="L82" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="M82" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>0</v>
       </c>
       <c r="N82" s="56">
-        <f t="shared" si="92"/>
+        <f t="shared" si="98"/>
         <v>1253.7059999999999</v>
       </c>
       <c r="O82" s="56">
-        <f t="shared" ref="O82:P82" si="94">O50</f>
+        <f t="shared" ref="O82:P82" si="100">O50</f>
         <v>1669.453</v>
       </c>
       <c r="P82" s="56">
-        <f t="shared" si="94"/>
+        <f t="shared" si="100"/>
         <v>1009.139</v>
       </c>
       <c r="Q82" s="56">
         <f>Q50</f>
         <v>1049.413</v>
       </c>
-      <c r="R82" s="74"/>
-      <c r="Z82" s="56">
-        <f t="shared" ref="Z82:AA82" si="95">Z50</f>
+      <c r="R82" s="56">
+        <f t="shared" ref="R82" si="101">R50</f>
+        <v>853.65200000000004</v>
+      </c>
+      <c r="S82" s="123"/>
+      <c r="AA82" s="56">
+        <f t="shared" ref="AA82:AB82" si="102">AA50</f>
         <v>1517.3610000000001</v>
       </c>
-      <c r="AA82" s="56">
-        <f t="shared" si="95"/>
+      <c r="AB82" s="56">
+        <f t="shared" si="102"/>
         <v>1669.453</v>
       </c>
-      <c r="AB82" s="75"/>
-    </row>
-    <row r="83" spans="2:28" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC82" s="74"/>
+    </row>
+    <row r="83" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
       <c r="H83" s="56">
-        <f t="shared" ref="H83:N83" si="96">H68</f>
+        <f t="shared" ref="H83:N83" si="103">H68</f>
         <v>0</v>
       </c>
       <c r="I83" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="J83" s="56">
-        <f t="shared" ref="J83:K83" si="97">J68</f>
+        <f t="shared" ref="J83" si="104">J68</f>
         <v>997.34699999999998</v>
       </c>
       <c r="K83" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>1003.556</v>
       </c>
       <c r="L83" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="M83" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="N83" s="56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="103"/>
         <v>662.90300000000002</v>
       </c>
       <c r="O83" s="56">
-        <f t="shared" ref="O83:P83" si="98">O68</f>
+        <f t="shared" ref="O83:P83" si="105">O68</f>
         <v>662.53099999999995</v>
       </c>
       <c r="P83" s="56">
-        <f t="shared" si="98"/>
+        <f t="shared" si="105"/>
         <v>672.28599999999994</v>
       </c>
       <c r="Q83" s="56">
         <f>Q68</f>
         <v>672.83399999999995</v>
       </c>
-      <c r="R83" s="74"/>
-      <c r="Z83" s="56">
-        <f t="shared" ref="Z83:AA83" si="99">Z68</f>
+      <c r="R83" s="56">
+        <f t="shared" ref="R83" si="106">R68</f>
+        <v>673.38199999999995</v>
+      </c>
+      <c r="S83" s="123"/>
+      <c r="AA83" s="56">
+        <f t="shared" ref="AA83:AB83" si="107">AA68</f>
         <v>1003.556</v>
       </c>
-      <c r="AA83" s="56">
-        <f t="shared" si="99"/>
+      <c r="AB83" s="56">
+        <f t="shared" si="107"/>
         <v>662.53099999999995</v>
       </c>
-      <c r="AB83" s="75"/>
-    </row>
-    <row r="84" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="74"/>
+    </row>
+    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H84" s="22">
-        <f t="shared" ref="H84:N84" si="100">H82-H83</f>
+        <f t="shared" ref="H84:N84" si="108">H82-H83</f>
         <v>0</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="J84" s="22">
-        <f t="shared" ref="J84:K84" si="101">J82-J83</f>
+        <f t="shared" ref="J84" si="109">J82-J83</f>
         <v>-131.73799999999994</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>513.80500000000006</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="M84" s="22">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N84" s="22">
-        <f t="shared" si="100"/>
+        <f t="shared" si="108"/>
         <v>590.80299999999988</v>
       </c>
       <c r="O84" s="22">
-        <f t="shared" ref="O84:P84" si="102">O82-O83</f>
+        <f t="shared" ref="O84:P84" si="110">O82-O83</f>
         <v>1006.922</v>
       </c>
       <c r="P84" s="22">
-        <f t="shared" si="102"/>
+        <f t="shared" si="110"/>
         <v>336.85300000000007</v>
       </c>
       <c r="Q84" s="22">
         <f>Q82-Q83</f>
         <v>376.57900000000006</v>
       </c>
-      <c r="R84" s="74"/>
-      <c r="Z84" s="22">
-        <f t="shared" ref="Z84:AA84" si="103">Z82-Z83</f>
+      <c r="R84" s="22">
+        <f t="shared" ref="R84" si="111">R82-R83</f>
+        <v>180.2700000000001</v>
+      </c>
+      <c r="S84" s="123"/>
+      <c r="AA84" s="22">
+        <f t="shared" ref="AA84:AB84" si="112">AA82-AA83</f>
         <v>513.80500000000006</v>
       </c>
-      <c r="AA84" s="22">
-        <f t="shared" si="103"/>
+      <c r="AB84" s="22">
+        <f t="shared" si="112"/>
         <v>1006.922</v>
       </c>
     </row>
-    <row r="86" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -10671,31 +11023,34 @@
       <c r="Q86" s="1">
         <v>7.58</v>
       </c>
-      <c r="U86" s="83" t="s">
+      <c r="R86" s="1">
+        <v>5.96</v>
+      </c>
+      <c r="V86" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="V86" s="1">
+      <c r="W86" s="1">
         <v>25.17</v>
       </c>
-      <c r="W86" s="1">
+      <c r="X86" s="1">
         <v>13.32</v>
       </c>
-      <c r="X86" s="1">
+      <c r="Y86" s="1">
         <v>16.170000000000002</v>
       </c>
-      <c r="Y86" s="1">
+      <c r="Z86" s="1">
         <v>19.18</v>
       </c>
-      <c r="Z86" s="1">
+      <c r="AA86" s="1">
         <f>K86</f>
         <v>14.88</v>
       </c>
-      <c r="AA86" s="1">
+      <c r="AB86" s="1">
         <f>O86</f>
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="2:28" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -10704,513 +11059,554 @@
         <v>3808.6451099999999</v>
       </c>
       <c r="I87" s="56">
-        <f t="shared" ref="I87:Q87" si="104">I86*I22</f>
+        <f t="shared" ref="I87:Q87" si="113">I86*I22</f>
         <v>4014.4296399999998</v>
       </c>
       <c r="J87" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>4493.6721600000001</v>
       </c>
       <c r="K87" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>6767.5876799999996</v>
       </c>
       <c r="L87" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>8418.0184399999998</v>
       </c>
       <c r="M87" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>8534.8462799999998</v>
       </c>
       <c r="N87" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>8234.4350400000003</v>
       </c>
       <c r="O87" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>8590.251119999999</v>
       </c>
       <c r="P87" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>7580.5139999999992</v>
       </c>
       <c r="Q87" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="113"/>
         <v>3474.7857000000004</v>
       </c>
-      <c r="R87" s="75"/>
-      <c r="V87" s="56">
-        <f t="shared" ref="V87:Y87" si="105">V86*V22</f>
+      <c r="R87" s="56">
+        <f t="shared" ref="R87" si="114">R86*R22</f>
+        <v>2707.7591200000002</v>
+      </c>
+      <c r="S87" s="124"/>
+      <c r="W87" s="56">
+        <f t="shared" ref="W87:Z87" si="115">W86*W22</f>
         <v>10982.426100000001</v>
       </c>
-      <c r="W87" s="56">
-        <f t="shared" si="105"/>
+      <c r="X87" s="56">
+        <f t="shared" si="115"/>
         <v>5870.5102799999995</v>
       </c>
-      <c r="X87" s="56">
-        <f t="shared" si="105"/>
+      <c r="Y87" s="56">
+        <f t="shared" si="115"/>
         <v>7208.8285500000011</v>
       </c>
-      <c r="Y87" s="56">
-        <f t="shared" si="105"/>
+      <c r="Z87" s="56">
+        <f t="shared" si="115"/>
         <v>8649.4895199999992</v>
       </c>
-      <c r="Z87" s="56">
-        <f t="shared" ref="Z87:AA87" si="106">Z86*Z22</f>
+      <c r="AA87" s="56">
+        <f t="shared" ref="AA87:AB87" si="116">AA86*AA22</f>
         <v>6756.8443200000002</v>
       </c>
-      <c r="AA87" s="56">
-        <f t="shared" si="106"/>
+      <c r="AB87" s="56">
+        <f t="shared" si="116"/>
         <v>8397.6921600000005</v>
       </c>
-      <c r="AB87" s="75"/>
-    </row>
-    <row r="88" spans="2:28" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AC87" s="74"/>
+    </row>
+    <row r="88" spans="2:29" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
       <c r="J88" s="56">
-        <f t="shared" ref="J88:N88" si="107">J87-J84</f>
+        <f t="shared" ref="J88:N88" si="117">J87-J84</f>
         <v>4625.4101600000004</v>
       </c>
       <c r="K88" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>6253.7826799999993</v>
       </c>
       <c r="N88" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="117"/>
         <v>7643.6320400000004</v>
       </c>
       <c r="O88" s="56">
-        <f t="shared" ref="O88:P88" si="108">O87-O84</f>
+        <f t="shared" ref="O88:P88" si="118">O87-O84</f>
         <v>7583.3291199999985</v>
       </c>
       <c r="P88" s="56">
-        <f t="shared" si="108"/>
+        <f t="shared" si="118"/>
         <v>7243.6609999999991</v>
       </c>
       <c r="Q88" s="56">
         <f>Q87-Q84</f>
         <v>3098.2067000000002</v>
       </c>
-      <c r="R88" s="74"/>
-      <c r="Z88" s="56">
-        <f t="shared" ref="Z88:AA88" si="109">Z87-Z84</f>
+      <c r="R88" s="56">
+        <f t="shared" ref="R88" si="119">R87-R84</f>
+        <v>2527.4891200000002</v>
+      </c>
+      <c r="S88" s="123"/>
+      <c r="AA88" s="56">
+        <f t="shared" ref="AA88:AB88" si="120">AA87-AA84</f>
         <v>6243.0393199999999</v>
       </c>
-      <c r="AA88" s="56">
-        <f t="shared" si="109"/>
+      <c r="AB88" s="56">
+        <f t="shared" si="120"/>
         <v>7390.77016</v>
       </c>
-      <c r="AB88" s="74"/>
-    </row>
-    <row r="90" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="73"/>
+    </row>
+    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>778</v>
       </c>
       <c r="J90" s="69">
-        <f t="shared" ref="J90:K90" si="110">J86/J77</f>
+        <f t="shared" ref="J90:K90" si="121">J86/J77</f>
         <v>3.0562004861440792</v>
       </c>
       <c r="K90" s="69">
-        <f t="shared" si="110"/>
+        <f t="shared" si="121"/>
         <v>4.0379570081736604</v>
       </c>
       <c r="N90" s="69">
-        <f t="shared" ref="N90:P90" si="111">N86/N77</f>
+        <f t="shared" ref="N90:P90" si="122">N86/N77</f>
         <v>4.1635389728423569</v>
       </c>
       <c r="O90" s="69">
-        <f t="shared" si="111"/>
+        <f t="shared" si="122"/>
         <v>4.1121867098393734</v>
       </c>
       <c r="P90" s="69">
-        <f t="shared" si="111"/>
+        <f t="shared" si="122"/>
         <v>4.3844509454849581</v>
       </c>
       <c r="Q90" s="69">
         <f>Q86/Q77</f>
         <v>2.0095979110459519</v>
       </c>
-      <c r="Z90" s="69">
-        <f t="shared" ref="Z90" si="112">Z86/Z77</f>
+      <c r="R90" s="69">
+        <f t="shared" ref="R90" si="123">R86/R77</f>
+        <v>1.4907834191197316</v>
+      </c>
+      <c r="AA90" s="69">
+        <f t="shared" ref="AA90" si="124">AA86/AA77</f>
         <v>4.0379570081736604</v>
       </c>
-      <c r="AA90" s="69">
-        <f>AA86/AA77</f>
+      <c r="AB90" s="69">
+        <f>AB86/AB77</f>
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>809</v>
       </c>
       <c r="J91" s="69">
-        <f t="shared" ref="J91" si="113">J87/SUM(G6:J6)</f>
+        <f t="shared" ref="J91" si="125">J87/SUM(G6:J6)</f>
         <v>1.5423293411981622</v>
       </c>
       <c r="K91" s="69">
-        <f t="shared" ref="K91:P91" si="114">K87/SUM(H6:K6)</f>
+        <f t="shared" ref="K91:P91" si="126">K87/SUM(H6:K6)</f>
         <v>1.5995330818390172</v>
       </c>
       <c r="L91" s="69">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1.8332967691100841</v>
       </c>
       <c r="M91" s="69">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1.6247491502037685</v>
       </c>
       <c r="N91" s="69">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1.5258758943246864</v>
       </c>
       <c r="O91" s="69">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1.5429916494080578</v>
       </c>
       <c r="P91" s="69">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1.3534483543594595</v>
       </c>
       <c r="Q91" s="69">
         <f>Q87/SUM(N6:Q6)</f>
         <v>0.6221570503604078</v>
       </c>
-      <c r="V91" s="69">
-        <f t="shared" ref="V91:Y91" si="115">V87/V6</f>
+      <c r="R91" s="69">
+        <f t="shared" ref="R91" si="127">R87/SUM(O6:R6)</f>
+        <v>0.48387075284335096</v>
+      </c>
+      <c r="W91" s="69">
+        <f t="shared" ref="W91:Z91" si="128">W87/W6</f>
         <v>2.3621676596476893</v>
       </c>
-      <c r="W91" s="69">
-        <f t="shared" si="115"/>
+      <c r="X91" s="69">
+        <f t="shared" si="128"/>
         <v>1.2305088267185433</v>
       </c>
-      <c r="X91" s="69">
-        <f t="shared" si="115"/>
+      <c r="Y91" s="69">
+        <f t="shared" si="128"/>
         <v>1.456904992539475</v>
       </c>
-      <c r="Y91" s="69">
-        <f t="shared" si="115"/>
+      <c r="Z91" s="69">
+        <f t="shared" si="128"/>
         <v>1.7392236210561027</v>
       </c>
-      <c r="Z91" s="69">
-        <f t="shared" ref="Z91" si="116">Z87/Z6</f>
+      <c r="AA91" s="69">
+        <f t="shared" ref="AA91" si="129">AA87/AA6</f>
         <v>1.5969938669011909</v>
       </c>
-      <c r="AA91" s="69">
-        <f>AA87/AA6</f>
+      <c r="AB91" s="69">
+        <f>AB87/AB6</f>
         <v>1.5084039681926689</v>
       </c>
     </row>
-    <row r="92" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J92" s="69">
-        <f t="shared" ref="J92" si="117">J86/SUM(G21:J21)</f>
+        <f t="shared" ref="J92" si="130">J86/SUM(G21:J21)</f>
         <v>-6.0757314053217959</v>
       </c>
       <c r="K92" s="69">
-        <f t="shared" ref="K92" si="118">K86/SUM(H21:K21)</f>
+        <f t="shared" ref="K92" si="131">K86/SUM(H21:K21)</f>
         <v>-12.257039736665067</v>
       </c>
       <c r="L92" s="69">
-        <f t="shared" ref="L92" si="119">L86/SUM(I21:L21)</f>
+        <f t="shared" ref="L92" si="132">L86/SUM(I21:L21)</f>
         <v>71.383779306426774</v>
       </c>
       <c r="M92" s="69">
-        <f t="shared" ref="M92" si="120">M86/SUM(J21:M21)</f>
+        <f t="shared" ref="M92" si="133">M86/SUM(J21:M21)</f>
         <v>18.285031241280244</v>
       </c>
       <c r="N92" s="69">
-        <f t="shared" ref="N92" si="121">N86/SUM(K21:N21)</f>
+        <f t="shared" ref="N92" si="134">N86/SUM(K21:N21)</f>
         <v>14.952988283370482</v>
       </c>
       <c r="O92" s="69">
-        <f t="shared" ref="O92:P92" si="122">O86/SUM(L21:O21)</f>
+        <f t="shared" ref="O92:P92" si="135">O86/SUM(L21:O21)</f>
         <v>18.105251010476522</v>
       </c>
       <c r="P92" s="69">
-        <f t="shared" si="122"/>
+        <f t="shared" si="135"/>
         <v>22.989620990664498</v>
       </c>
       <c r="Q92" s="69">
         <f>Q86/SUM(N21:Q21)</f>
         <v>20.941179022554319</v>
       </c>
-      <c r="V92" s="69">
-        <f t="shared" ref="V92:X92" si="123">V86/V21</f>
+      <c r="R92" s="69">
+        <f t="shared" ref="R92" si="136">R86/SUM(O21:R21)</f>
+        <v>19.10708857994079</v>
+      </c>
+      <c r="W92" s="69">
+        <f t="shared" ref="W92:Y92" si="137">W86/W21</f>
         <v>42.458927163071316</v>
       </c>
-      <c r="W92" s="69">
-        <f t="shared" si="123"/>
+      <c r="X92" s="69">
+        <f t="shared" si="137"/>
         <v>-121.64339577289637</v>
       </c>
-      <c r="X92" s="69">
-        <f t="shared" si="123"/>
+      <c r="Y92" s="69">
+        <f t="shared" si="137"/>
         <v>-155.69151548529089</v>
       </c>
-      <c r="Y92" s="69">
-        <f t="shared" ref="Y92:Z92" si="124">Y86/Y21</f>
+      <c r="Z92" s="69">
+        <f t="shared" ref="Z92:AA92" si="138">Z86/Z21</f>
         <v>93.871302120640664</v>
       </c>
-      <c r="Z92" s="69">
-        <f t="shared" si="124"/>
+      <c r="AA92" s="69">
+        <f t="shared" si="138"/>
         <v>-12.303582123796154</v>
       </c>
-      <c r="AA92" s="69">
-        <f>AA86/AA21</f>
+      <c r="AB92" s="69">
+        <f>AB86/AB21</f>
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="93" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="Z93" s="69">
-        <f t="shared" ref="Z93" si="125">Z88/Z6</f>
+      <c r="AA93" s="69">
+        <f t="shared" ref="AA93" si="139">AA88/AA6</f>
         <v>1.4755550124711148</v>
       </c>
-      <c r="AA93" s="69">
-        <f>AA88/AA6</f>
+      <c r="AB93" s="69">
+        <f>AB88/AB6</f>
         <v>1.327539379264882</v>
       </c>
     </row>
-    <row r="94" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="Z94" s="69"/>
+    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
       <c r="AA94" s="69"/>
-    </row>
-    <row r="95" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB94" s="69"/>
+    </row>
+    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>806</v>
       </c>
       <c r="J95" s="25">
-        <f t="shared" ref="J95:K95" si="126">J52/J9</f>
+        <f t="shared" ref="J95:K95" si="140">J52/J9</f>
         <v>0.73749442611099214</v>
       </c>
       <c r="K95" s="25">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>0.63826449707429866</v>
       </c>
       <c r="N95" s="25">
-        <f t="shared" ref="N95:P95" si="127">N52/N9</f>
+        <f t="shared" ref="N95:P95" si="141">N52/N9</f>
         <v>0.54203989305947731</v>
       </c>
       <c r="O95" s="25">
-        <f t="shared" si="127"/>
+        <f t="shared" si="141"/>
         <v>0.53060904195317171</v>
       </c>
       <c r="P95" s="25">
-        <f t="shared" si="127"/>
+        <f t="shared" si="141"/>
         <v>0.63373547690332799</v>
       </c>
       <c r="Q95" s="25">
         <f>Q52/Q9</f>
         <v>0.70745268732158828</v>
       </c>
-      <c r="Z95" s="25">
-        <f t="shared" ref="Z95" si="128">Z52/Z9</f>
+      <c r="R95" s="25">
+        <f t="shared" ref="R95" si="142">R52/R9</f>
+        <v>0.68646692738033599</v>
+      </c>
+      <c r="AA95" s="25">
+        <f t="shared" ref="AA95" si="143">AA52/AA9</f>
         <v>0.20023255361795636</v>
       </c>
-      <c r="AA95" s="25">
-        <f>AA52/AA9</f>
+      <c r="AB95" s="25">
+        <f>AB52/AB9</f>
         <v>0.14276675535667846</v>
       </c>
     </row>
-    <row r="96" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
       <c r="K96" s="25"/>
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
       <c r="Q96" s="25"/>
-      <c r="Z96" s="25"/>
+      <c r="R96" s="25"/>
       <c r="AA96" s="25"/>
-    </row>
-    <row r="97" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AB96" s="25"/>
+    </row>
+    <row r="97" spans="2:47" x14ac:dyDescent="0.2">
       <c r="K97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
       <c r="Q97" s="25"/>
-      <c r="Z97" s="25"/>
+      <c r="R97" s="25"/>
       <c r="AA97" s="25"/>
-    </row>
-    <row r="99" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AB97" s="25"/>
+    </row>
+    <row r="99" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B99" s="27" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="100" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="54" t="s">
         <v>815</v>
       </c>
       <c r="I100" s="65">
-        <f t="shared" ref="I100:P100" si="129">I3/H3-1</f>
+        <f t="shared" ref="I100:P100" si="144">I3/H3-1</f>
         <v>-0.28820449048700714</v>
       </c>
       <c r="J100" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>1.1768782082290343</v>
       </c>
       <c r="K100" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>4.6761685836980149E-3</v>
       </c>
       <c r="L100" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>-0.13027499098108597</v>
       </c>
       <c r="M100" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>7.9195991314019887E-2</v>
       </c>
       <c r="N100" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>0.21052330549432452</v>
       </c>
       <c r="O100" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>3.8321500693137889E-2</v>
       </c>
       <c r="P100" s="65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="144"/>
         <v>-0.2022053470017765</v>
       </c>
       <c r="Q100" s="65">
         <f>Q3/P3-1</f>
         <v>-9.3269024553847002E-3</v>
       </c>
-      <c r="R100" s="75"/>
-      <c r="AB100" s="75"/>
-    </row>
-    <row r="101" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R100" s="65">
+        <f t="shared" ref="R100:R105" si="145">R3/Q3-1</f>
+        <v>0.19557176875918336</v>
+      </c>
+      <c r="S100" s="124"/>
+      <c r="AC100" s="74"/>
+    </row>
+    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="54" t="s">
         <v>816</v>
       </c>
       <c r="I101" s="65">
-        <f t="shared" ref="I101:Q101" si="130">I4/H4-1</f>
+        <f t="shared" ref="I101:Q101" si="146">I4/H4-1</f>
         <v>-0.11731238792873222</v>
       </c>
       <c r="J101" s="65">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0.61374798070117631</v>
       </c>
       <c r="K101" s="65">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>-0.19357387499288559</v>
       </c>
       <c r="L101" s="65">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0.28305012268079333</v>
       </c>
       <c r="M101" s="65">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0.10870191265406226</v>
       </c>
       <c r="N101" s="65">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>-3.7715860040100302E-2</v>
       </c>
       <c r="O101" s="65">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>-0.14253695582285475</v>
       </c>
       <c r="P101" s="65">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>4.9430357136541092E-2</v>
       </c>
       <c r="Q101" s="65">
-        <f t="shared" si="130"/>
+        <f t="shared" si="146"/>
         <v>0.17039326448620784</v>
       </c>
-      <c r="R101" s="75"/>
-      <c r="AB101" s="75"/>
-    </row>
-    <row r="102" spans="2:46" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R101" s="65">
+        <f t="shared" si="145"/>
+        <v>8.2459085790969722E-2</v>
+      </c>
+      <c r="S101" s="124"/>
+      <c r="AC101" s="74"/>
+    </row>
+    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="54" t="s">
         <v>817</v>
       </c>
       <c r="I102" s="65">
-        <f t="shared" ref="I102:Q102" si="131">I5/H5-1</f>
+        <f t="shared" ref="I102:Q102" si="147">I5/H5-1</f>
         <v>-0.1718722323906241</v>
       </c>
       <c r="J102" s="65">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>1.5855553971196352</v>
       </c>
       <c r="K102" s="65">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>7.5830690748635021E-4</v>
       </c>
       <c r="L102" s="65">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-0.19132052076875383</v>
       </c>
       <c r="M102" s="65">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-5.019762172476061E-2</v>
       </c>
       <c r="N102" s="65">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>0.13310852622799385</v>
       </c>
       <c r="O102" s="65">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-0.15588270212513355</v>
       </c>
       <c r="P102" s="65">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>-9.2330051570557958E-2</v>
       </c>
       <c r="Q102" s="65">
-        <f t="shared" si="131"/>
+        <f t="shared" si="147"/>
         <v>2.8924723407341979E-4</v>
       </c>
-      <c r="R102" s="75"/>
-      <c r="AB102" s="75"/>
-    </row>
-    <row r="103" spans="2:46" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R102" s="65">
+        <f t="shared" si="145"/>
+        <v>0.14753539672212401</v>
+      </c>
+      <c r="S102" s="124"/>
+      <c r="AC102" s="74"/>
+    </row>
+    <row r="103" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="58" t="s">
         <v>819</v>
       </c>
       <c r="I103" s="70">
-        <f t="shared" ref="I103:Q103" si="132">I6/H6-1</f>
+        <f t="shared" ref="I103:Q103" si="148">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
       <c r="J103" s="70">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>1.0549972940599743</v>
       </c>
       <c r="K103" s="70">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-3.8935998856132414E-2</v>
       </c>
       <c r="L103" s="70">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-6.1431667318194938E-2</v>
       </c>
       <c r="M103" s="70">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>7.4285635721933918E-2</v>
       </c>
       <c r="N103" s="70">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>0.13999233628213337</v>
       </c>
       <c r="O103" s="70">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-1.726150932381687E-2</v>
       </c>
       <c r="P103" s="70">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>-0.14652505955360839</v>
       </c>
       <c r="Q103" s="70">
-        <f t="shared" si="132"/>
+        <f t="shared" si="148"/>
         <v>3.3388630685857734E-2</v>
       </c>
-      <c r="R103" s="76"/>
-      <c r="AB103" s="76"/>
-      <c r="AC103" s="58"/>
+      <c r="R103" s="70">
+        <f t="shared" si="145"/>
+        <v>0.16210162208287926</v>
+      </c>
+      <c r="S103" s="129"/>
+      <c r="AC103" s="75"/>
       <c r="AD103" s="58"/>
       <c r="AE103" s="58"/>
       <c r="AF103" s="58"/>
@@ -11228,90 +11624,99 @@
       <c r="AR103" s="58"/>
       <c r="AS103" s="58"/>
       <c r="AT103" s="58"/>
-    </row>
-    <row r="104" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="AU103" s="58"/>
+    </row>
+    <row r="104" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B104" s="32" t="s">
         <v>820</v>
       </c>
       <c r="I104" s="65">
-        <f t="shared" ref="I104:Q104" si="133">I7/H7-1</f>
+        <f t="shared" ref="I104:Q104" si="149">I7/H7-1</f>
         <v>-0.68959117130674685</v>
       </c>
       <c r="J104" s="65">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>3.0596315449256624</v>
       </c>
       <c r="K104" s="65">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>1.170892878468214</v>
       </c>
       <c r="L104" s="65">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>-0.60287888511964793</v>
       </c>
       <c r="M104" s="65">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>7.4063813085838204E-2</v>
       </c>
       <c r="N104" s="65">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0.33695885817462701</v>
       </c>
       <c r="O104" s="65">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>0.17707964886330751</v>
       </c>
       <c r="P104" s="65">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>-0.27328853193465552</v>
       </c>
       <c r="Q104" s="65">
-        <f t="shared" si="133"/>
+        <f t="shared" si="149"/>
         <v>5.7627246071723981E-2</v>
       </c>
-    </row>
-    <row r="105" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="R104" s="65">
+        <f t="shared" si="145"/>
+        <v>0.17728807535098623</v>
+      </c>
+    </row>
+    <row r="105" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B105" s="32" t="s">
         <v>821</v>
       </c>
       <c r="I105" s="65">
-        <f t="shared" ref="I105:Q105" si="134">I8/H8-1</f>
+        <f t="shared" ref="I105:Q105" si="150">I8/H8-1</f>
         <v>-5.2339367300907602E-3</v>
       </c>
       <c r="J105" s="65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="150"/>
         <v>7.8805848667189871E-2</v>
       </c>
       <c r="K105" s="65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="150"/>
         <v>-0.14270316878637646</v>
       </c>
       <c r="L105" s="65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="150"/>
         <v>-1.0297334674377672</v>
       </c>
       <c r="M105" s="65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="150"/>
         <v>-0.93234672304439747</v>
       </c>
       <c r="N105" s="65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="150"/>
         <v>-3.171875</v>
       </c>
       <c r="O105" s="65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="150"/>
         <v>30.97122302158273</v>
       </c>
       <c r="P105" s="65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="150"/>
         <v>-4.5904590459045824E-2</v>
       </c>
       <c r="Q105" s="65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="150"/>
         <v>0.98396226415094357</v>
       </c>
-    </row>
-    <row r="107" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="R105" s="65">
+        <f t="shared" si="145"/>
+        <v>0.84165477888730389</v>
+      </c>
+    </row>
+    <row r="107" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>826</v>
       </c>
@@ -11320,139 +11725,144 @@
         <v>0.59414882180942552</v>
       </c>
       <c r="I107" s="25">
-        <f t="shared" ref="I107:R107" si="135">I12/I9</f>
+        <f t="shared" ref="I107:S107" si="151">I12/I9</f>
         <v>0.67817816969080325</v>
       </c>
       <c r="J107" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="151"/>
         <v>0.38628115010177799</v>
       </c>
       <c r="K107" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="151"/>
         <v>0.41729034611181637</v>
       </c>
       <c r="L107" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="151"/>
         <v>0.40935415746960502</v>
       </c>
       <c r="M107" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="151"/>
         <v>0.40324771703856505</v>
       </c>
       <c r="N107" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="151"/>
         <v>0.38781726939332217</v>
       </c>
       <c r="O107" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="151"/>
         <v>0.44184134893621202</v>
       </c>
       <c r="P107" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="151"/>
         <v>0.45693399797839268</v>
       </c>
       <c r="Q107" s="25">
-        <f t="shared" si="135"/>
+        <f t="shared" si="151"/>
         <v>0.44157808009594857</v>
       </c>
-      <c r="R107" s="72">
-        <f t="shared" si="135"/>
+      <c r="R107" s="25">
+        <f t="shared" ref="R107" si="152">R12/R9</f>
+        <v>0.37767943655349662</v>
+      </c>
+      <c r="S107" s="121">
+        <f t="shared" si="151"/>
         <v>0.42895725935022022</v>
       </c>
-      <c r="U107" s="25">
-        <f t="shared" ref="U107:AL107" si="136">U12/U9</f>
+      <c r="V107" s="25">
+        <f t="shared" ref="V107:AM107" si="153">V12/V9</f>
         <v>0.37771430114149451</v>
       </c>
-      <c r="V107" s="25">
-        <f t="shared" si="136"/>
+      <c r="W107" s="25">
+        <f t="shared" si="153"/>
         <v>0.37760351403197812</v>
       </c>
-      <c r="W107" s="25">
-        <f t="shared" si="136"/>
+      <c r="X107" s="25">
+        <f t="shared" si="153"/>
         <v>0.42080964570985102</v>
       </c>
-      <c r="X107" s="25">
-        <f t="shared" si="136"/>
+      <c r="Y107" s="25">
+        <f t="shared" si="153"/>
         <v>0.42023132239656397</v>
       </c>
-      <c r="Y107" s="25">
-        <f t="shared" si="136"/>
+      <c r="Z107" s="25">
+        <f t="shared" si="153"/>
         <v>0.42409417497036345</v>
       </c>
-      <c r="Z107" s="25">
-        <f t="shared" si="136"/>
+      <c r="AA107" s="25">
+        <f t="shared" si="153"/>
         <v>0.48538449900294256</v>
       </c>
-      <c r="AA107" s="25">
-        <f t="shared" si="136"/>
+      <c r="AB107" s="25">
+        <f t="shared" si="153"/>
         <v>0.41078648134782536</v>
       </c>
-      <c r="AB107" s="72">
-        <f t="shared" si="136"/>
+      <c r="AC107" s="71">
+        <f t="shared" si="153"/>
         <v>0.37352786459200688</v>
       </c>
-      <c r="AC107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AD107" s="65">
+        <f t="shared" si="153"/>
         <v>0.3898998698173477</v>
       </c>
-      <c r="AD107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AE107" s="65">
+        <f t="shared" si="153"/>
         <v>0.40687889459616033</v>
       </c>
-      <c r="AE107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AF107" s="65">
+        <f t="shared" si="153"/>
         <v>0.42449147926761222</v>
       </c>
-      <c r="AF107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AG107" s="65">
+        <f t="shared" si="153"/>
         <v>0.44276401542814858</v>
       </c>
-      <c r="AG107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AH107" s="65">
+        <f t="shared" si="153"/>
         <v>0.46172244331878237</v>
       </c>
-      <c r="AH107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AI107" s="65">
+        <f t="shared" si="153"/>
         <v>0.48172478086605175</v>
       </c>
-      <c r="AI107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AJ107" s="65">
+        <f t="shared" si="153"/>
         <v>0.48238207549596013</v>
       </c>
-      <c r="AJ107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AK107" s="65">
+        <f t="shared" si="153"/>
         <v>0.48294740632301031</v>
       </c>
-      <c r="AK107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AL107" s="65">
+        <f t="shared" si="153"/>
         <v>0.48343346744763499</v>
       </c>
-      <c r="AL107" s="65">
-        <f t="shared" si="136"/>
+      <c r="AM107" s="65">
+        <f t="shared" si="153"/>
         <v>0.4838512463586328</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AA1" r:id="rId1" location="if0586bb0f3564e22b228972560a66be5_1182" xr:uid="{6B4EFBE6-F205-4889-AE07-FA99D5DE5447}"/>
+    <hyperlink ref="AB1" r:id="rId1" location="if0586bb0f3564e22b228972560a66be5_1182" xr:uid="{6B4EFBE6-F205-4889-AE07-FA99D5DE5447}"/>
     <hyperlink ref="O1" r:id="rId2" xr:uid="{49C188F6-6A90-474D-AFD5-7AA71E1C59B5}"/>
     <hyperlink ref="N1" r:id="rId3" xr:uid="{834E7D28-5E8E-8C4B-8C43-226D2BBD25AC}"/>
     <hyperlink ref="M1" r:id="rId4" xr:uid="{F1AA8B23-E256-2342-AA99-D8C49553AACF}"/>
     <hyperlink ref="L1" r:id="rId5" xr:uid="{26388249-5339-BF45-81CD-ACCF573B7C35}"/>
     <hyperlink ref="P1" r:id="rId6" display="Q122" xr:uid="{08E44AAB-CF06-0740-9A0B-F8705B660AC7}"/>
-    <hyperlink ref="Z1" r:id="rId7" xr:uid="{F32B72A9-3751-4609-93E8-46C881B94E82}"/>
+    <hyperlink ref="AA1" r:id="rId7" xr:uid="{F32B72A9-3751-4609-93E8-46C881B94E82}"/>
     <hyperlink ref="Q1" r:id="rId8" xr:uid="{6D845CD6-61C5-D844-8DA9-8B7C95E94C4B}"/>
-    <hyperlink ref="X1" r:id="rId9" xr:uid="{A4185141-14DE-4895-BB64-5FB2BB6B4E23}"/>
-    <hyperlink ref="V1" r:id="rId10" xr:uid="{4B2ECFD3-F5FC-4C83-9A9C-9B6A741AD03E}"/>
+    <hyperlink ref="Y1" r:id="rId9" xr:uid="{A4185141-14DE-4895-BB64-5FB2BB6B4E23}"/>
+    <hyperlink ref="W1" r:id="rId10" xr:uid="{4B2ECFD3-F5FC-4C83-9A9C-9B6A741AD03E}"/>
+    <hyperlink ref="R1" r:id="rId11" xr:uid="{7D2F378E-7795-436C-A94C-24241924B857}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId11"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId12"/>
   <ignoredErrors>
-    <ignoredError sqref="Z6:AA6 L6:Q6 H6:K6 R12 R16 R19 R22 W6:X6 U6:V6" formulaRange="1"/>
-    <ignoredError sqref="Z54:Z71 AB11 AB14" formula="1"/>
+    <ignoredError sqref="AA6:AB6 L6:R6 H6:K6 S12 S16 S19 S22 X6:Y6 V6:W6" formulaRange="1"/>
+    <ignoredError sqref="AA54:AA71 AC11 AC14" formula="1"/>
   </ignoredErrors>
-  <drawing r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <drawing r:id="rId13"/>
+  <legacyDrawing r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4664D7-E132-4785-A503-AE6095EF0395}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C8FE1-F466-D34E-9D42-82EF307A06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -31,23 +41,15 @@
   <authors>
     <author>tc={8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}</author>
     <author>me</author>
+    <author>Charlie George</author>
   </authors>
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Quarter Transition, Changed FQ system</t>
-        </r>
       </text>
     </comment>
     <comment ref="R1" authorId="1" shapeId="0" xr:uid="{D0F8F999-EE4D-45ED-AFC6-0DE77E9F385C}">
@@ -56,7 +58,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -65,12 +67,54 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Published 03/11/2022</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Published 03/11/2022</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I66" authorId="2" shapeId="0" xr:uid="{B97AC153-8194-BD43-B20E-880C451B338E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Charlie George:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>250 in revolving credit facility</t>
         </r>
       </text>
     </comment>
@@ -2593,7 +2637,7 @@
     <numFmt numFmtId="168" formatCode="0.0\x"/>
     <numFmt numFmtId="169" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2701,15 +2745,28 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -3049,6 +3106,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3079,6 +3155,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3103,36 +3185,11 @@
     <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -3803,53 +3860,53 @@
   <dimension ref="B2:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D35"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="103" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="G5" s="103" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="G5" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="105"/>
-      <c r="R5" s="100" t="s">
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="118"/>
+      <c r="R5" s="113" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="102"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="115"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3890,7 +3947,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3937,7 +3994,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -3983,7 +4040,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4029,7 +4086,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4073,7 +4130,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4117,7 +4174,7 @@
         <v>-0.6875</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -4159,7 +4216,7 @@
         <v>-0.61538461538461542</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G13" s="52">
         <v>44774</v>
       </c>
@@ -4197,7 +4254,7 @@
         <v>-0.23076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G14" s="63"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4231,12 +4288,12 @@
         <v>-0.46153846153846156</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="103" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B15" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
       <c r="G15" s="52">
         <v>44743</v>
       </c>
@@ -4274,14 +4331,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="106" t="s">
+      <c r="C16" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="107"/>
+      <c r="D16" s="120"/>
       <c r="G16" s="63"/>
       <c r="H16" s="61" t="s">
         <v>784</v>
@@ -4317,14 +4374,14 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C17" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="107"/>
+      <c r="D17" s="120"/>
       <c r="G17" s="63"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4358,14 +4415,14 @@
         <v>-0.10526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="106" t="s">
+      <c r="C18" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="107"/>
+      <c r="D18" s="120"/>
       <c r="G18" s="52">
         <v>44682</v>
       </c>
@@ -4403,14 +4460,14 @@
         <v>0.45454545454545459</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="109"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4449,7 +4506,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G20" s="63"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4483,7 +4540,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G21" s="52">
         <v>44593</v>
       </c>
@@ -4521,12 +4578,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="103" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B22" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
       <c r="G22" s="63"/>
       <c r="H22" s="61" t="s">
         <v>793</v>
@@ -4562,14 +4619,14 @@
         <v>-0.26666666666666672</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="106" t="s">
+      <c r="C23" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="107"/>
+      <c r="D23" s="120"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4603,14 +4660,14 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="106">
+      <c r="C24" s="119">
         <v>1996</v>
       </c>
-      <c r="D24" s="107"/>
+      <c r="D24" s="120"/>
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
@@ -4648,7 +4705,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4685,15 +4742,15 @@
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="106">
+      <c r="C26" s="119">
         <f>'Financial Model'!R45</f>
         <v>437</v>
       </c>
-      <c r="D26" s="107"/>
+      <c r="D26" s="120"/>
       <c r="G26" s="52">
         <v>44228</v>
       </c>
@@ -4731,15 +4788,15 @@
         <v>0.36842105263157898</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="131">
+      <c r="C27" s="123">
         <f>'Financial Model'!R52</f>
         <v>1080.42</v>
       </c>
-      <c r="D27" s="132"/>
+      <c r="D27" s="124"/>
       <c r="G27" s="63"/>
       <c r="H27" s="61" t="s">
         <v>781</v>
@@ -4775,7 +4832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4812,14 +4869,14 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C29" s="99" t="s">
         <v>831</v>
       </c>
-      <c r="D29" s="130">
+      <c r="D29" s="112">
         <v>44868</v>
       </c>
       <c r="R29" s="37">
@@ -4845,14 +4902,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="115"/>
+      <c r="D30" s="130"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4876,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R31" s="37">
         <v>2020</v>
       </c>
@@ -4900,7 +4957,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R32" s="37">
         <v>2020</v>
       </c>
@@ -4924,12 +4981,12 @@
         <v>-0.80487804878048785</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="103" t="s">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B33" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="104"/>
-      <c r="D33" s="105"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="118"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -4953,15 +5010,15 @@
         <v>-0.82954545454545459</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="112">
+      <c r="C34" s="127">
         <f>C12/SUM('Financial Model'!O20:R20)</f>
         <v>21.115922407952812</v>
       </c>
-      <c r="D34" s="113"/>
+      <c r="D34" s="128"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -4985,15 +5042,15 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="112">
+      <c r="C35" s="127">
         <f>C6/SUM('Financial Model'!O21:R21)</f>
         <v>22.825917900868863</v>
       </c>
-      <c r="D35" s="113"/>
+      <c r="D35" s="128"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -5017,12 +5074,12 @@
         <v>-0.16666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="107"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="120"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -5046,15 +5103,15 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="112">
+      <c r="C37" s="127">
         <f>C6/'Financial Model'!Q77</f>
         <v>1.8876434204020021</v>
       </c>
-      <c r="D37" s="113"/>
+      <c r="D37" s="128"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -5078,15 +5135,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="116">
+      <c r="C38" s="131">
         <f>C8/SUM('Financial Model'!O9:R9)</f>
         <v>0.56226680192147116</v>
       </c>
-      <c r="D38" s="117"/>
+      <c r="D38" s="132"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -5110,15 +5167,15 @@
         <v>1.7142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="116">
+      <c r="C39" s="131">
         <f>C12/SUM('Financial Model'!O9:R9)</f>
         <v>0.53093234733600647</v>
       </c>
-      <c r="D39" s="117"/>
+      <c r="D39" s="132"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5142,7 +5199,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -5169,15 +5226,15 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="110">
+      <c r="C41" s="125">
         <f>C6/'Financial Model'!AB21</f>
         <v>9.2051004832527816</v>
       </c>
-      <c r="D41" s="111"/>
+      <c r="D41" s="126"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5201,7 +5258,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R42" s="37">
         <v>2019</v>
       </c>
@@ -5225,7 +5282,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R43" s="37">
         <v>2019</v>
       </c>
@@ -5249,7 +5306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R44" s="37">
         <v>2019</v>
       </c>
@@ -5273,7 +5330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R45" s="37">
         <v>2019</v>
       </c>
@@ -5297,7 +5354,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R46" s="37">
         <v>2019</v>
       </c>
@@ -5321,7 +5378,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R47" s="37">
         <v>2019</v>
       </c>
@@ -5345,7 +5402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R48" s="37">
         <v>2019</v>
       </c>
@@ -5368,7 +5425,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R49" s="37">
         <v>2019</v>
       </c>
@@ -5392,7 +5449,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R50" s="37">
         <v>2018</v>
       </c>
@@ -5415,7 +5472,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R51" s="37">
         <v>2018</v>
       </c>
@@ -5438,7 +5495,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R52" s="37">
         <v>2018</v>
       </c>
@@ -5461,7 +5518,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R53" s="37">
         <v>2018</v>
       </c>
@@ -5484,7 +5541,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R54" s="37">
         <v>2018</v>
       </c>
@@ -5507,7 +5564,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R55" s="37">
         <v>2018</v>
       </c>
@@ -5530,7 +5587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R56" s="37">
         <v>2018</v>
       </c>
@@ -5553,7 +5610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R57" s="37">
         <v>2018</v>
       </c>
@@ -5576,7 +5633,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R58" s="37">
         <v>2018</v>
       </c>
@@ -5599,7 +5656,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R59" s="37">
         <v>2018</v>
       </c>
@@ -5621,7 +5678,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R60" s="37">
         <v>2018</v>
       </c>
@@ -5643,7 +5700,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R61" s="45">
         <v>2018</v>
       </c>
@@ -5831,6 +5888,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="C38:C39" formulaRange="1"/>
+  </ignoredErrors>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -5840,27 +5900,27 @@
   <dimension ref="B1:BS107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G36" sqref="G36"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="124"/>
-    <col min="20" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="74"/>
-    <col min="30" max="47" width="9.140625" style="32"/>
-    <col min="48" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.1640625" style="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="9.1640625" style="106"/>
+    <col min="20" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="9.1640625" style="74"/>
+    <col min="30" max="47" width="9.1640625" style="32"/>
+    <col min="48" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
@@ -5906,7 +5966,7 @@
       <c r="R1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="118" t="s">
+      <c r="S1" s="100" t="s">
         <v>32</v>
       </c>
       <c r="T1" s="16" t="s">
@@ -5991,7 +6051,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="17"/>
       <c r="H2" s="24">
         <v>43921</v>
@@ -6026,7 +6086,7 @@
       <c r="R2" s="24">
         <v>44834</v>
       </c>
-      <c r="S2" s="119" t="s">
+      <c r="S2" s="101" t="s">
         <v>811</v>
       </c>
       <c r="V2" s="24">
@@ -6072,7 +6132,7 @@
       <c r="AT2" s="81"/>
       <c r="AU2" s="81"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="54" t="s">
         <v>764</v>
       </c>
@@ -6113,7 +6173,7 @@
       <c r="R3" s="56">
         <v>1038.268</v>
       </c>
-      <c r="S3" s="120"/>
+      <c r="S3" s="102"/>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="56">
@@ -6148,7 +6208,7 @@
       <c r="AI3" s="65"/>
       <c r="AJ3" s="65"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="54" t="s">
         <v>765</v>
       </c>
@@ -6189,7 +6249,7 @@
       <c r="R4" s="56">
         <v>375.88499999999999</v>
       </c>
-      <c r="S4" s="120"/>
+      <c r="S4" s="102"/>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="56">
@@ -6224,7 +6284,7 @@
       <c r="AI4" s="65"/>
       <c r="AJ4" s="65"/>
     </row>
-    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="54" t="s">
         <v>766</v>
       </c>
@@ -6265,7 +6325,7 @@
       <c r="R5" s="56">
         <v>111.117</v>
       </c>
-      <c r="S5" s="121"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56">
@@ -6300,7 +6360,7 @@
       <c r="AI5" s="65"/>
       <c r="AJ5" s="65"/>
     </row>
-    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="58" t="s">
         <v>769</v>
       </c>
@@ -6352,7 +6412,7 @@
         <f t="shared" si="0"/>
         <v>1525.27</v>
       </c>
-      <c r="S6" s="122"/>
+      <c r="S6" s="104"/>
       <c r="T6" s="55"/>
       <c r="U6" s="55"/>
       <c r="V6" s="55">
@@ -6428,7 +6488,7 @@
         <v>39108.173209764078</v>
       </c>
     </row>
-    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="32" t="s">
         <v>768</v>
       </c>
@@ -6469,7 +6529,7 @@
       <c r="R7" s="56">
         <v>33.122999999999998</v>
       </c>
-      <c r="S7" s="123"/>
+      <c r="S7" s="105"/>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
       <c r="V7" s="56">
@@ -6538,7 +6598,7 @@
         <v>185.20316610694189</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="32" t="s">
         <v>767</v>
       </c>
@@ -6579,7 +6639,7 @@
       <c r="R8" s="56">
         <v>15.492000000000001</v>
       </c>
-      <c r="S8" s="123"/>
+      <c r="S8" s="105"/>
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="56">
@@ -6649,7 +6709,7 @@
         <v>19.953633686836341</v>
       </c>
     </row>
-    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -6686,7 +6746,7 @@
       <c r="R9" s="21">
         <v>1573.885</v>
       </c>
-      <c r="S9" s="122">
+      <c r="S9" s="104">
         <f>Q9*1.065</f>
         <v>1436.745705</v>
       </c>
@@ -6768,7 +6828,7 @@
       <c r="AT9" s="58"/>
       <c r="AU9" s="58"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6805,7 +6865,7 @@
       <c r="R10" s="62">
         <v>860.05100000000004</v>
       </c>
-      <c r="S10" s="123">
+      <c r="S10" s="105">
         <f>Q10*1.03</f>
         <v>740.42579999999998</v>
       </c>
@@ -6875,7 +6935,7 @@
         <v>18673.83175453998</v>
       </c>
     </row>
-    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
@@ -6923,7 +6983,7 @@
         <f t="shared" si="12"/>
         <v>713.83399999999995</v>
       </c>
-      <c r="S11" s="122">
+      <c r="S11" s="104">
         <f t="shared" si="12"/>
         <v>696.31990500000006</v>
       </c>
@@ -7008,7 +7068,7 @@
       <c r="AT11" s="58"/>
       <c r="AU11" s="58"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -7045,7 +7105,7 @@
       <c r="R12" s="62">
         <v>594.42399999999998</v>
       </c>
-      <c r="S12" s="123">
+      <c r="S12" s="105">
         <f>AVERAGE(N12:Q12)</f>
         <v>616.30250000000001</v>
       </c>
@@ -7115,7 +7175,7 @@
         <v>19021.803723632809</v>
       </c>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -7152,7 +7212,7 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="124">
+      <c r="S13" s="106">
         <v>0</v>
       </c>
       <c r="V13" s="22">
@@ -7221,7 +7281,7 @@
         <v>65.793806395201273</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
@@ -7269,7 +7329,7 @@
         <f t="shared" si="19"/>
         <v>119.40999999999997</v>
       </c>
-      <c r="S14" s="122">
+      <c r="S14" s="104">
         <f t="shared" si="19"/>
         <v>80.017405000000053</v>
       </c>
@@ -7354,7 +7414,7 @@
       <c r="AT14" s="58"/>
       <c r="AU14" s="58"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -7391,7 +7451,7 @@
       <c r="R15" s="62">
         <v>-3.5550000000000002</v>
       </c>
-      <c r="S15" s="124">
+      <c r="S15" s="106">
         <v>-5.5</v>
       </c>
       <c r="V15" s="22">
@@ -7460,7 +7520,7 @@
         <v>-40.113157469251853</v>
       </c>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -7497,7 +7557,7 @@
       <c r="R16" s="62">
         <v>-5.7709999999999999</v>
       </c>
-      <c r="S16" s="123">
+      <c r="S16" s="105">
         <f>AVERAGE(N16:Q16)</f>
         <v>-4.9327500000000004</v>
       </c>
@@ -7567,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -7615,7 +7675,7 @@
         <f t="shared" si="25"/>
         <v>110.08399999999996</v>
       </c>
-      <c r="S17" s="123">
+      <c r="S17" s="105">
         <f t="shared" si="25"/>
         <v>69.584655000000055</v>
       </c>
@@ -7692,7 +7752,7 @@
         <v>1511.7875675206099</v>
       </c>
     </row>
-    <row r="18" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -7729,7 +7789,7 @@
       <c r="R18" s="62">
         <v>22.251000000000001</v>
       </c>
-      <c r="S18" s="123">
+      <c r="S18" s="105">
         <f>S17*0.4</f>
         <v>27.833862000000025</v>
       </c>
@@ -7799,7 +7859,7 @@
         <v>226.76813512809147</v>
       </c>
     </row>
-    <row r="19" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -7836,7 +7896,7 @@
       <c r="R19" s="62">
         <v>-0.90800000000000003</v>
       </c>
-      <c r="S19" s="123">
+      <c r="S19" s="105">
         <f>AVERAGE(N19:Q19)</f>
         <v>-0.20025000000000001</v>
       </c>
@@ -7906,7 +7966,7 @@
         <v>-8.3219074865264719</v>
       </c>
     </row>
-    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
@@ -7954,7 +8014,7 @@
         <f t="shared" si="31"/>
         <v>86.924999999999955</v>
       </c>
-      <c r="S20" s="125">
+      <c r="S20" s="107">
         <f t="shared" si="31"/>
         <v>41.550543000000033</v>
       </c>
@@ -8159,7 +8219,7 @@
         <v>925.58060052290614</v>
       </c>
     </row>
-    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
@@ -8207,7 +8267,7 @@
         <f t="shared" si="35"/>
         <v>0.19132905736460035</v>
       </c>
-      <c r="S21" s="126">
+      <c r="S21" s="108">
         <f>S20/S22</f>
         <v>8.8592963827677812E-2</v>
       </c>
@@ -8284,7 +8344,7 @@
         <v>2.7850256315914441</v>
       </c>
     </row>
-    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -8321,7 +8381,7 @@
       <c r="R22" s="62">
         <v>454.322</v>
       </c>
-      <c r="S22" s="123">
+      <c r="S22" s="105">
         <f>AVERAGE(N22:Q22)</f>
         <v>469.005</v>
       </c>
@@ -8393,7 +8453,7 @@
         <v>458.41500000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -8425,7 +8485,7 @@
         <f t="shared" ref="R24" si="42">R9/N9-1</f>
         <v>1.8345139408307398E-2</v>
       </c>
-      <c r="S24" s="127">
+      <c r="S24" s="109">
         <f>S9/N9-1</f>
         <v>-7.0387604397708969E-2</v>
       </c>
@@ -8513,7 +8573,7 @@
       <c r="AT24" s="58"/>
       <c r="AU24" s="58"/>
     </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -8557,7 +8617,7 @@
         <f t="shared" ref="R25" si="49">R9/Q9-1</f>
         <v>0.16665567133190073</v>
       </c>
-      <c r="S25" s="121">
+      <c r="S25" s="103">
         <f>S9/Q9-1</f>
         <v>6.4999999999999947E-2</v>
       </c>
@@ -8622,7 +8682,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -8654,7 +8714,7 @@
         <f t="shared" ref="R26" si="51">R6/N6-1</f>
         <v>7.2482622264895546E-3</v>
       </c>
-      <c r="S26" s="128">
+      <c r="S26" s="110">
         <f>S6/N6-1</f>
         <v>-1</v>
       </c>
@@ -8742,7 +8802,7 @@
       <c r="AT26" s="83"/>
       <c r="AU26" s="83"/>
     </row>
-    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
@@ -8786,7 +8846,7 @@
         <f t="shared" ref="R27" si="58">R6/Q6-1</f>
         <v>0.16210162208287926</v>
       </c>
-      <c r="S27" s="121">
+      <c r="S27" s="103">
         <f>S6/Q6-1</f>
         <v>-1</v>
       </c>
@@ -8858,7 +8918,7 @@
       <c r="AT27" s="54"/>
       <c r="AU27" s="54"/>
     </row>
-    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:71" x14ac:dyDescent="0.15">
       <c r="AO28" s="86" t="s">
         <v>8</v>
       </c>
@@ -8867,7 +8927,7 @@
         <v>180.2700000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:71" x14ac:dyDescent="0.15">
       <c r="AO29" s="86" t="s">
         <v>827</v>
       </c>
@@ -8876,7 +8936,7 @@
         <v>10860.044028732516</v>
       </c>
     </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
@@ -8924,7 +8984,7 @@
         <f t="shared" ref="R30" si="61">R11/R9</f>
         <v>0.45354902041762896</v>
       </c>
-      <c r="S30" s="121">
+      <c r="S30" s="103">
         <f t="shared" si="60"/>
         <v>0.4846507649730542</v>
       </c>
@@ -9008,7 +9068,7 @@
         <v>23.903847994885822</v>
       </c>
     </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
@@ -9056,7 +9116,7 @@
         <f t="shared" ref="R31" si="67">R14/R9</f>
         <v>7.5869583864132367E-2</v>
       </c>
-      <c r="S31" s="121">
+      <c r="S31" s="103">
         <f t="shared" si="66"/>
         <v>5.5693505622833969E-2</v>
       </c>
@@ -9140,7 +9200,7 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -9188,7 +9248,7 @@
         <f t="shared" ref="R32" si="73">R20/R9</f>
         <v>5.5229575223094414E-2</v>
       </c>
-      <c r="S32" s="121">
+      <c r="S32" s="103">
         <f t="shared" si="72"/>
         <v>2.8919900616650899E-2</v>
       </c>
@@ -9272,7 +9332,7 @@
         <v>2.3572820217536266</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
@@ -9320,7 +9380,7 @@
         <f t="shared" ref="R33" si="79">R18/R17</f>
         <v>0.20212746629846307</v>
       </c>
-      <c r="S33" s="121">
+      <c r="S33" s="103">
         <f t="shared" si="78"/>
         <v>0.4</v>
       </c>
@@ -9398,12 +9458,12 @@
       </c>
       <c r="AP33" s="88"/>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
@@ -9428,11 +9488,11 @@
       <c r="R37" s="32">
         <v>178</v>
       </c>
-      <c r="S37" s="124"/>
+      <c r="S37" s="106"/>
       <c r="AC37" s="74"/>
       <c r="AL37" s="98"/>
     </row>
-    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
@@ -9457,11 +9517,11 @@
       <c r="R38" s="32">
         <v>18</v>
       </c>
-      <c r="S38" s="124"/>
+      <c r="S38" s="106"/>
       <c r="AC38" s="74"/>
       <c r="AL38" s="56"/>
     </row>
-    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
@@ -9493,10 +9553,10 @@
         <f>R37+R38</f>
         <v>196</v>
       </c>
-      <c r="S39" s="124"/>
+      <c r="S39" s="106"/>
       <c r="AC39" s="74"/>
     </row>
-    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
@@ -9521,10 +9581,10 @@
       <c r="R40" s="32">
         <v>162</v>
       </c>
-      <c r="S40" s="124"/>
+      <c r="S40" s="106"/>
       <c r="AC40" s="74"/>
     </row>
-    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
@@ -9549,10 +9609,10 @@
       <c r="R41" s="32">
         <v>79</v>
       </c>
-      <c r="S41" s="124"/>
+      <c r="S41" s="106"/>
       <c r="AC41" s="74"/>
     </row>
-    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
@@ -9584,10 +9644,10 @@
         <f>R40+R41</f>
         <v>241</v>
       </c>
-      <c r="S42" s="124"/>
+      <c r="S42" s="106"/>
       <c r="AC42" s="74"/>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
@@ -9617,7 +9677,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
@@ -9647,7 +9707,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
@@ -9679,7 +9739,7 @@
         <f>R43+R44</f>
         <v>437</v>
       </c>
-      <c r="S45" s="129"/>
+      <c r="S45" s="111"/>
       <c r="Z45" s="2">
         <v>338</v>
       </c>
@@ -9691,7 +9751,7 @@
       </c>
       <c r="AC45" s="75"/>
     </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>814</v>
       </c>
@@ -9738,21 +9798,27 @@
         <v>13.192582938388627</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="I50" s="21">
+        <v>1079.4090000000001</v>
+      </c>
       <c r="J50" s="21">
         <v>865.60900000000004</v>
       </c>
       <c r="K50" s="21">
         <v>1517.3610000000001</v>
       </c>
+      <c r="M50" s="21">
+        <v>1349.7929999999999</v>
+      </c>
       <c r="N50" s="21">
         <v>1253.7059999999999</v>
       </c>
@@ -9768,7 +9834,7 @@
       <c r="R50" s="21">
         <v>853.65200000000004</v>
       </c>
-      <c r="S50" s="129"/>
+      <c r="S50" s="111"/>
       <c r="AA50" s="21">
         <f>K50</f>
         <v>1517.3610000000001</v>
@@ -9796,15 +9862,21 @@
       <c r="AT50" s="58"/>
       <c r="AU50" s="58"/>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="I51" s="22">
+        <v>568.42999999999995</v>
+      </c>
       <c r="J51" s="22">
         <v>806.91600000000005</v>
       </c>
       <c r="K51" s="22">
         <v>527.34</v>
+      </c>
+      <c r="M51" s="22">
+        <v>639.17600000000004</v>
       </c>
       <c r="N51" s="22">
         <v>735.779</v>
@@ -9829,16 +9901,22 @@
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
+      <c r="I52" s="21">
+        <v>1198.509</v>
+      </c>
       <c r="J52" s="21">
         <v>1056.845</v>
       </c>
       <c r="K52" s="21">
         <v>895.97400000000005</v>
       </c>
+      <c r="M52" s="21">
+        <v>881.11699999999996</v>
+      </c>
       <c r="N52" s="21">
         <v>837.74</v>
       </c>
@@ -9854,7 +9932,7 @@
       <c r="R52" s="21">
         <v>1080.42</v>
       </c>
-      <c r="S52" s="129"/>
+      <c r="S52" s="111"/>
       <c r="AA52" s="21">
         <f>K52</f>
         <v>895.97400000000005</v>
@@ -9882,15 +9960,21 @@
       <c r="AT52" s="58"/>
       <c r="AU52" s="58"/>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="I53" s="22">
+        <v>242.661</v>
+      </c>
       <c r="J53" s="22">
         <v>243.971</v>
       </c>
       <c r="K53" s="22">
         <v>282.3</v>
+      </c>
+      <c r="M53" s="22">
+        <v>273.09899999999999</v>
       </c>
       <c r="N53" s="22">
         <v>300.71899999999999</v>
@@ -9915,7 +9999,7 @@
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
@@ -9925,7 +10009,7 @@
       </c>
       <c r="I54" s="22">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>3089.009</v>
       </c>
       <c r="J54" s="22">
         <f>SUM(J50:J53)</f>
@@ -9941,7 +10025,7 @@
       </c>
       <c r="M54" s="22">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>3143.1850000000004</v>
       </c>
       <c r="N54" s="22">
         <f t="shared" si="85"/>
@@ -9972,15 +10056,21 @@
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="I55" s="22">
+        <v>702.88499999999999</v>
+      </c>
       <c r="J55" s="22">
         <v>680.87099999999998</v>
       </c>
       <c r="K55" s="22">
         <v>658.678</v>
+      </c>
+      <c r="M55" s="22">
+        <v>619.11599999999999</v>
       </c>
       <c r="N55" s="22">
         <v>601.70000000000005</v>
@@ -10005,15 +10095,21 @@
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="I56" s="22">
+        <v>568.01</v>
+      </c>
       <c r="J56" s="22">
         <v>560.14599999999996</v>
       </c>
       <c r="K56" s="22">
         <v>536.66</v>
+      </c>
+      <c r="M56" s="22">
+        <v>493.01400000000001</v>
       </c>
       <c r="N56" s="22">
         <v>469.63799999999998</v>
@@ -10038,9 +10134,13 @@
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>95</v>
+      </c>
+      <c r="I57" s="22">
+        <f>486.868+38.748</f>
+        <v>525.61599999999999</v>
       </c>
       <c r="J57" s="22">
         <f>493.631+37.274</f>
@@ -10050,6 +10150,10 @@
         <f>502.214+13.295</f>
         <v>515.50900000000001</v>
       </c>
+      <c r="M57" s="22">
+        <f>499.541+12.11</f>
+        <v>511.65100000000001</v>
+      </c>
       <c r="N57" s="22">
         <f>498.166+11.474</f>
         <v>509.64</v>
@@ -10079,15 +10183,21 @@
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="I58" s="22">
+        <v>42.588999999999999</v>
+      </c>
       <c r="J58" s="22">
         <v>45.994999999999997</v>
       </c>
       <c r="K58" s="22">
         <v>23.93</v>
+      </c>
+      <c r="M58" s="22">
+        <v>25.045999999999999</v>
       </c>
       <c r="N58" s="22">
         <v>34.542999999999999</v>
@@ -10112,15 +10222,21 @@
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="I59" s="22">
+        <v>75.231999999999999</v>
+      </c>
       <c r="J59" s="22">
         <v>72.293000000000006</v>
       </c>
       <c r="K59" s="22">
         <v>72.876000000000005</v>
+      </c>
+      <c r="M59" s="22">
+        <v>79.497</v>
       </c>
       <c r="N59" s="22">
         <v>78.835999999999999</v>
@@ -10145,7 +10261,7 @@
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
@@ -10155,7 +10271,7 @@
       </c>
       <c r="I60" s="22">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>5003.3410000000003</v>
       </c>
       <c r="J60" s="22">
         <f t="shared" si="86"/>
@@ -10171,7 +10287,7 @@
       </c>
       <c r="M60" s="22">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4871.5090000000009</v>
       </c>
       <c r="N60" s="22">
         <f t="shared" si="86"/>
@@ -10202,21 +10318,27 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.15">
       <c r="K61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="AB61" s="22"/>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="I62" s="22">
+        <v>664.28800000000001</v>
+      </c>
       <c r="J62" s="22">
         <v>643.31500000000005</v>
       </c>
       <c r="K62" s="22">
         <v>575.95399999999995</v>
+      </c>
+      <c r="M62" s="22">
+        <v>613.56600000000003</v>
       </c>
       <c r="N62" s="22">
         <v>532.91899999999998</v>
@@ -10241,15 +10363,21 @@
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="I63" s="22">
+        <v>266.399</v>
+      </c>
       <c r="J63" s="22">
         <v>309.096</v>
       </c>
       <c r="K63" s="22">
         <v>378.85899999999998</v>
+      </c>
+      <c r="M63" s="22">
+        <v>346.53</v>
       </c>
       <c r="N63" s="22">
         <v>388.27499999999998</v>
@@ -10274,15 +10402,21 @@
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="I64" s="22">
+        <v>199.01599999999999</v>
+      </c>
       <c r="J64" s="22">
         <v>197.49600000000001</v>
       </c>
       <c r="K64" s="22">
         <v>203.399</v>
+      </c>
+      <c r="M64" s="22">
+        <v>179.40700000000001</v>
       </c>
       <c r="N64" s="22">
         <v>174.274</v>
@@ -10307,15 +10441,21 @@
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="I65" s="22">
+        <v>148.40799999999999</v>
+      </c>
       <c r="J65" s="22">
         <v>156.88499999999999</v>
       </c>
       <c r="K65" s="22">
         <v>162.56100000000001</v>
+      </c>
+      <c r="M65" s="22">
+        <v>145.01400000000001</v>
       </c>
       <c r="N65" s="22">
         <v>142.566</v>
@@ -10340,15 +10480,22 @@
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="I66" s="22">
+        <f>250+90.503</f>
+        <v>340.50299999999999</v>
+      </c>
       <c r="J66" s="22">
         <v>141.607</v>
       </c>
       <c r="K66" s="22">
         <v>92.503</v>
+      </c>
+      <c r="M66" s="22">
+        <v>77.444999999999993</v>
       </c>
       <c r="N66" s="22">
         <v>116.504</v>
@@ -10373,7 +10520,7 @@
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
@@ -10383,7 +10530,7 @@
       </c>
       <c r="I67" s="22">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1618.6139999999998</v>
       </c>
       <c r="J67" s="22">
         <f t="shared" si="87"/>
@@ -10399,7 +10546,7 @@
       </c>
       <c r="M67" s="22">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1361.9619999999998</v>
       </c>
       <c r="N67" s="22">
         <f t="shared" si="87"/>
@@ -10430,16 +10577,22 @@
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="I68" s="21">
+        <v>987.94899999999996</v>
+      </c>
       <c r="J68" s="21">
         <v>997.34699999999998</v>
       </c>
       <c r="K68" s="21">
         <v>1003.556</v>
       </c>
+      <c r="M68" s="21">
+        <v>804.62099999999998</v>
+      </c>
       <c r="N68" s="21">
         <v>662.90300000000002</v>
       </c>
@@ -10455,7 +10608,7 @@
       <c r="R68" s="21">
         <v>673.38199999999995</v>
       </c>
-      <c r="S68" s="129"/>
+      <c r="S68" s="111"/>
       <c r="AA68" s="21">
         <f>K68</f>
         <v>1003.556</v>
@@ -10483,15 +10636,21 @@
       <c r="AT68" s="58"/>
       <c r="AU68" s="58"/>
     </row>
-    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="I69" s="22">
+        <v>892.46500000000003</v>
+      </c>
       <c r="J69" s="22">
         <v>872.79100000000005</v>
       </c>
       <c r="K69" s="22">
         <v>839.41399999999999</v>
+      </c>
+      <c r="M69" s="22">
+        <v>757.54</v>
       </c>
       <c r="N69" s="22">
         <v>728.077</v>
@@ -10516,15 +10675,21 @@
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
+      <c r="I70" s="22">
+        <v>80.888999999999996</v>
+      </c>
       <c r="J70" s="22">
         <v>74.668000000000006</v>
       </c>
       <c r="K70" s="22">
         <v>98.388999999999996</v>
+      </c>
+      <c r="M70" s="22">
+        <v>100.676</v>
       </c>
       <c r="N70" s="22">
         <v>99.034000000000006</v>
@@ -10549,7 +10714,7 @@
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
@@ -10559,7 +10724,7 @@
       </c>
       <c r="I71" s="22">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>3579.9169999999999</v>
       </c>
       <c r="J71" s="22">
         <f t="shared" si="88"/>
@@ -10575,7 +10740,7 @@
       </c>
       <c r="M71" s="22">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>3024.7989999999995</v>
       </c>
       <c r="N71" s="22">
         <f t="shared" si="88"/>
@@ -10606,20 +10771,26 @@
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="AB72" s="22"/>
     </row>
-    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="I73" s="22">
+        <v>1423.414</v>
+      </c>
       <c r="J73" s="22">
         <v>1470.346</v>
       </c>
       <c r="K73" s="22">
         <v>1675.9929999999999</v>
+      </c>
+      <c r="M73" s="22">
+        <v>1846.71</v>
       </c>
       <c r="N73" s="22">
         <v>1977.749</v>
@@ -10644,9 +10815,13 @@
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>109</v>
+      </c>
+      <c r="I74" s="22">
+        <f>I71+I73</f>
+        <v>5003.3310000000001</v>
       </c>
       <c r="J74" s="22">
         <f>J71+J73</f>
@@ -10656,6 +10831,10 @@
         <f>K71+K73</f>
         <v>5030.6280000000006</v>
       </c>
+      <c r="M74" s="22">
+        <f>M71+M73</f>
+        <v>4871.509</v>
+      </c>
       <c r="N74" s="22">
         <f>N71+N73</f>
         <v>4822.3010000000004</v>
@@ -10685,24 +10864,32 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
+      <c r="I76" s="22">
+        <f t="shared" ref="I76" si="89">I60-I71</f>
+        <v>1423.4240000000004</v>
+      </c>
       <c r="J76" s="22">
-        <f t="shared" ref="J76:K76" si="89">J60-J71</f>
+        <f t="shared" ref="J76:K76" si="90">J60-J71</f>
         <v>1470.3459999999991</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>1675.9930000000004</v>
       </c>
+      <c r="M76" s="22">
+        <f t="shared" ref="M76:N76" si="91">M60-M71</f>
+        <v>1846.7100000000014</v>
+      </c>
       <c r="N76" s="22">
-        <f t="shared" ref="N76:O76" si="90">N60-N71</f>
+        <f t="shared" ref="N76:O76" si="92">N60-N71</f>
         <v>1977.7490000000003</v>
       </c>
       <c r="O76" s="22">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>2088.9740000000011</v>
       </c>
       <c r="P76" s="22">
@@ -10714,7 +10901,7 @@
         <v>1729.0950000000003</v>
       </c>
       <c r="R76" s="22">
-        <f t="shared" ref="R76" si="91">R60-R71</f>
+        <f t="shared" ref="R76" si="93">R60-R71</f>
         <v>1816.3330000000005</v>
       </c>
       <c r="AA76" s="22">
@@ -10726,24 +10913,32 @@
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
+      <c r="I77" s="53">
+        <f t="shared" ref="I77" si="94">I76/I22</f>
+        <v>3.1344597585225094</v>
+      </c>
       <c r="J77" s="53">
-        <f t="shared" ref="J77:K77" si="92">J76/J22</f>
+        <f t="shared" ref="J77:K77" si="95">J76/J22</f>
         <v>3.2196840634675921</v>
       </c>
       <c r="K77" s="53">
-        <f t="shared" si="92"/>
+        <f t="shared" si="95"/>
         <v>3.6850318044198591</v>
       </c>
+      <c r="M77" s="53">
+        <f t="shared" ref="M77:N77" si="96">M76/M22</f>
+        <v>4.0180459700089672</v>
+      </c>
       <c r="N77" s="53">
-        <f t="shared" ref="N77:O77" si="93">N76/N22</f>
+        <f t="shared" ref="N77:O77" si="97">N76/N22</f>
         <v>4.2079586895374916</v>
       </c>
       <c r="O77" s="53">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>4.3869603383608675</v>
       </c>
       <c r="P77" s="53">
@@ -10755,7 +10950,7 @@
         <v>3.7718988253002195</v>
       </c>
       <c r="R77" s="53">
-        <f t="shared" ref="R77" si="94">R76/R22</f>
+        <f t="shared" ref="R77" si="98">R76/R22</f>
         <v>3.9978979666404015</v>
       </c>
       <c r="AA77" s="22">
@@ -10767,9 +10962,13 @@
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="58" t="s">
         <v>790</v>
+      </c>
+      <c r="M79" s="70">
+        <f>M52/I52-1</f>
+        <v>-0.26482237513443796</v>
       </c>
       <c r="N79" s="70">
         <f>N52/J52-1</f>
@@ -10779,27 +10978,39 @@
         <f>O52/K52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
-      <c r="S79" s="129"/>
+      <c r="R79" s="70">
+        <f>R52/N52-1</f>
+        <v>0.28968415021367022</v>
+      </c>
+      <c r="S79" s="111"/>
       <c r="AB79" s="70">
         <f>AB52/AA52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
       <c r="AC79" s="75"/>
     </row>
-    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
+      <c r="J80" s="65">
+        <f t="shared" ref="J80:K80" si="99">J52/I52-1</f>
+        <v>-0.11820019707820295</v>
+      </c>
       <c r="K80" s="65">
-        <f t="shared" ref="K80" si="95">K52/J52-1</f>
+        <f t="shared" si="99"/>
         <v>-0.15221815876500333</v>
       </c>
+      <c r="N80" s="65">
+        <f t="shared" ref="N80:O80" si="100">N52/M52-1</f>
+        <v>-4.922955748215041E-2</v>
+      </c>
       <c r="O80" s="65">
-        <f t="shared" ref="O80" si="96">O52/N52-1</f>
+        <f t="shared" si="100"/>
         <v>-3.1429799221715626E-2</v>
       </c>
       <c r="P80" s="65">
-        <f t="shared" ref="P80" si="97">P52/O52-1</f>
+        <f t="shared" ref="P80" si="101">P52/O52-1</f>
         <v>1.6076952465461369E-2</v>
       </c>
       <c r="Q80" s="65">
@@ -10810,47 +11021,47 @@
         <f>R52/Q52-1</f>
         <v>0.13204818974134369</v>
       </c>
-      <c r="S80" s="124"/>
+      <c r="S80" s="106"/>
       <c r="AC80" s="74"/>
     </row>
-    <row r="82" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="56">
-        <f t="shared" ref="H82:N82" si="98">H50</f>
+        <f t="shared" ref="H82:N82" si="102">H50</f>
         <v>0</v>
       </c>
       <c r="I82" s="56">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
+        <v>1079.4090000000001</v>
+      </c>
+      <c r="J82" s="56">
+        <f t="shared" ref="J82" si="103">J50</f>
+        <v>865.60900000000004</v>
+      </c>
+      <c r="K82" s="56">
+        <f t="shared" si="102"/>
+        <v>1517.3610000000001</v>
+      </c>
+      <c r="L82" s="56">
+        <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="J82" s="56">
-        <f t="shared" ref="J82" si="99">J50</f>
-        <v>865.60900000000004</v>
-      </c>
-      <c r="K82" s="56">
-        <f t="shared" si="98"/>
-        <v>1517.3610000000001</v>
-      </c>
-      <c r="L82" s="56">
-        <f t="shared" si="98"/>
-        <v>0</v>
-      </c>
       <c r="M82" s="56">
-        <f t="shared" si="98"/>
-        <v>0</v>
+        <f t="shared" si="102"/>
+        <v>1349.7929999999999</v>
       </c>
       <c r="N82" s="56">
-        <f t="shared" si="98"/>
+        <f t="shared" si="102"/>
         <v>1253.7059999999999</v>
       </c>
       <c r="O82" s="56">
-        <f t="shared" ref="O82:P82" si="100">O50</f>
+        <f t="shared" ref="O82:P82" si="104">O50</f>
         <v>1669.453</v>
       </c>
       <c r="P82" s="56">
-        <f t="shared" si="100"/>
+        <f t="shared" si="104"/>
         <v>1009.139</v>
       </c>
       <c r="Q82" s="56">
@@ -10858,58 +11069,58 @@
         <v>1049.413</v>
       </c>
       <c r="R82" s="56">
-        <f t="shared" ref="R82" si="101">R50</f>
+        <f t="shared" ref="R82" si="105">R50</f>
         <v>853.65200000000004</v>
       </c>
-      <c r="S82" s="123"/>
+      <c r="S82" s="105"/>
       <c r="AA82" s="56">
-        <f t="shared" ref="AA82:AB82" si="102">AA50</f>
+        <f t="shared" ref="AA82:AB82" si="106">AA50</f>
         <v>1517.3610000000001</v>
       </c>
       <c r="AB82" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="106"/>
         <v>1669.453</v>
       </c>
       <c r="AC82" s="74"/>
     </row>
-    <row r="83" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
       <c r="H83" s="56">
-        <f t="shared" ref="H83:N83" si="103">H68</f>
+        <f t="shared" ref="H83:N83" si="107">H68</f>
         <v>0</v>
       </c>
       <c r="I83" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
+        <v>987.94899999999996</v>
+      </c>
+      <c r="J83" s="56">
+        <f t="shared" ref="J83" si="108">J68</f>
+        <v>997.34699999999998</v>
+      </c>
+      <c r="K83" s="56">
+        <f t="shared" si="107"/>
+        <v>1003.556</v>
+      </c>
+      <c r="L83" s="56">
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="J83" s="56">
-        <f t="shared" ref="J83" si="104">J68</f>
-        <v>997.34699999999998</v>
-      </c>
-      <c r="K83" s="56">
-        <f t="shared" si="103"/>
-        <v>1003.556</v>
-      </c>
-      <c r="L83" s="56">
-        <f t="shared" si="103"/>
-        <v>0</v>
-      </c>
       <c r="M83" s="56">
-        <f t="shared" si="103"/>
-        <v>0</v>
+        <f t="shared" si="107"/>
+        <v>804.62099999999998</v>
       </c>
       <c r="N83" s="56">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>662.90300000000002</v>
       </c>
       <c r="O83" s="56">
-        <f t="shared" ref="O83:P83" si="105">O68</f>
+        <f t="shared" ref="O83:P83" si="109">O68</f>
         <v>662.53099999999995</v>
       </c>
       <c r="P83" s="56">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>672.28599999999994</v>
       </c>
       <c r="Q83" s="56">
@@ -10917,58 +11128,58 @@
         <v>672.83399999999995</v>
       </c>
       <c r="R83" s="56">
-        <f t="shared" ref="R83" si="106">R68</f>
+        <f t="shared" ref="R83" si="110">R68</f>
         <v>673.38199999999995</v>
       </c>
-      <c r="S83" s="123"/>
+      <c r="S83" s="105"/>
       <c r="AA83" s="56">
-        <f t="shared" ref="AA83:AB83" si="107">AA68</f>
+        <f t="shared" ref="AA83:AB83" si="111">AA68</f>
         <v>1003.556</v>
       </c>
       <c r="AB83" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>662.53099999999995</v>
       </c>
       <c r="AC83" s="74"/>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H84" s="22">
-        <f t="shared" ref="H84:N84" si="108">H82-H83</f>
+        <f t="shared" ref="H84:N84" si="112">H82-H83</f>
         <v>0</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
+        <v>91.46000000000015</v>
+      </c>
+      <c r="J84" s="22">
+        <f t="shared" ref="J84" si="113">J82-J83</f>
+        <v>-131.73799999999994</v>
+      </c>
+      <c r="K84" s="22">
+        <f t="shared" si="112"/>
+        <v>513.80500000000006</v>
+      </c>
+      <c r="L84" s="22">
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="J84" s="22">
-        <f t="shared" ref="J84" si="109">J82-J83</f>
-        <v>-131.73799999999994</v>
-      </c>
-      <c r="K84" s="22">
-        <f t="shared" si="108"/>
-        <v>513.80500000000006</v>
-      </c>
-      <c r="L84" s="22">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
       <c r="M84" s="22">
-        <f t="shared" si="108"/>
-        <v>0</v>
+        <f t="shared" si="112"/>
+        <v>545.17199999999991</v>
       </c>
       <c r="N84" s="22">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>590.80299999999988</v>
       </c>
       <c r="O84" s="22">
-        <f t="shared" ref="O84:P84" si="110">O82-O83</f>
+        <f t="shared" ref="O84:P84" si="114">O82-O83</f>
         <v>1006.922</v>
       </c>
       <c r="P84" s="22">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>336.85300000000007</v>
       </c>
       <c r="Q84" s="22">
@@ -10976,20 +11187,20 @@
         <v>376.57900000000006</v>
       </c>
       <c r="R84" s="22">
-        <f t="shared" ref="R84" si="111">R82-R83</f>
+        <f t="shared" ref="R84" si="115">R82-R83</f>
         <v>180.2700000000001</v>
       </c>
-      <c r="S84" s="123"/>
+      <c r="S84" s="105"/>
       <c r="AA84" s="22">
-        <f t="shared" ref="AA84:AB84" si="112">AA82-AA83</f>
+        <f t="shared" ref="AA84:AB84" si="116">AA82-AA83</f>
         <v>513.80500000000006</v>
       </c>
       <c r="AB84" s="22">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>1006.922</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -11050,7 +11261,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -11059,94 +11270,102 @@
         <v>3808.6451099999999</v>
       </c>
       <c r="I87" s="56">
-        <f t="shared" ref="I87:Q87" si="113">I86*I22</f>
+        <f t="shared" ref="I87:Q87" si="117">I86*I22</f>
         <v>4014.4296399999998</v>
       </c>
       <c r="J87" s="56">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>4493.6721600000001</v>
       </c>
       <c r="K87" s="56">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>6767.5876799999996</v>
       </c>
       <c r="L87" s="56">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>8418.0184399999998</v>
       </c>
       <c r="M87" s="56">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>8534.8462799999998</v>
       </c>
       <c r="N87" s="56">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>8234.4350400000003</v>
       </c>
       <c r="O87" s="56">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>8590.251119999999</v>
       </c>
       <c r="P87" s="56">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>7580.5139999999992</v>
       </c>
       <c r="Q87" s="56">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>3474.7857000000004</v>
       </c>
       <c r="R87" s="56">
-        <f t="shared" ref="R87" si="114">R86*R22</f>
+        <f t="shared" ref="R87" si="118">R86*R22</f>
         <v>2707.7591200000002</v>
       </c>
-      <c r="S87" s="124"/>
+      <c r="S87" s="106"/>
       <c r="W87" s="56">
-        <f t="shared" ref="W87:Z87" si="115">W86*W22</f>
+        <f t="shared" ref="W87:Z87" si="119">W86*W22</f>
         <v>10982.426100000001</v>
       </c>
       <c r="X87" s="56">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>5870.5102799999995</v>
       </c>
       <c r="Y87" s="56">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>7208.8285500000011</v>
       </c>
       <c r="Z87" s="56">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>8649.4895199999992</v>
       </c>
       <c r="AA87" s="56">
-        <f t="shared" ref="AA87:AB87" si="116">AA86*AA22</f>
+        <f t="shared" ref="AA87:AB87" si="120">AA86*AA22</f>
         <v>6756.8443200000002</v>
       </c>
       <c r="AB87" s="56">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>8397.6921600000005</v>
       </c>
       <c r="AC87" s="74"/>
     </row>
-    <row r="88" spans="2:29" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:29" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
+      <c r="I88" s="56">
+        <f t="shared" ref="I88:N88" si="121">I87-I84</f>
+        <v>3922.9696399999998</v>
+      </c>
       <c r="J88" s="56">
-        <f t="shared" ref="J88:N88" si="117">J87-J84</f>
+        <f t="shared" si="121"/>
         <v>4625.4101600000004</v>
       </c>
       <c r="K88" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>6253.7826799999993</v>
       </c>
+      <c r="M88" s="56">
+        <f t="shared" si="121"/>
+        <v>7989.6742800000002</v>
+      </c>
       <c r="N88" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>7643.6320400000004</v>
       </c>
       <c r="O88" s="56">
-        <f t="shared" ref="O88:P88" si="118">O87-O84</f>
+        <f t="shared" ref="O88:P88" si="122">O87-O84</f>
         <v>7583.3291199999985</v>
       </c>
       <c r="P88" s="56">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7243.6609999999991</v>
       </c>
       <c r="Q88" s="56">
@@ -11154,42 +11373,50 @@
         <v>3098.2067000000002</v>
       </c>
       <c r="R88" s="56">
-        <f t="shared" ref="R88" si="119">R87-R84</f>
+        <f t="shared" ref="R88" si="123">R87-R84</f>
         <v>2527.4891200000002</v>
       </c>
-      <c r="S88" s="123"/>
+      <c r="S88" s="105"/>
       <c r="AA88" s="56">
-        <f t="shared" ref="AA88:AB88" si="120">AA87-AA84</f>
+        <f t="shared" ref="AA88:AB88" si="124">AA87-AA84</f>
         <v>6243.0393199999999</v>
       </c>
       <c r="AB88" s="56">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>7390.77016</v>
       </c>
       <c r="AC88" s="73"/>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B90" s="1" t="s">
         <v>778</v>
       </c>
+      <c r="I90" s="69">
+        <f t="shared" ref="I90" si="125">I86/I77</f>
+        <v>2.8202627186277587</v>
+      </c>
       <c r="J90" s="69">
-        <f t="shared" ref="J90:K90" si="121">J86/J77</f>
+        <f t="shared" ref="J90:K90" si="126">J86/J77</f>
         <v>3.0562004861440792</v>
       </c>
       <c r="K90" s="69">
-        <f t="shared" si="121"/>
+        <f t="shared" si="126"/>
         <v>4.0379570081736604</v>
       </c>
+      <c r="M90" s="69">
+        <f t="shared" ref="M90:P90" si="127">M86/M77</f>
+        <v>4.6216494630992377</v>
+      </c>
       <c r="N90" s="69">
-        <f t="shared" ref="N90:P90" si="122">N86/N77</f>
+        <f t="shared" si="127"/>
         <v>4.1635389728423569</v>
       </c>
       <c r="O90" s="69">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>4.1121867098393734</v>
       </c>
       <c r="P90" s="69">
-        <f t="shared" si="122"/>
+        <f t="shared" si="127"/>
         <v>4.3844509454849581</v>
       </c>
       <c r="Q90" s="69">
@@ -11197,11 +11424,11 @@
         <v>2.0095979110459519</v>
       </c>
       <c r="R90" s="69">
-        <f t="shared" ref="R90" si="123">R86/R77</f>
+        <f t="shared" ref="R90" si="128">R86/R77</f>
         <v>1.4907834191197316</v>
       </c>
       <c r="AA90" s="69">
-        <f t="shared" ref="AA90" si="124">AA86/AA77</f>
+        <f t="shared" ref="AA90" si="129">AA86/AA77</f>
         <v>4.0379570081736604</v>
       </c>
       <c r="AB90" s="69">
@@ -11209,36 +11436,40 @@
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>809</v>
       </c>
+      <c r="I91" s="69">
+        <f t="shared" ref="I91" si="130">I87/SUM(F6:I6)</f>
+        <v>2.6020853605259093</v>
+      </c>
       <c r="J91" s="69">
-        <f t="shared" ref="J91" si="125">J87/SUM(G6:J6)</f>
+        <f t="shared" ref="J91" si="131">J87/SUM(G6:J6)</f>
         <v>1.5423293411981622</v>
       </c>
       <c r="K91" s="69">
-        <f t="shared" ref="K91:P91" si="126">K87/SUM(H6:K6)</f>
+        <f t="shared" ref="K91:P91" si="132">K87/SUM(H6:K6)</f>
         <v>1.5995330818390172</v>
       </c>
       <c r="L91" s="69">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>1.8332967691100841</v>
       </c>
       <c r="M91" s="69">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>1.6247491502037685</v>
       </c>
       <c r="N91" s="69">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>1.5258758943246864</v>
       </c>
       <c r="O91" s="69">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>1.5429916494080578</v>
       </c>
       <c r="P91" s="69">
-        <f t="shared" si="126"/>
+        <f t="shared" si="132"/>
         <v>1.3534483543594595</v>
       </c>
       <c r="Q91" s="69">
@@ -11246,27 +11477,27 @@
         <v>0.6221570503604078</v>
       </c>
       <c r="R91" s="69">
-        <f t="shared" ref="R91" si="127">R87/SUM(O6:R6)</f>
+        <f t="shared" ref="R91" si="133">R87/SUM(O6:R6)</f>
         <v>0.48387075284335096</v>
       </c>
       <c r="W91" s="69">
-        <f t="shared" ref="W91:Z91" si="128">W87/W6</f>
+        <f t="shared" ref="W91:Z91" si="134">W87/W6</f>
         <v>2.3621676596476893</v>
       </c>
       <c r="X91" s="69">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>1.2305088267185433</v>
       </c>
       <c r="Y91" s="69">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>1.456904992539475</v>
       </c>
       <c r="Z91" s="69">
-        <f t="shared" si="128"/>
+        <f t="shared" si="134"/>
         <v>1.7392236210561027</v>
       </c>
       <c r="AA91" s="69">
-        <f t="shared" ref="AA91" si="129">AA87/AA6</f>
+        <f t="shared" ref="AA91" si="135">AA87/AA6</f>
         <v>1.5969938669011909</v>
       </c>
       <c r="AB91" s="69">
@@ -11274,36 +11505,40 @@
         <v>1.5084039681926689</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="I92" s="69">
+        <f t="shared" ref="I92" si="136">I86/SUM(F21:I21)</f>
+        <v>-5.1852375056166542</v>
+      </c>
       <c r="J92" s="69">
-        <f t="shared" ref="J92" si="130">J86/SUM(G21:J21)</f>
+        <f t="shared" ref="J92" si="137">J86/SUM(G21:J21)</f>
         <v>-6.0757314053217959</v>
       </c>
       <c r="K92" s="69">
-        <f t="shared" ref="K92" si="131">K86/SUM(H21:K21)</f>
+        <f t="shared" ref="K92" si="138">K86/SUM(H21:K21)</f>
         <v>-12.257039736665067</v>
       </c>
       <c r="L92" s="69">
-        <f t="shared" ref="L92" si="132">L86/SUM(I21:L21)</f>
+        <f t="shared" ref="L92" si="139">L86/SUM(I21:L21)</f>
         <v>71.383779306426774</v>
       </c>
       <c r="M92" s="69">
-        <f t="shared" ref="M92" si="133">M86/SUM(J21:M21)</f>
+        <f t="shared" ref="M92" si="140">M86/SUM(J21:M21)</f>
         <v>18.285031241280244</v>
       </c>
       <c r="N92" s="69">
-        <f t="shared" ref="N92" si="134">N86/SUM(K21:N21)</f>
+        <f t="shared" ref="N92" si="141">N86/SUM(K21:N21)</f>
         <v>14.952988283370482</v>
       </c>
       <c r="O92" s="69">
-        <f t="shared" ref="O92:P92" si="135">O86/SUM(L21:O21)</f>
+        <f t="shared" ref="O92:P92" si="142">O86/SUM(L21:O21)</f>
         <v>18.105251010476522</v>
       </c>
       <c r="P92" s="69">
-        <f t="shared" si="135"/>
+        <f t="shared" si="142"/>
         <v>22.989620990664498</v>
       </c>
       <c r="Q92" s="69">
@@ -11311,27 +11546,27 @@
         <v>20.941179022554319</v>
       </c>
       <c r="R92" s="69">
-        <f t="shared" ref="R92" si="136">R86/SUM(O21:R21)</f>
+        <f t="shared" ref="R92" si="143">R86/SUM(O21:R21)</f>
         <v>19.10708857994079</v>
       </c>
       <c r="W92" s="69">
-        <f t="shared" ref="W92:Y92" si="137">W86/W21</f>
+        <f t="shared" ref="W92:Y92" si="144">W86/W21</f>
         <v>42.458927163071316</v>
       </c>
       <c r="X92" s="69">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>-121.64339577289637</v>
       </c>
       <c r="Y92" s="69">
-        <f t="shared" si="137"/>
+        <f t="shared" si="144"/>
         <v>-155.69151548529089</v>
       </c>
       <c r="Z92" s="69">
-        <f t="shared" ref="Z92:AA92" si="138">Z86/Z21</f>
+        <f t="shared" ref="Z92:AA92" si="145">Z86/Z21</f>
         <v>93.871302120640664</v>
       </c>
       <c r="AA92" s="69">
-        <f t="shared" si="138"/>
+        <f t="shared" si="145"/>
         <v>-12.303582123796154</v>
       </c>
       <c r="AB92" s="69">
@@ -11339,12 +11574,48 @@
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="s">
         <v>810</v>
       </c>
+      <c r="I93" s="69">
+        <f t="shared" ref="I93:Q93" si="146">I88/(SUM(F6:I6))</f>
+        <v>2.5428025362107474</v>
+      </c>
+      <c r="J93" s="69">
+        <f t="shared" si="146"/>
+        <v>1.5875447853864104</v>
+      </c>
+      <c r="K93" s="69">
+        <f t="shared" si="146"/>
+        <v>1.478094227408941</v>
+      </c>
+      <c r="M93" s="69">
+        <f t="shared" si="146"/>
+        <v>1.5209666432135092</v>
+      </c>
+      <c r="N93" s="69">
+        <f t="shared" si="146"/>
+        <v>1.4163975814087941</v>
+      </c>
+      <c r="O93" s="69">
+        <f t="shared" si="146"/>
+        <v>1.3621270604802709</v>
+      </c>
+      <c r="P93" s="69">
+        <f t="shared" si="146"/>
+        <v>1.293305580596223</v>
+      </c>
+      <c r="Q93" s="69">
+        <f t="shared" si="146"/>
+        <v>0.55473094121426048</v>
+      </c>
+      <c r="R93" s="69">
+        <f>R88/(SUM(O6:R6))</f>
+        <v>0.45165689010689347</v>
+      </c>
       <c r="AA93" s="69">
-        <f t="shared" ref="AA93" si="139">AA88/AA6</f>
+        <f t="shared" ref="AA93" si="147">AA88/AA6</f>
         <v>1.4755550124711148</v>
       </c>
       <c r="AB93" s="69">
@@ -11352,32 +11623,40 @@
         <v>1.327539379264882</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.15">
       <c r="AA94" s="69"/>
       <c r="AB94" s="69"/>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>806</v>
       </c>
+      <c r="I95" s="25">
+        <f t="shared" ref="I95:K95" si="148">I52/I9</f>
+        <v>1.6936705104290317</v>
+      </c>
       <c r="J95" s="25">
-        <f t="shared" ref="J95:K95" si="140">J52/J9</f>
+        <f t="shared" si="148"/>
         <v>0.73749442611099214</v>
       </c>
       <c r="K95" s="25">
-        <f t="shared" si="140"/>
+        <f t="shared" si="148"/>
         <v>0.63826449707429866</v>
       </c>
+      <c r="M95" s="25">
+        <f t="shared" ref="M95:P95" si="149">M52/M9</f>
+        <v>0.65193846399720601</v>
+      </c>
       <c r="N95" s="25">
-        <f t="shared" ref="N95:P95" si="141">N52/N9</f>
+        <f t="shared" si="149"/>
         <v>0.54203989305947731</v>
       </c>
       <c r="O95" s="25">
-        <f t="shared" si="141"/>
+        <f t="shared" si="149"/>
         <v>0.53060904195317171</v>
       </c>
       <c r="P95" s="25">
-        <f t="shared" si="141"/>
+        <f t="shared" si="149"/>
         <v>0.63373547690332799</v>
       </c>
       <c r="Q95" s="25">
@@ -11385,11 +11664,11 @@
         <v>0.70745268732158828</v>
       </c>
       <c r="R95" s="25">
-        <f t="shared" ref="R95" si="142">R52/R9</f>
+        <f t="shared" ref="R95" si="150">R52/R9</f>
         <v>0.68646692738033599</v>
       </c>
       <c r="AA95" s="25">
-        <f t="shared" ref="AA95" si="143">AA52/AA9</f>
+        <f t="shared" ref="AA95" si="151">AA52/AA9</f>
         <v>0.20023255361795636</v>
       </c>
       <c r="AB95" s="25">
@@ -11397,7 +11676,7 @@
         <v>0.14276675535667846</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.15">
       <c r="K96" s="25"/>
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
@@ -11406,7 +11685,7 @@
       <c r="AA96" s="25"/>
       <c r="AB96" s="25"/>
     </row>
-    <row r="97" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:47" x14ac:dyDescent="0.15">
       <c r="K97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
@@ -11415,45 +11694,45 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="99" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B99" s="27" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="100" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B100" s="54" t="s">
         <v>815</v>
       </c>
       <c r="I100" s="65">
-        <f t="shared" ref="I100:P100" si="144">I3/H3-1</f>
+        <f t="shared" ref="I100:P100" si="152">I3/H3-1</f>
         <v>-0.28820449048700714</v>
       </c>
       <c r="J100" s="65">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>1.1768782082290343</v>
       </c>
       <c r="K100" s="65">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>4.6761685836980149E-3</v>
       </c>
       <c r="L100" s="65">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>-0.13027499098108597</v>
       </c>
       <c r="M100" s="65">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>7.9195991314019887E-2</v>
       </c>
       <c r="N100" s="65">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>0.21052330549432452</v>
       </c>
       <c r="O100" s="65">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>3.8321500693137889E-2</v>
       </c>
       <c r="P100" s="65">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>-0.2022053470017765</v>
       </c>
       <c r="Q100" s="65">
@@ -11461,151 +11740,151 @@
         <v>-9.3269024553847002E-3</v>
       </c>
       <c r="R100" s="65">
-        <f t="shared" ref="R100:R105" si="145">R3/Q3-1</f>
+        <f t="shared" ref="R100:R105" si="153">R3/Q3-1</f>
         <v>0.19557176875918336</v>
       </c>
-      <c r="S100" s="124"/>
+      <c r="S100" s="106"/>
       <c r="AC100" s="74"/>
     </row>
-    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="54" t="s">
         <v>816</v>
       </c>
       <c r="I101" s="65">
-        <f t="shared" ref="I101:Q101" si="146">I4/H4-1</f>
+        <f t="shared" ref="I101:Q101" si="154">I4/H4-1</f>
         <v>-0.11731238792873222</v>
       </c>
       <c r="J101" s="65">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.61374798070117631</v>
       </c>
       <c r="K101" s="65">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>-0.19357387499288559</v>
       </c>
       <c r="L101" s="65">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.28305012268079333</v>
       </c>
       <c r="M101" s="65">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.10870191265406226</v>
       </c>
       <c r="N101" s="65">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>-3.7715860040100302E-2</v>
       </c>
       <c r="O101" s="65">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>-0.14253695582285475</v>
       </c>
       <c r="P101" s="65">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>4.9430357136541092E-2</v>
       </c>
       <c r="Q101" s="65">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>0.17039326448620784</v>
       </c>
       <c r="R101" s="65">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>8.2459085790969722E-2</v>
       </c>
-      <c r="S101" s="124"/>
+      <c r="S101" s="106"/>
       <c r="AC101" s="74"/>
     </row>
-    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="54" t="s">
         <v>817</v>
       </c>
       <c r="I102" s="65">
-        <f t="shared" ref="I102:Q102" si="147">I5/H5-1</f>
+        <f t="shared" ref="I102:Q102" si="155">I5/H5-1</f>
         <v>-0.1718722323906241</v>
       </c>
       <c r="J102" s="65">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>1.5855553971196352</v>
       </c>
       <c r="K102" s="65">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>7.5830690748635021E-4</v>
       </c>
       <c r="L102" s="65">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>-0.19132052076875383</v>
       </c>
       <c r="M102" s="65">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>-5.019762172476061E-2</v>
       </c>
       <c r="N102" s="65">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>0.13310852622799385</v>
       </c>
       <c r="O102" s="65">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>-0.15588270212513355</v>
       </c>
       <c r="P102" s="65">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>-9.2330051570557958E-2</v>
       </c>
       <c r="Q102" s="65">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>2.8924723407341979E-4</v>
       </c>
       <c r="R102" s="65">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>0.14753539672212401</v>
       </c>
-      <c r="S102" s="124"/>
+      <c r="S102" s="106"/>
       <c r="AC102" s="74"/>
     </row>
-    <row r="103" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="58" t="s">
         <v>819</v>
       </c>
       <c r="I103" s="70">
-        <f t="shared" ref="I103:Q103" si="148">I6/H6-1</f>
+        <f t="shared" ref="I103:Q103" si="156">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
       <c r="J103" s="70">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>1.0549972940599743</v>
       </c>
       <c r="K103" s="70">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>-3.8935998856132414E-2</v>
       </c>
       <c r="L103" s="70">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>-6.1431667318194938E-2</v>
       </c>
       <c r="M103" s="70">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>7.4285635721933918E-2</v>
       </c>
       <c r="N103" s="70">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>0.13999233628213337</v>
       </c>
       <c r="O103" s="70">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>-1.726150932381687E-2</v>
       </c>
       <c r="P103" s="70">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>-0.14652505955360839</v>
       </c>
       <c r="Q103" s="70">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>3.3388630685857734E-2</v>
       </c>
       <c r="R103" s="70">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>0.16210162208287926</v>
       </c>
-      <c r="S103" s="129"/>
+      <c r="S103" s="111"/>
       <c r="AC103" s="75"/>
       <c r="AD103" s="58"/>
       <c r="AE103" s="58"/>
@@ -11626,97 +11905,97 @@
       <c r="AT103" s="58"/>
       <c r="AU103" s="58"/>
     </row>
-    <row r="104" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B104" s="32" t="s">
         <v>820</v>
       </c>
       <c r="I104" s="65">
-        <f t="shared" ref="I104:Q104" si="149">I7/H7-1</f>
+        <f t="shared" ref="I104:Q104" si="157">I7/H7-1</f>
         <v>-0.68959117130674685</v>
       </c>
       <c r="J104" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>3.0596315449256624</v>
       </c>
       <c r="K104" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>1.170892878468214</v>
       </c>
       <c r="L104" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>-0.60287888511964793</v>
       </c>
       <c r="M104" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>7.4063813085838204E-2</v>
       </c>
       <c r="N104" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.33695885817462701</v>
       </c>
       <c r="O104" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>0.17707964886330751</v>
       </c>
       <c r="P104" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>-0.27328853193465552</v>
       </c>
       <c r="Q104" s="65">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>5.7627246071723981E-2</v>
       </c>
       <c r="R104" s="65">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>0.17728807535098623</v>
       </c>
     </row>
-    <row r="105" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B105" s="32" t="s">
         <v>821</v>
       </c>
       <c r="I105" s="65">
-        <f t="shared" ref="I105:Q105" si="150">I8/H8-1</f>
+        <f t="shared" ref="I105:Q105" si="158">I8/H8-1</f>
         <v>-5.2339367300907602E-3</v>
       </c>
       <c r="J105" s="65">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>7.8805848667189871E-2</v>
       </c>
       <c r="K105" s="65">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>-0.14270316878637646</v>
       </c>
       <c r="L105" s="65">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>-1.0297334674377672</v>
       </c>
       <c r="M105" s="65">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>-0.93234672304439747</v>
       </c>
       <c r="N105" s="65">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>-3.171875</v>
       </c>
       <c r="O105" s="65">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>30.97122302158273</v>
       </c>
       <c r="P105" s="65">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>-4.5904590459045824E-2</v>
       </c>
       <c r="Q105" s="65">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>0.98396226415094357</v>
       </c>
       <c r="R105" s="65">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>0.84165477888730389</v>
       </c>
     </row>
-    <row r="107" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B107" s="1" t="s">
         <v>826</v>
       </c>
@@ -11725,119 +12004,119 @@
         <v>0.59414882180942552</v>
       </c>
       <c r="I107" s="25">
-        <f t="shared" ref="I107:S107" si="151">I12/I9</f>
+        <f t="shared" ref="I107:S107" si="159">I12/I9</f>
         <v>0.67817816969080325</v>
       </c>
       <c r="J107" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.38628115010177799</v>
       </c>
       <c r="K107" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.41729034611181637</v>
       </c>
       <c r="L107" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.40935415746960502</v>
       </c>
       <c r="M107" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.40324771703856505</v>
       </c>
       <c r="N107" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.38781726939332217</v>
       </c>
       <c r="O107" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.44184134893621202</v>
       </c>
       <c r="P107" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.45693399797839268</v>
       </c>
       <c r="Q107" s="25">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>0.44157808009594857</v>
       </c>
       <c r="R107" s="25">
-        <f t="shared" ref="R107" si="152">R12/R9</f>
+        <f t="shared" ref="R107" si="160">R12/R9</f>
         <v>0.37767943655349662</v>
       </c>
-      <c r="S107" s="121">
-        <f t="shared" si="151"/>
+      <c r="S107" s="103">
+        <f t="shared" si="159"/>
         <v>0.42895725935022022</v>
       </c>
       <c r="V107" s="25">
-        <f t="shared" ref="V107:AM107" si="153">V12/V9</f>
+        <f t="shared" ref="V107:AM107" si="161">V12/V9</f>
         <v>0.37771430114149451</v>
       </c>
       <c r="W107" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.37760351403197812</v>
       </c>
       <c r="X107" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.42080964570985102</v>
       </c>
       <c r="Y107" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.42023132239656397</v>
       </c>
       <c r="Z107" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.42409417497036345</v>
       </c>
       <c r="AA107" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.48538449900294256</v>
       </c>
       <c r="AB107" s="25">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.41078648134782536</v>
       </c>
       <c r="AC107" s="71">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.37352786459200688</v>
       </c>
       <c r="AD107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.3898998698173477</v>
       </c>
       <c r="AE107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.40687889459616033</v>
       </c>
       <c r="AF107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.42449147926761222</v>
       </c>
       <c r="AG107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.44276401542814858</v>
       </c>
       <c r="AH107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.46172244331878237</v>
       </c>
       <c r="AI107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.48172478086605175</v>
       </c>
       <c r="AJ107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.48238207549596013</v>
       </c>
       <c r="AK107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.48294740632301031</v>
       </c>
       <c r="AL107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.48343346744763499</v>
       </c>
       <c r="AM107" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>0.4838512463586328</v>
       </c>
     </row>
@@ -11872,16 +12151,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -11898,7 +12177,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11915,7 +12194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11932,7 +12211,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11949,7 +12228,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11966,7 +12245,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11983,7 +12262,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12000,7 +12279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12017,7 +12296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12034,7 +12313,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12051,7 +12330,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12068,7 +12347,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12085,7 +12364,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12102,7 +12381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12119,7 +12398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12136,7 +12415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12153,7 +12432,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12170,7 +12449,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12187,7 +12466,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12204,7 +12483,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12221,7 +12500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12238,7 +12517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12255,7 +12534,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12272,7 +12551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12289,7 +12568,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12306,7 +12585,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12323,7 +12602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12340,7 +12619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12357,7 +12636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12374,7 +12653,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12391,7 +12670,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -12408,7 +12687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12425,7 +12704,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12442,7 +12721,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12459,7 +12738,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12476,7 +12755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12493,7 +12772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12510,7 +12789,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12527,7 +12806,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12544,7 +12823,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12561,7 +12840,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12578,7 +12857,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12595,7 +12874,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12612,7 +12891,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12629,7 +12908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12646,7 +12925,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12663,7 +12942,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -12680,7 +12959,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -12697,7 +12976,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -12714,7 +12993,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -12731,7 +13010,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -12748,7 +13027,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -12765,7 +13044,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -12782,7 +13061,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -12799,7 +13078,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -12816,7 +13095,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -12833,7 +13112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -12850,7 +13129,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -12867,7 +13146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -12884,7 +13163,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -12901,7 +13180,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -12918,7 +13197,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -12935,7 +13214,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -12952,7 +13231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -12969,7 +13248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -12986,7 +13265,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13003,7 +13282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -13020,7 +13299,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13037,7 +13316,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -13054,7 +13333,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -13071,7 +13350,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -13088,7 +13367,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -13105,7 +13384,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -13122,7 +13401,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -13139,7 +13418,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -13156,7 +13435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -13173,7 +13452,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -13190,7 +13469,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -13207,7 +13486,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -13224,7 +13503,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -13241,7 +13520,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -13258,7 +13537,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -13275,7 +13554,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -13292,7 +13571,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -13309,7 +13588,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -13326,7 +13605,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -13343,7 +13622,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -13360,7 +13639,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -13377,7 +13656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -13394,7 +13673,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -13411,7 +13690,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13428,7 +13707,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13445,7 +13724,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13462,7 +13741,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13479,7 +13758,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13496,7 +13775,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13513,7 +13792,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13530,7 +13809,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13547,7 +13826,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13564,7 +13843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -13581,7 +13860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -13598,7 +13877,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -13615,7 +13894,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -13632,7 +13911,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -13649,7 +13928,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -13666,7 +13945,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -13683,7 +13962,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -13700,7 +13979,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -13717,7 +13996,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -13734,7 +14013,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -13751,7 +14030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -13768,7 +14047,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -13785,7 +14064,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -13802,7 +14081,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -13819,7 +14098,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -13836,7 +14115,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -13853,7 +14132,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -13870,7 +14149,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -13887,7 +14166,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -13904,7 +14183,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -13921,7 +14200,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -13938,7 +14217,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -13955,7 +14234,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -13972,7 +14251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -13989,7 +14268,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -14006,7 +14285,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -14023,7 +14302,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -14040,7 +14319,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -14057,7 +14336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -14074,7 +14353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -14091,7 +14370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -14108,7 +14387,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -14125,7 +14404,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -14142,7 +14421,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -14159,7 +14438,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -14176,7 +14455,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -14193,7 +14472,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -14210,7 +14489,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -14227,7 +14506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -14244,7 +14523,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -14261,7 +14540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -14278,7 +14557,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -14295,7 +14574,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14312,7 +14591,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14329,7 +14608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14346,7 +14625,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -14363,7 +14642,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -14380,7 +14659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -14397,7 +14676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -14414,7 +14693,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -14431,7 +14710,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -14448,7 +14727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -14465,7 +14744,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -14482,7 +14761,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -14499,7 +14778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -14516,7 +14795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -14533,7 +14812,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -14550,7 +14829,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -14567,7 +14846,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -14584,7 +14863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -14601,7 +14880,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14618,7 +14897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14635,7 +14914,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14652,7 +14931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -14669,7 +14948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -14686,7 +14965,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -14703,7 +14982,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -14720,7 +14999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -14737,7 +15016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -14754,7 +15033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -14771,7 +15050,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -14788,7 +15067,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -14805,7 +15084,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -14822,7 +15101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -14839,7 +15118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -14856,7 +15135,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -14873,7 +15152,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -14890,7 +15169,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -14907,7 +15186,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -14924,7 +15203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -14941,7 +15220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -14958,7 +15237,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -14975,7 +15254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -14992,7 +15271,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -15009,7 +15288,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -15026,7 +15305,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -15043,7 +15322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -15060,7 +15339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -15077,7 +15356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -15094,7 +15373,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -15111,7 +15390,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -15128,7 +15407,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -15145,7 +15424,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -15162,7 +15441,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -15179,7 +15458,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -15196,7 +15475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -15213,7 +15492,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -15230,7 +15509,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -15247,7 +15526,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -15264,7 +15543,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -15281,7 +15560,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -15298,7 +15577,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -15315,7 +15594,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -15332,7 +15611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -15349,7 +15628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -15366,7 +15645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -15383,7 +15662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -15400,7 +15679,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -15417,7 +15696,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -15434,7 +15713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -15451,7 +15730,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -15468,7 +15747,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -15485,7 +15764,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -15502,7 +15781,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -15519,7 +15798,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -15536,7 +15815,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -15553,7 +15832,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -15570,7 +15849,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -15587,7 +15866,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -15604,7 +15883,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -15621,7 +15900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -15638,7 +15917,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -15655,7 +15934,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -15672,7 +15951,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -15689,7 +15968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -15706,7 +15985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -15723,7 +16002,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -15740,7 +16019,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -15757,7 +16036,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -15774,7 +16053,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -15791,7 +16070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -15808,7 +16087,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -15825,7 +16104,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -15842,7 +16121,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -15859,7 +16138,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -15876,7 +16155,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -15893,7 +16172,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -15910,7 +16189,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -15927,7 +16206,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -15944,7 +16223,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -15961,7 +16240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -15978,7 +16257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -15995,7 +16274,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -16012,7 +16291,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -16029,7 +16308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -16046,7 +16325,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -16060,7 +16339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -16077,7 +16356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -16094,7 +16373,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -16111,7 +16390,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -16128,7 +16407,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -16145,7 +16424,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -16162,7 +16441,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -16179,7 +16458,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -16196,7 +16475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -16213,7 +16492,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -16227,7 +16506,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -16244,7 +16523,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -16261,7 +16540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -16278,7 +16557,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -16295,7 +16574,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -16312,7 +16591,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -16329,7 +16608,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -16346,7 +16625,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -16363,7 +16642,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -16380,7 +16659,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -16397,7 +16676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -16414,7 +16693,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -16431,7 +16710,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -16448,7 +16727,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -16465,7 +16744,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -16482,7 +16761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -16499,7 +16778,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -16516,7 +16795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -16533,7 +16812,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -16550,7 +16829,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -16567,7 +16846,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -16584,7 +16863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -16601,7 +16880,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -16618,7 +16897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -16635,7 +16914,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16652,7 +16931,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -16669,7 +16948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -16686,7 +16965,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16703,7 +16982,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16720,7 +16999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -16737,7 +17016,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -16754,7 +17033,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -16771,7 +17050,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -16788,7 +17067,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -16805,7 +17084,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -16822,7 +17101,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -16839,7 +17118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -16856,7 +17135,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -16873,7 +17152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -16890,7 +17169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -16907,7 +17186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -16924,7 +17203,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -16941,7 +17220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -16958,7 +17237,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -16975,7 +17254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -16992,7 +17271,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -17009,7 +17288,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -17026,7 +17305,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -17043,7 +17322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -17060,7 +17339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -17077,7 +17356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -17094,7 +17373,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -17111,7 +17390,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -17128,7 +17407,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -17145,7 +17424,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -17162,7 +17441,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -17179,7 +17458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -17196,7 +17475,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -17213,7 +17492,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -17230,7 +17509,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -17247,7 +17526,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17264,7 +17543,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17281,7 +17560,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17298,7 +17577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17315,7 +17594,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17332,7 +17611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17349,7 +17628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17366,7 +17645,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17383,7 +17662,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17400,7 +17679,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17417,7 +17696,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17434,7 +17713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17451,7 +17730,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17468,7 +17747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17485,7 +17764,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17502,7 +17781,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17519,7 +17798,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17536,7 +17815,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -17553,7 +17832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -17570,7 +17849,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -17587,7 +17866,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -17604,7 +17883,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -17621,7 +17900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -17638,7 +17917,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -17655,7 +17934,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -17672,7 +17951,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -17689,7 +17968,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -17706,7 +17985,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -17723,7 +18002,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -17740,7 +18019,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -17757,7 +18036,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -17774,7 +18053,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -17791,7 +18070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -17808,7 +18087,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -17825,7 +18104,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -17842,7 +18121,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -17859,7 +18138,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -17876,7 +18155,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -17893,7 +18172,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -17910,7 +18189,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -17927,7 +18206,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -17944,7 +18223,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -17961,7 +18240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -17978,7 +18257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -17995,7 +18274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -18012,7 +18291,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -18029,7 +18308,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -18046,7 +18325,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -18063,7 +18342,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -18080,7 +18359,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -18097,7 +18376,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -18114,7 +18393,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -18131,7 +18410,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -18148,7 +18427,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -18165,7 +18444,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -18182,7 +18461,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -18199,7 +18478,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -18216,7 +18495,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -18233,7 +18512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -18250,7 +18529,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -18267,7 +18546,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -18284,7 +18563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -18301,7 +18580,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -18318,7 +18597,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -18335,7 +18614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -18352,7 +18631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -18369,7 +18648,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -18386,7 +18665,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -18403,7 +18682,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -18420,7 +18699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -18437,7 +18716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -18454,7 +18733,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -18471,7 +18750,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -18488,7 +18767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -18505,7 +18784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -18522,7 +18801,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -18539,7 +18818,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -18556,7 +18835,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -18573,7 +18852,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -18590,7 +18869,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -18607,7 +18886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -18624,7 +18903,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -18641,7 +18920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -18658,7 +18937,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -18675,7 +18954,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -18692,7 +18971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -18709,7 +18988,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -18726,7 +19005,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -18743,7 +19022,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -18760,7 +19039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -18777,7 +19056,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -18794,7 +19073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -18811,7 +19090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -18828,7 +19107,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -18845,7 +19124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -18862,7 +19141,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -18879,7 +19158,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -18896,7 +19175,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -18913,7 +19192,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -18930,7 +19209,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -18947,7 +19226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -18964,7 +19243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -18981,7 +19260,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -18998,7 +19277,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -19015,7 +19294,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -19032,7 +19311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -19049,7 +19328,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -19066,7 +19345,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -19083,7 +19362,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -19100,7 +19379,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -19117,7 +19396,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -19134,7 +19413,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -19151,7 +19430,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -19168,7 +19447,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -19185,7 +19464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -19202,7 +19481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -19219,7 +19498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -19236,7 +19515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -19253,7 +19532,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -19270,7 +19549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -19287,7 +19566,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -19304,7 +19583,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -19321,7 +19600,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -19338,7 +19617,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -19355,7 +19634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -19372,7 +19651,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -19389,7 +19668,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -19406,7 +19685,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -19423,7 +19702,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -19440,7 +19719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -19457,7 +19736,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -19474,7 +19753,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -19491,7 +19770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -19508,7 +19787,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -19525,7 +19804,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -19542,7 +19821,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -19559,7 +19838,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -19576,7 +19855,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -19593,7 +19872,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -19610,7 +19889,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -19627,7 +19906,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -19644,7 +19923,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -19661,7 +19940,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -19678,7 +19957,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -19695,7 +19974,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -19712,7 +19991,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -19729,7 +20008,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -19746,7 +20025,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -19763,7 +20042,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -19780,7 +20059,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -19797,7 +20076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -19814,7 +20093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -19831,7 +20110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -19848,7 +20127,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -19865,7 +20144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -19882,7 +20161,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -19899,7 +20178,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -19916,7 +20195,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -19933,7 +20212,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -19950,7 +20229,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -19967,7 +20246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -19984,7 +20263,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -20001,7 +20280,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -20018,7 +20297,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -20035,7 +20314,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -20052,7 +20331,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -20069,7 +20348,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -20086,7 +20365,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -20103,7 +20382,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -20120,7 +20399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -20137,7 +20416,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -20154,7 +20433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -20171,7 +20450,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -20188,7 +20467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -20205,7 +20484,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -20222,7 +20501,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -20239,7 +20518,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -20256,7 +20535,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -20273,7 +20552,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -20290,7 +20569,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -20307,7 +20586,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -20324,7 +20603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -20341,7 +20620,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -20358,7 +20637,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -20375,7 +20654,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -20392,7 +20671,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -20409,7 +20688,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -20426,7 +20705,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -20443,7 +20722,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -20460,7 +20739,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -20477,7 +20756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -20494,7 +20773,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -20511,7 +20790,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -20528,7 +20807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -20545,7 +20824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -20562,7 +20841,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -20579,7 +20858,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -20596,7 +20875,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -20613,7 +20892,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -20630,7 +20909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20647,7 +20926,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -20664,7 +20943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -20681,7 +20960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -20698,7 +20977,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -20715,7 +20994,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -20732,7 +21011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -20749,7 +21028,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -20766,7 +21045,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -20783,7 +21062,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -20800,7 +21079,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -20817,7 +21096,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -20834,7 +21113,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -20851,7 +21130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -20868,7 +21147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -20885,7 +21164,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -20899,7 +21178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -20916,7 +21195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -20933,7 +21212,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -20950,7 +21229,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -20967,7 +21246,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -20984,7 +21263,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -21001,7 +21280,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -21018,7 +21297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -21035,7 +21314,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -21052,7 +21331,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -21069,7 +21348,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -21086,7 +21365,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -21103,7 +21382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -21120,7 +21399,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -21137,7 +21416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -21154,7 +21433,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -21171,7 +21450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -21188,7 +21467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -21205,7 +21484,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -21222,7 +21501,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -21239,7 +21518,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -21256,7 +21535,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -21273,7 +21552,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -21290,7 +21569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -21307,7 +21586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -21324,7 +21603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -21341,7 +21620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -21358,7 +21637,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -21375,7 +21654,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -21392,7 +21671,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -21409,7 +21688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -21426,7 +21705,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -21443,7 +21722,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -21460,7 +21739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -21477,7 +21756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -21494,7 +21773,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -21511,7 +21790,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -21528,7 +21807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -21545,7 +21824,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -21562,7 +21841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -21579,7 +21858,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21596,7 +21875,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21613,7 +21892,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21630,7 +21909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21647,7 +21926,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -21664,7 +21943,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -21681,7 +21960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -21698,7 +21977,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -21715,7 +21994,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -21732,7 +22011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -21749,7 +22028,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -21766,7 +22045,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -21783,7 +22062,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -21800,7 +22079,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -21817,7 +22096,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -21834,7 +22113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -21851,7 +22130,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -21868,7 +22147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -21885,7 +22164,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -21902,7 +22181,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -21919,7 +22198,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -21936,7 +22215,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -21953,7 +22232,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -21970,7 +22249,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -21987,7 +22266,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -22004,7 +22283,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -22021,7 +22300,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -22038,7 +22317,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -22055,7 +22334,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -22072,7 +22351,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -22089,7 +22368,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -22106,7 +22385,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>601</v>
       </c>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4C8FE1-F466-D34E-9D42-82EF307A06B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8751A464-561D-4B05-897F-CABDB80B1E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,10 +36,19 @@
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Quarter Transition, Changed FQ system</t>
+        </r>
       </text>
     </comment>
     <comment ref="R1" authorId="1" shapeId="0" xr:uid="{D0F8F999-EE4D-45ED-AFC6-0DE77E9F385C}">
@@ -3125,6 +3124,36 @@
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3143,12 +3172,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3161,35 +3184,11 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -3859,54 +3858,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749350E7-094F-4190-83AB-84EC4A5122F0}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B5" s="116" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="G5" s="116" t="s">
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="G5" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118"/>
-      <c r="R5" s="113" t="s">
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="128"/>
+      <c r="R5" s="123" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="115"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="125"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3994,7 +3993,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4086,7 +4085,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>-0.6875</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -4216,7 +4215,7 @@
         <v>-0.61538461538461542</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G13" s="52">
         <v>44774</v>
       </c>
@@ -4254,7 +4253,7 @@
         <v>-0.23076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G14" s="63"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4288,12 +4287,12 @@
         <v>-0.46153846153846156</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B15" s="116" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
       <c r="G15" s="52">
         <v>44743</v>
       </c>
@@ -4331,14 +4330,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="120"/>
+      <c r="D16" s="118"/>
       <c r="G16" s="63"/>
       <c r="H16" s="61" t="s">
         <v>784</v>
@@ -4374,14 +4373,14 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="120"/>
+      <c r="D17" s="118"/>
       <c r="G17" s="63"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4415,14 +4414,14 @@
         <v>-0.10526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="120"/>
+      <c r="D18" s="118"/>
       <c r="G18" s="52">
         <v>44682</v>
       </c>
@@ -4460,14 +4459,14 @@
         <v>0.45454545454545459</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="122"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4506,7 +4505,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G20" s="63"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4540,7 +4539,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G21" s="52">
         <v>44593</v>
       </c>
@@ -4578,12 +4577,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B22" s="116" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="128"/>
       <c r="G22" s="63"/>
       <c r="H22" s="61" t="s">
         <v>793</v>
@@ -4619,14 +4618,14 @@
         <v>-0.26666666666666672</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="120"/>
+      <c r="D23" s="118"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4660,14 +4659,14 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="119">
+      <c r="C24" s="117">
         <v>1996</v>
       </c>
-      <c r="D24" s="120"/>
+      <c r="D24" s="118"/>
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
@@ -4705,7 +4704,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4742,15 +4741,15 @@
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="119">
+      <c r="C26" s="117">
         <f>'Financial Model'!R45</f>
         <v>437</v>
       </c>
-      <c r="D26" s="120"/>
+      <c r="D26" s="118"/>
       <c r="G26" s="52">
         <v>44228</v>
       </c>
@@ -4788,15 +4787,15 @@
         <v>0.36842105263157898</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="123">
+      <c r="C27" s="131">
         <f>'Financial Model'!R52</f>
         <v>1080.42</v>
       </c>
-      <c r="D27" s="124"/>
+      <c r="D27" s="132"/>
       <c r="G27" s="63"/>
       <c r="H27" s="61" t="s">
         <v>781</v>
@@ -4832,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4869,7 +4868,7 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
@@ -4902,14 +4901,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="130"/>
+      <c r="D30" s="120"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R31" s="37">
         <v>2020</v>
       </c>
@@ -4957,7 +4956,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R32" s="37">
         <v>2020</v>
       </c>
@@ -4981,12 +4980,12 @@
         <v>-0.80487804878048785</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B33" s="116" t="s">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B33" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="128"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -5010,15 +5009,15 @@
         <v>-0.82954545454545459</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="127">
+      <c r="C34" s="115">
         <f>C12/SUM('Financial Model'!O20:R20)</f>
         <v>21.115922407952812</v>
       </c>
-      <c r="D34" s="128"/>
+      <c r="D34" s="116"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -5042,15 +5041,15 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="127">
+      <c r="C35" s="115">
         <f>C6/SUM('Financial Model'!O21:R21)</f>
         <v>22.825917900868863</v>
       </c>
-      <c r="D35" s="128"/>
+      <c r="D35" s="116"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -5074,12 +5073,12 @@
         <v>-0.16666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="120"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="118"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -5103,15 +5102,15 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="127">
+      <c r="C37" s="115">
         <f>C6/'Financial Model'!Q77</f>
         <v>1.8876434204020021</v>
       </c>
-      <c r="D37" s="128"/>
+      <c r="D37" s="116"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -5135,15 +5134,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="131">
+      <c r="C38" s="121">
         <f>C8/SUM('Financial Model'!O9:R9)</f>
         <v>0.56226680192147116</v>
       </c>
-      <c r="D38" s="132"/>
+      <c r="D38" s="122"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -5167,15 +5166,15 @@
         <v>1.7142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="131">
+      <c r="C39" s="121">
         <f>C12/SUM('Financial Model'!O9:R9)</f>
         <v>0.53093234733600647</v>
       </c>
-      <c r="D39" s="132"/>
+      <c r="D39" s="122"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5199,7 +5198,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -5226,15 +5225,15 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="125">
+      <c r="C41" s="113">
         <f>C6/'Financial Model'!AB21</f>
         <v>9.2051004832527816</v>
       </c>
-      <c r="D41" s="126"/>
+      <c r="D41" s="114"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R42" s="37">
         <v>2019</v>
       </c>
@@ -5282,7 +5281,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R43" s="37">
         <v>2019</v>
       </c>
@@ -5306,7 +5305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R44" s="37">
         <v>2019</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R45" s="37">
         <v>2019</v>
       </c>
@@ -5354,7 +5353,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R46" s="37">
         <v>2019</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R47" s="37">
         <v>2019</v>
       </c>
@@ -5402,7 +5401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R48" s="37">
         <v>2019</v>
       </c>
@@ -5425,7 +5424,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R49" s="37">
         <v>2019</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R50" s="37">
         <v>2018</v>
       </c>
@@ -5472,7 +5471,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R51" s="37">
         <v>2018</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R52" s="37">
         <v>2018</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R53" s="37">
         <v>2018</v>
       </c>
@@ -5541,7 +5540,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R54" s="37">
         <v>2018</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R55" s="37">
         <v>2018</v>
       </c>
@@ -5587,7 +5586,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R56" s="37">
         <v>2018</v>
       </c>
@@ -5610,7 +5609,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R57" s="37">
         <v>2018</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R58" s="37">
         <v>2018</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R59" s="37">
         <v>2018</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R60" s="37">
         <v>2018</v>
       </c>
@@ -5700,7 +5699,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R61" s="45">
         <v>2018</v>
       </c>
@@ -5724,6 +5723,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G5:P5"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
@@ -5735,17 +5745,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G5:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5899,28 +5898,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
   <dimension ref="B1:BS107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C61" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93"/>
+      <selection pane="bottomRight" activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.1640625" style="1"/>
-    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
-    <col min="14" max="18" width="9.1640625" style="1"/>
-    <col min="19" max="19" width="9.1640625" style="106"/>
-    <col min="20" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="29" width="9.1640625" style="74"/>
-    <col min="30" max="47" width="9.1640625" style="32"/>
-    <col min="48" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="106"/>
+    <col min="20" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.140625" style="74"/>
+    <col min="30" max="47" width="9.140625" style="32"/>
+    <col min="48" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
@@ -6051,7 +6050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="17"/>
       <c r="H2" s="24">
         <v>43921</v>
@@ -6132,7 +6131,7 @@
       <c r="AT2" s="81"/>
       <c r="AU2" s="81"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>764</v>
       </c>
@@ -6208,7 +6207,7 @@
       <c r="AI3" s="65"/>
       <c r="AJ3" s="65"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>765</v>
       </c>
@@ -6284,7 +6283,7 @@
       <c r="AI4" s="65"/>
       <c r="AJ4" s="65"/>
     </row>
-    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>766</v>
       </c>
@@ -6360,7 +6359,7 @@
       <c r="AI5" s="65"/>
       <c r="AJ5" s="65"/>
     </row>
-    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="58" t="s">
         <v>769</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>39108.173209764078</v>
       </c>
     </row>
-    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>768</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>185.20316610694189</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>767</v>
       </c>
@@ -6709,7 +6708,7 @@
         <v>19.953633686836341</v>
       </c>
     </row>
-    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -6828,7 +6827,7 @@
       <c r="AT9" s="58"/>
       <c r="AU9" s="58"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6935,7 +6934,7 @@
         <v>18673.83175453998</v>
       </c>
     </row>
-    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
@@ -7068,7 +7067,7 @@
       <c r="AT11" s="58"/>
       <c r="AU11" s="58"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -7175,7 +7174,7 @@
         <v>19021.803723632809</v>
       </c>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -7281,7 +7280,7 @@
         <v>65.793806395201273</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
@@ -7414,7 +7413,7 @@
       <c r="AT14" s="58"/>
       <c r="AU14" s="58"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>-40.113157469251853</v>
       </c>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -7627,7 +7626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -7752,7 +7751,7 @@
         <v>1511.7875675206099</v>
       </c>
     </row>
-    <row r="18" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -7859,7 +7858,7 @@
         <v>226.76813512809147</v>
       </c>
     </row>
-    <row r="19" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>-8.3219074865264719</v>
       </c>
     </row>
-    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
@@ -8219,7 +8218,7 @@
         <v>925.58060052290614</v>
       </c>
     </row>
-    <row r="21" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
@@ -8344,7 +8343,7 @@
         <v>2.7850256315914441</v>
       </c>
     </row>
-    <row r="22" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -8453,7 +8452,7 @@
         <v>458.41500000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -8573,7 +8572,7 @@
       <c r="AT24" s="58"/>
       <c r="AU24" s="58"/>
     </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -8682,7 +8681,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -8802,7 +8801,7 @@
       <c r="AT26" s="83"/>
       <c r="AU26" s="83"/>
     </row>
-    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
@@ -8918,7 +8917,7 @@
       <c r="AT27" s="54"/>
       <c r="AU27" s="54"/>
     </row>
-    <row r="28" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
       <c r="AO28" s="86" t="s">
         <v>8</v>
       </c>
@@ -8927,7 +8926,7 @@
         <v>180.2700000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
       <c r="AO29" s="86" t="s">
         <v>827</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>10860.044028732516</v>
       </c>
     </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
@@ -9068,7 +9067,7 @@
         <v>23.903847994885822</v>
       </c>
     </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
@@ -9200,7 +9199,7 @@
         <v>7.12</v>
       </c>
     </row>
-    <row r="32" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -9332,7 +9331,7 @@
         <v>2.3572820217536266</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
@@ -9458,12 +9457,12 @@
       </c>
       <c r="AP33" s="88"/>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
@@ -9492,7 +9491,7 @@
       <c r="AC37" s="74"/>
       <c r="AL37" s="98"/>
     </row>
-    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
@@ -9521,7 +9520,7 @@
       <c r="AC38" s="74"/>
       <c r="AL38" s="56"/>
     </row>
-    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
@@ -9556,7 +9555,7 @@
       <c r="S39" s="106"/>
       <c r="AC39" s="74"/>
     </row>
-    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
@@ -9584,7 +9583,7 @@
       <c r="S40" s="106"/>
       <c r="AC40" s="74"/>
     </row>
-    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
@@ -9612,7 +9611,7 @@
       <c r="S41" s="106"/>
       <c r="AC41" s="74"/>
     </row>
-    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
@@ -9647,7 +9646,7 @@
       <c r="S42" s="106"/>
       <c r="AC42" s="74"/>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
@@ -9677,7 +9676,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
@@ -9707,7 +9706,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
@@ -9751,7 +9750,7 @@
       </c>
       <c r="AC45" s="75"/>
     </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>814</v>
       </c>
@@ -9798,12 +9797,12 @@
         <v>13.192582938388627</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9862,7 +9861,7 @@
       <c r="AT50" s="58"/>
       <c r="AU50" s="58"/>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -9901,7 +9900,7 @@
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -9960,7 +9959,7 @@
       <c r="AT52" s="58"/>
       <c r="AU52" s="58"/>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -9999,7 +9998,7 @@
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
@@ -10056,7 +10055,7 @@
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
@@ -10134,7 +10133,7 @@
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
@@ -10183,7 +10182,7 @@
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
@@ -10222,7 +10221,7 @@
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
@@ -10261,7 +10260,7 @@
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
@@ -10318,13 +10317,13 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
       <c r="K61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="AB61" s="22"/>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
@@ -10363,7 +10362,7 @@
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
@@ -10441,7 +10440,7 @@
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
@@ -10480,7 +10479,7 @@
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
@@ -10520,7 +10519,7 @@
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
@@ -10636,7 +10635,7 @@
       <c r="AT68" s="58"/>
       <c r="AU68" s="58"/>
     </row>
-    <row r="69" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
@@ -10675,7 +10674,7 @@
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
@@ -10714,7 +10713,7 @@
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
@@ -10771,12 +10770,12 @@
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="AB72" s="22"/>
     </row>
-    <row r="73" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
@@ -10815,7 +10814,7 @@
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
@@ -10832,27 +10831,27 @@
         <v>5030.6280000000006</v>
       </c>
       <c r="M74" s="22">
-        <f>M71+M73</f>
+        <f t="shared" ref="M74:R74" si="89">M71+M73</f>
         <v>4871.509</v>
       </c>
       <c r="N74" s="22">
-        <f>N71+N73</f>
+        <f t="shared" si="89"/>
         <v>4822.3010000000004</v>
       </c>
       <c r="O74" s="22">
-        <f>O71+O73</f>
+        <f t="shared" si="89"/>
         <v>4991.4159999999993</v>
       </c>
       <c r="P74" s="22">
-        <f>P71+P73</f>
+        <f t="shared" si="89"/>
         <v>4452.8319999999994</v>
       </c>
       <c r="Q74" s="22">
-        <f>Q71+Q73</f>
+        <f t="shared" si="89"/>
         <v>4605.8</v>
       </c>
       <c r="R74" s="22">
-        <f>R71+R73</f>
+        <f t="shared" si="89"/>
         <v>4770.0709999999999</v>
       </c>
       <c r="AA74" s="22">
@@ -10864,32 +10863,32 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
       <c r="I76" s="22">
-        <f t="shared" ref="I76" si="89">I60-I71</f>
+        <f t="shared" ref="I76" si="90">I60-I71</f>
         <v>1423.4240000000004</v>
       </c>
       <c r="J76" s="22">
-        <f t="shared" ref="J76:K76" si="90">J60-J71</f>
+        <f t="shared" ref="J76:K76" si="91">J60-J71</f>
         <v>1470.3459999999991</v>
       </c>
       <c r="K76" s="22">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>1675.9930000000004</v>
       </c>
       <c r="M76" s="22">
-        <f t="shared" ref="M76:N76" si="91">M60-M71</f>
+        <f t="shared" ref="M76" si="92">M60-M71</f>
         <v>1846.7100000000014</v>
       </c>
       <c r="N76" s="22">
-        <f t="shared" ref="N76:O76" si="92">N60-N71</f>
+        <f t="shared" ref="N76:O76" si="93">N60-N71</f>
         <v>1977.7490000000003</v>
       </c>
       <c r="O76" s="22">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>2088.9740000000011</v>
       </c>
       <c r="P76" s="22">
@@ -10901,7 +10900,7 @@
         <v>1729.0950000000003</v>
       </c>
       <c r="R76" s="22">
-        <f t="shared" ref="R76" si="93">R60-R71</f>
+        <f t="shared" ref="R76" si="94">R60-R71</f>
         <v>1816.3330000000005</v>
       </c>
       <c r="AA76" s="22">
@@ -10913,32 +10912,32 @@
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
       <c r="I77" s="53">
-        <f t="shared" ref="I77" si="94">I76/I22</f>
+        <f t="shared" ref="I77" si="95">I76/I22</f>
         <v>3.1344597585225094</v>
       </c>
       <c r="J77" s="53">
-        <f t="shared" ref="J77:K77" si="95">J76/J22</f>
+        <f t="shared" ref="J77:K77" si="96">J76/J22</f>
         <v>3.2196840634675921</v>
       </c>
       <c r="K77" s="53">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>3.6850318044198591</v>
       </c>
       <c r="M77" s="53">
-        <f t="shared" ref="M77:N77" si="96">M76/M22</f>
+        <f t="shared" ref="M77" si="97">M76/M22</f>
         <v>4.0180459700089672</v>
       </c>
       <c r="N77" s="53">
-        <f t="shared" ref="N77:O77" si="97">N76/N22</f>
+        <f t="shared" ref="N77:O77" si="98">N76/N22</f>
         <v>4.2079586895374916</v>
       </c>
       <c r="O77" s="53">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>4.3869603383608675</v>
       </c>
       <c r="P77" s="53">
@@ -10950,7 +10949,7 @@
         <v>3.7718988253002195</v>
       </c>
       <c r="R77" s="53">
-        <f t="shared" ref="R77" si="98">R76/R22</f>
+        <f t="shared" ref="R77" si="99">R76/R22</f>
         <v>3.9978979666404015</v>
       </c>
       <c r="AA77" s="22">
@@ -10962,7 +10961,7 @@
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
@@ -10989,28 +10988,28 @@
       </c>
       <c r="AC79" s="75"/>
     </row>
-    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
       <c r="J80" s="65">
-        <f t="shared" ref="J80:K80" si="99">J52/I52-1</f>
+        <f t="shared" ref="J80:K80" si="100">J52/I52-1</f>
         <v>-0.11820019707820295</v>
       </c>
       <c r="K80" s="65">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>-0.15221815876500333</v>
       </c>
       <c r="N80" s="65">
-        <f t="shared" ref="N80:O80" si="100">N52/M52-1</f>
+        <f t="shared" ref="N80:O80" si="101">N52/M52-1</f>
         <v>-4.922955748215041E-2</v>
       </c>
       <c r="O80" s="65">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>-3.1429799221715626E-2</v>
       </c>
       <c r="P80" s="65">
-        <f t="shared" ref="P80" si="101">P52/O52-1</f>
+        <f t="shared" ref="P80" si="102">P52/O52-1</f>
         <v>1.6076952465461369E-2</v>
       </c>
       <c r="Q80" s="65">
@@ -11024,44 +11023,44 @@
       <c r="S80" s="106"/>
       <c r="AC80" s="74"/>
     </row>
-    <row r="82" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
       <c r="H82" s="56">
-        <f t="shared" ref="H82:N82" si="102">H50</f>
+        <f t="shared" ref="H82:N82" si="103">H50</f>
         <v>0</v>
       </c>
       <c r="I82" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1079.4090000000001</v>
       </c>
       <c r="J82" s="56">
-        <f t="shared" ref="J82" si="103">J50</f>
+        <f t="shared" ref="J82" si="104">J50</f>
         <v>865.60900000000004</v>
       </c>
       <c r="K82" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1517.3610000000001</v>
       </c>
       <c r="L82" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0</v>
       </c>
       <c r="M82" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1349.7929999999999</v>
       </c>
       <c r="N82" s="56">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>1253.7059999999999</v>
       </c>
       <c r="O82" s="56">
-        <f t="shared" ref="O82:P82" si="104">O50</f>
+        <f t="shared" ref="O82:P82" si="105">O50</f>
         <v>1669.453</v>
       </c>
       <c r="P82" s="56">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>1009.139</v>
       </c>
       <c r="Q82" s="56">
@@ -11069,58 +11068,58 @@
         <v>1049.413</v>
       </c>
       <c r="R82" s="56">
-        <f t="shared" ref="R82" si="105">R50</f>
+        <f t="shared" ref="R82" si="106">R50</f>
         <v>853.65200000000004</v>
       </c>
       <c r="S82" s="105"/>
       <c r="AA82" s="56">
-        <f t="shared" ref="AA82:AB82" si="106">AA50</f>
+        <f t="shared" ref="AA82:AB82" si="107">AA50</f>
         <v>1517.3610000000001</v>
       </c>
       <c r="AB82" s="56">
-        <f t="shared" si="106"/>
+        <f t="shared" si="107"/>
         <v>1669.453</v>
       </c>
       <c r="AC82" s="74"/>
     </row>
-    <row r="83" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
       <c r="H83" s="56">
-        <f t="shared" ref="H83:N83" si="107">H68</f>
+        <f t="shared" ref="H83:N83" si="108">H68</f>
         <v>0</v>
       </c>
       <c r="I83" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>987.94899999999996</v>
       </c>
       <c r="J83" s="56">
-        <f t="shared" ref="J83" si="108">J68</f>
+        <f t="shared" ref="J83" si="109">J68</f>
         <v>997.34699999999998</v>
       </c>
       <c r="K83" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>1003.556</v>
       </c>
       <c r="L83" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="M83" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>804.62099999999998</v>
       </c>
       <c r="N83" s="56">
-        <f t="shared" si="107"/>
+        <f t="shared" si="108"/>
         <v>662.90300000000002</v>
       </c>
       <c r="O83" s="56">
-        <f t="shared" ref="O83:P83" si="109">O68</f>
+        <f t="shared" ref="O83:P83" si="110">O68</f>
         <v>662.53099999999995</v>
       </c>
       <c r="P83" s="56">
-        <f t="shared" si="109"/>
+        <f t="shared" si="110"/>
         <v>672.28599999999994</v>
       </c>
       <c r="Q83" s="56">
@@ -11128,58 +11127,58 @@
         <v>672.83399999999995</v>
       </c>
       <c r="R83" s="56">
-        <f t="shared" ref="R83" si="110">R68</f>
+        <f t="shared" ref="R83" si="111">R68</f>
         <v>673.38199999999995</v>
       </c>
       <c r="S83" s="105"/>
       <c r="AA83" s="56">
-        <f t="shared" ref="AA83:AB83" si="111">AA68</f>
+        <f t="shared" ref="AA83:AB83" si="112">AA68</f>
         <v>1003.556</v>
       </c>
       <c r="AB83" s="56">
-        <f t="shared" si="111"/>
+        <f t="shared" si="112"/>
         <v>662.53099999999995</v>
       </c>
       <c r="AC83" s="74"/>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H84" s="22">
-        <f t="shared" ref="H84:N84" si="112">H82-H83</f>
+        <f t="shared" ref="H84:N84" si="113">H82-H83</f>
         <v>0</v>
       </c>
       <c r="I84" s="22">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>91.46000000000015</v>
       </c>
       <c r="J84" s="22">
-        <f t="shared" ref="J84" si="113">J82-J83</f>
+        <f t="shared" ref="J84" si="114">J82-J83</f>
         <v>-131.73799999999994</v>
       </c>
       <c r="K84" s="22">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>513.80500000000006</v>
       </c>
       <c r="L84" s="22">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="M84" s="22">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>545.17199999999991</v>
       </c>
       <c r="N84" s="22">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>590.80299999999988</v>
       </c>
       <c r="O84" s="22">
-        <f t="shared" ref="O84:P84" si="114">O82-O83</f>
+        <f t="shared" ref="O84:P84" si="115">O82-O83</f>
         <v>1006.922</v>
       </c>
       <c r="P84" s="22">
-        <f t="shared" si="114"/>
+        <f t="shared" si="115"/>
         <v>336.85300000000007</v>
       </c>
       <c r="Q84" s="22">
@@ -11187,20 +11186,20 @@
         <v>376.57900000000006</v>
       </c>
       <c r="R84" s="22">
-        <f t="shared" ref="R84" si="115">R82-R83</f>
+        <f t="shared" ref="R84" si="116">R82-R83</f>
         <v>180.2700000000001</v>
       </c>
       <c r="S84" s="105"/>
       <c r="AA84" s="22">
-        <f t="shared" ref="AA84:AB84" si="116">AA82-AA83</f>
+        <f t="shared" ref="AA84:AB84" si="117">AA82-AA83</f>
         <v>513.80500000000006</v>
       </c>
       <c r="AB84" s="22">
-        <f t="shared" si="116"/>
+        <f t="shared" si="117"/>
         <v>1006.922</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -11261,7 +11260,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -11270,102 +11269,102 @@
         <v>3808.6451099999999</v>
       </c>
       <c r="I87" s="56">
-        <f t="shared" ref="I87:Q87" si="117">I86*I22</f>
+        <f t="shared" ref="I87:Q87" si="118">I86*I22</f>
         <v>4014.4296399999998</v>
       </c>
       <c r="J87" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>4493.6721600000001</v>
       </c>
       <c r="K87" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>6767.5876799999996</v>
       </c>
       <c r="L87" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>8418.0184399999998</v>
       </c>
       <c r="M87" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>8534.8462799999998</v>
       </c>
       <c r="N87" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>8234.4350400000003</v>
       </c>
       <c r="O87" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>8590.251119999999</v>
       </c>
       <c r="P87" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>7580.5139999999992</v>
       </c>
       <c r="Q87" s="56">
-        <f t="shared" si="117"/>
+        <f t="shared" si="118"/>
         <v>3474.7857000000004</v>
       </c>
       <c r="R87" s="56">
-        <f t="shared" ref="R87" si="118">R86*R22</f>
+        <f t="shared" ref="R87" si="119">R86*R22</f>
         <v>2707.7591200000002</v>
       </c>
       <c r="S87" s="106"/>
       <c r="W87" s="56">
-        <f t="shared" ref="W87:Z87" si="119">W86*W22</f>
+        <f t="shared" ref="W87:Z87" si="120">W86*W22</f>
         <v>10982.426100000001</v>
       </c>
       <c r="X87" s="56">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>5870.5102799999995</v>
       </c>
       <c r="Y87" s="56">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>7208.8285500000011</v>
       </c>
       <c r="Z87" s="56">
-        <f t="shared" si="119"/>
+        <f t="shared" si="120"/>
         <v>8649.4895199999992</v>
       </c>
       <c r="AA87" s="56">
-        <f t="shared" ref="AA87:AB87" si="120">AA86*AA22</f>
+        <f t="shared" ref="AA87:AB87" si="121">AA86*AA22</f>
         <v>6756.8443200000002</v>
       </c>
       <c r="AB87" s="56">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>8397.6921600000005</v>
       </c>
       <c r="AC87" s="74"/>
     </row>
-    <row r="88" spans="2:29" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:29" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
       <c r="I88" s="56">
-        <f t="shared" ref="I88:N88" si="121">I87-I84</f>
+        <f t="shared" ref="I88:N88" si="122">I87-I84</f>
         <v>3922.9696399999998</v>
       </c>
       <c r="J88" s="56">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>4625.4101600000004</v>
       </c>
       <c r="K88" s="56">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>6253.7826799999993</v>
       </c>
       <c r="M88" s="56">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7989.6742800000002</v>
       </c>
       <c r="N88" s="56">
-        <f t="shared" si="121"/>
+        <f t="shared" si="122"/>
         <v>7643.6320400000004</v>
       </c>
       <c r="O88" s="56">
-        <f t="shared" ref="O88:P88" si="122">O87-O84</f>
+        <f t="shared" ref="O88:P88" si="123">O87-O84</f>
         <v>7583.3291199999985</v>
       </c>
       <c r="P88" s="56">
-        <f t="shared" si="122"/>
+        <f t="shared" si="123"/>
         <v>7243.6609999999991</v>
       </c>
       <c r="Q88" s="56">
@@ -11373,50 +11372,50 @@
         <v>3098.2067000000002</v>
       </c>
       <c r="R88" s="56">
-        <f t="shared" ref="R88" si="123">R87-R84</f>
+        <f t="shared" ref="R88" si="124">R87-R84</f>
         <v>2527.4891200000002</v>
       </c>
       <c r="S88" s="105"/>
       <c r="AA88" s="56">
-        <f t="shared" ref="AA88:AB88" si="124">AA87-AA84</f>
+        <f t="shared" ref="AA88:AB88" si="125">AA87-AA84</f>
         <v>6243.0393199999999</v>
       </c>
       <c r="AB88" s="56">
-        <f t="shared" si="124"/>
+        <f t="shared" si="125"/>
         <v>7390.77016</v>
       </c>
       <c r="AC88" s="73"/>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
         <v>778</v>
       </c>
       <c r="I90" s="69">
-        <f t="shared" ref="I90" si="125">I86/I77</f>
+        <f t="shared" ref="I90" si="126">I86/I77</f>
         <v>2.8202627186277587</v>
       </c>
       <c r="J90" s="69">
-        <f t="shared" ref="J90:K90" si="126">J86/J77</f>
+        <f t="shared" ref="J90:K90" si="127">J86/J77</f>
         <v>3.0562004861440792</v>
       </c>
       <c r="K90" s="69">
-        <f t="shared" si="126"/>
+        <f t="shared" si="127"/>
         <v>4.0379570081736604</v>
       </c>
       <c r="M90" s="69">
-        <f t="shared" ref="M90:P90" si="127">M86/M77</f>
+        <f t="shared" ref="M90:P90" si="128">M86/M77</f>
         <v>4.6216494630992377</v>
       </c>
       <c r="N90" s="69">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>4.1635389728423569</v>
       </c>
       <c r="O90" s="69">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>4.1121867098393734</v>
       </c>
       <c r="P90" s="69">
-        <f t="shared" si="127"/>
+        <f t="shared" si="128"/>
         <v>4.3844509454849581</v>
       </c>
       <c r="Q90" s="69">
@@ -11424,11 +11423,11 @@
         <v>2.0095979110459519</v>
       </c>
       <c r="R90" s="69">
-        <f t="shared" ref="R90" si="128">R86/R77</f>
+        <f t="shared" ref="R90" si="129">R86/R77</f>
         <v>1.4907834191197316</v>
       </c>
       <c r="AA90" s="69">
-        <f t="shared" ref="AA90" si="129">AA86/AA77</f>
+        <f t="shared" ref="AA90" si="130">AA86/AA77</f>
         <v>4.0379570081736604</v>
       </c>
       <c r="AB90" s="69">
@@ -11436,40 +11435,40 @@
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B91" s="1" t="s">
         <v>809</v>
       </c>
       <c r="I91" s="69">
-        <f t="shared" ref="I91" si="130">I87/SUM(F6:I6)</f>
+        <f t="shared" ref="I91" si="131">I87/SUM(F6:I6)</f>
         <v>2.6020853605259093</v>
       </c>
       <c r="J91" s="69">
-        <f t="shared" ref="J91" si="131">J87/SUM(G6:J6)</f>
+        <f t="shared" ref="J91" si="132">J87/SUM(G6:J6)</f>
         <v>1.5423293411981622</v>
       </c>
       <c r="K91" s="69">
-        <f t="shared" ref="K91:P91" si="132">K87/SUM(H6:K6)</f>
+        <f t="shared" ref="K91:P91" si="133">K87/SUM(H6:K6)</f>
         <v>1.5995330818390172</v>
       </c>
       <c r="L91" s="69">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.8332967691100841</v>
       </c>
       <c r="M91" s="69">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.6247491502037685</v>
       </c>
       <c r="N91" s="69">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.5258758943246864</v>
       </c>
       <c r="O91" s="69">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.5429916494080578</v>
       </c>
       <c r="P91" s="69">
-        <f t="shared" si="132"/>
+        <f t="shared" si="133"/>
         <v>1.3534483543594595</v>
       </c>
       <c r="Q91" s="69">
@@ -11477,27 +11476,27 @@
         <v>0.6221570503604078</v>
       </c>
       <c r="R91" s="69">
-        <f t="shared" ref="R91" si="133">R87/SUM(O6:R6)</f>
+        <f t="shared" ref="R91" si="134">R87/SUM(O6:R6)</f>
         <v>0.48387075284335096</v>
       </c>
       <c r="W91" s="69">
-        <f t="shared" ref="W91:Z91" si="134">W87/W6</f>
+        <f t="shared" ref="W91:Z91" si="135">W87/W6</f>
         <v>2.3621676596476893</v>
       </c>
       <c r="X91" s="69">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.2305088267185433</v>
       </c>
       <c r="Y91" s="69">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.456904992539475</v>
       </c>
       <c r="Z91" s="69">
-        <f t="shared" si="134"/>
+        <f t="shared" si="135"/>
         <v>1.7392236210561027</v>
       </c>
       <c r="AA91" s="69">
-        <f t="shared" ref="AA91" si="135">AA87/AA6</f>
+        <f t="shared" ref="AA91" si="136">AA87/AA6</f>
         <v>1.5969938669011909</v>
       </c>
       <c r="AB91" s="69">
@@ -11505,40 +11504,40 @@
         <v>1.5084039681926689</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
       <c r="I92" s="69">
-        <f t="shared" ref="I92" si="136">I86/SUM(F21:I21)</f>
+        <f t="shared" ref="I92" si="137">I86/SUM(F21:I21)</f>
         <v>-5.1852375056166542</v>
       </c>
       <c r="J92" s="69">
-        <f t="shared" ref="J92" si="137">J86/SUM(G21:J21)</f>
+        <f t="shared" ref="J92" si="138">J86/SUM(G21:J21)</f>
         <v>-6.0757314053217959</v>
       </c>
       <c r="K92" s="69">
-        <f t="shared" ref="K92" si="138">K86/SUM(H21:K21)</f>
+        <f t="shared" ref="K92" si="139">K86/SUM(H21:K21)</f>
         <v>-12.257039736665067</v>
       </c>
       <c r="L92" s="69">
-        <f t="shared" ref="L92" si="139">L86/SUM(I21:L21)</f>
+        <f t="shared" ref="L92" si="140">L86/SUM(I21:L21)</f>
         <v>71.383779306426774</v>
       </c>
       <c r="M92" s="69">
-        <f t="shared" ref="M92" si="140">M86/SUM(J21:M21)</f>
+        <f t="shared" ref="M92" si="141">M86/SUM(J21:M21)</f>
         <v>18.285031241280244</v>
       </c>
       <c r="N92" s="69">
-        <f t="shared" ref="N92" si="141">N86/SUM(K21:N21)</f>
+        <f t="shared" ref="N92" si="142">N86/SUM(K21:N21)</f>
         <v>14.952988283370482</v>
       </c>
       <c r="O92" s="69">
-        <f t="shared" ref="O92:P92" si="142">O86/SUM(L21:O21)</f>
+        <f t="shared" ref="O92:P92" si="143">O86/SUM(L21:O21)</f>
         <v>18.105251010476522</v>
       </c>
       <c r="P92" s="69">
-        <f t="shared" si="142"/>
+        <f t="shared" si="143"/>
         <v>22.989620990664498</v>
       </c>
       <c r="Q92" s="69">
@@ -11546,27 +11545,27 @@
         <v>20.941179022554319</v>
       </c>
       <c r="R92" s="69">
-        <f t="shared" ref="R92" si="143">R86/SUM(O21:R21)</f>
+        <f t="shared" ref="R92" si="144">R86/SUM(O21:R21)</f>
         <v>19.10708857994079</v>
       </c>
       <c r="W92" s="69">
-        <f t="shared" ref="W92:Y92" si="144">W86/W21</f>
+        <f t="shared" ref="W92:Y92" si="145">W86/W21</f>
         <v>42.458927163071316</v>
       </c>
       <c r="X92" s="69">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-121.64339577289637</v>
       </c>
       <c r="Y92" s="69">
-        <f t="shared" si="144"/>
+        <f t="shared" si="145"/>
         <v>-155.69151548529089</v>
       </c>
       <c r="Z92" s="69">
-        <f t="shared" ref="Z92:AA92" si="145">Z86/Z21</f>
+        <f t="shared" ref="Z92:AA92" si="146">Z86/Z21</f>
         <v>93.871302120640664</v>
       </c>
       <c r="AA92" s="69">
-        <f t="shared" si="145"/>
+        <f t="shared" si="146"/>
         <v>-12.303582123796154</v>
       </c>
       <c r="AB92" s="69">
@@ -11574,40 +11573,40 @@
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B93" s="1" t="s">
         <v>810</v>
       </c>
       <c r="I93" s="69">
-        <f t="shared" ref="I93:Q93" si="146">I88/(SUM(F6:I6))</f>
+        <f t="shared" ref="I93:Q93" si="147">I88/(SUM(F6:I6))</f>
         <v>2.5428025362107474</v>
       </c>
       <c r="J93" s="69">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1.5875447853864104</v>
       </c>
       <c r="K93" s="69">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1.478094227408941</v>
       </c>
       <c r="M93" s="69">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1.5209666432135092</v>
       </c>
       <c r="N93" s="69">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1.4163975814087941</v>
       </c>
       <c r="O93" s="69">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1.3621270604802709</v>
       </c>
       <c r="P93" s="69">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>1.293305580596223</v>
       </c>
       <c r="Q93" s="69">
-        <f t="shared" si="146"/>
+        <f t="shared" si="147"/>
         <v>0.55473094121426048</v>
       </c>
       <c r="R93" s="69">
@@ -11615,7 +11614,7 @@
         <v>0.45165689010689347</v>
       </c>
       <c r="AA93" s="69">
-        <f t="shared" ref="AA93" si="147">AA88/AA6</f>
+        <f t="shared" ref="AA93" si="148">AA88/AA6</f>
         <v>1.4755550124711148</v>
       </c>
       <c r="AB93" s="69">
@@ -11623,40 +11622,40 @@
         <v>1.327539379264882</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
       <c r="AA94" s="69"/>
       <c r="AB94" s="69"/>
     </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B95" s="1" t="s">
         <v>806</v>
       </c>
       <c r="I95" s="25">
-        <f t="shared" ref="I95:K95" si="148">I52/I9</f>
+        <f t="shared" ref="I95:K95" si="149">I52/I9</f>
         <v>1.6936705104290317</v>
       </c>
       <c r="J95" s="25">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.73749442611099214</v>
       </c>
       <c r="K95" s="25">
-        <f t="shared" si="148"/>
+        <f t="shared" si="149"/>
         <v>0.63826449707429866</v>
       </c>
       <c r="M95" s="25">
-        <f t="shared" ref="M95:P95" si="149">M52/M9</f>
+        <f t="shared" ref="M95:P95" si="150">M52/M9</f>
         <v>0.65193846399720601</v>
       </c>
       <c r="N95" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.54203989305947731</v>
       </c>
       <c r="O95" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.53060904195317171</v>
       </c>
       <c r="P95" s="25">
-        <f t="shared" si="149"/>
+        <f t="shared" si="150"/>
         <v>0.63373547690332799</v>
       </c>
       <c r="Q95" s="25">
@@ -11664,11 +11663,11 @@
         <v>0.70745268732158828</v>
       </c>
       <c r="R95" s="25">
-        <f t="shared" ref="R95" si="150">R52/R9</f>
+        <f t="shared" ref="R95" si="151">R52/R9</f>
         <v>0.68646692738033599</v>
       </c>
       <c r="AA95" s="25">
-        <f t="shared" ref="AA95" si="151">AA52/AA9</f>
+        <f t="shared" ref="AA95" si="152">AA52/AA9</f>
         <v>0.20023255361795636</v>
       </c>
       <c r="AB95" s="25">
@@ -11676,7 +11675,7 @@
         <v>0.14276675535667846</v>
       </c>
     </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
       <c r="K96" s="25"/>
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
@@ -11685,7 +11684,7 @@
       <c r="AA96" s="25"/>
       <c r="AB96" s="25"/>
     </row>
-    <row r="97" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:47" x14ac:dyDescent="0.2">
       <c r="K97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
@@ -11694,45 +11693,45 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="99" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B99" s="27" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="100" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B100" s="54" t="s">
         <v>815</v>
       </c>
       <c r="I100" s="65">
-        <f t="shared" ref="I100:P100" si="152">I3/H3-1</f>
+        <f t="shared" ref="I100:P100" si="153">I3/H3-1</f>
         <v>-0.28820449048700714</v>
       </c>
       <c r="J100" s="65">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>1.1768782082290343</v>
       </c>
       <c r="K100" s="65">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>4.6761685836980149E-3</v>
       </c>
       <c r="L100" s="65">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>-0.13027499098108597</v>
       </c>
       <c r="M100" s="65">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>7.9195991314019887E-2</v>
       </c>
       <c r="N100" s="65">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>0.21052330549432452</v>
       </c>
       <c r="O100" s="65">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>3.8321500693137889E-2</v>
       </c>
       <c r="P100" s="65">
-        <f t="shared" si="152"/>
+        <f t="shared" si="153"/>
         <v>-0.2022053470017765</v>
       </c>
       <c r="Q100" s="65">
@@ -11740,148 +11739,148 @@
         <v>-9.3269024553847002E-3</v>
       </c>
       <c r="R100" s="65">
-        <f t="shared" ref="R100:R105" si="153">R3/Q3-1</f>
+        <f t="shared" ref="R100:R105" si="154">R3/Q3-1</f>
         <v>0.19557176875918336</v>
       </c>
       <c r="S100" s="106"/>
       <c r="AC100" s="74"/>
     </row>
-    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="54" t="s">
         <v>816</v>
       </c>
       <c r="I101" s="65">
-        <f t="shared" ref="I101:Q101" si="154">I4/H4-1</f>
+        <f t="shared" ref="I101:Q101" si="155">I4/H4-1</f>
         <v>-0.11731238792873222</v>
       </c>
       <c r="J101" s="65">
+        <f t="shared" si="155"/>
+        <v>0.61374798070117631</v>
+      </c>
+      <c r="K101" s="65">
+        <f t="shared" si="155"/>
+        <v>-0.19357387499288559</v>
+      </c>
+      <c r="L101" s="65">
+        <f t="shared" si="155"/>
+        <v>0.28305012268079333</v>
+      </c>
+      <c r="M101" s="65">
+        <f t="shared" si="155"/>
+        <v>0.10870191265406226</v>
+      </c>
+      <c r="N101" s="65">
+        <f t="shared" si="155"/>
+        <v>-3.7715860040100302E-2</v>
+      </c>
+      <c r="O101" s="65">
+        <f t="shared" si="155"/>
+        <v>-0.14253695582285475</v>
+      </c>
+      <c r="P101" s="65">
+        <f t="shared" si="155"/>
+        <v>4.9430357136541092E-2</v>
+      </c>
+      <c r="Q101" s="65">
+        <f t="shared" si="155"/>
+        <v>0.17039326448620784</v>
+      </c>
+      <c r="R101" s="65">
         <f t="shared" si="154"/>
-        <v>0.61374798070117631</v>
-      </c>
-      <c r="K101" s="65">
-        <f t="shared" si="154"/>
-        <v>-0.19357387499288559</v>
-      </c>
-      <c r="L101" s="65">
-        <f t="shared" si="154"/>
-        <v>0.28305012268079333</v>
-      </c>
-      <c r="M101" s="65">
-        <f t="shared" si="154"/>
-        <v>0.10870191265406226</v>
-      </c>
-      <c r="N101" s="65">
-        <f t="shared" si="154"/>
-        <v>-3.7715860040100302E-2</v>
-      </c>
-      <c r="O101" s="65">
-        <f t="shared" si="154"/>
-        <v>-0.14253695582285475</v>
-      </c>
-      <c r="P101" s="65">
-        <f t="shared" si="154"/>
-        <v>4.9430357136541092E-2</v>
-      </c>
-      <c r="Q101" s="65">
-        <f t="shared" si="154"/>
-        <v>0.17039326448620784</v>
-      </c>
-      <c r="R101" s="65">
-        <f t="shared" si="153"/>
         <v>8.2459085790969722E-2</v>
       </c>
       <c r="S101" s="106"/>
       <c r="AC101" s="74"/>
     </row>
-    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="54" t="s">
         <v>817</v>
       </c>
       <c r="I102" s="65">
-        <f t="shared" ref="I102:Q102" si="155">I5/H5-1</f>
+        <f t="shared" ref="I102:Q102" si="156">I5/H5-1</f>
         <v>-0.1718722323906241</v>
       </c>
       <c r="J102" s="65">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>1.5855553971196352</v>
       </c>
       <c r="K102" s="65">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>7.5830690748635021E-4</v>
       </c>
       <c r="L102" s="65">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-0.19132052076875383</v>
       </c>
       <c r="M102" s="65">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-5.019762172476061E-2</v>
       </c>
       <c r="N102" s="65">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>0.13310852622799385</v>
       </c>
       <c r="O102" s="65">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-0.15588270212513355</v>
       </c>
       <c r="P102" s="65">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>-9.2330051570557958E-2</v>
       </c>
       <c r="Q102" s="65">
-        <f t="shared" si="155"/>
+        <f t="shared" si="156"/>
         <v>2.8924723407341979E-4</v>
       </c>
       <c r="R102" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.14753539672212401</v>
       </c>
       <c r="S102" s="106"/>
       <c r="AC102" s="74"/>
     </row>
-    <row r="103" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="58" t="s">
         <v>819</v>
       </c>
       <c r="I103" s="70">
-        <f t="shared" ref="I103:Q103" si="156">I6/H6-1</f>
+        <f t="shared" ref="I103:Q103" si="157">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
       <c r="J103" s="70">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>1.0549972940599743</v>
       </c>
       <c r="K103" s="70">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-3.8935998856132414E-2</v>
       </c>
       <c r="L103" s="70">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-6.1431667318194938E-2</v>
       </c>
       <c r="M103" s="70">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>7.4285635721933918E-2</v>
       </c>
       <c r="N103" s="70">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>0.13999233628213337</v>
       </c>
       <c r="O103" s="70">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-1.726150932381687E-2</v>
       </c>
       <c r="P103" s="70">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>-0.14652505955360839</v>
       </c>
       <c r="Q103" s="70">
-        <f t="shared" si="156"/>
+        <f t="shared" si="157"/>
         <v>3.3388630685857734E-2</v>
       </c>
       <c r="R103" s="70">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.16210162208287926</v>
       </c>
       <c r="S103" s="111"/>
@@ -11905,97 +11904,97 @@
       <c r="AT103" s="58"/>
       <c r="AU103" s="58"/>
     </row>
-    <row r="104" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B104" s="32" t="s">
         <v>820</v>
       </c>
       <c r="I104" s="65">
-        <f t="shared" ref="I104:Q104" si="157">I7/H7-1</f>
+        <f t="shared" ref="I104:Q104" si="158">I7/H7-1</f>
         <v>-0.68959117130674685</v>
       </c>
       <c r="J104" s="65">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>3.0596315449256624</v>
       </c>
       <c r="K104" s="65">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>1.170892878468214</v>
       </c>
       <c r="L104" s="65">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.60287888511964793</v>
       </c>
       <c r="M104" s="65">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>7.4063813085838204E-2</v>
       </c>
       <c r="N104" s="65">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.33695885817462701</v>
       </c>
       <c r="O104" s="65">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>0.17707964886330751</v>
       </c>
       <c r="P104" s="65">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>-0.27328853193465552</v>
       </c>
       <c r="Q104" s="65">
-        <f t="shared" si="157"/>
+        <f t="shared" si="158"/>
         <v>5.7627246071723981E-2</v>
       </c>
       <c r="R104" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.17728807535098623</v>
       </c>
     </row>
-    <row r="105" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B105" s="32" t="s">
         <v>821</v>
       </c>
       <c r="I105" s="65">
-        <f t="shared" ref="I105:Q105" si="158">I8/H8-1</f>
+        <f t="shared" ref="I105:Q105" si="159">I8/H8-1</f>
         <v>-5.2339367300907602E-3</v>
       </c>
       <c r="J105" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>7.8805848667189871E-2</v>
       </c>
       <c r="K105" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-0.14270316878637646</v>
       </c>
       <c r="L105" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-1.0297334674377672</v>
       </c>
       <c r="M105" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-0.93234672304439747</v>
       </c>
       <c r="N105" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-3.171875</v>
       </c>
       <c r="O105" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>30.97122302158273</v>
       </c>
       <c r="P105" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>-4.5904590459045824E-2</v>
       </c>
       <c r="Q105" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="159"/>
         <v>0.98396226415094357</v>
       </c>
       <c r="R105" s="65">
-        <f t="shared" si="153"/>
+        <f t="shared" si="154"/>
         <v>0.84165477888730389</v>
       </c>
     </row>
-    <row r="107" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B107" s="1" t="s">
         <v>826</v>
       </c>
@@ -12004,119 +12003,119 @@
         <v>0.59414882180942552</v>
       </c>
       <c r="I107" s="25">
-        <f t="shared" ref="I107:S107" si="159">I12/I9</f>
+        <f t="shared" ref="I107:S107" si="160">I12/I9</f>
         <v>0.67817816969080325</v>
       </c>
       <c r="J107" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.38628115010177799</v>
       </c>
       <c r="K107" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.41729034611181637</v>
       </c>
       <c r="L107" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.40935415746960502</v>
       </c>
       <c r="M107" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.40324771703856505</v>
       </c>
       <c r="N107" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.38781726939332217</v>
       </c>
       <c r="O107" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.44184134893621202</v>
       </c>
       <c r="P107" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.45693399797839268</v>
       </c>
       <c r="Q107" s="25">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.44157808009594857</v>
       </c>
       <c r="R107" s="25">
-        <f t="shared" ref="R107" si="160">R12/R9</f>
+        <f t="shared" ref="R107" si="161">R12/R9</f>
         <v>0.37767943655349662</v>
       </c>
       <c r="S107" s="103">
-        <f t="shared" si="159"/>
+        <f t="shared" si="160"/>
         <v>0.42895725935022022</v>
       </c>
       <c r="V107" s="25">
-        <f t="shared" ref="V107:AM107" si="161">V12/V9</f>
+        <f t="shared" ref="V107:AM107" si="162">V12/V9</f>
         <v>0.37771430114149451</v>
       </c>
       <c r="W107" s="25">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.37760351403197812</v>
       </c>
       <c r="X107" s="25">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.42080964570985102</v>
       </c>
       <c r="Y107" s="25">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.42023132239656397</v>
       </c>
       <c r="Z107" s="25">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.42409417497036345</v>
       </c>
       <c r="AA107" s="25">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.48538449900294256</v>
       </c>
       <c r="AB107" s="25">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.41078648134782536</v>
       </c>
       <c r="AC107" s="71">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.37352786459200688</v>
       </c>
       <c r="AD107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.3898998698173477</v>
       </c>
       <c r="AE107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.40687889459616033</v>
       </c>
       <c r="AF107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.42449147926761222</v>
       </c>
       <c r="AG107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.44276401542814858</v>
       </c>
       <c r="AH107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.46172244331878237</v>
       </c>
       <c r="AI107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.48172478086605175</v>
       </c>
       <c r="AJ107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.48238207549596013</v>
       </c>
       <c r="AK107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.48294740632301031</v>
       </c>
       <c r="AL107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.48343346744763499</v>
       </c>
       <c r="AM107" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="162"/>
         <v>0.4838512463586328</v>
       </c>
     </row>
@@ -12151,16 +12150,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="1"/>
-    <col min="5" max="5" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -12177,7 +12176,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12194,7 +12193,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12211,7 +12210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12228,7 +12227,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12245,7 +12244,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12262,7 +12261,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12279,7 +12278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12296,7 +12295,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12313,7 +12312,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12330,7 +12329,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12347,7 +12346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12364,7 +12363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12381,7 +12380,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12398,7 +12397,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12432,7 +12431,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12449,7 +12448,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12483,7 +12482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12500,7 +12499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12517,7 +12516,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12551,7 +12550,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12568,7 +12567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12585,7 +12584,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12602,7 +12601,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12619,7 +12618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12636,7 +12635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12653,7 +12652,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12670,7 +12669,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -12687,7 +12686,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12704,7 +12703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12721,7 +12720,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12738,7 +12737,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12755,7 +12754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12772,7 +12771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12789,7 +12788,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12823,7 +12822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12857,7 +12856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12891,7 +12890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12908,7 +12907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12925,7 +12924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12942,7 +12941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -12959,7 +12958,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -12976,7 +12975,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -12993,7 +12992,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13010,7 +13009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13027,7 +13026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13044,7 +13043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13078,7 +13077,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13095,7 +13094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13112,7 +13111,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13129,7 +13128,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13146,7 +13145,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13163,7 +13162,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13180,7 +13179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13197,7 +13196,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13214,7 +13213,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -13248,7 +13247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -13265,7 +13264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -13299,7 +13298,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13316,7 +13315,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -13333,7 +13332,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -13350,7 +13349,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -13367,7 +13366,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -13384,7 +13383,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -13401,7 +13400,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -13418,7 +13417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -13452,7 +13451,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -13486,7 +13485,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -13503,7 +13502,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -13520,7 +13519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -13537,7 +13536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -13554,7 +13553,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -13571,7 +13570,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -13588,7 +13587,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -13605,7 +13604,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -13622,7 +13621,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -13656,7 +13655,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -13673,7 +13672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -13690,7 +13689,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13707,7 +13706,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13741,7 +13740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13758,7 +13757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13775,7 +13774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13792,7 +13791,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13809,7 +13808,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13826,7 +13825,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13843,7 +13842,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -13877,7 +13876,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -13894,7 +13893,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -13911,7 +13910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -13928,7 +13927,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -13945,7 +13944,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -13962,7 +13961,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -13979,7 +13978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -13996,7 +13995,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -14013,7 +14012,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -14030,7 +14029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -14064,7 +14063,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -14081,7 +14080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -14098,7 +14097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -14115,7 +14114,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -14132,7 +14131,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -14149,7 +14148,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -14183,7 +14182,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -14200,7 +14199,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -14234,7 +14233,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -14251,7 +14250,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -14268,7 +14267,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -14285,7 +14284,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -14353,7 +14352,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -14370,7 +14369,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -14387,7 +14386,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -14421,7 +14420,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -14438,7 +14437,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -14455,7 +14454,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -14472,7 +14471,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -14489,7 +14488,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -14506,7 +14505,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -14523,7 +14522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -14540,7 +14539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -14557,7 +14556,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -14574,7 +14573,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14591,7 +14590,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14608,7 +14607,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14625,7 +14624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -14642,7 +14641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -14659,7 +14658,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -14676,7 +14675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -14693,7 +14692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -14710,7 +14709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -14727,7 +14726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -14744,7 +14743,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -14761,7 +14760,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -14778,7 +14777,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -14795,7 +14794,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -14812,7 +14811,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -14829,7 +14828,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -14846,7 +14845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -14863,7 +14862,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14897,7 +14896,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14931,7 +14930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -14948,7 +14947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -14965,7 +14964,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -14982,7 +14981,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -14999,7 +14998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -15016,7 +15015,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -15050,7 +15049,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -15067,7 +15066,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -15084,7 +15083,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -15101,7 +15100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -15118,7 +15117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -15135,7 +15134,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -15152,7 +15151,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -15169,7 +15168,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -15186,7 +15185,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -15203,7 +15202,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -15220,7 +15219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -15237,7 +15236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -15254,7 +15253,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -15271,7 +15270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -15288,7 +15287,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -15305,7 +15304,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -15322,7 +15321,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -15339,7 +15338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -15356,7 +15355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -15373,7 +15372,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -15390,7 +15389,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -15407,7 +15406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -15424,7 +15423,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -15458,7 +15457,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -15475,7 +15474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -15492,7 +15491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -15509,7 +15508,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -15526,7 +15525,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -15543,7 +15542,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -15560,7 +15559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -15594,7 +15593,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -15611,7 +15610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -15628,7 +15627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -15645,7 +15644,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -15662,7 +15661,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -15679,7 +15678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -15696,7 +15695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -15713,7 +15712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -15730,7 +15729,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -15747,7 +15746,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -15764,7 +15763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -15781,7 +15780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -15798,7 +15797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -15815,7 +15814,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -15832,7 +15831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -15849,7 +15848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -15883,7 +15882,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -15900,7 +15899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -15917,7 +15916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -15934,7 +15933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -15951,7 +15950,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -15968,7 +15967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -15985,7 +15984,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -16002,7 +16001,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -16019,7 +16018,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -16036,7 +16035,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -16053,7 +16052,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -16070,7 +16069,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -16087,7 +16086,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -16121,7 +16120,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -16138,7 +16137,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -16155,7 +16154,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -16172,7 +16171,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -16189,7 +16188,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -16206,7 +16205,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -16223,7 +16222,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -16240,7 +16239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -16257,7 +16256,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -16274,7 +16273,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -16291,7 +16290,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -16308,7 +16307,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -16325,7 +16324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -16339,7 +16338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -16356,7 +16355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -16373,7 +16372,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -16390,7 +16389,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -16407,7 +16406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -16424,7 +16423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -16441,7 +16440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -16458,7 +16457,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -16475,7 +16474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -16492,7 +16491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -16506,7 +16505,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -16523,7 +16522,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -16540,7 +16539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -16557,7 +16556,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -16574,7 +16573,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -16591,7 +16590,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -16608,7 +16607,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -16625,7 +16624,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -16642,7 +16641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -16659,7 +16658,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -16676,7 +16675,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -16693,7 +16692,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -16710,7 +16709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -16727,7 +16726,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -16744,7 +16743,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -16761,7 +16760,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -16778,7 +16777,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -16795,7 +16794,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -16812,7 +16811,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -16829,7 +16828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -16846,7 +16845,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -16863,7 +16862,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -16880,7 +16879,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -16897,7 +16896,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -16914,7 +16913,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16931,7 +16930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -16965,7 +16964,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16982,7 +16981,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16999,7 +16998,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -17016,7 +17015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -17033,7 +17032,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -17050,7 +17049,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -17067,7 +17066,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -17084,7 +17083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -17101,7 +17100,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -17135,7 +17134,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -17152,7 +17151,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -17169,7 +17168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -17186,7 +17185,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -17203,7 +17202,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -17220,7 +17219,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -17237,7 +17236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -17254,7 +17253,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -17271,7 +17270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -17288,7 +17287,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -17305,7 +17304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -17322,7 +17321,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -17339,7 +17338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -17356,7 +17355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -17373,7 +17372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -17390,7 +17389,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -17407,7 +17406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -17424,7 +17423,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -17441,7 +17440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -17458,7 +17457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -17475,7 +17474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -17492,7 +17491,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -17509,7 +17508,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -17526,7 +17525,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17543,7 +17542,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17560,7 +17559,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17577,7 +17576,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17594,7 +17593,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17611,7 +17610,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17628,7 +17627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17645,7 +17644,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17662,7 +17661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17679,7 +17678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17696,7 +17695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17713,7 +17712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17730,7 +17729,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17747,7 +17746,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17764,7 +17763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17781,7 +17780,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17798,7 +17797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17815,7 +17814,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -17832,7 +17831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -17849,7 +17848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -17866,7 +17865,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -17883,7 +17882,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -17900,7 +17899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -17917,7 +17916,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -17934,7 +17933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -17951,7 +17950,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -17968,7 +17967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -17985,7 +17984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -18002,7 +18001,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -18019,7 +18018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -18036,7 +18035,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -18053,7 +18052,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18070,7 +18069,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18087,7 +18086,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18104,7 +18103,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18121,7 +18120,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -18138,7 +18137,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -18155,7 +18154,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -18172,7 +18171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -18189,7 +18188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -18206,7 +18205,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -18223,7 +18222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -18240,7 +18239,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -18257,7 +18256,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -18274,7 +18273,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -18291,7 +18290,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -18308,7 +18307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -18325,7 +18324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -18342,7 +18341,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -18359,7 +18358,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -18376,7 +18375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -18393,7 +18392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -18410,7 +18409,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -18427,7 +18426,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -18444,7 +18443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -18461,7 +18460,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -18478,7 +18477,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -18495,7 +18494,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -18512,7 +18511,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -18529,7 +18528,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -18546,7 +18545,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -18563,7 +18562,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -18580,7 +18579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -18597,7 +18596,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -18614,7 +18613,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -18631,7 +18630,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -18648,7 +18647,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -18665,7 +18664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -18682,7 +18681,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -18699,7 +18698,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -18716,7 +18715,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -18733,7 +18732,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -18750,7 +18749,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -18767,7 +18766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -18784,7 +18783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -18801,7 +18800,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -18818,7 +18817,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -18835,7 +18834,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -18852,7 +18851,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -18869,7 +18868,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -18886,7 +18885,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -18903,7 +18902,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -18920,7 +18919,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -18937,7 +18936,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -18954,7 +18953,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -18971,7 +18970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -18988,7 +18987,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -19005,7 +19004,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -19022,7 +19021,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -19039,7 +19038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -19056,7 +19055,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -19073,7 +19072,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -19090,7 +19089,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -19107,7 +19106,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -19124,7 +19123,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -19141,7 +19140,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -19158,7 +19157,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -19175,7 +19174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -19192,7 +19191,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -19209,7 +19208,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -19226,7 +19225,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -19243,7 +19242,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -19260,7 +19259,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -19277,7 +19276,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -19294,7 +19293,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -19311,7 +19310,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -19328,7 +19327,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -19345,7 +19344,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -19362,7 +19361,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -19379,7 +19378,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -19396,7 +19395,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -19413,7 +19412,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -19430,7 +19429,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -19447,7 +19446,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -19464,7 +19463,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -19481,7 +19480,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -19498,7 +19497,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -19515,7 +19514,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -19532,7 +19531,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -19549,7 +19548,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -19566,7 +19565,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -19583,7 +19582,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -19600,7 +19599,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -19617,7 +19616,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -19634,7 +19633,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -19651,7 +19650,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -19668,7 +19667,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -19685,7 +19684,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -19702,7 +19701,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -19719,7 +19718,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -19736,7 +19735,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -19753,7 +19752,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -19770,7 +19769,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -19787,7 +19786,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -19804,7 +19803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -19821,7 +19820,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -19838,7 +19837,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -19855,7 +19854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -19872,7 +19871,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -19889,7 +19888,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -19906,7 +19905,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -19923,7 +19922,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -19940,7 +19939,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -19957,7 +19956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -19974,7 +19973,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -19991,7 +19990,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -20008,7 +20007,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -20025,7 +20024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -20042,7 +20041,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -20059,7 +20058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -20076,7 +20075,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -20093,7 +20092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -20110,7 +20109,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -20127,7 +20126,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -20144,7 +20143,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -20161,7 +20160,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -20178,7 +20177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -20195,7 +20194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -20212,7 +20211,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -20229,7 +20228,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -20246,7 +20245,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -20263,7 +20262,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -20280,7 +20279,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -20297,7 +20296,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -20314,7 +20313,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -20331,7 +20330,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -20348,7 +20347,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -20365,7 +20364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -20382,7 +20381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -20399,7 +20398,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -20416,7 +20415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -20433,7 +20432,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -20450,7 +20449,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -20467,7 +20466,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -20484,7 +20483,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -20501,7 +20500,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -20518,7 +20517,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -20535,7 +20534,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -20552,7 +20551,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -20569,7 +20568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -20586,7 +20585,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -20603,7 +20602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -20620,7 +20619,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -20637,7 +20636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -20654,7 +20653,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -20671,7 +20670,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -20688,7 +20687,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -20705,7 +20704,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -20722,7 +20721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -20739,7 +20738,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -20756,7 +20755,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -20773,7 +20772,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -20790,7 +20789,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -20807,7 +20806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -20824,7 +20823,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -20841,7 +20840,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -20858,7 +20857,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -20875,7 +20874,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -20892,7 +20891,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -20909,7 +20908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20926,7 +20925,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -20943,7 +20942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -20960,7 +20959,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -20977,7 +20976,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -20994,7 +20993,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -21011,7 +21010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -21028,7 +21027,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -21045,7 +21044,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -21062,7 +21061,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -21079,7 +21078,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -21096,7 +21095,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -21113,7 +21112,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -21130,7 +21129,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -21147,7 +21146,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -21164,7 +21163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -21178,7 +21177,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -21195,7 +21194,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -21212,7 +21211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -21229,7 +21228,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -21246,7 +21245,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -21263,7 +21262,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -21280,7 +21279,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -21297,7 +21296,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -21314,7 +21313,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -21331,7 +21330,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -21348,7 +21347,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -21365,7 +21364,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -21382,7 +21381,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -21399,7 +21398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -21416,7 +21415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -21433,7 +21432,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -21450,7 +21449,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -21467,7 +21466,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -21484,7 +21483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -21501,7 +21500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -21518,7 +21517,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -21535,7 +21534,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -21552,7 +21551,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -21569,7 +21568,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -21586,7 +21585,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -21603,7 +21602,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -21620,7 +21619,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -21637,7 +21636,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -21654,7 +21653,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -21671,7 +21670,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -21688,7 +21687,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -21705,7 +21704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -21722,7 +21721,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -21739,7 +21738,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -21756,7 +21755,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -21773,7 +21772,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -21790,7 +21789,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -21807,7 +21806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -21824,7 +21823,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -21841,7 +21840,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -21858,7 +21857,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21875,7 +21874,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21892,7 +21891,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21909,7 +21908,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21926,7 +21925,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -21943,7 +21942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -21960,7 +21959,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -21977,7 +21976,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -21994,7 +21993,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -22011,7 +22010,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -22028,7 +22027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -22045,7 +22044,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -22062,7 +22061,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -22079,7 +22078,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -22096,7 +22095,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -22113,7 +22112,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -22130,7 +22129,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -22147,7 +22146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -22164,7 +22163,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -22181,7 +22180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -22198,7 +22197,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -22215,7 +22214,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -22232,7 +22231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -22249,7 +22248,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -22266,7 +22265,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -22283,7 +22282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -22300,7 +22299,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -22317,7 +22316,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -22334,7 +22333,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -22351,7 +22350,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -22368,7 +22367,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -22385,7 +22384,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8751A464-561D-4B05-897F-CABDB80B1E21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2D596-2D43-4EC0-8807-21A62F6AB7FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3124,36 +3124,6 @@
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3172,6 +3142,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3182,6 +3158,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3858,8 +3858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749350E7-094F-4190-83AB-84EC4A5122F0}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3879,38 +3879,38 @@
       </c>
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="G5" s="126" t="s">
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="G5" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="128"/>
-      <c r="R5" s="123" t="s">
+      <c r="H5" s="117"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="118"/>
+      <c r="R5" s="113" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="125"/>
+      <c r="S5" s="114"/>
+      <c r="T5" s="114"/>
+      <c r="U5" s="114"/>
+      <c r="V5" s="114"/>
+      <c r="W5" s="115"/>
     </row>
     <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
-        <v>7.12</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="D6" s="6"/>
       <c r="G6" s="52">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C8" s="28">
         <f>C6*C7</f>
-        <v>3234.7726400000001</v>
+        <v>3766.3293799999997</v>
       </c>
       <c r="D8" s="30"/>
       <c r="G8" s="52">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="C12" s="29">
         <f>C8-C11</f>
-        <v>3054.5026400000002</v>
+        <v>3586.0593799999997</v>
       </c>
       <c r="D12" s="31"/>
       <c r="G12" s="63"/>
@@ -4288,11 +4288,11 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="126" t="s">
+      <c r="B15" s="116" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
       <c r="G15" s="52">
         <v>44743</v>
       </c>
@@ -4334,10 +4334,10 @@
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="120"/>
       <c r="G16" s="63"/>
       <c r="H16" s="61" t="s">
         <v>784</v>
@@ -4377,10 +4377,10 @@
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="118"/>
+      <c r="D17" s="120"/>
       <c r="G17" s="63"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4418,10 +4418,10 @@
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="118"/>
+      <c r="D18" s="120"/>
       <c r="G18" s="52">
         <v>44682</v>
       </c>
@@ -4463,10 +4463,10 @@
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="130"/>
+      <c r="D19" s="122"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4578,11 +4578,11 @@
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="126" t="s">
+      <c r="B22" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
       <c r="G22" s="63"/>
       <c r="H22" s="61" t="s">
         <v>793</v>
@@ -4622,10 +4622,10 @@
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="118"/>
+      <c r="D23" s="120"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4663,10 +4663,10 @@
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="117">
+      <c r="C24" s="119">
         <v>1996</v>
       </c>
-      <c r="D24" s="118"/>
+      <c r="D24" s="120"/>
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
@@ -4745,11 +4745,11 @@
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="117">
+      <c r="C26" s="119">
         <f>'Financial Model'!R45</f>
         <v>437</v>
       </c>
-      <c r="D26" s="118"/>
+      <c r="D26" s="120"/>
       <c r="G26" s="52">
         <v>44228</v>
       </c>
@@ -4791,11 +4791,11 @@
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="131">
+      <c r="C27" s="123">
         <f>'Financial Model'!R52</f>
         <v>1080.42</v>
       </c>
-      <c r="D27" s="132"/>
+      <c r="D27" s="124"/>
       <c r="G27" s="63"/>
       <c r="H27" s="61" t="s">
         <v>781</v>
@@ -4905,10 +4905,10 @@
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="120"/>
+      <c r="D30" s="130"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4981,11 +4981,11 @@
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="126" t="s">
+      <c r="B33" s="116" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="128"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="118"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -5013,11 +5013,11 @@
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="115">
+      <c r="C34" s="127">
         <f>C12/SUM('Financial Model'!O20:R20)</f>
-        <v>21.115922407952812</v>
-      </c>
-      <c r="D34" s="116"/>
+        <v>24.790599499495396</v>
+      </c>
+      <c r="D34" s="128"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -5045,11 +5045,11 @@
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="127">
         <f>C6/SUM('Financial Model'!O21:R21)</f>
-        <v>22.825917900868863</v>
-      </c>
-      <c r="D35" s="116"/>
+        <v>26.576806095253207</v>
+      </c>
+      <c r="D35" s="128"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -5077,8 +5077,8 @@
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="117"/>
-      <c r="D36" s="118"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="120"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -5106,11 +5106,11 @@
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="115">
+      <c r="C37" s="127">
         <f>C6/'Financial Model'!Q77</f>
-        <v>1.8876434204020021</v>
-      </c>
-      <c r="D37" s="116"/>
+        <v>2.1978320161703082</v>
+      </c>
+      <c r="D37" s="128"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -5138,11 +5138,11 @@
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="121">
+      <c r="C38" s="131">
         <f>C8/SUM('Financial Model'!O9:R9)</f>
-        <v>0.56226680192147116</v>
-      </c>
-      <c r="D38" s="122"/>
+        <v>0.65466176796755549</v>
+      </c>
+      <c r="D38" s="132"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -5170,11 +5170,11 @@
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="121">
+      <c r="C39" s="131">
         <f>C12/SUM('Financial Model'!O9:R9)</f>
-        <v>0.53093234733600647</v>
-      </c>
-      <c r="D39" s="122"/>
+        <v>0.62332731338209091</v>
+      </c>
+      <c r="D39" s="132"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5229,11 +5229,11 @@
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="113">
+      <c r="C41" s="125">
         <f>C6/'Financial Model'!AB21</f>
-        <v>9.2051004832527816</v>
-      </c>
-      <c r="D41" s="114"/>
+        <v>10.717736377270443</v>
+      </c>
+      <c r="D41" s="126"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5723,6 +5723,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="R5:W5"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B5:D5"/>
@@ -5734,17 +5745,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G5:P5"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5898,7 +5898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
   <dimension ref="B1:BS107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="AP31" s="94">
         <f>Main!C6</f>
-        <v>7.12</v>
+        <v>8.2899999999999991</v>
       </c>
     </row>
     <row r="32" spans="2:71" x14ac:dyDescent="0.2">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="AP32" s="96">
         <f>AP30/AP31-1</f>
-        <v>2.3572820217536266</v>
+        <v>1.8834557291780247</v>
       </c>
     </row>
     <row r="33" spans="2:42" x14ac:dyDescent="0.2">

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B2D596-2D43-4EC0-8807-21A62F6AB7FD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C8C4DB-8EFE-2E48-92FF-6C9E5C824A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,19 +46,10 @@
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Quarter Transition, Changed FQ system</t>
-        </r>
       </text>
     </comment>
     <comment ref="R1" authorId="1" shapeId="0" xr:uid="{D0F8F999-EE4D-45ED-AFC6-0DE77E9F385C}">
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="833">
   <si>
     <t>$UA</t>
   </si>
@@ -2636,7 +2637,7 @@
     <numFmt numFmtId="168" formatCode="0.0\x"/>
     <numFmt numFmtId="169" formatCode="#,##0.0_ ;[Red]\-#,##0.0\ "/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2767,6 +2768,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2928,7 +2935,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3124,6 +3131,36 @@
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3142,12 +3179,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3160,35 +3191,16 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -3452,7 +3464,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3502,7 +3514,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3859,53 +3871,53 @@
   <dimension ref="B2:W61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="116" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B5" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="G5" s="116" t="s">
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
+      <c r="G5" s="126" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="118"/>
-      <c r="R5" s="113" t="s">
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="128"/>
+      <c r="R5" s="123" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
-      <c r="W5" s="115"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="S5" s="124"/>
+      <c r="T5" s="124"/>
+      <c r="U5" s="124"/>
+      <c r="V5" s="124"/>
+      <c r="W5" s="125"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3946,7 +3958,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3993,7 +4005,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4039,7 +4051,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4085,7 +4097,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4129,7 +4141,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4173,7 +4185,7 @@
         <v>-0.6875</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -4215,7 +4227,7 @@
         <v>-0.61538461538461542</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G13" s="52">
         <v>44774</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>-0.23076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G14" s="63"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4287,12 +4299,12 @@
         <v>-0.46153846153846156</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="116" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B15" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="128"/>
       <c r="G15" s="52">
         <v>44743</v>
       </c>
@@ -4330,14 +4342,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="120"/>
+      <c r="D16" s="118"/>
       <c r="G16" s="63"/>
       <c r="H16" s="61" t="s">
         <v>784</v>
@@ -4373,14 +4385,14 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="117" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="120"/>
+      <c r="D17" s="118"/>
       <c r="G17" s="63"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4414,14 +4426,14 @@
         <v>-0.10526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="120"/>
+      <c r="D18" s="118"/>
       <c r="G18" s="52">
         <v>44682</v>
       </c>
@@ -4459,14 +4471,14 @@
         <v>0.45454545454545459</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="121" t="s">
+      <c r="C19" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="122"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4505,7 +4517,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G20" s="63"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4539,7 +4551,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G21" s="52">
         <v>44593</v>
       </c>
@@ -4577,12 +4589,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="116" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B22" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="128"/>
       <c r="G22" s="63"/>
       <c r="H22" s="61" t="s">
         <v>793</v>
@@ -4618,14 +4630,14 @@
         <v>-0.26666666666666672</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="119" t="s">
+      <c r="C23" s="117" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="120"/>
+      <c r="D23" s="118"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4659,14 +4671,14 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="119">
+      <c r="C24" s="117">
         <v>1996</v>
       </c>
-      <c r="D24" s="120"/>
+      <c r="D24" s="118"/>
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
@@ -4704,7 +4716,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4741,15 +4753,15 @@
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="119">
+      <c r="C26" s="117">
         <f>'Financial Model'!R45</f>
         <v>437</v>
       </c>
-      <c r="D26" s="120"/>
+      <c r="D26" s="118"/>
       <c r="G26" s="52">
         <v>44228</v>
       </c>
@@ -4787,15 +4799,15 @@
         <v>0.36842105263157898</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="123">
+      <c r="C27" s="131">
         <f>'Financial Model'!R52</f>
         <v>1080.42</v>
       </c>
-      <c r="D27" s="124"/>
+      <c r="D27" s="132"/>
       <c r="G27" s="63"/>
       <c r="H27" s="61" t="s">
         <v>781</v>
@@ -4831,7 +4843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4868,7 +4880,7 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
@@ -4901,14 +4913,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="129" t="s">
+      <c r="C30" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="130"/>
+      <c r="D30" s="120"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4932,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R31" s="37">
         <v>2020</v>
       </c>
@@ -4956,7 +4968,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R32" s="37">
         <v>2020</v>
       </c>
@@ -4980,12 +4992,12 @@
         <v>-0.80487804878048785</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="116" t="s">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B33" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="128"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -5009,15 +5021,15 @@
         <v>-0.82954545454545459</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="127">
+      <c r="C34" s="115">
         <f>C12/SUM('Financial Model'!O20:R20)</f>
         <v>24.790599499495396</v>
       </c>
-      <c r="D34" s="128"/>
+      <c r="D34" s="116"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -5041,15 +5053,15 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="127">
+      <c r="C35" s="115">
         <f>C6/SUM('Financial Model'!O21:R21)</f>
         <v>26.576806095253207</v>
       </c>
-      <c r="D35" s="128"/>
+      <c r="D35" s="116"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -5073,12 +5085,15 @@
         <v>-0.16666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="119"/>
-      <c r="D36" s="120"/>
+      <c r="C36" s="135">
+        <f>'Financial Model'!R94</f>
+        <v>0.10684604640228397</v>
+      </c>
+      <c r="D36" s="118"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -5102,15 +5117,15 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="127">
+      <c r="C37" s="115">
         <f>C6/'Financial Model'!Q77</f>
         <v>2.1978320161703082</v>
       </c>
-      <c r="D37" s="128"/>
+      <c r="D37" s="116"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -5134,15 +5149,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="131">
+      <c r="C38" s="121">
         <f>C8/SUM('Financial Model'!O9:R9)</f>
         <v>0.65466176796755549</v>
       </c>
-      <c r="D38" s="132"/>
+      <c r="D38" s="122"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -5166,15 +5181,15 @@
         <v>1.7142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="131">
+      <c r="C39" s="121">
         <f>C12/SUM('Financial Model'!O9:R9)</f>
         <v>0.62332731338209091</v>
       </c>
-      <c r="D39" s="132"/>
+      <c r="D39" s="122"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5198,7 +5213,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -5225,15 +5240,15 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="125">
+      <c r="C41" s="113">
         <f>C6/'Financial Model'!AB21</f>
         <v>10.717736377270443</v>
       </c>
-      <c r="D41" s="126"/>
+      <c r="D41" s="114"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5257,7 +5272,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R42" s="37">
         <v>2019</v>
       </c>
@@ -5281,7 +5296,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R43" s="37">
         <v>2019</v>
       </c>
@@ -5305,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R44" s="37">
         <v>2019</v>
       </c>
@@ -5329,7 +5344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R45" s="37">
         <v>2019</v>
       </c>
@@ -5353,7 +5368,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R46" s="37">
         <v>2019</v>
       </c>
@@ -5377,7 +5392,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R47" s="37">
         <v>2019</v>
       </c>
@@ -5401,7 +5416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R48" s="37">
         <v>2019</v>
       </c>
@@ -5424,7 +5439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R49" s="37">
         <v>2019</v>
       </c>
@@ -5448,7 +5463,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R50" s="37">
         <v>2018</v>
       </c>
@@ -5471,7 +5486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R51" s="37">
         <v>2018</v>
       </c>
@@ -5494,7 +5509,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R52" s="37">
         <v>2018</v>
       </c>
@@ -5517,7 +5532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R53" s="37">
         <v>2018</v>
       </c>
@@ -5540,7 +5555,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R54" s="37">
         <v>2018</v>
       </c>
@@ -5563,7 +5578,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R55" s="37">
         <v>2018</v>
       </c>
@@ -5586,7 +5601,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R56" s="37">
         <v>2018</v>
       </c>
@@ -5609,7 +5624,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R57" s="37">
         <v>2018</v>
       </c>
@@ -5632,7 +5647,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R58" s="37">
         <v>2018</v>
       </c>
@@ -5655,7 +5670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R59" s="37">
         <v>2018</v>
       </c>
@@ -5677,7 +5692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R60" s="37">
         <v>2018</v>
       </c>
@@ -5699,7 +5714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R61" s="45">
         <v>2018</v>
       </c>
@@ -5723,6 +5738,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G5:P5"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
@@ -5734,17 +5760,6 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C39:D39"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="G5:P5"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5896,30 +5911,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
-  <dimension ref="B1:BS107"/>
+  <dimension ref="A1:BS108"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="R90" sqref="R90"/>
+      <selection pane="bottomRight" activeCell="Y92" sqref="Y92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="106"/>
-    <col min="20" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="74"/>
-    <col min="30" max="47" width="9.140625" style="32"/>
-    <col min="48" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.1640625" style="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="9.1640625" style="106"/>
+    <col min="20" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="9.1640625" style="74"/>
+    <col min="30" max="47" width="9.1640625" style="32"/>
+    <col min="48" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
@@ -6050,7 +6065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="17"/>
       <c r="H2" s="24">
         <v>43921</v>
@@ -6131,7 +6146,7 @@
       <c r="AT2" s="81"/>
       <c r="AU2" s="81"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="54" t="s">
         <v>764</v>
       </c>
@@ -6207,7 +6222,7 @@
       <c r="AI3" s="65"/>
       <c r="AJ3" s="65"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="54" t="s">
         <v>765</v>
       </c>
@@ -6283,7 +6298,7 @@
       <c r="AI4" s="65"/>
       <c r="AJ4" s="65"/>
     </row>
-    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="54" t="s">
         <v>766</v>
       </c>
@@ -6359,7 +6374,7 @@
       <c r="AI5" s="65"/>
       <c r="AJ5" s="65"/>
     </row>
-    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="58" t="s">
         <v>769</v>
       </c>
@@ -6487,7 +6502,7 @@
         <v>39108.173209764078</v>
       </c>
     </row>
-    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="32" t="s">
         <v>768</v>
       </c>
@@ -6597,7 +6612,7 @@
         <v>185.20316610694189</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="32" t="s">
         <v>767</v>
       </c>
@@ -6708,7 +6723,7 @@
         <v>19.953633686836341</v>
       </c>
     </row>
-    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -6827,7 +6842,7 @@
       <c r="AT9" s="58"/>
       <c r="AU9" s="58"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6934,7 +6949,7 @@
         <v>18673.83175453998</v>
       </c>
     </row>
-    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
@@ -7067,7 +7082,7 @@
       <c r="AT11" s="58"/>
       <c r="AU11" s="58"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -7174,7 +7189,7 @@
         <v>19021.803723632809</v>
       </c>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -7280,7 +7295,7 @@
         <v>65.793806395201273</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
@@ -7413,7 +7428,7 @@
       <c r="AT14" s="58"/>
       <c r="AU14" s="58"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -7519,7 +7534,7 @@
         <v>-40.113157469251853</v>
       </c>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -7626,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -7751,7 +7766,7 @@
         <v>1511.7875675206099</v>
       </c>
     </row>
-    <row r="18" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -7858,7 +7873,7 @@
         <v>226.76813512809147</v>
       </c>
     </row>
-    <row r="19" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -7965,7 +7980,7 @@
         <v>-8.3219074865264719</v>
       </c>
     </row>
-    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
@@ -8218,7 +8233,7 @@
         <v>925.58060052290614</v>
       </c>
     </row>
-    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
@@ -8343,7 +8358,7 @@
         <v>2.7850256315914441</v>
       </c>
     </row>
-    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -8452,7 +8467,7 @@
         <v>458.41500000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -8572,7 +8587,7 @@
       <c r="AT24" s="58"/>
       <c r="AU24" s="58"/>
     </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -8681,7 +8696,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -8801,7 +8816,7 @@
       <c r="AT26" s="83"/>
       <c r="AU26" s="83"/>
     </row>
-    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
@@ -8917,7 +8932,7 @@
       <c r="AT27" s="54"/>
       <c r="AU27" s="54"/>
     </row>
-    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:71" x14ac:dyDescent="0.15">
       <c r="AO28" s="86" t="s">
         <v>8</v>
       </c>
@@ -8926,7 +8941,7 @@
         <v>180.2700000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:71" x14ac:dyDescent="0.15">
       <c r="AO29" s="86" t="s">
         <v>827</v>
       </c>
@@ -8935,7 +8950,7 @@
         <v>10860.044028732516</v>
       </c>
     </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
@@ -9067,7 +9082,7 @@
         <v>23.903847994885822</v>
       </c>
     </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
@@ -9199,7 +9214,7 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -9331,7 +9346,7 @@
         <v>1.8834557291780247</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
@@ -9457,12 +9472,12 @@
       </c>
       <c r="AP33" s="88"/>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
@@ -9491,7 +9506,7 @@
       <c r="AC37" s="74"/>
       <c r="AL37" s="98"/>
     </row>
-    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
@@ -9520,7 +9535,7 @@
       <c r="AC38" s="74"/>
       <c r="AL38" s="56"/>
     </row>
-    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
@@ -9555,7 +9570,7 @@
       <c r="S39" s="106"/>
       <c r="AC39" s="74"/>
     </row>
-    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
@@ -9583,7 +9598,7 @@
       <c r="S40" s="106"/>
       <c r="AC40" s="74"/>
     </row>
-    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
@@ -9611,7 +9626,7 @@
       <c r="S41" s="106"/>
       <c r="AC41" s="74"/>
     </row>
-    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
@@ -9646,7 +9661,7 @@
       <c r="S42" s="106"/>
       <c r="AC42" s="74"/>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
@@ -9676,7 +9691,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
@@ -9706,7 +9721,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
@@ -9750,7 +9765,7 @@
       </c>
       <c r="AC45" s="75"/>
     </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>814</v>
       </c>
@@ -9797,12 +9812,12 @@
         <v>13.192582938388627</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9861,7 +9876,7 @@
       <c r="AT50" s="58"/>
       <c r="AU50" s="58"/>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -9900,7 +9915,7 @@
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -9959,7 +9974,7 @@
       <c r="AT52" s="58"/>
       <c r="AU52" s="58"/>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -9998,7 +10013,7 @@
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
@@ -10055,7 +10070,7 @@
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -10094,7 +10109,7 @@
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
@@ -10133,7 +10148,7 @@
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
@@ -10182,7 +10197,7 @@
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
@@ -10221,7 +10236,7 @@
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
@@ -10260,7 +10275,7 @@
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
@@ -10317,13 +10332,13 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.15">
       <c r="K61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="AB61" s="22"/>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
@@ -10362,7 +10377,7 @@
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
@@ -10401,7 +10416,7 @@
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
@@ -10440,7 +10455,7 @@
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
@@ -10479,7 +10494,7 @@
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
@@ -10519,7 +10534,7 @@
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
@@ -10576,7 +10591,7 @@
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
@@ -10635,7 +10650,7 @@
       <c r="AT68" s="58"/>
       <c r="AU68" s="58"/>
     </row>
-    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
@@ -10674,7 +10689,7 @@
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
@@ -10713,7 +10728,7 @@
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
@@ -10770,12 +10785,12 @@
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="AB72" s="22"/>
     </row>
-    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
@@ -10814,7 +10829,7 @@
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
@@ -10863,7 +10878,7 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
@@ -10912,7 +10927,7 @@
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
@@ -10961,7 +10976,7 @@
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
@@ -10988,7 +11003,7 @@
       </c>
       <c r="AC79" s="75"/>
     </row>
-    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
@@ -11023,7 +11038,7 @@
       <c r="S80" s="106"/>
       <c r="AC80" s="74"/>
     </row>
-    <row r="82" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
@@ -11082,7 +11097,7 @@
       </c>
       <c r="AC82" s="74"/>
     </row>
-    <row r="83" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
@@ -11141,7 +11156,7 @@
       </c>
       <c r="AC83" s="74"/>
     </row>
-    <row r="84" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
@@ -11199,7 +11214,7 @@
         <v>1006.922</v>
       </c>
     </row>
-    <row r="86" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -11260,7 +11275,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="2:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -11335,7 +11350,7 @@
       </c>
       <c r="AC87" s="74"/>
     </row>
-    <row r="88" spans="2:29" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
@@ -11386,7 +11401,11 @@
       </c>
       <c r="AC88" s="73"/>
     </row>
-    <row r="90" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A90" s="134">
+        <f>AVERAGE(I90:AO90)</f>
+        <v>3.5231412854391198</v>
+      </c>
       <c r="B90" s="1" t="s">
         <v>778</v>
       </c>
@@ -11435,7 +11454,11 @@
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A91" s="134">
+        <f>AVERAGE(I91:AO91)</f>
+        <v>1.5390337712017861</v>
+      </c>
       <c r="B91" s="1" t="s">
         <v>809</v>
       </c>
@@ -11504,7 +11527,11 @@
         <v>1.5084039681926689</v>
       </c>
     </row>
-    <row r="92" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A92" s="134">
+        <f>AVERAGEIF(I92:AO92,"&gt;0")</f>
+        <v>34.541820321250988</v>
+      </c>
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
@@ -11573,7 +11600,11 @@
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="93" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A93" s="134">
+        <f>AVERAGE(I93:AO93)</f>
+        <v>1.3646109670692772</v>
+      </c>
       <c r="B93" s="1" t="s">
         <v>810</v>
       </c>
@@ -11622,69 +11653,88 @@
         <v>1.327539379264882</v>
       </c>
     </row>
-    <row r="94" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="AA94" s="69"/>
-      <c r="AB94" s="69"/>
-    </row>
-    <row r="95" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B95" s="1" t="s">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A94" s="133">
+        <f>AVERAGE(I94:AO94)</f>
+        <v>-3.4050008604117644E-2</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25">
+        <f t="shared" ref="I94" si="149">SUM(F14:I14)/I76</f>
+        <v>-0.51134026122926113</v>
+      </c>
+      <c r="J94" s="25">
+        <f t="shared" ref="J94" si="150">SUM(G14:J14)/J76</f>
+        <v>-0.45518809858359904</v>
+      </c>
+      <c r="K94" s="25">
+        <f t="shared" ref="K94" si="151">SUM(H14:K14)/K76</f>
+        <v>-0.36601465519247395</v>
+      </c>
+      <c r="L94" s="25"/>
+      <c r="M94" s="25">
+        <f t="shared" ref="M94" si="152">SUM(J14:M14)/M76</f>
+        <v>0.18547091855245265</v>
+      </c>
+      <c r="N94" s="25">
+        <f t="shared" ref="N94" si="153">SUM(K14:N14)/N76</f>
+        <v>0.23056768073198367</v>
+      </c>
+      <c r="O94" s="25">
+        <f t="shared" ref="O94" si="154">SUM(L14:O14)/O76</f>
+        <v>0.23278891934509452</v>
+      </c>
+      <c r="P94" s="25">
+        <f t="shared" ref="P94" si="155">SUM(M14:P14)/P76</f>
+        <v>0.19285880364659783</v>
+      </c>
+      <c r="Q94" s="25">
+        <f>SUM(N14:Q14)/Q76</f>
+        <v>0.14268851624693818</v>
+      </c>
+      <c r="R94" s="25">
+        <f>SUM(O14:R14)/R76</f>
+        <v>0.10684604640228397</v>
+      </c>
+      <c r="AA94" s="25">
+        <f t="shared" ref="AA94:AB94" si="156">AA14/AA76</f>
+        <v>-0.36601465519247384</v>
+      </c>
+      <c r="AB94" s="25">
+        <f>AB14/AB76</f>
+        <v>0.23278669062716326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="AA95" s="69"/>
+      <c r="AB95" s="69"/>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="I95" s="25">
-        <f t="shared" ref="I95:K95" si="149">I52/I9</f>
-        <v>1.6936705104290317</v>
-      </c>
-      <c r="J95" s="25">
-        <f t="shared" si="149"/>
-        <v>0.73749442611099214</v>
-      </c>
-      <c r="K95" s="25">
-        <f t="shared" si="149"/>
-        <v>0.63826449707429866</v>
-      </c>
-      <c r="M95" s="25">
-        <f t="shared" ref="M95:P95" si="150">M52/M9</f>
-        <v>0.65193846399720601</v>
-      </c>
-      <c r="N95" s="25">
-        <f t="shared" si="150"/>
-        <v>0.54203989305947731</v>
-      </c>
-      <c r="O95" s="25">
-        <f t="shared" si="150"/>
-        <v>0.53060904195317171</v>
-      </c>
-      <c r="P95" s="25">
-        <f t="shared" si="150"/>
-        <v>0.63373547690332799</v>
-      </c>
-      <c r="Q95" s="25">
-        <f>Q52/Q9</f>
-        <v>0.70745268732158828</v>
-      </c>
-      <c r="R95" s="25">
-        <f t="shared" ref="R95" si="151">R52/R9</f>
-        <v>0.68646692738033599</v>
-      </c>
-      <c r="AA95" s="25">
-        <f t="shared" ref="AA95" si="152">AA52/AA9</f>
-        <v>0.20023255361795636</v>
-      </c>
-      <c r="AB95" s="25">
-        <f>AB52/AB9</f>
-        <v>0.14276675535667846</v>
-      </c>
-    </row>
-    <row r="96" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
       <c r="K96" s="25"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="25"/>
       <c r="O96" s="25"/>
       <c r="P96" s="25"/>
       <c r="Q96" s="25"/>
       <c r="R96" s="25"/>
-      <c r="AA96" s="25"/>
-      <c r="AB96" s="25"/>
-    </row>
-    <row r="97" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AA96" s="25">
+        <f t="shared" ref="AA96" si="157">AA52/AA9</f>
+        <v>0.20023255361795636</v>
+      </c>
+      <c r="AB96" s="25">
+        <f>AB52/AB9</f>
+        <v>0.14276675535667846</v>
+      </c>
+    </row>
+    <row r="97" spans="2:47" x14ac:dyDescent="0.15">
       <c r="K97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
@@ -11693,429 +11743,438 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="99" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B99" s="27" t="s">
+    <row r="98" spans="2:47" x14ac:dyDescent="0.15">
+      <c r="K98" s="25"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="25"/>
+      <c r="AA98" s="25"/>
+      <c r="AB98" s="25"/>
+    </row>
+    <row r="100" spans="2:47" x14ac:dyDescent="0.15">
+      <c r="B100" s="27" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="100" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="54" t="s">
+    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="54" t="s">
         <v>815</v>
       </c>
-      <c r="I100" s="65">
-        <f t="shared" ref="I100:P100" si="153">I3/H3-1</f>
+      <c r="I101" s="65">
+        <f t="shared" ref="I101:P101" si="158">I3/H3-1</f>
         <v>-0.28820449048700714</v>
       </c>
-      <c r="J100" s="65">
-        <f t="shared" si="153"/>
+      <c r="J101" s="65">
+        <f t="shared" si="158"/>
         <v>1.1768782082290343</v>
       </c>
-      <c r="K100" s="65">
-        <f t="shared" si="153"/>
+      <c r="K101" s="65">
+        <f t="shared" si="158"/>
         <v>4.6761685836980149E-3</v>
       </c>
-      <c r="L100" s="65">
-        <f t="shared" si="153"/>
+      <c r="L101" s="65">
+        <f t="shared" si="158"/>
         <v>-0.13027499098108597</v>
       </c>
-      <c r="M100" s="65">
-        <f t="shared" si="153"/>
+      <c r="M101" s="65">
+        <f t="shared" si="158"/>
         <v>7.9195991314019887E-2</v>
       </c>
-      <c r="N100" s="65">
-        <f t="shared" si="153"/>
+      <c r="N101" s="65">
+        <f t="shared" si="158"/>
         <v>0.21052330549432452</v>
       </c>
-      <c r="O100" s="65">
-        <f t="shared" si="153"/>
+      <c r="O101" s="65">
+        <f t="shared" si="158"/>
         <v>3.8321500693137889E-2</v>
       </c>
-      <c r="P100" s="65">
-        <f t="shared" si="153"/>
+      <c r="P101" s="65">
+        <f t="shared" si="158"/>
         <v>-0.2022053470017765</v>
       </c>
-      <c r="Q100" s="65">
+      <c r="Q101" s="65">
         <f>Q3/P3-1</f>
         <v>-9.3269024553847002E-3</v>
       </c>
-      <c r="R100" s="65">
-        <f t="shared" ref="R100:R105" si="154">R3/Q3-1</f>
+      <c r="R101" s="65">
+        <f t="shared" ref="R101:R106" si="159">R3/Q3-1</f>
         <v>0.19557176875918336</v>
-      </c>
-      <c r="S100" s="106"/>
-      <c r="AC100" s="74"/>
-    </row>
-    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="54" t="s">
-        <v>816</v>
-      </c>
-      <c r="I101" s="65">
-        <f t="shared" ref="I101:Q101" si="155">I4/H4-1</f>
-        <v>-0.11731238792873222</v>
-      </c>
-      <c r="J101" s="65">
-        <f t="shared" si="155"/>
-        <v>0.61374798070117631</v>
-      </c>
-      <c r="K101" s="65">
-        <f t="shared" si="155"/>
-        <v>-0.19357387499288559</v>
-      </c>
-      <c r="L101" s="65">
-        <f t="shared" si="155"/>
-        <v>0.28305012268079333</v>
-      </c>
-      <c r="M101" s="65">
-        <f t="shared" si="155"/>
-        <v>0.10870191265406226</v>
-      </c>
-      <c r="N101" s="65">
-        <f t="shared" si="155"/>
-        <v>-3.7715860040100302E-2</v>
-      </c>
-      <c r="O101" s="65">
-        <f t="shared" si="155"/>
-        <v>-0.14253695582285475</v>
-      </c>
-      <c r="P101" s="65">
-        <f t="shared" si="155"/>
-        <v>4.9430357136541092E-2</v>
-      </c>
-      <c r="Q101" s="65">
-        <f t="shared" si="155"/>
-        <v>0.17039326448620784</v>
-      </c>
-      <c r="R101" s="65">
-        <f t="shared" si="154"/>
-        <v>8.2459085790969722E-2</v>
       </c>
       <c r="S101" s="106"/>
       <c r="AC101" s="74"/>
     </row>
-    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="54" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I102" s="65">
-        <f t="shared" ref="I102:Q102" si="156">I5/H5-1</f>
-        <v>-0.1718722323906241</v>
+        <f t="shared" ref="I102:Q102" si="160">I4/H4-1</f>
+        <v>-0.11731238792873222</v>
       </c>
       <c r="J102" s="65">
-        <f t="shared" si="156"/>
-        <v>1.5855553971196352</v>
+        <f t="shared" si="160"/>
+        <v>0.61374798070117631</v>
       </c>
       <c r="K102" s="65">
-        <f t="shared" si="156"/>
-        <v>7.5830690748635021E-4</v>
+        <f t="shared" si="160"/>
+        <v>-0.19357387499288559</v>
       </c>
       <c r="L102" s="65">
-        <f t="shared" si="156"/>
-        <v>-0.19132052076875383</v>
+        <f t="shared" si="160"/>
+        <v>0.28305012268079333</v>
       </c>
       <c r="M102" s="65">
-        <f t="shared" si="156"/>
-        <v>-5.019762172476061E-2</v>
+        <f t="shared" si="160"/>
+        <v>0.10870191265406226</v>
       </c>
       <c r="N102" s="65">
-        <f t="shared" si="156"/>
-        <v>0.13310852622799385</v>
+        <f t="shared" si="160"/>
+        <v>-3.7715860040100302E-2</v>
       </c>
       <c r="O102" s="65">
-        <f t="shared" si="156"/>
-        <v>-0.15588270212513355</v>
+        <f t="shared" si="160"/>
+        <v>-0.14253695582285475</v>
       </c>
       <c r="P102" s="65">
-        <f t="shared" si="156"/>
-        <v>-9.2330051570557958E-2</v>
+        <f t="shared" si="160"/>
+        <v>4.9430357136541092E-2</v>
       </c>
       <c r="Q102" s="65">
-        <f t="shared" si="156"/>
-        <v>2.8924723407341979E-4</v>
+        <f t="shared" si="160"/>
+        <v>0.17039326448620784</v>
       </c>
       <c r="R102" s="65">
-        <f t="shared" si="154"/>
-        <v>0.14753539672212401</v>
+        <f t="shared" si="159"/>
+        <v>8.2459085790969722E-2</v>
       </c>
       <c r="S102" s="106"/>
       <c r="AC102" s="74"/>
     </row>
-    <row r="103" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="58" t="s">
+    <row r="103" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B103" s="54" t="s">
+        <v>817</v>
+      </c>
+      <c r="I103" s="65">
+        <f t="shared" ref="I103:Q103" si="161">I5/H5-1</f>
+        <v>-0.1718722323906241</v>
+      </c>
+      <c r="J103" s="65">
+        <f t="shared" si="161"/>
+        <v>1.5855553971196352</v>
+      </c>
+      <c r="K103" s="65">
+        <f t="shared" si="161"/>
+        <v>7.5830690748635021E-4</v>
+      </c>
+      <c r="L103" s="65">
+        <f t="shared" si="161"/>
+        <v>-0.19132052076875383</v>
+      </c>
+      <c r="M103" s="65">
+        <f t="shared" si="161"/>
+        <v>-5.019762172476061E-2</v>
+      </c>
+      <c r="N103" s="65">
+        <f t="shared" si="161"/>
+        <v>0.13310852622799385</v>
+      </c>
+      <c r="O103" s="65">
+        <f t="shared" si="161"/>
+        <v>-0.15588270212513355</v>
+      </c>
+      <c r="P103" s="65">
+        <f t="shared" si="161"/>
+        <v>-9.2330051570557958E-2</v>
+      </c>
+      <c r="Q103" s="65">
+        <f t="shared" si="161"/>
+        <v>2.8924723407341979E-4</v>
+      </c>
+      <c r="R103" s="65">
+        <f t="shared" si="159"/>
+        <v>0.14753539672212401</v>
+      </c>
+      <c r="S103" s="106"/>
+      <c r="AC103" s="74"/>
+    </row>
+    <row r="104" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B104" s="58" t="s">
         <v>819</v>
       </c>
-      <c r="I103" s="70">
-        <f t="shared" ref="I103:Q103" si="157">I6/H6-1</f>
+      <c r="I104" s="70">
+        <f t="shared" ref="I104:Q104" si="162">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
-      <c r="J103" s="70">
-        <f t="shared" si="157"/>
+      <c r="J104" s="70">
+        <f t="shared" si="162"/>
         <v>1.0549972940599743</v>
       </c>
-      <c r="K103" s="70">
-        <f t="shared" si="157"/>
+      <c r="K104" s="70">
+        <f t="shared" si="162"/>
         <v>-3.8935998856132414E-2</v>
       </c>
-      <c r="L103" s="70">
-        <f t="shared" si="157"/>
+      <c r="L104" s="70">
+        <f t="shared" si="162"/>
         <v>-6.1431667318194938E-2</v>
       </c>
-      <c r="M103" s="70">
-        <f t="shared" si="157"/>
+      <c r="M104" s="70">
+        <f t="shared" si="162"/>
         <v>7.4285635721933918E-2</v>
       </c>
-      <c r="N103" s="70">
-        <f t="shared" si="157"/>
+      <c r="N104" s="70">
+        <f t="shared" si="162"/>
         <v>0.13999233628213337</v>
       </c>
-      <c r="O103" s="70">
-        <f t="shared" si="157"/>
+      <c r="O104" s="70">
+        <f t="shared" si="162"/>
         <v>-1.726150932381687E-2</v>
       </c>
-      <c r="P103" s="70">
-        <f t="shared" si="157"/>
+      <c r="P104" s="70">
+        <f t="shared" si="162"/>
         <v>-0.14652505955360839</v>
       </c>
-      <c r="Q103" s="70">
-        <f t="shared" si="157"/>
+      <c r="Q104" s="70">
+        <f t="shared" si="162"/>
         <v>3.3388630685857734E-2</v>
       </c>
-      <c r="R103" s="70">
-        <f t="shared" si="154"/>
+      <c r="R104" s="70">
+        <f t="shared" si="159"/>
         <v>0.16210162208287926</v>
       </c>
-      <c r="S103" s="111"/>
-      <c r="AC103" s="75"/>
-      <c r="AD103" s="58"/>
-      <c r="AE103" s="58"/>
-      <c r="AF103" s="58"/>
-      <c r="AG103" s="58"/>
-      <c r="AH103" s="58"/>
-      <c r="AI103" s="58"/>
-      <c r="AJ103" s="58"/>
-      <c r="AK103" s="58"/>
-      <c r="AL103" s="58"/>
-      <c r="AM103" s="58"/>
-      <c r="AN103" s="58"/>
-      <c r="AO103" s="58"/>
-      <c r="AP103" s="58"/>
-      <c r="AQ103" s="58"/>
-      <c r="AR103" s="58"/>
-      <c r="AS103" s="58"/>
-      <c r="AT103" s="58"/>
-      <c r="AU103" s="58"/>
-    </row>
-    <row r="104" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B104" s="32" t="s">
+      <c r="S104" s="111"/>
+      <c r="AC104" s="75"/>
+      <c r="AD104" s="58"/>
+      <c r="AE104" s="58"/>
+      <c r="AF104" s="58"/>
+      <c r="AG104" s="58"/>
+      <c r="AH104" s="58"/>
+      <c r="AI104" s="58"/>
+      <c r="AJ104" s="58"/>
+      <c r="AK104" s="58"/>
+      <c r="AL104" s="58"/>
+      <c r="AM104" s="58"/>
+      <c r="AN104" s="58"/>
+      <c r="AO104" s="58"/>
+      <c r="AP104" s="58"/>
+      <c r="AQ104" s="58"/>
+      <c r="AR104" s="58"/>
+      <c r="AS104" s="58"/>
+      <c r="AT104" s="58"/>
+      <c r="AU104" s="58"/>
+    </row>
+    <row r="105" spans="2:47" x14ac:dyDescent="0.15">
+      <c r="B105" s="32" t="s">
         <v>820</v>
       </c>
-      <c r="I104" s="65">
-        <f t="shared" ref="I104:Q104" si="158">I7/H7-1</f>
+      <c r="I105" s="65">
+        <f t="shared" ref="I105:Q105" si="163">I7/H7-1</f>
         <v>-0.68959117130674685</v>
       </c>
-      <c r="J104" s="65">
-        <f t="shared" si="158"/>
+      <c r="J105" s="65">
+        <f t="shared" si="163"/>
         <v>3.0596315449256624</v>
       </c>
-      <c r="K104" s="65">
-        <f t="shared" si="158"/>
+      <c r="K105" s="65">
+        <f t="shared" si="163"/>
         <v>1.170892878468214</v>
       </c>
-      <c r="L104" s="65">
-        <f t="shared" si="158"/>
+      <c r="L105" s="65">
+        <f t="shared" si="163"/>
         <v>-0.60287888511964793</v>
       </c>
-      <c r="M104" s="65">
-        <f t="shared" si="158"/>
+      <c r="M105" s="65">
+        <f t="shared" si="163"/>
         <v>7.4063813085838204E-2</v>
       </c>
-      <c r="N104" s="65">
-        <f t="shared" si="158"/>
+      <c r="N105" s="65">
+        <f t="shared" si="163"/>
         <v>0.33695885817462701</v>
       </c>
-      <c r="O104" s="65">
-        <f t="shared" si="158"/>
+      <c r="O105" s="65">
+        <f t="shared" si="163"/>
         <v>0.17707964886330751</v>
       </c>
-      <c r="P104" s="65">
-        <f t="shared" si="158"/>
+      <c r="P105" s="65">
+        <f t="shared" si="163"/>
         <v>-0.27328853193465552</v>
       </c>
-      <c r="Q104" s="65">
-        <f t="shared" si="158"/>
+      <c r="Q105" s="65">
+        <f t="shared" si="163"/>
         <v>5.7627246071723981E-2</v>
       </c>
-      <c r="R104" s="65">
-        <f t="shared" si="154"/>
+      <c r="R105" s="65">
+        <f t="shared" si="159"/>
         <v>0.17728807535098623</v>
       </c>
     </row>
-    <row r="105" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B105" s="32" t="s">
+    <row r="106" spans="2:47" x14ac:dyDescent="0.15">
+      <c r="B106" s="32" t="s">
         <v>821</v>
       </c>
-      <c r="I105" s="65">
-        <f t="shared" ref="I105:Q105" si="159">I8/H8-1</f>
+      <c r="I106" s="65">
+        <f t="shared" ref="I106:Q106" si="164">I8/H8-1</f>
         <v>-5.2339367300907602E-3</v>
       </c>
-      <c r="J105" s="65">
+      <c r="J106" s="65">
+        <f t="shared" si="164"/>
+        <v>7.8805848667189871E-2</v>
+      </c>
+      <c r="K106" s="65">
+        <f t="shared" si="164"/>
+        <v>-0.14270316878637646</v>
+      </c>
+      <c r="L106" s="65">
+        <f t="shared" si="164"/>
+        <v>-1.0297334674377672</v>
+      </c>
+      <c r="M106" s="65">
+        <f t="shared" si="164"/>
+        <v>-0.93234672304439747</v>
+      </c>
+      <c r="N106" s="65">
+        <f t="shared" si="164"/>
+        <v>-3.171875</v>
+      </c>
+      <c r="O106" s="65">
+        <f t="shared" si="164"/>
+        <v>30.97122302158273</v>
+      </c>
+      <c r="P106" s="65">
+        <f t="shared" si="164"/>
+        <v>-4.5904590459045824E-2</v>
+      </c>
+      <c r="Q106" s="65">
+        <f t="shared" si="164"/>
+        <v>0.98396226415094357</v>
+      </c>
+      <c r="R106" s="65">
         <f t="shared" si="159"/>
-        <v>7.8805848667189871E-2</v>
-      </c>
-      <c r="K105" s="65">
-        <f t="shared" si="159"/>
-        <v>-0.14270316878637646</v>
-      </c>
-      <c r="L105" s="65">
-        <f t="shared" si="159"/>
-        <v>-1.0297334674377672</v>
-      </c>
-      <c r="M105" s="65">
-        <f t="shared" si="159"/>
-        <v>-0.93234672304439747</v>
-      </c>
-      <c r="N105" s="65">
-        <f t="shared" si="159"/>
-        <v>-3.171875</v>
-      </c>
-      <c r="O105" s="65">
-        <f t="shared" si="159"/>
-        <v>30.97122302158273</v>
-      </c>
-      <c r="P105" s="65">
-        <f t="shared" si="159"/>
-        <v>-4.5904590459045824E-2</v>
-      </c>
-      <c r="Q105" s="65">
-        <f t="shared" si="159"/>
-        <v>0.98396226415094357</v>
-      </c>
-      <c r="R105" s="65">
-        <f t="shared" si="154"/>
         <v>0.84165477888730389</v>
       </c>
     </row>
-    <row r="107" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="2:47" x14ac:dyDescent="0.15">
+      <c r="B108" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="H107" s="25">
+      <c r="H108" s="25">
         <f>H12/H9</f>
         <v>0.59414882180942552</v>
       </c>
-      <c r="I107" s="25">
-        <f t="shared" ref="I107:S107" si="160">I12/I9</f>
+      <c r="I108" s="25">
+        <f t="shared" ref="I108:S108" si="165">I12/I9</f>
         <v>0.67817816969080325</v>
       </c>
-      <c r="J107" s="25">
-        <f t="shared" si="160"/>
+      <c r="J108" s="25">
+        <f t="shared" si="165"/>
         <v>0.38628115010177799</v>
       </c>
-      <c r="K107" s="25">
-        <f t="shared" si="160"/>
+      <c r="K108" s="25">
+        <f t="shared" si="165"/>
         <v>0.41729034611181637</v>
       </c>
-      <c r="L107" s="25">
-        <f t="shared" si="160"/>
+      <c r="L108" s="25">
+        <f t="shared" si="165"/>
         <v>0.40935415746960502</v>
       </c>
-      <c r="M107" s="25">
-        <f t="shared" si="160"/>
+      <c r="M108" s="25">
+        <f t="shared" si="165"/>
         <v>0.40324771703856505</v>
       </c>
-      <c r="N107" s="25">
-        <f t="shared" si="160"/>
+      <c r="N108" s="25">
+        <f t="shared" si="165"/>
         <v>0.38781726939332217</v>
       </c>
-      <c r="O107" s="25">
-        <f t="shared" si="160"/>
+      <c r="O108" s="25">
+        <f t="shared" si="165"/>
         <v>0.44184134893621202</v>
       </c>
-      <c r="P107" s="25">
-        <f t="shared" si="160"/>
+      <c r="P108" s="25">
+        <f t="shared" si="165"/>
         <v>0.45693399797839268</v>
       </c>
-      <c r="Q107" s="25">
-        <f t="shared" si="160"/>
+      <c r="Q108" s="25">
+        <f t="shared" si="165"/>
         <v>0.44157808009594857</v>
       </c>
-      <c r="R107" s="25">
-        <f t="shared" ref="R107" si="161">R12/R9</f>
+      <c r="R108" s="25">
+        <f t="shared" ref="R108" si="166">R12/R9</f>
         <v>0.37767943655349662</v>
       </c>
-      <c r="S107" s="103">
-        <f t="shared" si="160"/>
+      <c r="S108" s="103">
+        <f t="shared" si="165"/>
         <v>0.42895725935022022</v>
       </c>
-      <c r="V107" s="25">
-        <f t="shared" ref="V107:AM107" si="162">V12/V9</f>
+      <c r="V108" s="25">
+        <f t="shared" ref="V108:AM108" si="167">V12/V9</f>
         <v>0.37771430114149451</v>
       </c>
-      <c r="W107" s="25">
-        <f t="shared" si="162"/>
+      <c r="W108" s="25">
+        <f t="shared" si="167"/>
         <v>0.37760351403197812</v>
       </c>
-      <c r="X107" s="25">
-        <f t="shared" si="162"/>
+      <c r="X108" s="25">
+        <f t="shared" si="167"/>
         <v>0.42080964570985102</v>
       </c>
-      <c r="Y107" s="25">
-        <f t="shared" si="162"/>
+      <c r="Y108" s="25">
+        <f t="shared" si="167"/>
         <v>0.42023132239656397</v>
       </c>
-      <c r="Z107" s="25">
-        <f t="shared" si="162"/>
+      <c r="Z108" s="25">
+        <f t="shared" si="167"/>
         <v>0.42409417497036345</v>
       </c>
-      <c r="AA107" s="25">
-        <f t="shared" si="162"/>
+      <c r="AA108" s="25">
+        <f t="shared" si="167"/>
         <v>0.48538449900294256</v>
       </c>
-      <c r="AB107" s="25">
-        <f t="shared" si="162"/>
+      <c r="AB108" s="25">
+        <f t="shared" si="167"/>
         <v>0.41078648134782536</v>
       </c>
-      <c r="AC107" s="71">
-        <f t="shared" si="162"/>
+      <c r="AC108" s="71">
+        <f t="shared" si="167"/>
         <v>0.37352786459200688</v>
       </c>
-      <c r="AD107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AD108" s="65">
+        <f t="shared" si="167"/>
         <v>0.3898998698173477</v>
       </c>
-      <c r="AE107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AE108" s="65">
+        <f t="shared" si="167"/>
         <v>0.40687889459616033</v>
       </c>
-      <c r="AF107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AF108" s="65">
+        <f t="shared" si="167"/>
         <v>0.42449147926761222</v>
       </c>
-      <c r="AG107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AG108" s="65">
+        <f t="shared" si="167"/>
         <v>0.44276401542814858</v>
       </c>
-      <c r="AH107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AH108" s="65">
+        <f t="shared" si="167"/>
         <v>0.46172244331878237</v>
       </c>
-      <c r="AI107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AI108" s="65">
+        <f t="shared" si="167"/>
         <v>0.48172478086605175</v>
       </c>
-      <c r="AJ107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AJ108" s="65">
+        <f t="shared" si="167"/>
         <v>0.48238207549596013</v>
       </c>
-      <c r="AK107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AK108" s="65">
+        <f t="shared" si="167"/>
         <v>0.48294740632301031</v>
       </c>
-      <c r="AL107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AL108" s="65">
+        <f t="shared" si="167"/>
         <v>0.48343346744763499</v>
       </c>
-      <c r="AM107" s="65">
-        <f t="shared" si="162"/>
+      <c r="AM108" s="65">
+        <f t="shared" si="167"/>
         <v>0.4838512463586328</v>
       </c>
     </row>
@@ -12137,7 +12196,7 @@
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId12"/>
   <ignoredErrors>
     <ignoredError sqref="AA6:AB6 L6:R6 H6:K6 S12 S16 S19 S22 X6:Y6 V6:W6" formulaRange="1"/>
-    <ignoredError sqref="AA54:AA71 AC11 AC14" formula="1"/>
+    <ignoredError sqref="AA54:AA71 AC11 AC14 A92" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId13"/>
   <legacyDrawing r:id="rId14"/>
@@ -12150,16 +12209,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -12176,7 +12235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12193,7 +12252,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12210,7 +12269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12227,7 +12286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12244,7 +12303,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12261,7 +12320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12278,7 +12337,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12295,7 +12354,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12312,7 +12371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12329,7 +12388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12346,7 +12405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12363,7 +12422,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12380,7 +12439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12397,7 +12456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12414,7 +12473,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12431,7 +12490,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12448,7 +12507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12465,7 +12524,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12482,7 +12541,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12499,7 +12558,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12516,7 +12575,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12533,7 +12592,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12550,7 +12609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12567,7 +12626,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12584,7 +12643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12601,7 +12660,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12618,7 +12677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12635,7 +12694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12652,7 +12711,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12669,7 +12728,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -12686,7 +12745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12703,7 +12762,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12720,7 +12779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12737,7 +12796,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12754,7 +12813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12771,7 +12830,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12788,7 +12847,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12805,7 +12864,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12822,7 +12881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12839,7 +12898,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12856,7 +12915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12873,7 +12932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12890,7 +12949,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12907,7 +12966,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12924,7 +12983,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12941,7 +13000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -12958,7 +13017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -12975,7 +13034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -12992,7 +13051,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13009,7 +13068,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13026,7 +13085,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13043,7 +13102,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13060,7 +13119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13077,7 +13136,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13094,7 +13153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13111,7 +13170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13128,7 +13187,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13145,7 +13204,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13162,7 +13221,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13179,7 +13238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13196,7 +13255,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13213,7 +13272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -13230,7 +13289,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -13247,7 +13306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -13264,7 +13323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13281,7 +13340,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -13298,7 +13357,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13315,7 +13374,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -13332,7 +13391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -13349,7 +13408,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -13366,7 +13425,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -13383,7 +13442,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -13400,7 +13459,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -13417,7 +13476,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -13434,7 +13493,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -13451,7 +13510,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -13468,7 +13527,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -13485,7 +13544,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -13502,7 +13561,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -13519,7 +13578,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -13536,7 +13595,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -13553,7 +13612,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -13570,7 +13629,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -13587,7 +13646,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -13604,7 +13663,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -13621,7 +13680,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -13638,7 +13697,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -13655,7 +13714,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -13672,7 +13731,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -13689,7 +13748,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13706,7 +13765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13723,7 +13782,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13740,7 +13799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13757,7 +13816,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13774,7 +13833,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13791,7 +13850,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13808,7 +13867,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13825,7 +13884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13842,7 +13901,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -13859,7 +13918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -13876,7 +13935,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -13893,7 +13952,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -13910,7 +13969,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -13927,7 +13986,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -13944,7 +14003,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -13961,7 +14020,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -13978,7 +14037,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -13995,7 +14054,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -14012,7 +14071,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -14029,7 +14088,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -14046,7 +14105,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -14063,7 +14122,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -14080,7 +14139,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -14097,7 +14156,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -14114,7 +14173,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -14131,7 +14190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -14148,7 +14207,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -14165,7 +14224,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -14182,7 +14241,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -14199,7 +14258,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -14216,7 +14275,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -14233,7 +14292,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -14250,7 +14309,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -14267,7 +14326,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -14284,7 +14343,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -14301,7 +14360,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -14318,7 +14377,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -14335,7 +14394,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -14352,7 +14411,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -14369,7 +14428,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -14386,7 +14445,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -14403,7 +14462,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -14420,7 +14479,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -14437,7 +14496,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -14454,7 +14513,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -14471,7 +14530,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -14488,7 +14547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -14505,7 +14564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -14522,7 +14581,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -14539,7 +14598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -14556,7 +14615,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -14573,7 +14632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14590,7 +14649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14607,7 +14666,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14624,7 +14683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -14641,7 +14700,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -14658,7 +14717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -14675,7 +14734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -14692,7 +14751,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -14709,7 +14768,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -14726,7 +14785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -14743,7 +14802,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -14760,7 +14819,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -14777,7 +14836,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -14794,7 +14853,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -14811,7 +14870,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -14828,7 +14887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -14845,7 +14904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -14862,7 +14921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -14879,7 +14938,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14896,7 +14955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14913,7 +14972,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14930,7 +14989,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -14947,7 +15006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -14964,7 +15023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -14981,7 +15040,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -14998,7 +15057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -15015,7 +15074,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -15032,7 +15091,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -15049,7 +15108,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -15066,7 +15125,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -15083,7 +15142,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -15100,7 +15159,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -15117,7 +15176,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -15134,7 +15193,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -15151,7 +15210,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -15168,7 +15227,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -15185,7 +15244,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -15202,7 +15261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -15219,7 +15278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -15236,7 +15295,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -15253,7 +15312,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -15270,7 +15329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -15287,7 +15346,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -15304,7 +15363,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -15321,7 +15380,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -15338,7 +15397,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -15355,7 +15414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -15372,7 +15431,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -15389,7 +15448,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -15406,7 +15465,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -15423,7 +15482,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -15440,7 +15499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -15457,7 +15516,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -15474,7 +15533,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -15491,7 +15550,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -15508,7 +15567,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -15525,7 +15584,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -15542,7 +15601,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -15559,7 +15618,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -15576,7 +15635,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -15593,7 +15652,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -15610,7 +15669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -15627,7 +15686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -15644,7 +15703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -15661,7 +15720,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -15678,7 +15737,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -15695,7 +15754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -15712,7 +15771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -15729,7 +15788,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -15746,7 +15805,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -15763,7 +15822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -15780,7 +15839,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -15797,7 +15856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -15814,7 +15873,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -15831,7 +15890,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -15848,7 +15907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -15865,7 +15924,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -15882,7 +15941,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -15899,7 +15958,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -15916,7 +15975,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -15933,7 +15992,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -15950,7 +16009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -15967,7 +16026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -15984,7 +16043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -16001,7 +16060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -16018,7 +16077,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -16035,7 +16094,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -16052,7 +16111,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -16069,7 +16128,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -16086,7 +16145,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -16103,7 +16162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -16120,7 +16179,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -16137,7 +16196,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -16154,7 +16213,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -16171,7 +16230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -16188,7 +16247,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -16205,7 +16264,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -16222,7 +16281,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -16239,7 +16298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -16256,7 +16315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -16273,7 +16332,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -16290,7 +16349,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -16307,7 +16366,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -16324,7 +16383,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -16338,7 +16397,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -16355,7 +16414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -16372,7 +16431,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -16389,7 +16448,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -16406,7 +16465,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -16423,7 +16482,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -16440,7 +16499,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -16457,7 +16516,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -16474,7 +16533,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -16491,7 +16550,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -16505,7 +16564,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -16522,7 +16581,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -16539,7 +16598,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -16556,7 +16615,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -16573,7 +16632,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -16590,7 +16649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -16607,7 +16666,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -16624,7 +16683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -16641,7 +16700,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -16658,7 +16717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -16675,7 +16734,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -16692,7 +16751,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -16709,7 +16768,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -16726,7 +16785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -16743,7 +16802,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -16760,7 +16819,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -16777,7 +16836,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -16794,7 +16853,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -16811,7 +16870,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -16828,7 +16887,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -16845,7 +16904,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -16862,7 +16921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -16879,7 +16938,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -16896,7 +16955,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -16913,7 +16972,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16930,7 +16989,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -16947,7 +17006,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -16964,7 +17023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -16981,7 +17040,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -16998,7 +17057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -17015,7 +17074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -17032,7 +17091,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -17049,7 +17108,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -17066,7 +17125,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -17083,7 +17142,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -17100,7 +17159,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -17117,7 +17176,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -17134,7 +17193,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -17151,7 +17210,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -17168,7 +17227,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -17185,7 +17244,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -17202,7 +17261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -17219,7 +17278,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -17236,7 +17295,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -17253,7 +17312,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -17270,7 +17329,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -17287,7 +17346,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -17304,7 +17363,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -17321,7 +17380,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -17338,7 +17397,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -17355,7 +17414,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -17372,7 +17431,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -17389,7 +17448,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -17406,7 +17465,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -17423,7 +17482,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -17440,7 +17499,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -17457,7 +17516,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -17474,7 +17533,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -17491,7 +17550,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -17508,7 +17567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -17525,7 +17584,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17542,7 +17601,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17559,7 +17618,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17576,7 +17635,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17593,7 +17652,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17610,7 +17669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17627,7 +17686,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17644,7 +17703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17661,7 +17720,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17678,7 +17737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17695,7 +17754,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17712,7 +17771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17729,7 +17788,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17746,7 +17805,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17763,7 +17822,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17780,7 +17839,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17797,7 +17856,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17814,7 +17873,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -17831,7 +17890,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -17848,7 +17907,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -17865,7 +17924,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -17882,7 +17941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -17899,7 +17958,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -17916,7 +17975,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -17933,7 +17992,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -17950,7 +18009,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -17967,7 +18026,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -17984,7 +18043,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -18001,7 +18060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -18018,7 +18077,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -18035,7 +18094,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -18052,7 +18111,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18069,7 +18128,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18086,7 +18145,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18103,7 +18162,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18120,7 +18179,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -18137,7 +18196,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -18154,7 +18213,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -18171,7 +18230,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -18188,7 +18247,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -18205,7 +18264,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -18222,7 +18281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -18239,7 +18298,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -18256,7 +18315,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -18273,7 +18332,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -18290,7 +18349,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -18307,7 +18366,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -18324,7 +18383,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -18341,7 +18400,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -18358,7 +18417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -18375,7 +18434,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -18392,7 +18451,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -18409,7 +18468,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -18426,7 +18485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -18443,7 +18502,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -18460,7 +18519,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -18477,7 +18536,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -18494,7 +18553,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -18511,7 +18570,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -18528,7 +18587,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -18545,7 +18604,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -18562,7 +18621,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -18579,7 +18638,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -18596,7 +18655,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -18613,7 +18672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -18630,7 +18689,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -18647,7 +18706,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -18664,7 +18723,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -18681,7 +18740,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -18698,7 +18757,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -18715,7 +18774,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -18732,7 +18791,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -18749,7 +18808,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -18766,7 +18825,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -18783,7 +18842,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -18800,7 +18859,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -18817,7 +18876,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -18834,7 +18893,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -18851,7 +18910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -18868,7 +18927,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -18885,7 +18944,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -18902,7 +18961,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -18919,7 +18978,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -18936,7 +18995,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -18953,7 +19012,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -18970,7 +19029,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -18987,7 +19046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -19004,7 +19063,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -19021,7 +19080,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -19038,7 +19097,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -19055,7 +19114,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -19072,7 +19131,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -19089,7 +19148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -19106,7 +19165,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -19123,7 +19182,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -19140,7 +19199,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -19157,7 +19216,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -19174,7 +19233,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -19191,7 +19250,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -19208,7 +19267,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -19225,7 +19284,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -19242,7 +19301,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -19259,7 +19318,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -19276,7 +19335,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -19293,7 +19352,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -19310,7 +19369,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -19327,7 +19386,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -19344,7 +19403,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -19361,7 +19420,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -19378,7 +19437,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -19395,7 +19454,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -19412,7 +19471,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -19429,7 +19488,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -19446,7 +19505,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -19463,7 +19522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -19480,7 +19539,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -19497,7 +19556,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -19514,7 +19573,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -19531,7 +19590,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -19548,7 +19607,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -19565,7 +19624,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -19582,7 +19641,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -19599,7 +19658,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -19616,7 +19675,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -19633,7 +19692,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -19650,7 +19709,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -19667,7 +19726,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -19684,7 +19743,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -19701,7 +19760,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -19718,7 +19777,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -19735,7 +19794,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -19752,7 +19811,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -19769,7 +19828,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -19786,7 +19845,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -19803,7 +19862,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -19820,7 +19879,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -19837,7 +19896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -19854,7 +19913,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -19871,7 +19930,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -19888,7 +19947,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -19905,7 +19964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -19922,7 +19981,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -19939,7 +19998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -19956,7 +20015,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -19973,7 +20032,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -19990,7 +20049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -20007,7 +20066,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -20024,7 +20083,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -20041,7 +20100,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -20058,7 +20117,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -20075,7 +20134,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -20092,7 +20151,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -20109,7 +20168,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -20126,7 +20185,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -20143,7 +20202,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -20160,7 +20219,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -20177,7 +20236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -20194,7 +20253,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -20211,7 +20270,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -20228,7 +20287,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -20245,7 +20304,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -20262,7 +20321,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -20279,7 +20338,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -20296,7 +20355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -20313,7 +20372,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -20330,7 +20389,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -20347,7 +20406,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -20364,7 +20423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -20381,7 +20440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -20398,7 +20457,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -20415,7 +20474,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -20432,7 +20491,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -20449,7 +20508,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -20466,7 +20525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -20483,7 +20542,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -20500,7 +20559,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -20517,7 +20576,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -20534,7 +20593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -20551,7 +20610,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -20568,7 +20627,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -20585,7 +20644,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -20602,7 +20661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -20619,7 +20678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -20636,7 +20695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -20653,7 +20712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -20670,7 +20729,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -20687,7 +20746,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -20704,7 +20763,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -20721,7 +20780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -20738,7 +20797,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -20755,7 +20814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -20772,7 +20831,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -20789,7 +20848,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -20806,7 +20865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -20823,7 +20882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -20840,7 +20899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -20857,7 +20916,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -20874,7 +20933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -20891,7 +20950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -20908,7 +20967,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20925,7 +20984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -20942,7 +21001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -20959,7 +21018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -20976,7 +21035,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -20993,7 +21052,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -21010,7 +21069,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -21027,7 +21086,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -21044,7 +21103,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -21061,7 +21120,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -21078,7 +21137,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -21095,7 +21154,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -21112,7 +21171,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -21129,7 +21188,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -21146,7 +21205,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -21163,7 +21222,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -21177,7 +21236,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -21194,7 +21253,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -21211,7 +21270,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -21228,7 +21287,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -21245,7 +21304,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -21262,7 +21321,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -21279,7 +21338,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -21296,7 +21355,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -21313,7 +21372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -21330,7 +21389,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -21347,7 +21406,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -21364,7 +21423,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -21381,7 +21440,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -21398,7 +21457,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -21415,7 +21474,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -21432,7 +21491,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -21449,7 +21508,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -21466,7 +21525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -21483,7 +21542,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -21500,7 +21559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -21517,7 +21576,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -21534,7 +21593,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -21551,7 +21610,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -21568,7 +21627,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -21585,7 +21644,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -21602,7 +21661,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -21619,7 +21678,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -21636,7 +21695,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -21653,7 +21712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -21670,7 +21729,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -21687,7 +21746,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -21704,7 +21763,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -21721,7 +21780,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -21738,7 +21797,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -21755,7 +21814,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -21772,7 +21831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -21789,7 +21848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -21806,7 +21865,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -21823,7 +21882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -21840,7 +21899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -21857,7 +21916,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21874,7 +21933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21891,7 +21950,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21908,7 +21967,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21925,7 +21984,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -21942,7 +22001,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -21959,7 +22018,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -21976,7 +22035,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -21993,7 +22052,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -22010,7 +22069,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -22027,7 +22086,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -22044,7 +22103,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -22061,7 +22120,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -22078,7 +22137,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -22095,7 +22154,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -22112,7 +22171,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -22129,7 +22188,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -22146,7 +22205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -22163,7 +22222,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -22180,7 +22239,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -22197,7 +22256,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -22214,7 +22273,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -22231,7 +22290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -22248,7 +22307,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -22265,7 +22324,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -22282,7 +22341,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -22299,7 +22358,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -22316,7 +22375,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -22333,7 +22392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -22350,7 +22409,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -22367,7 +22426,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -22384,7 +22443,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A603" s="1">
         <v>601</v>
       </c>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C8C4DB-8EFE-2E48-92FF-6C9E5C824A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642F7E65-58B7-46C1-834C-EA01E0190D21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="18900" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,10 +36,19 @@
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Quarter Transition, Changed FQ system</t>
+        </r>
       </text>
     </comment>
     <comment ref="R1" authorId="1" shapeId="0" xr:uid="{D0F8F999-EE4D-45ED-AFC6-0DE77E9F385C}">
@@ -3131,36 +3130,8 @@
     <xf numFmtId="15" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3179,6 +3150,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3191,16 +3168,38 @@
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -3870,54 +3869,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749350E7-094F-4190-83AB-84EC4A5122F0}">
   <dimension ref="B2:W61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B5" s="126" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B5" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
-      <c r="G5" s="126" t="s">
+      <c r="C5" s="119"/>
+      <c r="D5" s="120"/>
+      <c r="G5" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="128"/>
-      <c r="R5" s="123" t="s">
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="119"/>
+      <c r="N5" s="119"/>
+      <c r="O5" s="119"/>
+      <c r="P5" s="120"/>
+      <c r="R5" s="115" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="124"/>
-      <c r="T5" s="124"/>
-      <c r="U5" s="124"/>
-      <c r="V5" s="124"/>
-      <c r="W5" s="125"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="117"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3958,7 +3957,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4097,7 +4096,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4185,7 +4184,7 @@
         <v>-0.6875</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -4227,7 +4226,7 @@
         <v>-0.61538461538461542</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G13" s="52">
         <v>44774</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>-0.23076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G14" s="63"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4299,12 +4298,12 @@
         <v>-0.46153846153846156</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B15" s="126" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B15" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="120"/>
       <c r="G15" s="52">
         <v>44743</v>
       </c>
@@ -4342,14 +4341,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="117" t="s">
+      <c r="C16" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="118"/>
+      <c r="D16" s="122"/>
       <c r="G16" s="63"/>
       <c r="H16" s="61" t="s">
         <v>784</v>
@@ -4385,14 +4384,14 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="117" t="s">
+      <c r="C17" s="121" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="118"/>
+      <c r="D17" s="122"/>
       <c r="G17" s="63"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4426,14 +4425,14 @@
         <v>-0.10526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="118"/>
+      <c r="D18" s="122"/>
       <c r="G18" s="52">
         <v>44682</v>
       </c>
@@ -4471,14 +4470,14 @@
         <v>0.45454545454545459</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="129" t="s">
+      <c r="C19" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="130"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4517,7 +4516,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G20" s="63"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4551,7 +4550,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G21" s="52">
         <v>44593</v>
       </c>
@@ -4589,12 +4588,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B22" s="126" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="120"/>
       <c r="G22" s="63"/>
       <c r="H22" s="61" t="s">
         <v>793</v>
@@ -4630,14 +4629,14 @@
         <v>-0.26666666666666672</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="117" t="s">
+      <c r="C23" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="118"/>
+      <c r="D23" s="122"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4671,14 +4670,14 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="117">
+      <c r="C24" s="121">
         <v>1996</v>
       </c>
-      <c r="D24" s="118"/>
+      <c r="D24" s="122"/>
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4753,15 +4752,15 @@
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="117">
+      <c r="C26" s="121">
         <f>'Financial Model'!R45</f>
         <v>437</v>
       </c>
-      <c r="D26" s="118"/>
+      <c r="D26" s="122"/>
       <c r="G26" s="52">
         <v>44228</v>
       </c>
@@ -4799,15 +4798,15 @@
         <v>0.36842105263157898</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="131">
+      <c r="C27" s="125">
         <f>'Financial Model'!R52</f>
         <v>1080.42</v>
       </c>
-      <c r="D27" s="132"/>
+      <c r="D27" s="126"/>
       <c r="G27" s="63"/>
       <c r="H27" s="61" t="s">
         <v>781</v>
@@ -4843,7 +4842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4880,7 +4879,7 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
@@ -4913,14 +4912,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="119" t="s">
+      <c r="C30" s="131" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="120"/>
+      <c r="D30" s="132"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4944,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R31" s="37">
         <v>2020</v>
       </c>
@@ -4968,7 +4967,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R32" s="37">
         <v>2020</v>
       </c>
@@ -4992,12 +4991,12 @@
         <v>-0.80487804878048785</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
-      <c r="B33" s="126" t="s">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B33" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="128"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="120"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -5021,15 +5020,15 @@
         <v>-0.82954545454545459</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="115">
+      <c r="C34" s="129">
         <f>C12/SUM('Financial Model'!O20:R20)</f>
         <v>24.790599499495396</v>
       </c>
-      <c r="D34" s="116"/>
+      <c r="D34" s="130"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -5053,15 +5052,15 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="115">
+      <c r="C35" s="129">
         <f>C6/SUM('Financial Model'!O21:R21)</f>
         <v>26.576806095253207</v>
       </c>
-      <c r="D35" s="116"/>
+      <c r="D35" s="130"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -5085,15 +5084,15 @@
         <v>-0.16666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="135">
+      <c r="C36" s="133">
         <f>'Financial Model'!R94</f>
-        <v>0.10684604640228397</v>
-      </c>
-      <c r="D36" s="118"/>
+        <v>5.8865441622757919E-2</v>
+      </c>
+      <c r="D36" s="122"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -5117,15 +5116,15 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="115">
+      <c r="C37" s="129">
         <f>C6/'Financial Model'!Q77</f>
         <v>2.1978320161703082</v>
       </c>
-      <c r="D37" s="116"/>
+      <c r="D37" s="130"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -5149,15 +5148,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="121">
+      <c r="C38" s="134">
         <f>C8/SUM('Financial Model'!O9:R9)</f>
         <v>0.65466176796755549</v>
       </c>
-      <c r="D38" s="122"/>
+      <c r="D38" s="135"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -5181,15 +5180,15 @@
         <v>1.7142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="121">
+      <c r="C39" s="134">
         <f>C12/SUM('Financial Model'!O9:R9)</f>
         <v>0.62332731338209091</v>
       </c>
-      <c r="D39" s="122"/>
+      <c r="D39" s="135"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B40" s="14"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -5240,15 +5239,15 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="113">
+      <c r="C41" s="127">
         <f>C6/'Financial Model'!AB21</f>
         <v>10.717736377270443</v>
       </c>
-      <c r="D41" s="114"/>
+      <c r="D41" s="128"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R42" s="37">
         <v>2019</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R43" s="37">
         <v>2019</v>
       </c>
@@ -5320,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R44" s="37">
         <v>2019</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R45" s="37">
         <v>2019</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R46" s="37">
         <v>2019</v>
       </c>
@@ -5392,7 +5391,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R47" s="37">
         <v>2019</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="R48" s="37">
         <v>2019</v>
       </c>
@@ -5439,7 +5438,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R49" s="37">
         <v>2019</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R50" s="37">
         <v>2018</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R51" s="37">
         <v>2018</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R52" s="37">
         <v>2018</v>
       </c>
@@ -5532,7 +5531,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R53" s="37">
         <v>2018</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R54" s="37">
         <v>2018</v>
       </c>
@@ -5578,7 +5577,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R55" s="37">
         <v>2018</v>
       </c>
@@ -5601,7 +5600,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R56" s="37">
         <v>2018</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R57" s="37">
         <v>2018</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R58" s="37">
         <v>2018</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R59" s="37">
         <v>2018</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="60" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R60" s="37">
         <v>2018</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="18:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="18:23" x14ac:dyDescent="0.2">
       <c r="R61" s="45">
         <v>2018</v>
       </c>
@@ -5738,6 +5737,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="R5:W5"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B5:D5"/>
@@ -5749,17 +5759,6 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="G5:P5"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <conditionalFormatting sqref="V8:V24">
     <cfRule type="cellIs" dxfId="33" priority="37" operator="greaterThan">
@@ -5913,28 +5912,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32081CA-472C-4CAE-89FB-0831C607DA60}">
   <dimension ref="A1:BS108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J71" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y92" sqref="Y92"/>
+      <selection pane="bottomRight" activeCell="AB94" sqref="AA94:AB94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.1640625" style="1"/>
-    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
-    <col min="14" max="18" width="9.1640625" style="1"/>
-    <col min="19" max="19" width="9.1640625" style="106"/>
-    <col min="20" max="28" width="9.1640625" style="1"/>
-    <col min="29" max="29" width="9.1640625" style="74"/>
-    <col min="30" max="47" width="9.1640625" style="32"/>
-    <col min="48" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="106"/>
+    <col min="20" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.140625" style="74"/>
+    <col min="30" max="47" width="9.140625" style="32"/>
+    <col min="48" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
@@ -6065,7 +6064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="17"/>
       <c r="H2" s="24">
         <v>43921</v>
@@ -6146,7 +6145,7 @@
       <c r="AT2" s="81"/>
       <c r="AU2" s="81"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="54" t="s">
         <v>764</v>
       </c>
@@ -6222,7 +6221,7 @@
       <c r="AI3" s="65"/>
       <c r="AJ3" s="65"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="54" t="s">
         <v>765</v>
       </c>
@@ -6298,7 +6297,7 @@
       <c r="AI4" s="65"/>
       <c r="AJ4" s="65"/>
     </row>
-    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
         <v>766</v>
       </c>
@@ -6374,7 +6373,7 @@
       <c r="AI5" s="65"/>
       <c r="AJ5" s="65"/>
     </row>
-    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="58" t="s">
         <v>769</v>
       </c>
@@ -6502,7 +6501,7 @@
         <v>39108.173209764078</v>
       </c>
     </row>
-    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="32" t="s">
         <v>768</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>185.20316610694189</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="32" t="s">
         <v>767</v>
       </c>
@@ -6723,7 +6722,7 @@
         <v>19.953633686836341</v>
       </c>
     </row>
-    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -6842,7 +6841,7 @@
       <c r="AT9" s="58"/>
       <c r="AU9" s="58"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>18673.83175453998</v>
       </c>
     </row>
-    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
@@ -7082,7 +7081,7 @@
       <c r="AT11" s="58"/>
       <c r="AU11" s="58"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -7189,7 +7188,7 @@
         <v>19021.803723632809</v>
       </c>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -7295,7 +7294,7 @@
         <v>65.793806395201273</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
@@ -7428,7 +7427,7 @@
       <c r="AT14" s="58"/>
       <c r="AU14" s="58"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>-40.113157469251853</v>
       </c>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -7766,7 +7765,7 @@
         <v>1511.7875675206099</v>
       </c>
     </row>
-    <row r="18" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -7873,7 +7872,7 @@
         <v>226.76813512809147</v>
       </c>
     </row>
-    <row r="19" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -7980,7 +7979,7 @@
         <v>-8.3219074865264719</v>
       </c>
     </row>
-    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
@@ -8233,7 +8232,7 @@
         <v>925.58060052290614</v>
       </c>
     </row>
-    <row r="21" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
@@ -8358,7 +8357,7 @@
         <v>2.7850256315914441</v>
       </c>
     </row>
-    <row r="22" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>458.41500000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -8587,7 +8586,7 @@
       <c r="AT24" s="58"/>
       <c r="AU24" s="58"/>
     </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -8696,7 +8695,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -8816,7 +8815,7 @@
       <c r="AT26" s="83"/>
       <c r="AU26" s="83"/>
     </row>
-    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
@@ -8932,7 +8931,7 @@
       <c r="AT27" s="54"/>
       <c r="AU27" s="54"/>
     </row>
-    <row r="28" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
       <c r="AO28" s="86" t="s">
         <v>8</v>
       </c>
@@ -8941,7 +8940,7 @@
         <v>180.2700000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
       <c r="AO29" s="86" t="s">
         <v>827</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>10860.044028732516</v>
       </c>
     </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>23.903847994885822</v>
       </c>
     </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
@@ -9214,7 +9213,7 @@
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="32" spans="2:71" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -9346,7 +9345,7 @@
         <v>1.8834557291780247</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
@@ -9472,12 +9471,12 @@
       </c>
       <c r="AP33" s="88"/>
     </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
@@ -9506,7 +9505,7 @@
       <c r="AC37" s="74"/>
       <c r="AL37" s="98"/>
     </row>
-    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
@@ -9535,7 +9534,7 @@
       <c r="AC38" s="74"/>
       <c r="AL38" s="56"/>
     </row>
-    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
@@ -9570,7 +9569,7 @@
       <c r="S39" s="106"/>
       <c r="AC39" s="74"/>
     </row>
-    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
@@ -9598,7 +9597,7 @@
       <c r="S40" s="106"/>
       <c r="AC40" s="74"/>
     </row>
-    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
@@ -9626,7 +9625,7 @@
       <c r="S41" s="106"/>
       <c r="AC41" s="74"/>
     </row>
-    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
@@ -9661,7 +9660,7 @@
       <c r="S42" s="106"/>
       <c r="AC42" s="74"/>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
@@ -9691,7 +9690,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
@@ -9765,7 +9764,7 @@
       </c>
       <c r="AC45" s="75"/>
     </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>814</v>
       </c>
@@ -9812,12 +9811,12 @@
         <v>13.192582938388627</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9876,7 +9875,7 @@
       <c r="AT50" s="58"/>
       <c r="AU50" s="58"/>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -9915,7 +9914,7 @@
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -9974,7 +9973,7 @@
       <c r="AT52" s="58"/>
       <c r="AU52" s="58"/>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -10013,7 +10012,7 @@
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
@@ -10148,7 +10147,7 @@
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
@@ -10275,7 +10274,7 @@
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
@@ -10332,13 +10331,13 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
       <c r="K61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="AB61" s="22"/>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
@@ -10377,7 +10376,7 @@
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
@@ -10416,7 +10415,7 @@
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
@@ -10455,7 +10454,7 @@
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
@@ -10534,7 +10533,7 @@
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
@@ -10591,7 +10590,7 @@
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
@@ -10650,7 +10649,7 @@
       <c r="AT68" s="58"/>
       <c r="AU68" s="58"/>
     </row>
-    <row r="69" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
@@ -10689,7 +10688,7 @@
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
@@ -10728,7 +10727,7 @@
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
@@ -10785,12 +10784,12 @@
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="AB72" s="22"/>
     </row>
-    <row r="73" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
@@ -10829,7 +10828,7 @@
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
@@ -10878,7 +10877,7 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
@@ -10927,7 +10926,7 @@
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
@@ -11003,7 +11002,7 @@
       </c>
       <c r="AC79" s="75"/>
     </row>
-    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
@@ -11038,7 +11037,7 @@
       <c r="S80" s="106"/>
       <c r="AC80" s="74"/>
     </row>
-    <row r="82" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
@@ -11097,7 +11096,7 @@
       </c>
       <c r="AC82" s="74"/>
     </row>
-    <row r="83" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
@@ -11156,7 +11155,7 @@
       </c>
       <c r="AC83" s="74"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>1006.922</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -11275,7 +11274,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -11350,7 +11349,7 @@
       </c>
       <c r="AC87" s="74"/>
     </row>
-    <row r="88" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
@@ -11401,8 +11400,8 @@
       </c>
       <c r="AC88" s="73"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A90" s="134">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A90" s="114">
         <f>AVERAGE(I90:AO90)</f>
         <v>3.5231412854391198</v>
       </c>
@@ -11454,8 +11453,8 @@
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A91" s="134">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A91" s="114">
         <f>AVERAGE(I91:AO91)</f>
         <v>1.5390337712017861</v>
       </c>
@@ -11527,8 +11526,8 @@
         <v>1.5084039681926689</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A92" s="134">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A92" s="114">
         <f>AVERAGEIF(I92:AO92,"&gt;0")</f>
         <v>34.541820321250988</v>
       </c>
@@ -11600,8 +11599,8 @@
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A93" s="134">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A93" s="114">
         <f>AVERAGE(I93:AO93)</f>
         <v>1.3646109670692772</v>
       </c>
@@ -11653,66 +11652,66 @@
         <v>1.327539379264882</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
-      <c r="A94" s="133">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A94" s="113">
         <f>AVERAGE(I94:AO94)</f>
-        <v>-3.4050008604117644E-2</v>
+        <v>-3.1517608624076487E-4</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>61</v>
       </c>
       <c r="H94" s="25"/>
       <c r="I94" s="25">
-        <f t="shared" ref="I94" si="149">SUM(F14:I14)/I76</f>
-        <v>-0.51134026122926113</v>
+        <f t="shared" ref="I94" si="149">SUM(F14:I14)/(I60-I67)</f>
+        <v>-0.21504068127207893</v>
       </c>
       <c r="J94" s="25">
-        <f t="shared" ref="J94" si="150">SUM(G14:J14)/J76</f>
-        <v>-0.45518809858359904</v>
+        <f t="shared" ref="J94" si="150">SUM(G14:J14)/(J60-J67)</f>
+        <v>-0.1959748790097777</v>
       </c>
       <c r="K94" s="25">
-        <f t="shared" ref="K94" si="151">SUM(H14:K14)/K76</f>
-        <v>-0.36601465519247395</v>
+        <f t="shared" ref="K94" si="151">SUM(H14:K14)/(K60-K67)</f>
+        <v>-0.16958205892044786</v>
       </c>
       <c r="L94" s="25"/>
       <c r="M94" s="25">
-        <f t="shared" ref="M94" si="152">SUM(J14:M14)/M76</f>
-        <v>0.18547091855245265</v>
+        <f t="shared" ref="M94:Q94" si="152">SUM(J14:M14)/(M60-M67)</f>
+        <v>9.7594076956370707E-2</v>
       </c>
       <c r="N94" s="25">
-        <f t="shared" ref="N94" si="153">SUM(K14:N14)/N76</f>
-        <v>0.23056768073198367</v>
+        <f t="shared" si="152"/>
+        <v>0.13149831750324342</v>
       </c>
       <c r="O94" s="25">
-        <f t="shared" ref="O94" si="154">SUM(L14:O14)/O76</f>
-        <v>0.23278891934509452</v>
+        <f t="shared" si="152"/>
+        <v>0.13732350615610517</v>
       </c>
       <c r="P94" s="25">
-        <f t="shared" ref="P94" si="155">SUM(M14:P14)/P76</f>
-        <v>0.19285880364659783</v>
+        <f t="shared" si="152"/>
+        <v>0.10571304565890259</v>
       </c>
       <c r="Q94" s="25">
-        <f>SUM(N14:Q14)/Q76</f>
-        <v>0.14268851624693818</v>
+        <f t="shared" si="152"/>
+        <v>7.8395622692349107E-2</v>
       </c>
       <c r="R94" s="25">
-        <f>SUM(O14:R14)/R76</f>
-        <v>0.10684604640228397</v>
+        <f>SUM(O14:R14)/(R60-R67)</f>
+        <v>5.8865441622757919E-2</v>
       </c>
       <c r="AA94" s="25">
-        <f t="shared" ref="AA94:AB94" si="156">AA14/AA76</f>
-        <v>-0.36601465519247384</v>
+        <f t="shared" ref="AA94:AB94" si="153">AA14/(AA60-AA67)</f>
+        <v>-0.16958205892044784</v>
       </c>
       <c r="AB94" s="25">
-        <f>AB14/AB76</f>
-        <v>0.23278669062716326</v>
-      </c>
-    </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
+        <f>AB14/(AB60-AB67)</f>
+        <v>0.137322730584375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="AA95" s="69"/>
       <c r="AB95" s="69"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B96" s="1" t="s">
         <v>806</v>
       </c>
@@ -11726,7 +11725,7 @@
       <c r="Q96" s="25"/>
       <c r="R96" s="25"/>
       <c r="AA96" s="25">
-        <f t="shared" ref="AA96" si="157">AA52/AA9</f>
+        <f t="shared" ref="AA96" si="154">AA52/AA9</f>
         <v>0.20023255361795636</v>
       </c>
       <c r="AB96" s="25">
@@ -11734,7 +11733,7 @@
         <v>0.14276675535667846</v>
       </c>
     </row>
-    <row r="97" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:47" x14ac:dyDescent="0.2">
       <c r="K97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
@@ -11743,7 +11742,7 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="98" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:47" x14ac:dyDescent="0.2">
       <c r="K98" s="25"/>
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
@@ -11752,45 +11751,45 @@
       <c r="AA98" s="25"/>
       <c r="AB98" s="25"/>
     </row>
-    <row r="100" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B100" s="27" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B101" s="54" t="s">
         <v>815</v>
       </c>
       <c r="I101" s="65">
-        <f t="shared" ref="I101:P101" si="158">I3/H3-1</f>
+        <f t="shared" ref="I101:P101" si="155">I3/H3-1</f>
         <v>-0.28820449048700714</v>
       </c>
       <c r="J101" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>1.1768782082290343</v>
       </c>
       <c r="K101" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>4.6761685836980149E-3</v>
       </c>
       <c r="L101" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>-0.13027499098108597</v>
       </c>
       <c r="M101" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>7.9195991314019887E-2</v>
       </c>
       <c r="N101" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>0.21052330549432452</v>
       </c>
       <c r="O101" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>3.8321500693137889E-2</v>
       </c>
       <c r="P101" s="65">
-        <f t="shared" si="158"/>
+        <f t="shared" si="155"/>
         <v>-0.2022053470017765</v>
       </c>
       <c r="Q101" s="65">
@@ -11798,148 +11797,148 @@
         <v>-9.3269024553847002E-3</v>
       </c>
       <c r="R101" s="65">
-        <f t="shared" ref="R101:R106" si="159">R3/Q3-1</f>
+        <f t="shared" ref="R101:R106" si="156">R3/Q3-1</f>
         <v>0.19557176875918336</v>
       </c>
       <c r="S101" s="106"/>
       <c r="AC101" s="74"/>
     </row>
-    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B102" s="54" t="s">
         <v>816</v>
       </c>
       <c r="I102" s="65">
-        <f t="shared" ref="I102:Q102" si="160">I4/H4-1</f>
+        <f t="shared" ref="I102:Q102" si="157">I4/H4-1</f>
         <v>-0.11731238792873222</v>
       </c>
       <c r="J102" s="65">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>0.61374798070117631</v>
       </c>
       <c r="K102" s="65">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>-0.19357387499288559</v>
       </c>
       <c r="L102" s="65">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>0.28305012268079333</v>
       </c>
       <c r="M102" s="65">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>0.10870191265406226</v>
       </c>
       <c r="N102" s="65">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>-3.7715860040100302E-2</v>
       </c>
       <c r="O102" s="65">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>-0.14253695582285475</v>
       </c>
       <c r="P102" s="65">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>4.9430357136541092E-2</v>
       </c>
       <c r="Q102" s="65">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>0.17039326448620784</v>
       </c>
       <c r="R102" s="65">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>8.2459085790969722E-2</v>
       </c>
       <c r="S102" s="106"/>
       <c r="AC102" s="74"/>
     </row>
-    <row r="103" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B103" s="54" t="s">
         <v>817</v>
       </c>
       <c r="I103" s="65">
-        <f t="shared" ref="I103:Q103" si="161">I5/H5-1</f>
+        <f t="shared" ref="I103:Q103" si="158">I5/H5-1</f>
         <v>-0.1718722323906241</v>
       </c>
       <c r="J103" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>1.5855553971196352</v>
       </c>
       <c r="K103" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>7.5830690748635021E-4</v>
       </c>
       <c r="L103" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>-0.19132052076875383</v>
       </c>
       <c r="M103" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>-5.019762172476061E-2</v>
       </c>
       <c r="N103" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>0.13310852622799385</v>
       </c>
       <c r="O103" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>-0.15588270212513355</v>
       </c>
       <c r="P103" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>-9.2330051570557958E-2</v>
       </c>
       <c r="Q103" s="65">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>2.8924723407341979E-4</v>
       </c>
       <c r="R103" s="65">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.14753539672212401</v>
       </c>
       <c r="S103" s="106"/>
       <c r="AC103" s="74"/>
     </row>
-    <row r="104" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B104" s="58" t="s">
         <v>819</v>
       </c>
       <c r="I104" s="70">
-        <f t="shared" ref="I104:Q104" si="162">I6/H6-1</f>
+        <f t="shared" ref="I104:Q104" si="159">I6/H6-1</f>
         <v>-0.23828539389738534</v>
       </c>
       <c r="J104" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>1.0549972940599743</v>
       </c>
       <c r="K104" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>-3.8935998856132414E-2</v>
       </c>
       <c r="L104" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>-6.1431667318194938E-2</v>
       </c>
       <c r="M104" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>7.4285635721933918E-2</v>
       </c>
       <c r="N104" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>0.13999233628213337</v>
       </c>
       <c r="O104" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>-1.726150932381687E-2</v>
       </c>
       <c r="P104" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>-0.14652505955360839</v>
       </c>
       <c r="Q104" s="70">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>3.3388630685857734E-2</v>
       </c>
       <c r="R104" s="70">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.16210162208287926</v>
       </c>
       <c r="S104" s="111"/>
@@ -11963,97 +11962,97 @@
       <c r="AT104" s="58"/>
       <c r="AU104" s="58"/>
     </row>
-    <row r="105" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B105" s="32" t="s">
         <v>820</v>
       </c>
       <c r="I105" s="65">
-        <f t="shared" ref="I105:Q105" si="163">I7/H7-1</f>
+        <f t="shared" ref="I105:Q105" si="160">I7/H7-1</f>
         <v>-0.68959117130674685</v>
       </c>
       <c r="J105" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>3.0596315449256624</v>
       </c>
       <c r="K105" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>1.170892878468214</v>
       </c>
       <c r="L105" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>-0.60287888511964793</v>
       </c>
       <c r="M105" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>7.4063813085838204E-2</v>
       </c>
       <c r="N105" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.33695885817462701</v>
       </c>
       <c r="O105" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>0.17707964886330751</v>
       </c>
       <c r="P105" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>-0.27328853193465552</v>
       </c>
       <c r="Q105" s="65">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>5.7627246071723981E-2</v>
       </c>
       <c r="R105" s="65">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.17728807535098623</v>
       </c>
     </row>
-    <row r="106" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B106" s="32" t="s">
         <v>821</v>
       </c>
       <c r="I106" s="65">
-        <f t="shared" ref="I106:Q106" si="164">I8/H8-1</f>
+        <f t="shared" ref="I106:Q106" si="161">I8/H8-1</f>
         <v>-5.2339367300907602E-3</v>
       </c>
       <c r="J106" s="65">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>7.8805848667189871E-2</v>
       </c>
       <c r="K106" s="65">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>-0.14270316878637646</v>
       </c>
       <c r="L106" s="65">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>-1.0297334674377672</v>
       </c>
       <c r="M106" s="65">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>-0.93234672304439747</v>
       </c>
       <c r="N106" s="65">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>-3.171875</v>
       </c>
       <c r="O106" s="65">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>30.97122302158273</v>
       </c>
       <c r="P106" s="65">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>-4.5904590459045824E-2</v>
       </c>
       <c r="Q106" s="65">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>0.98396226415094357</v>
       </c>
       <c r="R106" s="65">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>0.84165477888730389</v>
       </c>
     </row>
-    <row r="108" spans="2:47" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B108" s="1" t="s">
         <v>826</v>
       </c>
@@ -12062,119 +12061,119 @@
         <v>0.59414882180942552</v>
       </c>
       <c r="I108" s="25">
-        <f t="shared" ref="I108:S108" si="165">I12/I9</f>
+        <f t="shared" ref="I108:S108" si="162">I12/I9</f>
         <v>0.67817816969080325</v>
       </c>
       <c r="J108" s="25">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.38628115010177799</v>
       </c>
       <c r="K108" s="25">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.41729034611181637</v>
       </c>
       <c r="L108" s="25">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.40935415746960502</v>
       </c>
       <c r="M108" s="25">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.40324771703856505</v>
       </c>
       <c r="N108" s="25">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.38781726939332217</v>
       </c>
       <c r="O108" s="25">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.44184134893621202</v>
       </c>
       <c r="P108" s="25">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.45693399797839268</v>
       </c>
       <c r="Q108" s="25">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.44157808009594857</v>
       </c>
       <c r="R108" s="25">
-        <f t="shared" ref="R108" si="166">R12/R9</f>
+        <f t="shared" ref="R108" si="163">R12/R9</f>
         <v>0.37767943655349662</v>
       </c>
       <c r="S108" s="103">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>0.42895725935022022</v>
       </c>
       <c r="V108" s="25">
-        <f t="shared" ref="V108:AM108" si="167">V12/V9</f>
+        <f t="shared" ref="V108:AM108" si="164">V12/V9</f>
         <v>0.37771430114149451</v>
       </c>
       <c r="W108" s="25">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.37760351403197812</v>
       </c>
       <c r="X108" s="25">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.42080964570985102</v>
       </c>
       <c r="Y108" s="25">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.42023132239656397</v>
       </c>
       <c r="Z108" s="25">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.42409417497036345</v>
       </c>
       <c r="AA108" s="25">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.48538449900294256</v>
       </c>
       <c r="AB108" s="25">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.41078648134782536</v>
       </c>
       <c r="AC108" s="71">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.37352786459200688</v>
       </c>
       <c r="AD108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.3898998698173477</v>
       </c>
       <c r="AE108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.40687889459616033</v>
       </c>
       <c r="AF108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.42449147926761222</v>
       </c>
       <c r="AG108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.44276401542814858</v>
       </c>
       <c r="AH108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.46172244331878237</v>
       </c>
       <c r="AI108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.48172478086605175</v>
       </c>
       <c r="AJ108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.48238207549596013</v>
       </c>
       <c r="AK108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.48294740632301031</v>
       </c>
       <c r="AL108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.48343346744763499</v>
       </c>
       <c r="AM108" s="65">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>0.4838512463586328</v>
       </c>
     </row>
@@ -12209,16 +12208,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="1"/>
-    <col min="5" max="5" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -12235,7 +12234,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12252,7 +12251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12269,7 +12268,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12286,7 +12285,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12303,7 +12302,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12320,7 +12319,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12337,7 +12336,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12354,7 +12353,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12388,7 +12387,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12405,7 +12404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12422,7 +12421,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12439,7 +12438,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12456,7 +12455,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12490,7 +12489,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12507,7 +12506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12524,7 +12523,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12558,7 +12557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12575,7 +12574,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12592,7 +12591,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12609,7 +12608,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12626,7 +12625,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12660,7 +12659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12677,7 +12676,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12694,7 +12693,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12711,7 +12710,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12728,7 +12727,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -12745,7 +12744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12762,7 +12761,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12779,7 +12778,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12813,7 +12812,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12830,7 +12829,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12847,7 +12846,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12864,7 +12863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12881,7 +12880,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12898,7 +12897,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12915,7 +12914,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12949,7 +12948,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12966,7 +12965,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12983,7 +12982,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -13000,7 +12999,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13017,7 +13016,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13034,7 +13033,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13051,7 +13050,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13068,7 +13067,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13085,7 +13084,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13102,7 +13101,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13136,7 +13135,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13153,7 +13152,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13170,7 +13169,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13187,7 +13186,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13204,7 +13203,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13221,7 +13220,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13238,7 +13237,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13255,7 +13254,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13272,7 +13271,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -13289,7 +13288,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -13306,7 +13305,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -13323,7 +13322,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13340,7 +13339,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -13357,7 +13356,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13374,7 +13373,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -13391,7 +13390,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -13408,7 +13407,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -13425,7 +13424,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -13442,7 +13441,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -13459,7 +13458,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -13476,7 +13475,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -13493,7 +13492,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -13527,7 +13526,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -13544,7 +13543,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -13561,7 +13560,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -13578,7 +13577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -13595,7 +13594,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -13612,7 +13611,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -13629,7 +13628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -13646,7 +13645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -13663,7 +13662,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -13680,7 +13679,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -13697,7 +13696,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -13714,7 +13713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -13731,7 +13730,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -13748,7 +13747,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -13765,7 +13764,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -13782,7 +13781,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -13799,7 +13798,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -13816,7 +13815,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -13850,7 +13849,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -13867,7 +13866,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -13884,7 +13883,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -13901,7 +13900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -13918,7 +13917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -13935,7 +13934,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -13952,7 +13951,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -13969,7 +13968,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -13986,7 +13985,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -14003,7 +14002,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -14020,7 +14019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -14037,7 +14036,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -14054,7 +14053,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -14071,7 +14070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -14088,7 +14087,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -14105,7 +14104,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -14122,7 +14121,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -14139,7 +14138,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -14156,7 +14155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -14173,7 +14172,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -14190,7 +14189,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -14207,7 +14206,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -14224,7 +14223,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -14241,7 +14240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -14258,7 +14257,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -14275,7 +14274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -14292,7 +14291,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -14309,7 +14308,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -14326,7 +14325,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -14343,7 +14342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -14360,7 +14359,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -14377,7 +14376,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -14394,7 +14393,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -14411,7 +14410,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -14428,7 +14427,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -14445,7 +14444,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -14462,7 +14461,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -14479,7 +14478,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -14513,7 +14512,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -14530,7 +14529,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -14547,7 +14546,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -14564,7 +14563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -14581,7 +14580,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -14598,7 +14597,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -14615,7 +14614,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -14632,7 +14631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14649,7 +14648,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14683,7 +14682,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -14700,7 +14699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -14717,7 +14716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -14734,7 +14733,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -14751,7 +14750,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -14768,7 +14767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -14785,7 +14784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -14802,7 +14801,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -14819,7 +14818,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -14836,7 +14835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -14853,7 +14852,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -14870,7 +14869,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -14887,7 +14886,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -14904,7 +14903,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -14921,7 +14920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -14938,7 +14937,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -14955,7 +14954,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -14972,7 +14971,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -14989,7 +14988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -15006,7 +15005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -15023,7 +15022,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -15040,7 +15039,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -15057,7 +15056,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -15074,7 +15073,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -15091,7 +15090,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -15108,7 +15107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -15125,7 +15124,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -15142,7 +15141,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -15159,7 +15158,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -15193,7 +15192,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -15210,7 +15209,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -15227,7 +15226,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -15261,7 +15260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -15278,7 +15277,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -15295,7 +15294,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -15312,7 +15311,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -15329,7 +15328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -15346,7 +15345,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -15363,7 +15362,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -15380,7 +15379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -15397,7 +15396,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -15414,7 +15413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -15431,7 +15430,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -15448,7 +15447,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -15465,7 +15464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -15482,7 +15481,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -15499,7 +15498,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -15516,7 +15515,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -15533,7 +15532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -15550,7 +15549,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -15567,7 +15566,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -15584,7 +15583,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -15601,7 +15600,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -15618,7 +15617,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -15635,7 +15634,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -15652,7 +15651,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -15669,7 +15668,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -15686,7 +15685,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -15703,7 +15702,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -15720,7 +15719,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -15737,7 +15736,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -15754,7 +15753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -15771,7 +15770,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -15788,7 +15787,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -15805,7 +15804,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -15822,7 +15821,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -15839,7 +15838,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -15873,7 +15872,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -15890,7 +15889,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -15907,7 +15906,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -15941,7 +15940,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -15958,7 +15957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -15975,7 +15974,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -15992,7 +15991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -16009,7 +16008,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -16026,7 +16025,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -16043,7 +16042,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -16060,7 +16059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -16077,7 +16076,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -16111,7 +16110,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -16128,7 +16127,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -16145,7 +16144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -16162,7 +16161,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -16179,7 +16178,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -16196,7 +16195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -16213,7 +16212,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -16230,7 +16229,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -16247,7 +16246,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -16264,7 +16263,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -16281,7 +16280,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -16298,7 +16297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -16315,7 +16314,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -16332,7 +16331,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -16349,7 +16348,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -16366,7 +16365,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -16383,7 +16382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -16397,7 +16396,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -16414,7 +16413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -16431,7 +16430,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -16448,7 +16447,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -16465,7 +16464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -16482,7 +16481,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -16499,7 +16498,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -16516,7 +16515,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -16533,7 +16532,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -16550,7 +16549,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -16564,7 +16563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -16581,7 +16580,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -16598,7 +16597,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -16615,7 +16614,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -16632,7 +16631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -16649,7 +16648,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -16666,7 +16665,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -16683,7 +16682,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -16700,7 +16699,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -16717,7 +16716,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -16734,7 +16733,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -16768,7 +16767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -16785,7 +16784,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -16802,7 +16801,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -16836,7 +16835,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -16853,7 +16852,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -16870,7 +16869,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -16887,7 +16886,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -16904,7 +16903,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -16921,7 +16920,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -16938,7 +16937,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -16955,7 +16954,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -16972,7 +16971,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -16989,7 +16988,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -17006,7 +17005,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -17023,7 +17022,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -17040,7 +17039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -17057,7 +17056,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -17091,7 +17090,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -17108,7 +17107,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -17125,7 +17124,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -17142,7 +17141,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -17159,7 +17158,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -17176,7 +17175,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -17193,7 +17192,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -17210,7 +17209,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -17227,7 +17226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -17244,7 +17243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -17261,7 +17260,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -17278,7 +17277,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -17295,7 +17294,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -17329,7 +17328,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -17346,7 +17345,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -17363,7 +17362,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -17380,7 +17379,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -17397,7 +17396,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -17414,7 +17413,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -17431,7 +17430,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -17448,7 +17447,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -17465,7 +17464,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -17482,7 +17481,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -17499,7 +17498,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -17516,7 +17515,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -17533,7 +17532,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -17550,7 +17549,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -17567,7 +17566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -17584,7 +17583,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -17601,7 +17600,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -17618,7 +17617,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -17635,7 +17634,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -17652,7 +17651,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -17669,7 +17668,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -17686,7 +17685,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -17703,7 +17702,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -17720,7 +17719,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -17737,7 +17736,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -17754,7 +17753,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -17771,7 +17770,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -17788,7 +17787,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -17805,7 +17804,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -17822,7 +17821,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -17839,7 +17838,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -17856,7 +17855,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -17873,7 +17872,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -17890,7 +17889,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -17907,7 +17906,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -17924,7 +17923,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -17941,7 +17940,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -17958,7 +17957,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -17975,7 +17974,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -17992,7 +17991,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -18009,7 +18008,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -18026,7 +18025,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -18043,7 +18042,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -18060,7 +18059,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -18077,7 +18076,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -18094,7 +18093,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -18111,7 +18110,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -18128,7 +18127,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -18145,7 +18144,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -18162,7 +18161,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -18179,7 +18178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -18196,7 +18195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -18213,7 +18212,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -18230,7 +18229,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -18247,7 +18246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -18264,7 +18263,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -18281,7 +18280,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -18298,7 +18297,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -18315,7 +18314,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -18332,7 +18331,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -18349,7 +18348,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -18366,7 +18365,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -18383,7 +18382,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -18400,7 +18399,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -18417,7 +18416,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -18434,7 +18433,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -18451,7 +18450,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -18468,7 +18467,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -18485,7 +18484,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -18502,7 +18501,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -18519,7 +18518,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -18536,7 +18535,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -18553,7 +18552,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -18570,7 +18569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -18587,7 +18586,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -18604,7 +18603,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -18621,7 +18620,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -18638,7 +18637,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -18655,7 +18654,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -18672,7 +18671,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -18689,7 +18688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -18706,7 +18705,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -18723,7 +18722,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -18740,7 +18739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -18757,7 +18756,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -18774,7 +18773,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -18791,7 +18790,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -18808,7 +18807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -18825,7 +18824,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -18842,7 +18841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -18859,7 +18858,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -18876,7 +18875,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -18893,7 +18892,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -18910,7 +18909,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -18927,7 +18926,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -18944,7 +18943,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -18961,7 +18960,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -18978,7 +18977,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -18995,7 +18994,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -19012,7 +19011,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -19029,7 +19028,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -19046,7 +19045,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -19063,7 +19062,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -19080,7 +19079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -19097,7 +19096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -19114,7 +19113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -19131,7 +19130,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -19148,7 +19147,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -19165,7 +19164,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -19182,7 +19181,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -19199,7 +19198,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -19216,7 +19215,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -19233,7 +19232,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -19250,7 +19249,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -19267,7 +19266,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -19284,7 +19283,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -19301,7 +19300,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -19318,7 +19317,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -19335,7 +19334,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -19352,7 +19351,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -19369,7 +19368,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -19386,7 +19385,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -19403,7 +19402,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -19420,7 +19419,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -19437,7 +19436,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -19454,7 +19453,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -19471,7 +19470,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -19488,7 +19487,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -19505,7 +19504,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -19522,7 +19521,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -19539,7 +19538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -19556,7 +19555,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -19573,7 +19572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -19590,7 +19589,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -19607,7 +19606,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -19624,7 +19623,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -19641,7 +19640,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -19658,7 +19657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -19675,7 +19674,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -19692,7 +19691,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -19709,7 +19708,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -19726,7 +19725,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -19743,7 +19742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -19760,7 +19759,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -19777,7 +19776,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -19794,7 +19793,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -19811,7 +19810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -19828,7 +19827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -19845,7 +19844,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -19862,7 +19861,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -19879,7 +19878,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -19896,7 +19895,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -19913,7 +19912,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -19930,7 +19929,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -19947,7 +19946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -19964,7 +19963,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -19981,7 +19980,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -19998,7 +19997,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -20015,7 +20014,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -20032,7 +20031,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -20049,7 +20048,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -20066,7 +20065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -20083,7 +20082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -20100,7 +20099,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -20117,7 +20116,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -20134,7 +20133,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -20151,7 +20150,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -20168,7 +20167,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -20185,7 +20184,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -20202,7 +20201,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -20219,7 +20218,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -20236,7 +20235,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -20253,7 +20252,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -20270,7 +20269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -20287,7 +20286,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -20304,7 +20303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -20321,7 +20320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -20338,7 +20337,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -20355,7 +20354,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -20372,7 +20371,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -20389,7 +20388,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -20406,7 +20405,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -20423,7 +20422,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -20440,7 +20439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -20457,7 +20456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -20474,7 +20473,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -20491,7 +20490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -20508,7 +20507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -20525,7 +20524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -20542,7 +20541,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -20559,7 +20558,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -20576,7 +20575,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -20593,7 +20592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -20610,7 +20609,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -20627,7 +20626,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -20644,7 +20643,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -20661,7 +20660,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -20678,7 +20677,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -20695,7 +20694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -20712,7 +20711,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -20729,7 +20728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -20746,7 +20745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -20763,7 +20762,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -20780,7 +20779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -20814,7 +20813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -20831,7 +20830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -20848,7 +20847,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -20865,7 +20864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -20882,7 +20881,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -20899,7 +20898,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -20916,7 +20915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -20933,7 +20932,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -20950,7 +20949,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -20967,7 +20966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -20984,7 +20983,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -21001,7 +21000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -21018,7 +21017,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -21035,7 +21034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -21052,7 +21051,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -21069,7 +21068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -21086,7 +21085,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -21103,7 +21102,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -21120,7 +21119,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -21137,7 +21136,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -21154,7 +21153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -21171,7 +21170,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -21188,7 +21187,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -21205,7 +21204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -21222,7 +21221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -21236,7 +21235,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -21253,7 +21252,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -21270,7 +21269,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -21287,7 +21286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -21304,7 +21303,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -21321,7 +21320,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -21338,7 +21337,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -21355,7 +21354,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -21372,7 +21371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -21389,7 +21388,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -21406,7 +21405,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -21423,7 +21422,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -21440,7 +21439,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -21457,7 +21456,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -21474,7 +21473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -21491,7 +21490,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -21508,7 +21507,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -21525,7 +21524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -21542,7 +21541,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -21559,7 +21558,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -21576,7 +21575,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -21593,7 +21592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -21610,7 +21609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -21627,7 +21626,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -21644,7 +21643,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -21661,7 +21660,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -21678,7 +21677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -21695,7 +21694,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -21712,7 +21711,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -21729,7 +21728,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -21746,7 +21745,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -21763,7 +21762,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -21780,7 +21779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -21797,7 +21796,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -21814,7 +21813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -21831,7 +21830,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -21848,7 +21847,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -21865,7 +21864,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -21882,7 +21881,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -21899,7 +21898,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -21916,7 +21915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -21933,7 +21932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -21950,7 +21949,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -21967,7 +21966,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -21984,7 +21983,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -22001,7 +22000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -22018,7 +22017,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -22035,7 +22034,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -22052,7 +22051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -22069,7 +22068,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -22086,7 +22085,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -22103,7 +22102,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -22120,7 +22119,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -22137,7 +22136,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -22154,7 +22153,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -22171,7 +22170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -22188,7 +22187,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -22205,7 +22204,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -22222,7 +22221,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -22239,7 +22238,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -22256,7 +22255,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -22273,7 +22272,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -22290,7 +22289,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -22307,7 +22306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -22324,7 +22323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -22341,7 +22340,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -22358,7 +22357,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -22375,7 +22374,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -22392,7 +22391,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -22409,7 +22408,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -22426,7 +22425,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -22443,7 +22442,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>

--- a/$UA.xlsx
+++ b/$UA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\me\Documents\Google Drive\Stocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642F7E65-58B7-46C1-834C-EA01E0190D21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2E586C-1EE1-724D-A181-A2BFE3A28C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="29835" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29840" windowHeight="18900" activeTab="1" xr2:uid="{3265DF36-E7D5-4329-9534-E494E2238873}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,16 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,19 +46,10 @@
   <commentList>
     <comment ref="P1" authorId="0" shapeId="0" xr:uid="{8ACEE0A3-8BF3-B24E-8FC5-017F24C1AE12}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
+        <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Quarter Transition, Changed FQ system</t>
-        </r>
       </text>
     </comment>
     <comment ref="R1" authorId="1" shapeId="0" xr:uid="{D0F8F999-EE4D-45ED-AFC6-0DE77E9F385C}">
@@ -3093,18 +3094,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -3195,11 +3190,17 @@
     <xf numFmtId="168" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -3873,50 +3874,50 @@
       <selection activeCell="C36" sqref="C36:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:23" ht="15" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F2"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="118" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B5" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="119"/>
-      <c r="D5" s="120"/>
-      <c r="G5" s="118" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="114"/>
+      <c r="G5" s="112" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
-      <c r="N5" s="119"/>
-      <c r="O5" s="119"/>
-      <c r="P5" s="120"/>
-      <c r="R5" s="115" t="s">
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="113"/>
+      <c r="M5" s="113"/>
+      <c r="N5" s="113"/>
+      <c r="O5" s="113"/>
+      <c r="P5" s="114"/>
+      <c r="R5" s="109" t="s">
         <v>754</v>
       </c>
-      <c r="S5" s="116"/>
-      <c r="T5" s="116"/>
-      <c r="U5" s="116"/>
-      <c r="V5" s="116"/>
-      <c r="W5" s="117"/>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="111"/>
+    </row>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>5</v>
       </c>
@@ -4050,7 +4051,7 @@
         <v>-0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
@@ -4140,7 +4141,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B11" s="4" t="s">
         <v>8</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>-0.6875</v>
       </c>
     </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
@@ -4226,7 +4227,7 @@
         <v>-0.61538461538461542</v>
       </c>
     </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G13" s="52">
         <v>44774</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>-0.23076923076923073</v>
       </c>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G14" s="63"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -4298,12 +4299,12 @@
         <v>-0.46153846153846156</v>
       </c>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="118" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B15" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="120"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="114"/>
       <c r="G15" s="52">
         <v>44743</v>
       </c>
@@ -4341,14 +4342,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="121" t="s">
+      <c r="C16" s="115" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="122"/>
+      <c r="D16" s="116"/>
       <c r="G16" s="63"/>
       <c r="H16" s="61" t="s">
         <v>784</v>
@@ -4384,14 +4385,14 @@
         <v>-0.3571428571428571</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="121" t="s">
+      <c r="C17" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="122"/>
+      <c r="D17" s="116"/>
       <c r="G17" s="63"/>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -4425,14 +4426,14 @@
         <v>-0.10526315789473684</v>
       </c>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="121" t="s">
+      <c r="C18" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="122"/>
+      <c r="D18" s="116"/>
       <c r="G18" s="52">
         <v>44682</v>
       </c>
@@ -4470,14 +4471,14 @@
         <v>0.45454545454545459</v>
       </c>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B19" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="124"/>
+      <c r="D19" s="118"/>
       <c r="E19" s="1" t="s">
         <v>773</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>-0.19999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G20" s="63"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -4550,7 +4551,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.15">
       <c r="G21" s="52">
         <v>44593</v>
       </c>
@@ -4588,12 +4589,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B22" s="118" t="s">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B22" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="119"/>
-      <c r="D22" s="120"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="114"/>
       <c r="G22" s="63"/>
       <c r="H22" s="61" t="s">
         <v>793</v>
@@ -4629,14 +4630,14 @@
         <v>-0.26666666666666672</v>
       </c>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="121" t="s">
+      <c r="C23" s="115" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="122"/>
+      <c r="D23" s="116"/>
       <c r="G23" s="63"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -4670,14 +4671,14 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="121">
+      <c r="C24" s="115">
         <v>1996</v>
       </c>
-      <c r="D24" s="122"/>
+      <c r="D24" s="116"/>
       <c r="G24" s="14" t="s">
         <v>31</v>
       </c>
@@ -4715,7 +4716,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B25" s="14"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4752,15 +4753,15 @@
         <v>1.1666666666666665</v>
       </c>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B26" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="121">
+      <c r="C26" s="115">
         <f>'Financial Model'!R45</f>
         <v>437</v>
       </c>
-      <c r="D26" s="122"/>
+      <c r="D26" s="116"/>
       <c r="G26" s="52">
         <v>44228</v>
       </c>
@@ -4798,15 +4799,15 @@
         <v>0.36842105263157898</v>
       </c>
     </row>
-    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B27" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C27" s="125">
+      <c r="C27" s="119">
         <f>'Financial Model'!R52</f>
         <v>1080.42</v>
       </c>
-      <c r="D27" s="126"/>
+      <c r="D27" s="120"/>
       <c r="G27" s="63"/>
       <c r="H27" s="61" t="s">
         <v>781</v>
@@ -4842,7 +4843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="8"/>
       <c r="D28" s="9"/>
@@ -4879,14 +4880,14 @@
         <v>1.3333333333333335</v>
       </c>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="93" t="s">
         <v>831</v>
       </c>
-      <c r="D29" s="112">
+      <c r="D29" s="106">
         <v>44868</v>
       </c>
       <c r="R29" s="37">
@@ -4912,14 +4913,14 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="132"/>
+      <c r="D30" s="126"/>
       <c r="R30" s="37">
         <v>2020</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R31" s="37">
         <v>2020</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R32" s="37">
         <v>2020</v>
       </c>
@@ -4991,12 +4992,12 @@
         <v>-0.80487804878048785</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B33" s="118" t="s">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B33" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="120"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="114"/>
       <c r="R33" s="37">
         <v>2020</v>
       </c>
@@ -5020,15 +5021,15 @@
         <v>-0.82954545454545459</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B34" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="129">
+      <c r="C34" s="123">
         <f>C12/SUM('Financial Model'!O20:R20)</f>
         <v>24.790599499495396</v>
       </c>
-      <c r="D34" s="130"/>
+      <c r="D34" s="124"/>
       <c r="R34" s="37">
         <v>2020</v>
       </c>
@@ -5052,15 +5053,15 @@
         <v>0.66666666666666674</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B35" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="129">
+      <c r="C35" s="123">
         <f>C6/SUM('Financial Model'!O21:R21)</f>
         <v>26.576806095253207</v>
       </c>
-      <c r="D35" s="130"/>
+      <c r="D35" s="124"/>
       <c r="R35" s="37">
         <v>2020</v>
       </c>
@@ -5084,15 +5085,15 @@
         <v>-0.16666666666666663</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="133">
+      <c r="C36" s="127">
         <f>'Financial Model'!R94</f>
         <v>5.8865441622757919E-2</v>
       </c>
-      <c r="D36" s="122"/>
+      <c r="D36" s="116"/>
       <c r="R36" s="37">
         <v>2020</v>
       </c>
@@ -5116,15 +5117,15 @@
         <v>1.6666666666666665</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B37" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="C37" s="129">
+      <c r="C37" s="123">
         <f>C6/'Financial Model'!Q77</f>
         <v>2.1978320161703082</v>
       </c>
-      <c r="D37" s="130"/>
+      <c r="D37" s="124"/>
       <c r="R37" s="37">
         <v>2020</v>
       </c>
@@ -5148,15 +5149,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B38" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="C38" s="134">
+      <c r="C38" s="128">
         <f>C8/SUM('Financial Model'!O9:R9)</f>
         <v>0.65466176796755549</v>
       </c>
-      <c r="D38" s="135"/>
+      <c r="D38" s="129"/>
       <c r="R38" s="37">
         <v>2019</v>
       </c>
@@ -5180,15 +5181,15 @@
         <v>1.7142857142857144</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B39" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C39" s="134">
+      <c r="C39" s="128">
         <f>C12/SUM('Financial Model'!O9:R9)</f>
         <v>0.62332731338209091</v>
       </c>
-      <c r="D39" s="135"/>
+      <c r="D39" s="129"/>
       <c r="R39" s="37">
         <v>2019</v>
       </c>
@@ -5212,7 +5213,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B40" s="14"/>
       <c r="C40" s="8"/>
       <c r="D40" s="9"/>
@@ -5239,15 +5240,15 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.15">
       <c r="B41" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="C41" s="127">
+      <c r="C41" s="121">
         <f>C6/'Financial Model'!AB21</f>
         <v>10.717736377270443</v>
       </c>
-      <c r="D41" s="128"/>
+      <c r="D41" s="122"/>
       <c r="R41" s="37">
         <v>2019</v>
       </c>
@@ -5271,7 +5272,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R42" s="37">
         <v>2019</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R43" s="37">
         <v>2019</v>
       </c>
@@ -5319,7 +5320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R44" s="37">
         <v>2019</v>
       </c>
@@ -5343,7 +5344,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R45" s="37">
         <v>2019</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R46" s="37">
         <v>2019</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R47" s="37">
         <v>2019</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.15">
       <c r="R48" s="37">
         <v>2019</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R49" s="37">
         <v>2019</v>
       </c>
@@ -5462,7 +5463,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="50" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R50" s="37">
         <v>2018</v>
       </c>
@@ -5485,7 +5486,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R51" s="37">
         <v>2018</v>
       </c>
@@ -5508,7 +5509,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R52" s="37">
         <v>2018</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R53" s="37">
         <v>2018</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R54" s="37">
         <v>2018</v>
       </c>
@@ -5577,7 +5578,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R55" s="37">
         <v>2018</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R56" s="37">
         <v>2018</v>
       </c>
@@ -5623,7 +5624,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R57" s="37">
         <v>2018</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R58" s="37">
         <v>2018</v>
       </c>
@@ -5669,7 +5670,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R59" s="37">
         <v>2018</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="60" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R60" s="37">
         <v>2018</v>
       </c>
@@ -5713,7 +5714,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="18:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="18:23" x14ac:dyDescent="0.15">
       <c r="R61" s="45">
         <v>2018</v>
       </c>
@@ -5913,27 +5914,27 @@
   <dimension ref="A1:BS108"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F55" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB94" sqref="AA94:AB94"/>
+      <selection pane="bottomRight" activeCell="AO30" sqref="AO30:AP30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.140625" style="1" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="106"/>
-    <col min="20" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.140625" style="74"/>
-    <col min="30" max="47" width="9.140625" style="32"/>
-    <col min="48" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="9.1640625" style="1"/>
+    <col min="13" max="13" width="9.1640625" style="1" customWidth="1"/>
+    <col min="14" max="18" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="9.1640625" style="100"/>
+    <col min="20" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="9.1640625" style="74"/>
+    <col min="30" max="47" width="9.1640625" style="32"/>
+    <col min="48" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:47" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
@@ -5979,7 +5980,7 @@
       <c r="R1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="100" t="s">
+      <c r="S1" s="94" t="s">
         <v>32</v>
       </c>
       <c r="T1" s="16" t="s">
@@ -6064,7 +6065,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:47" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="17"/>
       <c r="H2" s="24">
         <v>43921</v>
@@ -6099,7 +6100,7 @@
       <c r="R2" s="24">
         <v>44834</v>
       </c>
-      <c r="S2" s="101" t="s">
+      <c r="S2" s="95" t="s">
         <v>811</v>
       </c>
       <c r="V2" s="24">
@@ -6145,7 +6146,7 @@
       <c r="AT2" s="81"/>
       <c r="AU2" s="81"/>
     </row>
-    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B3" s="54" t="s">
         <v>764</v>
       </c>
@@ -6186,7 +6187,7 @@
       <c r="R3" s="56">
         <v>1038.268</v>
       </c>
-      <c r="S3" s="102"/>
+      <c r="S3" s="96"/>
       <c r="T3" s="56"/>
       <c r="U3" s="56"/>
       <c r="V3" s="56">
@@ -6221,7 +6222,7 @@
       <c r="AI3" s="65"/>
       <c r="AJ3" s="65"/>
     </row>
-    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:47" s="54" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="54" t="s">
         <v>765</v>
       </c>
@@ -6262,7 +6263,7 @@
       <c r="R4" s="56">
         <v>375.88499999999999</v>
       </c>
-      <c r="S4" s="102"/>
+      <c r="S4" s="96"/>
       <c r="T4" s="56"/>
       <c r="U4" s="56"/>
       <c r="V4" s="56">
@@ -6297,7 +6298,7 @@
       <c r="AI4" s="65"/>
       <c r="AJ4" s="65"/>
     </row>
-    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:47" s="57" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="54" t="s">
         <v>766</v>
       </c>
@@ -6338,7 +6339,7 @@
       <c r="R5" s="56">
         <v>111.117</v>
       </c>
-      <c r="S5" s="103"/>
+      <c r="S5" s="97"/>
       <c r="T5" s="56"/>
       <c r="U5" s="56"/>
       <c r="V5" s="56">
@@ -6373,7 +6374,7 @@
       <c r="AI5" s="65"/>
       <c r="AJ5" s="65"/>
     </row>
-    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="58" t="s">
         <v>769</v>
       </c>
@@ -6425,7 +6426,7 @@
         <f t="shared" si="0"/>
         <v>1525.27</v>
       </c>
-      <c r="S6" s="104"/>
+      <c r="S6" s="98"/>
       <c r="T6" s="55"/>
       <c r="U6" s="55"/>
       <c r="V6" s="55">
@@ -6501,7 +6502,7 @@
         <v>39108.173209764078</v>
       </c>
     </row>
-    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="32" t="s">
         <v>768</v>
       </c>
@@ -6542,7 +6543,7 @@
       <c r="R7" s="56">
         <v>33.122999999999998</v>
       </c>
-      <c r="S7" s="105"/>
+      <c r="S7" s="99"/>
       <c r="T7" s="56"/>
       <c r="U7" s="56"/>
       <c r="V7" s="56">
@@ -6611,7 +6612,7 @@
         <v>185.20316610694189</v>
       </c>
     </row>
-    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="32" t="s">
         <v>767</v>
       </c>
@@ -6652,7 +6653,7 @@
       <c r="R8" s="56">
         <v>15.492000000000001</v>
       </c>
-      <c r="S8" s="105"/>
+      <c r="S8" s="99"/>
       <c r="T8" s="56"/>
       <c r="U8" s="56"/>
       <c r="V8" s="56">
@@ -6722,7 +6723,7 @@
         <v>19.953633686836341</v>
       </c>
     </row>
-    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
@@ -6759,7 +6760,7 @@
       <c r="R9" s="21">
         <v>1573.885</v>
       </c>
-      <c r="S9" s="104">
+      <c r="S9" s="98">
         <f>Q9*1.065</f>
         <v>1436.745705</v>
       </c>
@@ -6841,7 +6842,7 @@
       <c r="AT9" s="58"/>
       <c r="AU9" s="58"/>
     </row>
-    <row r="10" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
@@ -6878,7 +6879,7 @@
       <c r="R10" s="62">
         <v>860.05100000000004</v>
       </c>
-      <c r="S10" s="105">
+      <c r="S10" s="99">
         <f>Q10*1.03</f>
         <v>740.42579999999998</v>
       </c>
@@ -6948,7 +6949,7 @@
         <v>18673.83175453998</v>
       </c>
     </row>
-    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>70</v>
       </c>
@@ -6996,7 +6997,7 @@
         <f t="shared" si="12"/>
         <v>713.83399999999995</v>
       </c>
-      <c r="S11" s="104">
+      <c r="S11" s="98">
         <f t="shared" si="12"/>
         <v>696.31990500000006</v>
       </c>
@@ -7081,7 +7082,7 @@
       <c r="AT11" s="58"/>
       <c r="AU11" s="58"/>
     </row>
-    <row r="12" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>71</v>
       </c>
@@ -7118,7 +7119,7 @@
       <c r="R12" s="62">
         <v>594.42399999999998</v>
       </c>
-      <c r="S12" s="105">
+      <c r="S12" s="99">
         <f>AVERAGE(N12:Q12)</f>
         <v>616.30250000000001</v>
       </c>
@@ -7188,7 +7189,7 @@
         <v>19021.803723632809</v>
       </c>
     </row>
-    <row r="13" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
         <v>72</v>
       </c>
@@ -7225,7 +7226,7 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="106">
+      <c r="S13" s="100">
         <v>0</v>
       </c>
       <c r="V13" s="22">
@@ -7294,7 +7295,7 @@
         <v>65.793806395201273</v>
       </c>
     </row>
-    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
         <v>73</v>
       </c>
@@ -7342,7 +7343,7 @@
         <f t="shared" si="19"/>
         <v>119.40999999999997</v>
       </c>
-      <c r="S14" s="104">
+      <c r="S14" s="98">
         <f t="shared" si="19"/>
         <v>80.017405000000053</v>
       </c>
@@ -7427,7 +7428,7 @@
       <c r="AT14" s="58"/>
       <c r="AU14" s="58"/>
     </row>
-    <row r="15" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>77</v>
       </c>
@@ -7464,7 +7465,7 @@
       <c r="R15" s="62">
         <v>-3.5550000000000002</v>
       </c>
-      <c r="S15" s="106">
+      <c r="S15" s="100">
         <v>-5.5</v>
       </c>
       <c r="V15" s="22">
@@ -7533,7 +7534,7 @@
         <v>-40.113157469251853</v>
       </c>
     </row>
-    <row r="16" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>78</v>
       </c>
@@ -7570,7 +7571,7 @@
       <c r="R16" s="62">
         <v>-5.7709999999999999</v>
       </c>
-      <c r="S16" s="105">
+      <c r="S16" s="99">
         <f>AVERAGE(N16:Q16)</f>
         <v>-4.9327500000000004</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>79</v>
       </c>
@@ -7688,7 +7689,7 @@
         <f t="shared" si="25"/>
         <v>110.08399999999996</v>
       </c>
-      <c r="S17" s="105">
+      <c r="S17" s="99">
         <f t="shared" si="25"/>
         <v>69.584655000000055</v>
       </c>
@@ -7765,7 +7766,7 @@
         <v>1511.7875675206099</v>
       </c>
     </row>
-    <row r="18" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
@@ -7802,7 +7803,7 @@
       <c r="R18" s="62">
         <v>22.251000000000001</v>
       </c>
-      <c r="S18" s="105">
+      <c r="S18" s="99">
         <f>S17*0.4</f>
         <v>27.833862000000025</v>
       </c>
@@ -7872,7 +7873,7 @@
         <v>226.76813512809147</v>
       </c>
     </row>
-    <row r="19" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>80</v>
       </c>
@@ -7909,7 +7910,7 @@
       <c r="R19" s="62">
         <v>-0.90800000000000003</v>
       </c>
-      <c r="S19" s="105">
+      <c r="S19" s="99">
         <f>AVERAGE(N19:Q19)</f>
         <v>-0.20025000000000001</v>
       </c>
@@ -7979,7 +7980,7 @@
         <v>-8.3219074865264719</v>
       </c>
     </row>
-    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
@@ -8027,7 +8028,7 @@
         <f t="shared" si="31"/>
         <v>86.924999999999955</v>
       </c>
-      <c r="S20" s="107">
+      <c r="S20" s="101">
         <f t="shared" si="31"/>
         <v>41.550543000000033</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>925.58060052290614</v>
       </c>
     </row>
-    <row r="21" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>76</v>
       </c>
@@ -8280,7 +8281,7 @@
         <f t="shared" si="35"/>
         <v>0.19132905736460035</v>
       </c>
-      <c r="S21" s="108">
+      <c r="S21" s="102">
         <f>S20/S22</f>
         <v>8.8592963827677812E-2</v>
       </c>
@@ -8316,48 +8317,48 @@
         <f>AC20/AC22</f>
         <v>1.2084685998494771</v>
       </c>
-      <c r="AD21" s="88">
+      <c r="AD21" s="86">
         <f>AD20/AD22</f>
         <v>1.4424126377860977</v>
       </c>
-      <c r="AE21" s="88">
+      <c r="AE21" s="86">
         <f t="shared" ref="AE21:AM21" si="39">AE20/AE22</f>
         <v>1.4520434861810663</v>
       </c>
-      <c r="AF21" s="88">
+      <c r="AF21" s="86">
         <f t="shared" si="39"/>
         <v>1.4024468935022389</v>
       </c>
-      <c r="AG21" s="88">
+      <c r="AG21" s="86">
         <f t="shared" si="39"/>
         <v>1.502052997467723</v>
       </c>
-      <c r="AH21" s="88">
+      <c r="AH21" s="86">
         <f t="shared" si="39"/>
         <v>1.2672043983336556</v>
       </c>
-      <c r="AI21" s="88">
+      <c r="AI21" s="86">
         <f t="shared" si="39"/>
         <v>0.83283871185187663</v>
       </c>
-      <c r="AJ21" s="88">
+      <c r="AJ21" s="86">
         <f t="shared" si="39"/>
         <v>1.6269817867999326</v>
       </c>
-      <c r="AK21" s="88">
+      <c r="AK21" s="86">
         <f t="shared" si="39"/>
         <v>1.9447361225546234</v>
       </c>
-      <c r="AL21" s="88">
+      <c r="AL21" s="86">
         <f t="shared" si="39"/>
         <v>2.3264599493216704</v>
       </c>
-      <c r="AM21" s="88">
+      <c r="AM21" s="86">
         <f t="shared" si="39"/>
         <v>2.7850256315914441</v>
       </c>
     </row>
-    <row r="22" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>4</v>
       </c>
@@ -8394,7 +8395,7 @@
       <c r="R22" s="62">
         <v>454.322</v>
       </c>
-      <c r="S22" s="105">
+      <c r="S22" s="99">
         <f>AVERAGE(N22:Q22)</f>
         <v>469.005</v>
       </c>
@@ -8466,7 +8467,7 @@
         <v>458.41500000000002</v>
       </c>
     </row>
-    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:71" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>82</v>
       </c>
@@ -8498,7 +8499,7 @@
         <f t="shared" ref="R24" si="42">R9/N9-1</f>
         <v>1.8345139408307398E-2</v>
       </c>
-      <c r="S24" s="109">
+      <c r="S24" s="103">
         <f>S9/N9-1</f>
         <v>-7.0387604397708969E-2</v>
       </c>
@@ -8574,10 +8575,10 @@
         <v>0.19896386607047023</v>
       </c>
       <c r="AN24" s="58"/>
-      <c r="AO24" s="84" t="s">
+      <c r="AO24" s="130" t="s">
         <v>824</v>
       </c>
-      <c r="AP24" s="85">
+      <c r="AP24" s="84">
         <v>-0.01</v>
       </c>
       <c r="AQ24" s="58"/>
@@ -8586,7 +8587,7 @@
       <c r="AT24" s="58"/>
       <c r="AU24" s="58"/>
     </row>
-    <row r="25" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B25" s="1" t="s">
         <v>83</v>
       </c>
@@ -8630,7 +8631,7 @@
         <f t="shared" ref="R25" si="49">R9/Q9-1</f>
         <v>0.16665567133190073</v>
       </c>
-      <c r="S25" s="103">
+      <c r="S25" s="97">
         <f>S9/Q9-1</f>
         <v>6.4999999999999947E-2</v>
       </c>
@@ -8688,14 +8689,14 @@
       <c r="AM25" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="AO25" s="86" t="s">
+      <c r="AO25" s="131" t="s">
         <v>825</v>
       </c>
-      <c r="AP25" s="87">
+      <c r="AP25" s="85">
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:71" s="60" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="60" t="s">
         <v>770</v>
       </c>
@@ -8727,7 +8728,7 @@
         <f t="shared" ref="R26" si="51">R6/N6-1</f>
         <v>7.2482622264895546E-3</v>
       </c>
-      <c r="S26" s="110">
+      <c r="S26" s="104">
         <f>S6/N6-1</f>
         <v>-1</v>
       </c>
@@ -8803,10 +8804,10 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="AN26" s="83"/>
-      <c r="AO26" s="86" t="s">
+      <c r="AO26" s="131" t="s">
         <v>822</v>
       </c>
-      <c r="AP26" s="87">
+      <c r="AP26" s="85">
         <v>0.01</v>
       </c>
       <c r="AQ26" s="83"/>
@@ -8815,7 +8816,7 @@
       <c r="AT26" s="83"/>
       <c r="AU26" s="83"/>
     </row>
-    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:71" s="51" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="51" t="s">
         <v>771</v>
       </c>
@@ -8859,7 +8860,7 @@
         <f t="shared" ref="R27" si="58">R6/Q6-1</f>
         <v>0.16210162208287926</v>
       </c>
-      <c r="S27" s="103">
+      <c r="S27" s="97">
         <f>S6/Q6-1</f>
         <v>-1</v>
       </c>
@@ -8918,10 +8919,10 @@
         <v>87</v>
       </c>
       <c r="AN27" s="54"/>
-      <c r="AO27" s="86" t="s">
+      <c r="AO27" s="131" t="s">
         <v>823</v>
       </c>
-      <c r="AP27" s="89">
+      <c r="AP27" s="87">
         <f>NPV(AP25,AC20:BS20)</f>
         <v>10679.774028732516</v>
       </c>
@@ -8931,25 +8932,25 @@
       <c r="AT27" s="54"/>
       <c r="AU27" s="54"/>
     </row>
-    <row r="28" spans="2:71" x14ac:dyDescent="0.2">
-      <c r="AO28" s="86" t="s">
+    <row r="28" spans="2:71" x14ac:dyDescent="0.15">
+      <c r="AO28" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="AP28" s="97">
+      <c r="AP28" s="91">
         <f>Main!C11</f>
         <v>180.2700000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:71" x14ac:dyDescent="0.2">
-      <c r="AO29" s="86" t="s">
+    <row r="29" spans="2:71" x14ac:dyDescent="0.15">
+      <c r="AO29" s="131" t="s">
         <v>827</v>
       </c>
-      <c r="AP29" s="90">
+      <c r="AP29" s="88">
         <f>AP27+AP28</f>
         <v>10860.044028732516</v>
       </c>
     </row>
-    <row r="30" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>84</v>
       </c>
@@ -8997,7 +8998,7 @@
         <f t="shared" ref="R30" si="61">R11/R9</f>
         <v>0.45354902041762896</v>
       </c>
-      <c r="S30" s="103">
+      <c r="S30" s="97">
         <f t="shared" si="60"/>
         <v>0.4846507649730542</v>
       </c>
@@ -9073,15 +9074,15 @@
         <f t="shared" si="64"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="AO30" s="91" t="s">
+      <c r="AO30" s="134" t="s">
         <v>828</v>
       </c>
-      <c r="AP30" s="92">
+      <c r="AP30" s="135">
         <f>AP29/Main!C7</f>
         <v>23.903847994885822</v>
       </c>
     </row>
-    <row r="31" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B31" s="1" t="s">
         <v>85</v>
       </c>
@@ -9129,7 +9130,7 @@
         <f t="shared" ref="R31" si="67">R14/R9</f>
         <v>7.5869583864132367E-2</v>
       </c>
-      <c r="S31" s="103">
+      <c r="S31" s="97">
         <f t="shared" si="66"/>
         <v>5.5693505622833969E-2</v>
       </c>
@@ -9205,15 +9206,15 @@
         <f t="shared" si="70"/>
         <v>3.9475178638201436E-2</v>
       </c>
-      <c r="AO31" s="93" t="s">
+      <c r="AO31" s="132" t="s">
         <v>829</v>
       </c>
-      <c r="AP31" s="94">
+      <c r="AP31" s="89">
         <f>Main!C6</f>
         <v>8.2899999999999991</v>
       </c>
     </row>
-    <row r="32" spans="2:71" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:71" x14ac:dyDescent="0.15">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -9261,7 +9262,7 @@
         <f t="shared" ref="R32" si="73">R20/R9</f>
         <v>5.5229575223094414E-2</v>
       </c>
-      <c r="S32" s="103">
+      <c r="S32" s="97">
         <f t="shared" si="72"/>
         <v>2.8919900616650899E-2</v>
       </c>
@@ -9337,15 +9338,15 @@
         <f t="shared" si="76"/>
         <v>3.247492706915444E-2</v>
       </c>
-      <c r="AO32" s="95" t="s">
+      <c r="AO32" s="133" t="s">
         <v>830</v>
       </c>
-      <c r="AP32" s="96">
+      <c r="AP32" s="90">
         <f>AP30/AP31-1</f>
         <v>1.8834557291780247</v>
       </c>
     </row>
-    <row r="33" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>74</v>
       </c>
@@ -9393,7 +9394,7 @@
         <f t="shared" ref="R33" si="79">R18/R17</f>
         <v>0.20212746629846307</v>
       </c>
-      <c r="S33" s="103">
+      <c r="S33" s="97">
         <f t="shared" si="78"/>
         <v>0.4</v>
       </c>
@@ -9469,14 +9470,14 @@
         <f t="shared" si="83"/>
         <v>0.15</v>
       </c>
-      <c r="AP33" s="88"/>
-    </row>
-    <row r="36" spans="2:42" x14ac:dyDescent="0.2">
+      <c r="AP33" s="86"/>
+    </row>
+    <row r="36" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B36" s="27" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="68" t="s">
         <v>794</v>
       </c>
@@ -9501,11 +9502,11 @@
       <c r="R37" s="32">
         <v>178</v>
       </c>
-      <c r="S37" s="106"/>
+      <c r="S37" s="100"/>
       <c r="AC37" s="74"/>
-      <c r="AL37" s="98"/>
-    </row>
-    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AL37" s="92"/>
+    </row>
+    <row r="38" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="68" t="s">
         <v>795</v>
       </c>
@@ -9530,11 +9531,11 @@
       <c r="R38" s="32">
         <v>18</v>
       </c>
-      <c r="S38" s="106"/>
+      <c r="S38" s="100"/>
       <c r="AC38" s="74"/>
       <c r="AL38" s="56"/>
     </row>
-    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="67" t="s">
         <v>796</v>
       </c>
@@ -9566,10 +9567,10 @@
         <f>R37+R38</f>
         <v>196</v>
       </c>
-      <c r="S39" s="106"/>
+      <c r="S39" s="100"/>
       <c r="AC39" s="74"/>
     </row>
-    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="68" t="s">
         <v>797</v>
       </c>
@@ -9594,10 +9595,10 @@
       <c r="R40" s="32">
         <v>162</v>
       </c>
-      <c r="S40" s="106"/>
+      <c r="S40" s="100"/>
       <c r="AC40" s="74"/>
     </row>
-    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B41" s="68" t="s">
         <v>798</v>
       </c>
@@ -9622,10 +9623,10 @@
       <c r="R41" s="32">
         <v>79</v>
       </c>
-      <c r="S41" s="106"/>
+      <c r="S41" s="100"/>
       <c r="AC41" s="74"/>
     </row>
-    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:42" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B42" s="67" t="s">
         <v>799</v>
       </c>
@@ -9657,10 +9658,10 @@
         <f>R40+R41</f>
         <v>241</v>
       </c>
-      <c r="S42" s="106"/>
+      <c r="S42" s="100"/>
       <c r="AC42" s="74"/>
     </row>
-    <row r="43" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B43" s="51" t="s">
         <v>802</v>
       </c>
@@ -9690,7 +9691,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B44" s="51" t="s">
         <v>801</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:42" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
         <v>800</v>
       </c>
@@ -9752,7 +9753,7 @@
         <f>R43+R44</f>
         <v>437</v>
       </c>
-      <c r="S45" s="111"/>
+      <c r="S45" s="105"/>
       <c r="Z45" s="2">
         <v>338</v>
       </c>
@@ -9764,7 +9765,7 @@
       </c>
       <c r="AC45" s="75"/>
     </row>
-    <row r="47" spans="2:42" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:42" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>814</v>
       </c>
@@ -9811,12 +9812,12 @@
         <v>13.192582938388627</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B49" s="27" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
         <v>6</v>
       </c>
@@ -9847,7 +9848,7 @@
       <c r="R50" s="21">
         <v>853.65200000000004</v>
       </c>
-      <c r="S50" s="111"/>
+      <c r="S50" s="105"/>
       <c r="AA50" s="21">
         <f>K50</f>
         <v>1517.3610000000001</v>
@@ -9875,7 +9876,7 @@
       <c r="AT50" s="58"/>
       <c r="AU50" s="58"/>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>89</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v>569.01400000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
         <v>90</v>
       </c>
@@ -9945,7 +9946,7 @@
       <c r="R52" s="21">
         <v>1080.42</v>
       </c>
-      <c r="S52" s="111"/>
+      <c r="S52" s="105"/>
       <c r="AA52" s="21">
         <f>K52</f>
         <v>895.97400000000005</v>
@@ -9973,7 +9974,7 @@
       <c r="AT52" s="58"/>
       <c r="AU52" s="58"/>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B53" s="1" t="s">
         <v>91</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>286.42200000000003</v>
       </c>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B54" s="1" t="s">
         <v>92</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>3336.299</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>93</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>607.226</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>94</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>448.36399999999998</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>95</v>
       </c>
@@ -10196,7 +10197,7 @@
         <v>506.22499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>96</v>
       </c>
@@ -10235,7 +10236,7 @@
         <v>17.812000000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>97</v>
       </c>
@@ -10274,7 +10275,7 @@
         <v>75.47</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>98</v>
       </c>
@@ -10331,13 +10332,13 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.15">
       <c r="K61" s="22"/>
       <c r="O61" s="22"/>
       <c r="P61" s="22"/>
       <c r="AB61" s="22"/>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B62" s="1" t="s">
         <v>99</v>
       </c>
@@ -10376,7 +10377,7 @@
         <v>613.30700000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B63" s="1" t="s">
         <v>100</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>460.16500000000002</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
         <v>101</v>
       </c>
@@ -10454,7 +10455,7 @@
         <v>164.29400000000001</v>
       </c>
     </row>
-    <row r="65" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
         <v>102</v>
       </c>
@@ -10493,7 +10494,7 @@
         <v>138.66399999999999</v>
       </c>
     </row>
-    <row r="66" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
         <v>103</v>
       </c>
@@ -10533,7 +10534,7 @@
         <v>73.745999999999995</v>
       </c>
     </row>
-    <row r="67" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
         <v>104</v>
       </c>
@@ -10590,7 +10591,7 @@
         <v>1450.1760000000002</v>
       </c>
     </row>
-    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
         <v>105</v>
       </c>
@@ -10621,7 +10622,7 @@
       <c r="R68" s="21">
         <v>673.38199999999995</v>
       </c>
-      <c r="S68" s="111"/>
+      <c r="S68" s="105"/>
       <c r="AA68" s="21">
         <f>K68</f>
         <v>1003.556</v>
@@ -10649,7 +10650,7 @@
       <c r="AT68" s="58"/>
       <c r="AU68" s="58"/>
     </row>
-    <row r="69" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B69" s="1" t="s">
         <v>102</v>
       </c>
@@ -10688,7 +10689,7 @@
         <v>703.11099999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
         <v>106</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="71" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
         <v>107</v>
       </c>
@@ -10784,12 +10785,12 @@
         <v>2902.402</v>
       </c>
     </row>
-    <row r="72" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:47" x14ac:dyDescent="0.15">
       <c r="O72" s="22"/>
       <c r="P72" s="22"/>
       <c r="AB72" s="22"/>
     </row>
-    <row r="73" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B73" s="1" t="s">
         <v>108</v>
       </c>
@@ -10828,7 +10829,7 @@
         <v>2088.9940000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B74" s="1" t="s">
         <v>109</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>4991.3960000000006</v>
       </c>
     </row>
-    <row r="76" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B76" s="1" t="s">
         <v>777</v>
       </c>
@@ -10926,7 +10927,7 @@
         <v>2088.9940000000006</v>
       </c>
     </row>
-    <row r="77" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B77" s="1" t="s">
         <v>776</v>
       </c>
@@ -10975,7 +10976,7 @@
         <v>4.4875962397745255</v>
       </c>
     </row>
-    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:47" s="58" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B79" s="58" t="s">
         <v>790</v>
       </c>
@@ -10995,14 +10996,14 @@
         <f>R52/N52-1</f>
         <v>0.28968415021367022</v>
       </c>
-      <c r="S79" s="111"/>
+      <c r="S79" s="105"/>
       <c r="AB79" s="70">
         <f>AB52/AA52-1</f>
         <v>-9.4382203054999447E-2</v>
       </c>
       <c r="AC79" s="75"/>
     </row>
-    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B80" s="32" t="s">
         <v>791</v>
       </c>
@@ -11034,10 +11035,10 @@
         <f>R52/Q52-1</f>
         <v>0.13204818974134369</v>
       </c>
-      <c r="S80" s="106"/>
+      <c r="S80" s="100"/>
       <c r="AC80" s="74"/>
     </row>
-    <row r="82" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B82" s="32" t="s">
         <v>6</v>
       </c>
@@ -11085,7 +11086,7 @@
         <f t="shared" ref="R82" si="106">R50</f>
         <v>853.65200000000004</v>
       </c>
-      <c r="S82" s="105"/>
+      <c r="S82" s="99"/>
       <c r="AA82" s="56">
         <f t="shared" ref="AA82:AB82" si="107">AA50</f>
         <v>1517.3610000000001</v>
@@ -11096,7 +11097,7 @@
       </c>
       <c r="AC82" s="74"/>
     </row>
-    <row r="83" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B83" s="32" t="s">
         <v>7</v>
       </c>
@@ -11144,7 +11145,7 @@
         <f t="shared" ref="R83" si="111">R68</f>
         <v>673.38199999999995</v>
       </c>
-      <c r="S83" s="105"/>
+      <c r="S83" s="99"/>
       <c r="AA83" s="56">
         <f t="shared" ref="AA83:AB83" si="112">AA68</f>
         <v>1003.556</v>
@@ -11155,7 +11156,7 @@
       </c>
       <c r="AC83" s="74"/>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
@@ -11203,7 +11204,7 @@
         <f t="shared" ref="R84" si="116">R82-R83</f>
         <v>180.2700000000001</v>
       </c>
-      <c r="S84" s="105"/>
+      <c r="S84" s="99"/>
       <c r="AA84" s="22">
         <f t="shared" ref="AA84:AB84" si="117">AA82-AA83</f>
         <v>513.80500000000006</v>
@@ -11213,7 +11214,7 @@
         <v>1006.922</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B86" s="1" t="s">
         <v>803</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>18.04</v>
       </c>
     </row>
-    <row r="87" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B87" s="32" t="s">
         <v>804</v>
       </c>
@@ -11322,7 +11323,7 @@
         <f t="shared" ref="R87" si="119">R86*R22</f>
         <v>2707.7591200000002</v>
       </c>
-      <c r="S87" s="106"/>
+      <c r="S87" s="100"/>
       <c r="W87" s="56">
         <f t="shared" ref="W87:Z87" si="120">W86*W22</f>
         <v>10982.426100000001</v>
@@ -11349,7 +11350,7 @@
       </c>
       <c r="AC87" s="74"/>
     </row>
-    <row r="88" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" s="56" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B88" s="56" t="s">
         <v>9</v>
       </c>
@@ -11389,7 +11390,7 @@
         <f t="shared" ref="R88" si="124">R87-R84</f>
         <v>2527.4891200000002</v>
       </c>
-      <c r="S88" s="105"/>
+      <c r="S88" s="99"/>
       <c r="AA88" s="56">
         <f t="shared" ref="AA88:AB88" si="125">AA87-AA84</f>
         <v>6243.0393199999999</v>
@@ -11400,8 +11401,8 @@
       </c>
       <c r="AC88" s="73"/>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A90" s="114">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A90" s="108">
         <f>AVERAGE(I90:AO90)</f>
         <v>3.5231412854391198</v>
       </c>
@@ -11453,8 +11454,8 @@
         <v>4.0199694972795506</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A91" s="114">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A91" s="108">
         <f>AVERAGE(I91:AO91)</f>
         <v>1.5390337712017861</v>
       </c>
@@ -11526,8 +11527,8 @@
         <v>1.5084039681926689</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A92" s="114">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A92" s="108">
         <f>AVERAGEIF(I92:AO92,"&gt;0")</f>
         <v>34.541820321250988</v>
       </c>
@@ -11599,8 +11600,8 @@
         <v>23.323035494084294</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A93" s="114">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A93" s="108">
         <f>AVERAGE(I93:AO93)</f>
         <v>1.3646109670692772</v>
       </c>
@@ -11652,8 +11653,8 @@
         <v>1.327539379264882</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A94" s="113">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A94" s="107">
         <f>AVERAGE(I94:AO94)</f>
         <v>-3.1517608624076487E-4</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>5.8865441622757919E-2</v>
       </c>
       <c r="AA94" s="25">
-        <f t="shared" ref="AA94:AB94" si="153">AA14/(AA60-AA67)</f>
+        <f t="shared" ref="AA94" si="153">AA14/(AA60-AA67)</f>
         <v>-0.16958205892044784</v>
       </c>
       <c r="AB94" s="25">
@@ -11707,11 +11708,11 @@
         <v>0.137322730584375</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.15">
       <c r="AA95" s="69"/>
       <c r="AB95" s="69"/>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.15">
       <c r="B96" s="1" t="s">
         <v>806</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>0.14276675535667846</v>
       </c>
     </row>
-    <row r="97" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:47" x14ac:dyDescent="0.15">
       <c r="K97" s="25"/>
       <c r="O97" s="25"/>
       <c r="P97" s="25"/>
@@ -11742,7 +11743,7 @@
       <c r="AA97" s="25"/>
       <c r="AB97" s="25"/>
     </row>
-    <row r="98" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:47" x14ac:dyDescent="0.15">
       <c r="K98" s="25"/>
       <c r="O98" s="25"/>
       <c r="P98" s="25"/>
@@ -11751,12 +11752,12 @@
       <c r="AA98" s="25"/>
       <c r="AB98" s="25"/>
     </row>
-    <row r="100" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B100" s="27" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B101" s="54" t="s">
         <v>815</v>
       </c>
@@ -11800,10 +11801,10 @@
         <f t="shared" ref="R101:R106" si="156">R3/Q3-1</f>
         <v>0.19557176875918336</v>
       </c>
-      <c r="S101" s="106"/>
+      <c r="S101" s="100"/>
       <c r="AC101" s="74"/>
     </row>
-    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B102" s="54" t="s">
         <v>816</v>
       </c>
@@ -11847,10 +11848,10 @@
         <f t="shared" si="156"/>
         <v>8.2459085790969722E-2</v>
       </c>
-      <c r="S102" s="106"/>
+      <c r="S102" s="100"/>
       <c r="AC102" s="74"/>
     </row>
-    <row r="103" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:47" s="32" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B103" s="54" t="s">
         <v>817</v>
       </c>
@@ -11894,10 +11895,10 @@
         <f t="shared" si="156"/>
         <v>0.14753539672212401</v>
       </c>
-      <c r="S103" s="106"/>
+      <c r="S103" s="100"/>
       <c r="AC103" s="74"/>
     </row>
-    <row r="104" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:47" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B104" s="58" t="s">
         <v>819</v>
       </c>
@@ -11941,7 +11942,7 @@
         <f t="shared" si="156"/>
         <v>0.16210162208287926</v>
       </c>
-      <c r="S104" s="111"/>
+      <c r="S104" s="105"/>
       <c r="AC104" s="75"/>
       <c r="AD104" s="58"/>
       <c r="AE104" s="58"/>
@@ -11962,7 +11963,7 @@
       <c r="AT104" s="58"/>
       <c r="AU104" s="58"/>
     </row>
-    <row r="105" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B105" s="32" t="s">
         <v>820</v>
       </c>
@@ -12007,7 +12008,7 @@
         <v>0.17728807535098623</v>
       </c>
     </row>
-    <row r="106" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B106" s="32" t="s">
         <v>821</v>
       </c>
@@ -12052,7 +12053,7 @@
         <v>0.84165477888730389</v>
       </c>
     </row>
-    <row r="108" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:47" x14ac:dyDescent="0.15">
       <c r="B108" s="1" t="s">
         <v>826</v>
       </c>
@@ -12100,7 +12101,7 @@
         <f t="shared" ref="R108" si="163">R12/R9</f>
         <v>0.37767943655349662</v>
       </c>
-      <c r="S108" s="103">
+      <c r="S108" s="97">
         <f t="shared" si="162"/>
         <v>0.42895725935022022</v>
       </c>
@@ -12208,16 +12209,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="255.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="5" max="5" width="255.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
         <v>113</v>
       </c>
@@ -12234,7 +12235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -12251,7 +12252,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12268,7 +12269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12285,7 +12286,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12302,7 +12303,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12319,7 +12320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12336,7 +12337,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12353,7 +12354,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12370,7 +12371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12387,7 +12388,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12421,7 +12422,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12438,7 +12439,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12455,7 +12456,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12472,7 +12473,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12489,7 +12490,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12506,7 +12507,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12523,7 +12524,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12540,7 +12541,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12557,7 +12558,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12574,7 +12575,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -12591,7 +12592,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -12608,7 +12609,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -12625,7 +12626,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -12659,7 +12660,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -12676,7 +12677,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -12693,7 +12694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -12710,7 +12711,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -12727,7 +12728,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12761,7 +12762,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12778,7 +12779,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12795,7 +12796,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12812,7 +12813,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12829,7 +12830,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12846,7 +12847,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12863,7 +12864,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12880,7 +12881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12897,7 +12898,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12914,7 +12915,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12931,7 +12932,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12948,7 +12949,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12965,7 +12966,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12982,7 +12983,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12999,7 +13000,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -13016,7 +13017,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -13033,7 +13034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -13050,7 +13051,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -13067,7 +13068,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -13084,7 +13085,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -13101,7 +13102,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13135,7 +13136,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13152,7 +13153,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13169,7 +13170,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13186,7 +13187,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13203,7 +13204,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13220,7 +13221,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13237,7 +13238,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13254,7 +13255,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13271,7 +13272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -13288,7 +13289,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -13322,7 +13323,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13339,7 +13340,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -13356,7 +13357,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13373,7 +13374,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>67</v>
 